--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="534">
   <si>
     <t>ID</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>PWM duty cycle percentage for Radiator Fans control.</t>
+  </si>
+  <si>
+    <t>0..100</t>
   </si>
   <si>
     <t>%</t>
@@ -5299,10 +5302,10 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="Z54" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:26" outlineLevel="1">
@@ -5326,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J55" s="6">
         <v>8</v>
@@ -5363,18 +5366,18 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -5427,10 +5430,10 @@
     </row>
     <row r="57" spans="1:26" outlineLevel="1">
       <c r="A57" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C57" s="5">
         <v>0</v>
@@ -5481,16 +5484,16 @@
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
@@ -5500,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J58" s="2">
         <v>64</v>
@@ -5533,22 +5536,22 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2">
@@ -5558,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J59" s="2">
         <v>64</v>
@@ -5591,22 +5594,22 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2">
@@ -5616,10 +5619,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J60" s="2">
         <v>64</v>
@@ -5649,22 +5652,22 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2">
@@ -5674,10 +5677,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J61" s="2">
         <v>64</v>
@@ -5707,22 +5710,22 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
@@ -5732,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J62" s="2">
         <v>64</v>
@@ -5765,22 +5768,22 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
@@ -5790,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J63" s="2">
         <v>64</v>
@@ -5823,16 +5826,16 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C64" s="2">
         <v>10</v>
@@ -5848,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2">
@@ -5885,10 +5888,10 @@
     </row>
     <row r="65" spans="1:26" outlineLevel="1">
       <c r="A65" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65" s="5">
         <v>10</v>
@@ -5904,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6">
@@ -5941,10 +5944,10 @@
     </row>
     <row r="66" spans="1:26" outlineLevel="1">
       <c r="A66" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C66" s="5">
         <v>10</v>
@@ -5960,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6">
@@ -5997,10 +6000,10 @@
     </row>
     <row r="67" spans="1:26" outlineLevel="1">
       <c r="A67" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C67" s="5">
         <v>10</v>
@@ -6016,10 +6019,10 @@
         <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
@@ -6055,10 +6058,10 @@
     </row>
     <row r="68" spans="1:26" outlineLevel="1">
       <c r="A68" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="5">
         <v>10</v>
@@ -6074,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6">
@@ -6110,15 +6113,15 @@
         <v>35</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:26" outlineLevel="1">
       <c r="A69" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="5">
         <v>10</v>
@@ -6134,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6">
@@ -6170,15 +6173,15 @@
         <v>35</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" s="2">
         <v>10</v>
@@ -6194,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -6233,10 +6236,10 @@
     </row>
     <row r="71" spans="1:26" outlineLevel="1">
       <c r="A71" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C71" s="5">
         <v>10</v>
@@ -6252,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J71" s="6">
         <v>1</v>
@@ -6291,10 +6294,10 @@
     </row>
     <row r="72" spans="1:26" outlineLevel="1">
       <c r="A72" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C72" s="5">
         <v>10</v>
@@ -6310,10 +6313,10 @@
         <v>2</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="73" spans="1:26" outlineLevel="1">
       <c r="A73" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C73" s="5">
         <v>10</v>
@@ -6368,10 +6371,10 @@
         <v>3</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J73" s="6">
         <v>1</v>
@@ -6407,10 +6410,10 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C74" s="2">
         <v>10</v>
@@ -6426,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -6465,10 +6468,10 @@
     </row>
     <row r="75" spans="1:26" outlineLevel="1">
       <c r="A75" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C75" s="5">
         <v>10</v>
@@ -6484,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J75" s="6">
         <v>1</v>
@@ -6523,10 +6526,10 @@
     </row>
     <row r="76" spans="1:26" outlineLevel="1">
       <c r="A76" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" s="5">
         <v>10</v>
@@ -6542,10 +6545,10 @@
         <v>2</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
@@ -6581,10 +6584,10 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2">
         <v>10</v>
@@ -6600,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J77" s="2">
         <v>16</v>
@@ -6643,10 +6646,10 @@
     </row>
     <row r="78" spans="1:26" outlineLevel="1">
       <c r="A78" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C78" s="5">
         <v>10</v>
@@ -6662,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J78" s="6">
         <v>16</v>
@@ -6705,10 +6708,10 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C79" s="2">
         <v>10</v>
@@ -6724,10 +6727,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J79" s="2">
         <v>16</v>
@@ -6767,10 +6770,10 @@
     </row>
     <row r="80" spans="1:26" outlineLevel="1">
       <c r="A80" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C80" s="5">
         <v>10</v>
@@ -6786,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I80" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="J80" s="6">
         <v>16</v>
@@ -6829,16 +6832,16 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
@@ -6848,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J81" s="2">
         <v>64</v>
@@ -6881,22 +6884,22 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
@@ -6906,10 +6909,10 @@
         <v>0</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J82" s="2">
         <v>64</v>
@@ -6939,22 +6942,22 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
@@ -6964,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J83" s="2">
         <v>64</v>
@@ -6997,22 +7000,22 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
@@ -7022,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J84" s="2">
         <v>64</v>
@@ -7055,22 +7058,22 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
@@ -7080,10 +7083,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J85" s="2">
         <v>64</v>
@@ -7113,22 +7116,22 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
@@ -7138,10 +7141,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J86" s="2">
         <v>64</v>
@@ -7171,16 +7174,16 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C87" s="2">
         <v>100</v>
@@ -7196,10 +7199,10 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J87" s="2">
         <v>8</v>
@@ -7233,16 +7236,16 @@
         <v>0</v>
       </c>
       <c r="Y87" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" outlineLevel="1">
       <c r="A88" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" s="5">
         <v>100</v>
@@ -7258,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J88" s="5">
         <v>8</v>
@@ -7295,16 +7298,16 @@
         <v>1</v>
       </c>
       <c r="Y88" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z88" s="5"/>
     </row>
     <row r="89" spans="1:26" outlineLevel="1">
       <c r="A89" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C89" s="5">
         <v>100</v>
@@ -7320,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J89" s="5">
         <v>8</v>
@@ -7357,16 +7360,16 @@
         <v>2</v>
       </c>
       <c r="Y89" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z89" s="5"/>
     </row>
     <row r="90" spans="1:26" outlineLevel="1">
       <c r="A90" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C90" s="5">
         <v>100</v>
@@ -7382,10 +7385,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J90" s="5">
         <v>8</v>
@@ -7419,16 +7422,16 @@
         <v>3</v>
       </c>
       <c r="Y90" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z90" s="5"/>
     </row>
     <row r="91" spans="1:26" outlineLevel="1">
       <c r="A91" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C91" s="5">
         <v>100</v>
@@ -7444,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J91" s="5">
         <v>8</v>
@@ -7481,16 +7484,16 @@
         <v>4</v>
       </c>
       <c r="Y91" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z91" s="5"/>
     </row>
     <row r="92" spans="1:26" outlineLevel="1">
       <c r="A92" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C92" s="5">
         <v>100</v>
@@ -7506,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J92" s="5">
         <v>8</v>
@@ -7543,16 +7546,16 @@
         <v>5</v>
       </c>
       <c r="Y92" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z92" s="5"/>
     </row>
     <row r="93" spans="1:26" outlineLevel="1">
       <c r="A93" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C93" s="5">
         <v>100</v>
@@ -7568,10 +7571,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J93" s="5">
         <v>8</v>
@@ -7605,16 +7608,16 @@
         <v>255</v>
       </c>
       <c r="Y93" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z93" s="5"/>
     </row>
     <row r="94" spans="1:26" outlineLevel="1">
       <c r="A94" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C94" s="5">
         <v>100</v>
@@ -7630,10 +7633,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J94" s="6">
         <v>8</v>
@@ -7667,16 +7670,16 @@
         <v>0</v>
       </c>
       <c r="Y94" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z94" s="6"/>
     </row>
     <row r="95" spans="1:26" outlineLevel="1">
       <c r="A95" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C95" s="5">
         <v>100</v>
@@ -7692,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J95" s="5">
         <v>8</v>
@@ -7729,16 +7732,16 @@
         <v>1</v>
       </c>
       <c r="Y95" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z95" s="5"/>
     </row>
     <row r="96" spans="1:26" outlineLevel="1">
       <c r="A96" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C96" s="5">
         <v>100</v>
@@ -7754,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J96" s="5">
         <v>8</v>
@@ -7791,16 +7794,16 @@
         <v>2</v>
       </c>
       <c r="Y96" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z96" s="5"/>
     </row>
     <row r="97" spans="1:26" outlineLevel="1">
       <c r="A97" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C97" s="5">
         <v>100</v>
@@ -7816,10 +7819,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J97" s="5">
         <v>8</v>
@@ -7853,16 +7856,16 @@
         <v>3</v>
       </c>
       <c r="Y97" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z97" s="5"/>
     </row>
     <row r="98" spans="1:26" outlineLevel="1">
       <c r="A98" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C98" s="5">
         <v>100</v>
@@ -7878,10 +7881,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J98" s="5">
         <v>8</v>
@@ -7915,16 +7918,16 @@
         <v>4</v>
       </c>
       <c r="Y98" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z98" s="5"/>
     </row>
     <row r="99" spans="1:26" outlineLevel="1">
       <c r="A99" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C99" s="5">
         <v>100</v>
@@ -7940,10 +7943,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J99" s="5">
         <v>8</v>
@@ -7977,16 +7980,16 @@
         <v>5</v>
       </c>
       <c r="Y99" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z99" s="5"/>
     </row>
     <row r="100" spans="1:26" outlineLevel="1">
       <c r="A100" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C100" s="5">
         <v>100</v>
@@ -8002,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J100" s="5">
         <v>8</v>
@@ -8039,16 +8042,16 @@
         <v>6</v>
       </c>
       <c r="Y100" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z100" s="5"/>
     </row>
     <row r="101" spans="1:26" outlineLevel="1">
       <c r="A101" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C101" s="5">
         <v>100</v>
@@ -8064,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J101" s="6">
         <v>8</v>
@@ -8101,16 +8104,16 @@
         <v>0</v>
       </c>
       <c r="Y101" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z101" s="6"/>
     </row>
     <row r="102" spans="1:26" outlineLevel="1">
       <c r="A102" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C102" s="5">
         <v>100</v>
@@ -8126,10 +8129,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J102" s="5">
         <v>8</v>
@@ -8163,16 +8166,16 @@
         <v>1</v>
       </c>
       <c r="Y102" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z102" s="5"/>
     </row>
     <row r="103" spans="1:26" outlineLevel="1">
       <c r="A103" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C103" s="5">
         <v>100</v>
@@ -8188,10 +8191,10 @@
         <v>0</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J103" s="5">
         <v>8</v>
@@ -8225,16 +8228,16 @@
         <v>2</v>
       </c>
       <c r="Y103" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z103" s="5"/>
     </row>
     <row r="104" spans="1:26" outlineLevel="1">
       <c r="A104" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C104" s="5">
         <v>100</v>
@@ -8250,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J104" s="5">
         <v>8</v>
@@ -8287,16 +8290,16 @@
         <v>3</v>
       </c>
       <c r="Y104" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z104" s="5"/>
     </row>
     <row r="105" spans="1:26" outlineLevel="1">
       <c r="A105" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C105" s="5">
         <v>100</v>
@@ -8312,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J105" s="5">
         <v>8</v>
@@ -8349,16 +8352,16 @@
         <v>4</v>
       </c>
       <c r="Y105" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z105" s="5"/>
     </row>
     <row r="106" spans="1:26" outlineLevel="1">
       <c r="A106" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="5">
         <v>100</v>
@@ -8374,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J106" s="5">
         <v>8</v>
@@ -8411,16 +8414,16 @@
         <v>5</v>
       </c>
       <c r="Y106" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z106" s="5"/>
     </row>
     <row r="107" spans="1:26" outlineLevel="1">
       <c r="A107" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C107" s="5">
         <v>100</v>
@@ -8436,10 +8439,10 @@
         <v>0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J107" s="5">
         <v>8</v>
@@ -8473,16 +8476,16 @@
         <v>6</v>
       </c>
       <c r="Y107" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z107" s="5"/>
     </row>
     <row r="108" spans="1:26" outlineLevel="1">
       <c r="A108" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C108" s="5">
         <v>100</v>
@@ -8498,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J108" s="6">
         <v>8</v>
@@ -8535,16 +8538,16 @@
         <v>0</v>
       </c>
       <c r="Y108" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z108" s="6"/>
     </row>
     <row r="109" spans="1:26" outlineLevel="1">
       <c r="A109" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" s="5">
         <v>100</v>
@@ -8560,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J109" s="5">
         <v>8</v>
@@ -8597,16 +8600,16 @@
         <v>1</v>
       </c>
       <c r="Y109" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z109" s="5"/>
     </row>
     <row r="110" spans="1:26" outlineLevel="1">
       <c r="A110" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C110" s="5">
         <v>100</v>
@@ -8622,10 +8625,10 @@
         <v>0</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J110" s="5">
         <v>8</v>
@@ -8659,16 +8662,16 @@
         <v>2</v>
       </c>
       <c r="Y110" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z110" s="5"/>
     </row>
     <row r="111" spans="1:26" outlineLevel="1">
       <c r="A111" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C111" s="5">
         <v>100</v>
@@ -8684,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J111" s="5">
         <v>8</v>
@@ -8721,16 +8724,16 @@
         <v>3</v>
       </c>
       <c r="Y111" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z111" s="5"/>
     </row>
     <row r="112" spans="1:26" outlineLevel="1">
       <c r="A112" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" s="5">
         <v>100</v>
@@ -8746,10 +8749,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J112" s="5">
         <v>8</v>
@@ -8783,16 +8786,16 @@
         <v>4</v>
       </c>
       <c r="Y112" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z112" s="5"/>
     </row>
     <row r="113" spans="1:26" outlineLevel="1">
       <c r="A113" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" s="5">
         <v>100</v>
@@ -8808,10 +8811,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J113" s="5">
         <v>8</v>
@@ -8845,16 +8848,16 @@
         <v>5</v>
       </c>
       <c r="Y113" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z113" s="5"/>
     </row>
     <row r="114" spans="1:26" outlineLevel="1">
       <c r="A114" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C114" s="5">
         <v>100</v>
@@ -8870,10 +8873,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J114" s="5">
         <v>8</v>
@@ -8907,16 +8910,16 @@
         <v>6</v>
       </c>
       <c r="Y114" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z114" s="5"/>
     </row>
     <row r="115" spans="1:26" outlineLevel="1">
       <c r="A115" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C115" s="5">
         <v>100</v>
@@ -8932,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J115" s="6">
         <v>8</v>
@@ -8969,16 +8972,16 @@
         <v>0</v>
       </c>
       <c r="Y115" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z115" s="6"/>
     </row>
     <row r="116" spans="1:26" outlineLevel="1">
       <c r="A116" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C116" s="5">
         <v>100</v>
@@ -8994,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J116" s="5">
         <v>8</v>
@@ -9031,16 +9034,16 @@
         <v>1</v>
       </c>
       <c r="Y116" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z116" s="5"/>
     </row>
     <row r="117" spans="1:26" outlineLevel="1">
       <c r="A117" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C117" s="5">
         <v>100</v>
@@ -9056,10 +9059,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J117" s="5">
         <v>8</v>
@@ -9093,16 +9096,16 @@
         <v>2</v>
       </c>
       <c r="Y117" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z117" s="5"/>
     </row>
     <row r="118" spans="1:26" outlineLevel="1">
       <c r="A118" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="5">
         <v>100</v>
@@ -9118,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J118" s="5">
         <v>8</v>
@@ -9155,16 +9158,16 @@
         <v>3</v>
       </c>
       <c r="Y118" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z118" s="5"/>
     </row>
     <row r="119" spans="1:26" outlineLevel="1">
       <c r="A119" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C119" s="5">
         <v>100</v>
@@ -9180,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J119" s="5">
         <v>8</v>
@@ -9217,16 +9220,16 @@
         <v>4</v>
       </c>
       <c r="Y119" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z119" s="5"/>
     </row>
     <row r="120" spans="1:26" outlineLevel="1">
       <c r="A120" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C120" s="5">
         <v>100</v>
@@ -9242,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J120" s="5">
         <v>8</v>
@@ -9279,16 +9282,16 @@
         <v>5</v>
       </c>
       <c r="Y120" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z120" s="5"/>
     </row>
     <row r="121" spans="1:26" outlineLevel="1">
       <c r="A121" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C121" s="5">
         <v>100</v>
@@ -9304,10 +9307,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J121" s="5">
         <v>8</v>
@@ -9341,16 +9344,16 @@
         <v>6</v>
       </c>
       <c r="Y121" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z121" s="5"/>
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C122" s="2">
         <v>100</v>
@@ -9366,10 +9369,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J122" s="2">
         <v>1</v>
@@ -9405,10 +9408,10 @@
     </row>
     <row r="123" spans="1:26" outlineLevel="1">
       <c r="A123" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C123" s="5">
         <v>100</v>
@@ -9424,10 +9427,10 @@
         <v>1</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J123" s="6">
         <v>1</v>
@@ -9463,10 +9466,10 @@
     </row>
     <row r="124" spans="1:26" outlineLevel="1">
       <c r="A124" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C124" s="5">
         <v>100</v>
@@ -9482,10 +9485,10 @@
         <v>2</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J124" s="6">
         <v>1</v>
@@ -9521,10 +9524,10 @@
     </row>
     <row r="125" spans="1:26" outlineLevel="1">
       <c r="A125" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125" s="5">
         <v>100</v>
@@ -9540,10 +9543,10 @@
         <v>3</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J125" s="6">
         <v>1</v>
@@ -9579,10 +9582,10 @@
     </row>
     <row r="126" spans="1:26" outlineLevel="1">
       <c r="A126" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C126" s="5">
         <v>100</v>
@@ -9598,10 +9601,10 @@
         <v>4</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J126" s="6">
         <v>1</v>
@@ -9637,10 +9640,10 @@
     </row>
     <row r="127" spans="1:26" outlineLevel="1">
       <c r="A127" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C127" s="5">
         <v>100</v>
@@ -9656,10 +9659,10 @@
         <v>5</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J127" s="6">
         <v>1</v>
@@ -9695,10 +9698,10 @@
     </row>
     <row r="128" spans="1:26" outlineLevel="1">
       <c r="A128" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" s="5">
         <v>100</v>
@@ -9714,10 +9717,10 @@
         <v>6</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J128" s="6">
         <v>1</v>
@@ -9753,10 +9756,10 @@
     </row>
     <row r="129" spans="1:26" outlineLevel="1">
       <c r="A129" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C129" s="5">
         <v>100</v>
@@ -9772,10 +9775,10 @@
         <v>7</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J129" s="6">
         <v>1</v>
@@ -9811,10 +9814,10 @@
     </row>
     <row r="130" spans="1:26" outlineLevel="1">
       <c r="A130" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C130" s="5">
         <v>100</v>
@@ -9830,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J130" s="6">
         <v>1</v>
@@ -9869,10 +9872,10 @@
     </row>
     <row r="131" spans="1:26" outlineLevel="1">
       <c r="A131" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C131" s="5">
         <v>100</v>
@@ -9888,10 +9891,10 @@
         <v>1</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J131" s="6">
         <v>1</v>
@@ -9927,10 +9930,10 @@
     </row>
     <row r="132" spans="1:26" outlineLevel="1">
       <c r="A132" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C132" s="5">
         <v>100</v>
@@ -9946,10 +9949,10 @@
         <v>2</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J132" s="6">
         <v>1</v>
@@ -9985,10 +9988,10 @@
     </row>
     <row r="133" spans="1:26" outlineLevel="1">
       <c r="A133" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C133" s="5">
         <v>100</v>
@@ -10004,10 +10007,10 @@
         <v>3</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J133" s="6">
         <v>1</v>
@@ -10043,10 +10046,10 @@
     </row>
     <row r="134" spans="1:26" outlineLevel="1">
       <c r="A134" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C134" s="5">
         <v>100</v>
@@ -10062,10 +10065,10 @@
         <v>4</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J134" s="6">
         <v>1</v>
@@ -10101,10 +10104,10 @@
     </row>
     <row r="135" spans="1:26" outlineLevel="1">
       <c r="A135" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C135" s="5">
         <v>100</v>
@@ -10120,10 +10123,10 @@
         <v>5</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J135" s="6">
         <v>1</v>
@@ -10159,10 +10162,10 @@
     </row>
     <row r="136" spans="1:26" outlineLevel="1">
       <c r="A136" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C136" s="5">
         <v>100</v>
@@ -10178,10 +10181,10 @@
         <v>6</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J136" s="6">
         <v>1</v>
@@ -10217,10 +10220,10 @@
     </row>
     <row r="137" spans="1:26" outlineLevel="1">
       <c r="A137" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C137" s="5">
         <v>100</v>
@@ -10236,10 +10239,10 @@
         <v>7</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J137" s="6">
         <v>1</v>
@@ -10275,10 +10278,10 @@
     </row>
     <row r="138" spans="1:26" outlineLevel="1">
       <c r="A138" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C138" s="5">
         <v>100</v>
@@ -10294,10 +10297,10 @@
         <v>0</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J138" s="6">
         <v>1</v>
@@ -10333,10 +10336,10 @@
     </row>
     <row r="139" spans="1:26" outlineLevel="1">
       <c r="A139" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139" s="5">
         <v>100</v>
@@ -10352,10 +10355,10 @@
         <v>1</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J139" s="6">
         <v>1</v>
@@ -10391,10 +10394,10 @@
     </row>
     <row r="140" spans="1:26" outlineLevel="1">
       <c r="A140" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C140" s="5">
         <v>100</v>
@@ -10410,10 +10413,10 @@
         <v>2</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J140" s="6">
         <v>1</v>
@@ -10449,10 +10452,10 @@
     </row>
     <row r="141" spans="1:26" outlineLevel="1">
       <c r="A141" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C141" s="5">
         <v>100</v>
@@ -10468,10 +10471,10 @@
         <v>3</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J141" s="6">
         <v>1</v>
@@ -10507,10 +10510,10 @@
     </row>
     <row r="142" spans="1:26" outlineLevel="1">
       <c r="A142" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C142" s="5">
         <v>100</v>
@@ -10526,10 +10529,10 @@
         <v>4</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J142" s="6">
         <v>1</v>
@@ -10565,10 +10568,10 @@
     </row>
     <row r="143" spans="1:26" outlineLevel="1">
       <c r="A143" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C143" s="5">
         <v>100</v>
@@ -10584,10 +10587,10 @@
         <v>5</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J143" s="6">
         <v>1</v>
@@ -10623,10 +10626,10 @@
     </row>
     <row r="144" spans="1:26" outlineLevel="1">
       <c r="A144" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C144" s="5">
         <v>100</v>
@@ -10642,10 +10645,10 @@
         <v>6</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J144" s="6">
         <v>1</v>
@@ -10681,10 +10684,10 @@
     </row>
     <row r="145" spans="1:26" outlineLevel="1">
       <c r="A145" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C145" s="5">
         <v>100</v>
@@ -10700,10 +10703,10 @@
         <v>7</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J145" s="6">
         <v>1</v>
@@ -10739,10 +10742,10 @@
     </row>
     <row r="146" spans="1:26" outlineLevel="1">
       <c r="A146" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C146" s="5">
         <v>100</v>
@@ -10758,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J146" s="6">
         <v>1</v>
@@ -10797,10 +10800,10 @@
     </row>
     <row r="147" spans="1:26" outlineLevel="1">
       <c r="A147" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C147" s="5">
         <v>100</v>
@@ -10816,10 +10819,10 @@
         <v>1</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J147" s="6">
         <v>1</v>
@@ -10855,10 +10858,10 @@
     </row>
     <row r="148" spans="1:26">
       <c r="A148" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C148" s="2">
         <v>500</v>
@@ -10874,10 +10877,10 @@
         <v>0</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J148" s="2">
         <v>1</v>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="149" spans="1:26" outlineLevel="1">
       <c r="A149" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C149" s="5">
         <v>500</v>
@@ -10932,10 +10935,10 @@
         <v>1</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J149" s="6">
         <v>1</v>
@@ -10971,10 +10974,10 @@
     </row>
     <row r="150" spans="1:26">
       <c r="A150" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C150" s="2">
         <v>100</v>
@@ -10990,10 +10993,10 @@
         <v>0</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J150" s="2">
         <v>16</v>
@@ -11025,18 +11028,18 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z150" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:26" outlineLevel="1">
       <c r="A151" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C151" s="5">
         <v>100</v>
@@ -11052,10 +11055,10 @@
         <v>0</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J151" s="6">
         <v>16</v>
@@ -11087,18 +11090,18 @@
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
       <c r="Y151" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z151" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="152" spans="1:26" outlineLevel="1">
       <c r="A152" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C152" s="5">
         <v>100</v>
@@ -11114,10 +11117,10 @@
         <v>0</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J152" s="6">
         <v>16</v>
@@ -11149,18 +11152,18 @@
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
       <c r="Y152" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z152" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="153" spans="1:26" outlineLevel="1">
       <c r="A153" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C153" s="5">
         <v>100</v>
@@ -11176,10 +11179,10 @@
         <v>0</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J153" s="6">
         <v>16</v>
@@ -11211,18 +11214,18 @@
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
       <c r="Y153" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z153" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:26">
       <c r="A154" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C154" s="2">
         <v>100</v>
@@ -11238,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J154" s="2">
         <v>16</v>
@@ -11273,18 +11276,18 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z154" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:26" outlineLevel="1">
       <c r="A155" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C155" s="5">
         <v>100</v>
@@ -11300,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="H155" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I155" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="J155" s="6">
         <v>16</v>
@@ -11335,18 +11338,18 @@
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
       <c r="Y155" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z155" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="1:26" outlineLevel="1">
       <c r="A156" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C156" s="5">
         <v>100</v>
@@ -11362,10 +11365,10 @@
         <v>0</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J156" s="6">
         <v>16</v>
@@ -11397,18 +11400,18 @@
       <c r="W156" s="6"/>
       <c r="X156" s="6"/>
       <c r="Y156" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z156" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C157" s="2">
         <v>500</v>
@@ -11424,10 +11427,10 @@
         <v>0</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J157" s="2">
         <v>4</v>
@@ -11459,24 +11462,24 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z157" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:26">
       <c r="A158" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
@@ -11486,10 +11489,10 @@
         <v>0</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J158" s="2">
         <v>8</v>
@@ -11527,16 +11530,16 @@
     </row>
     <row r="159" spans="1:26" outlineLevel="1">
       <c r="A159" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C159" s="5">
         <v>0</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="6">
@@ -11546,10 +11549,10 @@
         <v>0</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J159" s="6">
         <v>8</v>
@@ -11587,16 +11590,16 @@
     </row>
     <row r="160" spans="1:26" outlineLevel="1">
       <c r="A160" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C160" s="5">
         <v>0</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="6">
@@ -11606,10 +11609,10 @@
         <v>0</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J160" s="6">
         <v>8</v>
@@ -11641,24 +11644,24 @@
       </c>
       <c r="X160" s="6"/>
       <c r="Y160" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z160" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:26" outlineLevel="1">
       <c r="A161" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C161" s="5">
         <v>0</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="6">
@@ -11668,10 +11671,10 @@
         <v>0</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J161" s="6">
         <v>8</v>
@@ -11703,24 +11706,24 @@
       </c>
       <c r="X161" s="6"/>
       <c r="Y161" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z161" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:26" outlineLevel="1">
       <c r="A162" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C162" s="5">
         <v>0</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="6">
@@ -11730,10 +11733,10 @@
         <v>0</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J162" s="6">
         <v>8</v>
@@ -11771,16 +11774,16 @@
     </row>
     <row r="163" spans="1:26" outlineLevel="1">
       <c r="A163" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C163" s="5">
         <v>0</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="6">
@@ -11790,10 +11793,10 @@
         <v>0</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J163" s="6">
         <v>8</v>
@@ -11831,16 +11834,16 @@
     </row>
     <row r="164" spans="1:26" outlineLevel="1">
       <c r="A164" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C164" s="5">
         <v>0</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="6">
@@ -11850,10 +11853,10 @@
         <v>0</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J164" s="6">
         <v>8</v>
@@ -11885,24 +11888,24 @@
       </c>
       <c r="X164" s="6"/>
       <c r="Y164" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z164" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:26" outlineLevel="1">
       <c r="A165" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C165" s="5">
         <v>0</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="6">
@@ -11912,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J165" s="6">
         <v>8</v>
@@ -11947,24 +11950,24 @@
       </c>
       <c r="X165" s="6"/>
       <c r="Y165" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z165" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:26">
       <c r="A166" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2">
@@ -11974,10 +11977,10 @@
         <v>0</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J166" s="2">
         <v>8</v>
@@ -12015,16 +12018,16 @@
     </row>
     <row r="167" spans="1:26" outlineLevel="1">
       <c r="A167" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C167" s="5">
         <v>0</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="6">
@@ -12034,10 +12037,10 @@
         <v>0</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J167" s="6">
         <v>8</v>
@@ -12075,16 +12078,16 @@
     </row>
     <row r="168" spans="1:26" outlineLevel="1">
       <c r="A168" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C168" s="5">
         <v>0</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="6">
@@ -12094,10 +12097,10 @@
         <v>0</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J168" s="6">
         <v>8</v>
@@ -12129,24 +12132,24 @@
       </c>
       <c r="X168" s="6"/>
       <c r="Y168" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z168" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:26" outlineLevel="1">
       <c r="A169" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C169" s="5">
         <v>0</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="6">
@@ -12156,10 +12159,10 @@
         <v>0</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J169" s="6">
         <v>8</v>
@@ -12191,24 +12194,24 @@
       </c>
       <c r="X169" s="6"/>
       <c r="Y169" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z169" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:26" outlineLevel="1">
       <c r="A170" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C170" s="5">
         <v>0</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="6">
@@ -12218,10 +12221,10 @@
         <v>0</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J170" s="6">
         <v>8</v>
@@ -12259,16 +12262,16 @@
     </row>
     <row r="171" spans="1:26" outlineLevel="1">
       <c r="A171" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C171" s="5">
         <v>0</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="6">
@@ -12278,10 +12281,10 @@
         <v>0</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J171" s="6">
         <v>8</v>
@@ -12319,16 +12322,16 @@
     </row>
     <row r="172" spans="1:26" outlineLevel="1">
       <c r="A172" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C172" s="5">
         <v>0</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="6">
@@ -12338,10 +12341,10 @@
         <v>0</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J172" s="6">
         <v>8</v>
@@ -12373,24 +12376,24 @@
       </c>
       <c r="X172" s="6"/>
       <c r="Y172" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z172" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="173" spans="1:26" outlineLevel="1">
       <c r="A173" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C173" s="5">
         <v>0</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6">
@@ -12400,10 +12403,10 @@
         <v>0</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J173" s="6">
         <v>8</v>
@@ -12435,24 +12438,24 @@
       </c>
       <c r="X173" s="6"/>
       <c r="Y173" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z173" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="174" spans="1:26">
       <c r="A174" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2">
@@ -12462,10 +12465,10 @@
         <v>0</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J174" s="2">
         <v>8</v>
@@ -12503,16 +12506,16 @@
     </row>
     <row r="175" spans="1:26" outlineLevel="1">
       <c r="A175" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C175" s="5">
         <v>0</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="6">
@@ -12522,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J175" s="6">
         <v>8</v>
@@ -12563,16 +12566,16 @@
     </row>
     <row r="176" spans="1:26" outlineLevel="1">
       <c r="A176" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C176" s="5">
         <v>0</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="6">
@@ -12582,10 +12585,10 @@
         <v>0</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J176" s="6">
         <v>8</v>
@@ -12623,16 +12626,16 @@
     </row>
     <row r="177" spans="1:26">
       <c r="A177" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2">
@@ -12642,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J177" s="2">
         <v>8</v>
@@ -12683,16 +12686,16 @@
     </row>
     <row r="178" spans="1:26" outlineLevel="1">
       <c r="A178" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C178" s="5">
         <v>0</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E178" s="5"/>
       <c r="F178" s="6">
@@ -12702,10 +12705,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J178" s="6">
         <v>8</v>
@@ -12743,16 +12746,16 @@
     </row>
     <row r="179" spans="1:26" outlineLevel="1">
       <c r="A179" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C179" s="5">
         <v>0</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="6">
@@ -12762,10 +12765,10 @@
         <v>0</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J179" s="6">
         <v>8</v>
@@ -12803,16 +12806,16 @@
     </row>
     <row r="180" spans="1:26">
       <c r="A180" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2">
@@ -12822,10 +12825,10 @@
         <v>0</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J180" s="2">
         <v>8</v>
@@ -12863,16 +12866,16 @@
     </row>
     <row r="181" spans="1:26" outlineLevel="1">
       <c r="A181" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C181" s="5">
         <v>0</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6">
@@ -12882,10 +12885,10 @@
         <v>0</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J181" s="6">
         <v>8</v>
@@ -12923,16 +12926,16 @@
     </row>
     <row r="182" spans="1:26" outlineLevel="1">
       <c r="A182" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C182" s="5">
         <v>0</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="6">
@@ -12942,10 +12945,10 @@
         <v>0</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J182" s="6">
         <v>8</v>
@@ -12983,16 +12986,16 @@
     </row>
     <row r="183" spans="1:26">
       <c r="A183" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
@@ -13002,10 +13005,10 @@
         <v>0</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J183" s="2">
         <v>8</v>
@@ -13043,16 +13046,16 @@
     </row>
     <row r="184" spans="1:26" outlineLevel="1">
       <c r="A184" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C184" s="5">
         <v>0</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="6">
@@ -13062,10 +13065,10 @@
         <v>0</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J184" s="6">
         <v>8</v>
@@ -13103,16 +13106,16 @@
     </row>
     <row r="185" spans="1:26" outlineLevel="1">
       <c r="A185" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C185" s="5">
         <v>0</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E185" s="5"/>
       <c r="F185" s="6">
@@ -13122,10 +13125,10 @@
         <v>0</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J185" s="6">
         <v>8</v>
@@ -13163,16 +13166,16 @@
     </row>
     <row r="186" spans="1:26">
       <c r="A186" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2">
@@ -13182,10 +13185,10 @@
         <v>0</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J186" s="2">
         <v>8</v>
@@ -13223,16 +13226,16 @@
     </row>
     <row r="187" spans="1:26" outlineLevel="1">
       <c r="A187" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C187" s="5">
         <v>0</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E187" s="5"/>
       <c r="F187" s="6">
@@ -13242,10 +13245,10 @@
         <v>0</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J187" s="6">
         <v>8</v>
@@ -13283,16 +13286,16 @@
     </row>
     <row r="188" spans="1:26" outlineLevel="1">
       <c r="A188" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C188" s="5">
         <v>0</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E188" s="5"/>
       <c r="F188" s="6">
@@ -13302,10 +13305,10 @@
         <v>0</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J188" s="6">
         <v>8</v>
@@ -13343,16 +13346,16 @@
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2">
@@ -13362,10 +13365,10 @@
         <v>0</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J189" s="2">
         <v>8</v>
@@ -13401,16 +13404,16 @@
     </row>
     <row r="190" spans="1:26" outlineLevel="1">
       <c r="A190" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C190" s="5">
         <v>0</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="6">
@@ -13420,10 +13423,10 @@
         <v>0</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J190" s="6">
         <v>8</v>
@@ -13459,16 +13462,16 @@
     </row>
     <row r="191" spans="1:26" outlineLevel="1">
       <c r="A191" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C191" s="5">
         <v>0</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E191" s="5"/>
       <c r="F191" s="6">
@@ -13478,10 +13481,10 @@
         <v>0</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J191" s="6">
         <v>8</v>
@@ -13517,10 +13520,10 @@
     </row>
     <row r="192" spans="1:26">
       <c r="A192" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C192" s="2">
         <v>2000</v>
@@ -13536,10 +13539,10 @@
         <v>0</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J192" s="2">
         <v>10</v>
@@ -13571,18 +13574,18 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z192" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:26" outlineLevel="1">
       <c r="A193" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C193" s="5">
         <v>2000</v>
@@ -13598,10 +13601,10 @@
         <v>2</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J193" s="6">
         <v>10</v>
@@ -13633,18 +13636,18 @@
       <c r="W193" s="6"/>
       <c r="X193" s="6"/>
       <c r="Y193" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z193" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194" spans="1:26" outlineLevel="1">
       <c r="A194" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C194" s="5">
         <v>2000</v>
@@ -13660,10 +13663,10 @@
         <v>4</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J194" s="6">
         <v>10</v>
@@ -13695,18 +13698,18 @@
       <c r="W194" s="6"/>
       <c r="X194" s="6"/>
       <c r="Y194" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z194" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" spans="1:26" outlineLevel="1">
       <c r="A195" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C195" s="5">
         <v>2000</v>
@@ -13722,10 +13725,10 @@
         <v>6</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J195" s="6">
         <v>10</v>
@@ -13757,18 +13760,18 @@
       <c r="W195" s="6"/>
       <c r="X195" s="6"/>
       <c r="Y195" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z195" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="196" spans="1:26" outlineLevel="1">
       <c r="A196" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C196" s="5">
         <v>2000</v>
@@ -13784,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J196" s="6">
         <v>10</v>
@@ -13819,18 +13822,18 @@
       <c r="W196" s="6"/>
       <c r="X196" s="6"/>
       <c r="Y196" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z196" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="1:26" outlineLevel="1">
       <c r="A197" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C197" s="5">
         <v>2000</v>
@@ -13846,10 +13849,10 @@
         <v>2</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J197" s="6">
         <v>10</v>
@@ -13881,18 +13884,18 @@
       <c r="W197" s="6"/>
       <c r="X197" s="6"/>
       <c r="Y197" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z197" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="198" spans="1:26">
       <c r="A198" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C198" s="2">
         <v>2000</v>
@@ -13908,10 +13911,10 @@
         <v>0</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J198" s="2">
         <v>10</v>
@@ -13943,18 +13946,18 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z198" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" spans="1:26" outlineLevel="1">
       <c r="A199" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C199" s="5">
         <v>2000</v>
@@ -13970,10 +13973,10 @@
         <v>2</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J199" s="6">
         <v>10</v>
@@ -14005,18 +14008,18 @@
       <c r="W199" s="6"/>
       <c r="X199" s="6"/>
       <c r="Y199" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z199" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:26" outlineLevel="1">
       <c r="A200" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C200" s="5">
         <v>2000</v>
@@ -14032,10 +14035,10 @@
         <v>4</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J200" s="6">
         <v>10</v>
@@ -14067,18 +14070,18 @@
       <c r="W200" s="6"/>
       <c r="X200" s="6"/>
       <c r="Y200" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z200" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="201" spans="1:26" outlineLevel="1">
       <c r="A201" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C201" s="5">
         <v>2000</v>
@@ -14094,10 +14097,10 @@
         <v>6</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J201" s="6">
         <v>10</v>
@@ -14129,18 +14132,18 @@
       <c r="W201" s="6"/>
       <c r="X201" s="6"/>
       <c r="Y201" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z201" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="202" spans="1:26" outlineLevel="1">
       <c r="A202" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C202" s="5">
         <v>2000</v>
@@ -14156,10 +14159,10 @@
         <v>0</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J202" s="6">
         <v>10</v>
@@ -14191,18 +14194,18 @@
       <c r="W202" s="6"/>
       <c r="X202" s="6"/>
       <c r="Y202" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z202" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="203" spans="1:26" outlineLevel="1">
       <c r="A203" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C203" s="5">
         <v>2000</v>
@@ -14218,10 +14221,10 @@
         <v>2</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J203" s="6">
         <v>10</v>
@@ -14253,18 +14256,18 @@
       <c r="W203" s="6"/>
       <c r="X203" s="6"/>
       <c r="Y203" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z203" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" spans="1:26">
       <c r="A204" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C204" s="2">
         <v>500</v>
@@ -14280,10 +14283,10 @@
         <v>0</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J204" s="2">
         <v>10</v>
@@ -14315,18 +14318,18 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
       <c r="Y204" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z204" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="205" spans="1:26" outlineLevel="1">
       <c r="A205" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C205" s="5">
         <v>500</v>
@@ -14342,10 +14345,10 @@
         <v>2</v>
       </c>
       <c r="H205" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J205" s="6">
         <v>10</v>
@@ -14377,18 +14380,18 @@
       <c r="W205" s="6"/>
       <c r="X205" s="6"/>
       <c r="Y205" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z205" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="206" spans="1:26" outlineLevel="1">
       <c r="A206" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C206" s="5">
         <v>500</v>
@@ -14404,10 +14407,10 @@
         <v>4</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J206" s="6">
         <v>10</v>
@@ -14439,18 +14442,18 @@
       <c r="W206" s="6"/>
       <c r="X206" s="6"/>
       <c r="Y206" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z206" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:26" outlineLevel="1">
       <c r="A207" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C207" s="5">
         <v>500</v>
@@ -14466,10 +14469,10 @@
         <v>6</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J207" s="6">
         <v>10</v>
@@ -14501,18 +14504,18 @@
       <c r="W207" s="6"/>
       <c r="X207" s="6"/>
       <c r="Y207" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z207" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:26" outlineLevel="1">
       <c r="A208" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C208" s="5">
         <v>500</v>
@@ -14528,10 +14531,10 @@
         <v>0</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J208" s="6">
         <v>10</v>
@@ -14563,18 +14566,18 @@
       <c r="W208" s="6"/>
       <c r="X208" s="6"/>
       <c r="Y208" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z208" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:26" outlineLevel="1">
       <c r="A209" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C209" s="5">
         <v>500</v>
@@ -14590,10 +14593,10 @@
         <v>2</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J209" s="6">
         <v>10</v>
@@ -14625,18 +14628,18 @@
       <c r="W209" s="6"/>
       <c r="X209" s="6"/>
       <c r="Y209" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z209" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:26">
       <c r="A210" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C210" s="2">
         <v>500</v>
@@ -14652,10 +14655,10 @@
         <v>0</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J210" s="2">
         <v>10</v>
@@ -14687,18 +14690,18 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
       <c r="Y210" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z210" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:26" outlineLevel="1">
       <c r="A211" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C211" s="5">
         <v>500</v>
@@ -14714,10 +14717,10 @@
         <v>2</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J211" s="6">
         <v>10</v>
@@ -14749,18 +14752,18 @@
       <c r="W211" s="6"/>
       <c r="X211" s="6"/>
       <c r="Y211" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z211" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="212" spans="1:26" outlineLevel="1">
       <c r="A212" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C212" s="5">
         <v>500</v>
@@ -14776,10 +14779,10 @@
         <v>4</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J212" s="6">
         <v>10</v>
@@ -14811,18 +14814,18 @@
       <c r="W212" s="6"/>
       <c r="X212" s="6"/>
       <c r="Y212" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z212" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="213" spans="1:26" outlineLevel="1">
       <c r="A213" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C213" s="5">
         <v>500</v>
@@ -14838,10 +14841,10 @@
         <v>6</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J213" s="6">
         <v>10</v>
@@ -14873,18 +14876,18 @@
       <c r="W213" s="6"/>
       <c r="X213" s="6"/>
       <c r="Y213" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z213" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="214" spans="1:26" outlineLevel="1">
       <c r="A214" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C214" s="5">
         <v>500</v>
@@ -14900,10 +14903,10 @@
         <v>0</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J214" s="6">
         <v>10</v>
@@ -14935,18 +14938,18 @@
       <c r="W214" s="6"/>
       <c r="X214" s="6"/>
       <c r="Y214" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z214" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="215" spans="1:26" outlineLevel="1">
       <c r="A215" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C215" s="5">
         <v>500</v>
@@ -14962,10 +14965,10 @@
         <v>2</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J215" s="6">
         <v>10</v>
@@ -14997,24 +15000,24 @@
       <c r="W215" s="6"/>
       <c r="X215" s="6"/>
       <c r="Y215" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z215" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="216" spans="1:26">
       <c r="A216" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
@@ -15024,10 +15027,10 @@
         <v>0</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J216" s="2">
         <v>16</v>
@@ -15067,16 +15070,16 @@
     </row>
     <row r="217" spans="1:26" outlineLevel="1">
       <c r="A217" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C217" s="5">
         <v>0</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E217" s="5"/>
       <c r="F217" s="6">
@@ -15086,10 +15089,10 @@
         <v>0</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J217" s="6">
         <v>16</v>
@@ -15129,16 +15132,16 @@
     </row>
     <row r="218" spans="1:26" outlineLevel="1">
       <c r="A218" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C218" s="5">
         <v>0</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="6">
@@ -15148,10 +15151,10 @@
         <v>0</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J218" s="6">
         <v>16</v>
@@ -15191,16 +15194,16 @@
     </row>
     <row r="219" spans="1:26" outlineLevel="1">
       <c r="A219" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C219" s="5">
         <v>0</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="6">
@@ -15210,10 +15213,10 @@
         <v>0</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J219" s="6">
         <v>16</v>
@@ -15253,16 +15256,16 @@
     </row>
     <row r="220" spans="1:26">
       <c r="A220" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
@@ -15272,10 +15275,10 @@
         <v>0</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J220" s="2">
         <v>15</v>
@@ -15305,22 +15308,22 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Z220" s="2"/>
     </row>
     <row r="221" spans="1:26" outlineLevel="1">
       <c r="A221" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C221" s="5">
         <v>0</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="6">
@@ -15330,10 +15333,10 @@
         <v>7</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J221" s="6">
         <v>1</v>
@@ -15364,15 +15367,15 @@
       <c r="X221" s="6"/>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:26">
       <c r="A222" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C222" s="2">
         <v>200</v>
@@ -15388,10 +15391,10 @@
         <v>0</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J222" s="2">
         <v>5</v>
@@ -15419,16 +15422,16 @@
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
       <c r="Y222" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:26" outlineLevel="1">
       <c r="A223" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C223" s="5">
         <v>200</v>
@@ -15444,10 +15447,10 @@
         <v>5</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J223" s="6">
         <v>5</v>
@@ -15475,16 +15478,16 @@
       <c r="W223" s="6"/>
       <c r="X223" s="6"/>
       <c r="Y223" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z223" s="6"/>
     </row>
     <row r="224" spans="1:26" outlineLevel="1">
       <c r="A224" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C224" s="5">
         <v>200</v>
@@ -15500,10 +15503,10 @@
         <v>2</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J224" s="6">
         <v>5</v>
@@ -15531,16 +15534,16 @@
       <c r="W224" s="6"/>
       <c r="X224" s="6"/>
       <c r="Y224" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z224" s="6"/>
     </row>
     <row r="225" spans="1:26" outlineLevel="1">
       <c r="A225" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C225" s="5">
         <v>200</v>
@@ -15556,10 +15559,10 @@
         <v>7</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J225" s="6">
         <v>5</v>
@@ -15587,16 +15590,16 @@
       <c r="W225" s="6"/>
       <c r="X225" s="6"/>
       <c r="Y225" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z225" s="6"/>
     </row>
     <row r="226" spans="1:26" outlineLevel="1">
       <c r="A226" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C226" s="5">
         <v>200</v>
@@ -15612,10 +15615,10 @@
         <v>4</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J226" s="6">
         <v>5</v>
@@ -15643,16 +15646,16 @@
       <c r="W226" s="6"/>
       <c r="X226" s="6"/>
       <c r="Y226" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z226" s="6"/>
     </row>
     <row r="227" spans="1:26" outlineLevel="1">
       <c r="A227" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C227" s="5">
         <v>200</v>
@@ -15668,10 +15671,10 @@
         <v>1</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J227" s="6">
         <v>5</v>
@@ -15699,16 +15702,16 @@
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
       <c r="Y227" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z227" s="6"/>
     </row>
     <row r="228" spans="1:26" outlineLevel="1">
       <c r="A228" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C228" s="5">
         <v>200</v>
@@ -15724,10 +15727,10 @@
         <v>6</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J228" s="6">
         <v>5</v>
@@ -15755,16 +15758,16 @@
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
       <c r="Y228" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z228" s="6"/>
     </row>
     <row r="229" spans="1:26" outlineLevel="1">
       <c r="A229" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C229" s="5">
         <v>200</v>
@@ -15780,10 +15783,10 @@
         <v>3</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J229" s="6">
         <v>5</v>
@@ -15811,16 +15814,16 @@
       <c r="W229" s="6"/>
       <c r="X229" s="6"/>
       <c r="Y229" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z229" s="6"/>
     </row>
     <row r="230" spans="1:26" outlineLevel="1">
       <c r="A230" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C230" s="5">
         <v>200</v>
@@ -15836,10 +15839,10 @@
         <v>0</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J230" s="6">
         <v>5</v>
@@ -15867,16 +15870,16 @@
       <c r="W230" s="6"/>
       <c r="X230" s="6"/>
       <c r="Y230" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z230" s="6"/>
     </row>
     <row r="231" spans="1:26" outlineLevel="1">
       <c r="A231" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C231" s="5">
         <v>200</v>
@@ -15892,10 +15895,10 @@
         <v>5</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J231" s="6">
         <v>5</v>
@@ -15923,16 +15926,16 @@
       <c r="W231" s="6"/>
       <c r="X231" s="6"/>
       <c r="Y231" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z231" s="6"/>
     </row>
     <row r="232" spans="1:26" outlineLevel="1">
       <c r="A232" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C232" s="5">
         <v>200</v>
@@ -15948,10 +15951,10 @@
         <v>2</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J232" s="6">
         <v>5</v>
@@ -15979,16 +15982,16 @@
       <c r="W232" s="6"/>
       <c r="X232" s="6"/>
       <c r="Y232" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z232" s="6"/>
     </row>
     <row r="233" spans="1:26" outlineLevel="1">
       <c r="A233" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C233" s="5">
         <v>200</v>
@@ -16004,10 +16007,10 @@
         <v>7</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J233" s="6">
         <v>5</v>
@@ -16035,16 +16038,16 @@
       <c r="W233" s="6"/>
       <c r="X233" s="6"/>
       <c r="Y233" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z233" s="6"/>
     </row>
     <row r="234" spans="1:26">
       <c r="A234" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C234" s="2">
         <v>200</v>
@@ -16060,10 +16063,10 @@
         <v>0</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J234" s="2">
         <v>4</v>
@@ -16093,16 +16096,16 @@
         <v>0</v>
       </c>
       <c r="Y234" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z234" s="2"/>
     </row>
     <row r="235" spans="1:26" outlineLevel="1">
       <c r="A235" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C235" s="5">
         <v>200</v>
@@ -16118,10 +16121,10 @@
         <v>0</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J235" s="5">
         <v>4</v>
@@ -16151,16 +16154,16 @@
         <v>1</v>
       </c>
       <c r="Y235" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z235" s="5"/>
     </row>
     <row r="236" spans="1:26" outlineLevel="1">
       <c r="A236" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C236" s="5">
         <v>200</v>
@@ -16176,10 +16179,10 @@
         <v>0</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J236" s="5">
         <v>4</v>
@@ -16209,16 +16212,16 @@
         <v>2</v>
       </c>
       <c r="Y236" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z236" s="5"/>
     </row>
     <row r="237" spans="1:26" outlineLevel="1">
       <c r="A237" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C237" s="5">
         <v>200</v>
@@ -16234,10 +16237,10 @@
         <v>0</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J237" s="5">
         <v>4</v>
@@ -16267,16 +16270,16 @@
         <v>3</v>
       </c>
       <c r="Y237" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z237" s="5"/>
     </row>
     <row r="238" spans="1:26" outlineLevel="1">
       <c r="A238" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C238" s="5">
         <v>200</v>
@@ -16292,10 +16295,10 @@
         <v>0</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J238" s="5">
         <v>4</v>
@@ -16325,16 +16328,16 @@
         <v>4</v>
       </c>
       <c r="Y238" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z238" s="5"/>
     </row>
     <row r="239" spans="1:26" outlineLevel="1">
       <c r="A239" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239" s="5">
         <v>200</v>
@@ -16350,10 +16353,10 @@
         <v>0</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J239" s="5">
         <v>4</v>
@@ -16383,16 +16386,16 @@
         <v>5</v>
       </c>
       <c r="Y239" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z239" s="5"/>
     </row>
     <row r="240" spans="1:26" outlineLevel="1">
       <c r="A240" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C240" s="5">
         <v>200</v>
@@ -16408,10 +16411,10 @@
         <v>0</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J240" s="5">
         <v>4</v>
@@ -16441,16 +16444,16 @@
         <v>6</v>
       </c>
       <c r="Y240" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z240" s="5"/>
     </row>
     <row r="241" spans="1:26" outlineLevel="1">
       <c r="A241" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C241" s="5">
         <v>200</v>
@@ -16466,10 +16469,10 @@
         <v>0</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J241" s="5">
         <v>4</v>
@@ -16499,16 +16502,16 @@
         <v>7</v>
       </c>
       <c r="Y241" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z241" s="5"/>
     </row>
     <row r="242" spans="1:26" outlineLevel="1">
       <c r="A242" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C242" s="5">
         <v>200</v>
@@ -16524,10 +16527,10 @@
         <v>0</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="J242" s="5">
         <v>4</v>
@@ -16557,16 +16560,16 @@
         <v>8</v>
       </c>
       <c r="Y242" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z242" s="5"/>
     </row>
     <row r="243" spans="1:26" outlineLevel="1">
       <c r="A243" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C243" s="5">
         <v>200</v>
@@ -16582,10 +16585,10 @@
         <v>4</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J243" s="6">
         <v>4</v>
@@ -16615,16 +16618,16 @@
         <v>0</v>
       </c>
       <c r="Y243" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z243" s="6"/>
     </row>
     <row r="244" spans="1:26" outlineLevel="1">
       <c r="A244" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C244" s="5">
         <v>200</v>
@@ -16640,10 +16643,10 @@
         <v>4</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J244" s="5">
         <v>4</v>
@@ -16673,16 +16676,16 @@
         <v>1</v>
       </c>
       <c r="Y244" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z244" s="5"/>
     </row>
     <row r="245" spans="1:26" outlineLevel="1">
       <c r="A245" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C245" s="5">
         <v>200</v>
@@ -16698,10 +16701,10 @@
         <v>4</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J245" s="5">
         <v>4</v>
@@ -16731,16 +16734,16 @@
         <v>2</v>
       </c>
       <c r="Y245" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z245" s="5"/>
     </row>
     <row r="246" spans="1:26" outlineLevel="1">
       <c r="A246" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C246" s="5">
         <v>200</v>
@@ -16756,10 +16759,10 @@
         <v>4</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J246" s="5">
         <v>4</v>
@@ -16789,16 +16792,16 @@
         <v>3</v>
       </c>
       <c r="Y246" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z246" s="5"/>
     </row>
     <row r="247" spans="1:26" outlineLevel="1">
       <c r="A247" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C247" s="5">
         <v>200</v>
@@ -16814,10 +16817,10 @@
         <v>4</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J247" s="5">
         <v>4</v>
@@ -16847,16 +16850,16 @@
         <v>4</v>
       </c>
       <c r="Y247" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z247" s="5"/>
     </row>
     <row r="248" spans="1:26" outlineLevel="1">
       <c r="A248" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C248" s="5">
         <v>200</v>
@@ -16872,10 +16875,10 @@
         <v>4</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J248" s="5">
         <v>4</v>
@@ -16905,16 +16908,16 @@
         <v>5</v>
       </c>
       <c r="Y248" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z248" s="5"/>
     </row>
     <row r="249" spans="1:26" outlineLevel="1">
       <c r="A249" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C249" s="5">
         <v>200</v>
@@ -16930,10 +16933,10 @@
         <v>4</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J249" s="5">
         <v>4</v>
@@ -16963,16 +16966,16 @@
         <v>6</v>
       </c>
       <c r="Y249" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z249" s="5"/>
     </row>
     <row r="250" spans="1:26" outlineLevel="1">
       <c r="A250" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C250" s="5">
         <v>200</v>
@@ -16988,10 +16991,10 @@
         <v>4</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J250" s="5">
         <v>4</v>
@@ -17021,16 +17024,16 @@
         <v>7</v>
       </c>
       <c r="Y250" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z250" s="5"/>
     </row>
     <row r="251" spans="1:26" outlineLevel="1">
       <c r="A251" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C251" s="5">
         <v>200</v>
@@ -17046,10 +17049,10 @@
         <v>4</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J251" s="5">
         <v>4</v>
@@ -17079,16 +17082,16 @@
         <v>8</v>
       </c>
       <c r="Y251" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z251" s="5"/>
     </row>
     <row r="252" spans="1:26" outlineLevel="1">
       <c r="A252" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C252" s="5">
         <v>200</v>
@@ -17104,10 +17107,10 @@
         <v>0</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J252" s="6">
         <v>4</v>
@@ -17137,16 +17140,16 @@
         <v>0</v>
       </c>
       <c r="Y252" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z252" s="6"/>
     </row>
     <row r="253" spans="1:26" outlineLevel="1">
       <c r="A253" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C253" s="5">
         <v>200</v>
@@ -17162,10 +17165,10 @@
         <v>0</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J253" s="5">
         <v>4</v>
@@ -17195,16 +17198,16 @@
         <v>1</v>
       </c>
       <c r="Y253" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z253" s="5"/>
     </row>
     <row r="254" spans="1:26" outlineLevel="1">
       <c r="A254" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C254" s="5">
         <v>200</v>
@@ -17220,10 +17223,10 @@
         <v>0</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J254" s="5">
         <v>4</v>
@@ -17253,16 +17256,16 @@
         <v>2</v>
       </c>
       <c r="Y254" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z254" s="5"/>
     </row>
     <row r="255" spans="1:26" outlineLevel="1">
       <c r="A255" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C255" s="5">
         <v>200</v>
@@ -17278,10 +17281,10 @@
         <v>0</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J255" s="5">
         <v>4</v>
@@ -17311,16 +17314,16 @@
         <v>3</v>
       </c>
       <c r="Y255" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z255" s="5"/>
     </row>
     <row r="256" spans="1:26" outlineLevel="1">
       <c r="A256" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C256" s="5">
         <v>200</v>
@@ -17336,10 +17339,10 @@
         <v>0</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J256" s="5">
         <v>4</v>
@@ -17369,16 +17372,16 @@
         <v>4</v>
       </c>
       <c r="Y256" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z256" s="5"/>
     </row>
     <row r="257" spans="1:26" outlineLevel="1">
       <c r="A257" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C257" s="5">
         <v>200</v>
@@ -17394,10 +17397,10 @@
         <v>0</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J257" s="5">
         <v>4</v>
@@ -17427,16 +17430,16 @@
         <v>5</v>
       </c>
       <c r="Y257" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z257" s="5"/>
     </row>
     <row r="258" spans="1:26" outlineLevel="1">
       <c r="A258" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C258" s="5">
         <v>200</v>
@@ -17452,10 +17455,10 @@
         <v>0</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J258" s="5">
         <v>4</v>
@@ -17485,16 +17488,16 @@
         <v>6</v>
       </c>
       <c r="Y258" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z258" s="5"/>
     </row>
     <row r="259" spans="1:26" outlineLevel="1">
       <c r="A259" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C259" s="5">
         <v>200</v>
@@ -17510,10 +17513,10 @@
         <v>0</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J259" s="5">
         <v>4</v>
@@ -17543,16 +17546,16 @@
         <v>7</v>
       </c>
       <c r="Y259" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z259" s="5"/>
     </row>
     <row r="260" spans="1:26" outlineLevel="1">
       <c r="A260" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C260" s="5">
         <v>200</v>
@@ -17568,10 +17571,10 @@
         <v>0</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J260" s="5">
         <v>4</v>
@@ -17601,16 +17604,16 @@
         <v>8</v>
       </c>
       <c r="Y260" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z260" s="5"/>
     </row>
     <row r="261" spans="1:26" outlineLevel="1">
       <c r="A261" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C261" s="5">
         <v>200</v>
@@ -17626,10 +17629,10 @@
         <v>4</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J261" s="6">
         <v>4</v>
@@ -17659,16 +17662,16 @@
         <v>0</v>
       </c>
       <c r="Y261" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z261" s="6"/>
     </row>
     <row r="262" spans="1:26" outlineLevel="1">
       <c r="A262" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C262" s="5">
         <v>200</v>
@@ -17684,10 +17687,10 @@
         <v>4</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J262" s="5">
         <v>4</v>
@@ -17717,16 +17720,16 @@
         <v>1</v>
       </c>
       <c r="Y262" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z262" s="5"/>
     </row>
     <row r="263" spans="1:26" outlineLevel="1">
       <c r="A263" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C263" s="5">
         <v>200</v>
@@ -17742,10 +17745,10 @@
         <v>4</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J263" s="5">
         <v>4</v>
@@ -17775,16 +17778,16 @@
         <v>2</v>
       </c>
       <c r="Y263" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Z263" s="5"/>
     </row>
     <row r="264" spans="1:26" outlineLevel="1">
       <c r="A264" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C264" s="5">
         <v>200</v>
@@ -17800,10 +17803,10 @@
         <v>4</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J264" s="5">
         <v>4</v>
@@ -17833,16 +17836,16 @@
         <v>3</v>
       </c>
       <c r="Y264" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z264" s="5"/>
     </row>
     <row r="265" spans="1:26" outlineLevel="1">
       <c r="A265" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C265" s="5">
         <v>200</v>
@@ -17858,10 +17861,10 @@
         <v>4</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J265" s="5">
         <v>4</v>
@@ -17891,16 +17894,16 @@
         <v>4</v>
       </c>
       <c r="Y265" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Z265" s="5"/>
     </row>
     <row r="266" spans="1:26" outlineLevel="1">
       <c r="A266" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C266" s="5">
         <v>200</v>
@@ -17916,10 +17919,10 @@
         <v>4</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J266" s="5">
         <v>4</v>
@@ -17949,16 +17952,16 @@
         <v>5</v>
       </c>
       <c r="Y266" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z266" s="5"/>
     </row>
     <row r="267" spans="1:26" outlineLevel="1">
       <c r="A267" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C267" s="5">
         <v>200</v>
@@ -17974,10 +17977,10 @@
         <v>4</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J267" s="5">
         <v>4</v>
@@ -18007,16 +18010,16 @@
         <v>6</v>
       </c>
       <c r="Y267" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z267" s="5"/>
     </row>
     <row r="268" spans="1:26" outlineLevel="1">
       <c r="A268" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C268" s="5">
         <v>200</v>
@@ -18032,10 +18035,10 @@
         <v>4</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J268" s="5">
         <v>4</v>
@@ -18065,16 +18068,16 @@
         <v>7</v>
       </c>
       <c r="Y268" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z268" s="5"/>
     </row>
     <row r="269" spans="1:26" outlineLevel="1">
       <c r="A269" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C269" s="5">
         <v>200</v>
@@ -18090,10 +18093,10 @@
         <v>4</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J269" s="5">
         <v>4</v>
@@ -18123,7 +18126,7 @@
         <v>8</v>
       </c>
       <c r="Y269" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z269" s="5"/>
     </row>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -10,14 +10,14 @@
     <sheet name="K-Matrix " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'K-Matrix '!$A$1:$AR$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'K-Matrix '!$A$1:$AR$325</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3734" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="732">
   <si>
     <t>ID</t>
   </si>
@@ -2110,7 +2110,7 @@
     <t>The red channel of LED #1 of the dashboard</t>
   </si>
   <si>
-    <t>0..31</t>
+    <t>0..7</t>
   </si>
   <si>
     <t>LED_1_green</t>
@@ -2177,63 +2177,6 @@
   </si>
   <si>
     <t>The blue channel of LED #4 of the dashboard</t>
-  </si>
-  <si>
-    <t>6C7h</t>
-  </si>
-  <si>
-    <t>DSPACE_dashLedsColorLiteral</t>
-  </si>
-  <si>
-    <t>LED_1_color</t>
-  </si>
-  <si>
-    <t>Dashboard LED #1 color control</t>
-  </si>
-  <si>
-    <t>BLACK</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>CYAN</t>
-  </si>
-  <si>
-    <t>LIME</t>
-  </si>
-  <si>
-    <t>MAGENTA</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>WHITE</t>
-  </si>
-  <si>
-    <t>LED_2_color</t>
-  </si>
-  <si>
-    <t>Dashboard LED #2 color control</t>
-  </si>
-  <si>
-    <t>LED_3_color</t>
-  </si>
-  <si>
-    <t>Dashboard LED #3 color control</t>
-  </si>
-  <si>
-    <t>LED_4_color</t>
-  </si>
-  <si>
-    <t>Dashboard LED #4 color control</t>
   </si>
   <si>
     <t>708h</t>
@@ -2658,7 +2601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB360"/>
+  <dimension ref="A1:AB324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21672,7 +21615,7 @@
         <v>696</v>
       </c>
       <c r="J310" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K310" s="2">
         <v>0</v>
@@ -21721,7 +21664,7 @@
         <v>1</v>
       </c>
       <c r="G311" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H311" s="6" t="s">
         <v>698</v>
@@ -21730,7 +21673,7 @@
         <v>699</v>
       </c>
       <c r="J311" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K311" s="6">
         <v>0</v>
@@ -21776,10 +21719,10 @@
       </c>
       <c r="E312" s="5"/>
       <c r="F312" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G312" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H312" s="6" t="s">
         <v>700</v>
@@ -21788,7 +21731,7 @@
         <v>701</v>
       </c>
       <c r="J312" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K312" s="6">
         <v>0</v>
@@ -21837,7 +21780,7 @@
         <v>2</v>
       </c>
       <c r="G313" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H313" s="6" t="s">
         <v>702</v>
@@ -21846,7 +21789,7 @@
         <v>703</v>
       </c>
       <c r="J313" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K313" s="6">
         <v>0</v>
@@ -21892,7 +21835,7 @@
       </c>
       <c r="E314" s="5"/>
       <c r="F314" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G314" s="6">
         <v>4</v>
@@ -21904,7 +21847,7 @@
         <v>705</v>
       </c>
       <c r="J314" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K314" s="6">
         <v>0</v>
@@ -21950,10 +21893,10 @@
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G315" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H315" s="6" t="s">
         <v>706</v>
@@ -21962,7 +21905,7 @@
         <v>707</v>
       </c>
       <c r="J315" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K315" s="6">
         <v>0</v>
@@ -22008,10 +21951,10 @@
       </c>
       <c r="E316" s="5"/>
       <c r="F316" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G316" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H316" s="6" t="s">
         <v>708</v>
@@ -22020,7 +21963,7 @@
         <v>709</v>
       </c>
       <c r="J316" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K316" s="6">
         <v>0</v>
@@ -22066,10 +22009,10 @@
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="6">
+        <v>3</v>
+      </c>
+      <c r="G317" s="6">
         <v>5</v>
-      </c>
-      <c r="G317" s="6">
-        <v>3</v>
       </c>
       <c r="H317" s="6" t="s">
         <v>710</v>
@@ -22078,7 +22021,7 @@
         <v>711</v>
       </c>
       <c r="J317" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K317" s="6">
         <v>0</v>
@@ -22124,7 +22067,7 @@
       </c>
       <c r="E318" s="5"/>
       <c r="F318" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G318" s="6">
         <v>0</v>
@@ -22136,7 +22079,7 @@
         <v>713</v>
       </c>
       <c r="J318" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K318" s="6">
         <v>0</v>
@@ -22182,10 +22125,10 @@
       </c>
       <c r="E319" s="5"/>
       <c r="F319" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G319" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H319" s="6" t="s">
         <v>714</v>
@@ -22194,7 +22137,7 @@
         <v>715</v>
       </c>
       <c r="J319" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K319" s="6">
         <v>0</v>
@@ -22240,10 +22183,10 @@
       </c>
       <c r="E320" s="5"/>
       <c r="F320" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G320" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H320" s="6" t="s">
         <v>716</v>
@@ -22252,7 +22195,7 @@
         <v>717</v>
       </c>
       <c r="J320" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K320" s="6">
         <v>0</v>
@@ -22298,10 +22241,10 @@
       </c>
       <c r="E321" s="5"/>
       <c r="F321" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G321" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H321" s="6" t="s">
         <v>718</v>
@@ -22310,7 +22253,7 @@
         <v>719</v>
       </c>
       <c r="J321" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K321" s="6">
         <v>0</v>
@@ -22349,10 +22292,10 @@
         <v>721</v>
       </c>
       <c r="C322" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="E322" s="2"/>
       <c r="F322" s="2">
@@ -22364,11 +22307,9 @@
       <c r="H322" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="I322" s="2" t="s">
-        <v>723</v>
-      </c>
+      <c r="I322" s="2"/>
       <c r="J322" s="2">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="K322" s="2">
         <v>0</v>
@@ -22379,9 +22320,7 @@
       <c r="M322" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N322" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N322" s="4"/>
       <c r="O322" s="2"/>
       <c r="P322" s="4"/>
       <c r="Q322" s="2"/>
@@ -22392,2293 +22331,137 @@
       <c r="V322" s="4"/>
       <c r="W322" s="2"/>
       <c r="X322" s="4"/>
-      <c r="Y322" s="2"/>
-      <c r="Z322" s="2">
-        <v>0</v>
-      </c>
+      <c r="Y322" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z322" s="2"/>
       <c r="AA322" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB322" s="2"/>
+    </row>
+    <row r="323" spans="1:28">
+      <c r="A323" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="AB322" s="2"/>
-    </row>
-    <row r="323" spans="1:28" outlineLevel="1">
-      <c r="A323" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C323" s="5">
-        <v>200</v>
-      </c>
-      <c r="D323" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E323" s="5"/>
-      <c r="F323" s="5">
-        <v>1</v>
-      </c>
-      <c r="G323" s="5">
-        <v>0</v>
-      </c>
-      <c r="H323" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I323" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J323" s="5">
-        <v>4</v>
-      </c>
-      <c r="K323" s="5">
-        <v>0</v>
-      </c>
-      <c r="L323" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M323" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N323" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O323" s="6"/>
-      <c r="P323" s="8"/>
-      <c r="Q323" s="6"/>
-      <c r="R323" s="8"/>
-      <c r="S323" s="6"/>
-      <c r="T323" s="8"/>
-      <c r="U323" s="6"/>
-      <c r="V323" s="8"/>
-      <c r="W323" s="6"/>
-      <c r="X323" s="8"/>
-      <c r="Y323" s="6"/>
-      <c r="Z323" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA323" s="6" t="s">
+      <c r="C323" s="2">
+        <v>0</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2">
+        <v>1</v>
+      </c>
+      <c r="G323" s="2">
+        <v>0</v>
+      </c>
+      <c r="H323" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="AB323" s="5"/>
-    </row>
-    <row r="324" spans="1:28" outlineLevel="1">
-      <c r="A324" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C324" s="5">
-        <v>200</v>
-      </c>
-      <c r="D324" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E324" s="5"/>
-      <c r="F324" s="5">
-        <v>1</v>
-      </c>
-      <c r="G324" s="5">
-        <v>0</v>
-      </c>
-      <c r="H324" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I324" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J324" s="5">
-        <v>4</v>
-      </c>
-      <c r="K324" s="5">
-        <v>0</v>
-      </c>
-      <c r="L324" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M324" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N324" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O324" s="6"/>
-      <c r="P324" s="8"/>
-      <c r="Q324" s="6"/>
-      <c r="R324" s="8"/>
-      <c r="S324" s="6"/>
-      <c r="T324" s="8"/>
-      <c r="U324" s="6"/>
-      <c r="V324" s="8"/>
-      <c r="W324" s="6"/>
-      <c r="X324" s="8"/>
-      <c r="Y324" s="6"/>
-      <c r="Z324" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA324" s="6" t="s">
+      <c r="I323" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="AB324" s="5"/>
-    </row>
-    <row r="325" spans="1:28" outlineLevel="1">
-      <c r="A325" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C325" s="5">
-        <v>200</v>
-      </c>
-      <c r="D325" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E325" s="5"/>
-      <c r="F325" s="5">
-        <v>1</v>
-      </c>
-      <c r="G325" s="5">
-        <v>0</v>
-      </c>
-      <c r="H325" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I325" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J325" s="5">
-        <v>4</v>
-      </c>
-      <c r="K325" s="5">
-        <v>0</v>
-      </c>
-      <c r="L325" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M325" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N325" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O325" s="6"/>
-      <c r="P325" s="8"/>
-      <c r="Q325" s="6"/>
-      <c r="R325" s="8"/>
-      <c r="S325" s="6"/>
-      <c r="T325" s="8"/>
-      <c r="U325" s="6"/>
-      <c r="V325" s="8"/>
-      <c r="W325" s="6"/>
-      <c r="X325" s="8"/>
-      <c r="Y325" s="6"/>
-      <c r="Z325" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA325" s="6" t="s">
+      <c r="J323" s="2">
+        <v>64</v>
+      </c>
+      <c r="K323" s="2">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M323" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N323" s="4"/>
+      <c r="O323" s="2"/>
+      <c r="P323" s="4"/>
+      <c r="Q323" s="2"/>
+      <c r="R323" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S323" s="2"/>
+      <c r="T323" s="4"/>
+      <c r="U323" s="2"/>
+      <c r="V323" s="4"/>
+      <c r="W323" s="2"/>
+      <c r="X323" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y323" s="2"/>
+      <c r="Z323" s="2"/>
+      <c r="AA323" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB323" s="2"/>
+    </row>
+    <row r="324" spans="1:28">
+      <c r="A324" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="AB325" s="5"/>
-    </row>
-    <row r="326" spans="1:28" outlineLevel="1">
-      <c r="A326" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C326" s="5">
-        <v>200</v>
-      </c>
-      <c r="D326" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E326" s="5"/>
-      <c r="F326" s="5">
-        <v>1</v>
-      </c>
-      <c r="G326" s="5">
-        <v>0</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I326" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J326" s="5">
-        <v>4</v>
-      </c>
-      <c r="K326" s="5">
-        <v>0</v>
-      </c>
-      <c r="L326" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M326" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N326" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O326" s="6"/>
-      <c r="P326" s="8"/>
-      <c r="Q326" s="6"/>
-      <c r="R326" s="8"/>
-      <c r="S326" s="6"/>
-      <c r="T326" s="8"/>
-      <c r="U326" s="6"/>
-      <c r="V326" s="8"/>
-      <c r="W326" s="6"/>
-      <c r="X326" s="8"/>
-      <c r="Y326" s="6"/>
-      <c r="Z326" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA326" s="6" t="s">
+      <c r="B324" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="AB326" s="5"/>
-    </row>
-    <row r="327" spans="1:28" outlineLevel="1">
-      <c r="A327" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C327" s="5">
-        <v>200</v>
-      </c>
-      <c r="D327" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E327" s="5"/>
-      <c r="F327" s="5">
-        <v>1</v>
-      </c>
-      <c r="G327" s="5">
-        <v>0</v>
-      </c>
-      <c r="H327" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I327" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J327" s="5">
-        <v>4</v>
-      </c>
-      <c r="K327" s="5">
-        <v>0</v>
-      </c>
-      <c r="L327" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M327" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N327" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O327" s="6"/>
-      <c r="P327" s="8"/>
-      <c r="Q327" s="6"/>
-      <c r="R327" s="8"/>
-      <c r="S327" s="6"/>
-      <c r="T327" s="8"/>
-      <c r="U327" s="6"/>
-      <c r="V327" s="8"/>
-      <c r="W327" s="6"/>
-      <c r="X327" s="8"/>
-      <c r="Y327" s="6"/>
-      <c r="Z327" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA327" s="6" t="s">
+      <c r="C324" s="2">
+        <v>0</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2">
+        <v>1</v>
+      </c>
+      <c r="G324" s="2">
+        <v>0</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="J324" s="2">
+        <v>64</v>
+      </c>
+      <c r="K324" s="2">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M324" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="N324" s="4"/>
+      <c r="O324" s="2"/>
+      <c r="P324" s="4"/>
+      <c r="Q324" s="2"/>
+      <c r="R324" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S324" s="2"/>
+      <c r="T324" s="4"/>
+      <c r="U324" s="2"/>
+      <c r="V324" s="4"/>
+      <c r="W324" s="2"/>
+      <c r="X324" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="AB327" s="5"/>
-    </row>
-    <row r="328" spans="1:28" outlineLevel="1">
-      <c r="A328" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B328" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C328" s="5">
-        <v>200</v>
-      </c>
-      <c r="D328" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E328" s="5"/>
-      <c r="F328" s="5">
-        <v>1</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="H328" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I328" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J328" s="5">
-        <v>4</v>
-      </c>
-      <c r="K328" s="5">
-        <v>0</v>
-      </c>
-      <c r="L328" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M328" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N328" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O328" s="6"/>
-      <c r="P328" s="8"/>
-      <c r="Q328" s="6"/>
-      <c r="R328" s="8"/>
-      <c r="S328" s="6"/>
-      <c r="T328" s="8"/>
-      <c r="U328" s="6"/>
-      <c r="V328" s="8"/>
-      <c r="W328" s="6"/>
-      <c r="X328" s="8"/>
-      <c r="Y328" s="6"/>
-      <c r="Z328" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA328" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB328" s="5"/>
-    </row>
-    <row r="329" spans="1:28" outlineLevel="1">
-      <c r="A329" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C329" s="5">
-        <v>200</v>
-      </c>
-      <c r="D329" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E329" s="5"/>
-      <c r="F329" s="5">
-        <v>1</v>
-      </c>
-      <c r="G329" s="5">
-        <v>0</v>
-      </c>
-      <c r="H329" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I329" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J329" s="5">
-        <v>4</v>
-      </c>
-      <c r="K329" s="5">
-        <v>0</v>
-      </c>
-      <c r="L329" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M329" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N329" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O329" s="6"/>
-      <c r="P329" s="8"/>
-      <c r="Q329" s="6"/>
-      <c r="R329" s="8"/>
-      <c r="S329" s="6"/>
-      <c r="T329" s="8"/>
-      <c r="U329" s="6"/>
-      <c r="V329" s="8"/>
-      <c r="W329" s="6"/>
-      <c r="X329" s="8"/>
-      <c r="Y329" s="6"/>
-      <c r="Z329" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA329" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB329" s="5"/>
-    </row>
-    <row r="330" spans="1:28" outlineLevel="1">
-      <c r="A330" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C330" s="5">
-        <v>200</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E330" s="5"/>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>0</v>
-      </c>
-      <c r="H330" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="I330" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="J330" s="5">
-        <v>4</v>
-      </c>
-      <c r="K330" s="5">
-        <v>0</v>
-      </c>
-      <c r="L330" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M330" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N330" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O330" s="6"/>
-      <c r="P330" s="8"/>
-      <c r="Q330" s="6"/>
-      <c r="R330" s="8"/>
-      <c r="S330" s="6"/>
-      <c r="T330" s="8"/>
-      <c r="U330" s="6"/>
-      <c r="V330" s="8"/>
-      <c r="W330" s="6"/>
-      <c r="X330" s="8"/>
-      <c r="Y330" s="6"/>
-      <c r="Z330" s="6">
-        <v>8</v>
-      </c>
-      <c r="AA330" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB330" s="5"/>
-    </row>
-    <row r="331" spans="1:28" outlineLevel="1">
-      <c r="A331" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C331" s="5">
-        <v>200</v>
-      </c>
-      <c r="D331" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E331" s="5"/>
-      <c r="F331" s="6">
-        <v>1</v>
-      </c>
-      <c r="G331" s="6">
-        <v>4</v>
-      </c>
-      <c r="H331" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="I331" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="J331" s="6">
-        <v>4</v>
-      </c>
-      <c r="K331" s="6">
-        <v>0</v>
-      </c>
-      <c r="L331" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M331" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N331" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O331" s="6"/>
-      <c r="P331" s="8"/>
-      <c r="Q331" s="6"/>
-      <c r="R331" s="8"/>
-      <c r="S331" s="6"/>
-      <c r="T331" s="8"/>
-      <c r="U331" s="6"/>
-      <c r="V331" s="8"/>
-      <c r="W331" s="6"/>
-      <c r="X331" s="8"/>
-      <c r="Y331" s="6"/>
-      <c r="Z331" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA331" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB331" s="6"/>
-    </row>
-    <row r="332" spans="1:28" outlineLevel="1">
-      <c r="A332" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C332" s="5">
-        <v>200</v>
-      </c>
-      <c r="D332" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E332" s="5"/>
-      <c r="F332" s="5">
-        <v>1</v>
-      </c>
-      <c r="G332" s="5">
-        <v>4</v>
-      </c>
-      <c r="H332" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I332" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J332" s="5">
-        <v>4</v>
-      </c>
-      <c r="K332" s="5">
-        <v>0</v>
-      </c>
-      <c r="L332" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M332" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N332" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O332" s="6"/>
-      <c r="P332" s="8"/>
-      <c r="Q332" s="6"/>
-      <c r="R332" s="8"/>
-      <c r="S332" s="6"/>
-      <c r="T332" s="8"/>
-      <c r="U332" s="6"/>
-      <c r="V332" s="8"/>
-      <c r="W332" s="6"/>
-      <c r="X332" s="8"/>
-      <c r="Y332" s="6"/>
-      <c r="Z332" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA332" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB332" s="5"/>
-    </row>
-    <row r="333" spans="1:28" outlineLevel="1">
-      <c r="A333" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C333" s="5">
-        <v>200</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E333" s="5"/>
-      <c r="F333" s="5">
-        <v>1</v>
-      </c>
-      <c r="G333" s="5">
-        <v>4</v>
-      </c>
-      <c r="H333" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I333" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J333" s="5">
-        <v>4</v>
-      </c>
-      <c r="K333" s="5">
-        <v>0</v>
-      </c>
-      <c r="L333" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M333" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N333" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O333" s="6"/>
-      <c r="P333" s="8"/>
-      <c r="Q333" s="6"/>
-      <c r="R333" s="8"/>
-      <c r="S333" s="6"/>
-      <c r="T333" s="8"/>
-      <c r="U333" s="6"/>
-      <c r="V333" s="8"/>
-      <c r="W333" s="6"/>
-      <c r="X333" s="8"/>
-      <c r="Y333" s="6"/>
-      <c r="Z333" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA333" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB333" s="5"/>
-    </row>
-    <row r="334" spans="1:28" outlineLevel="1">
-      <c r="A334" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C334" s="5">
-        <v>200</v>
-      </c>
-      <c r="D334" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>4</v>
-      </c>
-      <c r="H334" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I334" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J334" s="5">
-        <v>4</v>
-      </c>
-      <c r="K334" s="5">
-        <v>0</v>
-      </c>
-      <c r="L334" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M334" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N334" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O334" s="6"/>
-      <c r="P334" s="8"/>
-      <c r="Q334" s="6"/>
-      <c r="R334" s="8"/>
-      <c r="S334" s="6"/>
-      <c r="T334" s="8"/>
-      <c r="U334" s="6"/>
-      <c r="V334" s="8"/>
-      <c r="W334" s="6"/>
-      <c r="X334" s="8"/>
-      <c r="Y334" s="6"/>
-      <c r="Z334" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA334" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB334" s="5"/>
-    </row>
-    <row r="335" spans="1:28" outlineLevel="1">
-      <c r="A335" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C335" s="5">
-        <v>200</v>
-      </c>
-      <c r="D335" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E335" s="5"/>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>4</v>
-      </c>
-      <c r="H335" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I335" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J335" s="5">
-        <v>4</v>
-      </c>
-      <c r="K335" s="5">
-        <v>0</v>
-      </c>
-      <c r="L335" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M335" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N335" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O335" s="6"/>
-      <c r="P335" s="8"/>
-      <c r="Q335" s="6"/>
-      <c r="R335" s="8"/>
-      <c r="S335" s="6"/>
-      <c r="T335" s="8"/>
-      <c r="U335" s="6"/>
-      <c r="V335" s="8"/>
-      <c r="W335" s="6"/>
-      <c r="X335" s="8"/>
-      <c r="Y335" s="6"/>
-      <c r="Z335" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA335" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB335" s="5"/>
-    </row>
-    <row r="336" spans="1:28" outlineLevel="1">
-      <c r="A336" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B336" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C336" s="5">
-        <v>200</v>
-      </c>
-      <c r="D336" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E336" s="5"/>
-      <c r="F336" s="5">
-        <v>1</v>
-      </c>
-      <c r="G336" s="5">
-        <v>4</v>
-      </c>
-      <c r="H336" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I336" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J336" s="5">
-        <v>4</v>
-      </c>
-      <c r="K336" s="5">
-        <v>0</v>
-      </c>
-      <c r="L336" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M336" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N336" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O336" s="6"/>
-      <c r="P336" s="8"/>
-      <c r="Q336" s="6"/>
-      <c r="R336" s="8"/>
-      <c r="S336" s="6"/>
-      <c r="T336" s="8"/>
-      <c r="U336" s="6"/>
-      <c r="V336" s="8"/>
-      <c r="W336" s="6"/>
-      <c r="X336" s="8"/>
-      <c r="Y336" s="6"/>
-      <c r="Z336" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA336" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB336" s="5"/>
-    </row>
-    <row r="337" spans="1:28" outlineLevel="1">
-      <c r="A337" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B337" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C337" s="5">
-        <v>200</v>
-      </c>
-      <c r="D337" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E337" s="5"/>
-      <c r="F337" s="5">
-        <v>1</v>
-      </c>
-      <c r="G337" s="5">
-        <v>4</v>
-      </c>
-      <c r="H337" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I337" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J337" s="5">
-        <v>4</v>
-      </c>
-      <c r="K337" s="5">
-        <v>0</v>
-      </c>
-      <c r="L337" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M337" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N337" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O337" s="6"/>
-      <c r="P337" s="8"/>
-      <c r="Q337" s="6"/>
-      <c r="R337" s="8"/>
-      <c r="S337" s="6"/>
-      <c r="T337" s="8"/>
-      <c r="U337" s="6"/>
-      <c r="V337" s="8"/>
-      <c r="W337" s="6"/>
-      <c r="X337" s="8"/>
-      <c r="Y337" s="6"/>
-      <c r="Z337" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA337" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB337" s="5"/>
-    </row>
-    <row r="338" spans="1:28" outlineLevel="1">
-      <c r="A338" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C338" s="5">
-        <v>200</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E338" s="5"/>
-      <c r="F338" s="5">
-        <v>1</v>
-      </c>
-      <c r="G338" s="5">
-        <v>4</v>
-      </c>
-      <c r="H338" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I338" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J338" s="5">
-        <v>4</v>
-      </c>
-      <c r="K338" s="5">
-        <v>0</v>
-      </c>
-      <c r="L338" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M338" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N338" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O338" s="6"/>
-      <c r="P338" s="8"/>
-      <c r="Q338" s="6"/>
-      <c r="R338" s="8"/>
-      <c r="S338" s="6"/>
-      <c r="T338" s="8"/>
-      <c r="U338" s="6"/>
-      <c r="V338" s="8"/>
-      <c r="W338" s="6"/>
-      <c r="X338" s="8"/>
-      <c r="Y338" s="6"/>
-      <c r="Z338" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA338" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB338" s="5"/>
-    </row>
-    <row r="339" spans="1:28" outlineLevel="1">
-      <c r="A339" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C339" s="5">
-        <v>200</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E339" s="5"/>
-      <c r="F339" s="5">
-        <v>1</v>
-      </c>
-      <c r="G339" s="5">
-        <v>4</v>
-      </c>
-      <c r="H339" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="I339" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="J339" s="5">
-        <v>4</v>
-      </c>
-      <c r="K339" s="5">
-        <v>0</v>
-      </c>
-      <c r="L339" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M339" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N339" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O339" s="6"/>
-      <c r="P339" s="8"/>
-      <c r="Q339" s="6"/>
-      <c r="R339" s="8"/>
-      <c r="S339" s="6"/>
-      <c r="T339" s="8"/>
-      <c r="U339" s="6"/>
-      <c r="V339" s="8"/>
-      <c r="W339" s="6"/>
-      <c r="X339" s="8"/>
-      <c r="Y339" s="6"/>
-      <c r="Z339" s="6">
-        <v>8</v>
-      </c>
-      <c r="AA339" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB339" s="5"/>
-    </row>
-    <row r="340" spans="1:28" outlineLevel="1">
-      <c r="A340" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C340" s="5">
-        <v>200</v>
-      </c>
-      <c r="D340" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E340" s="5"/>
-      <c r="F340" s="6">
-        <v>2</v>
-      </c>
-      <c r="G340" s="6">
-        <v>0</v>
-      </c>
-      <c r="H340" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="I340" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="J340" s="6">
-        <v>4</v>
-      </c>
-      <c r="K340" s="6">
-        <v>0</v>
-      </c>
-      <c r="L340" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M340" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N340" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O340" s="6"/>
-      <c r="P340" s="8"/>
-      <c r="Q340" s="6"/>
-      <c r="R340" s="8"/>
-      <c r="S340" s="6"/>
-      <c r="T340" s="8"/>
-      <c r="U340" s="6"/>
-      <c r="V340" s="8"/>
-      <c r="W340" s="6"/>
-      <c r="X340" s="8"/>
-      <c r="Y340" s="6"/>
-      <c r="Z340" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA340" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB340" s="6"/>
-    </row>
-    <row r="341" spans="1:28" outlineLevel="1">
-      <c r="A341" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B341" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C341" s="5">
-        <v>200</v>
-      </c>
-      <c r="D341" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E341" s="5"/>
-      <c r="F341" s="5">
-        <v>2</v>
-      </c>
-      <c r="G341" s="5">
-        <v>0</v>
-      </c>
-      <c r="H341" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I341" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J341" s="5">
-        <v>4</v>
-      </c>
-      <c r="K341" s="5">
-        <v>0</v>
-      </c>
-      <c r="L341" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M341" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N341" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O341" s="6"/>
-      <c r="P341" s="8"/>
-      <c r="Q341" s="6"/>
-      <c r="R341" s="8"/>
-      <c r="S341" s="6"/>
-      <c r="T341" s="8"/>
-      <c r="U341" s="6"/>
-      <c r="V341" s="8"/>
-      <c r="W341" s="6"/>
-      <c r="X341" s="8"/>
-      <c r="Y341" s="6"/>
-      <c r="Z341" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA341" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB341" s="5"/>
-    </row>
-    <row r="342" spans="1:28" outlineLevel="1">
-      <c r="A342" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C342" s="5">
-        <v>200</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E342" s="5"/>
-      <c r="F342" s="5">
-        <v>2</v>
-      </c>
-      <c r="G342" s="5">
-        <v>0</v>
-      </c>
-      <c r="H342" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I342" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J342" s="5">
-        <v>4</v>
-      </c>
-      <c r="K342" s="5">
-        <v>0</v>
-      </c>
-      <c r="L342" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M342" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N342" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O342" s="6"/>
-      <c r="P342" s="8"/>
-      <c r="Q342" s="6"/>
-      <c r="R342" s="8"/>
-      <c r="S342" s="6"/>
-      <c r="T342" s="8"/>
-      <c r="U342" s="6"/>
-      <c r="V342" s="8"/>
-      <c r="W342" s="6"/>
-      <c r="X342" s="8"/>
-      <c r="Y342" s="6"/>
-      <c r="Z342" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA342" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB342" s="5"/>
-    </row>
-    <row r="343" spans="1:28" outlineLevel="1">
-      <c r="A343" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C343" s="5">
-        <v>200</v>
-      </c>
-      <c r="D343" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E343" s="5"/>
-      <c r="F343" s="5">
-        <v>2</v>
-      </c>
-      <c r="G343" s="5">
-        <v>0</v>
-      </c>
-      <c r="H343" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I343" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J343" s="5">
-        <v>4</v>
-      </c>
-      <c r="K343" s="5">
-        <v>0</v>
-      </c>
-      <c r="L343" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M343" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N343" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O343" s="6"/>
-      <c r="P343" s="8"/>
-      <c r="Q343" s="6"/>
-      <c r="R343" s="8"/>
-      <c r="S343" s="6"/>
-      <c r="T343" s="8"/>
-      <c r="U343" s="6"/>
-      <c r="V343" s="8"/>
-      <c r="W343" s="6"/>
-      <c r="X343" s="8"/>
-      <c r="Y343" s="6"/>
-      <c r="Z343" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA343" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB343" s="5"/>
-    </row>
-    <row r="344" spans="1:28" outlineLevel="1">
-      <c r="A344" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B344" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C344" s="5">
-        <v>200</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E344" s="5"/>
-      <c r="F344" s="5">
-        <v>2</v>
-      </c>
-      <c r="G344" s="5">
-        <v>0</v>
-      </c>
-      <c r="H344" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I344" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J344" s="5">
-        <v>4</v>
-      </c>
-      <c r="K344" s="5">
-        <v>0</v>
-      </c>
-      <c r="L344" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M344" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N344" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O344" s="6"/>
-      <c r="P344" s="8"/>
-      <c r="Q344" s="6"/>
-      <c r="R344" s="8"/>
-      <c r="S344" s="6"/>
-      <c r="T344" s="8"/>
-      <c r="U344" s="6"/>
-      <c r="V344" s="8"/>
-      <c r="W344" s="6"/>
-      <c r="X344" s="8"/>
-      <c r="Y344" s="6"/>
-      <c r="Z344" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA344" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB344" s="5"/>
-    </row>
-    <row r="345" spans="1:28" outlineLevel="1">
-      <c r="A345" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B345" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C345" s="5">
-        <v>200</v>
-      </c>
-      <c r="D345" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E345" s="5"/>
-      <c r="F345" s="5">
-        <v>2</v>
-      </c>
-      <c r="G345" s="5">
-        <v>0</v>
-      </c>
-      <c r="H345" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I345" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J345" s="5">
-        <v>4</v>
-      </c>
-      <c r="K345" s="5">
-        <v>0</v>
-      </c>
-      <c r="L345" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M345" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N345" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O345" s="6"/>
-      <c r="P345" s="8"/>
-      <c r="Q345" s="6"/>
-      <c r="R345" s="8"/>
-      <c r="S345" s="6"/>
-      <c r="T345" s="8"/>
-      <c r="U345" s="6"/>
-      <c r="V345" s="8"/>
-      <c r="W345" s="6"/>
-      <c r="X345" s="8"/>
-      <c r="Y345" s="6"/>
-      <c r="Z345" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA345" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB345" s="5"/>
-    </row>
-    <row r="346" spans="1:28" outlineLevel="1">
-      <c r="A346" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B346" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C346" s="5">
-        <v>200</v>
-      </c>
-      <c r="D346" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E346" s="5"/>
-      <c r="F346" s="5">
-        <v>2</v>
-      </c>
-      <c r="G346" s="5">
-        <v>0</v>
-      </c>
-      <c r="H346" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I346" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J346" s="5">
-        <v>4</v>
-      </c>
-      <c r="K346" s="5">
-        <v>0</v>
-      </c>
-      <c r="L346" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M346" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N346" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O346" s="6"/>
-      <c r="P346" s="8"/>
-      <c r="Q346" s="6"/>
-      <c r="R346" s="8"/>
-      <c r="S346" s="6"/>
-      <c r="T346" s="8"/>
-      <c r="U346" s="6"/>
-      <c r="V346" s="8"/>
-      <c r="W346" s="6"/>
-      <c r="X346" s="8"/>
-      <c r="Y346" s="6"/>
-      <c r="Z346" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA346" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB346" s="5"/>
-    </row>
-    <row r="347" spans="1:28" outlineLevel="1">
-      <c r="A347" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C347" s="5">
-        <v>200</v>
-      </c>
-      <c r="D347" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E347" s="5"/>
-      <c r="F347" s="5">
-        <v>2</v>
-      </c>
-      <c r="G347" s="5">
-        <v>0</v>
-      </c>
-      <c r="H347" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I347" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J347" s="5">
-        <v>4</v>
-      </c>
-      <c r="K347" s="5">
-        <v>0</v>
-      </c>
-      <c r="L347" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M347" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N347" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O347" s="6"/>
-      <c r="P347" s="8"/>
-      <c r="Q347" s="6"/>
-      <c r="R347" s="8"/>
-      <c r="S347" s="6"/>
-      <c r="T347" s="8"/>
-      <c r="U347" s="6"/>
-      <c r="V347" s="8"/>
-      <c r="W347" s="6"/>
-      <c r="X347" s="8"/>
-      <c r="Y347" s="6"/>
-      <c r="Z347" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA347" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB347" s="5"/>
-    </row>
-    <row r="348" spans="1:28" outlineLevel="1">
-      <c r="A348" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C348" s="5">
-        <v>200</v>
-      </c>
-      <c r="D348" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E348" s="5"/>
-      <c r="F348" s="5">
-        <v>2</v>
-      </c>
-      <c r="G348" s="5">
-        <v>0</v>
-      </c>
-      <c r="H348" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="I348" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="J348" s="5">
-        <v>4</v>
-      </c>
-      <c r="K348" s="5">
-        <v>0</v>
-      </c>
-      <c r="L348" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M348" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N348" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O348" s="6"/>
-      <c r="P348" s="8"/>
-      <c r="Q348" s="6"/>
-      <c r="R348" s="8"/>
-      <c r="S348" s="6"/>
-      <c r="T348" s="8"/>
-      <c r="U348" s="6"/>
-      <c r="V348" s="8"/>
-      <c r="W348" s="6"/>
-      <c r="X348" s="8"/>
-      <c r="Y348" s="6"/>
-      <c r="Z348" s="6">
-        <v>8</v>
-      </c>
-      <c r="AA348" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB348" s="5"/>
-    </row>
-    <row r="349" spans="1:28" outlineLevel="1">
-      <c r="A349" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C349" s="5">
-        <v>200</v>
-      </c>
-      <c r="D349" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E349" s="5"/>
-      <c r="F349" s="6">
-        <v>2</v>
-      </c>
-      <c r="G349" s="6">
-        <v>4</v>
-      </c>
-      <c r="H349" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="I349" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="J349" s="6">
-        <v>4</v>
-      </c>
-      <c r="K349" s="6">
-        <v>0</v>
-      </c>
-      <c r="L349" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M349" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N349" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O349" s="6"/>
-      <c r="P349" s="8"/>
-      <c r="Q349" s="6"/>
-      <c r="R349" s="8"/>
-      <c r="S349" s="6"/>
-      <c r="T349" s="8"/>
-      <c r="U349" s="6"/>
-      <c r="V349" s="8"/>
-      <c r="W349" s="6"/>
-      <c r="X349" s="8"/>
-      <c r="Y349" s="6"/>
-      <c r="Z349" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA349" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB349" s="6"/>
-    </row>
-    <row r="350" spans="1:28" outlineLevel="1">
-      <c r="A350" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C350" s="5">
-        <v>200</v>
-      </c>
-      <c r="D350" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E350" s="5"/>
-      <c r="F350" s="5">
-        <v>2</v>
-      </c>
-      <c r="G350" s="5">
-        <v>4</v>
-      </c>
-      <c r="H350" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I350" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J350" s="5">
-        <v>4</v>
-      </c>
-      <c r="K350" s="5">
-        <v>0</v>
-      </c>
-      <c r="L350" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M350" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N350" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O350" s="6"/>
-      <c r="P350" s="8"/>
-      <c r="Q350" s="6"/>
-      <c r="R350" s="8"/>
-      <c r="S350" s="6"/>
-      <c r="T350" s="8"/>
-      <c r="U350" s="6"/>
-      <c r="V350" s="8"/>
-      <c r="W350" s="6"/>
-      <c r="X350" s="8"/>
-      <c r="Y350" s="6"/>
-      <c r="Z350" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA350" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB350" s="5"/>
-    </row>
-    <row r="351" spans="1:28" outlineLevel="1">
-      <c r="A351" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B351" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C351" s="5">
-        <v>200</v>
-      </c>
-      <c r="D351" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E351" s="5"/>
-      <c r="F351" s="5">
-        <v>2</v>
-      </c>
-      <c r="G351" s="5">
-        <v>4</v>
-      </c>
-      <c r="H351" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I351" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J351" s="5">
-        <v>4</v>
-      </c>
-      <c r="K351" s="5">
-        <v>0</v>
-      </c>
-      <c r="L351" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M351" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N351" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O351" s="6"/>
-      <c r="P351" s="8"/>
-      <c r="Q351" s="6"/>
-      <c r="R351" s="8"/>
-      <c r="S351" s="6"/>
-      <c r="T351" s="8"/>
-      <c r="U351" s="6"/>
-      <c r="V351" s="8"/>
-      <c r="W351" s="6"/>
-      <c r="X351" s="8"/>
-      <c r="Y351" s="6"/>
-      <c r="Z351" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA351" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB351" s="5"/>
-    </row>
-    <row r="352" spans="1:28" outlineLevel="1">
-      <c r="A352" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C352" s="5">
-        <v>200</v>
-      </c>
-      <c r="D352" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E352" s="5"/>
-      <c r="F352" s="5">
-        <v>2</v>
-      </c>
-      <c r="G352" s="5">
-        <v>4</v>
-      </c>
-      <c r="H352" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I352" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J352" s="5">
-        <v>4</v>
-      </c>
-      <c r="K352" s="5">
-        <v>0</v>
-      </c>
-      <c r="L352" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M352" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N352" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O352" s="6"/>
-      <c r="P352" s="8"/>
-      <c r="Q352" s="6"/>
-      <c r="R352" s="8"/>
-      <c r="S352" s="6"/>
-      <c r="T352" s="8"/>
-      <c r="U352" s="6"/>
-      <c r="V352" s="8"/>
-      <c r="W352" s="6"/>
-      <c r="X352" s="8"/>
-      <c r="Y352" s="6"/>
-      <c r="Z352" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA352" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB352" s="5"/>
-    </row>
-    <row r="353" spans="1:28" outlineLevel="1">
-      <c r="A353" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B353" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C353" s="5">
-        <v>200</v>
-      </c>
-      <c r="D353" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E353" s="5"/>
-      <c r="F353" s="5">
-        <v>2</v>
-      </c>
-      <c r="G353" s="5">
-        <v>4</v>
-      </c>
-      <c r="H353" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I353" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J353" s="5">
-        <v>4</v>
-      </c>
-      <c r="K353" s="5">
-        <v>0</v>
-      </c>
-      <c r="L353" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M353" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N353" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O353" s="6"/>
-      <c r="P353" s="8"/>
-      <c r="Q353" s="6"/>
-      <c r="R353" s="8"/>
-      <c r="S353" s="6"/>
-      <c r="T353" s="8"/>
-      <c r="U353" s="6"/>
-      <c r="V353" s="8"/>
-      <c r="W353" s="6"/>
-      <c r="X353" s="8"/>
-      <c r="Y353" s="6"/>
-      <c r="Z353" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA353" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB353" s="5"/>
-    </row>
-    <row r="354" spans="1:28" outlineLevel="1">
-      <c r="A354" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C354" s="5">
-        <v>200</v>
-      </c>
-      <c r="D354" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E354" s="5"/>
-      <c r="F354" s="5">
-        <v>2</v>
-      </c>
-      <c r="G354" s="5">
-        <v>4</v>
-      </c>
-      <c r="H354" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I354" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J354" s="5">
-        <v>4</v>
-      </c>
-      <c r="K354" s="5">
-        <v>0</v>
-      </c>
-      <c r="L354" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M354" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N354" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O354" s="6"/>
-      <c r="P354" s="8"/>
-      <c r="Q354" s="6"/>
-      <c r="R354" s="8"/>
-      <c r="S354" s="6"/>
-      <c r="T354" s="8"/>
-      <c r="U354" s="6"/>
-      <c r="V354" s="8"/>
-      <c r="W354" s="6"/>
-      <c r="X354" s="8"/>
-      <c r="Y354" s="6"/>
-      <c r="Z354" s="6">
-        <v>5</v>
-      </c>
-      <c r="AA354" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB354" s="5"/>
-    </row>
-    <row r="355" spans="1:28" outlineLevel="1">
-      <c r="A355" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C355" s="5">
-        <v>200</v>
-      </c>
-      <c r="D355" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E355" s="5"/>
-      <c r="F355" s="5">
-        <v>2</v>
-      </c>
-      <c r="G355" s="5">
-        <v>4</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I355" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J355" s="5">
-        <v>4</v>
-      </c>
-      <c r="K355" s="5">
-        <v>0</v>
-      </c>
-      <c r="L355" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M355" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N355" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O355" s="6"/>
-      <c r="P355" s="8"/>
-      <c r="Q355" s="6"/>
-      <c r="R355" s="8"/>
-      <c r="S355" s="6"/>
-      <c r="T355" s="8"/>
-      <c r="U355" s="6"/>
-      <c r="V355" s="8"/>
-      <c r="W355" s="6"/>
-      <c r="X355" s="8"/>
-      <c r="Y355" s="6"/>
-      <c r="Z355" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA355" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="AB355" s="5"/>
-    </row>
-    <row r="356" spans="1:28" outlineLevel="1">
-      <c r="A356" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C356" s="5">
-        <v>200</v>
-      </c>
-      <c r="D356" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E356" s="5"/>
-      <c r="F356" s="5">
-        <v>2</v>
-      </c>
-      <c r="G356" s="5">
-        <v>4</v>
-      </c>
-      <c r="H356" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I356" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J356" s="5">
-        <v>4</v>
-      </c>
-      <c r="K356" s="5">
-        <v>0</v>
-      </c>
-      <c r="L356" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M356" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N356" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O356" s="6"/>
-      <c r="P356" s="8"/>
-      <c r="Q356" s="6"/>
-      <c r="R356" s="8"/>
-      <c r="S356" s="6"/>
-      <c r="T356" s="8"/>
-      <c r="U356" s="6"/>
-      <c r="V356" s="8"/>
-      <c r="W356" s="6"/>
-      <c r="X356" s="8"/>
-      <c r="Y356" s="6"/>
-      <c r="Z356" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA356" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB356" s="5"/>
-    </row>
-    <row r="357" spans="1:28" outlineLevel="1">
-      <c r="A357" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B357" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="C357" s="5">
-        <v>200</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E357" s="5"/>
-      <c r="F357" s="5">
-        <v>2</v>
-      </c>
-      <c r="G357" s="5">
-        <v>4</v>
-      </c>
-      <c r="H357" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="I357" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="J357" s="5">
-        <v>4</v>
-      </c>
-      <c r="K357" s="5">
-        <v>0</v>
-      </c>
-      <c r="L357" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M357" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N357" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O357" s="6"/>
-      <c r="P357" s="8"/>
-      <c r="Q357" s="6"/>
-      <c r="R357" s="8"/>
-      <c r="S357" s="6"/>
-      <c r="T357" s="8"/>
-      <c r="U357" s="6"/>
-      <c r="V357" s="8"/>
-      <c r="W357" s="6"/>
-      <c r="X357" s="8"/>
-      <c r="Y357" s="6"/>
-      <c r="Z357" s="6">
-        <v>8</v>
-      </c>
-      <c r="AA357" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="AB357" s="5"/>
-    </row>
-    <row r="358" spans="1:28">
-      <c r="A358" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C358" s="2">
-        <v>0</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E358" s="2"/>
-      <c r="F358" s="2">
-        <v>1</v>
-      </c>
-      <c r="G358" s="2">
-        <v>0</v>
-      </c>
-      <c r="H358" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I358" s="2"/>
-      <c r="J358" s="2">
-        <v>64</v>
-      </c>
-      <c r="K358" s="2">
-        <v>0</v>
-      </c>
-      <c r="L358" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M358" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N358" s="4"/>
-      <c r="O358" s="2"/>
-      <c r="P358" s="4"/>
-      <c r="Q358" s="2"/>
-      <c r="R358" s="4"/>
-      <c r="S358" s="2"/>
-      <c r="T358" s="4"/>
-      <c r="U358" s="2"/>
-      <c r="V358" s="4"/>
-      <c r="W358" s="2"/>
-      <c r="X358" s="4"/>
-      <c r="Y358" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z358" s="2"/>
-      <c r="AA358" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB358" s="2"/>
-    </row>
-    <row r="359" spans="1:28">
-      <c r="A359" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C359" s="2">
-        <v>0</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2">
-        <v>1</v>
-      </c>
-      <c r="G359" s="2">
-        <v>0</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="J359" s="2">
-        <v>64</v>
-      </c>
-      <c r="K359" s="2">
-        <v>0</v>
-      </c>
-      <c r="L359" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M359" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="N359" s="4"/>
-      <c r="O359" s="2"/>
-      <c r="P359" s="4"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S359" s="2"/>
-      <c r="T359" s="4"/>
-      <c r="U359" s="2"/>
-      <c r="V359" s="4"/>
-      <c r="W359" s="2"/>
-      <c r="X359" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y359" s="2"/>
-      <c r="Z359" s="2"/>
-      <c r="AA359" s="2" t="s">
+      <c r="Y324" s="2"/>
+      <c r="Z324" s="2"/>
+      <c r="AA324" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AB359" s="2"/>
-    </row>
-    <row r="360" spans="1:28">
-      <c r="A360" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C360" s="2">
-        <v>0</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E360" s="2"/>
-      <c r="F360" s="2">
-        <v>1</v>
-      </c>
-      <c r="G360" s="2">
-        <v>0</v>
-      </c>
-      <c r="H360" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="J360" s="2">
-        <v>64</v>
-      </c>
-      <c r="K360" s="2">
-        <v>0</v>
-      </c>
-      <c r="L360" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M360" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="N360" s="4"/>
-      <c r="O360" s="2"/>
-      <c r="P360" s="4"/>
-      <c r="Q360" s="2"/>
-      <c r="R360" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S360" s="2"/>
-      <c r="T360" s="4"/>
-      <c r="U360" s="2"/>
-      <c r="V360" s="4"/>
-      <c r="W360" s="2"/>
-      <c r="X360" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="Y360" s="2"/>
-      <c r="Z360" s="2"/>
-      <c r="AA360" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB360" s="2"/>
+      <c r="AB324" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR361"/>
+  <autoFilter ref="A1:AR325"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="737">
   <si>
     <t>ID</t>
   </si>
@@ -235,13 +235,13 @@
     <t>Status of the DCBUS Precharge Relay mechanical state</t>
   </si>
   <si>
-    <t>AMS_errIsActive</t>
+    <t>AMS_err_isActive</t>
   </si>
   <si>
     <t>States whether the AMS error is active</t>
   </si>
   <si>
-    <t>IMD_errIsActive</t>
+    <t>IMD_err_isActive</t>
   </si>
   <si>
     <t>States whether the IMD error is active</t>
@@ -265,16 +265,16 @@
     <t>States whether any implausibility is active</t>
   </si>
   <si>
-    <t>IMP_HV_Relays_Signals_isActive</t>
-  </si>
-  <si>
-    <t>States whether an implausibility on HV relays (NEG,POS,PRECH) signals is active</t>
-  </si>
-  <si>
-    <t>IMP_AIRs_Signals_isActive</t>
-  </si>
-  <si>
-    <t>States whether an implausibility on AIRs (NEG,POS) signals is active</t>
+    <t>IMP_HV_RelaysState_isActive</t>
+  </si>
+  <si>
+    <t>States whether an implausibility on HV relays (NEG,POS,PRECH) State is active (differene between cmd and mechanical state)</t>
+  </si>
+  <si>
+    <t>IMP_DCBUS_isActive</t>
+  </si>
+  <si>
+    <t>States whether the DCBUS Implausibility is active (DCBUS Less then 60V and TS is active)</t>
   </si>
   <si>
     <t>AIR_POS_STG_mechStateSignal_isActive</t>
@@ -529,7 +529,7 @@
     <t>197h</t>
   </si>
   <si>
-    <t>DSPACE_peripheralsCTRL</t>
+    <t>DSPACE__peripheralsCTRL</t>
   </si>
   <si>
     <t>BRAKE_LIGHT_activeCMD</t>
@@ -625,27 +625,42 @@
     <t>SDC_TSAC_initialIn_isActive</t>
   </si>
   <si>
+    <t>Shutdown Circuit sensing: TSAC Initial input is active status</t>
+  </si>
+  <si>
     <t>SDC_post_AMS_IMD_relay_isActive</t>
   </si>
   <si>
+    <t>Shutdown Circuit sensing: post AMS/IMD relay is active status</t>
+  </si>
+  <si>
     <t>SDC_TSAC_finalIn_isActive</t>
   </si>
   <si>
-    <t>SDC_PRCH_RLY_isClosed</t>
-  </si>
-  <si>
-    <t>States whether the SDC precharge relay is closed</t>
+    <t>Shutdown Circuit sensing: TSAC Final Input is active status</t>
+  </si>
+  <si>
+    <t>SDC_PrechBypassRelay_isClosed</t>
+  </si>
+  <si>
+    <t>States whether the SDC precharge bypass relay is closed</t>
   </si>
   <si>
     <t>SDC_TSAC_initialIn_voltage</t>
   </si>
   <si>
+    <t>Shutdown Circuit sensing: TSAC Initial Input voltage</t>
+  </si>
+  <si>
     <t>0.177  V</t>
   </si>
   <si>
     <t>SDC_TSAC_finalIn_voltage</t>
   </si>
   <si>
+    <t>Shutdown Circuit sensing: TSAC Final Input voltage</t>
+  </si>
+  <si>
     <t>2F3h</t>
   </si>
   <si>
@@ -2101,7 +2116,7 @@
     <t>6B7h</t>
   </si>
   <si>
-    <t>DSPACE_dashLedsColorRGB</t>
+    <t>DSPACE__dashLedsColorRGB</t>
   </si>
   <si>
     <t>LED_1_red</t>
@@ -6637,7 +6652,9 @@
       <c r="H65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
@@ -6693,9 +6710,11 @@
         <v>1</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I66" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="J66" s="6">
         <v>1</v>
       </c>
@@ -6751,9 +6770,11 @@
         <v>2</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I67" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="J67" s="6">
         <v>1</v>
       </c>
@@ -6809,10 +6830,10 @@
         <v>3</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -6869,9 +6890,11 @@
         <v>4</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I69" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="J69" s="6">
         <v>8</v>
       </c>
@@ -6907,7 +6930,7 @@
         <v>37</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:28" outlineLevel="1">
@@ -6931,9 +6954,11 @@
         <v>4</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I70" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="J70" s="6">
         <v>8</v>
       </c>
@@ -6969,15 +6994,15 @@
         <v>37</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2">
         <v>10</v>
@@ -6993,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -7034,10 +7059,10 @@
     </row>
     <row r="72" spans="1:28" outlineLevel="1">
       <c r="A72" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C72" s="5">
         <v>10</v>
@@ -7053,10 +7078,10 @@
         <v>1</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
@@ -7094,10 +7119,10 @@
     </row>
     <row r="73" spans="1:28" outlineLevel="1">
       <c r="A73" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C73" s="5">
         <v>10</v>
@@ -7113,10 +7138,10 @@
         <v>2</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="J73" s="6">
         <v>1</v>
@@ -7154,10 +7179,10 @@
     </row>
     <row r="74" spans="1:28" outlineLevel="1">
       <c r="A74" s="5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C74" s="5">
         <v>10</v>
@@ -7173,10 +7198,10 @@
         <v>3</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J74" s="6">
         <v>1</v>
@@ -7214,10 +7239,10 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
@@ -7233,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -7274,10 +7299,10 @@
     </row>
     <row r="76" spans="1:28" outlineLevel="1">
       <c r="A76" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C76" s="5">
         <v>10</v>
@@ -7293,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
@@ -7334,10 +7359,10 @@
     </row>
     <row r="77" spans="1:28" outlineLevel="1">
       <c r="A77" s="5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C77" s="5">
         <v>10</v>
@@ -7353,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J77" s="6">
         <v>1</v>
@@ -7394,10 +7419,10 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C78" s="2">
         <v>10</v>
@@ -7413,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J78" s="2">
         <v>16</v>
@@ -7458,10 +7483,10 @@
     </row>
     <row r="79" spans="1:28" outlineLevel="1">
       <c r="A79" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C79" s="5">
         <v>10</v>
@@ -7477,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J79" s="6">
         <v>16</v>
@@ -7522,10 +7547,10 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C80" s="2">
         <v>10</v>
@@ -7541,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J80" s="2">
         <v>16</v>
@@ -7586,10 +7611,10 @@
     </row>
     <row r="81" spans="1:28" outlineLevel="1">
       <c r="A81" s="5" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C81" s="5">
         <v>10</v>
@@ -7605,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J81" s="6">
         <v>16</v>
@@ -7650,10 +7675,10 @@
     </row>
     <row r="82" spans="1:28">
       <c r="A82" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -7710,10 +7735,10 @@
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -7770,10 +7795,10 @@
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -7830,10 +7855,10 @@
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -7890,10 +7915,10 @@
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -7950,10 +7975,10 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -8010,10 +8035,10 @@
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C88" s="2">
         <v>100</v>
@@ -8029,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="J88" s="2">
         <v>8</v>
@@ -8066,7 +8091,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AB88" s="2" t="s">
         <v>178</v>
@@ -8074,10 +8099,10 @@
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C89" s="2">
         <v>100</v>
@@ -8093,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J89" s="2">
         <v>8</v>
@@ -8132,16 +8157,16 @@
         <v>0</v>
       </c>
       <c r="AA89" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AB89" s="2"/>
     </row>
     <row r="90" spans="1:28" outlineLevel="1">
       <c r="A90" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C90" s="5">
         <v>100</v>
@@ -8157,10 +8182,10 @@
         <v>0</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J90" s="5">
         <v>8</v>
@@ -8196,16 +8221,16 @@
         <v>1</v>
       </c>
       <c r="AA90" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AB90" s="5"/>
     </row>
     <row r="91" spans="1:28" outlineLevel="1">
       <c r="A91" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C91" s="5">
         <v>100</v>
@@ -8221,10 +8246,10 @@
         <v>0</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J91" s="5">
         <v>8</v>
@@ -8260,16 +8285,16 @@
         <v>2</v>
       </c>
       <c r="AA91" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB91" s="5"/>
     </row>
     <row r="92" spans="1:28" outlineLevel="1">
       <c r="A92" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C92" s="5">
         <v>100</v>
@@ -8285,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J92" s="5">
         <v>8</v>
@@ -8324,16 +8349,16 @@
         <v>3</v>
       </c>
       <c r="AA92" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AB92" s="5"/>
     </row>
     <row r="93" spans="1:28" outlineLevel="1">
       <c r="A93" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C93" s="5">
         <v>100</v>
@@ -8349,10 +8374,10 @@
         <v>0</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J93" s="5">
         <v>8</v>
@@ -8388,16 +8413,16 @@
         <v>4</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AB93" s="5"/>
     </row>
     <row r="94" spans="1:28" outlineLevel="1">
       <c r="A94" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C94" s="5">
         <v>100</v>
@@ -8413,10 +8438,10 @@
         <v>0</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J94" s="5">
         <v>8</v>
@@ -8452,16 +8477,16 @@
         <v>5</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AB94" s="5"/>
     </row>
     <row r="95" spans="1:28" outlineLevel="1">
       <c r="A95" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C95" s="5">
         <v>100</v>
@@ -8477,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J95" s="5">
         <v>8</v>
@@ -8516,16 +8541,16 @@
         <v>255</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AB95" s="5"/>
     </row>
     <row r="96" spans="1:28" outlineLevel="1">
       <c r="A96" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C96" s="5">
         <v>100</v>
@@ -8541,10 +8566,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J96" s="6">
         <v>8</v>
@@ -8580,16 +8605,16 @@
         <v>0</v>
       </c>
       <c r="AA96" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB96" s="6"/>
     </row>
     <row r="97" spans="1:28" outlineLevel="1">
       <c r="A97" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C97" s="5">
         <v>100</v>
@@ -8605,10 +8630,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J97" s="5">
         <v>8</v>
@@ -8644,16 +8669,16 @@
         <v>1</v>
       </c>
       <c r="AA97" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AB97" s="5"/>
     </row>
     <row r="98" spans="1:28" outlineLevel="1">
       <c r="A98" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C98" s="5">
         <v>100</v>
@@ -8669,10 +8694,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J98" s="5">
         <v>8</v>
@@ -8708,16 +8733,16 @@
         <v>2</v>
       </c>
       <c r="AA98" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB98" s="5"/>
     </row>
     <row r="99" spans="1:28" outlineLevel="1">
       <c r="A99" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C99" s="5">
         <v>100</v>
@@ -8733,10 +8758,10 @@
         <v>0</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J99" s="5">
         <v>8</v>
@@ -8772,16 +8797,16 @@
         <v>3</v>
       </c>
       <c r="AA99" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AB99" s="5"/>
     </row>
     <row r="100" spans="1:28" outlineLevel="1">
       <c r="A100" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C100" s="5">
         <v>100</v>
@@ -8797,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J100" s="5">
         <v>8</v>
@@ -8836,16 +8861,16 @@
         <v>4</v>
       </c>
       <c r="AA100" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB100" s="5"/>
     </row>
     <row r="101" spans="1:28" outlineLevel="1">
       <c r="A101" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C101" s="5">
         <v>100</v>
@@ -8861,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J101" s="5">
         <v>8</v>
@@ -8900,16 +8925,16 @@
         <v>5</v>
       </c>
       <c r="AA101" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB101" s="5"/>
     </row>
     <row r="102" spans="1:28" outlineLevel="1">
       <c r="A102" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C102" s="5">
         <v>100</v>
@@ -8925,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J102" s="5">
         <v>8</v>
@@ -8964,16 +8989,16 @@
         <v>6</v>
       </c>
       <c r="AA102" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AB102" s="5"/>
     </row>
     <row r="103" spans="1:28" outlineLevel="1">
       <c r="A103" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C103" s="5">
         <v>100</v>
@@ -8989,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J103" s="6">
         <v>8</v>
@@ -9028,16 +9053,16 @@
         <v>0</v>
       </c>
       <c r="AA103" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB103" s="6"/>
     </row>
     <row r="104" spans="1:28" outlineLevel="1">
       <c r="A104" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C104" s="5">
         <v>100</v>
@@ -9053,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J104" s="5">
         <v>8</v>
@@ -9092,16 +9117,16 @@
         <v>1</v>
       </c>
       <c r="AA104" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AB104" s="5"/>
     </row>
     <row r="105" spans="1:28" outlineLevel="1">
       <c r="A105" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C105" s="5">
         <v>100</v>
@@ -9117,10 +9142,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J105" s="5">
         <v>8</v>
@@ -9156,16 +9181,16 @@
         <v>2</v>
       </c>
       <c r="AA105" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB105" s="5"/>
     </row>
     <row r="106" spans="1:28" outlineLevel="1">
       <c r="A106" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C106" s="5">
         <v>100</v>
@@ -9181,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J106" s="5">
         <v>8</v>
@@ -9220,16 +9245,16 @@
         <v>3</v>
       </c>
       <c r="AA106" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AB106" s="5"/>
     </row>
     <row r="107" spans="1:28" outlineLevel="1">
       <c r="A107" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C107" s="5">
         <v>100</v>
@@ -9245,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J107" s="5">
         <v>8</v>
@@ -9284,16 +9309,16 @@
         <v>4</v>
       </c>
       <c r="AA107" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB107" s="5"/>
     </row>
     <row r="108" spans="1:28" outlineLevel="1">
       <c r="A108" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C108" s="5">
         <v>100</v>
@@ -9309,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J108" s="5">
         <v>8</v>
@@ -9348,16 +9373,16 @@
         <v>5</v>
       </c>
       <c r="AA108" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB108" s="5"/>
     </row>
     <row r="109" spans="1:28" outlineLevel="1">
       <c r="A109" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C109" s="5">
         <v>100</v>
@@ -9373,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J109" s="5">
         <v>8</v>
@@ -9412,16 +9437,16 @@
         <v>6</v>
       </c>
       <c r="AA109" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AB109" s="5"/>
     </row>
     <row r="110" spans="1:28" outlineLevel="1">
       <c r="A110" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C110" s="5">
         <v>100</v>
@@ -9437,10 +9462,10 @@
         <v>0</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J110" s="6">
         <v>8</v>
@@ -9476,16 +9501,16 @@
         <v>0</v>
       </c>
       <c r="AA110" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB110" s="6"/>
     </row>
     <row r="111" spans="1:28" outlineLevel="1">
       <c r="A111" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C111" s="5">
         <v>100</v>
@@ -9501,10 +9526,10 @@
         <v>0</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J111" s="5">
         <v>8</v>
@@ -9540,16 +9565,16 @@
         <v>1</v>
       </c>
       <c r="AA111" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AB111" s="5"/>
     </row>
     <row r="112" spans="1:28" outlineLevel="1">
       <c r="A112" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C112" s="5">
         <v>100</v>
@@ -9565,10 +9590,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J112" s="5">
         <v>8</v>
@@ -9604,16 +9629,16 @@
         <v>2</v>
       </c>
       <c r="AA112" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB112" s="5"/>
     </row>
     <row r="113" spans="1:28" outlineLevel="1">
       <c r="A113" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C113" s="5">
         <v>100</v>
@@ -9629,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J113" s="5">
         <v>8</v>
@@ -9668,16 +9693,16 @@
         <v>3</v>
       </c>
       <c r="AA113" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AB113" s="5"/>
     </row>
     <row r="114" spans="1:28" outlineLevel="1">
       <c r="A114" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C114" s="5">
         <v>100</v>
@@ -9693,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J114" s="5">
         <v>8</v>
@@ -9732,16 +9757,16 @@
         <v>4</v>
       </c>
       <c r="AA114" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB114" s="5"/>
     </row>
     <row r="115" spans="1:28" outlineLevel="1">
       <c r="A115" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C115" s="5">
         <v>100</v>
@@ -9757,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J115" s="5">
         <v>8</v>
@@ -9796,16 +9821,16 @@
         <v>5</v>
       </c>
       <c r="AA115" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB115" s="5"/>
     </row>
     <row r="116" spans="1:28" outlineLevel="1">
       <c r="A116" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C116" s="5">
         <v>100</v>
@@ -9821,10 +9846,10 @@
         <v>0</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J116" s="5">
         <v>8</v>
@@ -9860,16 +9885,16 @@
         <v>6</v>
       </c>
       <c r="AA116" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AB116" s="5"/>
     </row>
     <row r="117" spans="1:28" outlineLevel="1">
       <c r="A117" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C117" s="5">
         <v>100</v>
@@ -9885,10 +9910,10 @@
         <v>0</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J117" s="6">
         <v>8</v>
@@ -9924,16 +9949,16 @@
         <v>0</v>
       </c>
       <c r="AA117" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AB117" s="6"/>
     </row>
     <row r="118" spans="1:28" outlineLevel="1">
       <c r="A118" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C118" s="5">
         <v>100</v>
@@ -9949,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J118" s="5">
         <v>8</v>
@@ -9988,16 +10013,16 @@
         <v>1</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AB118" s="5"/>
     </row>
     <row r="119" spans="1:28" outlineLevel="1">
       <c r="A119" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C119" s="5">
         <v>100</v>
@@ -10013,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J119" s="5">
         <v>8</v>
@@ -10052,16 +10077,16 @@
         <v>2</v>
       </c>
       <c r="AA119" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AB119" s="5"/>
     </row>
     <row r="120" spans="1:28" outlineLevel="1">
       <c r="A120" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C120" s="5">
         <v>100</v>
@@ -10077,10 +10102,10 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J120" s="5">
         <v>8</v>
@@ -10116,16 +10141,16 @@
         <v>3</v>
       </c>
       <c r="AA120" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AB120" s="5"/>
     </row>
     <row r="121" spans="1:28" outlineLevel="1">
       <c r="A121" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C121" s="5">
         <v>100</v>
@@ -10141,10 +10166,10 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J121" s="5">
         <v>8</v>
@@ -10180,16 +10205,16 @@
         <v>4</v>
       </c>
       <c r="AA121" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB121" s="5"/>
     </row>
     <row r="122" spans="1:28" outlineLevel="1">
       <c r="A122" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C122" s="5">
         <v>100</v>
@@ -10205,10 +10230,10 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J122" s="5">
         <v>8</v>
@@ -10244,16 +10269,16 @@
         <v>5</v>
       </c>
       <c r="AA122" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AB122" s="5"/>
     </row>
     <row r="123" spans="1:28" outlineLevel="1">
       <c r="A123" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5">
         <v>100</v>
@@ -10269,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J123" s="5">
         <v>8</v>
@@ -10308,16 +10333,16 @@
         <v>6</v>
       </c>
       <c r="AA123" s="6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AB123" s="5"/>
     </row>
     <row r="124" spans="1:28">
       <c r="A124" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C124" s="2">
         <v>100</v>
@@ -10333,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="J124" s="2">
         <v>1</v>
@@ -10374,10 +10399,10 @@
     </row>
     <row r="125" spans="1:28" outlineLevel="1">
       <c r="A125" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C125" s="5">
         <v>100</v>
@@ -10393,10 +10418,10 @@
         <v>1</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J125" s="6">
         <v>1</v>
@@ -10434,10 +10459,10 @@
     </row>
     <row r="126" spans="1:28" outlineLevel="1">
       <c r="A126" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C126" s="5">
         <v>100</v>
@@ -10453,10 +10478,10 @@
         <v>2</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="J126" s="6">
         <v>1</v>
@@ -10494,10 +10519,10 @@
     </row>
     <row r="127" spans="1:28" outlineLevel="1">
       <c r="A127" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C127" s="5">
         <v>100</v>
@@ -10513,10 +10538,10 @@
         <v>3</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J127" s="6">
         <v>1</v>
@@ -10554,10 +10579,10 @@
     </row>
     <row r="128" spans="1:28" outlineLevel="1">
       <c r="A128" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C128" s="5">
         <v>100</v>
@@ -10573,10 +10598,10 @@
         <v>4</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="J128" s="6">
         <v>1</v>
@@ -10614,10 +10639,10 @@
     </row>
     <row r="129" spans="1:28" outlineLevel="1">
       <c r="A129" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C129" s="5">
         <v>100</v>
@@ -10633,10 +10658,10 @@
         <v>5</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J129" s="6">
         <v>1</v>
@@ -10674,10 +10699,10 @@
     </row>
     <row r="130" spans="1:28" outlineLevel="1">
       <c r="A130" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C130" s="5">
         <v>100</v>
@@ -10693,10 +10718,10 @@
         <v>6</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J130" s="6">
         <v>1</v>
@@ -10734,10 +10759,10 @@
     </row>
     <row r="131" spans="1:28" outlineLevel="1">
       <c r="A131" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C131" s="5">
         <v>100</v>
@@ -10753,10 +10778,10 @@
         <v>7</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J131" s="6">
         <v>1</v>
@@ -10794,10 +10819,10 @@
     </row>
     <row r="132" spans="1:28" outlineLevel="1">
       <c r="A132" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C132" s="5">
         <v>100</v>
@@ -10813,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J132" s="6">
         <v>1</v>
@@ -10854,10 +10879,10 @@
     </row>
     <row r="133" spans="1:28" outlineLevel="1">
       <c r="A133" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C133" s="5">
         <v>100</v>
@@ -10873,10 +10898,10 @@
         <v>1</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J133" s="6">
         <v>1</v>
@@ -10914,10 +10939,10 @@
     </row>
     <row r="134" spans="1:28" outlineLevel="1">
       <c r="A134" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C134" s="5">
         <v>100</v>
@@ -10933,10 +10958,10 @@
         <v>2</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="J134" s="6">
         <v>1</v>
@@ -10974,10 +10999,10 @@
     </row>
     <row r="135" spans="1:28" outlineLevel="1">
       <c r="A135" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C135" s="5">
         <v>100</v>
@@ -10993,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="J135" s="6">
         <v>1</v>
@@ -11034,10 +11059,10 @@
     </row>
     <row r="136" spans="1:28" outlineLevel="1">
       <c r="A136" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C136" s="5">
         <v>100</v>
@@ -11053,10 +11078,10 @@
         <v>4</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J136" s="6">
         <v>1</v>
@@ -11094,10 +11119,10 @@
     </row>
     <row r="137" spans="1:28" outlineLevel="1">
       <c r="A137" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C137" s="5">
         <v>100</v>
@@ -11113,10 +11138,10 @@
         <v>5</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J137" s="6">
         <v>1</v>
@@ -11154,10 +11179,10 @@
     </row>
     <row r="138" spans="1:28" outlineLevel="1">
       <c r="A138" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C138" s="5">
         <v>100</v>
@@ -11173,10 +11198,10 @@
         <v>6</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J138" s="6">
         <v>1</v>
@@ -11214,10 +11239,10 @@
     </row>
     <row r="139" spans="1:28" outlineLevel="1">
       <c r="A139" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C139" s="5">
         <v>100</v>
@@ -11233,10 +11258,10 @@
         <v>7</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J139" s="6">
         <v>1</v>
@@ -11274,10 +11299,10 @@
     </row>
     <row r="140" spans="1:28" outlineLevel="1">
       <c r="A140" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C140" s="5">
         <v>100</v>
@@ -11293,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J140" s="6">
         <v>1</v>
@@ -11334,10 +11359,10 @@
     </row>
     <row r="141" spans="1:28" outlineLevel="1">
       <c r="A141" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C141" s="5">
         <v>100</v>
@@ -11353,10 +11378,10 @@
         <v>1</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J141" s="6">
         <v>1</v>
@@ -11394,10 +11419,10 @@
     </row>
     <row r="142" spans="1:28" outlineLevel="1">
       <c r="A142" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C142" s="5">
         <v>100</v>
@@ -11413,10 +11438,10 @@
         <v>2</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="J142" s="6">
         <v>1</v>
@@ -11454,10 +11479,10 @@
     </row>
     <row r="143" spans="1:28" outlineLevel="1">
       <c r="A143" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C143" s="5">
         <v>100</v>
@@ -11473,10 +11498,10 @@
         <v>3</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J143" s="6">
         <v>1</v>
@@ -11514,10 +11539,10 @@
     </row>
     <row r="144" spans="1:28" outlineLevel="1">
       <c r="A144" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C144" s="5">
         <v>100</v>
@@ -11533,10 +11558,10 @@
         <v>4</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J144" s="6">
         <v>1</v>
@@ -11574,10 +11599,10 @@
     </row>
     <row r="145" spans="1:28" outlineLevel="1">
       <c r="A145" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C145" s="5">
         <v>100</v>
@@ -11593,10 +11618,10 @@
         <v>5</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="J145" s="6">
         <v>1</v>
@@ -11634,10 +11659,10 @@
     </row>
     <row r="146" spans="1:28" outlineLevel="1">
       <c r="A146" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C146" s="5">
         <v>100</v>
@@ -11653,10 +11678,10 @@
         <v>6</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J146" s="6">
         <v>1</v>
@@ -11694,10 +11719,10 @@
     </row>
     <row r="147" spans="1:28" outlineLevel="1">
       <c r="A147" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C147" s="5">
         <v>100</v>
@@ -11713,10 +11738,10 @@
         <v>7</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J147" s="6">
         <v>1</v>
@@ -11754,10 +11779,10 @@
     </row>
     <row r="148" spans="1:28" outlineLevel="1">
       <c r="A148" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C148" s="5">
         <v>100</v>
@@ -11773,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J148" s="6">
         <v>1</v>
@@ -11814,10 +11839,10 @@
     </row>
     <row r="149" spans="1:28" outlineLevel="1">
       <c r="A149" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C149" s="5">
         <v>100</v>
@@ -11833,10 +11858,10 @@
         <v>1</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J149" s="6">
         <v>1</v>
@@ -11874,10 +11899,10 @@
     </row>
     <row r="150" spans="1:28">
       <c r="A150" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C150" s="2">
         <v>500</v>
@@ -11893,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J150" s="2">
         <v>1</v>
@@ -11934,10 +11959,10 @@
     </row>
     <row r="151" spans="1:28" outlineLevel="1">
       <c r="A151" s="5" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C151" s="5">
         <v>500</v>
@@ -11953,10 +11978,10 @@
         <v>1</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J151" s="6">
         <v>1</v>
@@ -11994,10 +12019,10 @@
     </row>
     <row r="152" spans="1:28">
       <c r="A152" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C152" s="2">
         <v>100</v>
@@ -12013,10 +12038,10 @@
         <v>0</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J152" s="2">
         <v>16</v>
@@ -12050,18 +12075,18 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
       <c r="AA152" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB152" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:28" outlineLevel="1">
       <c r="A153" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C153" s="5">
         <v>100</v>
@@ -12077,10 +12102,10 @@
         <v>0</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="J153" s="6">
         <v>16</v>
@@ -12114,18 +12139,18 @@
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
       <c r="AA153" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB153" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="1:28" outlineLevel="1">
       <c r="A154" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C154" s="5">
         <v>100</v>
@@ -12141,10 +12166,10 @@
         <v>0</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J154" s="6">
         <v>16</v>
@@ -12178,18 +12203,18 @@
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
       <c r="AA154" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB154" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:28" outlineLevel="1">
       <c r="A155" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C155" s="5">
         <v>100</v>
@@ -12205,10 +12230,10 @@
         <v>0</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J155" s="6">
         <v>16</v>
@@ -12242,18 +12267,18 @@
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
       <c r="AA155" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB155" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="156" spans="1:28">
       <c r="A156" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C156" s="2">
         <v>100</v>
@@ -12269,10 +12294,10 @@
         <v>0</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J156" s="2">
         <v>16</v>
@@ -12306,18 +12331,18 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB156" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="157" spans="1:28" outlineLevel="1">
       <c r="A157" s="5" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C157" s="5">
         <v>100</v>
@@ -12333,10 +12358,10 @@
         <v>0</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J157" s="6">
         <v>16</v>
@@ -12370,18 +12395,18 @@
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB157" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="158" spans="1:28" outlineLevel="1">
       <c r="A158" s="5" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C158" s="5">
         <v>100</v>
@@ -12397,10 +12422,10 @@
         <v>0</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J158" s="6">
         <v>16</v>
@@ -12434,18 +12459,18 @@
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AB158" s="6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="159" spans="1:28">
       <c r="A159" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C159" s="2">
         <v>500</v>
@@ -12461,10 +12486,10 @@
         <v>0</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J159" s="2">
         <v>4</v>
@@ -12498,7 +12523,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AB159" s="2" t="s">
         <v>178</v>
@@ -12506,10 +12531,10 @@
     </row>
     <row r="160" spans="1:28">
       <c r="A160" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -12525,10 +12550,10 @@
         <v>0</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J160" s="2">
         <v>8</v>
@@ -12562,16 +12587,16 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AB160" s="2"/>
     </row>
     <row r="161" spans="1:28" outlineLevel="1">
       <c r="A161" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C161" s="5">
         <v>0</v>
@@ -12587,10 +12612,10 @@
         <v>2</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J161" s="6">
         <v>1</v>
@@ -12628,10 +12653,10 @@
     </row>
     <row r="162" spans="1:28" outlineLevel="1">
       <c r="A162" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C162" s="5">
         <v>0</v>
@@ -12647,10 +12672,10 @@
         <v>3</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J162" s="6">
         <v>1</v>
@@ -12688,10 +12713,10 @@
     </row>
     <row r="163" spans="1:28" outlineLevel="1">
       <c r="A163" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C163" s="5">
         <v>0</v>
@@ -12707,10 +12732,10 @@
         <v>0</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J163" s="6">
         <v>8</v>
@@ -12744,18 +12769,18 @@
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AB163" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="1:28" outlineLevel="1">
       <c r="A164" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C164" s="5">
         <v>0</v>
@@ -12771,10 +12796,10 @@
         <v>0</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J164" s="6">
         <v>8</v>
@@ -12808,18 +12833,18 @@
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AB164" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="1:28" outlineLevel="1">
       <c r="A165" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C165" s="5">
         <v>0</v>
@@ -12835,10 +12860,10 @@
         <v>0</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J165" s="6">
         <v>8</v>
@@ -12872,16 +12897,16 @@
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AB165" s="6"/>
     </row>
     <row r="166" spans="1:28" outlineLevel="1">
       <c r="A166" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C166" s="5">
         <v>0</v>
@@ -12897,10 +12922,10 @@
         <v>2</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J166" s="6">
         <v>1</v>
@@ -12938,10 +12963,10 @@
     </row>
     <row r="167" spans="1:28" outlineLevel="1">
       <c r="A167" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C167" s="5">
         <v>0</v>
@@ -12957,10 +12982,10 @@
         <v>3</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="J167" s="6">
         <v>1</v>
@@ -12998,10 +13023,10 @@
     </row>
     <row r="168" spans="1:28" outlineLevel="1">
       <c r="A168" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C168" s="5">
         <v>0</v>
@@ -13017,10 +13042,10 @@
         <v>0</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J168" s="6">
         <v>8</v>
@@ -13054,18 +13079,18 @@
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AB168" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:28" outlineLevel="1">
       <c r="A169" s="5" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C169" s="5">
         <v>0</v>
@@ -13081,10 +13106,10 @@
         <v>0</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J169" s="6">
         <v>8</v>
@@ -13118,18 +13143,18 @@
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AB169" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:28">
       <c r="A170" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -13145,10 +13170,10 @@
         <v>0</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J170" s="2">
         <v>8</v>
@@ -13182,16 +13207,16 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AB170" s="2"/>
     </row>
     <row r="171" spans="1:28" outlineLevel="1">
       <c r="A171" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C171" s="5">
         <v>0</v>
@@ -13207,10 +13232,10 @@
         <v>2</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J171" s="6">
         <v>1</v>
@@ -13248,10 +13273,10 @@
     </row>
     <row r="172" spans="1:28" outlineLevel="1">
       <c r="A172" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C172" s="5">
         <v>0</v>
@@ -13267,10 +13292,10 @@
         <v>3</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J172" s="6">
         <v>1</v>
@@ -13308,10 +13333,10 @@
     </row>
     <row r="173" spans="1:28" outlineLevel="1">
       <c r="A173" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C173" s="5">
         <v>0</v>
@@ -13327,10 +13352,10 @@
         <v>0</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J173" s="6">
         <v>8</v>
@@ -13364,18 +13389,18 @@
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AB173" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:28" outlineLevel="1">
       <c r="A174" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C174" s="5">
         <v>0</v>
@@ -13391,10 +13416,10 @@
         <v>0</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J174" s="6">
         <v>8</v>
@@ -13428,18 +13453,18 @@
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AB174" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:28" outlineLevel="1">
       <c r="A175" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C175" s="5">
         <v>0</v>
@@ -13455,10 +13480,10 @@
         <v>0</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J175" s="6">
         <v>8</v>
@@ -13492,16 +13517,16 @@
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AB175" s="6"/>
     </row>
     <row r="176" spans="1:28" outlineLevel="1">
       <c r="A176" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C176" s="5">
         <v>0</v>
@@ -13517,10 +13542,10 @@
         <v>2</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="J176" s="6">
         <v>1</v>
@@ -13558,10 +13583,10 @@
     </row>
     <row r="177" spans="1:28" outlineLevel="1">
       <c r="A177" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C177" s="5">
         <v>0</v>
@@ -13577,10 +13602,10 @@
         <v>3</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J177" s="6">
         <v>1</v>
@@ -13618,10 +13643,10 @@
     </row>
     <row r="178" spans="1:28" outlineLevel="1">
       <c r="A178" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C178" s="5">
         <v>0</v>
@@ -13637,10 +13662,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="J178" s="6">
         <v>8</v>
@@ -13674,18 +13699,18 @@
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="6" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AB178" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:28" outlineLevel="1">
       <c r="A179" s="5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C179" s="5">
         <v>0</v>
@@ -13701,10 +13726,10 @@
         <v>0</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J179" s="6">
         <v>8</v>
@@ -13738,18 +13763,18 @@
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AB179" s="6" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:28">
       <c r="A180" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C180" s="2">
         <v>100</v>
@@ -13765,10 +13790,10 @@
         <v>0</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="J180" s="2">
         <v>1</v>
@@ -13780,7 +13805,7 @@
         <v>35</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N180" s="4"/>
       <c r="O180" s="2"/>
@@ -13804,10 +13829,10 @@
     </row>
     <row r="181" spans="1:28" outlineLevel="1">
       <c r="A181" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C181" s="5">
         <v>100</v>
@@ -13823,10 +13848,10 @@
         <v>1</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J181" s="6">
         <v>1</v>
@@ -13838,7 +13863,7 @@
         <v>35</v>
       </c>
       <c r="M181" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N181" s="8"/>
       <c r="O181" s="6"/>
@@ -13862,10 +13887,10 @@
     </row>
     <row r="182" spans="1:28" outlineLevel="1">
       <c r="A182" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C182" s="5">
         <v>100</v>
@@ -13881,10 +13906,10 @@
         <v>2</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J182" s="6">
         <v>1</v>
@@ -13896,7 +13921,7 @@
         <v>35</v>
       </c>
       <c r="M182" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N182" s="8"/>
       <c r="O182" s="6"/>
@@ -13920,10 +13945,10 @@
     </row>
     <row r="183" spans="1:28" outlineLevel="1">
       <c r="A183" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C183" s="5">
         <v>100</v>
@@ -13939,22 +13964,22 @@
         <v>3</v>
       </c>
       <c r="H183" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J183" s="6">
+        <v>1</v>
+      </c>
+      <c r="K183" s="6">
+        <v>0</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M183" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="I183" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="J183" s="6">
-        <v>1</v>
-      </c>
-      <c r="K183" s="6">
-        <v>0</v>
-      </c>
-      <c r="L183" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M183" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="N183" s="8"/>
       <c r="O183" s="6"/>
@@ -13978,10 +14003,10 @@
     </row>
     <row r="184" spans="1:28" outlineLevel="1">
       <c r="A184" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C184" s="5">
         <v>100</v>
@@ -13997,10 +14022,10 @@
         <v>4</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="J184" s="6">
         <v>1</v>
@@ -14012,7 +14037,7 @@
         <v>35</v>
       </c>
       <c r="M184" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N184" s="8"/>
       <c r="O184" s="6"/>
@@ -14036,10 +14061,10 @@
     </row>
     <row r="185" spans="1:28" outlineLevel="1">
       <c r="A185" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C185" s="5">
         <v>100</v>
@@ -14055,10 +14080,10 @@
         <v>5</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="J185" s="6">
         <v>1</v>
@@ -14070,7 +14095,7 @@
         <v>35</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N185" s="8"/>
       <c r="O185" s="6"/>
@@ -14094,10 +14119,10 @@
     </row>
     <row r="186" spans="1:28" outlineLevel="1">
       <c r="A186" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C186" s="5">
         <v>100</v>
@@ -14113,10 +14138,10 @@
         <v>6</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J186" s="6">
         <v>1</v>
@@ -14128,7 +14153,7 @@
         <v>35</v>
       </c>
       <c r="M186" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N186" s="8"/>
       <c r="O186" s="6"/>
@@ -14152,10 +14177,10 @@
     </row>
     <row r="187" spans="1:28" outlineLevel="1">
       <c r="A187" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C187" s="5">
         <v>100</v>
@@ -14171,10 +14196,10 @@
         <v>7</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="J187" s="6">
         <v>1</v>
@@ -14186,7 +14211,7 @@
         <v>35</v>
       </c>
       <c r="M187" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N187" s="8"/>
       <c r="O187" s="6"/>
@@ -14210,10 +14235,10 @@
     </row>
     <row r="188" spans="1:28" outlineLevel="1">
       <c r="A188" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C188" s="5">
         <v>100</v>
@@ -14229,10 +14254,10 @@
         <v>0</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="J188" s="6">
         <v>1</v>
@@ -14244,7 +14269,7 @@
         <v>35</v>
       </c>
       <c r="M188" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N188" s="8"/>
       <c r="O188" s="6"/>
@@ -14268,10 +14293,10 @@
     </row>
     <row r="189" spans="1:28" outlineLevel="1">
       <c r="A189" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C189" s="5">
         <v>100</v>
@@ -14287,10 +14312,10 @@
         <v>1</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="J189" s="6">
         <v>1</v>
@@ -14302,7 +14327,7 @@
         <v>35</v>
       </c>
       <c r="M189" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N189" s="8"/>
       <c r="O189" s="6"/>
@@ -14326,10 +14351,10 @@
     </row>
     <row r="190" spans="1:28" outlineLevel="1">
       <c r="A190" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C190" s="5">
         <v>100</v>
@@ -14345,10 +14370,10 @@
         <v>2</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J190" s="6">
         <v>1</v>
@@ -14360,7 +14385,7 @@
         <v>35</v>
       </c>
       <c r="M190" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N190" s="8"/>
       <c r="O190" s="6"/>
@@ -14384,10 +14409,10 @@
     </row>
     <row r="191" spans="1:28" outlineLevel="1">
       <c r="A191" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C191" s="5">
         <v>100</v>
@@ -14403,10 +14428,10 @@
         <v>3</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="J191" s="6">
         <v>1</v>
@@ -14418,7 +14443,7 @@
         <v>35</v>
       </c>
       <c r="M191" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N191" s="8"/>
       <c r="O191" s="6"/>
@@ -14442,10 +14467,10 @@
     </row>
     <row r="192" spans="1:28" outlineLevel="1">
       <c r="A192" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C192" s="5">
         <v>100</v>
@@ -14461,10 +14486,10 @@
         <v>4</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="J192" s="6">
         <v>1</v>
@@ -14476,7 +14501,7 @@
         <v>35</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N192" s="8"/>
       <c r="O192" s="6"/>
@@ -14500,10 +14525,10 @@
     </row>
     <row r="193" spans="1:28" outlineLevel="1">
       <c r="A193" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C193" s="5">
         <v>100</v>
@@ -14519,10 +14544,10 @@
         <v>5</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J193" s="6">
         <v>1</v>
@@ -14534,7 +14559,7 @@
         <v>35</v>
       </c>
       <c r="M193" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N193" s="8"/>
       <c r="O193" s="6"/>
@@ -14558,10 +14583,10 @@
     </row>
     <row r="194" spans="1:28" outlineLevel="1">
       <c r="A194" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C194" s="5">
         <v>100</v>
@@ -14577,10 +14602,10 @@
         <v>6</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J194" s="6">
         <v>1</v>
@@ -14592,7 +14617,7 @@
         <v>35</v>
       </c>
       <c r="M194" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N194" s="8"/>
       <c r="O194" s="6"/>
@@ -14616,10 +14641,10 @@
     </row>
     <row r="195" spans="1:28" outlineLevel="1">
       <c r="A195" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C195" s="5">
         <v>100</v>
@@ -14635,10 +14660,10 @@
         <v>7</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="J195" s="6">
         <v>1</v>
@@ -14650,7 +14675,7 @@
         <v>35</v>
       </c>
       <c r="M195" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N195" s="8"/>
       <c r="O195" s="6"/>
@@ -14674,10 +14699,10 @@
     </row>
     <row r="196" spans="1:28" outlineLevel="1">
       <c r="A196" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C196" s="5">
         <v>100</v>
@@ -14693,10 +14718,10 @@
         <v>0</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J196" s="6">
         <v>1</v>
@@ -14708,7 +14733,7 @@
         <v>35</v>
       </c>
       <c r="M196" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N196" s="8"/>
       <c r="O196" s="6"/>
@@ -14732,10 +14757,10 @@
     </row>
     <row r="197" spans="1:28" outlineLevel="1">
       <c r="A197" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C197" s="5">
         <v>100</v>
@@ -14751,10 +14776,10 @@
         <v>1</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J197" s="6">
         <v>1</v>
@@ -14766,7 +14791,7 @@
         <v>35</v>
       </c>
       <c r="M197" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N197" s="8"/>
       <c r="O197" s="6"/>
@@ -14790,10 +14815,10 @@
     </row>
     <row r="198" spans="1:28" outlineLevel="1">
       <c r="A198" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C198" s="5">
         <v>100</v>
@@ -14809,10 +14834,10 @@
         <v>2</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="J198" s="6">
         <v>1</v>
@@ -14824,7 +14849,7 @@
         <v>35</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N198" s="8"/>
       <c r="O198" s="6"/>
@@ -14848,10 +14873,10 @@
     </row>
     <row r="199" spans="1:28" outlineLevel="1">
       <c r="A199" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C199" s="5">
         <v>100</v>
@@ -14867,10 +14892,10 @@
         <v>3</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="J199" s="6">
         <v>1</v>
@@ -14882,7 +14907,7 @@
         <v>35</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N199" s="8"/>
       <c r="O199" s="6"/>
@@ -14906,10 +14931,10 @@
     </row>
     <row r="200" spans="1:28" outlineLevel="1">
       <c r="A200" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C200" s="5">
         <v>100</v>
@@ -14925,10 +14950,10 @@
         <v>4</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="J200" s="6">
         <v>1</v>
@@ -14940,7 +14965,7 @@
         <v>35</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N200" s="8"/>
       <c r="O200" s="6"/>
@@ -14964,10 +14989,10 @@
     </row>
     <row r="201" spans="1:28" outlineLevel="1">
       <c r="A201" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C201" s="5">
         <v>100</v>
@@ -14983,10 +15008,10 @@
         <v>5</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="J201" s="6">
         <v>1</v>
@@ -14998,7 +15023,7 @@
         <v>35</v>
       </c>
       <c r="M201" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N201" s="8"/>
       <c r="O201" s="6"/>
@@ -15022,10 +15047,10 @@
     </row>
     <row r="202" spans="1:28" outlineLevel="1">
       <c r="A202" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C202" s="5">
         <v>100</v>
@@ -15041,10 +15066,10 @@
         <v>6</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="J202" s="6">
         <v>1</v>
@@ -15056,7 +15081,7 @@
         <v>35</v>
       </c>
       <c r="M202" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N202" s="8"/>
       <c r="O202" s="6"/>
@@ -15080,10 +15105,10 @@
     </row>
     <row r="203" spans="1:28" outlineLevel="1">
       <c r="A203" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C203" s="5">
         <v>100</v>
@@ -15099,10 +15124,10 @@
         <v>7</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="J203" s="6">
         <v>1</v>
@@ -15114,7 +15139,7 @@
         <v>35</v>
       </c>
       <c r="M203" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N203" s="8"/>
       <c r="O203" s="6"/>
@@ -15138,10 +15163,10 @@
     </row>
     <row r="204" spans="1:28" outlineLevel="1">
       <c r="A204" s="5" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C204" s="5">
         <v>100</v>
@@ -15157,10 +15182,10 @@
         <v>7</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="J204" s="6">
         <v>1</v>
@@ -15172,7 +15197,7 @@
         <v>35</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N204" s="8"/>
       <c r="O204" s="6"/>
@@ -15196,10 +15221,10 @@
     </row>
     <row r="205" spans="1:28">
       <c r="A205" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C205" s="2">
         <v>100</v>
@@ -15215,10 +15240,10 @@
         <v>0</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="J205" s="2">
         <v>16</v>
@@ -15230,7 +15255,7 @@
         <v>35</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N205" s="4"/>
       <c r="O205" s="2"/>
@@ -15250,18 +15275,18 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
       <c r="AA205" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AB205" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="206" spans="1:28" outlineLevel="1">
       <c r="A206" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C206" s="5">
         <v>100</v>
@@ -15277,10 +15302,10 @@
         <v>0</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="J206" s="6">
         <v>16</v>
@@ -15292,7 +15317,7 @@
         <v>35</v>
       </c>
       <c r="M206" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N206" s="8"/>
       <c r="O206" s="6"/>
@@ -15312,18 +15337,18 @@
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
       <c r="AA206" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AB206" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:28" outlineLevel="1">
       <c r="A207" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C207" s="5">
         <v>100</v>
@@ -15339,10 +15364,10 @@
         <v>0</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="J207" s="6">
         <v>16</v>
@@ -15354,7 +15379,7 @@
         <v>35</v>
       </c>
       <c r="M207" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N207" s="8"/>
       <c r="O207" s="6"/>
@@ -15374,18 +15399,18 @@
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
       <c r="AA207" s="6" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AB207" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:28" outlineLevel="1">
       <c r="A208" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C208" s="5">
         <v>100</v>
@@ -15401,10 +15426,10 @@
         <v>0</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="J208" s="6">
         <v>16</v>
@@ -15416,7 +15441,7 @@
         <v>35</v>
       </c>
       <c r="M208" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N208" s="8"/>
       <c r="O208" s="6"/>
@@ -15436,18 +15461,18 @@
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
       <c r="AA208" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AB208" s="6" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209" spans="1:28">
       <c r="A209" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C209" s="2">
         <v>100</v>
@@ -15463,10 +15488,10 @@
         <v>0</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="J209" s="2">
         <v>16</v>
@@ -15478,7 +15503,7 @@
         <v>35</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N209" s="4"/>
       <c r="O209" s="2"/>
@@ -15501,15 +15526,15 @@
         <v>177</v>
       </c>
       <c r="AB209" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="1:28" outlineLevel="1">
       <c r="A210" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C210" s="5">
         <v>100</v>
@@ -15525,10 +15550,10 @@
         <v>0</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="J210" s="6">
         <v>8</v>
@@ -15540,7 +15565,7 @@
         <v>35</v>
       </c>
       <c r="M210" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N210" s="8"/>
       <c r="O210" s="6"/>
@@ -15560,18 +15585,18 @@
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
       <c r="AA210" s="6" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AB210" s="6" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="1:28" outlineLevel="1">
       <c r="A211" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C211" s="5">
         <v>100</v>
@@ -15587,10 +15612,10 @@
         <v>0</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="J211" s="6">
         <v>8</v>
@@ -15602,7 +15627,7 @@
         <v>35</v>
       </c>
       <c r="M211" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N211" s="8"/>
       <c r="O211" s="6"/>
@@ -15622,18 +15647,18 @@
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
       <c r="AA211" s="6" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AB211" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:28" outlineLevel="1">
       <c r="A212" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C212" s="5">
         <v>100</v>
@@ -15649,10 +15674,10 @@
         <v>0</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J212" s="6">
         <v>16</v>
@@ -15664,7 +15689,7 @@
         <v>35</v>
       </c>
       <c r="M212" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N212" s="8"/>
       <c r="O212" s="6"/>
@@ -15687,15 +15712,15 @@
         <v>167</v>
       </c>
       <c r="AB212" s="6" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:28" outlineLevel="1">
       <c r="A213" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C213" s="5">
         <v>100</v>
@@ -15711,10 +15736,10 @@
         <v>0</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J213" s="6">
         <v>16</v>
@@ -15726,7 +15751,7 @@
         <v>35</v>
       </c>
       <c r="M213" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N213" s="8"/>
       <c r="O213" s="6"/>
@@ -15746,18 +15771,18 @@
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
       <c r="AA213" s="6" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AB213" s="6" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" spans="1:28">
       <c r="A214" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C214" s="2">
         <v>1000</v>
@@ -15773,10 +15798,10 @@
         <v>0</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="J214" s="2">
         <v>16</v>
@@ -15788,7 +15813,7 @@
         <v>35</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N214" s="4"/>
       <c r="O214" s="2"/>
@@ -15808,18 +15833,18 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AB214" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:28" outlineLevel="1">
       <c r="A215" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C215" s="5">
         <v>1000</v>
@@ -15835,10 +15860,10 @@
         <v>0</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="J215" s="6">
         <v>16</v>
@@ -15850,7 +15875,7 @@
         <v>35</v>
       </c>
       <c r="M215" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N215" s="8"/>
       <c r="O215" s="6"/>
@@ -15870,18 +15895,18 @@
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
       <c r="AA215" s="6" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AB215" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:28" outlineLevel="1">
       <c r="A216" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C216" s="5">
         <v>1000</v>
@@ -15897,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="J216" s="6">
         <v>16</v>
@@ -15912,7 +15937,7 @@
         <v>35</v>
       </c>
       <c r="M216" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N216" s="8"/>
       <c r="O216" s="6"/>
@@ -15932,18 +15957,18 @@
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AB216" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:28" outlineLevel="1">
       <c r="A217" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C217" s="5">
         <v>1000</v>
@@ -15959,10 +15984,10 @@
         <v>0</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="J217" s="6">
         <v>16</v>
@@ -15974,7 +15999,7 @@
         <v>35</v>
       </c>
       <c r="M217" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N217" s="8"/>
       <c r="O217" s="6"/>
@@ -15994,18 +16019,18 @@
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AB217" s="6" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:28">
       <c r="A218" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C218" s="2">
         <v>1000</v>
@@ -16021,10 +16046,10 @@
         <v>0</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="J218" s="2">
         <v>1</v>
@@ -16036,7 +16061,7 @@
         <v>35</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N218" s="4"/>
       <c r="O218" s="2"/>
@@ -16060,10 +16085,10 @@
     </row>
     <row r="219" spans="1:28" outlineLevel="1">
       <c r="A219" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C219" s="5">
         <v>1000</v>
@@ -16079,10 +16104,10 @@
         <v>1</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="J219" s="6">
         <v>1</v>
@@ -16094,7 +16119,7 @@
         <v>35</v>
       </c>
       <c r="M219" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N219" s="8"/>
       <c r="O219" s="6"/>
@@ -16118,10 +16143,10 @@
     </row>
     <row r="220" spans="1:28" outlineLevel="1">
       <c r="A220" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C220" s="5">
         <v>1000</v>
@@ -16137,10 +16162,10 @@
         <v>2</v>
       </c>
       <c r="H220" s="6" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="J220" s="6">
         <v>1</v>
@@ -16152,7 +16177,7 @@
         <v>35</v>
       </c>
       <c r="M220" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N220" s="8"/>
       <c r="O220" s="6"/>
@@ -16176,10 +16201,10 @@
     </row>
     <row r="221" spans="1:28" outlineLevel="1">
       <c r="A221" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C221" s="5">
         <v>1000</v>
@@ -16195,10 +16220,10 @@
         <v>3</v>
       </c>
       <c r="H221" s="6" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="J221" s="6">
         <v>1</v>
@@ -16210,7 +16235,7 @@
         <v>35</v>
       </c>
       <c r="M221" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N221" s="8"/>
       <c r="O221" s="6"/>
@@ -16234,10 +16259,10 @@
     </row>
     <row r="222" spans="1:28" outlineLevel="1">
       <c r="A222" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C222" s="5">
         <v>1000</v>
@@ -16253,10 +16278,10 @@
         <v>4</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="J222" s="6">
         <v>1</v>
@@ -16268,7 +16293,7 @@
         <v>35</v>
       </c>
       <c r="M222" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N222" s="8"/>
       <c r="O222" s="6"/>
@@ -16292,10 +16317,10 @@
     </row>
     <row r="223" spans="1:28" outlineLevel="1">
       <c r="A223" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C223" s="5">
         <v>1000</v>
@@ -16311,10 +16336,10 @@
         <v>5</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="J223" s="6">
         <v>1</v>
@@ -16326,7 +16351,7 @@
         <v>35</v>
       </c>
       <c r="M223" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N223" s="8"/>
       <c r="O223" s="6"/>
@@ -16350,10 +16375,10 @@
     </row>
     <row r="224" spans="1:28" outlineLevel="1">
       <c r="A224" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C224" s="5">
         <v>1000</v>
@@ -16369,10 +16394,10 @@
         <v>6</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="J224" s="6">
         <v>1</v>
@@ -16384,7 +16409,7 @@
         <v>35</v>
       </c>
       <c r="M224" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N224" s="8"/>
       <c r="O224" s="6"/>
@@ -16408,10 +16433,10 @@
     </row>
     <row r="225" spans="1:28" outlineLevel="1">
       <c r="A225" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C225" s="5">
         <v>1000</v>
@@ -16427,10 +16452,10 @@
         <v>7</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="J225" s="6">
         <v>1</v>
@@ -16442,7 +16467,7 @@
         <v>35</v>
       </c>
       <c r="M225" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N225" s="8"/>
       <c r="O225" s="6"/>
@@ -16466,10 +16491,10 @@
     </row>
     <row r="226" spans="1:28" outlineLevel="1">
       <c r="A226" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C226" s="5">
         <v>1000</v>
@@ -16485,10 +16510,10 @@
         <v>0</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="J226" s="6">
         <v>1</v>
@@ -16500,7 +16525,7 @@
         <v>35</v>
       </c>
       <c r="M226" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N226" s="8"/>
       <c r="O226" s="6"/>
@@ -16524,10 +16549,10 @@
     </row>
     <row r="227" spans="1:28" outlineLevel="1">
       <c r="A227" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C227" s="5">
         <v>1000</v>
@@ -16543,10 +16568,10 @@
         <v>1</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="J227" s="6">
         <v>1</v>
@@ -16558,7 +16583,7 @@
         <v>35</v>
       </c>
       <c r="M227" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N227" s="8"/>
       <c r="O227" s="6"/>
@@ -16582,10 +16607,10 @@
     </row>
     <row r="228" spans="1:28" outlineLevel="1">
       <c r="A228" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C228" s="5">
         <v>1000</v>
@@ -16601,10 +16626,10 @@
         <v>2</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="J228" s="6">
         <v>1</v>
@@ -16616,7 +16641,7 @@
         <v>35</v>
       </c>
       <c r="M228" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N228" s="8"/>
       <c r="O228" s="6"/>
@@ -16640,10 +16665,10 @@
     </row>
     <row r="229" spans="1:28" outlineLevel="1">
       <c r="A229" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C229" s="5">
         <v>1000</v>
@@ -16659,10 +16684,10 @@
         <v>3</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="J229" s="6">
         <v>1</v>
@@ -16674,7 +16699,7 @@
         <v>35</v>
       </c>
       <c r="M229" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N229" s="8"/>
       <c r="O229" s="6"/>
@@ -16698,10 +16723,10 @@
     </row>
     <row r="230" spans="1:28" outlineLevel="1">
       <c r="A230" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C230" s="5">
         <v>1000</v>
@@ -16717,10 +16742,10 @@
         <v>4</v>
       </c>
       <c r="H230" s="6" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="J230" s="6">
         <v>1</v>
@@ -16732,7 +16757,7 @@
         <v>35</v>
       </c>
       <c r="M230" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N230" s="8"/>
       <c r="O230" s="6"/>
@@ -16756,10 +16781,10 @@
     </row>
     <row r="231" spans="1:28" outlineLevel="1">
       <c r="A231" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C231" s="5">
         <v>1000</v>
@@ -16775,10 +16800,10 @@
         <v>5</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="J231" s="6">
         <v>1</v>
@@ -16790,7 +16815,7 @@
         <v>35</v>
       </c>
       <c r="M231" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N231" s="8"/>
       <c r="O231" s="6"/>
@@ -16814,10 +16839,10 @@
     </row>
     <row r="232" spans="1:28" outlineLevel="1">
       <c r="A232" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C232" s="5">
         <v>1000</v>
@@ -16833,10 +16858,10 @@
         <v>6</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="J232" s="6">
         <v>1</v>
@@ -16848,7 +16873,7 @@
         <v>35</v>
       </c>
       <c r="M232" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N232" s="8"/>
       <c r="O232" s="6"/>
@@ -16872,10 +16897,10 @@
     </row>
     <row r="233" spans="1:28" outlineLevel="1">
       <c r="A233" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C233" s="5">
         <v>1000</v>
@@ -16891,10 +16916,10 @@
         <v>7</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="J233" s="6">
         <v>1</v>
@@ -16906,7 +16931,7 @@
         <v>35</v>
       </c>
       <c r="M233" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N233" s="8"/>
       <c r="O233" s="6"/>
@@ -16930,10 +16955,10 @@
     </row>
     <row r="234" spans="1:28" outlineLevel="1">
       <c r="A234" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C234" s="5">
         <v>1000</v>
@@ -16949,10 +16974,10 @@
         <v>0</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="J234" s="6">
         <v>1</v>
@@ -16964,7 +16989,7 @@
         <v>35</v>
       </c>
       <c r="M234" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N234" s="8"/>
       <c r="O234" s="6"/>
@@ -16988,10 +17013,10 @@
     </row>
     <row r="235" spans="1:28" outlineLevel="1">
       <c r="A235" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C235" s="5">
         <v>1000</v>
@@ -17007,10 +17032,10 @@
         <v>1</v>
       </c>
       <c r="H235" s="6" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="J235" s="6">
         <v>1</v>
@@ -17022,7 +17047,7 @@
         <v>35</v>
       </c>
       <c r="M235" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N235" s="8"/>
       <c r="O235" s="6"/>
@@ -17046,10 +17071,10 @@
     </row>
     <row r="236" spans="1:28" outlineLevel="1">
       <c r="A236" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C236" s="5">
         <v>1000</v>
@@ -17065,10 +17090,10 @@
         <v>2</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J236" s="6">
         <v>1</v>
@@ -17080,7 +17105,7 @@
         <v>35</v>
       </c>
       <c r="M236" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N236" s="8"/>
       <c r="O236" s="6"/>
@@ -17104,10 +17129,10 @@
     </row>
     <row r="237" spans="1:28" outlineLevel="1">
       <c r="A237" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C237" s="5">
         <v>1000</v>
@@ -17123,10 +17148,10 @@
         <v>3</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="J237" s="6">
         <v>1</v>
@@ -17138,7 +17163,7 @@
         <v>35</v>
       </c>
       <c r="M237" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N237" s="8"/>
       <c r="O237" s="6"/>
@@ -17162,10 +17187,10 @@
     </row>
     <row r="238" spans="1:28" outlineLevel="1">
       <c r="A238" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C238" s="5">
         <v>1000</v>
@@ -17181,10 +17206,10 @@
         <v>4</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="J238" s="6">
         <v>1</v>
@@ -17196,7 +17221,7 @@
         <v>35</v>
       </c>
       <c r="M238" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N238" s="8"/>
       <c r="O238" s="6"/>
@@ -17220,10 +17245,10 @@
     </row>
     <row r="239" spans="1:28" outlineLevel="1">
       <c r="A239" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C239" s="5">
         <v>1000</v>
@@ -17239,10 +17264,10 @@
         <v>5</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="J239" s="6">
         <v>1</v>
@@ -17254,7 +17279,7 @@
         <v>35</v>
       </c>
       <c r="M239" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N239" s="8"/>
       <c r="O239" s="6"/>
@@ -17278,10 +17303,10 @@
     </row>
     <row r="240" spans="1:28" outlineLevel="1">
       <c r="A240" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C240" s="5">
         <v>1000</v>
@@ -17297,10 +17322,10 @@
         <v>6</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="J240" s="6">
         <v>1</v>
@@ -17312,7 +17337,7 @@
         <v>35</v>
       </c>
       <c r="M240" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N240" s="8"/>
       <c r="O240" s="6"/>
@@ -17336,10 +17361,10 @@
     </row>
     <row r="241" spans="1:28" outlineLevel="1">
       <c r="A241" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C241" s="5">
         <v>1000</v>
@@ -17355,10 +17380,10 @@
         <v>7</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="J241" s="6">
         <v>1</v>
@@ -17370,7 +17395,7 @@
         <v>35</v>
       </c>
       <c r="M241" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N241" s="8"/>
       <c r="O241" s="6"/>
@@ -17394,10 +17419,10 @@
     </row>
     <row r="242" spans="1:28" outlineLevel="1">
       <c r="A242" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C242" s="5">
         <v>1000</v>
@@ -17413,10 +17438,10 @@
         <v>0</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="J242" s="6">
         <v>1</v>
@@ -17428,7 +17453,7 @@
         <v>35</v>
       </c>
       <c r="M242" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N242" s="8"/>
       <c r="O242" s="6"/>
@@ -17452,10 +17477,10 @@
     </row>
     <row r="243" spans="1:28" outlineLevel="1">
       <c r="A243" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C243" s="5">
         <v>1000</v>
@@ -17471,10 +17496,10 @@
         <v>1</v>
       </c>
       <c r="H243" s="6" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="J243" s="6">
         <v>1</v>
@@ -17486,7 +17511,7 @@
         <v>35</v>
       </c>
       <c r="M243" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N243" s="8"/>
       <c r="O243" s="6"/>
@@ -17510,10 +17535,10 @@
     </row>
     <row r="244" spans="1:28" outlineLevel="1">
       <c r="A244" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C244" s="5">
         <v>1000</v>
@@ -17529,10 +17554,10 @@
         <v>2</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="J244" s="6">
         <v>1</v>
@@ -17544,7 +17569,7 @@
         <v>35</v>
       </c>
       <c r="M244" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N244" s="8"/>
       <c r="O244" s="6"/>
@@ -17568,10 +17593,10 @@
     </row>
     <row r="245" spans="1:28" outlineLevel="1">
       <c r="A245" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C245" s="5">
         <v>1000</v>
@@ -17587,10 +17612,10 @@
         <v>3</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="J245" s="6">
         <v>1</v>
@@ -17602,7 +17627,7 @@
         <v>35</v>
       </c>
       <c r="M245" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N245" s="8"/>
       <c r="O245" s="6"/>
@@ -17626,10 +17651,10 @@
     </row>
     <row r="246" spans="1:28" outlineLevel="1">
       <c r="A246" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C246" s="5">
         <v>1000</v>
@@ -17645,10 +17670,10 @@
         <v>4</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="J246" s="6">
         <v>1</v>
@@ -17660,7 +17685,7 @@
         <v>35</v>
       </c>
       <c r="M246" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N246" s="8"/>
       <c r="O246" s="6"/>
@@ -17684,10 +17709,10 @@
     </row>
     <row r="247" spans="1:28" outlineLevel="1">
       <c r="A247" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C247" s="5">
         <v>1000</v>
@@ -17703,10 +17728,10 @@
         <v>5</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="J247" s="6">
         <v>1</v>
@@ -17718,7 +17743,7 @@
         <v>35</v>
       </c>
       <c r="M247" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N247" s="8"/>
       <c r="O247" s="6"/>
@@ -17742,10 +17767,10 @@
     </row>
     <row r="248" spans="1:28" outlineLevel="1">
       <c r="A248" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C248" s="5">
         <v>1000</v>
@@ -17761,10 +17786,10 @@
         <v>0</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="J248" s="6">
         <v>1</v>
@@ -17776,7 +17801,7 @@
         <v>35</v>
       </c>
       <c r="M248" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N248" s="8"/>
       <c r="O248" s="6"/>
@@ -17800,10 +17825,10 @@
     </row>
     <row r="249" spans="1:28" outlineLevel="1">
       <c r="A249" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C249" s="5">
         <v>1000</v>
@@ -17819,10 +17844,10 @@
         <v>1</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J249" s="6">
         <v>1</v>
@@ -17834,7 +17859,7 @@
         <v>35</v>
       </c>
       <c r="M249" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N249" s="8"/>
       <c r="O249" s="6"/>
@@ -17858,10 +17883,10 @@
     </row>
     <row r="250" spans="1:28" outlineLevel="1">
       <c r="A250" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C250" s="5">
         <v>1000</v>
@@ -17877,10 +17902,10 @@
         <v>2</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="J250" s="6">
         <v>1</v>
@@ -17892,7 +17917,7 @@
         <v>35</v>
       </c>
       <c r="M250" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N250" s="8"/>
       <c r="O250" s="6"/>
@@ -17916,10 +17941,10 @@
     </row>
     <row r="251" spans="1:28" outlineLevel="1">
       <c r="A251" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C251" s="5">
         <v>1000</v>
@@ -17935,10 +17960,10 @@
         <v>3</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="J251" s="6">
         <v>1</v>
@@ -17950,7 +17975,7 @@
         <v>35</v>
       </c>
       <c r="M251" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N251" s="8"/>
       <c r="O251" s="6"/>
@@ -17974,10 +17999,10 @@
     </row>
     <row r="252" spans="1:28" outlineLevel="1">
       <c r="A252" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C252" s="5">
         <v>1000</v>
@@ -17993,10 +18018,10 @@
         <v>4</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="J252" s="6">
         <v>1</v>
@@ -18008,7 +18033,7 @@
         <v>35</v>
       </c>
       <c r="M252" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N252" s="8"/>
       <c r="O252" s="6"/>
@@ -18032,10 +18057,10 @@
     </row>
     <row r="253" spans="1:28" outlineLevel="1">
       <c r="A253" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C253" s="5">
         <v>1000</v>
@@ -18051,10 +18076,10 @@
         <v>6</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="J253" s="6">
         <v>1</v>
@@ -18066,7 +18091,7 @@
         <v>35</v>
       </c>
       <c r="M253" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N253" s="8"/>
       <c r="O253" s="6"/>
@@ -18090,10 +18115,10 @@
     </row>
     <row r="254" spans="1:28" outlineLevel="1">
       <c r="A254" s="5" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C254" s="5">
         <v>1000</v>
@@ -18109,10 +18134,10 @@
         <v>7</v>
       </c>
       <c r="H254" s="6" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="J254" s="6">
         <v>1</v>
@@ -18124,7 +18149,7 @@
         <v>35</v>
       </c>
       <c r="M254" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N254" s="8"/>
       <c r="O254" s="6"/>
@@ -18150,10 +18175,10 @@
     </row>
     <row r="255" spans="1:28">
       <c r="A255" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C255" s="2">
         <v>100</v>
@@ -18169,10 +18194,10 @@
         <v>0</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="J255" s="2">
         <v>1</v>
@@ -18184,7 +18209,7 @@
         <v>35</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N255" s="4"/>
       <c r="O255" s="2"/>
@@ -18208,10 +18233,10 @@
     </row>
     <row r="256" spans="1:28" outlineLevel="1">
       <c r="A256" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C256" s="5">
         <v>100</v>
@@ -18227,10 +18252,10 @@
         <v>1</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="J256" s="6">
         <v>1</v>
@@ -18242,7 +18267,7 @@
         <v>35</v>
       </c>
       <c r="M256" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N256" s="8"/>
       <c r="O256" s="6"/>
@@ -18266,10 +18291,10 @@
     </row>
     <row r="257" spans="1:28" outlineLevel="1">
       <c r="A257" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C257" s="5">
         <v>100</v>
@@ -18285,10 +18310,10 @@
         <v>2</v>
       </c>
       <c r="H257" s="6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="J257" s="6">
         <v>1</v>
@@ -18300,7 +18325,7 @@
         <v>35</v>
       </c>
       <c r="M257" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N257" s="8"/>
       <c r="O257" s="6"/>
@@ -18324,10 +18349,10 @@
     </row>
     <row r="258" spans="1:28" outlineLevel="1">
       <c r="A258" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C258" s="5">
         <v>100</v>
@@ -18343,10 +18368,10 @@
         <v>3</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="J258" s="6">
         <v>1</v>
@@ -18358,7 +18383,7 @@
         <v>35</v>
       </c>
       <c r="M258" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N258" s="8"/>
       <c r="O258" s="6"/>
@@ -18382,10 +18407,10 @@
     </row>
     <row r="259" spans="1:28" outlineLevel="1">
       <c r="A259" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C259" s="5">
         <v>100</v>
@@ -18401,10 +18426,10 @@
         <v>0</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="J259" s="6">
         <v>16</v>
@@ -18416,7 +18441,7 @@
         <v>35</v>
       </c>
       <c r="M259" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N259" s="8"/>
       <c r="O259" s="6"/>
@@ -18436,18 +18461,18 @@
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
       <c r="AA259" s="6" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AB259" s="6" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:28" outlineLevel="1">
       <c r="A260" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C260" s="5">
         <v>100</v>
@@ -18463,10 +18488,10 @@
         <v>0</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="J260" s="6">
         <v>16</v>
@@ -18478,7 +18503,7 @@
         <v>35</v>
       </c>
       <c r="M260" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N260" s="8"/>
       <c r="O260" s="6"/>
@@ -18498,18 +18523,18 @@
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
       <c r="AA260" s="6" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AB260" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:28" outlineLevel="1">
       <c r="A261" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C261" s="5">
         <v>100</v>
@@ -18525,10 +18550,10 @@
         <v>0</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="I261" s="6" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="J261" s="6">
         <v>16</v>
@@ -18540,7 +18565,7 @@
         <v>35</v>
       </c>
       <c r="M261" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N261" s="8"/>
       <c r="O261" s="6"/>
@@ -18560,24 +18585,24 @@
       <c r="Y261" s="6"/>
       <c r="Z261" s="6"/>
       <c r="AA261" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AB261" s="6" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="262" spans="1:28">
       <c r="A262" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" s="2">
@@ -18587,10 +18612,10 @@
         <v>0</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J262" s="2">
         <v>8</v>
@@ -18630,16 +18655,16 @@
     </row>
     <row r="263" spans="1:28" outlineLevel="1">
       <c r="A263" s="5" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C263" s="5">
         <v>0</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E263" s="5"/>
       <c r="F263" s="6">
@@ -18649,10 +18674,10 @@
         <v>0</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J263" s="6">
         <v>8</v>
@@ -18692,16 +18717,16 @@
     </row>
     <row r="264" spans="1:28" outlineLevel="1">
       <c r="A264" s="5" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C264" s="5">
         <v>0</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E264" s="5"/>
       <c r="F264" s="6">
@@ -18711,10 +18736,10 @@
         <v>0</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J264" s="6">
         <v>8</v>
@@ -18754,16 +18779,16 @@
     </row>
     <row r="265" spans="1:28">
       <c r="A265" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C265" s="2">
         <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265" s="2">
@@ -18773,10 +18798,10 @@
         <v>0</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J265" s="2">
         <v>8</v>
@@ -18816,16 +18841,16 @@
     </row>
     <row r="266" spans="1:28" outlineLevel="1">
       <c r="A266" s="5" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C266" s="5">
         <v>0</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E266" s="5"/>
       <c r="F266" s="6">
@@ -18835,10 +18860,10 @@
         <v>0</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J266" s="6">
         <v>8</v>
@@ -18878,16 +18903,16 @@
     </row>
     <row r="267" spans="1:28" outlineLevel="1">
       <c r="A267" s="5" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C267" s="5">
         <v>0</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E267" s="5"/>
       <c r="F267" s="6">
@@ -18897,10 +18922,10 @@
         <v>0</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J267" s="6">
         <v>8</v>
@@ -18940,16 +18965,16 @@
     </row>
     <row r="268" spans="1:28">
       <c r="A268" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C268" s="2">
         <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="2">
@@ -18959,10 +18984,10 @@
         <v>0</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J268" s="2">
         <v>8</v>
@@ -19002,16 +19027,16 @@
     </row>
     <row r="269" spans="1:28" outlineLevel="1">
       <c r="A269" s="5" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C269" s="5">
         <v>0</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E269" s="5"/>
       <c r="F269" s="6">
@@ -19021,10 +19046,10 @@
         <v>0</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J269" s="6">
         <v>8</v>
@@ -19064,16 +19089,16 @@
     </row>
     <row r="270" spans="1:28" outlineLevel="1">
       <c r="A270" s="5" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="C270" s="5">
         <v>0</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E270" s="5"/>
       <c r="F270" s="6">
@@ -19083,10 +19108,10 @@
         <v>0</v>
       </c>
       <c r="H270" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J270" s="6">
         <v>8</v>
@@ -19126,16 +19151,16 @@
     </row>
     <row r="271" spans="1:28">
       <c r="A271" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C271" s="2">
         <v>0</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="2">
@@ -19145,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J271" s="2">
         <v>8</v>
@@ -19188,16 +19213,16 @@
     </row>
     <row r="272" spans="1:28" outlineLevel="1">
       <c r="A272" s="5" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C272" s="5">
         <v>0</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E272" s="5"/>
       <c r="F272" s="6">
@@ -19207,10 +19232,10 @@
         <v>0</v>
       </c>
       <c r="H272" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J272" s="6">
         <v>8</v>
@@ -19250,16 +19275,16 @@
     </row>
     <row r="273" spans="1:28" outlineLevel="1">
       <c r="A273" s="5" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="C273" s="5">
         <v>0</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E273" s="5"/>
       <c r="F273" s="6">
@@ -19269,10 +19294,10 @@
         <v>0</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I273" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J273" s="6">
         <v>8</v>
@@ -19312,16 +19337,16 @@
     </row>
     <row r="274" spans="1:28">
       <c r="A274" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C274" s="2">
         <v>0</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" s="2">
@@ -19331,10 +19356,10 @@
         <v>0</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J274" s="2">
         <v>8</v>
@@ -19374,16 +19399,16 @@
     </row>
     <row r="275" spans="1:28" outlineLevel="1">
       <c r="A275" s="5" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C275" s="5">
         <v>0</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E275" s="5"/>
       <c r="F275" s="6">
@@ -19393,10 +19418,10 @@
         <v>0</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J275" s="6">
         <v>8</v>
@@ -19436,16 +19461,16 @@
     </row>
     <row r="276" spans="1:28" outlineLevel="1">
       <c r="A276" s="5" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C276" s="5">
         <v>0</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E276" s="5"/>
       <c r="F276" s="6">
@@ -19455,10 +19480,10 @@
         <v>0</v>
       </c>
       <c r="H276" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I276" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J276" s="6">
         <v>8</v>
@@ -19498,16 +19523,16 @@
     </row>
     <row r="277" spans="1:28">
       <c r="A277" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C277" s="2">
         <v>0</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277" s="2">
@@ -19517,10 +19542,10 @@
         <v>0</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J277" s="2">
         <v>8</v>
@@ -19558,16 +19583,16 @@
     </row>
     <row r="278" spans="1:28" outlineLevel="1">
       <c r="A278" s="5" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C278" s="5">
         <v>0</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E278" s="5"/>
       <c r="F278" s="6">
@@ -19577,10 +19602,10 @@
         <v>0</v>
       </c>
       <c r="H278" s="6" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="I278" s="6" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="J278" s="6">
         <v>8</v>
@@ -19618,16 +19643,16 @@
     </row>
     <row r="279" spans="1:28" outlineLevel="1">
       <c r="A279" s="5" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C279" s="5">
         <v>0</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E279" s="5"/>
       <c r="F279" s="6">
@@ -19637,10 +19662,10 @@
         <v>0</v>
       </c>
       <c r="H279" s="6" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="I279" s="6" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="J279" s="6">
         <v>8</v>
@@ -19678,10 +19703,10 @@
     </row>
     <row r="280" spans="1:28">
       <c r="A280" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C280" s="2">
         <v>2000</v>
@@ -19697,10 +19722,10 @@
         <v>0</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="J280" s="2">
         <v>10</v>
@@ -19734,18 +19759,18 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
       <c r="AA280" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB280" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="281" spans="1:28" outlineLevel="1">
       <c r="A281" s="5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C281" s="5">
         <v>2000</v>
@@ -19761,10 +19786,10 @@
         <v>2</v>
       </c>
       <c r="H281" s="6" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="I281" s="6" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J281" s="6">
         <v>10</v>
@@ -19798,18 +19823,18 @@
       <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
       <c r="AA281" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB281" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="282" spans="1:28" outlineLevel="1">
       <c r="A282" s="5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C282" s="5">
         <v>2000</v>
@@ -19825,10 +19850,10 @@
         <v>4</v>
       </c>
       <c r="H282" s="6" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="J282" s="6">
         <v>10</v>
@@ -19862,18 +19887,18 @@
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
       <c r="AA282" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB282" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="283" spans="1:28" outlineLevel="1">
       <c r="A283" s="5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C283" s="5">
         <v>2000</v>
@@ -19889,10 +19914,10 @@
         <v>6</v>
       </c>
       <c r="H283" s="6" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="I283" s="6" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="J283" s="6">
         <v>10</v>
@@ -19926,18 +19951,18 @@
       <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
       <c r="AA283" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB283" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="284" spans="1:28" outlineLevel="1">
       <c r="A284" s="5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C284" s="5">
         <v>2000</v>
@@ -19953,10 +19978,10 @@
         <v>0</v>
       </c>
       <c r="H284" s="6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="I284" s="6" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J284" s="6">
         <v>10</v>
@@ -19990,18 +20015,18 @@
       <c r="Y284" s="6"/>
       <c r="Z284" s="6"/>
       <c r="AA284" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB284" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="285" spans="1:28" outlineLevel="1">
       <c r="A285" s="5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C285" s="5">
         <v>2000</v>
@@ -20017,10 +20042,10 @@
         <v>2</v>
       </c>
       <c r="H285" s="6" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="I285" s="6" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="J285" s="6">
         <v>10</v>
@@ -20054,18 +20079,18 @@
       <c r="Y285" s="6"/>
       <c r="Z285" s="6"/>
       <c r="AA285" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB285" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="286" spans="1:28">
       <c r="A286" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C286" s="2">
         <v>2000</v>
@@ -20081,10 +20106,10 @@
         <v>0</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="J286" s="2">
         <v>10</v>
@@ -20118,18 +20143,18 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
       <c r="AA286" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB286" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="1:28" outlineLevel="1">
       <c r="A287" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C287" s="5">
         <v>2000</v>
@@ -20145,10 +20170,10 @@
         <v>2</v>
       </c>
       <c r="H287" s="6" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="J287" s="6">
         <v>10</v>
@@ -20182,18 +20207,18 @@
       <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
       <c r="AA287" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB287" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="288" spans="1:28" outlineLevel="1">
       <c r="A288" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C288" s="5">
         <v>2000</v>
@@ -20209,10 +20234,10 @@
         <v>4</v>
       </c>
       <c r="H288" s="6" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="I288" s="6" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="J288" s="6">
         <v>10</v>
@@ -20246,18 +20271,18 @@
       <c r="Y288" s="6"/>
       <c r="Z288" s="6"/>
       <c r="AA288" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB288" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="289" spans="1:28" outlineLevel="1">
       <c r="A289" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C289" s="5">
         <v>2000</v>
@@ -20273,10 +20298,10 @@
         <v>6</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="I289" s="6" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="J289" s="6">
         <v>10</v>
@@ -20310,18 +20335,18 @@
       <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
       <c r="AA289" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB289" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="290" spans="1:28" outlineLevel="1">
       <c r="A290" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C290" s="5">
         <v>2000</v>
@@ -20337,10 +20362,10 @@
         <v>0</v>
       </c>
       <c r="H290" s="6" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="I290" s="6" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="J290" s="6">
         <v>10</v>
@@ -20374,18 +20399,18 @@
       <c r="Y290" s="6"/>
       <c r="Z290" s="6"/>
       <c r="AA290" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB290" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="291" spans="1:28" outlineLevel="1">
       <c r="A291" s="5" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C291" s="5">
         <v>2000</v>
@@ -20401,10 +20426,10 @@
         <v>2</v>
       </c>
       <c r="H291" s="6" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="I291" s="6" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="J291" s="6">
         <v>10</v>
@@ -20438,18 +20463,18 @@
       <c r="Y291" s="6"/>
       <c r="Z291" s="6"/>
       <c r="AA291" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB291" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="292" spans="1:28">
       <c r="A292" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C292" s="2">
         <v>500</v>
@@ -20465,10 +20490,10 @@
         <v>0</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="J292" s="2">
         <v>10</v>
@@ -20502,18 +20527,18 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
       <c r="AA292" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB292" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="293" spans="1:28" outlineLevel="1">
       <c r="A293" s="5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C293" s="5">
         <v>500</v>
@@ -20529,10 +20554,10 @@
         <v>2</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="I293" s="6" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="J293" s="6">
         <v>10</v>
@@ -20566,18 +20591,18 @@
       <c r="Y293" s="6"/>
       <c r="Z293" s="6"/>
       <c r="AA293" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB293" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="294" spans="1:28" outlineLevel="1">
       <c r="A294" s="5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C294" s="5">
         <v>500</v>
@@ -20593,10 +20618,10 @@
         <v>4</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="I294" s="6" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="J294" s="6">
         <v>10</v>
@@ -20630,18 +20655,18 @@
       <c r="Y294" s="6"/>
       <c r="Z294" s="6"/>
       <c r="AA294" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="295" spans="1:28" outlineLevel="1">
       <c r="A295" s="5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C295" s="5">
         <v>500</v>
@@ -20657,10 +20682,10 @@
         <v>6</v>
       </c>
       <c r="H295" s="6" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="I295" s="6" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="J295" s="6">
         <v>10</v>
@@ -20694,18 +20719,18 @@
       <c r="Y295" s="6"/>
       <c r="Z295" s="6"/>
       <c r="AA295" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB295" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="296" spans="1:28" outlineLevel="1">
       <c r="A296" s="5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C296" s="5">
         <v>500</v>
@@ -20721,10 +20746,10 @@
         <v>0</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="J296" s="6">
         <v>10</v>
@@ -20758,18 +20783,18 @@
       <c r="Y296" s="6"/>
       <c r="Z296" s="6"/>
       <c r="AA296" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB296" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="297" spans="1:28" outlineLevel="1">
       <c r="A297" s="5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C297" s="5">
         <v>500</v>
@@ -20785,10 +20810,10 @@
         <v>2</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="I297" s="6" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J297" s="6">
         <v>10</v>
@@ -20822,18 +20847,18 @@
       <c r="Y297" s="6"/>
       <c r="Z297" s="6"/>
       <c r="AA297" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB297" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="298" spans="1:28">
       <c r="A298" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C298" s="2">
         <v>500</v>
@@ -20849,10 +20874,10 @@
         <v>0</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="J298" s="2">
         <v>10</v>
@@ -20886,18 +20911,18 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
       <c r="AA298" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB298" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="299" spans="1:28" outlineLevel="1">
       <c r="A299" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C299" s="5">
         <v>500</v>
@@ -20913,10 +20938,10 @@
         <v>2</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="I299" s="6" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="J299" s="6">
         <v>10</v>
@@ -20950,18 +20975,18 @@
       <c r="Y299" s="6"/>
       <c r="Z299" s="6"/>
       <c r="AA299" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB299" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:28" outlineLevel="1">
       <c r="A300" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C300" s="5">
         <v>500</v>
@@ -20977,10 +21002,10 @@
         <v>4</v>
       </c>
       <c r="H300" s="6" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="I300" s="6" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="J300" s="6">
         <v>10</v>
@@ -21014,18 +21039,18 @@
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
       <c r="AA300" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB300" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="301" spans="1:28" outlineLevel="1">
       <c r="A301" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C301" s="5">
         <v>500</v>
@@ -21041,10 +21066,10 @@
         <v>6</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="J301" s="6">
         <v>10</v>
@@ -21078,18 +21103,18 @@
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
       <c r="AA301" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB301" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="302" spans="1:28" outlineLevel="1">
       <c r="A302" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C302" s="5">
         <v>500</v>
@@ -21105,10 +21130,10 @@
         <v>0</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="J302" s="6">
         <v>10</v>
@@ -21142,18 +21167,18 @@
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
       <c r="AA302" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB302" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="303" spans="1:28" outlineLevel="1">
       <c r="A303" s="5" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C303" s="5">
         <v>500</v>
@@ -21169,10 +21194,10 @@
         <v>2</v>
       </c>
       <c r="H303" s="6" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="I303" s="6" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="J303" s="6">
         <v>10</v>
@@ -21206,24 +21231,24 @@
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
       <c r="AA303" s="6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB303" s="6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="304" spans="1:28">
       <c r="A304" s="2" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" s="2">
@@ -21233,10 +21258,10 @@
         <v>0</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="J304" s="2">
         <v>16</v>
@@ -21278,16 +21303,16 @@
     </row>
     <row r="305" spans="1:28" outlineLevel="1">
       <c r="A305" s="5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C305" s="5">
         <v>0</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E305" s="5"/>
       <c r="F305" s="6">
@@ -21297,10 +21322,10 @@
         <v>0</v>
       </c>
       <c r="H305" s="6" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="I305" s="6" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="J305" s="6">
         <v>16</v>
@@ -21342,16 +21367,16 @@
     </row>
     <row r="306" spans="1:28" outlineLevel="1">
       <c r="A306" s="5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C306" s="5">
         <v>0</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E306" s="5"/>
       <c r="F306" s="6">
@@ -21361,10 +21386,10 @@
         <v>0</v>
       </c>
       <c r="H306" s="6" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="I306" s="6" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="J306" s="6">
         <v>16</v>
@@ -21406,16 +21431,16 @@
     </row>
     <row r="307" spans="1:28" outlineLevel="1">
       <c r="A307" s="5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C307" s="5">
         <v>0</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="6">
@@ -21425,10 +21450,10 @@
         <v>0</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="J307" s="6">
         <v>16</v>
@@ -21470,16 +21495,16 @@
     </row>
     <row r="308" spans="1:28">
       <c r="A308" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C308" s="2">
         <v>0</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E308" s="2"/>
       <c r="F308" s="2">
@@ -21489,10 +21514,10 @@
         <v>0</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="J308" s="2">
         <v>15</v>
@@ -21524,22 +21549,22 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
       <c r="AA308" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AB308" s="2"/>
     </row>
     <row r="309" spans="1:28" outlineLevel="1">
       <c r="A309" s="5" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C309" s="5">
         <v>0</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E309" s="5"/>
       <c r="F309" s="6">
@@ -21549,10 +21574,10 @@
         <v>7</v>
       </c>
       <c r="H309" s="6" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="J309" s="6">
         <v>1</v>
@@ -21585,15 +21610,15 @@
       <c r="Z309" s="6"/>
       <c r="AA309" s="6"/>
       <c r="AB309" s="6" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="310" spans="1:28">
       <c r="A310" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C310" s="2">
         <v>200</v>
@@ -21609,10 +21634,10 @@
         <v>0</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="J310" s="2">
         <v>3</v>
@@ -21642,16 +21667,16 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
       <c r="AA310" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB310" s="2"/>
     </row>
     <row r="311" spans="1:28" outlineLevel="1">
       <c r="A311" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C311" s="5">
         <v>200</v>
@@ -21667,10 +21692,10 @@
         <v>3</v>
       </c>
       <c r="H311" s="6" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="I311" s="6" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="J311" s="6">
         <v>3</v>
@@ -21700,16 +21725,16 @@
       <c r="Y311" s="6"/>
       <c r="Z311" s="6"/>
       <c r="AA311" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB311" s="6"/>
     </row>
     <row r="312" spans="1:28" outlineLevel="1">
       <c r="A312" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C312" s="5">
         <v>200</v>
@@ -21725,10 +21750,10 @@
         <v>6</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="I312" s="6" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="J312" s="6">
         <v>3</v>
@@ -21758,16 +21783,16 @@
       <c r="Y312" s="6"/>
       <c r="Z312" s="6"/>
       <c r="AA312" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB312" s="6"/>
     </row>
     <row r="313" spans="1:28" outlineLevel="1">
       <c r="A313" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C313" s="5">
         <v>200</v>
@@ -21783,10 +21808,10 @@
         <v>1</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="I313" s="6" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="J313" s="6">
         <v>3</v>
@@ -21816,16 +21841,16 @@
       <c r="Y313" s="6"/>
       <c r="Z313" s="6"/>
       <c r="AA313" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB313" s="6"/>
     </row>
     <row r="314" spans="1:28" outlineLevel="1">
       <c r="A314" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C314" s="5">
         <v>200</v>
@@ -21841,10 +21866,10 @@
         <v>4</v>
       </c>
       <c r="H314" s="6" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="I314" s="6" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="J314" s="6">
         <v>3</v>
@@ -21874,16 +21899,16 @@
       <c r="Y314" s="6"/>
       <c r="Z314" s="6"/>
       <c r="AA314" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB314" s="6"/>
     </row>
     <row r="315" spans="1:28" outlineLevel="1">
       <c r="A315" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C315" s="5">
         <v>200</v>
@@ -21899,10 +21924,10 @@
         <v>7</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="I315" s="6" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="J315" s="6">
         <v>3</v>
@@ -21932,16 +21957,16 @@
       <c r="Y315" s="6"/>
       <c r="Z315" s="6"/>
       <c r="AA315" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB315" s="6"/>
     </row>
     <row r="316" spans="1:28" outlineLevel="1">
       <c r="A316" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C316" s="5">
         <v>200</v>
@@ -21957,10 +21982,10 @@
         <v>2</v>
       </c>
       <c r="H316" s="6" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="I316" s="6" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="J316" s="6">
         <v>3</v>
@@ -21990,16 +22015,16 @@
       <c r="Y316" s="6"/>
       <c r="Z316" s="6"/>
       <c r="AA316" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB316" s="6"/>
     </row>
     <row r="317" spans="1:28" outlineLevel="1">
       <c r="A317" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C317" s="5">
         <v>200</v>
@@ -22015,10 +22040,10 @@
         <v>5</v>
       </c>
       <c r="H317" s="6" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="I317" s="6" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="J317" s="6">
         <v>3</v>
@@ -22048,16 +22073,16 @@
       <c r="Y317" s="6"/>
       <c r="Z317" s="6"/>
       <c r="AA317" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB317" s="6"/>
     </row>
     <row r="318" spans="1:28" outlineLevel="1">
       <c r="A318" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C318" s="5">
         <v>200</v>
@@ -22073,10 +22098,10 @@
         <v>0</v>
       </c>
       <c r="H318" s="6" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="J318" s="6">
         <v>3</v>
@@ -22106,16 +22131,16 @@
       <c r="Y318" s="6"/>
       <c r="Z318" s="6"/>
       <c r="AA318" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB318" s="6"/>
     </row>
     <row r="319" spans="1:28" outlineLevel="1">
       <c r="A319" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C319" s="5">
         <v>200</v>
@@ -22131,10 +22156,10 @@
         <v>3</v>
       </c>
       <c r="H319" s="6" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="J319" s="6">
         <v>3</v>
@@ -22164,16 +22189,16 @@
       <c r="Y319" s="6"/>
       <c r="Z319" s="6"/>
       <c r="AA319" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB319" s="6"/>
     </row>
     <row r="320" spans="1:28" outlineLevel="1">
       <c r="A320" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C320" s="5">
         <v>200</v>
@@ -22189,10 +22214,10 @@
         <v>6</v>
       </c>
       <c r="H320" s="6" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="I320" s="6" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="J320" s="6">
         <v>3</v>
@@ -22222,16 +22247,16 @@
       <c r="Y320" s="6"/>
       <c r="Z320" s="6"/>
       <c r="AA320" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB320" s="6"/>
     </row>
     <row r="321" spans="1:28" outlineLevel="1">
       <c r="A321" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="C321" s="5">
         <v>200</v>
@@ -22247,10 +22272,10 @@
         <v>1</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="I321" s="6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="J321" s="6">
         <v>3</v>
@@ -22280,16 +22305,16 @@
       <c r="Y321" s="6"/>
       <c r="Z321" s="6"/>
       <c r="AA321" s="6" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AB321" s="6"/>
     </row>
     <row r="322" spans="1:28">
       <c r="A322" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C322" s="2">
         <v>0</v>
@@ -22305,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="H322" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="I322" s="2"/>
       <c r="J322" s="2">
@@ -22342,10 +22367,10 @@
     </row>
     <row r="323" spans="1:28">
       <c r="A323" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C323" s="2">
         <v>0</v>
@@ -22361,10 +22386,10 @@
         <v>0</v>
       </c>
       <c r="H323" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="J323" s="2">
         <v>64</v>
@@ -22376,7 +22401,7 @@
         <v>35</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N323" s="4"/>
       <c r="O323" s="2"/>
@@ -22402,10 +22427,10 @@
     </row>
     <row r="324" spans="1:28">
       <c r="A324" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C324" s="2">
         <v>0</v>
@@ -22421,10 +22446,10 @@
         <v>0</v>
       </c>
       <c r="H324" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="J324" s="2">
         <v>64</v>
@@ -22436,7 +22461,7 @@
         <v>35</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N324" s="4"/>
       <c r="O324" s="2"/>
@@ -22451,7 +22476,7 @@
       <c r="V324" s="4"/>
       <c r="W324" s="2"/>
       <c r="X324" s="3" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -61,39 +61,39 @@
     <t>DIAG_TOOL</t>
   </si>
   <si>
+    <t>DSPACE</t>
+  </si>
+  <si>
+    <t>TPMS</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>BRUSA</t>
+  </si>
+  <si>
+    <t>BMS_LV</t>
+  </si>
+  <si>
     <t>EXTRA_NODE</t>
   </si>
   <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
+    <t>SB_REAR</t>
+  </si>
+  <si>
     <t>SCANNER</t>
   </si>
   <si>
     <t>TLB_BAT</t>
   </si>
   <si>
-    <t>BRUSA</t>
-  </si>
-  <si>
-    <t>BMS_LV</t>
-  </si>
-  <si>
     <t>DASH</t>
   </si>
   <si>
-    <t>DSPACE</t>
-  </si>
-  <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
-    <t>SB_REAR</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Cyclic</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>DATETIME_year</t>
@@ -2760,31 +2760,31 @@
         <v>36</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="O2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
         <v>37</v>
@@ -2830,31 +2830,31 @@
         <v>36</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
         <v>40</v>
@@ -2900,31 +2900,31 @@
         <v>36</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="7"/>
       <c r="S4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
         <v>43</v>
@@ -2970,31 +2970,31 @@
         <v>36</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="7"/>
       <c r="S5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
         <v>46</v>
@@ -3042,31 +3042,31 @@
         <v>36</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="7"/>
       <c r="S6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
         <v>50</v>
@@ -3114,31 +3114,31 @@
         <v>36</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="7"/>
       <c r="S7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
         <v>50</v>
@@ -3186,31 +3186,31 @@
         <v>36</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="7"/>
       <c r="S8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
         <v>57</v>
@@ -3258,22 +3258,22 @@
         <v>36</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="3"/>
+      <c r="W9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -3318,22 +3318,22 @@
         <v>36</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U10" s="6"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
+      <c r="W10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -3378,22 +3378,22 @@
         <v>36</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U11" s="6"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="7"/>
+      <c r="W11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -3438,22 +3438,22 @@
         <v>36</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U12" s="6"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
+      <c r="W12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -3498,22 +3498,22 @@
         <v>36</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U13" s="6"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="7"/>
+      <c r="W13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -3558,22 +3558,22 @@
         <v>36</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U14" s="6"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="7"/>
+      <c r="W14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -3618,22 +3618,22 @@
         <v>36</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U15" s="6"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="7"/>
+      <c r="W15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -3678,22 +3678,22 @@
         <v>36</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U16" s="6"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="7"/>
+      <c r="W16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -3738,22 +3738,22 @@
         <v>36</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U17" s="6"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="7"/>
+      <c r="W17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3798,22 +3798,22 @@
         <v>36</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U18" s="6"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="7"/>
+      <c r="W18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -3858,22 +3858,22 @@
         <v>36</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U19" s="6"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="7"/>
+      <c r="W19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -3918,22 +3918,22 @@
         <v>36</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U20" s="6"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="7"/>
+      <c r="W20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3978,22 +3978,22 @@
         <v>36</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U21" s="6"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7"/>
+      <c r="W21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -4038,22 +4038,22 @@
         <v>36</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U22" s="6"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7"/>
+      <c r="W22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -4098,22 +4098,22 @@
         <v>36</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U23" s="6"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="7"/>
+      <c r="W23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -4158,21 +4158,21 @@
         <v>36</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W24" s="2"/>
+      <c r="U24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -4222,21 +4222,21 @@
         <v>36</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="6"/>
+      <c r="U25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -4286,21 +4286,21 @@
         <v>36</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="7"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
       <c r="S26" s="6"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W26" s="6"/>
+      <c r="U26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -4350,21 +4350,21 @@
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="7"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
       <c r="S27" s="6"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" s="6"/>
+      <c r="U27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4414,19 +4414,19 @@
         <v>36</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="3"/>
-      <c r="W28" s="4" t="s">
+      <c r="U28" s="2"/>
+      <c r="V28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X28" s="3"/>
@@ -4478,19 +4478,19 @@
         <v>36</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="7"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="8" t="s">
+      <c r="U29" s="6"/>
+      <c r="V29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X29" s="7"/>
@@ -4542,19 +4542,19 @@
         <v>36</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="7"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="8" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X30" s="7"/>
@@ -4606,19 +4606,19 @@
         <v>36</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="3"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="3"/>
-      <c r="W31" s="4" t="s">
+      <c r="U31" s="2"/>
+      <c r="V31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X31" s="3"/>
@@ -4666,19 +4666,19 @@
         <v>36</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="7"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="7"/>
-      <c r="W32" s="8" t="s">
+      <c r="U32" s="6"/>
+      <c r="V32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X32" s="7"/>
@@ -4726,21 +4726,21 @@
         <v>36</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="3"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
       <c r="S33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" s="3"/>
-      <c r="U33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U33" s="2"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="2"/>
+      <c r="W33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -4790,21 +4790,21 @@
         <v>36</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="7"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
       <c r="S34" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34" s="7"/>
-      <c r="U34" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U34" s="6"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="6"/>
+      <c r="W34" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -4854,21 +4854,21 @@
         <v>36</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="7"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
       <c r="S35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="7"/>
-      <c r="U35" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U35" s="6"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="6"/>
+      <c r="W35" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -4918,23 +4918,23 @@
         <v>36</v>
       </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="3"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
+      <c r="W36" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X36" s="3"/>
-      <c r="Y36" s="2"/>
+      <c r="Y36" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
         <v>37</v>
@@ -4980,23 +4980,23 @@
         <v>36</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="6"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X37" s="7"/>
-      <c r="Y37" s="6"/>
+      <c r="Y37" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5040,23 +5040,23 @@
         <v>36</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="7"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="6"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X38" s="7"/>
-      <c r="Y38" s="6"/>
+      <c r="Y38" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -5100,23 +5100,23 @@
         <v>36</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="7"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="6"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="6"/>
+      <c r="W39" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X39" s="7"/>
-      <c r="Y39" s="6"/>
+      <c r="Y39" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5160,23 +5160,23 @@
         <v>36</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="7"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="6"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X40" s="7"/>
-      <c r="Y40" s="6"/>
+      <c r="Y40" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -5220,23 +5220,23 @@
         <v>36</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="7"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U41" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="6"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="6"/>
+      <c r="W41" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X41" s="7"/>
-      <c r="Y41" s="6"/>
+      <c r="Y41" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
         <v>142</v>
@@ -5282,23 +5282,23 @@
         <v>36</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="7"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T42" s="7"/>
+      <c r="U42" s="6"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X42" s="7"/>
-      <c r="Y42" s="6"/>
+      <c r="Y42" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
         <v>142</v>
@@ -5343,20 +5343,20 @@
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="2"/>
       <c r="T43" s="3"/>
       <c r="U43" s="2"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="2"/>
+      <c r="W43" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X43" s="3"/>
-      <c r="Y43" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2" t="s">
         <v>149</v>
@@ -5403,20 +5403,20 @@
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R44" s="7"/>
       <c r="S44" s="6"/>
       <c r="T44" s="7"/>
       <c r="U44" s="6"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="6"/>
+      <c r="W44" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X44" s="7"/>
-      <c r="Y44" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6" t="s">
         <v>149</v>
@@ -5461,20 +5461,20 @@
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R45" s="3"/>
       <c r="S45" s="2"/>
       <c r="T45" s="3"/>
       <c r="U45" s="2"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="2"/>
+      <c r="W45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X45" s="3"/>
-      <c r="Y45" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2" t="s">
         <v>155</v>
@@ -5521,20 +5521,20 @@
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="6"/>
-      <c r="P46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="6"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R46" s="7"/>
       <c r="S46" s="6"/>
       <c r="T46" s="7"/>
       <c r="U46" s="6"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="6"/>
+      <c r="W46" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X46" s="7"/>
-      <c r="Y46" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
         <v>155</v>
@@ -5581,20 +5581,20 @@
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="2"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="2"/>
+      <c r="W47" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X47" s="3"/>
-      <c r="Y47" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2" t="s">
         <v>149</v>
@@ -5641,20 +5641,20 @@
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="6"/>
-      <c r="P48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q48" s="6"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R48" s="7"/>
       <c r="S48" s="6"/>
       <c r="T48" s="7"/>
       <c r="U48" s="6"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="6"/>
+      <c r="W48" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X48" s="7"/>
-      <c r="Y48" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6" t="s">
         <v>94</v>
@@ -5699,20 +5699,20 @@
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="2"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R49" s="3"/>
       <c r="S49" s="2"/>
       <c r="T49" s="3"/>
       <c r="U49" s="2"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="2"/>
+      <c r="W49" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X49" s="3"/>
-      <c r="Y49" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
         <v>163</v>
@@ -5759,20 +5759,20 @@
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="6"/>
-      <c r="P50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" s="6"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R50" s="7"/>
       <c r="S50" s="6"/>
       <c r="T50" s="7"/>
       <c r="U50" s="6"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="6"/>
+      <c r="W50" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X50" s="7"/>
-      <c r="Y50" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6" t="s">
         <v>163</v>
@@ -5819,20 +5819,20 @@
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="6"/>
-      <c r="P51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="6"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R51" s="7"/>
       <c r="S51" s="6"/>
       <c r="T51" s="7"/>
       <c r="U51" s="6"/>
       <c r="V51" s="7"/>
-      <c r="W51" s="6"/>
+      <c r="W51" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X51" s="7"/>
-      <c r="Y51" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6" t="s">
         <v>167</v>
@@ -5879,20 +5879,20 @@
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R52" s="7"/>
       <c r="S52" s="6"/>
       <c r="T52" s="7"/>
       <c r="U52" s="6"/>
       <c r="V52" s="7"/>
-      <c r="W52" s="6"/>
+      <c r="W52" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X52" s="7"/>
-      <c r="Y52" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6" t="s">
         <v>163</v>
@@ -5940,25 +5940,25 @@
         <v>36</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="3"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="V53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="W53" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X53" s="3"/>
-      <c r="Y53" s="2"/>
+      <c r="Y53" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -6002,23 +6002,23 @@
         <v>36</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O54" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="7"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U54" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T54" s="7"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="7"/>
-      <c r="W54" s="6"/>
+      <c r="W54" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X54" s="7"/>
-      <c r="Y54" s="6"/>
+      <c r="Y54" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
@@ -6062,25 +6062,25 @@
         <v>36</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="W55" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X55" s="7"/>
-      <c r="Y55" s="6"/>
+      <c r="Y55" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6" t="s">
         <v>177</v>
@@ -6128,25 +6128,25 @@
         <v>36</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O56" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="7"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="W56" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X56" s="7"/>
-      <c r="Y56" s="6"/>
+      <c r="Y56" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6" t="s">
         <v>177</v>
@@ -6194,7 +6194,9 @@
       <c r="N57" s="3"/>
       <c r="O57" s="2"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="2"/>
+      <c r="Q57" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="R57" s="3"/>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -6202,9 +6204,7 @@
       <c r="V57" s="3"/>
       <c r="W57" s="2"/>
       <c r="X57" s="3"/>
-      <c r="Y57" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2" t="s">
         <v>149</v>
@@ -6252,7 +6252,9 @@
       <c r="N58" s="7"/>
       <c r="O58" s="6"/>
       <c r="P58" s="7"/>
-      <c r="Q58" s="6"/>
+      <c r="Q58" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="R58" s="7"/>
       <c r="S58" s="6"/>
       <c r="T58" s="7"/>
@@ -6260,9 +6262,7 @@
       <c r="V58" s="7"/>
       <c r="W58" s="6"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6" t="s">
         <v>94</v>
@@ -6308,14 +6308,14 @@
         <v>36</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="3"/>
       <c r="S59" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T59" s="3"/>
       <c r="U59" s="2"/>
@@ -6368,21 +6368,21 @@
         <v>36</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="3"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="T60" s="3"/>
       <c r="U60" s="2"/>
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
       <c r="X60" s="3"/>
-      <c r="Y60" s="2"/>
+      <c r="Y60" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2" t="s">
         <v>188</v>
@@ -6428,7 +6428,7 @@
         <v>36</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="3"/>
@@ -6437,10 +6437,10 @@
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="V61" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W61" s="2"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -6488,7 +6488,7 @@
         <v>36</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="3"/>
@@ -6496,10 +6496,10 @@
       <c r="R62" s="3"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" s="3"/>
       <c r="W62" s="2"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="2"/>
@@ -6548,19 +6548,19 @@
         <v>36</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O63" s="2"/>
-      <c r="P63" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P63" s="3"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="3"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
       <c r="U63" s="2"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="2"/>
+      <c r="W63" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -6608,20 +6608,20 @@
         <v>36</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" s="3"/>
       <c r="S64" s="2"/>
       <c r="T64" s="3"/>
       <c r="U64" s="2"/>
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="3"/>
+      <c r="X64" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2" t="s">
@@ -6668,22 +6668,22 @@
         <v>36</v>
       </c>
       <c r="N65" s="3"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="O65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="2"/>
       <c r="R65" s="3"/>
       <c r="S65" s="2"/>
       <c r="T65" s="3"/>
-      <c r="U65" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U65" s="2"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="3"/>
+      <c r="W65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
@@ -6728,22 +6728,22 @@
         <v>36</v>
       </c>
       <c r="N66" s="7"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
       <c r="S66" s="6"/>
       <c r="T66" s="7"/>
-      <c r="U66" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U66" s="6"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="7"/>
+      <c r="W66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X66" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
@@ -6788,22 +6788,22 @@
         <v>36</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
       <c r="S67" s="6"/>
       <c r="T67" s="7"/>
-      <c r="U67" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U67" s="6"/>
       <c r="V67" s="7"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="7"/>
+      <c r="W67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X67" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
@@ -6848,22 +6848,22 @@
         <v>36</v>
       </c>
       <c r="N68" s="7"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q68" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
       <c r="S68" s="6"/>
       <c r="T68" s="7"/>
-      <c r="U68" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U68" s="6"/>
       <c r="V68" s="7"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="7"/>
+      <c r="W68" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X68" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
@@ -6908,22 +6908,22 @@
         <v>36</v>
       </c>
       <c r="N69" s="7"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
       <c r="S69" s="6"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U69" s="6"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="7"/>
+      <c r="W69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X69" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6" t="s">
@@ -6972,22 +6972,22 @@
         <v>36</v>
       </c>
       <c r="N70" s="7"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q70" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
       <c r="S70" s="6"/>
       <c r="T70" s="7"/>
-      <c r="U70" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U70" s="6"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="7"/>
+      <c r="W70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X70" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6" t="s">
@@ -7036,19 +7036,19 @@
         <v>36</v>
       </c>
       <c r="N71" s="3"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="3"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="3"/>
       <c r="S71" s="2"/>
       <c r="T71" s="3"/>
-      <c r="U71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V71" s="3"/>
-      <c r="W71" s="4" t="s">
+      <c r="U71" s="2"/>
+      <c r="V71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X71" s="3"/>
@@ -7096,19 +7096,19 @@
         <v>36</v>
       </c>
       <c r="N72" s="7"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O72" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="7"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
       <c r="S72" s="6"/>
       <c r="T72" s="7"/>
-      <c r="U72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V72" s="7"/>
-      <c r="W72" s="8" t="s">
+      <c r="U72" s="6"/>
+      <c r="V72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W72" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X72" s="7"/>
@@ -7156,19 +7156,19 @@
         <v>36</v>
       </c>
       <c r="N73" s="7"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P73" s="7"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="7"/>
       <c r="S73" s="6"/>
       <c r="T73" s="7"/>
-      <c r="U73" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V73" s="7"/>
-      <c r="W73" s="8" t="s">
+      <c r="U73" s="6"/>
+      <c r="V73" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W73" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X73" s="7"/>
@@ -7216,19 +7216,19 @@
         <v>36</v>
       </c>
       <c r="N74" s="7"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P74" s="7"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
       <c r="S74" s="6"/>
       <c r="T74" s="7"/>
-      <c r="U74" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V74" s="7"/>
-      <c r="W74" s="8" t="s">
+      <c r="U74" s="6"/>
+      <c r="V74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W74" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X74" s="7"/>
@@ -7276,21 +7276,21 @@
         <v>36</v>
       </c>
       <c r="N75" s="3"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="3"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="3"/>
       <c r="S75" s="2"/>
       <c r="T75" s="3"/>
-      <c r="U75" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V75" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" s="2"/>
+      <c r="U75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V75" s="3"/>
+      <c r="W75" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X75" s="3"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -7336,21 +7336,21 @@
         <v>36</v>
       </c>
       <c r="N76" s="7"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O76" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P76" s="7"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="7"/>
       <c r="S76" s="6"/>
       <c r="T76" s="7"/>
-      <c r="U76" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V76" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W76" s="6"/>
+      <c r="U76" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76" s="7"/>
+      <c r="W76" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X76" s="7"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7396,21 +7396,21 @@
         <v>36</v>
       </c>
       <c r="N77" s="7"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="7"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
       <c r="S77" s="6"/>
       <c r="T77" s="7"/>
-      <c r="U77" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V77" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W77" s="6"/>
+      <c r="U77" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V77" s="7"/>
+      <c r="W77" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7456,21 +7456,21 @@
         <v>36</v>
       </c>
       <c r="N78" s="3"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P78" s="3"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="3"/>
       <c r="S78" s="2"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V78" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W78" s="2"/>
+      <c r="U78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V78" s="3"/>
+      <c r="W78" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X78" s="3"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -7520,21 +7520,21 @@
         <v>36</v>
       </c>
       <c r="N79" s="7"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O79" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P79" s="7"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="7"/>
       <c r="S79" s="6"/>
       <c r="T79" s="7"/>
-      <c r="U79" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V79" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W79" s="6"/>
+      <c r="U79" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V79" s="7"/>
+      <c r="W79" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X79" s="7"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -7584,19 +7584,19 @@
         <v>36</v>
       </c>
       <c r="N80" s="3"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="3"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="3"/>
       <c r="S80" s="2"/>
       <c r="T80" s="3"/>
-      <c r="U80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V80" s="3"/>
-      <c r="W80" s="4" t="s">
+      <c r="U80" s="2"/>
+      <c r="V80" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W80" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X80" s="3"/>
@@ -7648,19 +7648,19 @@
         <v>36</v>
       </c>
       <c r="N81" s="7"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="7"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="7"/>
       <c r="S81" s="6"/>
       <c r="T81" s="7"/>
-      <c r="U81" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V81" s="7"/>
-      <c r="W81" s="8" t="s">
+      <c r="U81" s="6"/>
+      <c r="V81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W81" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X81" s="7"/>
@@ -7712,20 +7712,20 @@
         <v>36</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="3"/>
-      <c r="Q82" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q82" s="2"/>
       <c r="R82" s="3"/>
       <c r="S82" s="2"/>
       <c r="T82" s="3"/>
       <c r="U82" s="2"/>
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="3"/>
+      <c r="X82" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2" t="s">
@@ -7772,7 +7772,7 @@
         <v>36</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="3"/>
@@ -7780,10 +7780,10 @@
       <c r="R83" s="3"/>
       <c r="S83" s="2"/>
       <c r="T83" s="3"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U83" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V83" s="3"/>
       <c r="W83" s="2"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="2"/>
@@ -7832,7 +7832,7 @@
         <v>36</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="3"/>
@@ -7841,10 +7841,10 @@
       <c r="S84" s="2"/>
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="V84" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W84" s="2"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -7892,14 +7892,14 @@
         <v>36</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="3"/>
       <c r="S85" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="2"/>
@@ -7952,21 +7952,21 @@
         <v>36</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="3"/>
       <c r="S86" s="2"/>
-      <c r="T86" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="T86" s="3"/>
       <c r="U86" s="2"/>
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
       <c r="X86" s="3"/>
-      <c r="Y86" s="2"/>
+      <c r="Y86" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2" t="s">
         <v>188</v>
@@ -8012,19 +8012,19 @@
         <v>36</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O87" s="2"/>
-      <c r="P87" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P87" s="3"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="3"/>
       <c r="S87" s="2"/>
       <c r="T87" s="3"/>
       <c r="U87" s="2"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="2"/>
+      <c r="W87" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X87" s="3"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -8072,23 +8072,23 @@
         <v>36</v>
       </c>
       <c r="N88" s="3"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O88" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" s="3"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
       <c r="S88" s="2"/>
-      <c r="T88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U88" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="2"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="2"/>
+      <c r="W88" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X88" s="3"/>
-      <c r="Y88" s="2"/>
+      <c r="Y88" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
         <v>259</v>
@@ -8136,23 +8136,23 @@
         <v>36</v>
       </c>
       <c r="N89" s="3"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="3"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="3"/>
       <c r="S89" s="2"/>
-      <c r="T89" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U89" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T89" s="3"/>
+      <c r="U89" s="2"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="2"/>
+      <c r="W89" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X89" s="3"/>
-      <c r="Y89" s="2"/>
+      <c r="Y89" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z89" s="2">
         <v>0</v>
       </c>
@@ -8200,23 +8200,23 @@
         <v>36</v>
       </c>
       <c r="N90" s="7"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O90" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="7"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="7"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U90" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T90" s="7"/>
+      <c r="U90" s="6"/>
       <c r="V90" s="7"/>
-      <c r="W90" s="6"/>
+      <c r="W90" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X90" s="7"/>
-      <c r="Y90" s="6"/>
+      <c r="Y90" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z90" s="6">
         <v>1</v>
       </c>
@@ -8264,23 +8264,23 @@
         <v>36</v>
       </c>
       <c r="N91" s="7"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="7"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="7"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U91" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="6"/>
       <c r="V91" s="7"/>
-      <c r="W91" s="6"/>
+      <c r="W91" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X91" s="7"/>
-      <c r="Y91" s="6"/>
+      <c r="Y91" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z91" s="6">
         <v>2</v>
       </c>
@@ -8328,23 +8328,23 @@
         <v>36</v>
       </c>
       <c r="N92" s="7"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P92" s="7"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="7"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U92" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T92" s="7"/>
+      <c r="U92" s="6"/>
       <c r="V92" s="7"/>
-      <c r="W92" s="6"/>
+      <c r="W92" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X92" s="7"/>
-      <c r="Y92" s="6"/>
+      <c r="Y92" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z92" s="6">
         <v>3</v>
       </c>
@@ -8392,23 +8392,23 @@
         <v>36</v>
       </c>
       <c r="N93" s="7"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O93" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="7"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="7"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U93" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="6"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="6"/>
+      <c r="W93" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X93" s="7"/>
-      <c r="Y93" s="6"/>
+      <c r="Y93" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z93" s="6">
         <v>4</v>
       </c>
@@ -8456,23 +8456,23 @@
         <v>36</v>
       </c>
       <c r="N94" s="7"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="7"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="7"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U94" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="6"/>
       <c r="V94" s="7"/>
-      <c r="W94" s="6"/>
+      <c r="W94" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X94" s="7"/>
-      <c r="Y94" s="6"/>
+      <c r="Y94" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z94" s="6">
         <v>5</v>
       </c>
@@ -8520,23 +8520,23 @@
         <v>36</v>
       </c>
       <c r="N95" s="7"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P95" s="7"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="7"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U95" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="6"/>
       <c r="V95" s="7"/>
-      <c r="W95" s="6"/>
+      <c r="W95" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X95" s="7"/>
-      <c r="Y95" s="6"/>
+      <c r="Y95" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z95" s="6">
         <v>255</v>
       </c>
@@ -8584,23 +8584,23 @@
         <v>36</v>
       </c>
       <c r="N96" s="7"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O96" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P96" s="7"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="7"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U96" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T96" s="7"/>
+      <c r="U96" s="6"/>
       <c r="V96" s="7"/>
-      <c r="W96" s="6"/>
+      <c r="W96" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X96" s="7"/>
-      <c r="Y96" s="6"/>
+      <c r="Y96" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z96" s="6">
         <v>0</v>
       </c>
@@ -8648,23 +8648,23 @@
         <v>36</v>
       </c>
       <c r="N97" s="7"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O97" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P97" s="7"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="7"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U97" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="6"/>
       <c r="V97" s="7"/>
-      <c r="W97" s="6"/>
+      <c r="W97" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X97" s="7"/>
-      <c r="Y97" s="6"/>
+      <c r="Y97" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z97" s="6">
         <v>1</v>
       </c>
@@ -8712,23 +8712,23 @@
         <v>36</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O98" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P98" s="7"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="7"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U98" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T98" s="7"/>
+      <c r="U98" s="6"/>
       <c r="V98" s="7"/>
-      <c r="W98" s="6"/>
+      <c r="W98" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X98" s="7"/>
-      <c r="Y98" s="6"/>
+      <c r="Y98" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z98" s="6">
         <v>2</v>
       </c>
@@ -8776,23 +8776,23 @@
         <v>36</v>
       </c>
       <c r="N99" s="7"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O99" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P99" s="7"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="7"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U99" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T99" s="7"/>
+      <c r="U99" s="6"/>
       <c r="V99" s="7"/>
-      <c r="W99" s="6"/>
+      <c r="W99" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X99" s="7"/>
-      <c r="Y99" s="6"/>
+      <c r="Y99" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z99" s="6">
         <v>3</v>
       </c>
@@ -8840,23 +8840,23 @@
         <v>36</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O100" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P100" s="7"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="7"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U100" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T100" s="7"/>
+      <c r="U100" s="6"/>
       <c r="V100" s="7"/>
-      <c r="W100" s="6"/>
+      <c r="W100" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X100" s="7"/>
-      <c r="Y100" s="6"/>
+      <c r="Y100" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z100" s="6">
         <v>4</v>
       </c>
@@ -8904,23 +8904,23 @@
         <v>36</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O101" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P101" s="7"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="7"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U101" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="6"/>
       <c r="V101" s="7"/>
-      <c r="W101" s="6"/>
+      <c r="W101" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X101" s="7"/>
-      <c r="Y101" s="6"/>
+      <c r="Y101" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z101" s="6">
         <v>5</v>
       </c>
@@ -8968,23 +8968,23 @@
         <v>36</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O102" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P102" s="7"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="7"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U102" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T102" s="7"/>
+      <c r="U102" s="6"/>
       <c r="V102" s="7"/>
-      <c r="W102" s="6"/>
+      <c r="W102" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X102" s="7"/>
-      <c r="Y102" s="6"/>
+      <c r="Y102" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z102" s="6">
         <v>6</v>
       </c>
@@ -9032,23 +9032,23 @@
         <v>36</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O103" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P103" s="7"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="7"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U103" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T103" s="7"/>
+      <c r="U103" s="6"/>
       <c r="V103" s="7"/>
-      <c r="W103" s="6"/>
+      <c r="W103" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X103" s="7"/>
-      <c r="Y103" s="6"/>
+      <c r="Y103" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z103" s="6">
         <v>0</v>
       </c>
@@ -9096,23 +9096,23 @@
         <v>36</v>
       </c>
       <c r="N104" s="7"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O104" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P104" s="7"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="7"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U104" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T104" s="7"/>
+      <c r="U104" s="6"/>
       <c r="V104" s="7"/>
-      <c r="W104" s="6"/>
+      <c r="W104" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X104" s="7"/>
-      <c r="Y104" s="6"/>
+      <c r="Y104" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z104" s="6">
         <v>1</v>
       </c>
@@ -9160,23 +9160,23 @@
         <v>36</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O105" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P105" s="7"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U105" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="6"/>
       <c r="V105" s="7"/>
-      <c r="W105" s="6"/>
+      <c r="W105" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X105" s="7"/>
-      <c r="Y105" s="6"/>
+      <c r="Y105" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z105" s="6">
         <v>2</v>
       </c>
@@ -9224,23 +9224,23 @@
         <v>36</v>
       </c>
       <c r="N106" s="7"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O106" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P106" s="7"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="7"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U106" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T106" s="7"/>
+      <c r="U106" s="6"/>
       <c r="V106" s="7"/>
-      <c r="W106" s="6"/>
+      <c r="W106" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X106" s="7"/>
-      <c r="Y106" s="6"/>
+      <c r="Y106" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z106" s="6">
         <v>3</v>
       </c>
@@ -9288,23 +9288,23 @@
         <v>36</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O107" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P107" s="7"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="7"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U107" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T107" s="7"/>
+      <c r="U107" s="6"/>
       <c r="V107" s="7"/>
-      <c r="W107" s="6"/>
+      <c r="W107" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X107" s="7"/>
-      <c r="Y107" s="6"/>
+      <c r="Y107" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z107" s="6">
         <v>4</v>
       </c>
@@ -9352,23 +9352,23 @@
         <v>36</v>
       </c>
       <c r="N108" s="7"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O108" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P108" s="7"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="7"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U108" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T108" s="7"/>
+      <c r="U108" s="6"/>
       <c r="V108" s="7"/>
-      <c r="W108" s="6"/>
+      <c r="W108" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X108" s="7"/>
-      <c r="Y108" s="6"/>
+      <c r="Y108" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z108" s="6">
         <v>5</v>
       </c>
@@ -9416,23 +9416,23 @@
         <v>36</v>
       </c>
       <c r="N109" s="7"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O109" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P109" s="7"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="7"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U109" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T109" s="7"/>
+      <c r="U109" s="6"/>
       <c r="V109" s="7"/>
-      <c r="W109" s="6"/>
+      <c r="W109" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X109" s="7"/>
-      <c r="Y109" s="6"/>
+      <c r="Y109" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z109" s="6">
         <v>6</v>
       </c>
@@ -9480,23 +9480,23 @@
         <v>36</v>
       </c>
       <c r="N110" s="7"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O110" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P110" s="7"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="7"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U110" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T110" s="7"/>
+      <c r="U110" s="6"/>
       <c r="V110" s="7"/>
-      <c r="W110" s="6"/>
+      <c r="W110" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X110" s="7"/>
-      <c r="Y110" s="6"/>
+      <c r="Y110" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z110" s="6">
         <v>0</v>
       </c>
@@ -9544,23 +9544,23 @@
         <v>36</v>
       </c>
       <c r="N111" s="7"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O111" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P111" s="7"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="7"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U111" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="6"/>
       <c r="V111" s="7"/>
-      <c r="W111" s="6"/>
+      <c r="W111" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X111" s="7"/>
-      <c r="Y111" s="6"/>
+      <c r="Y111" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z111" s="6">
         <v>1</v>
       </c>
@@ -9608,23 +9608,23 @@
         <v>36</v>
       </c>
       <c r="N112" s="7"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O112" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P112" s="7"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="7"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U112" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T112" s="7"/>
+      <c r="U112" s="6"/>
       <c r="V112" s="7"/>
-      <c r="W112" s="6"/>
+      <c r="W112" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X112" s="7"/>
-      <c r="Y112" s="6"/>
+      <c r="Y112" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z112" s="6">
         <v>2</v>
       </c>
@@ -9672,23 +9672,23 @@
         <v>36</v>
       </c>
       <c r="N113" s="7"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O113" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P113" s="7"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="7"/>
       <c r="S113" s="6"/>
-      <c r="T113" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U113" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="6"/>
       <c r="V113" s="7"/>
-      <c r="W113" s="6"/>
+      <c r="W113" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X113" s="7"/>
-      <c r="Y113" s="6"/>
+      <c r="Y113" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z113" s="6">
         <v>3</v>
       </c>
@@ -9736,23 +9736,23 @@
         <v>36</v>
       </c>
       <c r="N114" s="7"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O114" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P114" s="7"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U114" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T114" s="7"/>
+      <c r="U114" s="6"/>
       <c r="V114" s="7"/>
-      <c r="W114" s="6"/>
+      <c r="W114" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X114" s="7"/>
-      <c r="Y114" s="6"/>
+      <c r="Y114" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z114" s="6">
         <v>4</v>
       </c>
@@ -9800,23 +9800,23 @@
         <v>36</v>
       </c>
       <c r="N115" s="7"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O115" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P115" s="7"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="7"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U115" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="6"/>
       <c r="V115" s="7"/>
-      <c r="W115" s="6"/>
+      <c r="W115" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X115" s="7"/>
-      <c r="Y115" s="6"/>
+      <c r="Y115" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z115" s="6">
         <v>5</v>
       </c>
@@ -9864,23 +9864,23 @@
         <v>36</v>
       </c>
       <c r="N116" s="7"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O116" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P116" s="7"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="7"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U116" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T116" s="7"/>
+      <c r="U116" s="6"/>
       <c r="V116" s="7"/>
-      <c r="W116" s="6"/>
+      <c r="W116" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X116" s="7"/>
-      <c r="Y116" s="6"/>
+      <c r="Y116" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z116" s="6">
         <v>6</v>
       </c>
@@ -9928,23 +9928,23 @@
         <v>36</v>
       </c>
       <c r="N117" s="7"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O117" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P117" s="7"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="7"/>
       <c r="S117" s="6"/>
-      <c r="T117" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U117" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T117" s="7"/>
+      <c r="U117" s="6"/>
       <c r="V117" s="7"/>
-      <c r="W117" s="6"/>
+      <c r="W117" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X117" s="7"/>
-      <c r="Y117" s="6"/>
+      <c r="Y117" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z117" s="6">
         <v>0</v>
       </c>
@@ -9992,23 +9992,23 @@
         <v>36</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O118" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P118" s="7"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="7"/>
       <c r="S118" s="6"/>
-      <c r="T118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U118" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T118" s="7"/>
+      <c r="U118" s="6"/>
       <c r="V118" s="7"/>
-      <c r="W118" s="6"/>
+      <c r="W118" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X118" s="7"/>
-      <c r="Y118" s="6"/>
+      <c r="Y118" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z118" s="6">
         <v>1</v>
       </c>
@@ -10056,23 +10056,23 @@
         <v>36</v>
       </c>
       <c r="N119" s="7"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O119" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P119" s="7"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="7"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U119" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="6"/>
       <c r="V119" s="7"/>
-      <c r="W119" s="6"/>
+      <c r="W119" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X119" s="7"/>
-      <c r="Y119" s="6"/>
+      <c r="Y119" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z119" s="6">
         <v>2</v>
       </c>
@@ -10120,23 +10120,23 @@
         <v>36</v>
       </c>
       <c r="N120" s="7"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O120" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P120" s="7"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="7"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U120" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T120" s="7"/>
+      <c r="U120" s="6"/>
       <c r="V120" s="7"/>
-      <c r="W120" s="6"/>
+      <c r="W120" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X120" s="7"/>
-      <c r="Y120" s="6"/>
+      <c r="Y120" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z120" s="6">
         <v>3</v>
       </c>
@@ -10184,23 +10184,23 @@
         <v>36</v>
       </c>
       <c r="N121" s="7"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O121" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P121" s="7"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="7"/>
       <c r="S121" s="6"/>
-      <c r="T121" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U121" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T121" s="7"/>
+      <c r="U121" s="6"/>
       <c r="V121" s="7"/>
-      <c r="W121" s="6"/>
+      <c r="W121" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X121" s="7"/>
-      <c r="Y121" s="6"/>
+      <c r="Y121" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z121" s="6">
         <v>4</v>
       </c>
@@ -10248,23 +10248,23 @@
         <v>36</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O122" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P122" s="7"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="7"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U122" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T122" s="7"/>
+      <c r="U122" s="6"/>
       <c r="V122" s="7"/>
-      <c r="W122" s="6"/>
+      <c r="W122" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X122" s="7"/>
-      <c r="Y122" s="6"/>
+      <c r="Y122" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z122" s="6">
         <v>5</v>
       </c>
@@ -10312,23 +10312,23 @@
         <v>36</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O123" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P123" s="7"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="7"/>
       <c r="S123" s="6"/>
-      <c r="T123" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U123" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T123" s="7"/>
+      <c r="U123" s="6"/>
       <c r="V123" s="7"/>
-      <c r="W123" s="6"/>
+      <c r="W123" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X123" s="7"/>
-      <c r="Y123" s="6"/>
+      <c r="Y123" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="Z123" s="6">
         <v>6</v>
       </c>
@@ -10376,21 +10376,21 @@
         <v>36</v>
       </c>
       <c r="N124" s="3"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P124" s="3"/>
       <c r="Q124" s="2"/>
       <c r="R124" s="3"/>
       <c r="S124" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T124" s="3"/>
-      <c r="U124" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U124" s="2"/>
       <c r="V124" s="3"/>
-      <c r="W124" s="2"/>
+      <c r="W124" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X124" s="3"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
@@ -10436,21 +10436,21 @@
         <v>36</v>
       </c>
       <c r="N125" s="7"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P125" s="7"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="7"/>
       <c r="S125" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T125" s="7"/>
-      <c r="U125" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U125" s="6"/>
       <c r="V125" s="7"/>
-      <c r="W125" s="6"/>
+      <c r="W125" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X125" s="7"/>
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
@@ -10496,21 +10496,21 @@
         <v>36</v>
       </c>
       <c r="N126" s="7"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P126" s="7"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="7"/>
       <c r="S126" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T126" s="7"/>
-      <c r="U126" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U126" s="6"/>
       <c r="V126" s="7"/>
-      <c r="W126" s="6"/>
+      <c r="W126" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X126" s="7"/>
       <c r="Y126" s="6"/>
       <c r="Z126" s="6"/>
@@ -10556,21 +10556,21 @@
         <v>36</v>
       </c>
       <c r="N127" s="7"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P127" s="7"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="7"/>
       <c r="S127" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T127" s="7"/>
-      <c r="U127" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U127" s="6"/>
       <c r="V127" s="7"/>
-      <c r="W127" s="6"/>
+      <c r="W127" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X127" s="7"/>
       <c r="Y127" s="6"/>
       <c r="Z127" s="6"/>
@@ -10616,21 +10616,21 @@
         <v>36</v>
       </c>
       <c r="N128" s="7"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P128" s="7"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="7"/>
       <c r="S128" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T128" s="7"/>
-      <c r="U128" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U128" s="6"/>
       <c r="V128" s="7"/>
-      <c r="W128" s="6"/>
+      <c r="W128" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X128" s="7"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="6"/>
@@ -10676,21 +10676,21 @@
         <v>36</v>
       </c>
       <c r="N129" s="7"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P129" s="7"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="7"/>
       <c r="S129" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T129" s="7"/>
-      <c r="U129" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U129" s="6"/>
       <c r="V129" s="7"/>
-      <c r="W129" s="6"/>
+      <c r="W129" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X129" s="7"/>
       <c r="Y129" s="6"/>
       <c r="Z129" s="6"/>
@@ -10736,21 +10736,21 @@
         <v>36</v>
       </c>
       <c r="N130" s="7"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O130" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P130" s="7"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="7"/>
       <c r="S130" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T130" s="7"/>
-      <c r="U130" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U130" s="6"/>
       <c r="V130" s="7"/>
-      <c r="W130" s="6"/>
+      <c r="W130" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X130" s="7"/>
       <c r="Y130" s="6"/>
       <c r="Z130" s="6"/>
@@ -10796,21 +10796,21 @@
         <v>36</v>
       </c>
       <c r="N131" s="7"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O131" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P131" s="7"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="7"/>
       <c r="S131" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T131" s="7"/>
-      <c r="U131" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U131" s="6"/>
       <c r="V131" s="7"/>
-      <c r="W131" s="6"/>
+      <c r="W131" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X131" s="7"/>
       <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
@@ -10856,21 +10856,21 @@
         <v>36</v>
       </c>
       <c r="N132" s="7"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O132" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P132" s="7"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="7"/>
       <c r="S132" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T132" s="7"/>
-      <c r="U132" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U132" s="6"/>
       <c r="V132" s="7"/>
-      <c r="W132" s="6"/>
+      <c r="W132" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X132" s="7"/>
       <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
@@ -10916,21 +10916,21 @@
         <v>36</v>
       </c>
       <c r="N133" s="7"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O133" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P133" s="7"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="7"/>
       <c r="S133" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T133" s="7"/>
-      <c r="U133" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U133" s="6"/>
       <c r="V133" s="7"/>
-      <c r="W133" s="6"/>
+      <c r="W133" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X133" s="7"/>
       <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
@@ -10976,21 +10976,21 @@
         <v>36</v>
       </c>
       <c r="N134" s="7"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O134" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P134" s="7"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="7"/>
       <c r="S134" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T134" s="7"/>
-      <c r="U134" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U134" s="6"/>
       <c r="V134" s="7"/>
-      <c r="W134" s="6"/>
+      <c r="W134" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X134" s="7"/>
       <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
@@ -11036,21 +11036,21 @@
         <v>36</v>
       </c>
       <c r="N135" s="7"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P135" s="7"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="7"/>
       <c r="S135" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T135" s="7"/>
-      <c r="U135" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U135" s="6"/>
       <c r="V135" s="7"/>
-      <c r="W135" s="6"/>
+      <c r="W135" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X135" s="7"/>
       <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
@@ -11096,21 +11096,21 @@
         <v>36</v>
       </c>
       <c r="N136" s="7"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O136" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P136" s="7"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="7"/>
       <c r="S136" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T136" s="7"/>
-      <c r="U136" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U136" s="6"/>
       <c r="V136" s="7"/>
-      <c r="W136" s="6"/>
+      <c r="W136" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X136" s="7"/>
       <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
@@ -11156,21 +11156,21 @@
         <v>36</v>
       </c>
       <c r="N137" s="7"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O137" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P137" s="7"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="7"/>
       <c r="S137" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T137" s="7"/>
-      <c r="U137" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U137" s="6"/>
       <c r="V137" s="7"/>
-      <c r="W137" s="6"/>
+      <c r="W137" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X137" s="7"/>
       <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
@@ -11216,21 +11216,21 @@
         <v>36</v>
       </c>
       <c r="N138" s="7"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O138" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P138" s="7"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="7"/>
       <c r="S138" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T138" s="7"/>
-      <c r="U138" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U138" s="6"/>
       <c r="V138" s="7"/>
-      <c r="W138" s="6"/>
+      <c r="W138" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X138" s="7"/>
       <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
@@ -11276,21 +11276,21 @@
         <v>36</v>
       </c>
       <c r="N139" s="7"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O139" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P139" s="7"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="7"/>
       <c r="S139" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T139" s="7"/>
-      <c r="U139" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U139" s="6"/>
       <c r="V139" s="7"/>
-      <c r="W139" s="6"/>
+      <c r="W139" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X139" s="7"/>
       <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
@@ -11336,21 +11336,21 @@
         <v>36</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O140" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P140" s="7"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="7"/>
       <c r="S140" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T140" s="7"/>
-      <c r="U140" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U140" s="6"/>
       <c r="V140" s="7"/>
-      <c r="W140" s="6"/>
+      <c r="W140" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X140" s="7"/>
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
@@ -11396,21 +11396,21 @@
         <v>36</v>
       </c>
       <c r="N141" s="7"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O141" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P141" s="7"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="7"/>
       <c r="S141" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T141" s="7"/>
-      <c r="U141" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U141" s="6"/>
       <c r="V141" s="7"/>
-      <c r="W141" s="6"/>
+      <c r="W141" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X141" s="7"/>
       <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
@@ -11456,21 +11456,21 @@
         <v>36</v>
       </c>
       <c r="N142" s="7"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O142" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P142" s="7"/>
       <c r="Q142" s="6"/>
       <c r="R142" s="7"/>
       <c r="S142" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T142" s="7"/>
-      <c r="U142" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U142" s="6"/>
       <c r="V142" s="7"/>
-      <c r="W142" s="6"/>
+      <c r="W142" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X142" s="7"/>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
@@ -11516,21 +11516,21 @@
         <v>36</v>
       </c>
       <c r="N143" s="7"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O143" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P143" s="7"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="7"/>
       <c r="S143" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T143" s="7"/>
-      <c r="U143" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U143" s="6"/>
       <c r="V143" s="7"/>
-      <c r="W143" s="6"/>
+      <c r="W143" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
@@ -11576,21 +11576,21 @@
         <v>36</v>
       </c>
       <c r="N144" s="7"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P144" s="7"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="7"/>
       <c r="S144" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T144" s="7"/>
-      <c r="U144" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U144" s="6"/>
       <c r="V144" s="7"/>
-      <c r="W144" s="6"/>
+      <c r="W144" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X144" s="7"/>
       <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
@@ -11636,21 +11636,21 @@
         <v>36</v>
       </c>
       <c r="N145" s="7"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O145" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P145" s="7"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="7"/>
       <c r="S145" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T145" s="7"/>
-      <c r="U145" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U145" s="6"/>
       <c r="V145" s="7"/>
-      <c r="W145" s="6"/>
+      <c r="W145" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X145" s="7"/>
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
@@ -11696,21 +11696,21 @@
         <v>36</v>
       </c>
       <c r="N146" s="7"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O146" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P146" s="7"/>
       <c r="Q146" s="6"/>
       <c r="R146" s="7"/>
       <c r="S146" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T146" s="7"/>
-      <c r="U146" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U146" s="6"/>
       <c r="V146" s="7"/>
-      <c r="W146" s="6"/>
+      <c r="W146" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X146" s="7"/>
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
@@ -11756,21 +11756,21 @@
         <v>36</v>
       </c>
       <c r="N147" s="7"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P147" s="7"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="7"/>
       <c r="S147" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T147" s="7"/>
-      <c r="U147" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U147" s="6"/>
       <c r="V147" s="7"/>
-      <c r="W147" s="6"/>
+      <c r="W147" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X147" s="7"/>
       <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
@@ -11816,21 +11816,21 @@
         <v>36</v>
       </c>
       <c r="N148" s="7"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O148" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P148" s="7"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="7"/>
       <c r="S148" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T148" s="7"/>
-      <c r="U148" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U148" s="6"/>
       <c r="V148" s="7"/>
-      <c r="W148" s="6"/>
+      <c r="W148" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X148" s="7"/>
       <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
@@ -11876,21 +11876,21 @@
         <v>36</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O149" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P149" s="7"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="7"/>
       <c r="S149" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T149" s="7"/>
-      <c r="U149" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U149" s="6"/>
       <c r="V149" s="7"/>
-      <c r="W149" s="6"/>
+      <c r="W149" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X149" s="7"/>
       <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
@@ -11936,21 +11936,21 @@
         <v>36</v>
       </c>
       <c r="N150" s="3"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O150" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P150" s="3"/>
       <c r="Q150" s="2"/>
       <c r="R150" s="3"/>
       <c r="S150" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T150" s="3"/>
-      <c r="U150" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U150" s="2"/>
       <c r="V150" s="3"/>
-      <c r="W150" s="2"/>
+      <c r="W150" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X150" s="3"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
@@ -11996,21 +11996,21 @@
         <v>36</v>
       </c>
       <c r="N151" s="7"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O151" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P151" s="7"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="7"/>
       <c r="S151" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T151" s="7"/>
-      <c r="U151" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U151" s="6"/>
       <c r="V151" s="7"/>
-      <c r="W151" s="6"/>
+      <c r="W151" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X151" s="7"/>
       <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
@@ -12056,21 +12056,21 @@
         <v>36</v>
       </c>
       <c r="N152" s="3"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O152" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" s="3"/>
       <c r="Q152" s="2"/>
       <c r="R152" s="3"/>
       <c r="S152" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T152" s="3"/>
-      <c r="U152" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U152" s="2"/>
       <c r="V152" s="3"/>
-      <c r="W152" s="2"/>
+      <c r="W152" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X152" s="3"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
@@ -12120,21 +12120,21 @@
         <v>36</v>
       </c>
       <c r="N153" s="7"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O153" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P153" s="7"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="7"/>
       <c r="S153" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T153" s="7"/>
-      <c r="U153" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U153" s="6"/>
       <c r="V153" s="7"/>
-      <c r="W153" s="6"/>
+      <c r="W153" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X153" s="7"/>
       <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
@@ -12184,21 +12184,21 @@
         <v>36</v>
       </c>
       <c r="N154" s="7"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O154" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P154" s="7"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="7"/>
       <c r="S154" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T154" s="7"/>
-      <c r="U154" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U154" s="6"/>
       <c r="V154" s="7"/>
-      <c r="W154" s="6"/>
+      <c r="W154" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X154" s="7"/>
       <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
@@ -12248,21 +12248,21 @@
         <v>36</v>
       </c>
       <c r="N155" s="7"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O155" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P155" s="7"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="7"/>
       <c r="S155" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T155" s="7"/>
-      <c r="U155" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U155" s="6"/>
       <c r="V155" s="7"/>
-      <c r="W155" s="6"/>
+      <c r="W155" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X155" s="7"/>
       <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
@@ -12312,21 +12312,21 @@
         <v>36</v>
       </c>
       <c r="N156" s="3"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P156" s="3"/>
       <c r="Q156" s="2"/>
       <c r="R156" s="3"/>
       <c r="S156" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T156" s="3"/>
-      <c r="U156" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U156" s="2"/>
       <c r="V156" s="3"/>
-      <c r="W156" s="2"/>
+      <c r="W156" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X156" s="3"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
@@ -12376,21 +12376,21 @@
         <v>36</v>
       </c>
       <c r="N157" s="7"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O157" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P157" s="7"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="7"/>
       <c r="S157" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T157" s="7"/>
-      <c r="U157" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U157" s="6"/>
       <c r="V157" s="7"/>
-      <c r="W157" s="6"/>
+      <c r="W157" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X157" s="7"/>
       <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
@@ -12440,21 +12440,21 @@
         <v>36</v>
       </c>
       <c r="N158" s="7"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O158" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P158" s="7"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="7"/>
       <c r="S158" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T158" s="7"/>
-      <c r="U158" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U158" s="6"/>
       <c r="V158" s="7"/>
-      <c r="W158" s="6"/>
+      <c r="W158" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X158" s="7"/>
       <c r="Y158" s="6"/>
       <c r="Z158" s="6"/>
@@ -12504,23 +12504,23 @@
         <v>36</v>
       </c>
       <c r="N159" s="3"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O159" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" s="3"/>
       <c r="Q159" s="2"/>
       <c r="R159" s="3"/>
       <c r="S159" s="2"/>
-      <c r="T159" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U159" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T159" s="3"/>
+      <c r="U159" s="2"/>
       <c r="V159" s="3"/>
-      <c r="W159" s="2"/>
+      <c r="W159" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X159" s="3"/>
-      <c r="Y159" s="2"/>
+      <c r="Y159" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z159" s="2"/>
       <c r="AA159" s="2" t="s">
         <v>366</v>
@@ -12568,22 +12568,22 @@
         <v>36</v>
       </c>
       <c r="N160" s="3"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="3" t="s">
+      <c r="O160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P160" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" s="3"/>
       <c r="S160" s="2"/>
       <c r="T160" s="3"/>
-      <c r="U160" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U160" s="2"/>
       <c r="V160" s="3"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="W160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X160" s="3"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
       <c r="AA160" s="2" t="s">
@@ -12630,22 +12630,22 @@
         <v>36</v>
       </c>
       <c r="N161" s="7"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="7" t="s">
+      <c r="O161" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P161" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q161" s="6"/>
       <c r="R161" s="7"/>
       <c r="S161" s="6"/>
       <c r="T161" s="7"/>
-      <c r="U161" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U161" s="6"/>
       <c r="V161" s="7"/>
-      <c r="W161" s="6"/>
-      <c r="X161" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W161" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X161" s="7"/>
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6"/>
@@ -12690,22 +12690,22 @@
         <v>36</v>
       </c>
       <c r="N162" s="7"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="7" t="s">
+      <c r="O162" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P162" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q162" s="6"/>
       <c r="R162" s="7"/>
       <c r="S162" s="6"/>
       <c r="T162" s="7"/>
-      <c r="U162" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U162" s="6"/>
       <c r="V162" s="7"/>
-      <c r="W162" s="6"/>
-      <c r="X162" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W162" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X162" s="7"/>
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
       <c r="AA162" s="6"/>
@@ -12750,22 +12750,22 @@
         <v>36</v>
       </c>
       <c r="N163" s="7"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="7" t="s">
+      <c r="O163" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P163" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q163" s="6"/>
       <c r="R163" s="7"/>
       <c r="S163" s="6"/>
       <c r="T163" s="7"/>
-      <c r="U163" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U163" s="6"/>
       <c r="V163" s="7"/>
-      <c r="W163" s="6"/>
-      <c r="X163" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W163" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X163" s="7"/>
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6" t="s">
@@ -12814,22 +12814,22 @@
         <v>36</v>
       </c>
       <c r="N164" s="7"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="7" t="s">
+      <c r="O164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P164" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q164" s="6"/>
       <c r="R164" s="7"/>
       <c r="S164" s="6"/>
       <c r="T164" s="7"/>
-      <c r="U164" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U164" s="6"/>
       <c r="V164" s="7"/>
-      <c r="W164" s="6"/>
-      <c r="X164" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W164" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X164" s="7"/>
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6" t="s">
@@ -12878,22 +12878,22 @@
         <v>36</v>
       </c>
       <c r="N165" s="7"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="7" t="s">
+      <c r="O165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P165" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="7"/>
       <c r="S165" s="6"/>
       <c r="T165" s="7"/>
-      <c r="U165" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U165" s="6"/>
       <c r="V165" s="7"/>
-      <c r="W165" s="6"/>
-      <c r="X165" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W165" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X165" s="7"/>
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6" t="s">
@@ -12940,22 +12940,22 @@
         <v>36</v>
       </c>
       <c r="N166" s="7"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="7" t="s">
+      <c r="O166" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P166" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q166" s="6"/>
       <c r="R166" s="7"/>
       <c r="S166" s="6"/>
       <c r="T166" s="7"/>
-      <c r="U166" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U166" s="6"/>
       <c r="V166" s="7"/>
-      <c r="W166" s="6"/>
-      <c r="X166" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W166" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X166" s="7"/>
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
@@ -13000,22 +13000,22 @@
         <v>36</v>
       </c>
       <c r="N167" s="7"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="7" t="s">
+      <c r="O167" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P167" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q167" s="6"/>
       <c r="R167" s="7"/>
       <c r="S167" s="6"/>
       <c r="T167" s="7"/>
-      <c r="U167" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U167" s="6"/>
       <c r="V167" s="7"/>
-      <c r="W167" s="6"/>
-      <c r="X167" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W167" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
@@ -13060,22 +13060,22 @@
         <v>36</v>
       </c>
       <c r="N168" s="7"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="7" t="s">
+      <c r="O168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P168" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q168" s="6"/>
       <c r="R168" s="7"/>
       <c r="S168" s="6"/>
       <c r="T168" s="7"/>
-      <c r="U168" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U168" s="6"/>
       <c r="V168" s="7"/>
-      <c r="W168" s="6"/>
-      <c r="X168" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W168" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="6" t="s">
@@ -13124,22 +13124,22 @@
         <v>36</v>
       </c>
       <c r="N169" s="7"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="7" t="s">
+      <c r="O169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P169" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q169" s="6"/>
       <c r="R169" s="7"/>
       <c r="S169" s="6"/>
       <c r="T169" s="7"/>
-      <c r="U169" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U169" s="6"/>
       <c r="V169" s="7"/>
-      <c r="W169" s="6"/>
-      <c r="X169" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W169" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6" t="s">
@@ -13188,22 +13188,22 @@
         <v>36</v>
       </c>
       <c r="N170" s="3"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="3" t="s">
+      <c r="O170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P170" s="9" t="s">
         <v>31</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" s="3"/>
       <c r="S170" s="2"/>
       <c r="T170" s="3"/>
-      <c r="U170" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U170" s="2"/>
       <c r="V170" s="3"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="W170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X170" s="3"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
       <c r="AA170" s="2" t="s">
@@ -13250,22 +13250,22 @@
         <v>36</v>
       </c>
       <c r="N171" s="7"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="7" t="s">
+      <c r="O171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P171" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q171" s="6"/>
       <c r="R171" s="7"/>
       <c r="S171" s="6"/>
       <c r="T171" s="7"/>
-      <c r="U171" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U171" s="6"/>
       <c r="V171" s="7"/>
-      <c r="W171" s="6"/>
-      <c r="X171" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W171" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
@@ -13310,22 +13310,22 @@
         <v>36</v>
       </c>
       <c r="N172" s="7"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="7" t="s">
+      <c r="O172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P172" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="R172" s="7"/>
       <c r="S172" s="6"/>
       <c r="T172" s="7"/>
-      <c r="U172" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U172" s="6"/>
       <c r="V172" s="7"/>
-      <c r="W172" s="6"/>
-      <c r="X172" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
@@ -13370,22 +13370,22 @@
         <v>36</v>
       </c>
       <c r="N173" s="7"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="7" t="s">
+      <c r="O173" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P173" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="7"/>
       <c r="S173" s="6"/>
       <c r="T173" s="7"/>
-      <c r="U173" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U173" s="6"/>
       <c r="V173" s="7"/>
-      <c r="W173" s="6"/>
-      <c r="X173" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W173" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6" t="s">
@@ -13434,22 +13434,22 @@
         <v>36</v>
       </c>
       <c r="N174" s="7"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="7" t="s">
+      <c r="O174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P174" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q174" s="6"/>
       <c r="R174" s="7"/>
       <c r="S174" s="6"/>
       <c r="T174" s="7"/>
-      <c r="U174" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U174" s="6"/>
       <c r="V174" s="7"/>
-      <c r="W174" s="6"/>
-      <c r="X174" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W174" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6" t="s">
@@ -13498,22 +13498,22 @@
         <v>36</v>
       </c>
       <c r="N175" s="7"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="7" t="s">
+      <c r="O175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P175" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q175" s="6"/>
       <c r="R175" s="7"/>
       <c r="S175" s="6"/>
       <c r="T175" s="7"/>
-      <c r="U175" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U175" s="6"/>
       <c r="V175" s="7"/>
-      <c r="W175" s="6"/>
-      <c r="X175" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W175" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6" t="s">
@@ -13560,22 +13560,22 @@
         <v>36</v>
       </c>
       <c r="N176" s="7"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="7" t="s">
+      <c r="O176" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P176" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q176" s="6"/>
       <c r="R176" s="7"/>
       <c r="S176" s="6"/>
       <c r="T176" s="7"/>
-      <c r="U176" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U176" s="6"/>
       <c r="V176" s="7"/>
-      <c r="W176" s="6"/>
-      <c r="X176" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W176" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X176" s="7"/>
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
       <c r="AA176" s="6"/>
@@ -13620,22 +13620,22 @@
         <v>36</v>
       </c>
       <c r="N177" s="7"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="7" t="s">
+      <c r="O177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P177" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q177" s="6"/>
       <c r="R177" s="7"/>
       <c r="S177" s="6"/>
       <c r="T177" s="7"/>
-      <c r="U177" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U177" s="6"/>
       <c r="V177" s="7"/>
-      <c r="W177" s="6"/>
-      <c r="X177" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X177" s="7"/>
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
       <c r="AA177" s="6"/>
@@ -13680,22 +13680,22 @@
         <v>36</v>
       </c>
       <c r="N178" s="7"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="7" t="s">
+      <c r="O178" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P178" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q178" s="6"/>
       <c r="R178" s="7"/>
       <c r="S178" s="6"/>
       <c r="T178" s="7"/>
-      <c r="U178" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U178" s="6"/>
       <c r="V178" s="7"/>
-      <c r="W178" s="6"/>
-      <c r="X178" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W178" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="6" t="s">
@@ -13744,22 +13744,22 @@
         <v>36</v>
       </c>
       <c r="N179" s="7"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="7" t="s">
+      <c r="O179" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P179" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q179" s="6"/>
       <c r="R179" s="7"/>
       <c r="S179" s="6"/>
       <c r="T179" s="7"/>
-      <c r="U179" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U179" s="6"/>
       <c r="V179" s="7"/>
-      <c r="W179" s="6"/>
-      <c r="X179" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W179" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="6" t="s">
@@ -13809,18 +13809,18 @@
       </c>
       <c r="N180" s="3"/>
       <c r="O180" s="2"/>
-      <c r="P180" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P180" s="3"/>
       <c r="Q180" s="2"/>
       <c r="R180" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S180" s="2"/>
       <c r="T180" s="3"/>
       <c r="U180" s="2"/>
       <c r="V180" s="3"/>
-      <c r="W180" s="2"/>
+      <c r="W180" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X180" s="3"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
@@ -13867,18 +13867,18 @@
       </c>
       <c r="N181" s="7"/>
       <c r="O181" s="6"/>
-      <c r="P181" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P181" s="7"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S181" s="6"/>
       <c r="T181" s="7"/>
       <c r="U181" s="6"/>
       <c r="V181" s="7"/>
-      <c r="W181" s="6"/>
+      <c r="W181" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
@@ -13925,18 +13925,18 @@
       </c>
       <c r="N182" s="7"/>
       <c r="O182" s="6"/>
-      <c r="P182" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P182" s="7"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S182" s="6"/>
       <c r="T182" s="7"/>
       <c r="U182" s="6"/>
       <c r="V182" s="7"/>
-      <c r="W182" s="6"/>
+      <c r="W182" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
@@ -13983,18 +13983,18 @@
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="6"/>
-      <c r="P183" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P183" s="7"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S183" s="6"/>
       <c r="T183" s="7"/>
       <c r="U183" s="6"/>
       <c r="V183" s="7"/>
-      <c r="W183" s="6"/>
+      <c r="W183" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
@@ -14041,18 +14041,18 @@
       </c>
       <c r="N184" s="7"/>
       <c r="O184" s="6"/>
-      <c r="P184" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P184" s="7"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S184" s="6"/>
       <c r="T184" s="7"/>
       <c r="U184" s="6"/>
       <c r="V184" s="7"/>
-      <c r="W184" s="6"/>
+      <c r="W184" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
@@ -14099,18 +14099,18 @@
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="6"/>
-      <c r="P185" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P185" s="7"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S185" s="6"/>
       <c r="T185" s="7"/>
       <c r="U185" s="6"/>
       <c r="V185" s="7"/>
-      <c r="W185" s="6"/>
+      <c r="W185" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -14157,18 +14157,18 @@
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="6"/>
-      <c r="P186" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P186" s="7"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S186" s="6"/>
       <c r="T186" s="7"/>
       <c r="U186" s="6"/>
       <c r="V186" s="7"/>
-      <c r="W186" s="6"/>
+      <c r="W186" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X186" s="7"/>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
@@ -14215,18 +14215,18 @@
       </c>
       <c r="N187" s="7"/>
       <c r="O187" s="6"/>
-      <c r="P187" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P187" s="7"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S187" s="6"/>
       <c r="T187" s="7"/>
       <c r="U187" s="6"/>
       <c r="V187" s="7"/>
-      <c r="W187" s="6"/>
+      <c r="W187" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X187" s="7"/>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
@@ -14273,18 +14273,18 @@
       </c>
       <c r="N188" s="7"/>
       <c r="O188" s="6"/>
-      <c r="P188" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P188" s="7"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S188" s="6"/>
       <c r="T188" s="7"/>
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
-      <c r="W188" s="6"/>
+      <c r="W188" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X188" s="7"/>
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
@@ -14331,18 +14331,18 @@
       </c>
       <c r="N189" s="7"/>
       <c r="O189" s="6"/>
-      <c r="P189" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P189" s="7"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S189" s="6"/>
       <c r="T189" s="7"/>
       <c r="U189" s="6"/>
       <c r="V189" s="7"/>
-      <c r="W189" s="6"/>
+      <c r="W189" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X189" s="7"/>
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
@@ -14389,18 +14389,18 @@
       </c>
       <c r="N190" s="7"/>
       <c r="O190" s="6"/>
-      <c r="P190" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P190" s="7"/>
       <c r="Q190" s="6"/>
       <c r="R190" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S190" s="6"/>
       <c r="T190" s="7"/>
       <c r="U190" s="6"/>
       <c r="V190" s="7"/>
-      <c r="W190" s="6"/>
+      <c r="W190" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X190" s="7"/>
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
@@ -14447,18 +14447,18 @@
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="6"/>
-      <c r="P191" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P191" s="7"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S191" s="6"/>
       <c r="T191" s="7"/>
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
-      <c r="W191" s="6"/>
+      <c r="W191" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X191" s="7"/>
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
@@ -14505,18 +14505,18 @@
       </c>
       <c r="N192" s="7"/>
       <c r="O192" s="6"/>
-      <c r="P192" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P192" s="7"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S192" s="6"/>
       <c r="T192" s="7"/>
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
-      <c r="W192" s="6"/>
+      <c r="W192" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X192" s="7"/>
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
@@ -14563,18 +14563,18 @@
       </c>
       <c r="N193" s="7"/>
       <c r="O193" s="6"/>
-      <c r="P193" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P193" s="7"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S193" s="6"/>
       <c r="T193" s="7"/>
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
-      <c r="W193" s="6"/>
+      <c r="W193" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X193" s="7"/>
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
@@ -14621,18 +14621,18 @@
       </c>
       <c r="N194" s="7"/>
       <c r="O194" s="6"/>
-      <c r="P194" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P194" s="7"/>
       <c r="Q194" s="6"/>
       <c r="R194" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S194" s="6"/>
       <c r="T194" s="7"/>
       <c r="U194" s="6"/>
       <c r="V194" s="7"/>
-      <c r="W194" s="6"/>
+      <c r="W194" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X194" s="7"/>
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
@@ -14679,18 +14679,18 @@
       </c>
       <c r="N195" s="7"/>
       <c r="O195" s="6"/>
-      <c r="P195" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P195" s="7"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S195" s="6"/>
       <c r="T195" s="7"/>
       <c r="U195" s="6"/>
       <c r="V195" s="7"/>
-      <c r="W195" s="6"/>
+      <c r="W195" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X195" s="7"/>
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
@@ -14737,18 +14737,18 @@
       </c>
       <c r="N196" s="7"/>
       <c r="O196" s="6"/>
-      <c r="P196" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P196" s="7"/>
       <c r="Q196" s="6"/>
       <c r="R196" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S196" s="6"/>
       <c r="T196" s="7"/>
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
-      <c r="W196" s="6"/>
+      <c r="W196" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X196" s="7"/>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
@@ -14795,18 +14795,18 @@
       </c>
       <c r="N197" s="7"/>
       <c r="O197" s="6"/>
-      <c r="P197" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P197" s="7"/>
       <c r="Q197" s="6"/>
       <c r="R197" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S197" s="6"/>
       <c r="T197" s="7"/>
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
-      <c r="W197" s="6"/>
+      <c r="W197" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X197" s="7"/>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
@@ -14853,18 +14853,18 @@
       </c>
       <c r="N198" s="7"/>
       <c r="O198" s="6"/>
-      <c r="P198" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P198" s="7"/>
       <c r="Q198" s="6"/>
       <c r="R198" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S198" s="6"/>
       <c r="T198" s="7"/>
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
-      <c r="W198" s="6"/>
+      <c r="W198" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X198" s="7"/>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
@@ -14911,18 +14911,18 @@
       </c>
       <c r="N199" s="7"/>
       <c r="O199" s="6"/>
-      <c r="P199" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P199" s="7"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S199" s="6"/>
       <c r="T199" s="7"/>
       <c r="U199" s="6"/>
       <c r="V199" s="7"/>
-      <c r="W199" s="6"/>
+      <c r="W199" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X199" s="7"/>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
@@ -14969,18 +14969,18 @@
       </c>
       <c r="N200" s="7"/>
       <c r="O200" s="6"/>
-      <c r="P200" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P200" s="7"/>
       <c r="Q200" s="6"/>
       <c r="R200" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S200" s="6"/>
       <c r="T200" s="7"/>
       <c r="U200" s="6"/>
       <c r="V200" s="7"/>
-      <c r="W200" s="6"/>
+      <c r="W200" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X200" s="7"/>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
@@ -15027,18 +15027,18 @@
       </c>
       <c r="N201" s="7"/>
       <c r="O201" s="6"/>
-      <c r="P201" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P201" s="7"/>
       <c r="Q201" s="6"/>
       <c r="R201" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S201" s="6"/>
       <c r="T201" s="7"/>
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
-      <c r="W201" s="6"/>
+      <c r="W201" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X201" s="7"/>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
@@ -15085,18 +15085,18 @@
       </c>
       <c r="N202" s="7"/>
       <c r="O202" s="6"/>
-      <c r="P202" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P202" s="7"/>
       <c r="Q202" s="6"/>
       <c r="R202" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S202" s="6"/>
       <c r="T202" s="7"/>
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
-      <c r="W202" s="6"/>
+      <c r="W202" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X202" s="7"/>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
@@ -15143,18 +15143,18 @@
       </c>
       <c r="N203" s="7"/>
       <c r="O203" s="6"/>
-      <c r="P203" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P203" s="7"/>
       <c r="Q203" s="6"/>
       <c r="R203" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S203" s="6"/>
       <c r="T203" s="7"/>
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
-      <c r="W203" s="6"/>
+      <c r="W203" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X203" s="7"/>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
@@ -15201,18 +15201,18 @@
       </c>
       <c r="N204" s="7"/>
       <c r="O204" s="6"/>
-      <c r="P204" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P204" s="7"/>
       <c r="Q204" s="6"/>
       <c r="R204" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S204" s="6"/>
       <c r="T204" s="7"/>
       <c r="U204" s="6"/>
       <c r="V204" s="7"/>
-      <c r="W204" s="6"/>
+      <c r="W204" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X204" s="7"/>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
@@ -15259,18 +15259,18 @@
       </c>
       <c r="N205" s="3"/>
       <c r="O205" s="2"/>
-      <c r="P205" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P205" s="3"/>
       <c r="Q205" s="2"/>
       <c r="R205" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S205" s="2"/>
       <c r="T205" s="3"/>
       <c r="U205" s="2"/>
       <c r="V205" s="3"/>
-      <c r="W205" s="2"/>
+      <c r="W205" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X205" s="3"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
@@ -15321,18 +15321,18 @@
       </c>
       <c r="N206" s="7"/>
       <c r="O206" s="6"/>
-      <c r="P206" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P206" s="7"/>
       <c r="Q206" s="6"/>
       <c r="R206" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S206" s="6"/>
       <c r="T206" s="7"/>
       <c r="U206" s="6"/>
       <c r="V206" s="7"/>
-      <c r="W206" s="6"/>
+      <c r="W206" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X206" s="7"/>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
@@ -15383,18 +15383,18 @@
       </c>
       <c r="N207" s="7"/>
       <c r="O207" s="6"/>
-      <c r="P207" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P207" s="7"/>
       <c r="Q207" s="6"/>
       <c r="R207" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S207" s="6"/>
       <c r="T207" s="7"/>
       <c r="U207" s="6"/>
       <c r="V207" s="7"/>
-      <c r="W207" s="6"/>
+      <c r="W207" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X207" s="7"/>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
@@ -15445,18 +15445,18 @@
       </c>
       <c r="N208" s="7"/>
       <c r="O208" s="6"/>
-      <c r="P208" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P208" s="7"/>
       <c r="Q208" s="6"/>
       <c r="R208" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S208" s="6"/>
       <c r="T208" s="7"/>
       <c r="U208" s="6"/>
       <c r="V208" s="7"/>
-      <c r="W208" s="6"/>
+      <c r="W208" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X208" s="7"/>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
@@ -15507,18 +15507,18 @@
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="2"/>
-      <c r="P209" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P209" s="3"/>
       <c r="Q209" s="2"/>
       <c r="R209" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S209" s="2"/>
       <c r="T209" s="3"/>
       <c r="U209" s="2"/>
       <c r="V209" s="3"/>
-      <c r="W209" s="2"/>
+      <c r="W209" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X209" s="3"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
@@ -15569,18 +15569,18 @@
       </c>
       <c r="N210" s="7"/>
       <c r="O210" s="6"/>
-      <c r="P210" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P210" s="7"/>
       <c r="Q210" s="6"/>
       <c r="R210" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S210" s="6"/>
       <c r="T210" s="7"/>
       <c r="U210" s="6"/>
       <c r="V210" s="7"/>
-      <c r="W210" s="6"/>
+      <c r="W210" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X210" s="7"/>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
@@ -15631,18 +15631,18 @@
       </c>
       <c r="N211" s="7"/>
       <c r="O211" s="6"/>
-      <c r="P211" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P211" s="7"/>
       <c r="Q211" s="6"/>
       <c r="R211" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S211" s="6"/>
       <c r="T211" s="7"/>
       <c r="U211" s="6"/>
       <c r="V211" s="7"/>
-      <c r="W211" s="6"/>
+      <c r="W211" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X211" s="7"/>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
@@ -15693,18 +15693,18 @@
       </c>
       <c r="N212" s="7"/>
       <c r="O212" s="6"/>
-      <c r="P212" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P212" s="7"/>
       <c r="Q212" s="6"/>
       <c r="R212" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S212" s="6"/>
       <c r="T212" s="7"/>
       <c r="U212" s="6"/>
       <c r="V212" s="7"/>
-      <c r="W212" s="6"/>
+      <c r="W212" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X212" s="7"/>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
@@ -15755,18 +15755,18 @@
       </c>
       <c r="N213" s="7"/>
       <c r="O213" s="6"/>
-      <c r="P213" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P213" s="7"/>
       <c r="Q213" s="6"/>
       <c r="R213" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S213" s="6"/>
       <c r="T213" s="7"/>
       <c r="U213" s="6"/>
       <c r="V213" s="7"/>
-      <c r="W213" s="6"/>
+      <c r="W213" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X213" s="7"/>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
@@ -15817,18 +15817,18 @@
       </c>
       <c r="N214" s="3"/>
       <c r="O214" s="2"/>
-      <c r="P214" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P214" s="3"/>
       <c r="Q214" s="2"/>
       <c r="R214" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S214" s="2"/>
       <c r="T214" s="3"/>
       <c r="U214" s="2"/>
       <c r="V214" s="3"/>
-      <c r="W214" s="2"/>
+      <c r="W214" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X214" s="3"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
@@ -15879,18 +15879,18 @@
       </c>
       <c r="N215" s="7"/>
       <c r="O215" s="6"/>
-      <c r="P215" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P215" s="7"/>
       <c r="Q215" s="6"/>
       <c r="R215" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S215" s="6"/>
       <c r="T215" s="7"/>
       <c r="U215" s="6"/>
       <c r="V215" s="7"/>
-      <c r="W215" s="6"/>
+      <c r="W215" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X215" s="7"/>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
@@ -15941,18 +15941,18 @@
       </c>
       <c r="N216" s="7"/>
       <c r="O216" s="6"/>
-      <c r="P216" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P216" s="7"/>
       <c r="Q216" s="6"/>
       <c r="R216" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S216" s="6"/>
       <c r="T216" s="7"/>
       <c r="U216" s="6"/>
       <c r="V216" s="7"/>
-      <c r="W216" s="6"/>
+      <c r="W216" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X216" s="7"/>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
@@ -16003,18 +16003,18 @@
       </c>
       <c r="N217" s="7"/>
       <c r="O217" s="6"/>
-      <c r="P217" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P217" s="7"/>
       <c r="Q217" s="6"/>
       <c r="R217" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S217" s="6"/>
       <c r="T217" s="7"/>
       <c r="U217" s="6"/>
       <c r="V217" s="7"/>
-      <c r="W217" s="6"/>
+      <c r="W217" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X217" s="7"/>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
@@ -16065,18 +16065,18 @@
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="2"/>
-      <c r="P218" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P218" s="3"/>
       <c r="Q218" s="2"/>
       <c r="R218" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S218" s="2"/>
       <c r="T218" s="3"/>
       <c r="U218" s="2"/>
       <c r="V218" s="3"/>
-      <c r="W218" s="2"/>
+      <c r="W218" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X218" s="3"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
@@ -16123,18 +16123,18 @@
       </c>
       <c r="N219" s="7"/>
       <c r="O219" s="6"/>
-      <c r="P219" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P219" s="7"/>
       <c r="Q219" s="6"/>
       <c r="R219" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S219" s="6"/>
       <c r="T219" s="7"/>
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
-      <c r="W219" s="6"/>
+      <c r="W219" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X219" s="7"/>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
@@ -16181,18 +16181,18 @@
       </c>
       <c r="N220" s="7"/>
       <c r="O220" s="6"/>
-      <c r="P220" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P220" s="7"/>
       <c r="Q220" s="6"/>
       <c r="R220" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S220" s="6"/>
       <c r="T220" s="7"/>
       <c r="U220" s="6"/>
       <c r="V220" s="7"/>
-      <c r="W220" s="6"/>
+      <c r="W220" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X220" s="7"/>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
@@ -16239,18 +16239,18 @@
       </c>
       <c r="N221" s="7"/>
       <c r="O221" s="6"/>
-      <c r="P221" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P221" s="7"/>
       <c r="Q221" s="6"/>
       <c r="R221" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S221" s="6"/>
       <c r="T221" s="7"/>
       <c r="U221" s="6"/>
       <c r="V221" s="7"/>
-      <c r="W221" s="6"/>
+      <c r="W221" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X221" s="7"/>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
@@ -16297,18 +16297,18 @@
       </c>
       <c r="N222" s="7"/>
       <c r="O222" s="6"/>
-      <c r="P222" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P222" s="7"/>
       <c r="Q222" s="6"/>
       <c r="R222" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S222" s="6"/>
       <c r="T222" s="7"/>
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
-      <c r="W222" s="6"/>
+      <c r="W222" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X222" s="7"/>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
@@ -16355,18 +16355,18 @@
       </c>
       <c r="N223" s="7"/>
       <c r="O223" s="6"/>
-      <c r="P223" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P223" s="7"/>
       <c r="Q223" s="6"/>
       <c r="R223" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S223" s="6"/>
       <c r="T223" s="7"/>
       <c r="U223" s="6"/>
       <c r="V223" s="7"/>
-      <c r="W223" s="6"/>
+      <c r="W223" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X223" s="7"/>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -16413,18 +16413,18 @@
       </c>
       <c r="N224" s="7"/>
       <c r="O224" s="6"/>
-      <c r="P224" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P224" s="7"/>
       <c r="Q224" s="6"/>
       <c r="R224" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S224" s="6"/>
       <c r="T224" s="7"/>
       <c r="U224" s="6"/>
       <c r="V224" s="7"/>
-      <c r="W224" s="6"/>
+      <c r="W224" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X224" s="7"/>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -16471,18 +16471,18 @@
       </c>
       <c r="N225" s="7"/>
       <c r="O225" s="6"/>
-      <c r="P225" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P225" s="7"/>
       <c r="Q225" s="6"/>
       <c r="R225" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S225" s="6"/>
       <c r="T225" s="7"/>
       <c r="U225" s="6"/>
       <c r="V225" s="7"/>
-      <c r="W225" s="6"/>
+      <c r="W225" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X225" s="7"/>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
@@ -16529,18 +16529,18 @@
       </c>
       <c r="N226" s="7"/>
       <c r="O226" s="6"/>
-      <c r="P226" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P226" s="7"/>
       <c r="Q226" s="6"/>
       <c r="R226" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S226" s="6"/>
       <c r="T226" s="7"/>
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
-      <c r="W226" s="6"/>
+      <c r="W226" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X226" s="7"/>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
@@ -16587,18 +16587,18 @@
       </c>
       <c r="N227" s="7"/>
       <c r="O227" s="6"/>
-      <c r="P227" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P227" s="7"/>
       <c r="Q227" s="6"/>
       <c r="R227" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S227" s="6"/>
       <c r="T227" s="7"/>
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
-      <c r="W227" s="6"/>
+      <c r="W227" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X227" s="7"/>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
@@ -16645,18 +16645,18 @@
       </c>
       <c r="N228" s="7"/>
       <c r="O228" s="6"/>
-      <c r="P228" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P228" s="7"/>
       <c r="Q228" s="6"/>
       <c r="R228" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S228" s="6"/>
       <c r="T228" s="7"/>
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
-      <c r="W228" s="6"/>
+      <c r="W228" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X228" s="7"/>
       <c r="Y228" s="6"/>
       <c r="Z228" s="6"/>
@@ -16703,18 +16703,18 @@
       </c>
       <c r="N229" s="7"/>
       <c r="O229" s="6"/>
-      <c r="P229" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P229" s="7"/>
       <c r="Q229" s="6"/>
       <c r="R229" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S229" s="6"/>
       <c r="T229" s="7"/>
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
-      <c r="W229" s="6"/>
+      <c r="W229" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X229" s="7"/>
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
@@ -16761,18 +16761,18 @@
       </c>
       <c r="N230" s="7"/>
       <c r="O230" s="6"/>
-      <c r="P230" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P230" s="7"/>
       <c r="Q230" s="6"/>
       <c r="R230" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S230" s="6"/>
       <c r="T230" s="7"/>
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
-      <c r="W230" s="6"/>
+      <c r="W230" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X230" s="7"/>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
@@ -16819,18 +16819,18 @@
       </c>
       <c r="N231" s="7"/>
       <c r="O231" s="6"/>
-      <c r="P231" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P231" s="7"/>
       <c r="Q231" s="6"/>
       <c r="R231" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S231" s="6"/>
       <c r="T231" s="7"/>
       <c r="U231" s="6"/>
       <c r="V231" s="7"/>
-      <c r="W231" s="6"/>
+      <c r="W231" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X231" s="7"/>
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
@@ -16877,18 +16877,18 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="6"/>
-      <c r="P232" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P232" s="7"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S232" s="6"/>
       <c r="T232" s="7"/>
       <c r="U232" s="6"/>
       <c r="V232" s="7"/>
-      <c r="W232" s="6"/>
+      <c r="W232" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X232" s="7"/>
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
@@ -16935,18 +16935,18 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="6"/>
-      <c r="P233" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P233" s="7"/>
       <c r="Q233" s="6"/>
       <c r="R233" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S233" s="6"/>
       <c r="T233" s="7"/>
       <c r="U233" s="6"/>
       <c r="V233" s="7"/>
-      <c r="W233" s="6"/>
+      <c r="W233" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X233" s="7"/>
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
@@ -16993,18 +16993,18 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="6"/>
-      <c r="P234" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P234" s="7"/>
       <c r="Q234" s="6"/>
       <c r="R234" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S234" s="6"/>
       <c r="T234" s="7"/>
       <c r="U234" s="6"/>
       <c r="V234" s="7"/>
-      <c r="W234" s="6"/>
+      <c r="W234" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X234" s="7"/>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -17051,18 +17051,18 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="6"/>
-      <c r="P235" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P235" s="7"/>
       <c r="Q235" s="6"/>
       <c r="R235" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S235" s="6"/>
       <c r="T235" s="7"/>
       <c r="U235" s="6"/>
       <c r="V235" s="7"/>
-      <c r="W235" s="6"/>
+      <c r="W235" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X235" s="7"/>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -17109,18 +17109,18 @@
       </c>
       <c r="N236" s="7"/>
       <c r="O236" s="6"/>
-      <c r="P236" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P236" s="7"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S236" s="6"/>
       <c r="T236" s="7"/>
       <c r="U236" s="6"/>
       <c r="V236" s="7"/>
-      <c r="W236" s="6"/>
+      <c r="W236" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X236" s="7"/>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
@@ -17167,18 +17167,18 @@
       </c>
       <c r="N237" s="7"/>
       <c r="O237" s="6"/>
-      <c r="P237" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P237" s="7"/>
       <c r="Q237" s="6"/>
       <c r="R237" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S237" s="6"/>
       <c r="T237" s="7"/>
       <c r="U237" s="6"/>
       <c r="V237" s="7"/>
-      <c r="W237" s="6"/>
+      <c r="W237" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X237" s="7"/>
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
@@ -17225,18 +17225,18 @@
       </c>
       <c r="N238" s="7"/>
       <c r="O238" s="6"/>
-      <c r="P238" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P238" s="7"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S238" s="6"/>
       <c r="T238" s="7"/>
       <c r="U238" s="6"/>
       <c r="V238" s="7"/>
-      <c r="W238" s="6"/>
+      <c r="W238" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X238" s="7"/>
       <c r="Y238" s="6"/>
       <c r="Z238" s="6"/>
@@ -17283,18 +17283,18 @@
       </c>
       <c r="N239" s="7"/>
       <c r="O239" s="6"/>
-      <c r="P239" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P239" s="7"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S239" s="6"/>
       <c r="T239" s="7"/>
       <c r="U239" s="6"/>
       <c r="V239" s="7"/>
-      <c r="W239" s="6"/>
+      <c r="W239" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X239" s="7"/>
       <c r="Y239" s="6"/>
       <c r="Z239" s="6"/>
@@ -17341,18 +17341,18 @@
       </c>
       <c r="N240" s="7"/>
       <c r="O240" s="6"/>
-      <c r="P240" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P240" s="7"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S240" s="6"/>
       <c r="T240" s="7"/>
       <c r="U240" s="6"/>
       <c r="V240" s="7"/>
-      <c r="W240" s="6"/>
+      <c r="W240" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X240" s="7"/>
       <c r="Y240" s="6"/>
       <c r="Z240" s="6"/>
@@ -17399,18 +17399,18 @@
       </c>
       <c r="N241" s="7"/>
       <c r="O241" s="6"/>
-      <c r="P241" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P241" s="7"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S241" s="6"/>
       <c r="T241" s="7"/>
       <c r="U241" s="6"/>
       <c r="V241" s="7"/>
-      <c r="W241" s="6"/>
+      <c r="W241" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X241" s="7"/>
       <c r="Y241" s="6"/>
       <c r="Z241" s="6"/>
@@ -17457,18 +17457,18 @@
       </c>
       <c r="N242" s="7"/>
       <c r="O242" s="6"/>
-      <c r="P242" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P242" s="7"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S242" s="6"/>
       <c r="T242" s="7"/>
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
-      <c r="W242" s="6"/>
+      <c r="W242" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X242" s="7"/>
       <c r="Y242" s="6"/>
       <c r="Z242" s="6"/>
@@ -17515,18 +17515,18 @@
       </c>
       <c r="N243" s="7"/>
       <c r="O243" s="6"/>
-      <c r="P243" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P243" s="7"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S243" s="6"/>
       <c r="T243" s="7"/>
       <c r="U243" s="6"/>
       <c r="V243" s="7"/>
-      <c r="W243" s="6"/>
+      <c r="W243" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X243" s="7"/>
       <c r="Y243" s="6"/>
       <c r="Z243" s="6"/>
@@ -17573,18 +17573,18 @@
       </c>
       <c r="N244" s="7"/>
       <c r="O244" s="6"/>
-      <c r="P244" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P244" s="7"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S244" s="6"/>
       <c r="T244" s="7"/>
       <c r="U244" s="6"/>
       <c r="V244" s="7"/>
-      <c r="W244" s="6"/>
+      <c r="W244" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X244" s="7"/>
       <c r="Y244" s="6"/>
       <c r="Z244" s="6"/>
@@ -17631,18 +17631,18 @@
       </c>
       <c r="N245" s="7"/>
       <c r="O245" s="6"/>
-      <c r="P245" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P245" s="7"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S245" s="6"/>
       <c r="T245" s="7"/>
       <c r="U245" s="6"/>
       <c r="V245" s="7"/>
-      <c r="W245" s="6"/>
+      <c r="W245" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X245" s="7"/>
       <c r="Y245" s="6"/>
       <c r="Z245" s="6"/>
@@ -17689,18 +17689,18 @@
       </c>
       <c r="N246" s="7"/>
       <c r="O246" s="6"/>
-      <c r="P246" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P246" s="7"/>
       <c r="Q246" s="6"/>
       <c r="R246" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S246" s="6"/>
       <c r="T246" s="7"/>
       <c r="U246" s="6"/>
       <c r="V246" s="7"/>
-      <c r="W246" s="6"/>
+      <c r="W246" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X246" s="7"/>
       <c r="Y246" s="6"/>
       <c r="Z246" s="6"/>
@@ -17747,18 +17747,18 @@
       </c>
       <c r="N247" s="7"/>
       <c r="O247" s="6"/>
-      <c r="P247" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P247" s="7"/>
       <c r="Q247" s="6"/>
       <c r="R247" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S247" s="6"/>
       <c r="T247" s="7"/>
       <c r="U247" s="6"/>
       <c r="V247" s="7"/>
-      <c r="W247" s="6"/>
+      <c r="W247" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X247" s="7"/>
       <c r="Y247" s="6"/>
       <c r="Z247" s="6"/>
@@ -17805,18 +17805,18 @@
       </c>
       <c r="N248" s="7"/>
       <c r="O248" s="6"/>
-      <c r="P248" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P248" s="7"/>
       <c r="Q248" s="6"/>
       <c r="R248" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S248" s="6"/>
       <c r="T248" s="7"/>
       <c r="U248" s="6"/>
       <c r="V248" s="7"/>
-      <c r="W248" s="6"/>
+      <c r="W248" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X248" s="7"/>
       <c r="Y248" s="6"/>
       <c r="Z248" s="6"/>
@@ -17863,18 +17863,18 @@
       </c>
       <c r="N249" s="7"/>
       <c r="O249" s="6"/>
-      <c r="P249" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P249" s="7"/>
       <c r="Q249" s="6"/>
       <c r="R249" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S249" s="6"/>
       <c r="T249" s="7"/>
       <c r="U249" s="6"/>
       <c r="V249" s="7"/>
-      <c r="W249" s="6"/>
+      <c r="W249" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X249" s="7"/>
       <c r="Y249" s="6"/>
       <c r="Z249" s="6"/>
@@ -17921,18 +17921,18 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="6"/>
-      <c r="P250" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P250" s="7"/>
       <c r="Q250" s="6"/>
       <c r="R250" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S250" s="6"/>
       <c r="T250" s="7"/>
       <c r="U250" s="6"/>
       <c r="V250" s="7"/>
-      <c r="W250" s="6"/>
+      <c r="W250" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X250" s="7"/>
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
@@ -17979,18 +17979,18 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="6"/>
-      <c r="P251" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P251" s="7"/>
       <c r="Q251" s="6"/>
       <c r="R251" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S251" s="6"/>
       <c r="T251" s="7"/>
       <c r="U251" s="6"/>
       <c r="V251" s="7"/>
-      <c r="W251" s="6"/>
+      <c r="W251" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X251" s="7"/>
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
@@ -18040,7 +18040,7 @@
       <c r="P252" s="7"/>
       <c r="Q252" s="6"/>
       <c r="R252" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S252" s="6"/>
       <c r="T252" s="7"/>
@@ -18098,7 +18098,7 @@
       <c r="P253" s="7"/>
       <c r="Q253" s="6"/>
       <c r="R253" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S253" s="6"/>
       <c r="T253" s="7"/>
@@ -18153,18 +18153,18 @@
       </c>
       <c r="N254" s="7"/>
       <c r="O254" s="6"/>
-      <c r="P254" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P254" s="7"/>
       <c r="Q254" s="6"/>
       <c r="R254" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S254" s="6"/>
       <c r="T254" s="7"/>
       <c r="U254" s="6"/>
       <c r="V254" s="7"/>
-      <c r="W254" s="6"/>
+      <c r="W254" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X254" s="7"/>
       <c r="Y254" s="6"/>
       <c r="Z254" s="6"/>
@@ -18213,18 +18213,18 @@
       </c>
       <c r="N255" s="3"/>
       <c r="O255" s="2"/>
-      <c r="P255" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P255" s="3"/>
       <c r="Q255" s="2"/>
       <c r="R255" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S255" s="2"/>
       <c r="T255" s="3"/>
       <c r="U255" s="2"/>
       <c r="V255" s="3"/>
-      <c r="W255" s="2"/>
+      <c r="W255" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X255" s="3"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
@@ -18271,18 +18271,18 @@
       </c>
       <c r="N256" s="7"/>
       <c r="O256" s="6"/>
-      <c r="P256" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P256" s="7"/>
       <c r="Q256" s="6"/>
       <c r="R256" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S256" s="6"/>
       <c r="T256" s="7"/>
       <c r="U256" s="6"/>
       <c r="V256" s="7"/>
-      <c r="W256" s="6"/>
+      <c r="W256" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X256" s="7"/>
       <c r="Y256" s="6"/>
       <c r="Z256" s="6"/>
@@ -18329,18 +18329,18 @@
       </c>
       <c r="N257" s="7"/>
       <c r="O257" s="6"/>
-      <c r="P257" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P257" s="7"/>
       <c r="Q257" s="6"/>
       <c r="R257" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S257" s="6"/>
       <c r="T257" s="7"/>
       <c r="U257" s="6"/>
       <c r="V257" s="7"/>
-      <c r="W257" s="6"/>
+      <c r="W257" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X257" s="7"/>
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
@@ -18387,18 +18387,18 @@
       </c>
       <c r="N258" s="7"/>
       <c r="O258" s="6"/>
-      <c r="P258" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P258" s="7"/>
       <c r="Q258" s="6"/>
       <c r="R258" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S258" s="6"/>
       <c r="T258" s="7"/>
       <c r="U258" s="6"/>
       <c r="V258" s="7"/>
-      <c r="W258" s="6"/>
+      <c r="W258" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X258" s="7"/>
       <c r="Y258" s="6"/>
       <c r="Z258" s="6"/>
@@ -18445,18 +18445,18 @@
       </c>
       <c r="N259" s="7"/>
       <c r="O259" s="6"/>
-      <c r="P259" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P259" s="7"/>
       <c r="Q259" s="6"/>
       <c r="R259" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S259" s="6"/>
       <c r="T259" s="7"/>
       <c r="U259" s="6"/>
       <c r="V259" s="7"/>
-      <c r="W259" s="6"/>
+      <c r="W259" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X259" s="7"/>
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
@@ -18507,18 +18507,18 @@
       </c>
       <c r="N260" s="7"/>
       <c r="O260" s="6"/>
-      <c r="P260" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P260" s="7"/>
       <c r="Q260" s="6"/>
       <c r="R260" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S260" s="6"/>
       <c r="T260" s="7"/>
       <c r="U260" s="6"/>
       <c r="V260" s="7"/>
-      <c r="W260" s="6"/>
+      <c r="W260" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X260" s="7"/>
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
@@ -18569,18 +18569,18 @@
       </c>
       <c r="N261" s="7"/>
       <c r="O261" s="6"/>
-      <c r="P261" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P261" s="7"/>
       <c r="Q261" s="6"/>
       <c r="R261" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S261" s="6"/>
       <c r="T261" s="7"/>
       <c r="U261" s="6"/>
       <c r="V261" s="7"/>
-      <c r="W261" s="6"/>
+      <c r="W261" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X261" s="7"/>
       <c r="Y261" s="6"/>
       <c r="Z261" s="6"/>
@@ -18630,22 +18630,22 @@
         <v>36</v>
       </c>
       <c r="N262" s="3"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q262" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="O262" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="2"/>
       <c r="R262" s="3"/>
       <c r="S262" s="2"/>
       <c r="T262" s="3"/>
-      <c r="U262" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U262" s="2"/>
       <c r="V262" s="3"/>
-      <c r="W262" s="2"/>
-      <c r="X262" s="3"/>
+      <c r="W262" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X262" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
       <c r="AA262" s="2" t="s">
@@ -18692,22 +18692,22 @@
         <v>36</v>
       </c>
       <c r="N263" s="7"/>
-      <c r="O263" s="6"/>
-      <c r="P263" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q263" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O263" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P263" s="7"/>
+      <c r="Q263" s="6"/>
       <c r="R263" s="7"/>
       <c r="S263" s="6"/>
       <c r="T263" s="7"/>
-      <c r="U263" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U263" s="6"/>
       <c r="V263" s="7"/>
-      <c r="W263" s="6"/>
-      <c r="X263" s="7"/>
+      <c r="W263" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X263" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
       <c r="AA263" s="6" t="s">
@@ -18754,22 +18754,22 @@
         <v>36</v>
       </c>
       <c r="N264" s="7"/>
-      <c r="O264" s="6"/>
-      <c r="P264" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q264" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O264" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P264" s="7"/>
+      <c r="Q264" s="6"/>
       <c r="R264" s="7"/>
       <c r="S264" s="6"/>
       <c r="T264" s="7"/>
-      <c r="U264" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U264" s="6"/>
       <c r="V264" s="7"/>
-      <c r="W264" s="6"/>
-      <c r="X264" s="7"/>
+      <c r="W264" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X264" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
       <c r="AA264" s="6" t="s">
@@ -18816,21 +18816,21 @@
         <v>36</v>
       </c>
       <c r="N265" s="3"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O265" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P265" s="3"/>
       <c r="Q265" s="2"/>
       <c r="R265" s="3"/>
       <c r="S265" s="2"/>
       <c r="T265" s="3"/>
-      <c r="U265" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V265" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W265" s="2"/>
+      <c r="U265" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V265" s="3"/>
+      <c r="W265" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X265" s="3"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
@@ -18878,21 +18878,21 @@
         <v>36</v>
       </c>
       <c r="N266" s="7"/>
-      <c r="O266" s="6"/>
-      <c r="P266" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O266" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P266" s="7"/>
       <c r="Q266" s="6"/>
       <c r="R266" s="7"/>
       <c r="S266" s="6"/>
       <c r="T266" s="7"/>
-      <c r="U266" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V266" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W266" s="6"/>
+      <c r="U266" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V266" s="7"/>
+      <c r="W266" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X266" s="7"/>
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
@@ -18940,21 +18940,21 @@
         <v>36</v>
       </c>
       <c r="N267" s="7"/>
-      <c r="O267" s="6"/>
-      <c r="P267" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O267" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P267" s="7"/>
       <c r="Q267" s="6"/>
       <c r="R267" s="7"/>
       <c r="S267" s="6"/>
       <c r="T267" s="7"/>
-      <c r="U267" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V267" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W267" s="6"/>
+      <c r="U267" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V267" s="7"/>
+      <c r="W267" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X267" s="7"/>
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
@@ -19002,19 +19002,19 @@
         <v>36</v>
       </c>
       <c r="N268" s="3"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O268" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P268" s="3"/>
       <c r="Q268" s="2"/>
       <c r="R268" s="3"/>
       <c r="S268" s="2"/>
       <c r="T268" s="3"/>
-      <c r="U268" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V268" s="3"/>
-      <c r="W268" s="4" t="s">
+      <c r="U268" s="2"/>
+      <c r="V268" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W268" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X268" s="3"/>
@@ -19064,19 +19064,19 @@
         <v>36</v>
       </c>
       <c r="N269" s="7"/>
-      <c r="O269" s="6"/>
-      <c r="P269" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O269" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P269" s="7"/>
       <c r="Q269" s="6"/>
       <c r="R269" s="7"/>
       <c r="S269" s="6"/>
       <c r="T269" s="7"/>
-      <c r="U269" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V269" s="7"/>
-      <c r="W269" s="8" t="s">
+      <c r="U269" s="6"/>
+      <c r="V269" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W269" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X269" s="7"/>
@@ -19126,19 +19126,19 @@
         <v>36</v>
       </c>
       <c r="N270" s="7"/>
-      <c r="O270" s="6"/>
-      <c r="P270" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O270" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P270" s="7"/>
       <c r="Q270" s="6"/>
       <c r="R270" s="7"/>
       <c r="S270" s="6"/>
       <c r="T270" s="7"/>
-      <c r="U270" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V270" s="7"/>
-      <c r="W270" s="8" t="s">
+      <c r="U270" s="6"/>
+      <c r="V270" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W270" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X270" s="7"/>
@@ -19188,21 +19188,21 @@
         <v>36</v>
       </c>
       <c r="N271" s="3"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O271" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P271" s="3"/>
       <c r="Q271" s="2"/>
       <c r="R271" s="3"/>
       <c r="S271" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T271" s="3"/>
-      <c r="U271" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U271" s="2"/>
       <c r="V271" s="3"/>
-      <c r="W271" s="2"/>
+      <c r="W271" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X271" s="3"/>
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
@@ -19250,21 +19250,21 @@
         <v>36</v>
       </c>
       <c r="N272" s="7"/>
-      <c r="O272" s="6"/>
-      <c r="P272" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O272" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P272" s="7"/>
       <c r="Q272" s="6"/>
       <c r="R272" s="7"/>
       <c r="S272" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T272" s="7"/>
-      <c r="U272" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U272" s="6"/>
       <c r="V272" s="7"/>
-      <c r="W272" s="6"/>
+      <c r="W272" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X272" s="7"/>
       <c r="Y272" s="6"/>
       <c r="Z272" s="6"/>
@@ -19312,21 +19312,21 @@
         <v>36</v>
       </c>
       <c r="N273" s="7"/>
-      <c r="O273" s="6"/>
-      <c r="P273" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O273" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P273" s="7"/>
       <c r="Q273" s="6"/>
       <c r="R273" s="7"/>
       <c r="S273" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T273" s="7"/>
-      <c r="U273" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U273" s="6"/>
       <c r="V273" s="7"/>
-      <c r="W273" s="6"/>
+      <c r="W273" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X273" s="7"/>
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
@@ -19374,23 +19374,23 @@
         <v>36</v>
       </c>
       <c r="N274" s="3"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O274" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P274" s="3"/>
       <c r="Q274" s="2"/>
       <c r="R274" s="3"/>
       <c r="S274" s="2"/>
-      <c r="T274" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U274" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T274" s="3"/>
+      <c r="U274" s="2"/>
       <c r="V274" s="3"/>
-      <c r="W274" s="2"/>
+      <c r="W274" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X274" s="3"/>
-      <c r="Y274" s="2"/>
+      <c r="Y274" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z274" s="2"/>
       <c r="AA274" s="2" t="s">
         <v>37</v>
@@ -19436,23 +19436,23 @@
         <v>36</v>
       </c>
       <c r="N275" s="7"/>
-      <c r="O275" s="6"/>
-      <c r="P275" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O275" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P275" s="7"/>
       <c r="Q275" s="6"/>
       <c r="R275" s="7"/>
       <c r="S275" s="6"/>
-      <c r="T275" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U275" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T275" s="7"/>
+      <c r="U275" s="6"/>
       <c r="V275" s="7"/>
-      <c r="W275" s="6"/>
+      <c r="W275" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X275" s="7"/>
-      <c r="Y275" s="6"/>
+      <c r="Y275" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z275" s="6"/>
       <c r="AA275" s="6" t="s">
         <v>37</v>
@@ -19498,23 +19498,23 @@
         <v>36</v>
       </c>
       <c r="N276" s="7"/>
-      <c r="O276" s="6"/>
-      <c r="P276" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O276" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P276" s="7"/>
       <c r="Q276" s="6"/>
       <c r="R276" s="7"/>
       <c r="S276" s="6"/>
-      <c r="T276" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U276" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T276" s="7"/>
+      <c r="U276" s="6"/>
       <c r="V276" s="7"/>
-      <c r="W276" s="6"/>
+      <c r="W276" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X276" s="7"/>
-      <c r="Y276" s="6"/>
+      <c r="Y276" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z276" s="6"/>
       <c r="AA276" s="6" t="s">
         <v>37</v>
@@ -19560,19 +19560,19 @@
         <v>36</v>
       </c>
       <c r="N277" s="3"/>
-      <c r="O277" s="2"/>
-      <c r="P277" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O277" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P277" s="3"/>
       <c r="Q277" s="2"/>
       <c r="R277" s="3"/>
       <c r="S277" s="2"/>
       <c r="T277" s="3"/>
-      <c r="U277" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U277" s="2"/>
       <c r="V277" s="3"/>
-      <c r="W277" s="2"/>
+      <c r="W277" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X277" s="3"/>
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
@@ -19620,19 +19620,19 @@
         <v>36</v>
       </c>
       <c r="N278" s="7"/>
-      <c r="O278" s="6"/>
-      <c r="P278" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O278" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P278" s="7"/>
       <c r="Q278" s="6"/>
       <c r="R278" s="7"/>
       <c r="S278" s="6"/>
       <c r="T278" s="7"/>
-      <c r="U278" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U278" s="6"/>
       <c r="V278" s="7"/>
-      <c r="W278" s="6"/>
+      <c r="W278" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X278" s="7"/>
       <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
@@ -19680,19 +19680,19 @@
         <v>36</v>
       </c>
       <c r="N279" s="7"/>
-      <c r="O279" s="6"/>
-      <c r="P279" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O279" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P279" s="7"/>
       <c r="Q279" s="6"/>
       <c r="R279" s="7"/>
       <c r="S279" s="6"/>
       <c r="T279" s="7"/>
-      <c r="U279" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U279" s="6"/>
       <c r="V279" s="7"/>
-      <c r="W279" s="6"/>
+      <c r="W279" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X279" s="7"/>
       <c r="Y279" s="6"/>
       <c r="Z279" s="6"/>
@@ -19740,21 +19740,21 @@
         <v>36</v>
       </c>
       <c r="N280" s="3"/>
-      <c r="O280" s="2"/>
-      <c r="P280" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O280" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P280" s="3"/>
       <c r="Q280" s="2"/>
       <c r="R280" s="3"/>
       <c r="S280" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T280" s="3"/>
-      <c r="U280" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U280" s="2"/>
       <c r="V280" s="3"/>
-      <c r="W280" s="2"/>
+      <c r="W280" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X280" s="3"/>
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
@@ -19804,21 +19804,21 @@
         <v>36</v>
       </c>
       <c r="N281" s="7"/>
-      <c r="O281" s="6"/>
-      <c r="P281" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O281" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P281" s="7"/>
       <c r="Q281" s="6"/>
       <c r="R281" s="7"/>
       <c r="S281" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T281" s="7"/>
-      <c r="U281" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U281" s="6"/>
       <c r="V281" s="7"/>
-      <c r="W281" s="6"/>
+      <c r="W281" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X281" s="7"/>
       <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
@@ -19868,21 +19868,21 @@
         <v>36</v>
       </c>
       <c r="N282" s="7"/>
-      <c r="O282" s="6"/>
-      <c r="P282" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O282" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P282" s="7"/>
       <c r="Q282" s="6"/>
       <c r="R282" s="7"/>
       <c r="S282" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T282" s="7"/>
-      <c r="U282" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U282" s="6"/>
       <c r="V282" s="7"/>
-      <c r="W282" s="6"/>
+      <c r="W282" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X282" s="7"/>
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
@@ -19932,21 +19932,21 @@
         <v>36</v>
       </c>
       <c r="N283" s="7"/>
-      <c r="O283" s="6"/>
-      <c r="P283" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O283" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P283" s="7"/>
       <c r="Q283" s="6"/>
       <c r="R283" s="7"/>
       <c r="S283" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T283" s="7"/>
-      <c r="U283" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U283" s="6"/>
       <c r="V283" s="7"/>
-      <c r="W283" s="6"/>
+      <c r="W283" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X283" s="7"/>
       <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
@@ -19996,21 +19996,21 @@
         <v>36</v>
       </c>
       <c r="N284" s="7"/>
-      <c r="O284" s="6"/>
-      <c r="P284" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O284" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P284" s="7"/>
       <c r="Q284" s="6"/>
       <c r="R284" s="7"/>
       <c r="S284" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T284" s="7"/>
-      <c r="U284" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U284" s="6"/>
       <c r="V284" s="7"/>
-      <c r="W284" s="6"/>
+      <c r="W284" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X284" s="7"/>
       <c r="Y284" s="6"/>
       <c r="Z284" s="6"/>
@@ -20060,21 +20060,21 @@
         <v>36</v>
       </c>
       <c r="N285" s="7"/>
-      <c r="O285" s="6"/>
-      <c r="P285" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O285" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P285" s="7"/>
       <c r="Q285" s="6"/>
       <c r="R285" s="7"/>
       <c r="S285" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T285" s="7"/>
-      <c r="U285" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U285" s="6"/>
       <c r="V285" s="7"/>
-      <c r="W285" s="6"/>
+      <c r="W285" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X285" s="7"/>
       <c r="Y285" s="6"/>
       <c r="Z285" s="6"/>
@@ -20124,21 +20124,21 @@
         <v>36</v>
       </c>
       <c r="N286" s="3"/>
-      <c r="O286" s="2"/>
-      <c r="P286" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O286" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P286" s="3"/>
       <c r="Q286" s="2"/>
       <c r="R286" s="3"/>
       <c r="S286" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T286" s="3"/>
-      <c r="U286" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U286" s="2"/>
       <c r="V286" s="3"/>
-      <c r="W286" s="2"/>
+      <c r="W286" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X286" s="3"/>
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
@@ -20188,21 +20188,21 @@
         <v>36</v>
       </c>
       <c r="N287" s="7"/>
-      <c r="O287" s="6"/>
-      <c r="P287" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O287" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P287" s="7"/>
       <c r="Q287" s="6"/>
       <c r="R287" s="7"/>
       <c r="S287" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T287" s="7"/>
-      <c r="U287" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U287" s="6"/>
       <c r="V287" s="7"/>
-      <c r="W287" s="6"/>
+      <c r="W287" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X287" s="7"/>
       <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
@@ -20252,21 +20252,21 @@
         <v>36</v>
       </c>
       <c r="N288" s="7"/>
-      <c r="O288" s="6"/>
-      <c r="P288" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O288" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P288" s="7"/>
       <c r="Q288" s="6"/>
       <c r="R288" s="7"/>
       <c r="S288" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T288" s="7"/>
-      <c r="U288" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U288" s="6"/>
       <c r="V288" s="7"/>
-      <c r="W288" s="6"/>
+      <c r="W288" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X288" s="7"/>
       <c r="Y288" s="6"/>
       <c r="Z288" s="6"/>
@@ -20316,21 +20316,21 @@
         <v>36</v>
       </c>
       <c r="N289" s="7"/>
-      <c r="O289" s="6"/>
-      <c r="P289" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O289" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P289" s="7"/>
       <c r="Q289" s="6"/>
       <c r="R289" s="7"/>
       <c r="S289" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T289" s="7"/>
-      <c r="U289" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U289" s="6"/>
       <c r="V289" s="7"/>
-      <c r="W289" s="6"/>
+      <c r="W289" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X289" s="7"/>
       <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
@@ -20380,21 +20380,21 @@
         <v>36</v>
       </c>
       <c r="N290" s="7"/>
-      <c r="O290" s="6"/>
-      <c r="P290" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O290" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P290" s="7"/>
       <c r="Q290" s="6"/>
       <c r="R290" s="7"/>
       <c r="S290" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T290" s="7"/>
-      <c r="U290" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U290" s="6"/>
       <c r="V290" s="7"/>
-      <c r="W290" s="6"/>
+      <c r="W290" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X290" s="7"/>
       <c r="Y290" s="6"/>
       <c r="Z290" s="6"/>
@@ -20444,21 +20444,21 @@
         <v>36</v>
       </c>
       <c r="N291" s="7"/>
-      <c r="O291" s="6"/>
-      <c r="P291" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O291" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P291" s="7"/>
       <c r="Q291" s="6"/>
       <c r="R291" s="7"/>
       <c r="S291" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T291" s="7"/>
-      <c r="U291" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="U291" s="6"/>
       <c r="V291" s="7"/>
-      <c r="W291" s="6"/>
+      <c r="W291" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X291" s="7"/>
       <c r="Y291" s="6"/>
       <c r="Z291" s="6"/>
@@ -20508,21 +20508,21 @@
         <v>36</v>
       </c>
       <c r="N292" s="3"/>
-      <c r="O292" s="2"/>
-      <c r="P292" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O292" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P292" s="3"/>
       <c r="Q292" s="2"/>
       <c r="R292" s="3"/>
       <c r="S292" s="2"/>
       <c r="T292" s="3"/>
-      <c r="U292" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V292" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W292" s="2"/>
+      <c r="U292" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V292" s="3"/>
+      <c r="W292" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X292" s="3"/>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
@@ -20572,21 +20572,21 @@
         <v>36</v>
       </c>
       <c r="N293" s="7"/>
-      <c r="O293" s="6"/>
-      <c r="P293" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O293" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P293" s="7"/>
       <c r="Q293" s="6"/>
       <c r="R293" s="7"/>
       <c r="S293" s="6"/>
       <c r="T293" s="7"/>
-      <c r="U293" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V293" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W293" s="6"/>
+      <c r="U293" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V293" s="7"/>
+      <c r="W293" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X293" s="7"/>
       <c r="Y293" s="6"/>
       <c r="Z293" s="6"/>
@@ -20636,21 +20636,21 @@
         <v>36</v>
       </c>
       <c r="N294" s="7"/>
-      <c r="O294" s="6"/>
-      <c r="P294" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O294" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P294" s="7"/>
       <c r="Q294" s="6"/>
       <c r="R294" s="7"/>
       <c r="S294" s="6"/>
       <c r="T294" s="7"/>
-      <c r="U294" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V294" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W294" s="6"/>
+      <c r="U294" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V294" s="7"/>
+      <c r="W294" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X294" s="7"/>
       <c r="Y294" s="6"/>
       <c r="Z294" s="6"/>
@@ -20700,21 +20700,21 @@
         <v>36</v>
       </c>
       <c r="N295" s="7"/>
-      <c r="O295" s="6"/>
-      <c r="P295" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O295" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P295" s="7"/>
       <c r="Q295" s="6"/>
       <c r="R295" s="7"/>
       <c r="S295" s="6"/>
       <c r="T295" s="7"/>
-      <c r="U295" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V295" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W295" s="6"/>
+      <c r="U295" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V295" s="7"/>
+      <c r="W295" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X295" s="7"/>
       <c r="Y295" s="6"/>
       <c r="Z295" s="6"/>
@@ -20764,21 +20764,21 @@
         <v>36</v>
       </c>
       <c r="N296" s="7"/>
-      <c r="O296" s="6"/>
-      <c r="P296" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O296" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P296" s="7"/>
       <c r="Q296" s="6"/>
       <c r="R296" s="7"/>
       <c r="S296" s="6"/>
       <c r="T296" s="7"/>
-      <c r="U296" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V296" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W296" s="6"/>
+      <c r="U296" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V296" s="7"/>
+      <c r="W296" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X296" s="7"/>
       <c r="Y296" s="6"/>
       <c r="Z296" s="6"/>
@@ -20828,21 +20828,21 @@
         <v>36</v>
       </c>
       <c r="N297" s="7"/>
-      <c r="O297" s="6"/>
-      <c r="P297" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O297" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P297" s="7"/>
       <c r="Q297" s="6"/>
       <c r="R297" s="7"/>
       <c r="S297" s="6"/>
       <c r="T297" s="7"/>
-      <c r="U297" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V297" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W297" s="6"/>
+      <c r="U297" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V297" s="7"/>
+      <c r="W297" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X297" s="7"/>
       <c r="Y297" s="6"/>
       <c r="Z297" s="6"/>
@@ -20892,19 +20892,19 @@
         <v>36</v>
       </c>
       <c r="N298" s="3"/>
-      <c r="O298" s="2"/>
-      <c r="P298" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O298" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P298" s="3"/>
       <c r="Q298" s="2"/>
       <c r="R298" s="3"/>
       <c r="S298" s="2"/>
       <c r="T298" s="3"/>
-      <c r="U298" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V298" s="3"/>
-      <c r="W298" s="4" t="s">
+      <c r="U298" s="2"/>
+      <c r="V298" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="W298" s="2" t="s">
         <v>32</v>
       </c>
       <c r="X298" s="3"/>
@@ -20956,19 +20956,19 @@
         <v>36</v>
       </c>
       <c r="N299" s="7"/>
-      <c r="O299" s="6"/>
-      <c r="P299" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O299" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P299" s="7"/>
       <c r="Q299" s="6"/>
       <c r="R299" s="7"/>
       <c r="S299" s="6"/>
       <c r="T299" s="7"/>
-      <c r="U299" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V299" s="7"/>
-      <c r="W299" s="8" t="s">
+      <c r="U299" s="6"/>
+      <c r="V299" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W299" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X299" s="7"/>
@@ -21020,19 +21020,19 @@
         <v>36</v>
       </c>
       <c r="N300" s="7"/>
-      <c r="O300" s="6"/>
-      <c r="P300" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O300" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P300" s="7"/>
       <c r="Q300" s="6"/>
       <c r="R300" s="7"/>
       <c r="S300" s="6"/>
       <c r="T300" s="7"/>
-      <c r="U300" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V300" s="7"/>
-      <c r="W300" s="8" t="s">
+      <c r="U300" s="6"/>
+      <c r="V300" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W300" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X300" s="7"/>
@@ -21084,19 +21084,19 @@
         <v>36</v>
       </c>
       <c r="N301" s="7"/>
-      <c r="O301" s="6"/>
-      <c r="P301" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O301" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P301" s="7"/>
       <c r="Q301" s="6"/>
       <c r="R301" s="7"/>
       <c r="S301" s="6"/>
       <c r="T301" s="7"/>
-      <c r="U301" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V301" s="7"/>
-      <c r="W301" s="8" t="s">
+      <c r="U301" s="6"/>
+      <c r="V301" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W301" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X301" s="7"/>
@@ -21148,19 +21148,19 @@
         <v>36</v>
       </c>
       <c r="N302" s="7"/>
-      <c r="O302" s="6"/>
-      <c r="P302" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O302" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P302" s="7"/>
       <c r="Q302" s="6"/>
       <c r="R302" s="7"/>
       <c r="S302" s="6"/>
       <c r="T302" s="7"/>
-      <c r="U302" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V302" s="7"/>
-      <c r="W302" s="8" t="s">
+      <c r="U302" s="6"/>
+      <c r="V302" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W302" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X302" s="7"/>
@@ -21212,19 +21212,19 @@
         <v>36</v>
       </c>
       <c r="N303" s="7"/>
-      <c r="O303" s="6"/>
-      <c r="P303" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O303" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P303" s="7"/>
       <c r="Q303" s="6"/>
       <c r="R303" s="7"/>
       <c r="S303" s="6"/>
       <c r="T303" s="7"/>
-      <c r="U303" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V303" s="7"/>
-      <c r="W303" s="8" t="s">
+      <c r="U303" s="6"/>
+      <c r="V303" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W303" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X303" s="7"/>
@@ -21276,23 +21276,23 @@
         <v>36</v>
       </c>
       <c r="N304" s="3"/>
-      <c r="O304" s="2"/>
-      <c r="P304" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O304" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P304" s="3"/>
       <c r="Q304" s="2"/>
       <c r="R304" s="3"/>
       <c r="S304" s="2"/>
-      <c r="T304" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U304" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T304" s="3"/>
+      <c r="U304" s="2"/>
       <c r="V304" s="3"/>
-      <c r="W304" s="2"/>
+      <c r="W304" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X304" s="3"/>
-      <c r="Y304" s="2"/>
+      <c r="Y304" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z304" s="2"/>
       <c r="AA304" s="2" t="s">
         <v>94</v>
@@ -21340,23 +21340,23 @@
         <v>36</v>
       </c>
       <c r="N305" s="7"/>
-      <c r="O305" s="6"/>
-      <c r="P305" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O305" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P305" s="7"/>
       <c r="Q305" s="6"/>
       <c r="R305" s="7"/>
       <c r="S305" s="6"/>
-      <c r="T305" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U305" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T305" s="7"/>
+      <c r="U305" s="6"/>
       <c r="V305" s="7"/>
-      <c r="W305" s="6"/>
+      <c r="W305" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X305" s="7"/>
-      <c r="Y305" s="6"/>
+      <c r="Y305" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z305" s="6"/>
       <c r="AA305" s="6" t="s">
         <v>94</v>
@@ -21404,23 +21404,23 @@
         <v>36</v>
       </c>
       <c r="N306" s="7"/>
-      <c r="O306" s="6"/>
-      <c r="P306" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O306" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P306" s="7"/>
       <c r="Q306" s="6"/>
       <c r="R306" s="7"/>
       <c r="S306" s="6"/>
-      <c r="T306" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U306" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T306" s="7"/>
+      <c r="U306" s="6"/>
       <c r="V306" s="7"/>
-      <c r="W306" s="6"/>
+      <c r="W306" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X306" s="7"/>
-      <c r="Y306" s="6"/>
+      <c r="Y306" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z306" s="6"/>
       <c r="AA306" s="6" t="s">
         <v>94</v>
@@ -21468,23 +21468,23 @@
         <v>36</v>
       </c>
       <c r="N307" s="7"/>
-      <c r="O307" s="6"/>
-      <c r="P307" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="O307" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P307" s="7"/>
       <c r="Q307" s="6"/>
       <c r="R307" s="7"/>
       <c r="S307" s="6"/>
-      <c r="T307" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U307" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T307" s="7"/>
+      <c r="U307" s="6"/>
       <c r="V307" s="7"/>
-      <c r="W307" s="6"/>
+      <c r="W307" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="X307" s="7"/>
-      <c r="Y307" s="6"/>
+      <c r="Y307" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z307" s="6"/>
       <c r="AA307" s="6" t="s">
         <v>94</v>
@@ -21537,16 +21537,16 @@
       <c r="Q308" s="2"/>
       <c r="R308" s="3"/>
       <c r="S308" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T308" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T308" s="3"/>
       <c r="U308" s="2"/>
       <c r="V308" s="3"/>
       <c r="W308" s="2"/>
       <c r="X308" s="3"/>
-      <c r="Y308" s="2"/>
+      <c r="Y308" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z308" s="2"/>
       <c r="AA308" s="2" t="s">
         <v>694</v>
@@ -21597,16 +21597,16 @@
       <c r="Q309" s="6"/>
       <c r="R309" s="7"/>
       <c r="S309" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T309" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T309" s="7"/>
       <c r="U309" s="6"/>
       <c r="V309" s="7"/>
       <c r="W309" s="6"/>
       <c r="X309" s="7"/>
-      <c r="Y309" s="6"/>
+      <c r="Y309" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z309" s="6"/>
       <c r="AA309" s="6"/>
       <c r="AB309" s="6" t="s">
@@ -21652,15 +21652,15 @@
         <v>36</v>
       </c>
       <c r="N310" s="3"/>
-      <c r="O310" s="2"/>
+      <c r="O310" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P310" s="3"/>
       <c r="Q310" s="2"/>
       <c r="R310" s="3"/>
       <c r="S310" s="2"/>
       <c r="T310" s="3"/>
-      <c r="U310" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U310" s="2"/>
       <c r="V310" s="3"/>
       <c r="W310" s="2"/>
       <c r="X310" s="3"/>
@@ -21710,15 +21710,15 @@
         <v>36</v>
       </c>
       <c r="N311" s="7"/>
-      <c r="O311" s="6"/>
+      <c r="O311" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P311" s="7"/>
       <c r="Q311" s="6"/>
       <c r="R311" s="7"/>
       <c r="S311" s="6"/>
       <c r="T311" s="7"/>
-      <c r="U311" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U311" s="6"/>
       <c r="V311" s="7"/>
       <c r="W311" s="6"/>
       <c r="X311" s="7"/>
@@ -21768,15 +21768,15 @@
         <v>36</v>
       </c>
       <c r="N312" s="7"/>
-      <c r="O312" s="6"/>
+      <c r="O312" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P312" s="7"/>
       <c r="Q312" s="6"/>
       <c r="R312" s="7"/>
       <c r="S312" s="6"/>
       <c r="T312" s="7"/>
-      <c r="U312" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U312" s="6"/>
       <c r="V312" s="7"/>
       <c r="W312" s="6"/>
       <c r="X312" s="7"/>
@@ -21826,15 +21826,15 @@
         <v>36</v>
       </c>
       <c r="N313" s="7"/>
-      <c r="O313" s="6"/>
+      <c r="O313" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P313" s="7"/>
       <c r="Q313" s="6"/>
       <c r="R313" s="7"/>
       <c r="S313" s="6"/>
       <c r="T313" s="7"/>
-      <c r="U313" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U313" s="6"/>
       <c r="V313" s="7"/>
       <c r="W313" s="6"/>
       <c r="X313" s="7"/>
@@ -21884,15 +21884,15 @@
         <v>36</v>
       </c>
       <c r="N314" s="7"/>
-      <c r="O314" s="6"/>
+      <c r="O314" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P314" s="7"/>
       <c r="Q314" s="6"/>
       <c r="R314" s="7"/>
       <c r="S314" s="6"/>
       <c r="T314" s="7"/>
-      <c r="U314" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U314" s="6"/>
       <c r="V314" s="7"/>
       <c r="W314" s="6"/>
       <c r="X314" s="7"/>
@@ -21942,15 +21942,15 @@
         <v>36</v>
       </c>
       <c r="N315" s="7"/>
-      <c r="O315" s="6"/>
+      <c r="O315" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P315" s="7"/>
       <c r="Q315" s="6"/>
       <c r="R315" s="7"/>
       <c r="S315" s="6"/>
       <c r="T315" s="7"/>
-      <c r="U315" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U315" s="6"/>
       <c r="V315" s="7"/>
       <c r="W315" s="6"/>
       <c r="X315" s="7"/>
@@ -22000,15 +22000,15 @@
         <v>36</v>
       </c>
       <c r="N316" s="7"/>
-      <c r="O316" s="6"/>
+      <c r="O316" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P316" s="7"/>
       <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
       <c r="S316" s="6"/>
       <c r="T316" s="7"/>
-      <c r="U316" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U316" s="6"/>
       <c r="V316" s="7"/>
       <c r="W316" s="6"/>
       <c r="X316" s="7"/>
@@ -22058,15 +22058,15 @@
         <v>36</v>
       </c>
       <c r="N317" s="7"/>
-      <c r="O317" s="6"/>
+      <c r="O317" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P317" s="7"/>
       <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
       <c r="S317" s="6"/>
       <c r="T317" s="7"/>
-      <c r="U317" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U317" s="6"/>
       <c r="V317" s="7"/>
       <c r="W317" s="6"/>
       <c r="X317" s="7"/>
@@ -22116,15 +22116,15 @@
         <v>36</v>
       </c>
       <c r="N318" s="7"/>
-      <c r="O318" s="6"/>
+      <c r="O318" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P318" s="7"/>
       <c r="Q318" s="6"/>
       <c r="R318" s="7"/>
       <c r="S318" s="6"/>
       <c r="T318" s="7"/>
-      <c r="U318" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U318" s="6"/>
       <c r="V318" s="7"/>
       <c r="W318" s="6"/>
       <c r="X318" s="7"/>
@@ -22174,15 +22174,15 @@
         <v>36</v>
       </c>
       <c r="N319" s="7"/>
-      <c r="O319" s="6"/>
+      <c r="O319" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P319" s="7"/>
       <c r="Q319" s="6"/>
       <c r="R319" s="7"/>
       <c r="S319" s="6"/>
       <c r="T319" s="7"/>
-      <c r="U319" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U319" s="6"/>
       <c r="V319" s="7"/>
       <c r="W319" s="6"/>
       <c r="X319" s="7"/>
@@ -22232,15 +22232,15 @@
         <v>36</v>
       </c>
       <c r="N320" s="7"/>
-      <c r="O320" s="6"/>
+      <c r="O320" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P320" s="7"/>
       <c r="Q320" s="6"/>
       <c r="R320" s="7"/>
       <c r="S320" s="6"/>
       <c r="T320" s="7"/>
-      <c r="U320" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U320" s="6"/>
       <c r="V320" s="7"/>
       <c r="W320" s="6"/>
       <c r="X320" s="7"/>
@@ -22290,15 +22290,15 @@
         <v>36</v>
       </c>
       <c r="N321" s="7"/>
-      <c r="O321" s="6"/>
+      <c r="O321" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P321" s="7"/>
       <c r="Q321" s="6"/>
       <c r="R321" s="7"/>
       <c r="S321" s="6"/>
       <c r="T321" s="7"/>
-      <c r="U321" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U321" s="6"/>
       <c r="V321" s="7"/>
       <c r="W321" s="6"/>
       <c r="X321" s="7"/>
@@ -22346,14 +22346,14 @@
         <v>36</v>
       </c>
       <c r="N322" s="3"/>
-      <c r="O322" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="O322" s="2"/>
       <c r="P322" s="3"/>
       <c r="Q322" s="2"/>
       <c r="R322" s="3"/>
       <c r="S322" s="2"/>
-      <c r="T322" s="3"/>
+      <c r="T322" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="U322" s="2"/>
       <c r="V322" s="3"/>
       <c r="W322" s="2"/>
@@ -22405,18 +22405,18 @@
       </c>
       <c r="N323" s="3"/>
       <c r="O323" s="2"/>
-      <c r="P323" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P323" s="3"/>
       <c r="Q323" s="2"/>
       <c r="R323" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S323" s="2"/>
       <c r="T323" s="3"/>
       <c r="U323" s="2"/>
       <c r="V323" s="3"/>
-      <c r="W323" s="2"/>
+      <c r="W323" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X323" s="3"/>
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
@@ -22465,9 +22465,7 @@
       </c>
       <c r="N324" s="3"/>
       <c r="O324" s="2"/>
-      <c r="P324" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P324" s="3"/>
       <c r="Q324" s="2"/>
       <c r="R324" s="9" t="s">
         <v>734</v>
@@ -22476,7 +22474,9 @@
       <c r="T324" s="3"/>
       <c r="U324" s="2"/>
       <c r="V324" s="3"/>
-      <c r="W324" s="2"/>
+      <c r="W324" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="X324" s="3"/>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -58,42 +58,42 @@
     <t>Byteorder</t>
   </si>
   <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>DSPACE</t>
+  </si>
+  <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
+    <t>SB_REAR</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>TLB_BAT</t>
+  </si>
+  <si>
+    <t>TPMS</t>
+  </si>
+  <si>
+    <t>BRUSA</t>
+  </si>
+  <si>
+    <t>BMS_LV</t>
+  </si>
+  <si>
     <t>DIAG_TOOL</t>
   </si>
   <si>
-    <t>DSPACE</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
-    <t>BRUSA</t>
-  </si>
-  <si>
-    <t>BMS_LV</t>
-  </si>
-  <si>
     <t>EXTRA_NODE</t>
   </si>
   <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
-    <t>SB_REAR</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>TLB_BAT</t>
-  </si>
-  <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Cyclic</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>DATETIME_year</t>
@@ -2278,12 +2278,12 @@
     <fill>
       <patternFill patternType="lightGray">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightGray">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2760,31 +2760,31 @@
         <v>36</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="3"/>
+      <c r="O2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
         <v>37</v>
@@ -2830,31 +2830,31 @@
         <v>36</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
       <c r="W3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
         <v>40</v>
@@ -2900,31 +2900,31 @@
         <v>36</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
       <c r="W4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
         <v>43</v>
@@ -2970,31 +2970,31 @@
         <v>36</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7"/>
       <c r="W5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
         <v>46</v>
@@ -3042,31 +3042,31 @@
         <v>36</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
+      <c r="O6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
         <v>50</v>
@@ -3114,31 +3114,31 @@
         <v>36</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
+      <c r="O7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7"/>
       <c r="W7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
         <v>50</v>
@@ -3186,31 +3186,31 @@
         <v>36</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
+      <c r="O8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
       <c r="W8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
         <v>57</v>
@@ -3258,22 +3258,22 @@
         <v>36</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U9" s="2"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -3318,22 +3318,22 @@
         <v>36</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
+      <c r="S10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U10" s="6"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -3378,22 +3378,22 @@
         <v>36</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U11" s="6"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -3438,22 +3438,22 @@
         <v>36</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
+      <c r="S12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U12" s="6"/>
       <c r="V12" s="7"/>
-      <c r="W12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
@@ -3498,22 +3498,22 @@
         <v>36</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="7"/>
+      <c r="S13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
@@ -3558,22 +3558,22 @@
         <v>36</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
+      <c r="S14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
@@ -3618,22 +3618,22 @@
         <v>36</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
+      <c r="S15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="7"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
@@ -3678,22 +3678,22 @@
         <v>36</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
-      <c r="W16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="7"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -3738,22 +3738,22 @@
         <v>36</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="7"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -3798,22 +3798,22 @@
         <v>36</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
+      <c r="S18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W18" s="6"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
@@ -3858,22 +3858,22 @@
         <v>36</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U19" s="6"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="7"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
@@ -3918,22 +3918,22 @@
         <v>36</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
+      <c r="S20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U20" s="6"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W20" s="6"/>
+      <c r="X20" s="7"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
@@ -3978,22 +3978,22 @@
         <v>36</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -4038,22 +4038,22 @@
         <v>36</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
+      <c r="S22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U22" s="6"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -4098,22 +4098,22 @@
         <v>36</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="7"/>
+      <c r="S23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U23" s="6"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
@@ -4158,21 +4158,21 @@
         <v>36</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R24" s="3"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T24" s="3"/>
-      <c r="U24" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U24" s="2"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W24" s="2"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -4222,21 +4222,21 @@
         <v>36</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R25" s="7"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T25" s="7"/>
-      <c r="U25" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U25" s="6"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W25" s="6"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -4286,21 +4286,21 @@
         <v>36</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R26" s="7"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U26" s="6"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W26" s="6"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -4350,21 +4350,21 @@
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R27" s="7"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U27" s="6"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W27" s="6"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4414,21 +4414,21 @@
         <v>36</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="3"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="2"/>
+      <c r="R28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="2"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -4478,21 +4478,21 @@
         <v>36</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="6"/>
+      <c r="R29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="6"/>
-      <c r="V29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -4542,21 +4542,21 @@
         <v>36</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="7"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q30" s="6"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="6"/>
+      <c r="R30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T30" s="7"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="6"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
@@ -4606,21 +4606,21 @@
         <v>36</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="3"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="2"/>
+      <c r="R31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -4666,21 +4666,21 @@
         <v>36</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="6"/>
+      <c r="R32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T32" s="7"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V32" s="7"/>
+      <c r="W32" s="6"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -4726,19 +4726,19 @@
         <v>36</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="3"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="2"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="2" t="s">
+      <c r="W33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X33" s="3"/>
@@ -4790,19 +4790,19 @@
         <v>36</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" s="7"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T34" s="7"/>
       <c r="U34" s="6"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="6" t="s">
+      <c r="W34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X34" s="7"/>
@@ -4854,19 +4854,19 @@
         <v>36</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="6"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X35" s="7"/>
@@ -4918,23 +4918,23 @@
         <v>36</v>
       </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="3"/>
+      <c r="O36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="2"/>
+      <c r="S36" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="2"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W36" s="2"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
         <v>37</v>
@@ -4980,23 +4980,23 @@
         <v>36</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="7"/>
+      <c r="O37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="6"/>
+      <c r="S37" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="6"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W37" s="6"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5040,23 +5040,23 @@
         <v>36</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="7"/>
+      <c r="O38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="6"/>
+      <c r="S38" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T38" s="7"/>
       <c r="U38" s="6"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W38" s="6"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -5100,23 +5100,23 @@
         <v>36</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="7"/>
+      <c r="O39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="6"/>
+      <c r="S39" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="6"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W39" s="6"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5160,23 +5160,23 @@
         <v>36</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P40" s="7"/>
+      <c r="O40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="6"/>
+      <c r="S40" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T40" s="7"/>
       <c r="U40" s="6"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W40" s="6"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -5220,23 +5220,23 @@
         <v>36</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" s="7"/>
+      <c r="O41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="6"/>
+      <c r="S41" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T41" s="7"/>
       <c r="U41" s="6"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W41" s="6"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
         <v>142</v>
@@ -5282,23 +5282,23 @@
         <v>36</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" s="7"/>
+      <c r="O42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="6"/>
+      <c r="S42" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T42" s="7"/>
       <c r="U42" s="6"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W42" s="6"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
         <v>142</v>
@@ -5341,20 +5341,20 @@
       <c r="M43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="3"/>
+      <c r="N43" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" s="3"/>
-      <c r="S43" s="2"/>
+      <c r="S43" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="2"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W43" s="2"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -5401,20 +5401,20 @@
       <c r="M44" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O44" s="6"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T44" s="7"/>
       <c r="U44" s="6"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W44" s="6"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -5459,20 +5459,20 @@
       <c r="M45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" s="3"/>
-      <c r="S45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T45" s="3"/>
       <c r="U45" s="2"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W45" s="2"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
@@ -5519,20 +5519,20 @@
       <c r="M46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O46" s="6"/>
       <c r="P46" s="7"/>
-      <c r="Q46" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q46" s="6"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="6"/>
+      <c r="S46" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T46" s="7"/>
       <c r="U46" s="6"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W46" s="6"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -5579,20 +5579,20 @@
       <c r="M47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T47" s="3"/>
       <c r="U47" s="2"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W47" s="2"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -5639,20 +5639,20 @@
       <c r="M48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O48" s="6"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q48" s="6"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T48" s="7"/>
       <c r="U48" s="6"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W48" s="6"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
@@ -5697,20 +5697,20 @@
       <c r="M49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="3"/>
+      <c r="N49" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" s="3"/>
-      <c r="S49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T49" s="3"/>
       <c r="U49" s="2"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W49" s="2"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5757,20 +5757,20 @@
       <c r="M50" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q50" s="6"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="6"/>
+      <c r="S50" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T50" s="7"/>
       <c r="U50" s="6"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W50" s="6"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
@@ -5817,20 +5817,20 @@
       <c r="M51" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="7"/>
+      <c r="N51" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="6"/>
+      <c r="S51" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="6"/>
       <c r="V51" s="7"/>
-      <c r="W51" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W51" s="6"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -5877,20 +5877,20 @@
       <c r="M52" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="7"/>
+      <c r="N52" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q52" s="6"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="6"/>
+      <c r="S52" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T52" s="7"/>
       <c r="U52" s="6"/>
       <c r="V52" s="7"/>
-      <c r="W52" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W52" s="6"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -5940,25 +5940,25 @@
         <v>36</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="3"/>
+      <c r="O53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q53" s="2"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="2"/>
+      <c r="R53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T53" s="3"/>
       <c r="U53" s="2"/>
-      <c r="V53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V53" s="3"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -6002,23 +6002,23 @@
         <v>36</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="7"/>
+      <c r="O54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="6"/>
+      <c r="S54" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T54" s="7"/>
       <c r="U54" s="6"/>
       <c r="V54" s="7"/>
-      <c r="W54" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W54" s="6"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
@@ -6062,25 +6062,25 @@
         <v>36</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P55" s="7"/>
+      <c r="O55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="6"/>
+      <c r="R55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W55" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V55" s="7"/>
+      <c r="W55" s="6"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6" t="s">
         <v>177</v>
@@ -6128,25 +6128,25 @@
         <v>36</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P56" s="7"/>
+      <c r="O56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q56" s="6"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="6"/>
+      <c r="R56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S56" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T56" s="7"/>
       <c r="U56" s="6"/>
-      <c r="V56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W56" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V56" s="7"/>
+      <c r="W56" s="6"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6" t="s">
         <v>177</v>
@@ -6191,12 +6191,12 @@
       <c r="M57" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N57" s="3"/>
+      <c r="N57" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" s="3"/>
       <c r="S57" s="2"/>
       <c r="T57" s="3"/>
@@ -6249,12 +6249,12 @@
       <c r="M58" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O58" s="6"/>
       <c r="P58" s="7"/>
-      <c r="Q58" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
       <c r="S58" s="6"/>
       <c r="T58" s="7"/>
@@ -6307,21 +6307,21 @@
       <c r="M59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N59" s="3"/>
       <c r="O59" s="2"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="3"/>
-      <c r="S59" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S59" s="2"/>
       <c r="T59" s="3"/>
       <c r="U59" s="2"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="3"/>
+      <c r="W59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2" t="s">
@@ -6367,10 +6367,10 @@
       <c r="M60" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O60" s="2"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="3"/>
@@ -6379,10 +6379,10 @@
       <c r="U60" s="2"/>
       <c r="V60" s="3"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="X60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2" t="s">
         <v>188</v>
@@ -6427,21 +6427,21 @@
       <c r="M61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N61" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N61" s="3"/>
       <c r="O61" s="2"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="3"/>
+      <c r="R61" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="3"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="V61" s="3"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2" t="s">
@@ -6487,21 +6487,21 @@
       <c r="M62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N62" s="3"/>
       <c r="O62" s="2"/>
       <c r="P62" s="3"/>
-      <c r="Q62" s="2"/>
+      <c r="Q62" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R62" s="3"/>
       <c r="S62" s="2"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="U62" s="2"/>
       <c r="V62" s="3"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="3"/>
+      <c r="X62" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2" t="s">
@@ -6547,21 +6547,21 @@
       <c r="M63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N63" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N63" s="3"/>
       <c r="O63" s="2"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="3"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T63" s="3"/>
       <c r="U63" s="2"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X63" s="3"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2" t="s">
@@ -6607,19 +6607,19 @@
       <c r="M64" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N64" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N64" s="3"/>
       <c r="O64" s="2"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="3"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="3"/>
+      <c r="T64" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="U64" s="2"/>
       <c r="V64" s="3"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="3" t="s">
+      <c r="X64" s="4" t="s">
         <v>32</v>
       </c>
       <c r="Y64" s="2"/>
@@ -6668,22 +6668,22 @@
         <v>36</v>
       </c>
       <c r="N65" s="3"/>
-      <c r="O65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P65" s="3"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="3"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="3"/>
+      <c r="S65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U65" s="2"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X65" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="W65" s="2"/>
+      <c r="X65" s="3"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
@@ -6728,22 +6728,22 @@
         <v>36</v>
       </c>
       <c r="N66" s="7"/>
-      <c r="O66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P66" s="7"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="7"/>
+      <c r="S66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U66" s="6"/>
       <c r="V66" s="7"/>
-      <c r="W66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X66" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W66" s="6"/>
+      <c r="X66" s="7"/>
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
@@ -6788,22 +6788,22 @@
         <v>36</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P67" s="7"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="7"/>
+      <c r="S67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U67" s="6"/>
       <c r="V67" s="7"/>
-      <c r="W67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X67" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W67" s="6"/>
+      <c r="X67" s="7"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
@@ -6848,22 +6848,22 @@
         <v>36</v>
       </c>
       <c r="N68" s="7"/>
-      <c r="O68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" s="7"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="7"/>
+      <c r="S68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U68" s="6"/>
       <c r="V68" s="7"/>
-      <c r="W68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X68" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W68" s="6"/>
+      <c r="X68" s="7"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
@@ -6908,22 +6908,22 @@
         <v>36</v>
       </c>
       <c r="N69" s="7"/>
-      <c r="O69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" s="7"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="7"/>
+      <c r="S69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U69" s="6"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X69" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W69" s="6"/>
+      <c r="X69" s="7"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6" t="s">
@@ -6972,22 +6972,22 @@
         <v>36</v>
       </c>
       <c r="N70" s="7"/>
-      <c r="O70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P70" s="7"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="7"/>
+      <c r="S70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U70" s="6"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X70" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W70" s="6"/>
+      <c r="X70" s="7"/>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6" t="s">
@@ -7036,21 +7036,21 @@
         <v>36</v>
       </c>
       <c r="N71" s="3"/>
-      <c r="O71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P71" s="3"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q71" s="2"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="2"/>
+      <c r="R71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T71" s="3"/>
       <c r="U71" s="2"/>
-      <c r="V71" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V71" s="3"/>
+      <c r="W71" s="2"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
@@ -7096,21 +7096,21 @@
         <v>36</v>
       </c>
       <c r="N72" s="7"/>
-      <c r="O72" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P72" s="7"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q72" s="6"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="6"/>
+      <c r="R72" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T72" s="7"/>
       <c r="U72" s="6"/>
-      <c r="V72" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W72" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V72" s="7"/>
+      <c r="W72" s="6"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7156,21 +7156,21 @@
         <v>36</v>
       </c>
       <c r="N73" s="7"/>
-      <c r="O73" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P73" s="7"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q73" s="6"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="6"/>
+      <c r="R73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T73" s="7"/>
       <c r="U73" s="6"/>
-      <c r="V73" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W73" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V73" s="7"/>
+      <c r="W73" s="6"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
@@ -7216,21 +7216,21 @@
         <v>36</v>
       </c>
       <c r="N74" s="7"/>
-      <c r="O74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P74" s="7"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q74" s="6"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="6"/>
+      <c r="R74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T74" s="7"/>
       <c r="U74" s="6"/>
-      <c r="V74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W74" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V74" s="7"/>
+      <c r="W74" s="6"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7276,21 +7276,21 @@
         <v>36</v>
       </c>
       <c r="N75" s="3"/>
-      <c r="O75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R75" s="3"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T75" s="3"/>
-      <c r="U75" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U75" s="2"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W75" s="2"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -7336,21 +7336,21 @@
         <v>36</v>
       </c>
       <c r="N76" s="7"/>
-      <c r="O76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R76" s="7"/>
-      <c r="S76" s="6"/>
+      <c r="S76" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T76" s="7"/>
-      <c r="U76" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U76" s="6"/>
       <c r="V76" s="7"/>
-      <c r="W76" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W76" s="6"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
@@ -7396,21 +7396,21 @@
         <v>36</v>
       </c>
       <c r="N77" s="7"/>
-      <c r="O77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R77" s="7"/>
-      <c r="S77" s="6"/>
+      <c r="S77" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T77" s="7"/>
-      <c r="U77" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U77" s="6"/>
       <c r="V77" s="7"/>
-      <c r="W77" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W77" s="6"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7456,21 +7456,21 @@
         <v>36</v>
       </c>
       <c r="N78" s="3"/>
-      <c r="O78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R78" s="3"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T78" s="3"/>
-      <c r="U78" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U78" s="2"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W78" s="2"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -7520,21 +7520,21 @@
         <v>36</v>
       </c>
       <c r="N79" s="7"/>
-      <c r="O79" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R79" s="7"/>
-      <c r="S79" s="6"/>
+      <c r="S79" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T79" s="7"/>
-      <c r="U79" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U79" s="6"/>
       <c r="V79" s="7"/>
-      <c r="W79" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W79" s="6"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
@@ -7584,21 +7584,21 @@
         <v>36</v>
       </c>
       <c r="N80" s="3"/>
-      <c r="O80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P80" s="3"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q80" s="2"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="2"/>
+      <c r="R80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T80" s="3"/>
       <c r="U80" s="2"/>
-      <c r="V80" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V80" s="3"/>
+      <c r="W80" s="2"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
@@ -7648,21 +7648,21 @@
         <v>36</v>
       </c>
       <c r="N81" s="7"/>
-      <c r="O81" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P81" s="7"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q81" s="6"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="6"/>
+      <c r="R81" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T81" s="7"/>
       <c r="U81" s="6"/>
-      <c r="V81" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W81" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V81" s="7"/>
+      <c r="W81" s="6"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
@@ -7711,19 +7711,19 @@
       <c r="M82" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N82" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N82" s="3"/>
       <c r="O82" s="2"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="3"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="3"/>
+      <c r="T82" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U82" s="2"/>
       <c r="V82" s="3"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="9" t="s">
+      <c r="X82" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Y82" s="2"/>
@@ -7771,21 +7771,21 @@
       <c r="M83" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N83" s="3"/>
       <c r="O83" s="2"/>
       <c r="P83" s="3"/>
-      <c r="Q83" s="2"/>
+      <c r="Q83" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R83" s="3"/>
       <c r="S83" s="2"/>
       <c r="T83" s="3"/>
-      <c r="U83" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U83" s="2"/>
       <c r="V83" s="3"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="3"/>
+      <c r="X83" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2" t="s">
@@ -7831,21 +7831,21 @@
       <c r="M84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N84" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N84" s="3"/>
       <c r="O84" s="2"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="3"/>
+      <c r="R84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S84" s="2"/>
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
-      <c r="V84" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="V84" s="3"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="3"/>
+      <c r="X84" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2" t="s">
@@ -7891,21 +7891,21 @@
       <c r="M85" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N85" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N85" s="3"/>
       <c r="O85" s="2"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="3"/>
-      <c r="S85" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S85" s="2"/>
       <c r="T85" s="3"/>
       <c r="U85" s="2"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="3"/>
+      <c r="W85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X85" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2" t="s">
@@ -7951,10 +7951,10 @@
       <c r="M86" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N86" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O86" s="2"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="3"/>
@@ -7963,10 +7963,10 @@
       <c r="U86" s="2"/>
       <c r="V86" s="3"/>
       <c r="W86" s="2"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="X86" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2" t="s">
         <v>188</v>
@@ -8011,21 +8011,21 @@
       <c r="M87" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N87" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N87" s="3"/>
       <c r="O87" s="2"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="3"/>
-      <c r="S87" s="2"/>
+      <c r="S87" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T87" s="3"/>
       <c r="U87" s="2"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X87" s="3"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2" t="s">
@@ -8072,23 +8072,23 @@
         <v>36</v>
       </c>
       <c r="N88" s="3"/>
-      <c r="O88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P88" s="3"/>
+      <c r="O88" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
-      <c r="S88" s="2"/>
+      <c r="S88" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="2"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W88" s="2"/>
       <c r="X88" s="3"/>
-      <c r="Y88" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
         <v>259</v>
@@ -8136,23 +8136,23 @@
         <v>36</v>
       </c>
       <c r="N89" s="3"/>
-      <c r="O89" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P89" s="3"/>
+      <c r="O89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q89" s="2"/>
       <c r="R89" s="3"/>
-      <c r="S89" s="2"/>
+      <c r="S89" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T89" s="3"/>
       <c r="U89" s="2"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W89" s="2"/>
       <c r="X89" s="3"/>
-      <c r="Y89" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" s="2">
         <v>0</v>
       </c>
@@ -8200,23 +8200,23 @@
         <v>36</v>
       </c>
       <c r="N90" s="7"/>
-      <c r="O90" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P90" s="7"/>
+      <c r="O90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="6"/>
+      <c r="S90" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T90" s="7"/>
       <c r="U90" s="6"/>
       <c r="V90" s="7"/>
-      <c r="W90" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W90" s="6"/>
       <c r="X90" s="7"/>
-      <c r="Y90" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y90" s="6"/>
       <c r="Z90" s="6">
         <v>1</v>
       </c>
@@ -8264,23 +8264,23 @@
         <v>36</v>
       </c>
       <c r="N91" s="7"/>
-      <c r="O91" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P91" s="7"/>
+      <c r="O91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="6"/>
+      <c r="S91" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T91" s="7"/>
       <c r="U91" s="6"/>
       <c r="V91" s="7"/>
-      <c r="W91" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W91" s="6"/>
       <c r="X91" s="7"/>
-      <c r="Y91" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y91" s="6"/>
       <c r="Z91" s="6">
         <v>2</v>
       </c>
@@ -8328,23 +8328,23 @@
         <v>36</v>
       </c>
       <c r="N92" s="7"/>
-      <c r="O92" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P92" s="7"/>
+      <c r="O92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P92" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="6"/>
+      <c r="S92" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T92" s="7"/>
       <c r="U92" s="6"/>
       <c r="V92" s="7"/>
-      <c r="W92" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W92" s="6"/>
       <c r="X92" s="7"/>
-      <c r="Y92" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y92" s="6"/>
       <c r="Z92" s="6">
         <v>3</v>
       </c>
@@ -8392,23 +8392,23 @@
         <v>36</v>
       </c>
       <c r="N93" s="7"/>
-      <c r="O93" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P93" s="7"/>
+      <c r="O93" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="6"/>
+      <c r="S93" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T93" s="7"/>
       <c r="U93" s="6"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W93" s="6"/>
       <c r="X93" s="7"/>
-      <c r="Y93" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y93" s="6"/>
       <c r="Z93" s="6">
         <v>4</v>
       </c>
@@ -8456,23 +8456,23 @@
         <v>36</v>
       </c>
       <c r="N94" s="7"/>
-      <c r="O94" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P94" s="7"/>
+      <c r="O94" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="6"/>
+      <c r="S94" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T94" s="7"/>
       <c r="U94" s="6"/>
       <c r="V94" s="7"/>
-      <c r="W94" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W94" s="6"/>
       <c r="X94" s="7"/>
-      <c r="Y94" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y94" s="6"/>
       <c r="Z94" s="6">
         <v>5</v>
       </c>
@@ -8520,23 +8520,23 @@
         <v>36</v>
       </c>
       <c r="N95" s="7"/>
-      <c r="O95" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P95" s="7"/>
+      <c r="O95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="6"/>
+      <c r="S95" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T95" s="7"/>
       <c r="U95" s="6"/>
       <c r="V95" s="7"/>
-      <c r="W95" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W95" s="6"/>
       <c r="X95" s="7"/>
-      <c r="Y95" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y95" s="6"/>
       <c r="Z95" s="6">
         <v>255</v>
       </c>
@@ -8584,23 +8584,23 @@
         <v>36</v>
       </c>
       <c r="N96" s="7"/>
-      <c r="O96" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P96" s="7"/>
+      <c r="O96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q96" s="6"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="6"/>
+      <c r="S96" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T96" s="7"/>
       <c r="U96" s="6"/>
       <c r="V96" s="7"/>
-      <c r="W96" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W96" s="6"/>
       <c r="X96" s="7"/>
-      <c r="Y96" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y96" s="6"/>
       <c r="Z96" s="6">
         <v>0</v>
       </c>
@@ -8648,23 +8648,23 @@
         <v>36</v>
       </c>
       <c r="N97" s="7"/>
-      <c r="O97" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P97" s="7"/>
+      <c r="O97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="6"/>
+      <c r="S97" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T97" s="7"/>
       <c r="U97" s="6"/>
       <c r="V97" s="7"/>
-      <c r="W97" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W97" s="6"/>
       <c r="X97" s="7"/>
-      <c r="Y97" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y97" s="6"/>
       <c r="Z97" s="6">
         <v>1</v>
       </c>
@@ -8712,23 +8712,23 @@
         <v>36</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P98" s="7"/>
+      <c r="O98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q98" s="6"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="6"/>
+      <c r="S98" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T98" s="7"/>
       <c r="U98" s="6"/>
       <c r="V98" s="7"/>
-      <c r="W98" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W98" s="6"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y98" s="6"/>
       <c r="Z98" s="6">
         <v>2</v>
       </c>
@@ -8776,23 +8776,23 @@
         <v>36</v>
       </c>
       <c r="N99" s="7"/>
-      <c r="O99" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P99" s="7"/>
+      <c r="O99" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q99" s="6"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="6"/>
+      <c r="S99" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T99" s="7"/>
       <c r="U99" s="6"/>
       <c r="V99" s="7"/>
-      <c r="W99" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W99" s="6"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y99" s="6"/>
       <c r="Z99" s="6">
         <v>3</v>
       </c>
@@ -8840,23 +8840,23 @@
         <v>36</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P100" s="7"/>
+      <c r="O100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q100" s="6"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="6"/>
+      <c r="S100" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T100" s="7"/>
       <c r="U100" s="6"/>
       <c r="V100" s="7"/>
-      <c r="W100" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W100" s="6"/>
       <c r="X100" s="7"/>
-      <c r="Y100" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y100" s="6"/>
       <c r="Z100" s="6">
         <v>4</v>
       </c>
@@ -8904,23 +8904,23 @@
         <v>36</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P101" s="7"/>
+      <c r="O101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q101" s="6"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="6"/>
+      <c r="S101" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T101" s="7"/>
       <c r="U101" s="6"/>
       <c r="V101" s="7"/>
-      <c r="W101" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W101" s="6"/>
       <c r="X101" s="7"/>
-      <c r="Y101" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y101" s="6"/>
       <c r="Z101" s="6">
         <v>5</v>
       </c>
@@ -8968,23 +8968,23 @@
         <v>36</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P102" s="7"/>
+      <c r="O102" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P102" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q102" s="6"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="6"/>
+      <c r="S102" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T102" s="7"/>
       <c r="U102" s="6"/>
       <c r="V102" s="7"/>
-      <c r="W102" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W102" s="6"/>
       <c r="X102" s="7"/>
-      <c r="Y102" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y102" s="6"/>
       <c r="Z102" s="6">
         <v>6</v>
       </c>
@@ -9032,23 +9032,23 @@
         <v>36</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P103" s="7"/>
+      <c r="O103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q103" s="6"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="6"/>
+      <c r="S103" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T103" s="7"/>
       <c r="U103" s="6"/>
       <c r="V103" s="7"/>
-      <c r="W103" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W103" s="6"/>
       <c r="X103" s="7"/>
-      <c r="Y103" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y103" s="6"/>
       <c r="Z103" s="6">
         <v>0</v>
       </c>
@@ -9096,23 +9096,23 @@
         <v>36</v>
       </c>
       <c r="N104" s="7"/>
-      <c r="O104" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P104" s="7"/>
+      <c r="O104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q104" s="6"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="6"/>
+      <c r="S104" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T104" s="7"/>
       <c r="U104" s="6"/>
       <c r="V104" s="7"/>
-      <c r="W104" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W104" s="6"/>
       <c r="X104" s="7"/>
-      <c r="Y104" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y104" s="6"/>
       <c r="Z104" s="6">
         <v>1</v>
       </c>
@@ -9160,23 +9160,23 @@
         <v>36</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P105" s="7"/>
+      <c r="O105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="6"/>
+      <c r="S105" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T105" s="7"/>
       <c r="U105" s="6"/>
       <c r="V105" s="7"/>
-      <c r="W105" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W105" s="6"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y105" s="6"/>
       <c r="Z105" s="6">
         <v>2</v>
       </c>
@@ -9224,23 +9224,23 @@
         <v>36</v>
       </c>
       <c r="N106" s="7"/>
-      <c r="O106" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P106" s="7"/>
+      <c r="O106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P106" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="6"/>
+      <c r="S106" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T106" s="7"/>
       <c r="U106" s="6"/>
       <c r="V106" s="7"/>
-      <c r="W106" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W106" s="6"/>
       <c r="X106" s="7"/>
-      <c r="Y106" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y106" s="6"/>
       <c r="Z106" s="6">
         <v>3</v>
       </c>
@@ -9288,23 +9288,23 @@
         <v>36</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P107" s="7"/>
+      <c r="O107" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q107" s="6"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="6"/>
+      <c r="S107" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="6"/>
       <c r="V107" s="7"/>
-      <c r="W107" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W107" s="6"/>
       <c r="X107" s="7"/>
-      <c r="Y107" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y107" s="6"/>
       <c r="Z107" s="6">
         <v>4</v>
       </c>
@@ -9352,23 +9352,23 @@
         <v>36</v>
       </c>
       <c r="N108" s="7"/>
-      <c r="O108" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P108" s="7"/>
+      <c r="O108" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P108" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q108" s="6"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="6"/>
+      <c r="S108" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T108" s="7"/>
       <c r="U108" s="6"/>
       <c r="V108" s="7"/>
-      <c r="W108" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W108" s="6"/>
       <c r="X108" s="7"/>
-      <c r="Y108" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y108" s="6"/>
       <c r="Z108" s="6">
         <v>5</v>
       </c>
@@ -9416,23 +9416,23 @@
         <v>36</v>
       </c>
       <c r="N109" s="7"/>
-      <c r="O109" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P109" s="7"/>
+      <c r="O109" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q109" s="6"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="6"/>
+      <c r="S109" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T109" s="7"/>
       <c r="U109" s="6"/>
       <c r="V109" s="7"/>
-      <c r="W109" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W109" s="6"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y109" s="6"/>
       <c r="Z109" s="6">
         <v>6</v>
       </c>
@@ -9480,23 +9480,23 @@
         <v>36</v>
       </c>
       <c r="N110" s="7"/>
-      <c r="O110" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P110" s="7"/>
+      <c r="O110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q110" s="6"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="6"/>
+      <c r="S110" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T110" s="7"/>
       <c r="U110" s="6"/>
       <c r="V110" s="7"/>
-      <c r="W110" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W110" s="6"/>
       <c r="X110" s="7"/>
-      <c r="Y110" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y110" s="6"/>
       <c r="Z110" s="6">
         <v>0</v>
       </c>
@@ -9544,23 +9544,23 @@
         <v>36</v>
       </c>
       <c r="N111" s="7"/>
-      <c r="O111" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P111" s="7"/>
+      <c r="O111" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q111" s="6"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="6"/>
+      <c r="S111" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T111" s="7"/>
       <c r="U111" s="6"/>
       <c r="V111" s="7"/>
-      <c r="W111" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W111" s="6"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y111" s="6"/>
       <c r="Z111" s="6">
         <v>1</v>
       </c>
@@ -9608,23 +9608,23 @@
         <v>36</v>
       </c>
       <c r="N112" s="7"/>
-      <c r="O112" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P112" s="7"/>
+      <c r="O112" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P112" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="6"/>
+      <c r="S112" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T112" s="7"/>
       <c r="U112" s="6"/>
       <c r="V112" s="7"/>
-      <c r="W112" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W112" s="6"/>
       <c r="X112" s="7"/>
-      <c r="Y112" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y112" s="6"/>
       <c r="Z112" s="6">
         <v>2</v>
       </c>
@@ -9672,23 +9672,23 @@
         <v>36</v>
       </c>
       <c r="N113" s="7"/>
-      <c r="O113" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P113" s="7"/>
+      <c r="O113" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q113" s="6"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="6"/>
+      <c r="S113" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T113" s="7"/>
       <c r="U113" s="6"/>
       <c r="V113" s="7"/>
-      <c r="W113" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W113" s="6"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y113" s="6"/>
       <c r="Z113" s="6">
         <v>3</v>
       </c>
@@ -9736,23 +9736,23 @@
         <v>36</v>
       </c>
       <c r="N114" s="7"/>
-      <c r="O114" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P114" s="7"/>
+      <c r="O114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P114" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="6"/>
+      <c r="S114" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T114" s="7"/>
       <c r="U114" s="6"/>
       <c r="V114" s="7"/>
-      <c r="W114" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W114" s="6"/>
       <c r="X114" s="7"/>
-      <c r="Y114" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y114" s="6"/>
       <c r="Z114" s="6">
         <v>4</v>
       </c>
@@ -9800,23 +9800,23 @@
         <v>36</v>
       </c>
       <c r="N115" s="7"/>
-      <c r="O115" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P115" s="7"/>
+      <c r="O115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q115" s="6"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="6"/>
+      <c r="S115" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T115" s="7"/>
       <c r="U115" s="6"/>
       <c r="V115" s="7"/>
-      <c r="W115" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W115" s="6"/>
       <c r="X115" s="7"/>
-      <c r="Y115" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y115" s="6"/>
       <c r="Z115" s="6">
         <v>5</v>
       </c>
@@ -9864,23 +9864,23 @@
         <v>36</v>
       </c>
       <c r="N116" s="7"/>
-      <c r="O116" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P116" s="7"/>
+      <c r="O116" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P116" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q116" s="6"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="6"/>
+      <c r="S116" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T116" s="7"/>
       <c r="U116" s="6"/>
       <c r="V116" s="7"/>
-      <c r="W116" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W116" s="6"/>
       <c r="X116" s="7"/>
-      <c r="Y116" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y116" s="6"/>
       <c r="Z116" s="6">
         <v>6</v>
       </c>
@@ -9928,23 +9928,23 @@
         <v>36</v>
       </c>
       <c r="N117" s="7"/>
-      <c r="O117" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P117" s="7"/>
+      <c r="O117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q117" s="6"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="6"/>
+      <c r="S117" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T117" s="7"/>
       <c r="U117" s="6"/>
       <c r="V117" s="7"/>
-      <c r="W117" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W117" s="6"/>
       <c r="X117" s="7"/>
-      <c r="Y117" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y117" s="6"/>
       <c r="Z117" s="6">
         <v>0</v>
       </c>
@@ -9992,23 +9992,23 @@
         <v>36</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P118" s="7"/>
+      <c r="O118" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P118" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q118" s="6"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="6"/>
+      <c r="S118" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T118" s="7"/>
       <c r="U118" s="6"/>
       <c r="V118" s="7"/>
-      <c r="W118" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W118" s="6"/>
       <c r="X118" s="7"/>
-      <c r="Y118" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y118" s="6"/>
       <c r="Z118" s="6">
         <v>1</v>
       </c>
@@ -10056,23 +10056,23 @@
         <v>36</v>
       </c>
       <c r="N119" s="7"/>
-      <c r="O119" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P119" s="7"/>
+      <c r="O119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q119" s="6"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="6"/>
+      <c r="S119" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T119" s="7"/>
       <c r="U119" s="6"/>
       <c r="V119" s="7"/>
-      <c r="W119" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W119" s="6"/>
       <c r="X119" s="7"/>
-      <c r="Y119" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y119" s="6"/>
       <c r="Z119" s="6">
         <v>2</v>
       </c>
@@ -10120,23 +10120,23 @@
         <v>36</v>
       </c>
       <c r="N120" s="7"/>
-      <c r="O120" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P120" s="7"/>
+      <c r="O120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P120" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q120" s="6"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="6"/>
+      <c r="S120" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T120" s="7"/>
       <c r="U120" s="6"/>
       <c r="V120" s="7"/>
-      <c r="W120" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W120" s="6"/>
       <c r="X120" s="7"/>
-      <c r="Y120" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y120" s="6"/>
       <c r="Z120" s="6">
         <v>3</v>
       </c>
@@ -10184,23 +10184,23 @@
         <v>36</v>
       </c>
       <c r="N121" s="7"/>
-      <c r="O121" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P121" s="7"/>
+      <c r="O121" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q121" s="6"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="6"/>
+      <c r="S121" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T121" s="7"/>
       <c r="U121" s="6"/>
       <c r="V121" s="7"/>
-      <c r="W121" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W121" s="6"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y121" s="6"/>
       <c r="Z121" s="6">
         <v>4</v>
       </c>
@@ -10248,23 +10248,23 @@
         <v>36</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P122" s="7"/>
+      <c r="O122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P122" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q122" s="6"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="6"/>
+      <c r="S122" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T122" s="7"/>
       <c r="U122" s="6"/>
       <c r="V122" s="7"/>
-      <c r="W122" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W122" s="6"/>
       <c r="X122" s="7"/>
-      <c r="Y122" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y122" s="6"/>
       <c r="Z122" s="6">
         <v>5</v>
       </c>
@@ -10312,23 +10312,23 @@
         <v>36</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P123" s="7"/>
+      <c r="O123" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P123" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q123" s="6"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="6"/>
+      <c r="S123" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T123" s="7"/>
       <c r="U123" s="6"/>
       <c r="V123" s="7"/>
-      <c r="W123" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W123" s="6"/>
       <c r="X123" s="7"/>
-      <c r="Y123" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y123" s="6"/>
       <c r="Z123" s="6">
         <v>6</v>
       </c>
@@ -10376,19 +10376,19 @@
         <v>36</v>
       </c>
       <c r="N124" s="3"/>
-      <c r="O124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P124" s="3"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="3"/>
-      <c r="S124" s="4" t="s">
+      <c r="S124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T124" s="3"/>
       <c r="U124" s="2"/>
       <c r="V124" s="3"/>
-      <c r="W124" s="2" t="s">
+      <c r="W124" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X124" s="3"/>
@@ -10436,19 +10436,19 @@
         <v>36</v>
       </c>
       <c r="N125" s="7"/>
-      <c r="O125" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P125" s="7"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q125" s="6"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="8" t="s">
+      <c r="S125" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T125" s="7"/>
       <c r="U125" s="6"/>
       <c r="V125" s="7"/>
-      <c r="W125" s="6" t="s">
+      <c r="W125" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X125" s="7"/>
@@ -10496,19 +10496,19 @@
         <v>36</v>
       </c>
       <c r="N126" s="7"/>
-      <c r="O126" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P126" s="7"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q126" s="6"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="8" t="s">
+      <c r="S126" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T126" s="7"/>
       <c r="U126" s="6"/>
       <c r="V126" s="7"/>
-      <c r="W126" s="6" t="s">
+      <c r="W126" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X126" s="7"/>
@@ -10556,19 +10556,19 @@
         <v>36</v>
       </c>
       <c r="N127" s="7"/>
-      <c r="O127" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P127" s="7"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q127" s="6"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="8" t="s">
+      <c r="S127" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T127" s="7"/>
       <c r="U127" s="6"/>
       <c r="V127" s="7"/>
-      <c r="W127" s="6" t="s">
+      <c r="W127" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X127" s="7"/>
@@ -10616,19 +10616,19 @@
         <v>36</v>
       </c>
       <c r="N128" s="7"/>
-      <c r="O128" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P128" s="7"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q128" s="6"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="8" t="s">
+      <c r="S128" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T128" s="7"/>
       <c r="U128" s="6"/>
       <c r="V128" s="7"/>
-      <c r="W128" s="6" t="s">
+      <c r="W128" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X128" s="7"/>
@@ -10676,19 +10676,19 @@
         <v>36</v>
       </c>
       <c r="N129" s="7"/>
-      <c r="O129" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P129" s="7"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q129" s="6"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="8" t="s">
+      <c r="S129" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T129" s="7"/>
       <c r="U129" s="6"/>
       <c r="V129" s="7"/>
-      <c r="W129" s="6" t="s">
+      <c r="W129" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X129" s="7"/>
@@ -10736,19 +10736,19 @@
         <v>36</v>
       </c>
       <c r="N130" s="7"/>
-      <c r="O130" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P130" s="7"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q130" s="6"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="8" t="s">
+      <c r="S130" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T130" s="7"/>
       <c r="U130" s="6"/>
       <c r="V130" s="7"/>
-      <c r="W130" s="6" t="s">
+      <c r="W130" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X130" s="7"/>
@@ -10796,19 +10796,19 @@
         <v>36</v>
       </c>
       <c r="N131" s="7"/>
-      <c r="O131" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P131" s="7"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q131" s="6"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="8" t="s">
+      <c r="S131" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T131" s="7"/>
       <c r="U131" s="6"/>
       <c r="V131" s="7"/>
-      <c r="W131" s="6" t="s">
+      <c r="W131" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X131" s="7"/>
@@ -10856,19 +10856,19 @@
         <v>36</v>
       </c>
       <c r="N132" s="7"/>
-      <c r="O132" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P132" s="7"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="7"/>
-      <c r="S132" s="8" t="s">
+      <c r="S132" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T132" s="7"/>
       <c r="U132" s="6"/>
       <c r="V132" s="7"/>
-      <c r="W132" s="6" t="s">
+      <c r="W132" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X132" s="7"/>
@@ -10916,19 +10916,19 @@
         <v>36</v>
       </c>
       <c r="N133" s="7"/>
-      <c r="O133" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P133" s="7"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="7"/>
-      <c r="S133" s="8" t="s">
+      <c r="S133" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T133" s="7"/>
       <c r="U133" s="6"/>
       <c r="V133" s="7"/>
-      <c r="W133" s="6" t="s">
+      <c r="W133" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X133" s="7"/>
@@ -10976,19 +10976,19 @@
         <v>36</v>
       </c>
       <c r="N134" s="7"/>
-      <c r="O134" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P134" s="7"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="7"/>
-      <c r="S134" s="8" t="s">
+      <c r="S134" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T134" s="7"/>
       <c r="U134" s="6"/>
       <c r="V134" s="7"/>
-      <c r="W134" s="6" t="s">
+      <c r="W134" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X134" s="7"/>
@@ -11036,19 +11036,19 @@
         <v>36</v>
       </c>
       <c r="N135" s="7"/>
-      <c r="O135" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P135" s="7"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="7"/>
-      <c r="S135" s="8" t="s">
+      <c r="S135" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T135" s="7"/>
       <c r="U135" s="6"/>
       <c r="V135" s="7"/>
-      <c r="W135" s="6" t="s">
+      <c r="W135" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X135" s="7"/>
@@ -11096,19 +11096,19 @@
         <v>36</v>
       </c>
       <c r="N136" s="7"/>
-      <c r="O136" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P136" s="7"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="7"/>
-      <c r="S136" s="8" t="s">
+      <c r="S136" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T136" s="7"/>
       <c r="U136" s="6"/>
       <c r="V136" s="7"/>
-      <c r="W136" s="6" t="s">
+      <c r="W136" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X136" s="7"/>
@@ -11156,19 +11156,19 @@
         <v>36</v>
       </c>
       <c r="N137" s="7"/>
-      <c r="O137" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P137" s="7"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="7"/>
-      <c r="S137" s="8" t="s">
+      <c r="S137" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T137" s="7"/>
       <c r="U137" s="6"/>
       <c r="V137" s="7"/>
-      <c r="W137" s="6" t="s">
+      <c r="W137" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X137" s="7"/>
@@ -11216,19 +11216,19 @@
         <v>36</v>
       </c>
       <c r="N138" s="7"/>
-      <c r="O138" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P138" s="7"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="7"/>
-      <c r="S138" s="8" t="s">
+      <c r="S138" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T138" s="7"/>
       <c r="U138" s="6"/>
       <c r="V138" s="7"/>
-      <c r="W138" s="6" t="s">
+      <c r="W138" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X138" s="7"/>
@@ -11276,19 +11276,19 @@
         <v>36</v>
       </c>
       <c r="N139" s="7"/>
-      <c r="O139" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P139" s="7"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q139" s="6"/>
       <c r="R139" s="7"/>
-      <c r="S139" s="8" t="s">
+      <c r="S139" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T139" s="7"/>
       <c r="U139" s="6"/>
       <c r="V139" s="7"/>
-      <c r="W139" s="6" t="s">
+      <c r="W139" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X139" s="7"/>
@@ -11336,19 +11336,19 @@
         <v>36</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P140" s="7"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q140" s="6"/>
       <c r="R140" s="7"/>
-      <c r="S140" s="8" t="s">
+      <c r="S140" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T140" s="7"/>
       <c r="U140" s="6"/>
       <c r="V140" s="7"/>
-      <c r="W140" s="6" t="s">
+      <c r="W140" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X140" s="7"/>
@@ -11396,19 +11396,19 @@
         <v>36</v>
       </c>
       <c r="N141" s="7"/>
-      <c r="O141" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P141" s="7"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q141" s="6"/>
       <c r="R141" s="7"/>
-      <c r="S141" s="8" t="s">
+      <c r="S141" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T141" s="7"/>
       <c r="U141" s="6"/>
       <c r="V141" s="7"/>
-      <c r="W141" s="6" t="s">
+      <c r="W141" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X141" s="7"/>
@@ -11456,19 +11456,19 @@
         <v>36</v>
       </c>
       <c r="N142" s="7"/>
-      <c r="O142" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P142" s="7"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q142" s="6"/>
       <c r="R142" s="7"/>
-      <c r="S142" s="8" t="s">
+      <c r="S142" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T142" s="7"/>
       <c r="U142" s="6"/>
       <c r="V142" s="7"/>
-      <c r="W142" s="6" t="s">
+      <c r="W142" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X142" s="7"/>
@@ -11516,19 +11516,19 @@
         <v>36</v>
       </c>
       <c r="N143" s="7"/>
-      <c r="O143" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P143" s="7"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q143" s="6"/>
       <c r="R143" s="7"/>
-      <c r="S143" s="8" t="s">
+      <c r="S143" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T143" s="7"/>
       <c r="U143" s="6"/>
       <c r="V143" s="7"/>
-      <c r="W143" s="6" t="s">
+      <c r="W143" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X143" s="7"/>
@@ -11576,19 +11576,19 @@
         <v>36</v>
       </c>
       <c r="N144" s="7"/>
-      <c r="O144" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P144" s="7"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q144" s="6"/>
       <c r="R144" s="7"/>
-      <c r="S144" s="8" t="s">
+      <c r="S144" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T144" s="7"/>
       <c r="U144" s="6"/>
       <c r="V144" s="7"/>
-      <c r="W144" s="6" t="s">
+      <c r="W144" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X144" s="7"/>
@@ -11636,19 +11636,19 @@
         <v>36</v>
       </c>
       <c r="N145" s="7"/>
-      <c r="O145" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P145" s="7"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q145" s="6"/>
       <c r="R145" s="7"/>
-      <c r="S145" s="8" t="s">
+      <c r="S145" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T145" s="7"/>
       <c r="U145" s="6"/>
       <c r="V145" s="7"/>
-      <c r="W145" s="6" t="s">
+      <c r="W145" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X145" s="7"/>
@@ -11696,19 +11696,19 @@
         <v>36</v>
       </c>
       <c r="N146" s="7"/>
-      <c r="O146" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P146" s="7"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q146" s="6"/>
       <c r="R146" s="7"/>
-      <c r="S146" s="8" t="s">
+      <c r="S146" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T146" s="7"/>
       <c r="U146" s="6"/>
       <c r="V146" s="7"/>
-      <c r="W146" s="6" t="s">
+      <c r="W146" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X146" s="7"/>
@@ -11756,19 +11756,19 @@
         <v>36</v>
       </c>
       <c r="N147" s="7"/>
-      <c r="O147" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P147" s="7"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q147" s="6"/>
       <c r="R147" s="7"/>
-      <c r="S147" s="8" t="s">
+      <c r="S147" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T147" s="7"/>
       <c r="U147" s="6"/>
       <c r="V147" s="7"/>
-      <c r="W147" s="6" t="s">
+      <c r="W147" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X147" s="7"/>
@@ -11816,19 +11816,19 @@
         <v>36</v>
       </c>
       <c r="N148" s="7"/>
-      <c r="O148" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P148" s="7"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q148" s="6"/>
       <c r="R148" s="7"/>
-      <c r="S148" s="8" t="s">
+      <c r="S148" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T148" s="7"/>
       <c r="U148" s="6"/>
       <c r="V148" s="7"/>
-      <c r="W148" s="6" t="s">
+      <c r="W148" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X148" s="7"/>
@@ -11876,19 +11876,19 @@
         <v>36</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P149" s="7"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q149" s="6"/>
       <c r="R149" s="7"/>
-      <c r="S149" s="8" t="s">
+      <c r="S149" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T149" s="7"/>
       <c r="U149" s="6"/>
       <c r="V149" s="7"/>
-      <c r="W149" s="6" t="s">
+      <c r="W149" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X149" s="7"/>
@@ -11936,19 +11936,19 @@
         <v>36</v>
       </c>
       <c r="N150" s="3"/>
-      <c r="O150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P150" s="3"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="3"/>
-      <c r="S150" s="4" t="s">
+      <c r="S150" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T150" s="3"/>
       <c r="U150" s="2"/>
       <c r="V150" s="3"/>
-      <c r="W150" s="2" t="s">
+      <c r="W150" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X150" s="3"/>
@@ -11996,19 +11996,19 @@
         <v>36</v>
       </c>
       <c r="N151" s="7"/>
-      <c r="O151" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P151" s="7"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="7"/>
-      <c r="S151" s="8" t="s">
+      <c r="S151" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T151" s="7"/>
       <c r="U151" s="6"/>
       <c r="V151" s="7"/>
-      <c r="W151" s="6" t="s">
+      <c r="W151" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X151" s="7"/>
@@ -12056,19 +12056,19 @@
         <v>36</v>
       </c>
       <c r="N152" s="3"/>
-      <c r="O152" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P152" s="3"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q152" s="2"/>
       <c r="R152" s="3"/>
-      <c r="S152" s="4" t="s">
+      <c r="S152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T152" s="3"/>
       <c r="U152" s="2"/>
       <c r="V152" s="3"/>
-      <c r="W152" s="2" t="s">
+      <c r="W152" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X152" s="3"/>
@@ -12120,19 +12120,19 @@
         <v>36</v>
       </c>
       <c r="N153" s="7"/>
-      <c r="O153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P153" s="7"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q153" s="6"/>
       <c r="R153" s="7"/>
-      <c r="S153" s="8" t="s">
+      <c r="S153" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T153" s="7"/>
       <c r="U153" s="6"/>
       <c r="V153" s="7"/>
-      <c r="W153" s="6" t="s">
+      <c r="W153" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X153" s="7"/>
@@ -12184,19 +12184,19 @@
         <v>36</v>
       </c>
       <c r="N154" s="7"/>
-      <c r="O154" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P154" s="7"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="7"/>
-      <c r="S154" s="8" t="s">
+      <c r="S154" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T154" s="7"/>
       <c r="U154" s="6"/>
       <c r="V154" s="7"/>
-      <c r="W154" s="6" t="s">
+      <c r="W154" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X154" s="7"/>
@@ -12248,19 +12248,19 @@
         <v>36</v>
       </c>
       <c r="N155" s="7"/>
-      <c r="O155" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P155" s="7"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q155" s="6"/>
       <c r="R155" s="7"/>
-      <c r="S155" s="8" t="s">
+      <c r="S155" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T155" s="7"/>
       <c r="U155" s="6"/>
       <c r="V155" s="7"/>
-      <c r="W155" s="6" t="s">
+      <c r="W155" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X155" s="7"/>
@@ -12312,19 +12312,19 @@
         <v>36</v>
       </c>
       <c r="N156" s="3"/>
-      <c r="O156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P156" s="3"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="3"/>
-      <c r="S156" s="4" t="s">
+      <c r="S156" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T156" s="3"/>
       <c r="U156" s="2"/>
       <c r="V156" s="3"/>
-      <c r="W156" s="2" t="s">
+      <c r="W156" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X156" s="3"/>
@@ -12376,19 +12376,19 @@
         <v>36</v>
       </c>
       <c r="N157" s="7"/>
-      <c r="O157" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P157" s="7"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="7"/>
-      <c r="S157" s="8" t="s">
+      <c r="S157" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T157" s="7"/>
       <c r="U157" s="6"/>
       <c r="V157" s="7"/>
-      <c r="W157" s="6" t="s">
+      <c r="W157" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X157" s="7"/>
@@ -12440,19 +12440,19 @@
         <v>36</v>
       </c>
       <c r="N158" s="7"/>
-      <c r="O158" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P158" s="7"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q158" s="6"/>
       <c r="R158" s="7"/>
-      <c r="S158" s="8" t="s">
+      <c r="S158" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T158" s="7"/>
       <c r="U158" s="6"/>
       <c r="V158" s="7"/>
-      <c r="W158" s="6" t="s">
+      <c r="W158" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X158" s="7"/>
@@ -12504,23 +12504,23 @@
         <v>36</v>
       </c>
       <c r="N159" s="3"/>
-      <c r="O159" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P159" s="3"/>
+      <c r="O159" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q159" s="2"/>
       <c r="R159" s="3"/>
-      <c r="S159" s="2"/>
+      <c r="S159" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T159" s="3"/>
       <c r="U159" s="2"/>
       <c r="V159" s="3"/>
-      <c r="W159" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W159" s="2"/>
       <c r="X159" s="3"/>
-      <c r="Y159" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
       <c r="AA159" s="2" t="s">
         <v>366</v>
@@ -12568,21 +12568,21 @@
         <v>36</v>
       </c>
       <c r="N160" s="3"/>
-      <c r="O160" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P160" s="9" t="s">
+      <c r="O160" s="2"/>
+      <c r="P160" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="R160" s="3"/>
-      <c r="S160" s="2"/>
+      <c r="S160" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T160" s="3"/>
-      <c r="U160" s="2"/>
+      <c r="U160" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V160" s="3"/>
-      <c r="W160" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W160" s="2"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
@@ -12630,21 +12630,21 @@
         <v>36</v>
       </c>
       <c r="N161" s="7"/>
-      <c r="O161" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P161" s="10" t="s">
+      <c r="O161" s="6"/>
+      <c r="P161" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q161" s="6"/>
       <c r="R161" s="7"/>
-      <c r="S161" s="6"/>
+      <c r="S161" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T161" s="7"/>
-      <c r="U161" s="6"/>
+      <c r="U161" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V161" s="7"/>
-      <c r="W161" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W161" s="6"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
@@ -12690,21 +12690,21 @@
         <v>36</v>
       </c>
       <c r="N162" s="7"/>
-      <c r="O162" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P162" s="10" t="s">
+      <c r="O162" s="6"/>
+      <c r="P162" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q162" s="6"/>
       <c r="R162" s="7"/>
-      <c r="S162" s="6"/>
+      <c r="S162" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T162" s="7"/>
-      <c r="U162" s="6"/>
+      <c r="U162" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V162" s="7"/>
-      <c r="W162" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W162" s="6"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="6"/>
       <c r="Z162" s="6"/>
@@ -12750,21 +12750,21 @@
         <v>36</v>
       </c>
       <c r="N163" s="7"/>
-      <c r="O163" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P163" s="10" t="s">
+      <c r="O163" s="6"/>
+      <c r="P163" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q163" s="6"/>
       <c r="R163" s="7"/>
-      <c r="S163" s="6"/>
+      <c r="S163" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T163" s="7"/>
-      <c r="U163" s="6"/>
+      <c r="U163" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V163" s="7"/>
-      <c r="W163" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W163" s="6"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
@@ -12814,21 +12814,21 @@
         <v>36</v>
       </c>
       <c r="N164" s="7"/>
-      <c r="O164" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P164" s="10" t="s">
+      <c r="O164" s="6"/>
+      <c r="P164" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q164" s="6"/>
       <c r="R164" s="7"/>
-      <c r="S164" s="6"/>
+      <c r="S164" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T164" s="7"/>
-      <c r="U164" s="6"/>
+      <c r="U164" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V164" s="7"/>
-      <c r="W164" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W164" s="6"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
@@ -12878,21 +12878,21 @@
         <v>36</v>
       </c>
       <c r="N165" s="7"/>
-      <c r="O165" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P165" s="10" t="s">
+      <c r="O165" s="6"/>
+      <c r="P165" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="7"/>
-      <c r="S165" s="6"/>
+      <c r="S165" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T165" s="7"/>
-      <c r="U165" s="6"/>
+      <c r="U165" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V165" s="7"/>
-      <c r="W165" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W165" s="6"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="6"/>
       <c r="Z165" s="6"/>
@@ -12940,21 +12940,21 @@
         <v>36</v>
       </c>
       <c r="N166" s="7"/>
-      <c r="O166" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P166" s="10" t="s">
+      <c r="O166" s="6"/>
+      <c r="P166" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q166" s="6"/>
       <c r="R166" s="7"/>
-      <c r="S166" s="6"/>
+      <c r="S166" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T166" s="7"/>
-      <c r="U166" s="6"/>
+      <c r="U166" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V166" s="7"/>
-      <c r="W166" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W166" s="6"/>
       <c r="X166" s="7"/>
       <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
@@ -13000,21 +13000,21 @@
         <v>36</v>
       </c>
       <c r="N167" s="7"/>
-      <c r="O167" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P167" s="10" t="s">
+      <c r="O167" s="6"/>
+      <c r="P167" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q167" s="6"/>
       <c r="R167" s="7"/>
-      <c r="S167" s="6"/>
+      <c r="S167" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T167" s="7"/>
-      <c r="U167" s="6"/>
+      <c r="U167" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V167" s="7"/>
-      <c r="W167" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W167" s="6"/>
       <c r="X167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
@@ -13060,21 +13060,21 @@
         <v>36</v>
       </c>
       <c r="N168" s="7"/>
-      <c r="O168" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P168" s="10" t="s">
+      <c r="O168" s="6"/>
+      <c r="P168" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q168" s="6"/>
       <c r="R168" s="7"/>
-      <c r="S168" s="6"/>
+      <c r="S168" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T168" s="7"/>
-      <c r="U168" s="6"/>
+      <c r="U168" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V168" s="7"/>
-      <c r="W168" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W168" s="6"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
@@ -13124,21 +13124,21 @@
         <v>36</v>
       </c>
       <c r="N169" s="7"/>
-      <c r="O169" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P169" s="10" t="s">
+      <c r="O169" s="6"/>
+      <c r="P169" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q169" s="6"/>
       <c r="R169" s="7"/>
-      <c r="S169" s="6"/>
+      <c r="S169" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T169" s="7"/>
-      <c r="U169" s="6"/>
+      <c r="U169" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V169" s="7"/>
-      <c r="W169" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W169" s="6"/>
       <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
@@ -13188,21 +13188,21 @@
         <v>36</v>
       </c>
       <c r="N170" s="3"/>
-      <c r="O170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P170" s="9" t="s">
+      <c r="O170" s="2"/>
+      <c r="P170" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="R170" s="3"/>
-      <c r="S170" s="2"/>
+      <c r="S170" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T170" s="3"/>
-      <c r="U170" s="2"/>
+      <c r="U170" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V170" s="3"/>
-      <c r="W170" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W170" s="2"/>
       <c r="X170" s="3"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
@@ -13250,21 +13250,21 @@
         <v>36</v>
       </c>
       <c r="N171" s="7"/>
-      <c r="O171" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P171" s="10" t="s">
+      <c r="O171" s="6"/>
+      <c r="P171" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q171" s="6"/>
       <c r="R171" s="7"/>
-      <c r="S171" s="6"/>
+      <c r="S171" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T171" s="7"/>
-      <c r="U171" s="6"/>
+      <c r="U171" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V171" s="7"/>
-      <c r="W171" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W171" s="6"/>
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
@@ -13310,21 +13310,21 @@
         <v>36</v>
       </c>
       <c r="N172" s="7"/>
-      <c r="O172" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P172" s="10" t="s">
+      <c r="O172" s="6"/>
+      <c r="P172" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q172" s="6"/>
       <c r="R172" s="7"/>
-      <c r="S172" s="6"/>
+      <c r="S172" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T172" s="7"/>
-      <c r="U172" s="6"/>
+      <c r="U172" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V172" s="7"/>
-      <c r="W172" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W172" s="6"/>
       <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
@@ -13370,21 +13370,21 @@
         <v>36</v>
       </c>
       <c r="N173" s="7"/>
-      <c r="O173" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P173" s="10" t="s">
+      <c r="O173" s="6"/>
+      <c r="P173" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q173" s="6"/>
       <c r="R173" s="7"/>
-      <c r="S173" s="6"/>
+      <c r="S173" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T173" s="7"/>
-      <c r="U173" s="6"/>
+      <c r="U173" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V173" s="7"/>
-      <c r="W173" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W173" s="6"/>
       <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
@@ -13434,21 +13434,21 @@
         <v>36</v>
       </c>
       <c r="N174" s="7"/>
-      <c r="O174" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P174" s="10" t="s">
+      <c r="O174" s="6"/>
+      <c r="P174" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q174" s="6"/>
       <c r="R174" s="7"/>
-      <c r="S174" s="6"/>
+      <c r="S174" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T174" s="7"/>
-      <c r="U174" s="6"/>
+      <c r="U174" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V174" s="7"/>
-      <c r="W174" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W174" s="6"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
@@ -13498,21 +13498,21 @@
         <v>36</v>
       </c>
       <c r="N175" s="7"/>
-      <c r="O175" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P175" s="10" t="s">
+      <c r="O175" s="6"/>
+      <c r="P175" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q175" s="6"/>
       <c r="R175" s="7"/>
-      <c r="S175" s="6"/>
+      <c r="S175" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T175" s="7"/>
-      <c r="U175" s="6"/>
+      <c r="U175" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V175" s="7"/>
-      <c r="W175" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W175" s="6"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
@@ -13560,21 +13560,21 @@
         <v>36</v>
       </c>
       <c r="N176" s="7"/>
-      <c r="O176" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P176" s="10" t="s">
+      <c r="O176" s="6"/>
+      <c r="P176" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q176" s="6"/>
       <c r="R176" s="7"/>
-      <c r="S176" s="6"/>
+      <c r="S176" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T176" s="7"/>
-      <c r="U176" s="6"/>
+      <c r="U176" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V176" s="7"/>
-      <c r="W176" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W176" s="6"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
@@ -13620,21 +13620,21 @@
         <v>36</v>
       </c>
       <c r="N177" s="7"/>
-      <c r="O177" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P177" s="10" t="s">
+      <c r="O177" s="6"/>
+      <c r="P177" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q177" s="6"/>
       <c r="R177" s="7"/>
-      <c r="S177" s="6"/>
+      <c r="S177" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T177" s="7"/>
-      <c r="U177" s="6"/>
+      <c r="U177" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V177" s="7"/>
-      <c r="W177" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W177" s="6"/>
       <c r="X177" s="7"/>
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
@@ -13680,21 +13680,21 @@
         <v>36</v>
       </c>
       <c r="N178" s="7"/>
-      <c r="O178" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P178" s="10" t="s">
+      <c r="O178" s="6"/>
+      <c r="P178" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q178" s="6"/>
       <c r="R178" s="7"/>
-      <c r="S178" s="6"/>
+      <c r="S178" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T178" s="7"/>
-      <c r="U178" s="6"/>
+      <c r="U178" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V178" s="7"/>
-      <c r="W178" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W178" s="6"/>
       <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
@@ -13744,21 +13744,21 @@
         <v>36</v>
       </c>
       <c r="N179" s="7"/>
-      <c r="O179" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P179" s="10" t="s">
+      <c r="O179" s="6"/>
+      <c r="P179" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q179" s="6"/>
       <c r="R179" s="7"/>
-      <c r="S179" s="6"/>
+      <c r="S179" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T179" s="7"/>
-      <c r="U179" s="6"/>
+      <c r="U179" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="V179" s="7"/>
-      <c r="W179" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W179" s="6"/>
       <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
@@ -13811,16 +13811,16 @@
       <c r="O180" s="2"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="2"/>
-      <c r="R180" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S180" s="2"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T180" s="3"/>
       <c r="U180" s="2"/>
-      <c r="V180" s="3"/>
-      <c r="W180" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V180" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W180" s="2"/>
       <c r="X180" s="3"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
@@ -13869,16 +13869,16 @@
       <c r="O181" s="6"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="6"/>
-      <c r="R181" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S181" s="6"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T181" s="7"/>
       <c r="U181" s="6"/>
-      <c r="V181" s="7"/>
-      <c r="W181" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V181" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W181" s="6"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
@@ -13927,16 +13927,16 @@
       <c r="O182" s="6"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="6"/>
-      <c r="R182" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S182" s="6"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T182" s="7"/>
       <c r="U182" s="6"/>
-      <c r="V182" s="7"/>
-      <c r="W182" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V182" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W182" s="6"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
@@ -13985,16 +13985,16 @@
       <c r="O183" s="6"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="6"/>
-      <c r="R183" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S183" s="6"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T183" s="7"/>
       <c r="U183" s="6"/>
-      <c r="V183" s="7"/>
-      <c r="W183" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V183" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W183" s="6"/>
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
@@ -14043,16 +14043,16 @@
       <c r="O184" s="6"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="6"/>
-      <c r="R184" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S184" s="6"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T184" s="7"/>
       <c r="U184" s="6"/>
-      <c r="V184" s="7"/>
-      <c r="W184" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V184" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W184" s="6"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
@@ -14101,16 +14101,16 @@
       <c r="O185" s="6"/>
       <c r="P185" s="7"/>
       <c r="Q185" s="6"/>
-      <c r="R185" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S185" s="6"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T185" s="7"/>
       <c r="U185" s="6"/>
-      <c r="V185" s="7"/>
-      <c r="W185" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V185" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W185" s="6"/>
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -14159,16 +14159,16 @@
       <c r="O186" s="6"/>
       <c r="P186" s="7"/>
       <c r="Q186" s="6"/>
-      <c r="R186" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S186" s="6"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T186" s="7"/>
       <c r="U186" s="6"/>
-      <c r="V186" s="7"/>
-      <c r="W186" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V186" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W186" s="6"/>
       <c r="X186" s="7"/>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
@@ -14217,16 +14217,16 @@
       <c r="O187" s="6"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="6"/>
-      <c r="R187" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S187" s="6"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T187" s="7"/>
       <c r="U187" s="6"/>
-      <c r="V187" s="7"/>
-      <c r="W187" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V187" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W187" s="6"/>
       <c r="X187" s="7"/>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
@@ -14275,16 +14275,16 @@
       <c r="O188" s="6"/>
       <c r="P188" s="7"/>
       <c r="Q188" s="6"/>
-      <c r="R188" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S188" s="6"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T188" s="7"/>
       <c r="U188" s="6"/>
-      <c r="V188" s="7"/>
-      <c r="W188" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V188" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W188" s="6"/>
       <c r="X188" s="7"/>
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
@@ -14333,16 +14333,16 @@
       <c r="O189" s="6"/>
       <c r="P189" s="7"/>
       <c r="Q189" s="6"/>
-      <c r="R189" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S189" s="6"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T189" s="7"/>
       <c r="U189" s="6"/>
-      <c r="V189" s="7"/>
-      <c r="W189" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W189" s="6"/>
       <c r="X189" s="7"/>
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
@@ -14391,16 +14391,16 @@
       <c r="O190" s="6"/>
       <c r="P190" s="7"/>
       <c r="Q190" s="6"/>
-      <c r="R190" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S190" s="6"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T190" s="7"/>
       <c r="U190" s="6"/>
-      <c r="V190" s="7"/>
-      <c r="W190" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V190" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W190" s="6"/>
       <c r="X190" s="7"/>
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
@@ -14449,16 +14449,16 @@
       <c r="O191" s="6"/>
       <c r="P191" s="7"/>
       <c r="Q191" s="6"/>
-      <c r="R191" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S191" s="6"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T191" s="7"/>
       <c r="U191" s="6"/>
-      <c r="V191" s="7"/>
-      <c r="W191" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V191" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W191" s="6"/>
       <c r="X191" s="7"/>
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
@@ -14507,16 +14507,16 @@
       <c r="O192" s="6"/>
       <c r="P192" s="7"/>
       <c r="Q192" s="6"/>
-      <c r="R192" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S192" s="6"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T192" s="7"/>
       <c r="U192" s="6"/>
-      <c r="V192" s="7"/>
-      <c r="W192" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V192" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W192" s="6"/>
       <c r="X192" s="7"/>
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
@@ -14565,16 +14565,16 @@
       <c r="O193" s="6"/>
       <c r="P193" s="7"/>
       <c r="Q193" s="6"/>
-      <c r="R193" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S193" s="6"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T193" s="7"/>
       <c r="U193" s="6"/>
-      <c r="V193" s="7"/>
-      <c r="W193" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V193" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W193" s="6"/>
       <c r="X193" s="7"/>
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
@@ -14623,16 +14623,16 @@
       <c r="O194" s="6"/>
       <c r="P194" s="7"/>
       <c r="Q194" s="6"/>
-      <c r="R194" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S194" s="6"/>
+      <c r="R194" s="7"/>
+      <c r="S194" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T194" s="7"/>
       <c r="U194" s="6"/>
-      <c r="V194" s="7"/>
-      <c r="W194" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V194" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W194" s="6"/>
       <c r="X194" s="7"/>
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
@@ -14681,16 +14681,16 @@
       <c r="O195" s="6"/>
       <c r="P195" s="7"/>
       <c r="Q195" s="6"/>
-      <c r="R195" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S195" s="6"/>
+      <c r="R195" s="7"/>
+      <c r="S195" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T195" s="7"/>
       <c r="U195" s="6"/>
-      <c r="V195" s="7"/>
-      <c r="W195" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V195" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W195" s="6"/>
       <c r="X195" s="7"/>
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
@@ -14739,16 +14739,16 @@
       <c r="O196" s="6"/>
       <c r="P196" s="7"/>
       <c r="Q196" s="6"/>
-      <c r="R196" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S196" s="6"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T196" s="7"/>
       <c r="U196" s="6"/>
-      <c r="V196" s="7"/>
-      <c r="W196" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V196" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W196" s="6"/>
       <c r="X196" s="7"/>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
@@ -14797,16 +14797,16 @@
       <c r="O197" s="6"/>
       <c r="P197" s="7"/>
       <c r="Q197" s="6"/>
-      <c r="R197" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S197" s="6"/>
+      <c r="R197" s="7"/>
+      <c r="S197" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T197" s="7"/>
       <c r="U197" s="6"/>
-      <c r="V197" s="7"/>
-      <c r="W197" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V197" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W197" s="6"/>
       <c r="X197" s="7"/>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
@@ -14855,16 +14855,16 @@
       <c r="O198" s="6"/>
       <c r="P198" s="7"/>
       <c r="Q198" s="6"/>
-      <c r="R198" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S198" s="6"/>
+      <c r="R198" s="7"/>
+      <c r="S198" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T198" s="7"/>
       <c r="U198" s="6"/>
-      <c r="V198" s="7"/>
-      <c r="W198" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V198" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W198" s="6"/>
       <c r="X198" s="7"/>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
@@ -14913,16 +14913,16 @@
       <c r="O199" s="6"/>
       <c r="P199" s="7"/>
       <c r="Q199" s="6"/>
-      <c r="R199" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S199" s="6"/>
+      <c r="R199" s="7"/>
+      <c r="S199" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T199" s="7"/>
       <c r="U199" s="6"/>
-      <c r="V199" s="7"/>
-      <c r="W199" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V199" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W199" s="6"/>
       <c r="X199" s="7"/>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
@@ -14971,16 +14971,16 @@
       <c r="O200" s="6"/>
       <c r="P200" s="7"/>
       <c r="Q200" s="6"/>
-      <c r="R200" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S200" s="6"/>
+      <c r="R200" s="7"/>
+      <c r="S200" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T200" s="7"/>
       <c r="U200" s="6"/>
-      <c r="V200" s="7"/>
-      <c r="W200" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V200" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W200" s="6"/>
       <c r="X200" s="7"/>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
@@ -15029,16 +15029,16 @@
       <c r="O201" s="6"/>
       <c r="P201" s="7"/>
       <c r="Q201" s="6"/>
-      <c r="R201" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S201" s="6"/>
+      <c r="R201" s="7"/>
+      <c r="S201" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T201" s="7"/>
       <c r="U201" s="6"/>
-      <c r="V201" s="7"/>
-      <c r="W201" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V201" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W201" s="6"/>
       <c r="X201" s="7"/>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
@@ -15087,16 +15087,16 @@
       <c r="O202" s="6"/>
       <c r="P202" s="7"/>
       <c r="Q202" s="6"/>
-      <c r="R202" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S202" s="6"/>
+      <c r="R202" s="7"/>
+      <c r="S202" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T202" s="7"/>
       <c r="U202" s="6"/>
-      <c r="V202" s="7"/>
-      <c r="W202" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V202" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W202" s="6"/>
       <c r="X202" s="7"/>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
@@ -15145,16 +15145,16 @@
       <c r="O203" s="6"/>
       <c r="P203" s="7"/>
       <c r="Q203" s="6"/>
-      <c r="R203" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S203" s="6"/>
+      <c r="R203" s="7"/>
+      <c r="S203" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T203" s="7"/>
       <c r="U203" s="6"/>
-      <c r="V203" s="7"/>
-      <c r="W203" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V203" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W203" s="6"/>
       <c r="X203" s="7"/>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
@@ -15203,16 +15203,16 @@
       <c r="O204" s="6"/>
       <c r="P204" s="7"/>
       <c r="Q204" s="6"/>
-      <c r="R204" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S204" s="6"/>
+      <c r="R204" s="7"/>
+      <c r="S204" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T204" s="7"/>
       <c r="U204" s="6"/>
-      <c r="V204" s="7"/>
-      <c r="W204" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V204" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W204" s="6"/>
       <c r="X204" s="7"/>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
@@ -15261,16 +15261,16 @@
       <c r="O205" s="2"/>
       <c r="P205" s="3"/>
       <c r="Q205" s="2"/>
-      <c r="R205" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S205" s="2"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T205" s="3"/>
       <c r="U205" s="2"/>
-      <c r="V205" s="3"/>
-      <c r="W205" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V205" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W205" s="2"/>
       <c r="X205" s="3"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
@@ -15323,16 +15323,16 @@
       <c r="O206" s="6"/>
       <c r="P206" s="7"/>
       <c r="Q206" s="6"/>
-      <c r="R206" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S206" s="6"/>
+      <c r="R206" s="7"/>
+      <c r="S206" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T206" s="7"/>
       <c r="U206" s="6"/>
-      <c r="V206" s="7"/>
-      <c r="W206" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V206" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W206" s="6"/>
       <c r="X206" s="7"/>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
@@ -15385,16 +15385,16 @@
       <c r="O207" s="6"/>
       <c r="P207" s="7"/>
       <c r="Q207" s="6"/>
-      <c r="R207" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S207" s="6"/>
+      <c r="R207" s="7"/>
+      <c r="S207" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T207" s="7"/>
       <c r="U207" s="6"/>
-      <c r="V207" s="7"/>
-      <c r="W207" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V207" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W207" s="6"/>
       <c r="X207" s="7"/>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
@@ -15447,16 +15447,16 @@
       <c r="O208" s="6"/>
       <c r="P208" s="7"/>
       <c r="Q208" s="6"/>
-      <c r="R208" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S208" s="6"/>
+      <c r="R208" s="7"/>
+      <c r="S208" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T208" s="7"/>
       <c r="U208" s="6"/>
-      <c r="V208" s="7"/>
-      <c r="W208" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V208" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W208" s="6"/>
       <c r="X208" s="7"/>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
@@ -15509,16 +15509,16 @@
       <c r="O209" s="2"/>
       <c r="P209" s="3"/>
       <c r="Q209" s="2"/>
-      <c r="R209" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S209" s="2"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T209" s="3"/>
       <c r="U209" s="2"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V209" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W209" s="2"/>
       <c r="X209" s="3"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
@@ -15571,16 +15571,16 @@
       <c r="O210" s="6"/>
       <c r="P210" s="7"/>
       <c r="Q210" s="6"/>
-      <c r="R210" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S210" s="6"/>
+      <c r="R210" s="7"/>
+      <c r="S210" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T210" s="7"/>
       <c r="U210" s="6"/>
-      <c r="V210" s="7"/>
-      <c r="W210" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V210" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W210" s="6"/>
       <c r="X210" s="7"/>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
@@ -15633,16 +15633,16 @@
       <c r="O211" s="6"/>
       <c r="P211" s="7"/>
       <c r="Q211" s="6"/>
-      <c r="R211" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S211" s="6"/>
+      <c r="R211" s="7"/>
+      <c r="S211" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T211" s="7"/>
       <c r="U211" s="6"/>
-      <c r="V211" s="7"/>
-      <c r="W211" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V211" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W211" s="6"/>
       <c r="X211" s="7"/>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
@@ -15695,16 +15695,16 @@
       <c r="O212" s="6"/>
       <c r="P212" s="7"/>
       <c r="Q212" s="6"/>
-      <c r="R212" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S212" s="6"/>
+      <c r="R212" s="7"/>
+      <c r="S212" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T212" s="7"/>
       <c r="U212" s="6"/>
-      <c r="V212" s="7"/>
-      <c r="W212" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V212" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W212" s="6"/>
       <c r="X212" s="7"/>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
@@ -15757,16 +15757,16 @@
       <c r="O213" s="6"/>
       <c r="P213" s="7"/>
       <c r="Q213" s="6"/>
-      <c r="R213" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S213" s="6"/>
+      <c r="R213" s="7"/>
+      <c r="S213" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T213" s="7"/>
       <c r="U213" s="6"/>
-      <c r="V213" s="7"/>
-      <c r="W213" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V213" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W213" s="6"/>
       <c r="X213" s="7"/>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
@@ -15819,16 +15819,16 @@
       <c r="O214" s="2"/>
       <c r="P214" s="3"/>
       <c r="Q214" s="2"/>
-      <c r="R214" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S214" s="2"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T214" s="3"/>
       <c r="U214" s="2"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V214" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W214" s="2"/>
       <c r="X214" s="3"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
@@ -15881,16 +15881,16 @@
       <c r="O215" s="6"/>
       <c r="P215" s="7"/>
       <c r="Q215" s="6"/>
-      <c r="R215" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S215" s="6"/>
+      <c r="R215" s="7"/>
+      <c r="S215" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T215" s="7"/>
       <c r="U215" s="6"/>
-      <c r="V215" s="7"/>
-      <c r="W215" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V215" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W215" s="6"/>
       <c r="X215" s="7"/>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
@@ -15943,16 +15943,16 @@
       <c r="O216" s="6"/>
       <c r="P216" s="7"/>
       <c r="Q216" s="6"/>
-      <c r="R216" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S216" s="6"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T216" s="7"/>
       <c r="U216" s="6"/>
-      <c r="V216" s="7"/>
-      <c r="W216" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V216" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W216" s="6"/>
       <c r="X216" s="7"/>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
@@ -16005,16 +16005,16 @@
       <c r="O217" s="6"/>
       <c r="P217" s="7"/>
       <c r="Q217" s="6"/>
-      <c r="R217" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S217" s="6"/>
+      <c r="R217" s="7"/>
+      <c r="S217" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T217" s="7"/>
       <c r="U217" s="6"/>
-      <c r="V217" s="7"/>
-      <c r="W217" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V217" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W217" s="6"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
@@ -16067,16 +16067,16 @@
       <c r="O218" s="2"/>
       <c r="P218" s="3"/>
       <c r="Q218" s="2"/>
-      <c r="R218" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S218" s="2"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T218" s="3"/>
       <c r="U218" s="2"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V218" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W218" s="2"/>
       <c r="X218" s="3"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
@@ -16125,16 +16125,16 @@
       <c r="O219" s="6"/>
       <c r="P219" s="7"/>
       <c r="Q219" s="6"/>
-      <c r="R219" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S219" s="6"/>
+      <c r="R219" s="7"/>
+      <c r="S219" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T219" s="7"/>
       <c r="U219" s="6"/>
-      <c r="V219" s="7"/>
-      <c r="W219" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V219" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W219" s="6"/>
       <c r="X219" s="7"/>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
@@ -16183,16 +16183,16 @@
       <c r="O220" s="6"/>
       <c r="P220" s="7"/>
       <c r="Q220" s="6"/>
-      <c r="R220" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S220" s="6"/>
+      <c r="R220" s="7"/>
+      <c r="S220" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T220" s="7"/>
       <c r="U220" s="6"/>
-      <c r="V220" s="7"/>
-      <c r="W220" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V220" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W220" s="6"/>
       <c r="X220" s="7"/>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
@@ -16241,16 +16241,16 @@
       <c r="O221" s="6"/>
       <c r="P221" s="7"/>
       <c r="Q221" s="6"/>
-      <c r="R221" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S221" s="6"/>
+      <c r="R221" s="7"/>
+      <c r="S221" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T221" s="7"/>
       <c r="U221" s="6"/>
-      <c r="V221" s="7"/>
-      <c r="W221" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V221" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W221" s="6"/>
       <c r="X221" s="7"/>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
@@ -16299,16 +16299,16 @@
       <c r="O222" s="6"/>
       <c r="P222" s="7"/>
       <c r="Q222" s="6"/>
-      <c r="R222" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S222" s="6"/>
+      <c r="R222" s="7"/>
+      <c r="S222" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T222" s="7"/>
       <c r="U222" s="6"/>
-      <c r="V222" s="7"/>
-      <c r="W222" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V222" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W222" s="6"/>
       <c r="X222" s="7"/>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
@@ -16357,16 +16357,16 @@
       <c r="O223" s="6"/>
       <c r="P223" s="7"/>
       <c r="Q223" s="6"/>
-      <c r="R223" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S223" s="6"/>
+      <c r="R223" s="7"/>
+      <c r="S223" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T223" s="7"/>
       <c r="U223" s="6"/>
-      <c r="V223" s="7"/>
-      <c r="W223" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V223" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W223" s="6"/>
       <c r="X223" s="7"/>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -16415,16 +16415,16 @@
       <c r="O224" s="6"/>
       <c r="P224" s="7"/>
       <c r="Q224" s="6"/>
-      <c r="R224" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S224" s="6"/>
+      <c r="R224" s="7"/>
+      <c r="S224" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T224" s="7"/>
       <c r="U224" s="6"/>
-      <c r="V224" s="7"/>
-      <c r="W224" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V224" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W224" s="6"/>
       <c r="X224" s="7"/>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -16473,16 +16473,16 @@
       <c r="O225" s="6"/>
       <c r="P225" s="7"/>
       <c r="Q225" s="6"/>
-      <c r="R225" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S225" s="6"/>
+      <c r="R225" s="7"/>
+      <c r="S225" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T225" s="7"/>
       <c r="U225" s="6"/>
-      <c r="V225" s="7"/>
-      <c r="W225" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V225" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W225" s="6"/>
       <c r="X225" s="7"/>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
@@ -16531,16 +16531,16 @@
       <c r="O226" s="6"/>
       <c r="P226" s="7"/>
       <c r="Q226" s="6"/>
-      <c r="R226" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S226" s="6"/>
+      <c r="R226" s="7"/>
+      <c r="S226" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T226" s="7"/>
       <c r="U226" s="6"/>
-      <c r="V226" s="7"/>
-      <c r="W226" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V226" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W226" s="6"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
@@ -16589,16 +16589,16 @@
       <c r="O227" s="6"/>
       <c r="P227" s="7"/>
       <c r="Q227" s="6"/>
-      <c r="R227" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S227" s="6"/>
+      <c r="R227" s="7"/>
+      <c r="S227" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T227" s="7"/>
       <c r="U227" s="6"/>
-      <c r="V227" s="7"/>
-      <c r="W227" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V227" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W227" s="6"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
@@ -16647,16 +16647,16 @@
       <c r="O228" s="6"/>
       <c r="P228" s="7"/>
       <c r="Q228" s="6"/>
-      <c r="R228" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S228" s="6"/>
+      <c r="R228" s="7"/>
+      <c r="S228" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T228" s="7"/>
       <c r="U228" s="6"/>
-      <c r="V228" s="7"/>
-      <c r="W228" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V228" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W228" s="6"/>
       <c r="X228" s="7"/>
       <c r="Y228" s="6"/>
       <c r="Z228" s="6"/>
@@ -16705,16 +16705,16 @@
       <c r="O229" s="6"/>
       <c r="P229" s="7"/>
       <c r="Q229" s="6"/>
-      <c r="R229" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S229" s="6"/>
+      <c r="R229" s="7"/>
+      <c r="S229" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T229" s="7"/>
       <c r="U229" s="6"/>
-      <c r="V229" s="7"/>
-      <c r="W229" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V229" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W229" s="6"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
@@ -16763,16 +16763,16 @@
       <c r="O230" s="6"/>
       <c r="P230" s="7"/>
       <c r="Q230" s="6"/>
-      <c r="R230" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S230" s="6"/>
+      <c r="R230" s="7"/>
+      <c r="S230" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T230" s="7"/>
       <c r="U230" s="6"/>
-      <c r="V230" s="7"/>
-      <c r="W230" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V230" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W230" s="6"/>
       <c r="X230" s="7"/>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
@@ -16821,16 +16821,16 @@
       <c r="O231" s="6"/>
       <c r="P231" s="7"/>
       <c r="Q231" s="6"/>
-      <c r="R231" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S231" s="6"/>
+      <c r="R231" s="7"/>
+      <c r="S231" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T231" s="7"/>
       <c r="U231" s="6"/>
-      <c r="V231" s="7"/>
-      <c r="W231" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V231" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W231" s="6"/>
       <c r="X231" s="7"/>
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
@@ -16879,16 +16879,16 @@
       <c r="O232" s="6"/>
       <c r="P232" s="7"/>
       <c r="Q232" s="6"/>
-      <c r="R232" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S232" s="6"/>
+      <c r="R232" s="7"/>
+      <c r="S232" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T232" s="7"/>
       <c r="U232" s="6"/>
-      <c r="V232" s="7"/>
-      <c r="W232" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V232" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W232" s="6"/>
       <c r="X232" s="7"/>
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
@@ -16937,16 +16937,16 @@
       <c r="O233" s="6"/>
       <c r="P233" s="7"/>
       <c r="Q233" s="6"/>
-      <c r="R233" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S233" s="6"/>
+      <c r="R233" s="7"/>
+      <c r="S233" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T233" s="7"/>
       <c r="U233" s="6"/>
-      <c r="V233" s="7"/>
-      <c r="W233" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V233" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W233" s="6"/>
       <c r="X233" s="7"/>
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
@@ -16995,16 +16995,16 @@
       <c r="O234" s="6"/>
       <c r="P234" s="7"/>
       <c r="Q234" s="6"/>
-      <c r="R234" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S234" s="6"/>
+      <c r="R234" s="7"/>
+      <c r="S234" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T234" s="7"/>
       <c r="U234" s="6"/>
-      <c r="V234" s="7"/>
-      <c r="W234" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V234" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W234" s="6"/>
       <c r="X234" s="7"/>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
@@ -17053,16 +17053,16 @@
       <c r="O235" s="6"/>
       <c r="P235" s="7"/>
       <c r="Q235" s="6"/>
-      <c r="R235" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S235" s="6"/>
+      <c r="R235" s="7"/>
+      <c r="S235" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T235" s="7"/>
       <c r="U235" s="6"/>
-      <c r="V235" s="7"/>
-      <c r="W235" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V235" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W235" s="6"/>
       <c r="X235" s="7"/>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
@@ -17111,16 +17111,16 @@
       <c r="O236" s="6"/>
       <c r="P236" s="7"/>
       <c r="Q236" s="6"/>
-      <c r="R236" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S236" s="6"/>
+      <c r="R236" s="7"/>
+      <c r="S236" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T236" s="7"/>
       <c r="U236" s="6"/>
-      <c r="V236" s="7"/>
-      <c r="W236" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V236" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W236" s="6"/>
       <c r="X236" s="7"/>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
@@ -17169,16 +17169,16 @@
       <c r="O237" s="6"/>
       <c r="P237" s="7"/>
       <c r="Q237" s="6"/>
-      <c r="R237" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S237" s="6"/>
+      <c r="R237" s="7"/>
+      <c r="S237" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T237" s="7"/>
       <c r="U237" s="6"/>
-      <c r="V237" s="7"/>
-      <c r="W237" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V237" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W237" s="6"/>
       <c r="X237" s="7"/>
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
@@ -17227,16 +17227,16 @@
       <c r="O238" s="6"/>
       <c r="P238" s="7"/>
       <c r="Q238" s="6"/>
-      <c r="R238" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S238" s="6"/>
+      <c r="R238" s="7"/>
+      <c r="S238" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T238" s="7"/>
       <c r="U238" s="6"/>
-      <c r="V238" s="7"/>
-      <c r="W238" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V238" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W238" s="6"/>
       <c r="X238" s="7"/>
       <c r="Y238" s="6"/>
       <c r="Z238" s="6"/>
@@ -17285,16 +17285,16 @@
       <c r="O239" s="6"/>
       <c r="P239" s="7"/>
       <c r="Q239" s="6"/>
-      <c r="R239" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S239" s="6"/>
+      <c r="R239" s="7"/>
+      <c r="S239" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T239" s="7"/>
       <c r="U239" s="6"/>
-      <c r="V239" s="7"/>
-      <c r="W239" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V239" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W239" s="6"/>
       <c r="X239" s="7"/>
       <c r="Y239" s="6"/>
       <c r="Z239" s="6"/>
@@ -17343,16 +17343,16 @@
       <c r="O240" s="6"/>
       <c r="P240" s="7"/>
       <c r="Q240" s="6"/>
-      <c r="R240" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S240" s="6"/>
+      <c r="R240" s="7"/>
+      <c r="S240" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T240" s="7"/>
       <c r="U240" s="6"/>
-      <c r="V240" s="7"/>
-      <c r="W240" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V240" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W240" s="6"/>
       <c r="X240" s="7"/>
       <c r="Y240" s="6"/>
       <c r="Z240" s="6"/>
@@ -17401,16 +17401,16 @@
       <c r="O241" s="6"/>
       <c r="P241" s="7"/>
       <c r="Q241" s="6"/>
-      <c r="R241" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S241" s="6"/>
+      <c r="R241" s="7"/>
+      <c r="S241" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T241" s="7"/>
       <c r="U241" s="6"/>
-      <c r="V241" s="7"/>
-      <c r="W241" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V241" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W241" s="6"/>
       <c r="X241" s="7"/>
       <c r="Y241" s="6"/>
       <c r="Z241" s="6"/>
@@ -17459,16 +17459,16 @@
       <c r="O242" s="6"/>
       <c r="P242" s="7"/>
       <c r="Q242" s="6"/>
-      <c r="R242" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S242" s="6"/>
+      <c r="R242" s="7"/>
+      <c r="S242" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T242" s="7"/>
       <c r="U242" s="6"/>
-      <c r="V242" s="7"/>
-      <c r="W242" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V242" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W242" s="6"/>
       <c r="X242" s="7"/>
       <c r="Y242" s="6"/>
       <c r="Z242" s="6"/>
@@ -17517,16 +17517,16 @@
       <c r="O243" s="6"/>
       <c r="P243" s="7"/>
       <c r="Q243" s="6"/>
-      <c r="R243" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S243" s="6"/>
+      <c r="R243" s="7"/>
+      <c r="S243" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T243" s="7"/>
       <c r="U243" s="6"/>
-      <c r="V243" s="7"/>
-      <c r="W243" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V243" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W243" s="6"/>
       <c r="X243" s="7"/>
       <c r="Y243" s="6"/>
       <c r="Z243" s="6"/>
@@ -17575,16 +17575,16 @@
       <c r="O244" s="6"/>
       <c r="P244" s="7"/>
       <c r="Q244" s="6"/>
-      <c r="R244" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S244" s="6"/>
+      <c r="R244" s="7"/>
+      <c r="S244" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T244" s="7"/>
       <c r="U244" s="6"/>
-      <c r="V244" s="7"/>
-      <c r="W244" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V244" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W244" s="6"/>
       <c r="X244" s="7"/>
       <c r="Y244" s="6"/>
       <c r="Z244" s="6"/>
@@ -17633,16 +17633,16 @@
       <c r="O245" s="6"/>
       <c r="P245" s="7"/>
       <c r="Q245" s="6"/>
-      <c r="R245" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S245" s="6"/>
+      <c r="R245" s="7"/>
+      <c r="S245" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T245" s="7"/>
       <c r="U245" s="6"/>
-      <c r="V245" s="7"/>
-      <c r="W245" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V245" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W245" s="6"/>
       <c r="X245" s="7"/>
       <c r="Y245" s="6"/>
       <c r="Z245" s="6"/>
@@ -17691,16 +17691,16 @@
       <c r="O246" s="6"/>
       <c r="P246" s="7"/>
       <c r="Q246" s="6"/>
-      <c r="R246" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S246" s="6"/>
+      <c r="R246" s="7"/>
+      <c r="S246" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T246" s="7"/>
       <c r="U246" s="6"/>
-      <c r="V246" s="7"/>
-      <c r="W246" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V246" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W246" s="6"/>
       <c r="X246" s="7"/>
       <c r="Y246" s="6"/>
       <c r="Z246" s="6"/>
@@ -17749,16 +17749,16 @@
       <c r="O247" s="6"/>
       <c r="P247" s="7"/>
       <c r="Q247" s="6"/>
-      <c r="R247" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S247" s="6"/>
+      <c r="R247" s="7"/>
+      <c r="S247" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T247" s="7"/>
       <c r="U247" s="6"/>
-      <c r="V247" s="7"/>
-      <c r="W247" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V247" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W247" s="6"/>
       <c r="X247" s="7"/>
       <c r="Y247" s="6"/>
       <c r="Z247" s="6"/>
@@ -17807,16 +17807,16 @@
       <c r="O248" s="6"/>
       <c r="P248" s="7"/>
       <c r="Q248" s="6"/>
-      <c r="R248" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S248" s="6"/>
+      <c r="R248" s="7"/>
+      <c r="S248" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T248" s="7"/>
       <c r="U248" s="6"/>
-      <c r="V248" s="7"/>
-      <c r="W248" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V248" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W248" s="6"/>
       <c r="X248" s="7"/>
       <c r="Y248" s="6"/>
       <c r="Z248" s="6"/>
@@ -17865,16 +17865,16 @@
       <c r="O249" s="6"/>
       <c r="P249" s="7"/>
       <c r="Q249" s="6"/>
-      <c r="R249" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S249" s="6"/>
+      <c r="R249" s="7"/>
+      <c r="S249" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T249" s="7"/>
       <c r="U249" s="6"/>
-      <c r="V249" s="7"/>
-      <c r="W249" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V249" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W249" s="6"/>
       <c r="X249" s="7"/>
       <c r="Y249" s="6"/>
       <c r="Z249" s="6"/>
@@ -17923,16 +17923,16 @@
       <c r="O250" s="6"/>
       <c r="P250" s="7"/>
       <c r="Q250" s="6"/>
-      <c r="R250" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S250" s="6"/>
+      <c r="R250" s="7"/>
+      <c r="S250" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T250" s="7"/>
       <c r="U250" s="6"/>
-      <c r="V250" s="7"/>
-      <c r="W250" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V250" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W250" s="6"/>
       <c r="X250" s="7"/>
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
@@ -17981,16 +17981,16 @@
       <c r="O251" s="6"/>
       <c r="P251" s="7"/>
       <c r="Q251" s="6"/>
-      <c r="R251" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S251" s="6"/>
+      <c r="R251" s="7"/>
+      <c r="S251" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T251" s="7"/>
       <c r="U251" s="6"/>
-      <c r="V251" s="7"/>
-      <c r="W251" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V251" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W251" s="6"/>
       <c r="X251" s="7"/>
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
@@ -18039,13 +18039,13 @@
       <c r="O252" s="6"/>
       <c r="P252" s="7"/>
       <c r="Q252" s="6"/>
-      <c r="R252" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R252" s="7"/>
       <c r="S252" s="6"/>
       <c r="T252" s="7"/>
       <c r="U252" s="6"/>
-      <c r="V252" s="7"/>
+      <c r="V252" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W252" s="6"/>
       <c r="X252" s="7"/>
       <c r="Y252" s="6"/>
@@ -18097,13 +18097,13 @@
       <c r="O253" s="6"/>
       <c r="P253" s="7"/>
       <c r="Q253" s="6"/>
-      <c r="R253" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R253" s="7"/>
       <c r="S253" s="6"/>
       <c r="T253" s="7"/>
       <c r="U253" s="6"/>
-      <c r="V253" s="7"/>
+      <c r="V253" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W253" s="6"/>
       <c r="X253" s="7"/>
       <c r="Y253" s="6"/>
@@ -18155,16 +18155,16 @@
       <c r="O254" s="6"/>
       <c r="P254" s="7"/>
       <c r="Q254" s="6"/>
-      <c r="R254" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S254" s="6"/>
+      <c r="R254" s="7"/>
+      <c r="S254" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T254" s="7"/>
       <c r="U254" s="6"/>
-      <c r="V254" s="7"/>
-      <c r="W254" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V254" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W254" s="6"/>
       <c r="X254" s="7"/>
       <c r="Y254" s="6"/>
       <c r="Z254" s="6"/>
@@ -18215,16 +18215,16 @@
       <c r="O255" s="2"/>
       <c r="P255" s="3"/>
       <c r="Q255" s="2"/>
-      <c r="R255" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S255" s="2"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T255" s="3"/>
       <c r="U255" s="2"/>
-      <c r="V255" s="3"/>
-      <c r="W255" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V255" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W255" s="2"/>
       <c r="X255" s="3"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
@@ -18273,16 +18273,16 @@
       <c r="O256" s="6"/>
       <c r="P256" s="7"/>
       <c r="Q256" s="6"/>
-      <c r="R256" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S256" s="6"/>
+      <c r="R256" s="7"/>
+      <c r="S256" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T256" s="7"/>
       <c r="U256" s="6"/>
-      <c r="V256" s="7"/>
-      <c r="W256" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V256" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W256" s="6"/>
       <c r="X256" s="7"/>
       <c r="Y256" s="6"/>
       <c r="Z256" s="6"/>
@@ -18331,16 +18331,16 @@
       <c r="O257" s="6"/>
       <c r="P257" s="7"/>
       <c r="Q257" s="6"/>
-      <c r="R257" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S257" s="6"/>
+      <c r="R257" s="7"/>
+      <c r="S257" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T257" s="7"/>
       <c r="U257" s="6"/>
-      <c r="V257" s="7"/>
-      <c r="W257" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V257" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W257" s="6"/>
       <c r="X257" s="7"/>
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
@@ -18389,16 +18389,16 @@
       <c r="O258" s="6"/>
       <c r="P258" s="7"/>
       <c r="Q258" s="6"/>
-      <c r="R258" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S258" s="6"/>
+      <c r="R258" s="7"/>
+      <c r="S258" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T258" s="7"/>
       <c r="U258" s="6"/>
-      <c r="V258" s="7"/>
-      <c r="W258" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V258" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W258" s="6"/>
       <c r="X258" s="7"/>
       <c r="Y258" s="6"/>
       <c r="Z258" s="6"/>
@@ -18447,16 +18447,16 @@
       <c r="O259" s="6"/>
       <c r="P259" s="7"/>
       <c r="Q259" s="6"/>
-      <c r="R259" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S259" s="6"/>
+      <c r="R259" s="7"/>
+      <c r="S259" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T259" s="7"/>
       <c r="U259" s="6"/>
-      <c r="V259" s="7"/>
-      <c r="W259" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V259" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W259" s="6"/>
       <c r="X259" s="7"/>
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
@@ -18509,16 +18509,16 @@
       <c r="O260" s="6"/>
       <c r="P260" s="7"/>
       <c r="Q260" s="6"/>
-      <c r="R260" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S260" s="6"/>
+      <c r="R260" s="7"/>
+      <c r="S260" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T260" s="7"/>
       <c r="U260" s="6"/>
-      <c r="V260" s="7"/>
-      <c r="W260" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V260" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W260" s="6"/>
       <c r="X260" s="7"/>
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
@@ -18571,16 +18571,16 @@
       <c r="O261" s="6"/>
       <c r="P261" s="7"/>
       <c r="Q261" s="6"/>
-      <c r="R261" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S261" s="6"/>
+      <c r="R261" s="7"/>
+      <c r="S261" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T261" s="7"/>
       <c r="U261" s="6"/>
-      <c r="V261" s="7"/>
-      <c r="W261" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V261" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W261" s="6"/>
       <c r="X261" s="7"/>
       <c r="Y261" s="6"/>
       <c r="Z261" s="6"/>
@@ -18630,22 +18630,22 @@
         <v>36</v>
       </c>
       <c r="N262" s="3"/>
-      <c r="O262" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P262" s="3"/>
+      <c r="O262" s="2"/>
+      <c r="P262" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q262" s="2"/>
       <c r="R262" s="3"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="3"/>
+      <c r="S262" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T262" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U262" s="2"/>
       <c r="V262" s="3"/>
-      <c r="W262" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X262" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="W262" s="2"/>
+      <c r="X262" s="3"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
       <c r="AA262" s="2" t="s">
@@ -18692,22 +18692,22 @@
         <v>36</v>
       </c>
       <c r="N263" s="7"/>
-      <c r="O263" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P263" s="7"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q263" s="6"/>
       <c r="R263" s="7"/>
-      <c r="S263" s="6"/>
-      <c r="T263" s="7"/>
+      <c r="S263" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T263" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U263" s="6"/>
       <c r="V263" s="7"/>
-      <c r="W263" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X263" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W263" s="6"/>
+      <c r="X263" s="7"/>
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
       <c r="AA263" s="6" t="s">
@@ -18754,22 +18754,22 @@
         <v>36</v>
       </c>
       <c r="N264" s="7"/>
-      <c r="O264" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P264" s="7"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q264" s="6"/>
       <c r="R264" s="7"/>
-      <c r="S264" s="6"/>
-      <c r="T264" s="7"/>
+      <c r="S264" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T264" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U264" s="6"/>
       <c r="V264" s="7"/>
-      <c r="W264" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="X264" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="W264" s="6"/>
+      <c r="X264" s="7"/>
       <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
       <c r="AA264" s="6" t="s">
@@ -18816,21 +18816,21 @@
         <v>36</v>
       </c>
       <c r="N265" s="3"/>
-      <c r="O265" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P265" s="3"/>
-      <c r="Q265" s="2"/>
+      <c r="O265" s="2"/>
+      <c r="P265" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q265" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R265" s="3"/>
-      <c r="S265" s="2"/>
+      <c r="S265" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T265" s="3"/>
-      <c r="U265" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U265" s="2"/>
       <c r="V265" s="3"/>
-      <c r="W265" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W265" s="2"/>
       <c r="X265" s="3"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
@@ -18878,21 +18878,21 @@
         <v>36</v>
       </c>
       <c r="N266" s="7"/>
-      <c r="O266" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P266" s="7"/>
-      <c r="Q266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q266" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R266" s="7"/>
-      <c r="S266" s="6"/>
+      <c r="S266" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T266" s="7"/>
-      <c r="U266" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U266" s="6"/>
       <c r="V266" s="7"/>
-      <c r="W266" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W266" s="6"/>
       <c r="X266" s="7"/>
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
@@ -18940,21 +18940,21 @@
         <v>36</v>
       </c>
       <c r="N267" s="7"/>
-      <c r="O267" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P267" s="7"/>
-      <c r="Q267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q267" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R267" s="7"/>
-      <c r="S267" s="6"/>
+      <c r="S267" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T267" s="7"/>
-      <c r="U267" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U267" s="6"/>
       <c r="V267" s="7"/>
-      <c r="W267" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W267" s="6"/>
       <c r="X267" s="7"/>
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
@@ -19002,21 +19002,21 @@
         <v>36</v>
       </c>
       <c r="N268" s="3"/>
-      <c r="O268" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P268" s="3"/>
+      <c r="O268" s="2"/>
+      <c r="P268" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q268" s="2"/>
-      <c r="R268" s="3"/>
-      <c r="S268" s="2"/>
+      <c r="R268" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S268" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T268" s="3"/>
       <c r="U268" s="2"/>
-      <c r="V268" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W268" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V268" s="3"/>
+      <c r="W268" s="2"/>
       <c r="X268" s="3"/>
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
@@ -19064,21 +19064,21 @@
         <v>36</v>
       </c>
       <c r="N269" s="7"/>
-      <c r="O269" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P269" s="7"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q269" s="6"/>
-      <c r="R269" s="7"/>
-      <c r="S269" s="6"/>
+      <c r="R269" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S269" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T269" s="7"/>
       <c r="U269" s="6"/>
-      <c r="V269" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W269" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V269" s="7"/>
+      <c r="W269" s="6"/>
       <c r="X269" s="7"/>
       <c r="Y269" s="6"/>
       <c r="Z269" s="6"/>
@@ -19126,21 +19126,21 @@
         <v>36</v>
       </c>
       <c r="N270" s="7"/>
-      <c r="O270" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P270" s="7"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q270" s="6"/>
-      <c r="R270" s="7"/>
-      <c r="S270" s="6"/>
+      <c r="R270" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S270" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T270" s="7"/>
       <c r="U270" s="6"/>
-      <c r="V270" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W270" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V270" s="7"/>
+      <c r="W270" s="6"/>
       <c r="X270" s="7"/>
       <c r="Y270" s="6"/>
       <c r="Z270" s="6"/>
@@ -19188,19 +19188,19 @@
         <v>36</v>
       </c>
       <c r="N271" s="3"/>
-      <c r="O271" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P271" s="3"/>
+      <c r="O271" s="2"/>
+      <c r="P271" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q271" s="2"/>
       <c r="R271" s="3"/>
-      <c r="S271" s="4" t="s">
+      <c r="S271" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T271" s="3"/>
       <c r="U271" s="2"/>
       <c r="V271" s="3"/>
-      <c r="W271" s="2" t="s">
+      <c r="W271" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X271" s="3"/>
@@ -19250,19 +19250,19 @@
         <v>36</v>
       </c>
       <c r="N272" s="7"/>
-      <c r="O272" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P272" s="7"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q272" s="6"/>
       <c r="R272" s="7"/>
-      <c r="S272" s="8" t="s">
+      <c r="S272" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T272" s="7"/>
       <c r="U272" s="6"/>
       <c r="V272" s="7"/>
-      <c r="W272" s="6" t="s">
+      <c r="W272" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X272" s="7"/>
@@ -19312,19 +19312,19 @@
         <v>36</v>
       </c>
       <c r="N273" s="7"/>
-      <c r="O273" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P273" s="7"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q273" s="6"/>
       <c r="R273" s="7"/>
-      <c r="S273" s="8" t="s">
+      <c r="S273" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T273" s="7"/>
       <c r="U273" s="6"/>
       <c r="V273" s="7"/>
-      <c r="W273" s="6" t="s">
+      <c r="W273" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X273" s="7"/>
@@ -19374,23 +19374,23 @@
         <v>36</v>
       </c>
       <c r="N274" s="3"/>
-      <c r="O274" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P274" s="3"/>
+      <c r="O274" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P274" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q274" s="2"/>
       <c r="R274" s="3"/>
-      <c r="S274" s="2"/>
+      <c r="S274" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T274" s="3"/>
       <c r="U274" s="2"/>
       <c r="V274" s="3"/>
-      <c r="W274" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W274" s="2"/>
       <c r="X274" s="3"/>
-      <c r="Y274" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
       <c r="AA274" s="2" t="s">
         <v>37</v>
@@ -19436,23 +19436,23 @@
         <v>36</v>
       </c>
       <c r="N275" s="7"/>
-      <c r="O275" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P275" s="7"/>
+      <c r="O275" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P275" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q275" s="6"/>
       <c r="R275" s="7"/>
-      <c r="S275" s="6"/>
+      <c r="S275" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T275" s="7"/>
       <c r="U275" s="6"/>
       <c r="V275" s="7"/>
-      <c r="W275" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W275" s="6"/>
       <c r="X275" s="7"/>
-      <c r="Y275" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y275" s="6"/>
       <c r="Z275" s="6"/>
       <c r="AA275" s="6" t="s">
         <v>37</v>
@@ -19498,23 +19498,23 @@
         <v>36</v>
       </c>
       <c r="N276" s="7"/>
-      <c r="O276" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P276" s="7"/>
+      <c r="O276" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P276" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q276" s="6"/>
       <c r="R276" s="7"/>
-      <c r="S276" s="6"/>
+      <c r="S276" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T276" s="7"/>
       <c r="U276" s="6"/>
       <c r="V276" s="7"/>
-      <c r="W276" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W276" s="6"/>
       <c r="X276" s="7"/>
-      <c r="Y276" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y276" s="6"/>
       <c r="Z276" s="6"/>
       <c r="AA276" s="6" t="s">
         <v>37</v>
@@ -19560,19 +19560,19 @@
         <v>36</v>
       </c>
       <c r="N277" s="3"/>
-      <c r="O277" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P277" s="3"/>
+      <c r="O277" s="2"/>
+      <c r="P277" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q277" s="2"/>
       <c r="R277" s="3"/>
-      <c r="S277" s="2"/>
+      <c r="S277" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T277" s="3"/>
       <c r="U277" s="2"/>
       <c r="V277" s="3"/>
-      <c r="W277" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W277" s="2"/>
       <c r="X277" s="3"/>
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
@@ -19620,19 +19620,19 @@
         <v>36</v>
       </c>
       <c r="N278" s="7"/>
-      <c r="O278" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P278" s="7"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q278" s="6"/>
       <c r="R278" s="7"/>
-      <c r="S278" s="6"/>
+      <c r="S278" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T278" s="7"/>
       <c r="U278" s="6"/>
       <c r="V278" s="7"/>
-      <c r="W278" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W278" s="6"/>
       <c r="X278" s="7"/>
       <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
@@ -19680,19 +19680,19 @@
         <v>36</v>
       </c>
       <c r="N279" s="7"/>
-      <c r="O279" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P279" s="7"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q279" s="6"/>
       <c r="R279" s="7"/>
-      <c r="S279" s="6"/>
+      <c r="S279" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T279" s="7"/>
       <c r="U279" s="6"/>
       <c r="V279" s="7"/>
-      <c r="W279" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W279" s="6"/>
       <c r="X279" s="7"/>
       <c r="Y279" s="6"/>
       <c r="Z279" s="6"/>
@@ -19740,19 +19740,19 @@
         <v>36</v>
       </c>
       <c r="N280" s="3"/>
-      <c r="O280" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P280" s="3"/>
+      <c r="O280" s="2"/>
+      <c r="P280" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q280" s="2"/>
       <c r="R280" s="3"/>
-      <c r="S280" s="4" t="s">
+      <c r="S280" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T280" s="3"/>
       <c r="U280" s="2"/>
       <c r="V280" s="3"/>
-      <c r="W280" s="2" t="s">
+      <c r="W280" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X280" s="3"/>
@@ -19804,19 +19804,19 @@
         <v>36</v>
       </c>
       <c r="N281" s="7"/>
-      <c r="O281" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P281" s="7"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q281" s="6"/>
       <c r="R281" s="7"/>
-      <c r="S281" s="8" t="s">
+      <c r="S281" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T281" s="7"/>
       <c r="U281" s="6"/>
       <c r="V281" s="7"/>
-      <c r="W281" s="6" t="s">
+      <c r="W281" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X281" s="7"/>
@@ -19868,19 +19868,19 @@
         <v>36</v>
       </c>
       <c r="N282" s="7"/>
-      <c r="O282" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P282" s="7"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q282" s="6"/>
       <c r="R282" s="7"/>
-      <c r="S282" s="8" t="s">
+      <c r="S282" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T282" s="7"/>
       <c r="U282" s="6"/>
       <c r="V282" s="7"/>
-      <c r="W282" s="6" t="s">
+      <c r="W282" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X282" s="7"/>
@@ -19932,19 +19932,19 @@
         <v>36</v>
       </c>
       <c r="N283" s="7"/>
-      <c r="O283" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P283" s="7"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q283" s="6"/>
       <c r="R283" s="7"/>
-      <c r="S283" s="8" t="s">
+      <c r="S283" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T283" s="7"/>
       <c r="U283" s="6"/>
       <c r="V283" s="7"/>
-      <c r="W283" s="6" t="s">
+      <c r="W283" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X283" s="7"/>
@@ -19996,19 +19996,19 @@
         <v>36</v>
       </c>
       <c r="N284" s="7"/>
-      <c r="O284" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P284" s="7"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q284" s="6"/>
       <c r="R284" s="7"/>
-      <c r="S284" s="8" t="s">
+      <c r="S284" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T284" s="7"/>
       <c r="U284" s="6"/>
       <c r="V284" s="7"/>
-      <c r="W284" s="6" t="s">
+      <c r="W284" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X284" s="7"/>
@@ -20060,19 +20060,19 @@
         <v>36</v>
       </c>
       <c r="N285" s="7"/>
-      <c r="O285" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P285" s="7"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q285" s="6"/>
       <c r="R285" s="7"/>
-      <c r="S285" s="8" t="s">
+      <c r="S285" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T285" s="7"/>
       <c r="U285" s="6"/>
       <c r="V285" s="7"/>
-      <c r="W285" s="6" t="s">
+      <c r="W285" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X285" s="7"/>
@@ -20124,19 +20124,19 @@
         <v>36</v>
       </c>
       <c r="N286" s="3"/>
-      <c r="O286" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P286" s="3"/>
+      <c r="O286" s="2"/>
+      <c r="P286" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q286" s="2"/>
       <c r="R286" s="3"/>
-      <c r="S286" s="4" t="s">
+      <c r="S286" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T286" s="3"/>
       <c r="U286" s="2"/>
       <c r="V286" s="3"/>
-      <c r="W286" s="2" t="s">
+      <c r="W286" s="9" t="s">
         <v>32</v>
       </c>
       <c r="X286" s="3"/>
@@ -20188,19 +20188,19 @@
         <v>36</v>
       </c>
       <c r="N287" s="7"/>
-      <c r="O287" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P287" s="7"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q287" s="6"/>
       <c r="R287" s="7"/>
-      <c r="S287" s="8" t="s">
+      <c r="S287" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T287" s="7"/>
       <c r="U287" s="6"/>
       <c r="V287" s="7"/>
-      <c r="W287" s="6" t="s">
+      <c r="W287" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X287" s="7"/>
@@ -20252,19 +20252,19 @@
         <v>36</v>
       </c>
       <c r="N288" s="7"/>
-      <c r="O288" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P288" s="7"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q288" s="6"/>
       <c r="R288" s="7"/>
-      <c r="S288" s="8" t="s">
+      <c r="S288" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T288" s="7"/>
       <c r="U288" s="6"/>
       <c r="V288" s="7"/>
-      <c r="W288" s="6" t="s">
+      <c r="W288" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X288" s="7"/>
@@ -20316,19 +20316,19 @@
         <v>36</v>
       </c>
       <c r="N289" s="7"/>
-      <c r="O289" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P289" s="7"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q289" s="6"/>
       <c r="R289" s="7"/>
-      <c r="S289" s="8" t="s">
+      <c r="S289" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T289" s="7"/>
       <c r="U289" s="6"/>
       <c r="V289" s="7"/>
-      <c r="W289" s="6" t="s">
+      <c r="W289" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X289" s="7"/>
@@ -20380,19 +20380,19 @@
         <v>36</v>
       </c>
       <c r="N290" s="7"/>
-      <c r="O290" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P290" s="7"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q290" s="6"/>
       <c r="R290" s="7"/>
-      <c r="S290" s="8" t="s">
+      <c r="S290" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T290" s="7"/>
       <c r="U290" s="6"/>
       <c r="V290" s="7"/>
-      <c r="W290" s="6" t="s">
+      <c r="W290" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X290" s="7"/>
@@ -20444,19 +20444,19 @@
         <v>36</v>
       </c>
       <c r="N291" s="7"/>
-      <c r="O291" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P291" s="7"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q291" s="6"/>
       <c r="R291" s="7"/>
-      <c r="S291" s="8" t="s">
+      <c r="S291" s="6" t="s">
         <v>31</v>
       </c>
       <c r="T291" s="7"/>
       <c r="U291" s="6"/>
       <c r="V291" s="7"/>
-      <c r="W291" s="6" t="s">
+      <c r="W291" s="10" t="s">
         <v>32</v>
       </c>
       <c r="X291" s="7"/>
@@ -20508,21 +20508,21 @@
         <v>36</v>
       </c>
       <c r="N292" s="3"/>
-      <c r="O292" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P292" s="3"/>
-      <c r="Q292" s="2"/>
+      <c r="O292" s="2"/>
+      <c r="P292" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q292" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="R292" s="3"/>
-      <c r="S292" s="2"/>
+      <c r="S292" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T292" s="3"/>
-      <c r="U292" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U292" s="2"/>
       <c r="V292" s="3"/>
-      <c r="W292" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W292" s="2"/>
       <c r="X292" s="3"/>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
@@ -20572,21 +20572,21 @@
         <v>36</v>
       </c>
       <c r="N293" s="7"/>
-      <c r="O293" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P293" s="7"/>
-      <c r="Q293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q293" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R293" s="7"/>
-      <c r="S293" s="6"/>
+      <c r="S293" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T293" s="7"/>
-      <c r="U293" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U293" s="6"/>
       <c r="V293" s="7"/>
-      <c r="W293" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W293" s="6"/>
       <c r="X293" s="7"/>
       <c r="Y293" s="6"/>
       <c r="Z293" s="6"/>
@@ -20636,21 +20636,21 @@
         <v>36</v>
       </c>
       <c r="N294" s="7"/>
-      <c r="O294" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P294" s="7"/>
-      <c r="Q294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q294" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R294" s="7"/>
-      <c r="S294" s="6"/>
+      <c r="S294" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T294" s="7"/>
-      <c r="U294" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U294" s="6"/>
       <c r="V294" s="7"/>
-      <c r="W294" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W294" s="6"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="6"/>
       <c r="Z294" s="6"/>
@@ -20700,21 +20700,21 @@
         <v>36</v>
       </c>
       <c r="N295" s="7"/>
-      <c r="O295" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P295" s="7"/>
-      <c r="Q295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q295" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R295" s="7"/>
-      <c r="S295" s="6"/>
+      <c r="S295" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T295" s="7"/>
-      <c r="U295" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U295" s="6"/>
       <c r="V295" s="7"/>
-      <c r="W295" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W295" s="6"/>
       <c r="X295" s="7"/>
       <c r="Y295" s="6"/>
       <c r="Z295" s="6"/>
@@ -20764,21 +20764,21 @@
         <v>36</v>
       </c>
       <c r="N296" s="7"/>
-      <c r="O296" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P296" s="7"/>
-      <c r="Q296" s="6"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q296" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R296" s="7"/>
-      <c r="S296" s="6"/>
+      <c r="S296" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T296" s="7"/>
-      <c r="U296" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U296" s="6"/>
       <c r="V296" s="7"/>
-      <c r="W296" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W296" s="6"/>
       <c r="X296" s="7"/>
       <c r="Y296" s="6"/>
       <c r="Z296" s="6"/>
@@ -20828,21 +20828,21 @@
         <v>36</v>
       </c>
       <c r="N297" s="7"/>
-      <c r="O297" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P297" s="7"/>
-      <c r="Q297" s="6"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q297" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="R297" s="7"/>
-      <c r="S297" s="6"/>
+      <c r="S297" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T297" s="7"/>
-      <c r="U297" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="U297" s="6"/>
       <c r="V297" s="7"/>
-      <c r="W297" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W297" s="6"/>
       <c r="X297" s="7"/>
       <c r="Y297" s="6"/>
       <c r="Z297" s="6"/>
@@ -20892,21 +20892,21 @@
         <v>36</v>
       </c>
       <c r="N298" s="3"/>
-      <c r="O298" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P298" s="3"/>
+      <c r="O298" s="2"/>
+      <c r="P298" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q298" s="2"/>
-      <c r="R298" s="3"/>
-      <c r="S298" s="2"/>
+      <c r="R298" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S298" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T298" s="3"/>
       <c r="U298" s="2"/>
-      <c r="V298" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W298" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V298" s="3"/>
+      <c r="W298" s="2"/>
       <c r="X298" s="3"/>
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
@@ -20956,21 +20956,21 @@
         <v>36</v>
       </c>
       <c r="N299" s="7"/>
-      <c r="O299" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P299" s="7"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q299" s="6"/>
-      <c r="R299" s="7"/>
-      <c r="S299" s="6"/>
+      <c r="R299" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S299" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T299" s="7"/>
       <c r="U299" s="6"/>
-      <c r="V299" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W299" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V299" s="7"/>
+      <c r="W299" s="6"/>
       <c r="X299" s="7"/>
       <c r="Y299" s="6"/>
       <c r="Z299" s="6"/>
@@ -21020,21 +21020,21 @@
         <v>36</v>
       </c>
       <c r="N300" s="7"/>
-      <c r="O300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P300" s="7"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q300" s="6"/>
-      <c r="R300" s="7"/>
-      <c r="S300" s="6"/>
+      <c r="R300" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S300" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T300" s="7"/>
       <c r="U300" s="6"/>
-      <c r="V300" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W300" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V300" s="7"/>
+      <c r="W300" s="6"/>
       <c r="X300" s="7"/>
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
@@ -21084,21 +21084,21 @@
         <v>36</v>
       </c>
       <c r="N301" s="7"/>
-      <c r="O301" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P301" s="7"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q301" s="6"/>
-      <c r="R301" s="7"/>
-      <c r="S301" s="6"/>
+      <c r="R301" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S301" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T301" s="7"/>
       <c r="U301" s="6"/>
-      <c r="V301" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W301" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V301" s="7"/>
+      <c r="W301" s="6"/>
       <c r="X301" s="7"/>
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
@@ -21148,21 +21148,21 @@
         <v>36</v>
       </c>
       <c r="N302" s="7"/>
-      <c r="O302" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P302" s="7"/>
+      <c r="O302" s="6"/>
+      <c r="P302" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q302" s="6"/>
-      <c r="R302" s="7"/>
-      <c r="S302" s="6"/>
+      <c r="R302" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S302" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T302" s="7"/>
       <c r="U302" s="6"/>
-      <c r="V302" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W302" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V302" s="7"/>
+      <c r="W302" s="6"/>
       <c r="X302" s="7"/>
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
@@ -21212,21 +21212,21 @@
         <v>36</v>
       </c>
       <c r="N303" s="7"/>
-      <c r="O303" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P303" s="7"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q303" s="6"/>
-      <c r="R303" s="7"/>
-      <c r="S303" s="6"/>
+      <c r="R303" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S303" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T303" s="7"/>
       <c r="U303" s="6"/>
-      <c r="V303" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W303" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="V303" s="7"/>
+      <c r="W303" s="6"/>
       <c r="X303" s="7"/>
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
@@ -21276,23 +21276,23 @@
         <v>36</v>
       </c>
       <c r="N304" s="3"/>
-      <c r="O304" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P304" s="3"/>
+      <c r="O304" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P304" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q304" s="2"/>
       <c r="R304" s="3"/>
-      <c r="S304" s="2"/>
+      <c r="S304" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T304" s="3"/>
       <c r="U304" s="2"/>
       <c r="V304" s="3"/>
-      <c r="W304" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="W304" s="2"/>
       <c r="X304" s="3"/>
-      <c r="Y304" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
       <c r="AA304" s="2" t="s">
         <v>94</v>
@@ -21340,23 +21340,23 @@
         <v>36</v>
       </c>
       <c r="N305" s="7"/>
-      <c r="O305" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P305" s="7"/>
+      <c r="O305" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P305" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q305" s="6"/>
       <c r="R305" s="7"/>
-      <c r="S305" s="6"/>
+      <c r="S305" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T305" s="7"/>
       <c r="U305" s="6"/>
       <c r="V305" s="7"/>
-      <c r="W305" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W305" s="6"/>
       <c r="X305" s="7"/>
-      <c r="Y305" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y305" s="6"/>
       <c r="Z305" s="6"/>
       <c r="AA305" s="6" t="s">
         <v>94</v>
@@ -21404,23 +21404,23 @@
         <v>36</v>
       </c>
       <c r="N306" s="7"/>
-      <c r="O306" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P306" s="7"/>
+      <c r="O306" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P306" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q306" s="6"/>
       <c r="R306" s="7"/>
-      <c r="S306" s="6"/>
+      <c r="S306" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T306" s="7"/>
       <c r="U306" s="6"/>
       <c r="V306" s="7"/>
-      <c r="W306" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W306" s="6"/>
       <c r="X306" s="7"/>
-      <c r="Y306" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y306" s="6"/>
       <c r="Z306" s="6"/>
       <c r="AA306" s="6" t="s">
         <v>94</v>
@@ -21468,23 +21468,23 @@
         <v>36</v>
       </c>
       <c r="N307" s="7"/>
-      <c r="O307" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P307" s="7"/>
+      <c r="O307" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P307" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q307" s="6"/>
       <c r="R307" s="7"/>
-      <c r="S307" s="6"/>
+      <c r="S307" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="T307" s="7"/>
       <c r="U307" s="6"/>
       <c r="V307" s="7"/>
-      <c r="W307" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W307" s="6"/>
       <c r="X307" s="7"/>
-      <c r="Y307" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y307" s="6"/>
       <c r="Z307" s="6"/>
       <c r="AA307" s="6" t="s">
         <v>94</v>
@@ -21532,21 +21532,21 @@
         <v>36</v>
       </c>
       <c r="N308" s="3"/>
-      <c r="O308" s="2"/>
+      <c r="O308" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="P308" s="3"/>
       <c r="Q308" s="2"/>
       <c r="R308" s="3"/>
-      <c r="S308" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S308" s="2"/>
       <c r="T308" s="3"/>
       <c r="U308" s="2"/>
       <c r="V308" s="3"/>
-      <c r="W308" s="2"/>
+      <c r="W308" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X308" s="3"/>
-      <c r="Y308" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
       <c r="AA308" s="2" t="s">
         <v>694</v>
@@ -21592,21 +21592,21 @@
         <v>36</v>
       </c>
       <c r="N309" s="7"/>
-      <c r="O309" s="6"/>
+      <c r="O309" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="P309" s="7"/>
       <c r="Q309" s="6"/>
       <c r="R309" s="7"/>
-      <c r="S309" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S309" s="6"/>
       <c r="T309" s="7"/>
       <c r="U309" s="6"/>
       <c r="V309" s="7"/>
-      <c r="W309" s="6"/>
+      <c r="W309" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X309" s="7"/>
-      <c r="Y309" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y309" s="6"/>
       <c r="Z309" s="6"/>
       <c r="AA309" s="6"/>
       <c r="AB309" s="6" t="s">
@@ -21652,10 +21652,10 @@
         <v>36</v>
       </c>
       <c r="N310" s="3"/>
-      <c r="O310" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P310" s="3"/>
+      <c r="O310" s="2"/>
+      <c r="P310" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q310" s="2"/>
       <c r="R310" s="3"/>
       <c r="S310" s="2"/>
@@ -21710,10 +21710,10 @@
         <v>36</v>
       </c>
       <c r="N311" s="7"/>
-      <c r="O311" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P311" s="7"/>
+      <c r="O311" s="6"/>
+      <c r="P311" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q311" s="6"/>
       <c r="R311" s="7"/>
       <c r="S311" s="6"/>
@@ -21768,10 +21768,10 @@
         <v>36</v>
       </c>
       <c r="N312" s="7"/>
-      <c r="O312" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P312" s="7"/>
+      <c r="O312" s="6"/>
+      <c r="P312" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q312" s="6"/>
       <c r="R312" s="7"/>
       <c r="S312" s="6"/>
@@ -21826,10 +21826,10 @@
         <v>36</v>
       </c>
       <c r="N313" s="7"/>
-      <c r="O313" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P313" s="7"/>
+      <c r="O313" s="6"/>
+      <c r="P313" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q313" s="6"/>
       <c r="R313" s="7"/>
       <c r="S313" s="6"/>
@@ -21884,10 +21884,10 @@
         <v>36</v>
       </c>
       <c r="N314" s="7"/>
-      <c r="O314" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P314" s="7"/>
+      <c r="O314" s="6"/>
+      <c r="P314" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q314" s="6"/>
       <c r="R314" s="7"/>
       <c r="S314" s="6"/>
@@ -21942,10 +21942,10 @@
         <v>36</v>
       </c>
       <c r="N315" s="7"/>
-      <c r="O315" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P315" s="7"/>
+      <c r="O315" s="6"/>
+      <c r="P315" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q315" s="6"/>
       <c r="R315" s="7"/>
       <c r="S315" s="6"/>
@@ -22000,10 +22000,10 @@
         <v>36</v>
       </c>
       <c r="N316" s="7"/>
-      <c r="O316" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P316" s="7"/>
+      <c r="O316" s="6"/>
+      <c r="P316" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
       <c r="S316" s="6"/>
@@ -22058,10 +22058,10 @@
         <v>36</v>
       </c>
       <c r="N317" s="7"/>
-      <c r="O317" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P317" s="7"/>
+      <c r="O317" s="6"/>
+      <c r="P317" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
       <c r="S317" s="6"/>
@@ -22116,10 +22116,10 @@
         <v>36</v>
       </c>
       <c r="N318" s="7"/>
-      <c r="O318" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P318" s="7"/>
+      <c r="O318" s="6"/>
+      <c r="P318" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q318" s="6"/>
       <c r="R318" s="7"/>
       <c r="S318" s="6"/>
@@ -22174,10 +22174,10 @@
         <v>36</v>
       </c>
       <c r="N319" s="7"/>
-      <c r="O319" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P319" s="7"/>
+      <c r="O319" s="6"/>
+      <c r="P319" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q319" s="6"/>
       <c r="R319" s="7"/>
       <c r="S319" s="6"/>
@@ -22232,10 +22232,10 @@
         <v>36</v>
       </c>
       <c r="N320" s="7"/>
-      <c r="O320" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P320" s="7"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q320" s="6"/>
       <c r="R320" s="7"/>
       <c r="S320" s="6"/>
@@ -22290,10 +22290,10 @@
         <v>36</v>
       </c>
       <c r="N321" s="7"/>
-      <c r="O321" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P321" s="7"/>
+      <c r="O321" s="6"/>
+      <c r="P321" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Q321" s="6"/>
       <c r="R321" s="7"/>
       <c r="S321" s="6"/>
@@ -22351,14 +22351,14 @@
       <c r="Q322" s="2"/>
       <c r="R322" s="3"/>
       <c r="S322" s="2"/>
-      <c r="T322" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="T322" s="3"/>
       <c r="U322" s="2"/>
       <c r="V322" s="3"/>
       <c r="W322" s="2"/>
       <c r="X322" s="3"/>
-      <c r="Y322" s="2"/>
+      <c r="Y322" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z322" s="2"/>
       <c r="AA322" s="2" t="s">
         <v>94</v>
@@ -22407,16 +22407,16 @@
       <c r="O323" s="2"/>
       <c r="P323" s="3"/>
       <c r="Q323" s="2"/>
-      <c r="R323" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S323" s="2"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T323" s="3"/>
       <c r="U323" s="2"/>
-      <c r="V323" s="3"/>
-      <c r="W323" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V323" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W323" s="2"/>
       <c r="X323" s="3"/>
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
@@ -22467,16 +22467,16 @@
       <c r="O324" s="2"/>
       <c r="P324" s="3"/>
       <c r="Q324" s="2"/>
-      <c r="R324" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="S324" s="2"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T324" s="3"/>
       <c r="U324" s="2"/>
-      <c r="V324" s="3"/>
-      <c r="W324" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="V324" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="W324" s="2"/>
       <c r="X324" s="3"/>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -58,42 +58,42 @@
     <t>Byteorder</t>
   </si>
   <si>
+    <t>DIAG_TOOL</t>
+  </si>
+  <si>
+    <t>DSPACE</t>
+  </si>
+  <si>
+    <t>EXTRA_NODE</t>
+  </si>
+  <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
     <t>SB_REAR</t>
   </si>
   <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
     <t>TLB_BAT</t>
   </si>
   <si>
+    <t>TPMS</t>
+  </si>
+  <si>
     <t>IMU</t>
   </si>
   <si>
-    <t>DSPACE</t>
-  </si>
-  <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
-    <t>DIAG_TOOL</t>
-  </si>
-  <si>
-    <t>EXTRA_NODE</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
     <t>BRUSA</t>
   </si>
   <si>
     <t>BMS_LV</t>
   </si>
   <si>
-    <t>DASH</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Cyclic</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>DATETIME_year</t>
@@ -2813,31 +2813,31 @@
       <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="U2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="X2" s="3"/>
       <c r="Y2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
@@ -2883,31 +2883,31 @@
       <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="7"/>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="6"/>
-      <c r="X3" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X3" s="7"/>
       <c r="Y3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
@@ -2953,31 +2953,31 @@
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="7"/>
+      <c r="O4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P4" s="7"/>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X4" s="7"/>
       <c r="Y4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
@@ -3023,31 +3023,31 @@
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="6"/>
-      <c r="X5" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X5" s="7"/>
       <c r="Y5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
@@ -3095,31 +3095,31 @@
       <c r="M6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P6" s="7"/>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X6" s="7"/>
       <c r="Y6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
@@ -3167,31 +3167,31 @@
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="7"/>
+      <c r="O7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="6"/>
-      <c r="X7" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X7" s="7"/>
       <c r="Y7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
@@ -3239,31 +3239,31 @@
       <c r="M8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="7"/>
+      <c r="O8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="U8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="X8" s="7"/>
       <c r="Y8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
@@ -3312,17 +3312,17 @@
         <v>36</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="2" t="s">
+      <c r="T9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="V9" s="3"/>
@@ -3372,17 +3372,17 @@
         <v>36</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6" t="s">
+      <c r="T10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V10" s="7"/>
@@ -3432,17 +3432,17 @@
         <v>36</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="6" t="s">
+      <c r="T11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V11" s="7"/>
@@ -3492,17 +3492,17 @@
         <v>36</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="6" t="s">
+      <c r="T12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V12" s="7"/>
@@ -3552,17 +3552,17 @@
         <v>36</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="6" t="s">
+      <c r="T13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V13" s="7"/>
@@ -3612,17 +3612,17 @@
         <v>36</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="7"/>
-      <c r="Q14" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6" t="s">
+      <c r="T14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V14" s="7"/>
@@ -3672,17 +3672,17 @@
         <v>36</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="6" t="s">
+      <c r="T15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V15" s="7"/>
@@ -3732,17 +3732,17 @@
         <v>36</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P16" s="7"/>
-      <c r="Q16" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="6" t="s">
+      <c r="T16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V16" s="7"/>
@@ -3792,17 +3792,17 @@
         <v>36</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="6" t="s">
+      <c r="T17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V17" s="7"/>
@@ -3852,17 +3852,17 @@
         <v>36</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="6" t="s">
+      <c r="T18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V18" s="7"/>
@@ -3912,17 +3912,17 @@
         <v>36</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="6" t="s">
+      <c r="T19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V19" s="7"/>
@@ -3972,17 +3972,17 @@
         <v>36</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P20" s="7"/>
-      <c r="Q20" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="6" t="s">
+      <c r="T20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V20" s="7"/>
@@ -4032,17 +4032,17 @@
         <v>36</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P21" s="7"/>
-      <c r="Q21" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="6" t="s">
+      <c r="T21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V21" s="7"/>
@@ -4092,17 +4092,17 @@
         <v>36</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P22" s="7"/>
-      <c r="Q22" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="6" t="s">
+      <c r="T22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V22" s="7"/>
@@ -4152,17 +4152,17 @@
         <v>36</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="6" t="s">
+      <c r="T23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V23" s="7"/>
@@ -4212,19 +4212,19 @@
         <v>36</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="3"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U24" s="2"/>
       <c r="V24" s="3"/>
       <c r="W24" s="2"/>
       <c r="X24" s="3"/>
@@ -4276,19 +4276,19 @@
         <v>36</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="7"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="6"/>
       <c r="V25" s="7"/>
       <c r="W25" s="6"/>
       <c r="X25" s="7"/>
@@ -4340,19 +4340,19 @@
         <v>36</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P26" s="7"/>
-      <c r="Q26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="7"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="6"/>
       <c r="V26" s="7"/>
       <c r="W26" s="6"/>
       <c r="X26" s="7"/>
@@ -4404,19 +4404,19 @@
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="7"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="6"/>
       <c r="V27" s="7"/>
       <c r="W27" s="6"/>
       <c r="X27" s="7"/>
@@ -4467,20 +4467,20 @@
       <c r="M28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R28" s="3"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S28" s="2"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="2"/>
       <c r="V28" s="3"/>
       <c r="W28" s="2"/>
       <c r="X28" s="3"/>
@@ -4531,20 +4531,20 @@
       <c r="M29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="7"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="6"/>
       <c r="V29" s="7"/>
       <c r="W29" s="6"/>
       <c r="X29" s="7"/>
@@ -4595,20 +4595,20 @@
       <c r="M30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P30" s="7"/>
-      <c r="Q30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="6"/>
       <c r="V30" s="7"/>
       <c r="W30" s="6"/>
       <c r="X30" s="7"/>
@@ -4659,20 +4659,20 @@
       <c r="M31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="2"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S31" s="2"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="2"/>
       <c r="V31" s="3"/>
       <c r="W31" s="2"/>
       <c r="X31" s="3"/>
@@ -4719,20 +4719,20 @@
       <c r="M32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="6"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P32" s="7"/>
-      <c r="Q32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="7"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="6"/>
       <c r="V32" s="7"/>
       <c r="W32" s="6"/>
       <c r="X32" s="7"/>
@@ -4780,23 +4780,23 @@
         <v>36</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="2"/>
       <c r="V33" s="3"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y33" s="2"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
         <v>120</v>
@@ -4844,23 +4844,23 @@
         <v>36</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
+      <c r="O34" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P34" s="7"/>
-      <c r="Q34" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="6"/>
       <c r="V34" s="7"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y34" s="6"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6" t="s">
         <v>124</v>
@@ -4908,23 +4908,23 @@
         <v>36</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="6"/>
       <c r="V35" s="7"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y35" s="6"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6" t="s">
         <v>124</v>
@@ -4972,23 +4972,23 @@
         <v>36</v>
       </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="3"/>
       <c r="W36" s="2"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
         <v>37</v>
@@ -5034,23 +5034,23 @@
         <v>36</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="6"/>
+      <c r="O37" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="6"/>
       <c r="V37" s="7"/>
       <c r="W37" s="6"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5094,23 +5094,23 @@
         <v>36</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="6"/>
+      <c r="O38" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P38" s="7"/>
-      <c r="Q38" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="6"/>
       <c r="V38" s="7"/>
       <c r="W38" s="6"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -5154,23 +5154,23 @@
         <v>36</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="6"/>
       <c r="V39" s="7"/>
       <c r="W39" s="6"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5214,23 +5214,23 @@
         <v>36</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="6"/>
+      <c r="O40" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P40" s="7"/>
-      <c r="Q40" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="6"/>
       <c r="V40" s="7"/>
       <c r="W40" s="6"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -5274,23 +5274,23 @@
         <v>36</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="6"/>
+      <c r="O41" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="6"/>
       <c r="V41" s="7"/>
       <c r="W41" s="6"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
         <v>142</v>
@@ -5336,23 +5336,23 @@
         <v>36</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="6"/>
+      <c r="O42" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P42" s="7"/>
-      <c r="Q42" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="6"/>
       <c r="V42" s="7"/>
       <c r="W42" s="6"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
         <v>142</v>
@@ -5397,26 +5397,26 @@
       <c r="M43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="2"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P43" s="3"/>
-      <c r="Q43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" s="2"/>
       <c r="V43" s="3"/>
       <c r="W43" s="2"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -5460,23 +5460,23 @@
         <v>36</v>
       </c>
       <c r="N44" s="7"/>
-      <c r="O44" s="6"/>
+      <c r="O44" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P44" s="7"/>
-      <c r="Q44" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="6"/>
       <c r="V44" s="7"/>
       <c r="W44" s="6"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -5519,26 +5519,26 @@
       <c r="M45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="6"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="7"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" s="6"/>
       <c r="V45" s="7"/>
       <c r="W45" s="6"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6" t="s">
         <v>153</v>
@@ -5585,26 +5585,26 @@
       <c r="M46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="6"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P46" s="7"/>
-      <c r="Q46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="7"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" s="6"/>
       <c r="V46" s="7"/>
       <c r="W46" s="6"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
         <v>153</v>
@@ -5651,22 +5651,22 @@
       <c r="M47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="S47" s="2"/>
       <c r="T47" s="3"/>
       <c r="U47" s="2"/>
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y47" s="2"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2" t="s">
         <v>162</v>
@@ -5711,12 +5711,14 @@
       <c r="M48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N48" s="3"/>
+      <c r="N48" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3"/>
-      <c r="S48" s="4" t="s">
+      <c r="S48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="T48" s="3"/>
@@ -5724,9 +5726,7 @@
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
         <v>162</v>
@@ -5771,16 +5771,16 @@
       <c r="M49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2"/>
       <c r="T49" s="3"/>
       <c r="U49" s="2"/>
       <c r="V49" s="3"/>
@@ -5831,16 +5831,16 @@
       <c r="M50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="3"/>
+      <c r="N50" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="2"/>
       <c r="T50" s="3"/>
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
@@ -5891,18 +5891,18 @@
       <c r="M51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="3"/>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="3"/>
-      <c r="S51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T51" s="3"/>
-      <c r="U51" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="2"/>
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
@@ -5951,18 +5951,18 @@
       <c r="M52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="N52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="3"/>
-      <c r="S52" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="S52" s="2"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="2"/>
+      <c r="U52" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
       <c r="X52" s="3"/>
@@ -6012,17 +6012,17 @@
         <v>36</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="4" t="s">
+      <c r="O53" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P53" s="3"/>
-      <c r="Q53" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="2" t="s">
+      <c r="T53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="V53" s="3"/>
@@ -6072,17 +6072,17 @@
         <v>36</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P54" s="7"/>
-      <c r="Q54" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
       <c r="S54" s="6"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="6" t="s">
+      <c r="T54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V54" s="7"/>
@@ -6132,17 +6132,17 @@
         <v>36</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="8" t="s">
+      <c r="O55" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P55" s="7"/>
-      <c r="Q55" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
       <c r="S55" s="6"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="6" t="s">
+      <c r="T55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V55" s="7"/>
@@ -6192,17 +6192,17 @@
         <v>36</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P56" s="7"/>
-      <c r="Q56" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="6" t="s">
+      <c r="T56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V56" s="7"/>
@@ -6252,17 +6252,17 @@
         <v>36</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="6" t="s">
+      <c r="T57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V57" s="7"/>
@@ -6316,17 +6316,17 @@
         <v>36</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P58" s="7"/>
-      <c r="Q58" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="6" t="s">
+      <c r="T58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V58" s="7"/>
@@ -6379,20 +6379,20 @@
       <c r="M59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N59" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="2"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P59" s="3"/>
-      <c r="Q59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R59" s="3"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S59" s="2"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="2"/>
       <c r="V59" s="3"/>
       <c r="W59" s="2"/>
       <c r="X59" s="3"/>
@@ -6439,20 +6439,20 @@
       <c r="M60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="6"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P60" s="7"/>
-      <c r="Q60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R60" s="7"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S60" s="6"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" s="6"/>
       <c r="V60" s="7"/>
       <c r="W60" s="6"/>
       <c r="X60" s="7"/>
@@ -6499,20 +6499,20 @@
       <c r="M61" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="6"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R61" s="7"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S61" s="6"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U61" s="6"/>
       <c r="V61" s="7"/>
       <c r="W61" s="6"/>
       <c r="X61" s="7"/>
@@ -6559,20 +6559,20 @@
       <c r="M62" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="6"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P62" s="7"/>
-      <c r="Q62" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R62" s="7"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S62" s="6"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U62" s="6"/>
       <c r="V62" s="7"/>
       <c r="W62" s="6"/>
       <c r="X62" s="7"/>
@@ -6620,19 +6620,19 @@
         <v>36</v>
       </c>
       <c r="N63" s="3"/>
-      <c r="O63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P63" s="3"/>
-      <c r="Q63" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R63" s="3"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" s="2"/>
       <c r="V63" s="3"/>
       <c r="W63" s="2"/>
       <c r="X63" s="3"/>
@@ -6680,19 +6680,19 @@
         <v>36</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="O64" s="6"/>
+      <c r="O64" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P64" s="7"/>
-      <c r="Q64" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R64" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q64" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="7"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T64" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U64" s="6"/>
       <c r="V64" s="7"/>
       <c r="W64" s="6"/>
       <c r="X64" s="7"/>
@@ -6740,19 +6740,19 @@
         <v>36</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65" s="6"/>
+      <c r="O65" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P65" s="7"/>
-      <c r="Q65" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R65" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q65" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R65" s="7"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T65" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U65" s="6"/>
       <c r="V65" s="7"/>
       <c r="W65" s="6"/>
       <c r="X65" s="7"/>
@@ -6800,19 +6800,19 @@
         <v>36</v>
       </c>
       <c r="N66" s="3"/>
-      <c r="O66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P66" s="3"/>
-      <c r="Q66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R66" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="3"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U66" s="2"/>
       <c r="V66" s="3"/>
       <c r="W66" s="2"/>
       <c r="X66" s="3"/>
@@ -6864,19 +6864,19 @@
         <v>36</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="6"/>
+      <c r="O67" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P67" s="7"/>
-      <c r="Q67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R67" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q67" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R67" s="7"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U67" s="6"/>
       <c r="V67" s="7"/>
       <c r="W67" s="6"/>
       <c r="X67" s="7"/>
@@ -6927,20 +6927,20 @@
       <c r="M68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N68" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R68" s="3"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U68" s="2"/>
       <c r="V68" s="3"/>
       <c r="W68" s="2"/>
       <c r="X68" s="3"/>
@@ -6991,20 +6991,20 @@
       <c r="M69" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N69" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O69" s="6"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P69" s="7"/>
-      <c r="Q69" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R69" s="7"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S69" s="6"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T69" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" s="6"/>
       <c r="V69" s="7"/>
       <c r="W69" s="6"/>
       <c r="X69" s="7"/>
@@ -7055,16 +7055,16 @@
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P70" s="3"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="3"/>
       <c r="S70" s="2"/>
       <c r="T70" s="3"/>
       <c r="U70" s="2"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="2"/>
+      <c r="W70" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -7113,16 +7113,16 @@
       </c>
       <c r="N71" s="7"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P71" s="7"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
       <c r="S71" s="6"/>
       <c r="T71" s="7"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
-      <c r="W71" s="6"/>
+      <c r="W71" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -7171,16 +7171,16 @@
       </c>
       <c r="N72" s="7"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P72" s="7"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
       <c r="S72" s="6"/>
       <c r="T72" s="7"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
-      <c r="W72" s="6"/>
+      <c r="W72" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X72" s="7"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7229,16 +7229,16 @@
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P73" s="3"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="3"/>
       <c r="S73" s="2"/>
       <c r="T73" s="3"/>
       <c r="U73" s="2"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X73" s="3"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -7287,16 +7287,16 @@
       </c>
       <c r="N74" s="7"/>
       <c r="O74" s="6"/>
-      <c r="P74" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P74" s="7"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
       <c r="S74" s="6"/>
       <c r="T74" s="7"/>
       <c r="U74" s="6"/>
       <c r="V74" s="7"/>
-      <c r="W74" s="6"/>
+      <c r="W74" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7345,16 +7345,16 @@
       </c>
       <c r="N75" s="7"/>
       <c r="O75" s="6"/>
-      <c r="P75" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P75" s="7"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
       <c r="S75" s="6"/>
       <c r="T75" s="7"/>
       <c r="U75" s="6"/>
       <c r="V75" s="7"/>
-      <c r="W75" s="6"/>
+      <c r="W75" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -7403,16 +7403,16 @@
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P76" s="3"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="3"/>
       <c r="S76" s="2"/>
       <c r="T76" s="3"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X76" s="3"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -7461,16 +7461,16 @@
       </c>
       <c r="N77" s="7"/>
       <c r="O77" s="6"/>
-      <c r="P77" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P77" s="7"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
       <c r="S77" s="6"/>
       <c r="T77" s="7"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
-      <c r="W77" s="6"/>
+      <c r="W77" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7519,16 +7519,16 @@
       </c>
       <c r="N78" s="7"/>
       <c r="O78" s="6"/>
-      <c r="P78" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P78" s="7"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
       <c r="S78" s="6"/>
       <c r="T78" s="7"/>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
-      <c r="W78" s="6"/>
+      <c r="W78" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X78" s="7"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -7577,16 +7577,16 @@
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="2"/>
-      <c r="P79" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P79" s="3"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="3"/>
       <c r="S79" s="2"/>
       <c r="T79" s="3"/>
       <c r="U79" s="2"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X79" s="3"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
@@ -7635,16 +7635,16 @@
       </c>
       <c r="N80" s="7"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P80" s="7"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
       <c r="S80" s="6"/>
       <c r="T80" s="7"/>
       <c r="U80" s="6"/>
       <c r="V80" s="7"/>
-      <c r="W80" s="6"/>
+      <c r="W80" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X80" s="7"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
@@ -7693,16 +7693,16 @@
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="2"/>
-      <c r="P81" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P81" s="3"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="3"/>
       <c r="S81" s="2"/>
       <c r="T81" s="3"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="2"/>
+      <c r="W81" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X81" s="3"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
@@ -7751,16 +7751,16 @@
       </c>
       <c r="N82" s="7"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P82" s="7"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
       <c r="S82" s="6"/>
       <c r="T82" s="7"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
-      <c r="W82" s="6"/>
+      <c r="W82" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -7809,16 +7809,16 @@
       </c>
       <c r="N83" s="7"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P83" s="7"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
       <c r="S83" s="6"/>
       <c r="T83" s="7"/>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
-      <c r="W83" s="6"/>
+      <c r="W83" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -7867,16 +7867,16 @@
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="2"/>
-      <c r="P84" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P84" s="3"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="3"/>
       <c r="S84" s="2"/>
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="2"/>
+      <c r="W84" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="X84" s="3"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -7925,16 +7925,16 @@
       </c>
       <c r="N85" s="7"/>
       <c r="O85" s="6"/>
-      <c r="P85" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P85" s="7"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="7"/>
       <c r="S85" s="6"/>
       <c r="T85" s="7"/>
       <c r="U85" s="6"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="6"/>
+      <c r="W85" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
@@ -7983,16 +7983,16 @@
       </c>
       <c r="N86" s="7"/>
       <c r="O86" s="6"/>
-      <c r="P86" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P86" s="7"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="7"/>
       <c r="S86" s="6"/>
       <c r="T86" s="7"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
-      <c r="W86" s="6"/>
+      <c r="W86" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X86" s="7"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
@@ -8041,16 +8041,16 @@
       </c>
       <c r="N87" s="7"/>
       <c r="O87" s="6"/>
-      <c r="P87" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="P87" s="7"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="7"/>
       <c r="S87" s="6"/>
       <c r="T87" s="7"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
-      <c r="W87" s="6"/>
+      <c r="W87" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="X87" s="7"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -8097,18 +8097,18 @@
       <c r="M88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N88" s="3"/>
-      <c r="O88" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="N88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
-      <c r="S88" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S88" s="2"/>
       <c r="T88" s="3"/>
-      <c r="U88" s="2"/>
+      <c r="U88" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
       <c r="X88" s="3"/>
@@ -8157,16 +8157,16 @@
       <c r="M89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N89" s="3"/>
+      <c r="N89" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q89" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R89" s="3"/>
+      <c r="S89" s="2"/>
       <c r="T89" s="3"/>
       <c r="U89" s="2"/>
       <c r="V89" s="3"/>
@@ -8217,16 +8217,16 @@
       <c r="M90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N90" s="9" t="s">
+      <c r="N90" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="R90" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S90" s="2"/>
       <c r="T90" s="3"/>
       <c r="U90" s="2"/>
       <c r="V90" s="3"/>
@@ -8277,22 +8277,22 @@
       <c r="M91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N91" s="3"/>
+      <c r="N91" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="3"/>
-      <c r="S91" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S91" s="2"/>
       <c r="T91" s="3"/>
       <c r="U91" s="2"/>
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
-      <c r="X91" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y91" s="2"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2" t="s">
         <v>162</v>
@@ -8337,12 +8337,14 @@
       <c r="M92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N92" s="3"/>
+      <c r="N92" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="3"/>
-      <c r="S92" s="2" t="s">
+      <c r="S92" s="4" t="s">
         <v>31</v>
       </c>
       <c r="T92" s="3"/>
@@ -8350,9 +8352,7 @@
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2" t="s">
         <v>162</v>
@@ -8397,18 +8397,18 @@
       <c r="M93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N93" s="3"/>
+      <c r="N93" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="3"/>
-      <c r="S93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T93" s="3"/>
-      <c r="U93" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U93" s="2"/>
       <c r="V93" s="3"/>
       <c r="W93" s="2"/>
       <c r="X93" s="3"/>
@@ -8458,23 +8458,23 @@
         <v>36</v>
       </c>
       <c r="N94" s="3"/>
-      <c r="O94" s="2"/>
+      <c r="O94" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q94" s="2"/>
       <c r="R94" s="3"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="3"/>
-      <c r="U94" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U94" s="2"/>
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
       <c r="X94" s="3"/>
-      <c r="Y94" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2" t="s">
         <v>275</v>
@@ -8522,23 +8522,23 @@
         <v>36</v>
       </c>
       <c r="N95" s="3"/>
-      <c r="O95" s="2"/>
+      <c r="O95" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P95" s="3"/>
-      <c r="Q95" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q95" s="2"/>
       <c r="R95" s="3"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U95" s="2"/>
       <c r="V95" s="3"/>
       <c r="W95" s="2"/>
       <c r="X95" s="3"/>
-      <c r="Y95" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" s="2">
         <v>0</v>
       </c>
@@ -8586,23 +8586,23 @@
         <v>36</v>
       </c>
       <c r="N96" s="7"/>
-      <c r="O96" s="6"/>
+      <c r="O96" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P96" s="7"/>
-      <c r="Q96" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q96" s="6"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S96" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U96" s="6"/>
       <c r="V96" s="7"/>
       <c r="W96" s="6"/>
       <c r="X96" s="7"/>
-      <c r="Y96" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y96" s="6"/>
       <c r="Z96" s="6">
         <v>1</v>
       </c>
@@ -8650,23 +8650,23 @@
         <v>36</v>
       </c>
       <c r="N97" s="7"/>
-      <c r="O97" s="6"/>
+      <c r="O97" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P97" s="7"/>
-      <c r="Q97" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q97" s="6"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S97" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U97" s="6"/>
       <c r="V97" s="7"/>
       <c r="W97" s="6"/>
       <c r="X97" s="7"/>
-      <c r="Y97" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y97" s="6"/>
       <c r="Z97" s="6">
         <v>2</v>
       </c>
@@ -8714,23 +8714,23 @@
         <v>36</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="6"/>
+      <c r="O98" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P98" s="7"/>
-      <c r="Q98" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q98" s="6"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T98" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U98" s="6"/>
       <c r="V98" s="7"/>
       <c r="W98" s="6"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y98" s="6"/>
       <c r="Z98" s="6">
         <v>3</v>
       </c>
@@ -8778,23 +8778,23 @@
         <v>36</v>
       </c>
       <c r="N99" s="7"/>
-      <c r="O99" s="6"/>
+      <c r="O99" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P99" s="7"/>
-      <c r="Q99" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q99" s="6"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U99" s="6"/>
       <c r="V99" s="7"/>
       <c r="W99" s="6"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y99" s="6"/>
       <c r="Z99" s="6">
         <v>4</v>
       </c>
@@ -8842,23 +8842,23 @@
         <v>36</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="6"/>
+      <c r="O100" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P100" s="7"/>
-      <c r="Q100" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q100" s="6"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U100" s="6"/>
       <c r="V100" s="7"/>
       <c r="W100" s="6"/>
       <c r="X100" s="7"/>
-      <c r="Y100" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y100" s="6"/>
       <c r="Z100" s="6">
         <v>5</v>
       </c>
@@ -8906,23 +8906,23 @@
         <v>36</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="6"/>
+      <c r="O101" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P101" s="7"/>
-      <c r="Q101" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q101" s="6"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U101" s="6"/>
       <c r="V101" s="7"/>
       <c r="W101" s="6"/>
       <c r="X101" s="7"/>
-      <c r="Y101" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y101" s="6"/>
       <c r="Z101" s="6">
         <v>255</v>
       </c>
@@ -8970,23 +8970,23 @@
         <v>36</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="6"/>
+      <c r="O102" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P102" s="7"/>
-      <c r="Q102" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q102" s="6"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S102" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T102" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U102" s="6"/>
       <c r="V102" s="7"/>
       <c r="W102" s="6"/>
       <c r="X102" s="7"/>
-      <c r="Y102" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y102" s="6"/>
       <c r="Z102" s="6">
         <v>0</v>
       </c>
@@ -9034,23 +9034,23 @@
         <v>36</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="6"/>
+      <c r="O103" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P103" s="7"/>
-      <c r="Q103" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q103" s="6"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="6"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S103" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T103" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U103" s="6"/>
       <c r="V103" s="7"/>
       <c r="W103" s="6"/>
       <c r="X103" s="7"/>
-      <c r="Y103" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y103" s="6"/>
       <c r="Z103" s="6">
         <v>1</v>
       </c>
@@ -9098,23 +9098,23 @@
         <v>36</v>
       </c>
       <c r="N104" s="7"/>
-      <c r="O104" s="6"/>
+      <c r="O104" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P104" s="7"/>
-      <c r="Q104" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q104" s="6"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="6"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U104" s="6"/>
       <c r="V104" s="7"/>
       <c r="W104" s="6"/>
       <c r="X104" s="7"/>
-      <c r="Y104" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y104" s="6"/>
       <c r="Z104" s="6">
         <v>2</v>
       </c>
@@ -9162,23 +9162,23 @@
         <v>36</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="6"/>
+      <c r="O105" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P105" s="7"/>
-      <c r="Q105" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="6"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S105" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U105" s="6"/>
       <c r="V105" s="7"/>
       <c r="W105" s="6"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y105" s="6"/>
       <c r="Z105" s="6">
         <v>3</v>
       </c>
@@ -9226,23 +9226,23 @@
         <v>36</v>
       </c>
       <c r="N106" s="7"/>
-      <c r="O106" s="6"/>
+      <c r="O106" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P106" s="7"/>
-      <c r="Q106" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q106" s="6"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="6"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S106" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U106" s="6"/>
       <c r="V106" s="7"/>
       <c r="W106" s="6"/>
       <c r="X106" s="7"/>
-      <c r="Y106" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y106" s="6"/>
       <c r="Z106" s="6">
         <v>4</v>
       </c>
@@ -9290,23 +9290,23 @@
         <v>36</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="6"/>
+      <c r="O107" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P107" s="7"/>
-      <c r="Q107" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q107" s="6"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="6"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U107" s="6"/>
       <c r="V107" s="7"/>
       <c r="W107" s="6"/>
       <c r="X107" s="7"/>
-      <c r="Y107" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y107" s="6"/>
       <c r="Z107" s="6">
         <v>5</v>
       </c>
@@ -9354,23 +9354,23 @@
         <v>36</v>
       </c>
       <c r="N108" s="7"/>
-      <c r="O108" s="6"/>
+      <c r="O108" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P108" s="7"/>
-      <c r="Q108" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q108" s="6"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="6"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U108" s="6"/>
       <c r="V108" s="7"/>
       <c r="W108" s="6"/>
       <c r="X108" s="7"/>
-      <c r="Y108" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y108" s="6"/>
       <c r="Z108" s="6">
         <v>6</v>
       </c>
@@ -9418,23 +9418,23 @@
         <v>36</v>
       </c>
       <c r="N109" s="7"/>
-      <c r="O109" s="6"/>
+      <c r="O109" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P109" s="7"/>
-      <c r="Q109" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q109" s="6"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T109" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U109" s="6"/>
       <c r="V109" s="7"/>
       <c r="W109" s="6"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y109" s="6"/>
       <c r="Z109" s="6">
         <v>0</v>
       </c>
@@ -9482,23 +9482,23 @@
         <v>36</v>
       </c>
       <c r="N110" s="7"/>
-      <c r="O110" s="6"/>
+      <c r="O110" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P110" s="7"/>
-      <c r="Q110" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q110" s="6"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="6"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S110" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U110" s="6"/>
       <c r="V110" s="7"/>
       <c r="W110" s="6"/>
       <c r="X110" s="7"/>
-      <c r="Y110" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y110" s="6"/>
       <c r="Z110" s="6">
         <v>1</v>
       </c>
@@ -9546,23 +9546,23 @@
         <v>36</v>
       </c>
       <c r="N111" s="7"/>
-      <c r="O111" s="6"/>
+      <c r="O111" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P111" s="7"/>
-      <c r="Q111" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q111" s="6"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S111" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T111" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U111" s="6"/>
       <c r="V111" s="7"/>
       <c r="W111" s="6"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y111" s="6"/>
       <c r="Z111" s="6">
         <v>2</v>
       </c>
@@ -9610,23 +9610,23 @@
         <v>36</v>
       </c>
       <c r="N112" s="7"/>
-      <c r="O112" s="6"/>
+      <c r="O112" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P112" s="7"/>
-      <c r="Q112" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q112" s="6"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U112" s="6"/>
       <c r="V112" s="7"/>
       <c r="W112" s="6"/>
       <c r="X112" s="7"/>
-      <c r="Y112" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y112" s="6"/>
       <c r="Z112" s="6">
         <v>3</v>
       </c>
@@ -9674,23 +9674,23 @@
         <v>36</v>
       </c>
       <c r="N113" s="7"/>
-      <c r="O113" s="6"/>
+      <c r="O113" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P113" s="7"/>
-      <c r="Q113" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q113" s="6"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S113" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U113" s="6"/>
       <c r="V113" s="7"/>
       <c r="W113" s="6"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y113" s="6"/>
       <c r="Z113" s="6">
         <v>4</v>
       </c>
@@ -9738,23 +9738,23 @@
         <v>36</v>
       </c>
       <c r="N114" s="7"/>
-      <c r="O114" s="6"/>
+      <c r="O114" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P114" s="7"/>
-      <c r="Q114" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S114" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T114" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U114" s="6"/>
       <c r="V114" s="7"/>
       <c r="W114" s="6"/>
       <c r="X114" s="7"/>
-      <c r="Y114" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y114" s="6"/>
       <c r="Z114" s="6">
         <v>5</v>
       </c>
@@ -9802,23 +9802,23 @@
         <v>36</v>
       </c>
       <c r="N115" s="7"/>
-      <c r="O115" s="6"/>
+      <c r="O115" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P115" s="7"/>
-      <c r="Q115" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q115" s="6"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="6"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S115" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T115" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U115" s="6"/>
       <c r="V115" s="7"/>
       <c r="W115" s="6"/>
       <c r="X115" s="7"/>
-      <c r="Y115" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y115" s="6"/>
       <c r="Z115" s="6">
         <v>6</v>
       </c>
@@ -9866,23 +9866,23 @@
         <v>36</v>
       </c>
       <c r="N116" s="7"/>
-      <c r="O116" s="6"/>
+      <c r="O116" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P116" s="7"/>
-      <c r="Q116" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q116" s="6"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="6"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S116" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T116" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U116" s="6"/>
       <c r="V116" s="7"/>
       <c r="W116" s="6"/>
       <c r="X116" s="7"/>
-      <c r="Y116" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y116" s="6"/>
       <c r="Z116" s="6">
         <v>0</v>
       </c>
@@ -9930,23 +9930,23 @@
         <v>36</v>
       </c>
       <c r="N117" s="7"/>
-      <c r="O117" s="6"/>
+      <c r="O117" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P117" s="7"/>
-      <c r="Q117" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q117" s="6"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S117" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T117" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U117" s="6"/>
       <c r="V117" s="7"/>
       <c r="W117" s="6"/>
       <c r="X117" s="7"/>
-      <c r="Y117" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y117" s="6"/>
       <c r="Z117" s="6">
         <v>1</v>
       </c>
@@ -9994,23 +9994,23 @@
         <v>36</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="6"/>
+      <c r="O118" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P118" s="7"/>
-      <c r="Q118" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q118" s="6"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="6"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S118" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T118" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U118" s="6"/>
       <c r="V118" s="7"/>
       <c r="W118" s="6"/>
       <c r="X118" s="7"/>
-      <c r="Y118" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y118" s="6"/>
       <c r="Z118" s="6">
         <v>2</v>
       </c>
@@ -10058,23 +10058,23 @@
         <v>36</v>
       </c>
       <c r="N119" s="7"/>
-      <c r="O119" s="6"/>
+      <c r="O119" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P119" s="7"/>
-      <c r="Q119" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q119" s="6"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="6"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S119" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T119" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U119" s="6"/>
       <c r="V119" s="7"/>
       <c r="W119" s="6"/>
       <c r="X119" s="7"/>
-      <c r="Y119" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y119" s="6"/>
       <c r="Z119" s="6">
         <v>3</v>
       </c>
@@ -10122,23 +10122,23 @@
         <v>36</v>
       </c>
       <c r="N120" s="7"/>
-      <c r="O120" s="6"/>
+      <c r="O120" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P120" s="7"/>
-      <c r="Q120" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q120" s="6"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="6"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S120" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T120" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U120" s="6"/>
       <c r="V120" s="7"/>
       <c r="W120" s="6"/>
       <c r="X120" s="7"/>
-      <c r="Y120" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y120" s="6"/>
       <c r="Z120" s="6">
         <v>4</v>
       </c>
@@ -10186,23 +10186,23 @@
         <v>36</v>
       </c>
       <c r="N121" s="7"/>
-      <c r="O121" s="6"/>
+      <c r="O121" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P121" s="7"/>
-      <c r="Q121" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q121" s="6"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="6"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T121" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U121" s="6"/>
       <c r="V121" s="7"/>
       <c r="W121" s="6"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y121" s="6"/>
       <c r="Z121" s="6">
         <v>5</v>
       </c>
@@ -10250,23 +10250,23 @@
         <v>36</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="6"/>
+      <c r="O122" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P122" s="7"/>
-      <c r="Q122" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q122" s="6"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="6"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U122" s="6"/>
       <c r="V122" s="7"/>
       <c r="W122" s="6"/>
       <c r="X122" s="7"/>
-      <c r="Y122" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y122" s="6"/>
       <c r="Z122" s="6">
         <v>6</v>
       </c>
@@ -10314,23 +10314,23 @@
         <v>36</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="6"/>
+      <c r="O123" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P123" s="7"/>
-      <c r="Q123" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q123" s="6"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="6"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S123" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T123" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U123" s="6"/>
       <c r="V123" s="7"/>
       <c r="W123" s="6"/>
       <c r="X123" s="7"/>
-      <c r="Y123" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y123" s="6"/>
       <c r="Z123" s="6">
         <v>0</v>
       </c>
@@ -10378,23 +10378,23 @@
         <v>36</v>
       </c>
       <c r="N124" s="7"/>
-      <c r="O124" s="6"/>
+      <c r="O124" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P124" s="7"/>
-      <c r="Q124" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q124" s="6"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="6"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S124" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T124" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U124" s="6"/>
       <c r="V124" s="7"/>
       <c r="W124" s="6"/>
       <c r="X124" s="7"/>
-      <c r="Y124" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y124" s="6"/>
       <c r="Z124" s="6">
         <v>1</v>
       </c>
@@ -10442,23 +10442,23 @@
         <v>36</v>
       </c>
       <c r="N125" s="7"/>
-      <c r="O125" s="6"/>
+      <c r="O125" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P125" s="7"/>
-      <c r="Q125" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q125" s="6"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="6"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T125" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U125" s="6"/>
       <c r="V125" s="7"/>
       <c r="W125" s="6"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y125" s="6"/>
       <c r="Z125" s="6">
         <v>2</v>
       </c>
@@ -10506,23 +10506,23 @@
         <v>36</v>
       </c>
       <c r="N126" s="7"/>
-      <c r="O126" s="6"/>
+      <c r="O126" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P126" s="7"/>
-      <c r="Q126" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q126" s="6"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="6"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S126" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T126" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U126" s="6"/>
       <c r="V126" s="7"/>
       <c r="W126" s="6"/>
       <c r="X126" s="7"/>
-      <c r="Y126" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y126" s="6"/>
       <c r="Z126" s="6">
         <v>3</v>
       </c>
@@ -10570,23 +10570,23 @@
         <v>36</v>
       </c>
       <c r="N127" s="7"/>
-      <c r="O127" s="6"/>
+      <c r="O127" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P127" s="7"/>
-      <c r="Q127" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q127" s="6"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="6"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T127" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U127" s="6"/>
       <c r="V127" s="7"/>
       <c r="W127" s="6"/>
       <c r="X127" s="7"/>
-      <c r="Y127" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y127" s="6"/>
       <c r="Z127" s="6">
         <v>4</v>
       </c>
@@ -10634,23 +10634,23 @@
         <v>36</v>
       </c>
       <c r="N128" s="7"/>
-      <c r="O128" s="6"/>
+      <c r="O128" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P128" s="7"/>
-      <c r="Q128" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q128" s="6"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="6"/>
-      <c r="T128" s="7"/>
-      <c r="U128" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S128" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T128" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U128" s="6"/>
       <c r="V128" s="7"/>
       <c r="W128" s="6"/>
       <c r="X128" s="7"/>
-      <c r="Y128" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y128" s="6"/>
       <c r="Z128" s="6">
         <v>5</v>
       </c>
@@ -10698,23 +10698,23 @@
         <v>36</v>
       </c>
       <c r="N129" s="7"/>
-      <c r="O129" s="6"/>
+      <c r="O129" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P129" s="7"/>
-      <c r="Q129" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q129" s="6"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="6"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T129" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U129" s="6"/>
       <c r="V129" s="7"/>
       <c r="W129" s="6"/>
       <c r="X129" s="7"/>
-      <c r="Y129" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y129" s="6"/>
       <c r="Z129" s="6">
         <v>6</v>
       </c>
@@ -10762,23 +10762,23 @@
         <v>36</v>
       </c>
       <c r="N130" s="3"/>
-      <c r="O130" s="2"/>
+      <c r="O130" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P130" s="3"/>
-      <c r="Q130" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q130" s="2"/>
       <c r="R130" s="3"/>
       <c r="S130" s="2"/>
-      <c r="T130" s="3"/>
-      <c r="U130" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T130" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U130" s="2"/>
       <c r="V130" s="3"/>
       <c r="W130" s="2"/>
-      <c r="X130" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y130" s="2"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
@@ -10822,23 +10822,23 @@
         <v>36</v>
       </c>
       <c r="N131" s="7"/>
-      <c r="O131" s="6"/>
+      <c r="O131" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P131" s="7"/>
-      <c r="Q131" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q131" s="6"/>
       <c r="R131" s="7"/>
       <c r="S131" s="6"/>
-      <c r="T131" s="7"/>
-      <c r="U131" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T131" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U131" s="6"/>
       <c r="V131" s="7"/>
       <c r="W131" s="6"/>
-      <c r="X131" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y131" s="6"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
@@ -10882,23 +10882,23 @@
         <v>36</v>
       </c>
       <c r="N132" s="7"/>
-      <c r="O132" s="6"/>
+      <c r="O132" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P132" s="7"/>
-      <c r="Q132" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q132" s="6"/>
       <c r="R132" s="7"/>
       <c r="S132" s="6"/>
-      <c r="T132" s="7"/>
-      <c r="U132" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T132" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U132" s="6"/>
       <c r="V132" s="7"/>
       <c r="W132" s="6"/>
-      <c r="X132" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y132" s="6"/>
+      <c r="X132" s="7"/>
+      <c r="Y132" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
@@ -10942,23 +10942,23 @@
         <v>36</v>
       </c>
       <c r="N133" s="7"/>
-      <c r="O133" s="6"/>
+      <c r="O133" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P133" s="7"/>
-      <c r="Q133" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q133" s="6"/>
       <c r="R133" s="7"/>
       <c r="S133" s="6"/>
-      <c r="T133" s="7"/>
-      <c r="U133" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T133" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U133" s="6"/>
       <c r="V133" s="7"/>
       <c r="W133" s="6"/>
-      <c r="X133" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y133" s="6"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
@@ -11002,23 +11002,23 @@
         <v>36</v>
       </c>
       <c r="N134" s="7"/>
-      <c r="O134" s="6"/>
+      <c r="O134" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P134" s="7"/>
-      <c r="Q134" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q134" s="6"/>
       <c r="R134" s="7"/>
       <c r="S134" s="6"/>
-      <c r="T134" s="7"/>
-      <c r="U134" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T134" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U134" s="6"/>
       <c r="V134" s="7"/>
       <c r="W134" s="6"/>
-      <c r="X134" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y134" s="6"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
@@ -11062,23 +11062,23 @@
         <v>36</v>
       </c>
       <c r="N135" s="7"/>
-      <c r="O135" s="6"/>
+      <c r="O135" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P135" s="7"/>
-      <c r="Q135" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q135" s="6"/>
       <c r="R135" s="7"/>
       <c r="S135" s="6"/>
-      <c r="T135" s="7"/>
-      <c r="U135" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T135" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U135" s="6"/>
       <c r="V135" s="7"/>
       <c r="W135" s="6"/>
-      <c r="X135" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y135" s="6"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -11122,23 +11122,23 @@
         <v>36</v>
       </c>
       <c r="N136" s="7"/>
-      <c r="O136" s="6"/>
+      <c r="O136" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P136" s="7"/>
-      <c r="Q136" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q136" s="6"/>
       <c r="R136" s="7"/>
       <c r="S136" s="6"/>
-      <c r="T136" s="7"/>
-      <c r="U136" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T136" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U136" s="6"/>
       <c r="V136" s="7"/>
       <c r="W136" s="6"/>
-      <c r="X136" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y136" s="6"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
@@ -11182,23 +11182,23 @@
         <v>36</v>
       </c>
       <c r="N137" s="7"/>
-      <c r="O137" s="6"/>
+      <c r="O137" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P137" s="7"/>
-      <c r="Q137" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q137" s="6"/>
       <c r="R137" s="7"/>
       <c r="S137" s="6"/>
-      <c r="T137" s="7"/>
-      <c r="U137" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T137" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U137" s="6"/>
       <c r="V137" s="7"/>
       <c r="W137" s="6"/>
-      <c r="X137" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y137" s="6"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
@@ -11242,23 +11242,23 @@
         <v>36</v>
       </c>
       <c r="N138" s="7"/>
-      <c r="O138" s="6"/>
+      <c r="O138" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P138" s="7"/>
-      <c r="Q138" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q138" s="6"/>
       <c r="R138" s="7"/>
       <c r="S138" s="6"/>
-      <c r="T138" s="7"/>
-      <c r="U138" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U138" s="6"/>
       <c r="V138" s="7"/>
       <c r="W138" s="6"/>
-      <c r="X138" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y138" s="6"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
       <c r="AB138" s="6"/>
@@ -11302,23 +11302,23 @@
         <v>36</v>
       </c>
       <c r="N139" s="7"/>
-      <c r="O139" s="6"/>
+      <c r="O139" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P139" s="7"/>
-      <c r="Q139" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q139" s="6"/>
       <c r="R139" s="7"/>
       <c r="S139" s="6"/>
-      <c r="T139" s="7"/>
-      <c r="U139" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T139" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U139" s="6"/>
       <c r="V139" s="7"/>
       <c r="W139" s="6"/>
-      <c r="X139" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y139" s="6"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
@@ -11362,23 +11362,23 @@
         <v>36</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="6"/>
+      <c r="O140" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P140" s="7"/>
-      <c r="Q140" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q140" s="6"/>
       <c r="R140" s="7"/>
       <c r="S140" s="6"/>
-      <c r="T140" s="7"/>
-      <c r="U140" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T140" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U140" s="6"/>
       <c r="V140" s="7"/>
       <c r="W140" s="6"/>
-      <c r="X140" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y140" s="6"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
@@ -11422,23 +11422,23 @@
         <v>36</v>
       </c>
       <c r="N141" s="7"/>
-      <c r="O141" s="6"/>
+      <c r="O141" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P141" s="7"/>
-      <c r="Q141" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q141" s="6"/>
       <c r="R141" s="7"/>
       <c r="S141" s="6"/>
-      <c r="T141" s="7"/>
-      <c r="U141" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T141" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U141" s="6"/>
       <c r="V141" s="7"/>
       <c r="W141" s="6"/>
-      <c r="X141" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y141" s="6"/>
+      <c r="X141" s="7"/>
+      <c r="Y141" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
@@ -11482,23 +11482,23 @@
         <v>36</v>
       </c>
       <c r="N142" s="7"/>
-      <c r="O142" s="6"/>
+      <c r="O142" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P142" s="7"/>
-      <c r="Q142" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q142" s="6"/>
       <c r="R142" s="7"/>
       <c r="S142" s="6"/>
-      <c r="T142" s="7"/>
-      <c r="U142" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T142" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U142" s="6"/>
       <c r="V142" s="7"/>
       <c r="W142" s="6"/>
-      <c r="X142" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y142" s="6"/>
+      <c r="X142" s="7"/>
+      <c r="Y142" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
       <c r="AB142" s="6"/>
@@ -11542,23 +11542,23 @@
         <v>36</v>
       </c>
       <c r="N143" s="7"/>
-      <c r="O143" s="6"/>
+      <c r="O143" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P143" s="7"/>
-      <c r="Q143" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q143" s="6"/>
       <c r="R143" s="7"/>
       <c r="S143" s="6"/>
-      <c r="T143" s="7"/>
-      <c r="U143" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T143" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U143" s="6"/>
       <c r="V143" s="7"/>
       <c r="W143" s="6"/>
-      <c r="X143" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y143" s="6"/>
+      <c r="X143" s="7"/>
+      <c r="Y143" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
@@ -11602,23 +11602,23 @@
         <v>36</v>
       </c>
       <c r="N144" s="7"/>
-      <c r="O144" s="6"/>
+      <c r="O144" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P144" s="7"/>
-      <c r="Q144" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q144" s="6"/>
       <c r="R144" s="7"/>
       <c r="S144" s="6"/>
-      <c r="T144" s="7"/>
-      <c r="U144" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T144" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U144" s="6"/>
       <c r="V144" s="7"/>
       <c r="W144" s="6"/>
-      <c r="X144" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y144" s="6"/>
+      <c r="X144" s="7"/>
+      <c r="Y144" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
@@ -11662,23 +11662,23 @@
         <v>36</v>
       </c>
       <c r="N145" s="7"/>
-      <c r="O145" s="6"/>
+      <c r="O145" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P145" s="7"/>
-      <c r="Q145" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q145" s="6"/>
       <c r="R145" s="7"/>
       <c r="S145" s="6"/>
-      <c r="T145" s="7"/>
-      <c r="U145" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T145" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U145" s="6"/>
       <c r="V145" s="7"/>
       <c r="W145" s="6"/>
-      <c r="X145" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y145" s="6"/>
+      <c r="X145" s="7"/>
+      <c r="Y145" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
@@ -11722,23 +11722,23 @@
         <v>36</v>
       </c>
       <c r="N146" s="7"/>
-      <c r="O146" s="6"/>
+      <c r="O146" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P146" s="7"/>
-      <c r="Q146" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q146" s="6"/>
       <c r="R146" s="7"/>
       <c r="S146" s="6"/>
-      <c r="T146" s="7"/>
-      <c r="U146" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T146" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U146" s="6"/>
       <c r="V146" s="7"/>
       <c r="W146" s="6"/>
-      <c r="X146" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y146" s="6"/>
+      <c r="X146" s="7"/>
+      <c r="Y146" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
@@ -11782,23 +11782,23 @@
         <v>36</v>
       </c>
       <c r="N147" s="7"/>
-      <c r="O147" s="6"/>
+      <c r="O147" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P147" s="7"/>
-      <c r="Q147" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q147" s="6"/>
       <c r="R147" s="7"/>
       <c r="S147" s="6"/>
-      <c r="T147" s="7"/>
-      <c r="U147" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T147" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U147" s="6"/>
       <c r="V147" s="7"/>
       <c r="W147" s="6"/>
-      <c r="X147" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y147" s="6"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
@@ -11842,23 +11842,23 @@
         <v>36</v>
       </c>
       <c r="N148" s="7"/>
-      <c r="O148" s="6"/>
+      <c r="O148" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P148" s="7"/>
-      <c r="Q148" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q148" s="6"/>
       <c r="R148" s="7"/>
       <c r="S148" s="6"/>
-      <c r="T148" s="7"/>
-      <c r="U148" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T148" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U148" s="6"/>
       <c r="V148" s="7"/>
       <c r="W148" s="6"/>
-      <c r="X148" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y148" s="6"/>
+      <c r="X148" s="7"/>
+      <c r="Y148" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z148" s="6"/>
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
@@ -11902,23 +11902,23 @@
         <v>36</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="6"/>
+      <c r="O149" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P149" s="7"/>
-      <c r="Q149" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q149" s="6"/>
       <c r="R149" s="7"/>
       <c r="S149" s="6"/>
-      <c r="T149" s="7"/>
-      <c r="U149" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T149" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U149" s="6"/>
       <c r="V149" s="7"/>
       <c r="W149" s="6"/>
-      <c r="X149" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y149" s="6"/>
+      <c r="X149" s="7"/>
+      <c r="Y149" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
@@ -11962,23 +11962,23 @@
         <v>36</v>
       </c>
       <c r="N150" s="7"/>
-      <c r="O150" s="6"/>
+      <c r="O150" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P150" s="7"/>
-      <c r="Q150" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q150" s="6"/>
       <c r="R150" s="7"/>
       <c r="S150" s="6"/>
-      <c r="T150" s="7"/>
-      <c r="U150" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T150" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U150" s="6"/>
       <c r="V150" s="7"/>
       <c r="W150" s="6"/>
-      <c r="X150" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y150" s="6"/>
+      <c r="X150" s="7"/>
+      <c r="Y150" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z150" s="6"/>
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
@@ -12022,23 +12022,23 @@
         <v>36</v>
       </c>
       <c r="N151" s="7"/>
-      <c r="O151" s="6"/>
+      <c r="O151" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P151" s="7"/>
-      <c r="Q151" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q151" s="6"/>
       <c r="R151" s="7"/>
       <c r="S151" s="6"/>
-      <c r="T151" s="7"/>
-      <c r="U151" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T151" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U151" s="6"/>
       <c r="V151" s="7"/>
       <c r="W151" s="6"/>
-      <c r="X151" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y151" s="6"/>
+      <c r="X151" s="7"/>
+      <c r="Y151" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z151" s="6"/>
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
@@ -12082,23 +12082,23 @@
         <v>36</v>
       </c>
       <c r="N152" s="7"/>
-      <c r="O152" s="6"/>
+      <c r="O152" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P152" s="7"/>
-      <c r="Q152" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q152" s="6"/>
       <c r="R152" s="7"/>
       <c r="S152" s="6"/>
-      <c r="T152" s="7"/>
-      <c r="U152" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T152" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U152" s="6"/>
       <c r="V152" s="7"/>
       <c r="W152" s="6"/>
-      <c r="X152" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y152" s="6"/>
+      <c r="X152" s="7"/>
+      <c r="Y152" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
@@ -12142,23 +12142,23 @@
         <v>36</v>
       </c>
       <c r="N153" s="7"/>
-      <c r="O153" s="6"/>
+      <c r="O153" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P153" s="7"/>
-      <c r="Q153" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q153" s="6"/>
       <c r="R153" s="7"/>
       <c r="S153" s="6"/>
-      <c r="T153" s="7"/>
-      <c r="U153" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T153" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U153" s="6"/>
       <c r="V153" s="7"/>
       <c r="W153" s="6"/>
-      <c r="X153" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y153" s="6"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
@@ -12202,23 +12202,23 @@
         <v>36</v>
       </c>
       <c r="N154" s="7"/>
-      <c r="O154" s="6"/>
+      <c r="O154" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P154" s="7"/>
-      <c r="Q154" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q154" s="6"/>
       <c r="R154" s="7"/>
       <c r="S154" s="6"/>
-      <c r="T154" s="7"/>
-      <c r="U154" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T154" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U154" s="6"/>
       <c r="V154" s="7"/>
       <c r="W154" s="6"/>
-      <c r="X154" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y154" s="6"/>
+      <c r="X154" s="7"/>
+      <c r="Y154" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
@@ -12262,23 +12262,23 @@
         <v>36</v>
       </c>
       <c r="N155" s="7"/>
-      <c r="O155" s="6"/>
+      <c r="O155" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P155" s="7"/>
-      <c r="Q155" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q155" s="6"/>
       <c r="R155" s="7"/>
       <c r="S155" s="6"/>
-      <c r="T155" s="7"/>
-      <c r="U155" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T155" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U155" s="6"/>
       <c r="V155" s="7"/>
       <c r="W155" s="6"/>
-      <c r="X155" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y155" s="6"/>
+      <c r="X155" s="7"/>
+      <c r="Y155" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
@@ -12322,23 +12322,23 @@
         <v>36</v>
       </c>
       <c r="N156" s="3"/>
-      <c r="O156" s="2"/>
+      <c r="O156" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P156" s="3"/>
-      <c r="Q156" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q156" s="2"/>
       <c r="R156" s="3"/>
       <c r="S156" s="2"/>
-      <c r="T156" s="3"/>
-      <c r="U156" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U156" s="2"/>
       <c r="V156" s="3"/>
       <c r="W156" s="2"/>
-      <c r="X156" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y156" s="2"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
@@ -12382,23 +12382,23 @@
         <v>36</v>
       </c>
       <c r="N157" s="7"/>
-      <c r="O157" s="6"/>
+      <c r="O157" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P157" s="7"/>
-      <c r="Q157" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q157" s="6"/>
       <c r="R157" s="7"/>
       <c r="S157" s="6"/>
-      <c r="T157" s="7"/>
-      <c r="U157" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T157" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U157" s="6"/>
       <c r="V157" s="7"/>
       <c r="W157" s="6"/>
-      <c r="X157" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y157" s="6"/>
+      <c r="X157" s="7"/>
+      <c r="Y157" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
@@ -12442,23 +12442,23 @@
         <v>36</v>
       </c>
       <c r="N158" s="3"/>
-      <c r="O158" s="2"/>
+      <c r="O158" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P158" s="3"/>
-      <c r="Q158" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q158" s="2"/>
       <c r="R158" s="3"/>
       <c r="S158" s="2"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U158" s="2"/>
       <c r="V158" s="3"/>
       <c r="W158" s="2"/>
-      <c r="X158" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y158" s="2"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z158" s="2"/>
       <c r="AA158" s="2" t="s">
         <v>364</v>
@@ -12506,23 +12506,23 @@
         <v>36</v>
       </c>
       <c r="N159" s="7"/>
-      <c r="O159" s="6"/>
+      <c r="O159" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P159" s="7"/>
-      <c r="Q159" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q159" s="6"/>
       <c r="R159" s="7"/>
       <c r="S159" s="6"/>
-      <c r="T159" s="7"/>
-      <c r="U159" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T159" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U159" s="6"/>
       <c r="V159" s="7"/>
       <c r="W159" s="6"/>
-      <c r="X159" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y159" s="6"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6" t="s">
         <v>364</v>
@@ -12570,23 +12570,23 @@
         <v>36</v>
       </c>
       <c r="N160" s="7"/>
-      <c r="O160" s="6"/>
+      <c r="O160" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P160" s="7"/>
-      <c r="Q160" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q160" s="6"/>
       <c r="R160" s="7"/>
       <c r="S160" s="6"/>
-      <c r="T160" s="7"/>
-      <c r="U160" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T160" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U160" s="6"/>
       <c r="V160" s="7"/>
       <c r="W160" s="6"/>
-      <c r="X160" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y160" s="6"/>
+      <c r="X160" s="7"/>
+      <c r="Y160" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z160" s="6"/>
       <c r="AA160" s="6" t="s">
         <v>364</v>
@@ -12634,23 +12634,23 @@
         <v>36</v>
       </c>
       <c r="N161" s="7"/>
-      <c r="O161" s="6"/>
+      <c r="O161" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P161" s="7"/>
-      <c r="Q161" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q161" s="6"/>
       <c r="R161" s="7"/>
       <c r="S161" s="6"/>
-      <c r="T161" s="7"/>
-      <c r="U161" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T161" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U161" s="6"/>
       <c r="V161" s="7"/>
       <c r="W161" s="6"/>
-      <c r="X161" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y161" s="6"/>
+      <c r="X161" s="7"/>
+      <c r="Y161" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6" t="s">
         <v>364</v>
@@ -12698,23 +12698,23 @@
         <v>36</v>
       </c>
       <c r="N162" s="3"/>
-      <c r="O162" s="2"/>
+      <c r="O162" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P162" s="3"/>
-      <c r="Q162" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q162" s="2"/>
       <c r="R162" s="3"/>
       <c r="S162" s="2"/>
-      <c r="T162" s="3"/>
-      <c r="U162" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U162" s="2"/>
       <c r="V162" s="3"/>
       <c r="W162" s="2"/>
-      <c r="X162" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y162" s="2"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z162" s="2"/>
       <c r="AA162" s="2" t="s">
         <v>364</v>
@@ -12762,23 +12762,23 @@
         <v>36</v>
       </c>
       <c r="N163" s="7"/>
-      <c r="O163" s="6"/>
+      <c r="O163" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P163" s="7"/>
-      <c r="Q163" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q163" s="6"/>
       <c r="R163" s="7"/>
       <c r="S163" s="6"/>
-      <c r="T163" s="7"/>
-      <c r="U163" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T163" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U163" s="6"/>
       <c r="V163" s="7"/>
       <c r="W163" s="6"/>
-      <c r="X163" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y163" s="6"/>
+      <c r="X163" s="7"/>
+      <c r="Y163" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6" t="s">
         <v>364</v>
@@ -12826,23 +12826,23 @@
         <v>36</v>
       </c>
       <c r="N164" s="7"/>
-      <c r="O164" s="6"/>
+      <c r="O164" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P164" s="7"/>
-      <c r="Q164" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q164" s="6"/>
       <c r="R164" s="7"/>
       <c r="S164" s="6"/>
-      <c r="T164" s="7"/>
-      <c r="U164" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T164" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U164" s="6"/>
       <c r="V164" s="7"/>
       <c r="W164" s="6"/>
-      <c r="X164" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y164" s="6"/>
+      <c r="X164" s="7"/>
+      <c r="Y164" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6" t="s">
         <v>364</v>
@@ -12890,23 +12890,23 @@
         <v>36</v>
       </c>
       <c r="N165" s="3"/>
-      <c r="O165" s="2"/>
+      <c r="O165" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P165" s="3"/>
-      <c r="Q165" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q165" s="2"/>
       <c r="R165" s="3"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="3"/>
-      <c r="U165" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S165" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U165" s="2"/>
       <c r="V165" s="3"/>
       <c r="W165" s="2"/>
       <c r="X165" s="3"/>
-      <c r="Y165" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
       <c r="AA165" s="2" t="s">
         <v>382</v>
@@ -12954,19 +12954,19 @@
         <v>36</v>
       </c>
       <c r="N166" s="3"/>
-      <c r="O166" s="2"/>
+      <c r="O166" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P166" s="3"/>
-      <c r="Q166" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q166" s="2"/>
       <c r="R166" s="3"/>
       <c r="S166" s="2"/>
-      <c r="T166" s="3"/>
-      <c r="U166" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T166" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U166" s="2"/>
       <c r="V166" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W166" s="2"/>
       <c r="X166" s="3"/>
@@ -13016,19 +13016,19 @@
         <v>36</v>
       </c>
       <c r="N167" s="7"/>
-      <c r="O167" s="6"/>
+      <c r="O167" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P167" s="7"/>
-      <c r="Q167" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q167" s="6"/>
       <c r="R167" s="7"/>
       <c r="S167" s="6"/>
-      <c r="T167" s="7"/>
-      <c r="U167" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T167" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U167" s="6"/>
       <c r="V167" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W167" s="6"/>
       <c r="X167" s="7"/>
@@ -13076,19 +13076,19 @@
         <v>36</v>
       </c>
       <c r="N168" s="7"/>
-      <c r="O168" s="6"/>
+      <c r="O168" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P168" s="7"/>
-      <c r="Q168" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q168" s="6"/>
       <c r="R168" s="7"/>
       <c r="S168" s="6"/>
-      <c r="T168" s="7"/>
-      <c r="U168" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T168" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U168" s="6"/>
       <c r="V168" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W168" s="6"/>
       <c r="X168" s="7"/>
@@ -13136,19 +13136,19 @@
         <v>36</v>
       </c>
       <c r="N169" s="7"/>
-      <c r="O169" s="6"/>
+      <c r="O169" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P169" s="7"/>
-      <c r="Q169" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q169" s="6"/>
       <c r="R169" s="7"/>
       <c r="S169" s="6"/>
-      <c r="T169" s="7"/>
-      <c r="U169" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T169" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U169" s="6"/>
       <c r="V169" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W169" s="6"/>
       <c r="X169" s="7"/>
@@ -13200,19 +13200,19 @@
         <v>36</v>
       </c>
       <c r="N170" s="7"/>
-      <c r="O170" s="6"/>
+      <c r="O170" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P170" s="7"/>
-      <c r="Q170" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q170" s="6"/>
       <c r="R170" s="7"/>
       <c r="S170" s="6"/>
-      <c r="T170" s="7"/>
-      <c r="U170" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T170" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U170" s="6"/>
       <c r="V170" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W170" s="6"/>
       <c r="X170" s="7"/>
@@ -13264,19 +13264,19 @@
         <v>36</v>
       </c>
       <c r="N171" s="7"/>
-      <c r="O171" s="6"/>
+      <c r="O171" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P171" s="7"/>
-      <c r="Q171" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q171" s="6"/>
       <c r="R171" s="7"/>
       <c r="S171" s="6"/>
-      <c r="T171" s="7"/>
-      <c r="U171" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T171" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U171" s="6"/>
       <c r="V171" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W171" s="6"/>
       <c r="X171" s="7"/>
@@ -13326,19 +13326,19 @@
         <v>36</v>
       </c>
       <c r="N172" s="7"/>
-      <c r="O172" s="6"/>
+      <c r="O172" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P172" s="7"/>
-      <c r="Q172" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q172" s="6"/>
       <c r="R172" s="7"/>
       <c r="S172" s="6"/>
-      <c r="T172" s="7"/>
-      <c r="U172" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T172" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U172" s="6"/>
       <c r="V172" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W172" s="6"/>
       <c r="X172" s="7"/>
@@ -13386,19 +13386,19 @@
         <v>36</v>
       </c>
       <c r="N173" s="7"/>
-      <c r="O173" s="6"/>
+      <c r="O173" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P173" s="7"/>
-      <c r="Q173" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q173" s="6"/>
       <c r="R173" s="7"/>
       <c r="S173" s="6"/>
-      <c r="T173" s="7"/>
-      <c r="U173" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T173" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U173" s="6"/>
       <c r="V173" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W173" s="6"/>
       <c r="X173" s="7"/>
@@ -13446,19 +13446,19 @@
         <v>36</v>
       </c>
       <c r="N174" s="7"/>
-      <c r="O174" s="6"/>
+      <c r="O174" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P174" s="7"/>
-      <c r="Q174" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q174" s="6"/>
       <c r="R174" s="7"/>
       <c r="S174" s="6"/>
-      <c r="T174" s="7"/>
-      <c r="U174" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T174" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U174" s="6"/>
       <c r="V174" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W174" s="6"/>
       <c r="X174" s="7"/>
@@ -13510,19 +13510,19 @@
         <v>36</v>
       </c>
       <c r="N175" s="7"/>
-      <c r="O175" s="6"/>
+      <c r="O175" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P175" s="7"/>
-      <c r="Q175" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q175" s="6"/>
       <c r="R175" s="7"/>
       <c r="S175" s="6"/>
-      <c r="T175" s="7"/>
-      <c r="U175" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T175" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U175" s="6"/>
       <c r="V175" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W175" s="6"/>
       <c r="X175" s="7"/>
@@ -13574,19 +13574,19 @@
         <v>36</v>
       </c>
       <c r="N176" s="3"/>
-      <c r="O176" s="2"/>
+      <c r="O176" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P176" s="3"/>
-      <c r="Q176" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q176" s="2"/>
       <c r="R176" s="3"/>
       <c r="S176" s="2"/>
-      <c r="T176" s="3"/>
-      <c r="U176" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T176" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U176" s="2"/>
       <c r="V176" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W176" s="2"/>
       <c r="X176" s="3"/>
@@ -13636,19 +13636,19 @@
         <v>36</v>
       </c>
       <c r="N177" s="7"/>
-      <c r="O177" s="6"/>
+      <c r="O177" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P177" s="7"/>
-      <c r="Q177" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q177" s="6"/>
       <c r="R177" s="7"/>
       <c r="S177" s="6"/>
-      <c r="T177" s="7"/>
-      <c r="U177" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T177" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U177" s="6"/>
       <c r="V177" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W177" s="6"/>
       <c r="X177" s="7"/>
@@ -13696,19 +13696,19 @@
         <v>36</v>
       </c>
       <c r="N178" s="7"/>
-      <c r="O178" s="6"/>
+      <c r="O178" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P178" s="7"/>
-      <c r="Q178" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q178" s="6"/>
       <c r="R178" s="7"/>
       <c r="S178" s="6"/>
-      <c r="T178" s="7"/>
-      <c r="U178" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T178" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U178" s="6"/>
       <c r="V178" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W178" s="6"/>
       <c r="X178" s="7"/>
@@ -13756,19 +13756,19 @@
         <v>36</v>
       </c>
       <c r="N179" s="7"/>
-      <c r="O179" s="6"/>
+      <c r="O179" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P179" s="7"/>
-      <c r="Q179" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q179" s="6"/>
       <c r="R179" s="7"/>
       <c r="S179" s="6"/>
-      <c r="T179" s="7"/>
-      <c r="U179" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T179" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U179" s="6"/>
       <c r="V179" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W179" s="6"/>
       <c r="X179" s="7"/>
@@ -13820,19 +13820,19 @@
         <v>36</v>
       </c>
       <c r="N180" s="7"/>
-      <c r="O180" s="6"/>
+      <c r="O180" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P180" s="7"/>
-      <c r="Q180" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q180" s="6"/>
       <c r="R180" s="7"/>
       <c r="S180" s="6"/>
-      <c r="T180" s="7"/>
-      <c r="U180" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T180" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U180" s="6"/>
       <c r="V180" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W180" s="6"/>
       <c r="X180" s="7"/>
@@ -13884,19 +13884,19 @@
         <v>36</v>
       </c>
       <c r="N181" s="7"/>
-      <c r="O181" s="6"/>
+      <c r="O181" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P181" s="7"/>
-      <c r="Q181" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q181" s="6"/>
       <c r="R181" s="7"/>
       <c r="S181" s="6"/>
-      <c r="T181" s="7"/>
-      <c r="U181" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T181" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U181" s="6"/>
       <c r="V181" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W181" s="6"/>
       <c r="X181" s="7"/>
@@ -13946,19 +13946,19 @@
         <v>36</v>
       </c>
       <c r="N182" s="7"/>
-      <c r="O182" s="6"/>
+      <c r="O182" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P182" s="7"/>
-      <c r="Q182" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q182" s="6"/>
       <c r="R182" s="7"/>
       <c r="S182" s="6"/>
-      <c r="T182" s="7"/>
-      <c r="U182" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T182" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U182" s="6"/>
       <c r="V182" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W182" s="6"/>
       <c r="X182" s="7"/>
@@ -14006,19 +14006,19 @@
         <v>36</v>
       </c>
       <c r="N183" s="7"/>
-      <c r="O183" s="6"/>
+      <c r="O183" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P183" s="7"/>
-      <c r="Q183" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q183" s="6"/>
       <c r="R183" s="7"/>
       <c r="S183" s="6"/>
-      <c r="T183" s="7"/>
-      <c r="U183" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T183" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U183" s="6"/>
       <c r="V183" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W183" s="6"/>
       <c r="X183" s="7"/>
@@ -14066,19 +14066,19 @@
         <v>36</v>
       </c>
       <c r="N184" s="7"/>
-      <c r="O184" s="6"/>
+      <c r="O184" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P184" s="7"/>
-      <c r="Q184" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q184" s="6"/>
       <c r="R184" s="7"/>
       <c r="S184" s="6"/>
-      <c r="T184" s="7"/>
-      <c r="U184" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T184" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U184" s="6"/>
       <c r="V184" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W184" s="6"/>
       <c r="X184" s="7"/>
@@ -14130,19 +14130,19 @@
         <v>36</v>
       </c>
       <c r="N185" s="7"/>
-      <c r="O185" s="6"/>
+      <c r="O185" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P185" s="7"/>
-      <c r="Q185" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q185" s="6"/>
       <c r="R185" s="7"/>
       <c r="S185" s="6"/>
-      <c r="T185" s="7"/>
-      <c r="U185" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T185" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U185" s="6"/>
       <c r="V185" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W185" s="6"/>
       <c r="X185" s="7"/>
@@ -14199,15 +14199,15 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="3"/>
       <c r="S186" s="2"/>
-      <c r="T186" s="3"/>
-      <c r="U186" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T186" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U186" s="2"/>
       <c r="V186" s="3"/>
-      <c r="W186" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X186" s="3"/>
+      <c r="W186" s="2"/>
+      <c r="X186" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
@@ -14257,15 +14257,15 @@
       <c r="Q187" s="6"/>
       <c r="R187" s="7"/>
       <c r="S187" s="6"/>
-      <c r="T187" s="7"/>
-      <c r="U187" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T187" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U187" s="6"/>
       <c r="V187" s="7"/>
-      <c r="W187" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X187" s="7"/>
+      <c r="W187" s="6"/>
+      <c r="X187" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
       <c r="AA187" s="6"/>
@@ -14315,15 +14315,15 @@
       <c r="Q188" s="6"/>
       <c r="R188" s="7"/>
       <c r="S188" s="6"/>
-      <c r="T188" s="7"/>
-      <c r="U188" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T188" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U188" s="6"/>
       <c r="V188" s="7"/>
-      <c r="W188" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X188" s="7"/>
+      <c r="W188" s="6"/>
+      <c r="X188" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
@@ -14373,15 +14373,15 @@
       <c r="Q189" s="6"/>
       <c r="R189" s="7"/>
       <c r="S189" s="6"/>
-      <c r="T189" s="7"/>
-      <c r="U189" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T189" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U189" s="6"/>
       <c r="V189" s="7"/>
-      <c r="W189" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X189" s="7"/>
+      <c r="W189" s="6"/>
+      <c r="X189" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
@@ -14431,15 +14431,15 @@
       <c r="Q190" s="6"/>
       <c r="R190" s="7"/>
       <c r="S190" s="6"/>
-      <c r="T190" s="7"/>
-      <c r="U190" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T190" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U190" s="6"/>
       <c r="V190" s="7"/>
-      <c r="W190" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X190" s="7"/>
+      <c r="W190" s="6"/>
+      <c r="X190" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
@@ -14489,15 +14489,15 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="7"/>
       <c r="S191" s="6"/>
-      <c r="T191" s="7"/>
-      <c r="U191" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T191" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U191" s="6"/>
       <c r="V191" s="7"/>
-      <c r="W191" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X191" s="7"/>
+      <c r="W191" s="6"/>
+      <c r="X191" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
@@ -14547,15 +14547,15 @@
       <c r="Q192" s="6"/>
       <c r="R192" s="7"/>
       <c r="S192" s="6"/>
-      <c r="T192" s="7"/>
-      <c r="U192" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T192" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U192" s="6"/>
       <c r="V192" s="7"/>
-      <c r="W192" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X192" s="7"/>
+      <c r="W192" s="6"/>
+      <c r="X192" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
@@ -14605,15 +14605,15 @@
       <c r="Q193" s="6"/>
       <c r="R193" s="7"/>
       <c r="S193" s="6"/>
-      <c r="T193" s="7"/>
-      <c r="U193" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T193" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U193" s="6"/>
       <c r="V193" s="7"/>
-      <c r="W193" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X193" s="7"/>
+      <c r="W193" s="6"/>
+      <c r="X193" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
@@ -14663,15 +14663,15 @@
       <c r="Q194" s="6"/>
       <c r="R194" s="7"/>
       <c r="S194" s="6"/>
-      <c r="T194" s="7"/>
-      <c r="U194" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T194" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U194" s="6"/>
       <c r="V194" s="7"/>
-      <c r="W194" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X194" s="7"/>
+      <c r="W194" s="6"/>
+      <c r="X194" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
@@ -14721,15 +14721,15 @@
       <c r="Q195" s="6"/>
       <c r="R195" s="7"/>
       <c r="S195" s="6"/>
-      <c r="T195" s="7"/>
-      <c r="U195" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T195" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U195" s="6"/>
       <c r="V195" s="7"/>
-      <c r="W195" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X195" s="7"/>
+      <c r="W195" s="6"/>
+      <c r="X195" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
@@ -14779,15 +14779,15 @@
       <c r="Q196" s="6"/>
       <c r="R196" s="7"/>
       <c r="S196" s="6"/>
-      <c r="T196" s="7"/>
-      <c r="U196" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T196" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U196" s="6"/>
       <c r="V196" s="7"/>
-      <c r="W196" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X196" s="7"/>
+      <c r="W196" s="6"/>
+      <c r="X196" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
@@ -14837,15 +14837,15 @@
       <c r="Q197" s="6"/>
       <c r="R197" s="7"/>
       <c r="S197" s="6"/>
-      <c r="T197" s="7"/>
-      <c r="U197" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T197" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U197" s="6"/>
       <c r="V197" s="7"/>
-      <c r="W197" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X197" s="7"/>
+      <c r="W197" s="6"/>
+      <c r="X197" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
@@ -14895,15 +14895,15 @@
       <c r="Q198" s="6"/>
       <c r="R198" s="7"/>
       <c r="S198" s="6"/>
-      <c r="T198" s="7"/>
-      <c r="U198" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T198" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U198" s="6"/>
       <c r="V198" s="7"/>
-      <c r="W198" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X198" s="7"/>
+      <c r="W198" s="6"/>
+      <c r="X198" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
@@ -14953,15 +14953,15 @@
       <c r="Q199" s="6"/>
       <c r="R199" s="7"/>
       <c r="S199" s="6"/>
-      <c r="T199" s="7"/>
-      <c r="U199" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T199" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U199" s="6"/>
       <c r="V199" s="7"/>
-      <c r="W199" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X199" s="7"/>
+      <c r="W199" s="6"/>
+      <c r="X199" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
@@ -15011,15 +15011,15 @@
       <c r="Q200" s="6"/>
       <c r="R200" s="7"/>
       <c r="S200" s="6"/>
-      <c r="T200" s="7"/>
-      <c r="U200" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T200" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U200" s="6"/>
       <c r="V200" s="7"/>
-      <c r="W200" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X200" s="7"/>
+      <c r="W200" s="6"/>
+      <c r="X200" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
@@ -15069,15 +15069,15 @@
       <c r="Q201" s="6"/>
       <c r="R201" s="7"/>
       <c r="S201" s="6"/>
-      <c r="T201" s="7"/>
-      <c r="U201" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T201" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U201" s="6"/>
       <c r="V201" s="7"/>
-      <c r="W201" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X201" s="7"/>
+      <c r="W201" s="6"/>
+      <c r="X201" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="6"/>
@@ -15127,15 +15127,15 @@
       <c r="Q202" s="6"/>
       <c r="R202" s="7"/>
       <c r="S202" s="6"/>
-      <c r="T202" s="7"/>
-      <c r="U202" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T202" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U202" s="6"/>
       <c r="V202" s="7"/>
-      <c r="W202" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X202" s="7"/>
+      <c r="W202" s="6"/>
+      <c r="X202" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
       <c r="AA202" s="6"/>
@@ -15185,15 +15185,15 @@
       <c r="Q203" s="6"/>
       <c r="R203" s="7"/>
       <c r="S203" s="6"/>
-      <c r="T203" s="7"/>
-      <c r="U203" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T203" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U203" s="6"/>
       <c r="V203" s="7"/>
-      <c r="W203" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X203" s="7"/>
+      <c r="W203" s="6"/>
+      <c r="X203" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
       <c r="AA203" s="6"/>
@@ -15243,15 +15243,15 @@
       <c r="Q204" s="6"/>
       <c r="R204" s="7"/>
       <c r="S204" s="6"/>
-      <c r="T204" s="7"/>
-      <c r="U204" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T204" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U204" s="6"/>
       <c r="V204" s="7"/>
-      <c r="W204" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X204" s="7"/>
+      <c r="W204" s="6"/>
+      <c r="X204" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
       <c r="AA204" s="6"/>
@@ -15301,15 +15301,15 @@
       <c r="Q205" s="6"/>
       <c r="R205" s="7"/>
       <c r="S205" s="6"/>
-      <c r="T205" s="7"/>
-      <c r="U205" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T205" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U205" s="6"/>
       <c r="V205" s="7"/>
-      <c r="W205" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X205" s="7"/>
+      <c r="W205" s="6"/>
+      <c r="X205" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
       <c r="AA205" s="6"/>
@@ -15359,15 +15359,15 @@
       <c r="Q206" s="6"/>
       <c r="R206" s="7"/>
       <c r="S206" s="6"/>
-      <c r="T206" s="7"/>
-      <c r="U206" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T206" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U206" s="6"/>
       <c r="V206" s="7"/>
-      <c r="W206" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X206" s="7"/>
+      <c r="W206" s="6"/>
+      <c r="X206" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
       <c r="AA206" s="6"/>
@@ -15417,15 +15417,15 @@
       <c r="Q207" s="6"/>
       <c r="R207" s="7"/>
       <c r="S207" s="6"/>
-      <c r="T207" s="7"/>
-      <c r="U207" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T207" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U207" s="6"/>
       <c r="V207" s="7"/>
-      <c r="W207" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X207" s="7"/>
+      <c r="W207" s="6"/>
+      <c r="X207" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
       <c r="AA207" s="6"/>
@@ -15475,15 +15475,15 @@
       <c r="Q208" s="6"/>
       <c r="R208" s="7"/>
       <c r="S208" s="6"/>
-      <c r="T208" s="7"/>
-      <c r="U208" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T208" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U208" s="6"/>
       <c r="V208" s="7"/>
-      <c r="W208" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X208" s="7"/>
+      <c r="W208" s="6"/>
+      <c r="X208" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
       <c r="AA208" s="6"/>
@@ -15533,15 +15533,15 @@
       <c r="Q209" s="6"/>
       <c r="R209" s="7"/>
       <c r="S209" s="6"/>
-      <c r="T209" s="7"/>
-      <c r="U209" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T209" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U209" s="6"/>
       <c r="V209" s="7"/>
-      <c r="W209" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X209" s="7"/>
+      <c r="W209" s="6"/>
+      <c r="X209" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
       <c r="AA209" s="6"/>
@@ -15591,15 +15591,15 @@
       <c r="Q210" s="6"/>
       <c r="R210" s="7"/>
       <c r="S210" s="6"/>
-      <c r="T210" s="7"/>
-      <c r="U210" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T210" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U210" s="6"/>
       <c r="V210" s="7"/>
-      <c r="W210" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X210" s="7"/>
+      <c r="W210" s="6"/>
+      <c r="X210" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
       <c r="AA210" s="6"/>
@@ -15649,15 +15649,15 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="3"/>
       <c r="S211" s="2"/>
-      <c r="T211" s="3"/>
-      <c r="U211" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T211" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U211" s="2"/>
       <c r="V211" s="3"/>
-      <c r="W211" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X211" s="3"/>
+      <c r="W211" s="2"/>
+      <c r="X211" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2" t="s">
@@ -15711,15 +15711,15 @@
       <c r="Q212" s="6"/>
       <c r="R212" s="7"/>
       <c r="S212" s="6"/>
-      <c r="T212" s="7"/>
-      <c r="U212" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T212" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U212" s="6"/>
       <c r="V212" s="7"/>
-      <c r="W212" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X212" s="7"/>
+      <c r="W212" s="6"/>
+      <c r="X212" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
       <c r="AA212" s="6" t="s">
@@ -15773,15 +15773,15 @@
       <c r="Q213" s="6"/>
       <c r="R213" s="7"/>
       <c r="S213" s="6"/>
-      <c r="T213" s="7"/>
-      <c r="U213" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T213" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U213" s="6"/>
       <c r="V213" s="7"/>
-      <c r="W213" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X213" s="7"/>
+      <c r="W213" s="6"/>
+      <c r="X213" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
       <c r="AA213" s="6" t="s">
@@ -15835,15 +15835,15 @@
       <c r="Q214" s="6"/>
       <c r="R214" s="7"/>
       <c r="S214" s="6"/>
-      <c r="T214" s="7"/>
-      <c r="U214" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T214" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U214" s="6"/>
       <c r="V214" s="7"/>
-      <c r="W214" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X214" s="7"/>
+      <c r="W214" s="6"/>
+      <c r="X214" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
       <c r="AA214" s="6" t="s">
@@ -15897,15 +15897,15 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="3"/>
       <c r="S215" s="2"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T215" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U215" s="2"/>
       <c r="V215" s="3"/>
-      <c r="W215" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X215" s="3"/>
+      <c r="W215" s="2"/>
+      <c r="X215" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2" t="s">
@@ -15959,15 +15959,15 @@
       <c r="Q216" s="6"/>
       <c r="R216" s="7"/>
       <c r="S216" s="6"/>
-      <c r="T216" s="7"/>
-      <c r="U216" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T216" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U216" s="6"/>
       <c r="V216" s="7"/>
-      <c r="W216" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X216" s="7"/>
+      <c r="W216" s="6"/>
+      <c r="X216" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6" t="s">
@@ -16021,15 +16021,15 @@
       <c r="Q217" s="6"/>
       <c r="R217" s="7"/>
       <c r="S217" s="6"/>
-      <c r="T217" s="7"/>
-      <c r="U217" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T217" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U217" s="6"/>
       <c r="V217" s="7"/>
-      <c r="W217" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X217" s="7"/>
+      <c r="W217" s="6"/>
+      <c r="X217" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y217" s="6"/>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6" t="s">
@@ -16083,15 +16083,15 @@
       <c r="Q218" s="6"/>
       <c r="R218" s="7"/>
       <c r="S218" s="6"/>
-      <c r="T218" s="7"/>
-      <c r="U218" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T218" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U218" s="6"/>
       <c r="V218" s="7"/>
-      <c r="W218" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X218" s="7"/>
+      <c r="W218" s="6"/>
+      <c r="X218" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y218" s="6"/>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6" t="s">
@@ -16145,15 +16145,15 @@
       <c r="Q219" s="6"/>
       <c r="R219" s="7"/>
       <c r="S219" s="6"/>
-      <c r="T219" s="7"/>
-      <c r="U219" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T219" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U219" s="6"/>
       <c r="V219" s="7"/>
-      <c r="W219" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X219" s="7"/>
+      <c r="W219" s="6"/>
+      <c r="X219" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
       <c r="AA219" s="6" t="s">
@@ -16207,15 +16207,15 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="3"/>
       <c r="S220" s="2"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T220" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U220" s="2"/>
       <c r="V220" s="3"/>
-      <c r="W220" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X220" s="3"/>
+      <c r="W220" s="2"/>
+      <c r="X220" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
       <c r="AA220" s="2" t="s">
@@ -16269,15 +16269,15 @@
       <c r="Q221" s="6"/>
       <c r="R221" s="7"/>
       <c r="S221" s="6"/>
-      <c r="T221" s="7"/>
-      <c r="U221" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T221" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U221" s="6"/>
       <c r="V221" s="7"/>
-      <c r="W221" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X221" s="7"/>
+      <c r="W221" s="6"/>
+      <c r="X221" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
       <c r="AA221" s="6" t="s">
@@ -16331,15 +16331,15 @@
       <c r="Q222" s="6"/>
       <c r="R222" s="7"/>
       <c r="S222" s="6"/>
-      <c r="T222" s="7"/>
-      <c r="U222" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T222" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U222" s="6"/>
       <c r="V222" s="7"/>
-      <c r="W222" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X222" s="7"/>
+      <c r="W222" s="6"/>
+      <c r="X222" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
       <c r="AA222" s="6" t="s">
@@ -16393,15 +16393,15 @@
       <c r="Q223" s="6"/>
       <c r="R223" s="7"/>
       <c r="S223" s="6"/>
-      <c r="T223" s="7"/>
-      <c r="U223" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T223" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U223" s="6"/>
       <c r="V223" s="7"/>
-      <c r="W223" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X223" s="7"/>
+      <c r="W223" s="6"/>
+      <c r="X223" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
       <c r="AA223" s="6" t="s">
@@ -16455,15 +16455,15 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="3"/>
       <c r="S224" s="2"/>
-      <c r="T224" s="3"/>
-      <c r="U224" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T224" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U224" s="2"/>
       <c r="V224" s="3"/>
-      <c r="W224" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X224" s="3"/>
+      <c r="W224" s="2"/>
+      <c r="X224" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
@@ -16513,15 +16513,15 @@
       <c r="Q225" s="6"/>
       <c r="R225" s="7"/>
       <c r="S225" s="6"/>
-      <c r="T225" s="7"/>
-      <c r="U225" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T225" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U225" s="6"/>
       <c r="V225" s="7"/>
-      <c r="W225" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X225" s="7"/>
+      <c r="W225" s="6"/>
+      <c r="X225" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
       <c r="AA225" s="6"/>
@@ -16571,15 +16571,15 @@
       <c r="Q226" s="6"/>
       <c r="R226" s="7"/>
       <c r="S226" s="6"/>
-      <c r="T226" s="7"/>
-      <c r="U226" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T226" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U226" s="6"/>
       <c r="V226" s="7"/>
-      <c r="W226" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X226" s="7"/>
+      <c r="W226" s="6"/>
+      <c r="X226" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y226" s="6"/>
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
@@ -16629,15 +16629,15 @@
       <c r="Q227" s="6"/>
       <c r="R227" s="7"/>
       <c r="S227" s="6"/>
-      <c r="T227" s="7"/>
-      <c r="U227" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T227" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U227" s="6"/>
       <c r="V227" s="7"/>
-      <c r="W227" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X227" s="7"/>
+      <c r="W227" s="6"/>
+      <c r="X227" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y227" s="6"/>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
@@ -16687,15 +16687,15 @@
       <c r="Q228" s="6"/>
       <c r="R228" s="7"/>
       <c r="S228" s="6"/>
-      <c r="T228" s="7"/>
-      <c r="U228" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T228" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U228" s="6"/>
       <c r="V228" s="7"/>
-      <c r="W228" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X228" s="7"/>
+      <c r="W228" s="6"/>
+      <c r="X228" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y228" s="6"/>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
@@ -16745,15 +16745,15 @@
       <c r="Q229" s="6"/>
       <c r="R229" s="7"/>
       <c r="S229" s="6"/>
-      <c r="T229" s="7"/>
-      <c r="U229" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T229" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U229" s="6"/>
       <c r="V229" s="7"/>
-      <c r="W229" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X229" s="7"/>
+      <c r="W229" s="6"/>
+      <c r="X229" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y229" s="6"/>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
@@ -16803,15 +16803,15 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="7"/>
       <c r="S230" s="6"/>
-      <c r="T230" s="7"/>
-      <c r="U230" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T230" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U230" s="6"/>
       <c r="V230" s="7"/>
-      <c r="W230" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X230" s="7"/>
+      <c r="W230" s="6"/>
+      <c r="X230" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y230" s="6"/>
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
@@ -16861,15 +16861,15 @@
       <c r="Q231" s="6"/>
       <c r="R231" s="7"/>
       <c r="S231" s="6"/>
-      <c r="T231" s="7"/>
-      <c r="U231" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T231" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U231" s="6"/>
       <c r="V231" s="7"/>
-      <c r="W231" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X231" s="7"/>
+      <c r="W231" s="6"/>
+      <c r="X231" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y231" s="6"/>
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
@@ -16919,15 +16919,15 @@
       <c r="Q232" s="6"/>
       <c r="R232" s="7"/>
       <c r="S232" s="6"/>
-      <c r="T232" s="7"/>
-      <c r="U232" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T232" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U232" s="6"/>
       <c r="V232" s="7"/>
-      <c r="W232" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X232" s="7"/>
+      <c r="W232" s="6"/>
+      <c r="X232" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y232" s="6"/>
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
@@ -16977,15 +16977,15 @@
       <c r="Q233" s="6"/>
       <c r="R233" s="7"/>
       <c r="S233" s="6"/>
-      <c r="T233" s="7"/>
-      <c r="U233" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T233" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U233" s="6"/>
       <c r="V233" s="7"/>
-      <c r="W233" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X233" s="7"/>
+      <c r="W233" s="6"/>
+      <c r="X233" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y233" s="6"/>
       <c r="Z233" s="6"/>
       <c r="AA233" s="6"/>
@@ -17035,15 +17035,15 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="7"/>
       <c r="S234" s="6"/>
-      <c r="T234" s="7"/>
-      <c r="U234" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T234" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U234" s="6"/>
       <c r="V234" s="7"/>
-      <c r="W234" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X234" s="7"/>
+      <c r="W234" s="6"/>
+      <c r="X234" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y234" s="6"/>
       <c r="Z234" s="6"/>
       <c r="AA234" s="6"/>
@@ -17093,15 +17093,15 @@
       <c r="Q235" s="6"/>
       <c r="R235" s="7"/>
       <c r="S235" s="6"/>
-      <c r="T235" s="7"/>
-      <c r="U235" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T235" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U235" s="6"/>
       <c r="V235" s="7"/>
-      <c r="W235" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X235" s="7"/>
+      <c r="W235" s="6"/>
+      <c r="X235" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y235" s="6"/>
       <c r="Z235" s="6"/>
       <c r="AA235" s="6"/>
@@ -17151,15 +17151,15 @@
       <c r="Q236" s="6"/>
       <c r="R236" s="7"/>
       <c r="S236" s="6"/>
-      <c r="T236" s="7"/>
-      <c r="U236" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T236" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U236" s="6"/>
       <c r="V236" s="7"/>
-      <c r="W236" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X236" s="7"/>
+      <c r="W236" s="6"/>
+      <c r="X236" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y236" s="6"/>
       <c r="Z236" s="6"/>
       <c r="AA236" s="6"/>
@@ -17209,15 +17209,15 @@
       <c r="Q237" s="6"/>
       <c r="R237" s="7"/>
       <c r="S237" s="6"/>
-      <c r="T237" s="7"/>
-      <c r="U237" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T237" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U237" s="6"/>
       <c r="V237" s="7"/>
-      <c r="W237" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X237" s="7"/>
+      <c r="W237" s="6"/>
+      <c r="X237" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y237" s="6"/>
       <c r="Z237" s="6"/>
       <c r="AA237" s="6"/>
@@ -17267,15 +17267,15 @@
       <c r="Q238" s="6"/>
       <c r="R238" s="7"/>
       <c r="S238" s="6"/>
-      <c r="T238" s="7"/>
-      <c r="U238" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T238" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U238" s="6"/>
       <c r="V238" s="7"/>
-      <c r="W238" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X238" s="7"/>
+      <c r="W238" s="6"/>
+      <c r="X238" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y238" s="6"/>
       <c r="Z238" s="6"/>
       <c r="AA238" s="6"/>
@@ -17325,15 +17325,15 @@
       <c r="Q239" s="6"/>
       <c r="R239" s="7"/>
       <c r="S239" s="6"/>
-      <c r="T239" s="7"/>
-      <c r="U239" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T239" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U239" s="6"/>
       <c r="V239" s="7"/>
-      <c r="W239" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X239" s="7"/>
+      <c r="W239" s="6"/>
+      <c r="X239" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y239" s="6"/>
       <c r="Z239" s="6"/>
       <c r="AA239" s="6"/>
@@ -17383,15 +17383,15 @@
       <c r="Q240" s="6"/>
       <c r="R240" s="7"/>
       <c r="S240" s="6"/>
-      <c r="T240" s="7"/>
-      <c r="U240" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T240" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U240" s="6"/>
       <c r="V240" s="7"/>
-      <c r="W240" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X240" s="7"/>
+      <c r="W240" s="6"/>
+      <c r="X240" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y240" s="6"/>
       <c r="Z240" s="6"/>
       <c r="AA240" s="6"/>
@@ -17441,15 +17441,15 @@
       <c r="Q241" s="6"/>
       <c r="R241" s="7"/>
       <c r="S241" s="6"/>
-      <c r="T241" s="7"/>
-      <c r="U241" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T241" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U241" s="6"/>
       <c r="V241" s="7"/>
-      <c r="W241" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X241" s="7"/>
+      <c r="W241" s="6"/>
+      <c r="X241" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y241" s="6"/>
       <c r="Z241" s="6"/>
       <c r="AA241" s="6"/>
@@ -17499,15 +17499,15 @@
       <c r="Q242" s="6"/>
       <c r="R242" s="7"/>
       <c r="S242" s="6"/>
-      <c r="T242" s="7"/>
-      <c r="U242" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T242" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U242" s="6"/>
       <c r="V242" s="7"/>
-      <c r="W242" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X242" s="7"/>
+      <c r="W242" s="6"/>
+      <c r="X242" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y242" s="6"/>
       <c r="Z242" s="6"/>
       <c r="AA242" s="6"/>
@@ -17557,15 +17557,15 @@
       <c r="Q243" s="6"/>
       <c r="R243" s="7"/>
       <c r="S243" s="6"/>
-      <c r="T243" s="7"/>
-      <c r="U243" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T243" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U243" s="6"/>
       <c r="V243" s="7"/>
-      <c r="W243" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X243" s="7"/>
+      <c r="W243" s="6"/>
+      <c r="X243" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y243" s="6"/>
       <c r="Z243" s="6"/>
       <c r="AA243" s="6"/>
@@ -17615,15 +17615,15 @@
       <c r="Q244" s="6"/>
       <c r="R244" s="7"/>
       <c r="S244" s="6"/>
-      <c r="T244" s="7"/>
-      <c r="U244" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T244" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U244" s="6"/>
       <c r="V244" s="7"/>
-      <c r="W244" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X244" s="7"/>
+      <c r="W244" s="6"/>
+      <c r="X244" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y244" s="6"/>
       <c r="Z244" s="6"/>
       <c r="AA244" s="6"/>
@@ -17673,15 +17673,15 @@
       <c r="Q245" s="6"/>
       <c r="R245" s="7"/>
       <c r="S245" s="6"/>
-      <c r="T245" s="7"/>
-      <c r="U245" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T245" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U245" s="6"/>
       <c r="V245" s="7"/>
-      <c r="W245" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X245" s="7"/>
+      <c r="W245" s="6"/>
+      <c r="X245" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y245" s="6"/>
       <c r="Z245" s="6"/>
       <c r="AA245" s="6"/>
@@ -17731,15 +17731,15 @@
       <c r="Q246" s="6"/>
       <c r="R246" s="7"/>
       <c r="S246" s="6"/>
-      <c r="T246" s="7"/>
-      <c r="U246" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T246" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U246" s="6"/>
       <c r="V246" s="7"/>
-      <c r="W246" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X246" s="7"/>
+      <c r="W246" s="6"/>
+      <c r="X246" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y246" s="6"/>
       <c r="Z246" s="6"/>
       <c r="AA246" s="6"/>
@@ -17789,15 +17789,15 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="7"/>
       <c r="S247" s="6"/>
-      <c r="T247" s="7"/>
-      <c r="U247" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T247" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U247" s="6"/>
       <c r="V247" s="7"/>
-      <c r="W247" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X247" s="7"/>
+      <c r="W247" s="6"/>
+      <c r="X247" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y247" s="6"/>
       <c r="Z247" s="6"/>
       <c r="AA247" s="6"/>
@@ -17847,15 +17847,15 @@
       <c r="Q248" s="6"/>
       <c r="R248" s="7"/>
       <c r="S248" s="6"/>
-      <c r="T248" s="7"/>
-      <c r="U248" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T248" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U248" s="6"/>
       <c r="V248" s="7"/>
-      <c r="W248" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X248" s="7"/>
+      <c r="W248" s="6"/>
+      <c r="X248" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y248" s="6"/>
       <c r="Z248" s="6"/>
       <c r="AA248" s="6"/>
@@ -17905,15 +17905,15 @@
       <c r="Q249" s="6"/>
       <c r="R249" s="7"/>
       <c r="S249" s="6"/>
-      <c r="T249" s="7"/>
-      <c r="U249" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T249" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U249" s="6"/>
       <c r="V249" s="7"/>
-      <c r="W249" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X249" s="7"/>
+      <c r="W249" s="6"/>
+      <c r="X249" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y249" s="6"/>
       <c r="Z249" s="6"/>
       <c r="AA249" s="6"/>
@@ -17963,15 +17963,15 @@
       <c r="Q250" s="6"/>
       <c r="R250" s="7"/>
       <c r="S250" s="6"/>
-      <c r="T250" s="7"/>
-      <c r="U250" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T250" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U250" s="6"/>
       <c r="V250" s="7"/>
-      <c r="W250" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X250" s="7"/>
+      <c r="W250" s="6"/>
+      <c r="X250" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y250" s="6"/>
       <c r="Z250" s="6"/>
       <c r="AA250" s="6"/>
@@ -18021,15 +18021,15 @@
       <c r="Q251" s="6"/>
       <c r="R251" s="7"/>
       <c r="S251" s="6"/>
-      <c r="T251" s="7"/>
-      <c r="U251" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T251" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U251" s="6"/>
       <c r="V251" s="7"/>
-      <c r="W251" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X251" s="7"/>
+      <c r="W251" s="6"/>
+      <c r="X251" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y251" s="6"/>
       <c r="Z251" s="6"/>
       <c r="AA251" s="6"/>
@@ -18079,15 +18079,15 @@
       <c r="Q252" s="6"/>
       <c r="R252" s="7"/>
       <c r="S252" s="6"/>
-      <c r="T252" s="7"/>
-      <c r="U252" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T252" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U252" s="6"/>
       <c r="V252" s="7"/>
-      <c r="W252" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X252" s="7"/>
+      <c r="W252" s="6"/>
+      <c r="X252" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y252" s="6"/>
       <c r="Z252" s="6"/>
       <c r="AA252" s="6"/>
@@ -18137,15 +18137,15 @@
       <c r="Q253" s="6"/>
       <c r="R253" s="7"/>
       <c r="S253" s="6"/>
-      <c r="T253" s="7"/>
-      <c r="U253" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T253" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U253" s="6"/>
       <c r="V253" s="7"/>
-      <c r="W253" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X253" s="7"/>
+      <c r="W253" s="6"/>
+      <c r="X253" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y253" s="6"/>
       <c r="Z253" s="6"/>
       <c r="AA253" s="6"/>
@@ -18195,15 +18195,15 @@
       <c r="Q254" s="6"/>
       <c r="R254" s="7"/>
       <c r="S254" s="6"/>
-      <c r="T254" s="7"/>
-      <c r="U254" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T254" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U254" s="6"/>
       <c r="V254" s="7"/>
-      <c r="W254" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X254" s="7"/>
+      <c r="W254" s="6"/>
+      <c r="X254" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y254" s="6"/>
       <c r="Z254" s="6"/>
       <c r="AA254" s="6"/>
@@ -18253,15 +18253,15 @@
       <c r="Q255" s="6"/>
       <c r="R255" s="7"/>
       <c r="S255" s="6"/>
-      <c r="T255" s="7"/>
-      <c r="U255" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T255" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U255" s="6"/>
       <c r="V255" s="7"/>
-      <c r="W255" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X255" s="7"/>
+      <c r="W255" s="6"/>
+      <c r="X255" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y255" s="6"/>
       <c r="Z255" s="6"/>
       <c r="AA255" s="6"/>
@@ -18311,15 +18311,15 @@
       <c r="Q256" s="6"/>
       <c r="R256" s="7"/>
       <c r="S256" s="6"/>
-      <c r="T256" s="7"/>
-      <c r="U256" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T256" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U256" s="6"/>
       <c r="V256" s="7"/>
-      <c r="W256" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X256" s="7"/>
+      <c r="W256" s="6"/>
+      <c r="X256" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y256" s="6"/>
       <c r="Z256" s="6"/>
       <c r="AA256" s="6"/>
@@ -18369,15 +18369,15 @@
       <c r="Q257" s="6"/>
       <c r="R257" s="7"/>
       <c r="S257" s="6"/>
-      <c r="T257" s="7"/>
-      <c r="U257" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T257" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U257" s="6"/>
       <c r="V257" s="7"/>
-      <c r="W257" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X257" s="7"/>
+      <c r="W257" s="6"/>
+      <c r="X257" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y257" s="6"/>
       <c r="Z257" s="6"/>
       <c r="AA257" s="6"/>
@@ -18430,10 +18430,10 @@
       <c r="T258" s="7"/>
       <c r="U258" s="6"/>
       <c r="V258" s="7"/>
-      <c r="W258" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X258" s="7"/>
+      <c r="W258" s="6"/>
+      <c r="X258" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y258" s="6"/>
       <c r="Z258" s="6"/>
       <c r="AA258" s="6" t="s">
@@ -18488,10 +18488,10 @@
       <c r="T259" s="7"/>
       <c r="U259" s="6"/>
       <c r="V259" s="7"/>
-      <c r="W259" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X259" s="7"/>
+      <c r="W259" s="6"/>
+      <c r="X259" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
       <c r="AA259" s="6" t="s">
@@ -18543,15 +18543,15 @@
       <c r="Q260" s="6"/>
       <c r="R260" s="7"/>
       <c r="S260" s="6"/>
-      <c r="T260" s="7"/>
-      <c r="U260" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T260" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U260" s="6"/>
       <c r="V260" s="7"/>
-      <c r="W260" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="X260" s="7"/>
+      <c r="W260" s="6"/>
+      <c r="X260" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
       <c r="AA260" s="6" t="s">
@@ -18603,15 +18603,15 @@
       <c r="Q261" s="2"/>
       <c r="R261" s="3"/>
       <c r="S261" s="2"/>
-      <c r="T261" s="3"/>
-      <c r="U261" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T261" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U261" s="2"/>
       <c r="V261" s="3"/>
-      <c r="W261" s="4" t="s">
+      <c r="W261" s="2"/>
+      <c r="X261" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="X261" s="3"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
@@ -18661,15 +18661,15 @@
       <c r="Q262" s="6"/>
       <c r="R262" s="7"/>
       <c r="S262" s="6"/>
-      <c r="T262" s="7"/>
-      <c r="U262" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T262" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U262" s="6"/>
       <c r="V262" s="7"/>
-      <c r="W262" s="8" t="s">
+      <c r="W262" s="6"/>
+      <c r="X262" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X262" s="7"/>
       <c r="Y262" s="6"/>
       <c r="Z262" s="6"/>
       <c r="AA262" s="6"/>
@@ -18719,15 +18719,15 @@
       <c r="Q263" s="6"/>
       <c r="R263" s="7"/>
       <c r="S263" s="6"/>
-      <c r="T263" s="7"/>
-      <c r="U263" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T263" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U263" s="6"/>
       <c r="V263" s="7"/>
-      <c r="W263" s="8" t="s">
+      <c r="W263" s="6"/>
+      <c r="X263" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X263" s="7"/>
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
       <c r="AA263" s="6"/>
@@ -18777,15 +18777,15 @@
       <c r="Q264" s="6"/>
       <c r="R264" s="7"/>
       <c r="S264" s="6"/>
-      <c r="T264" s="7"/>
-      <c r="U264" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T264" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U264" s="6"/>
       <c r="V264" s="7"/>
-      <c r="W264" s="8" t="s">
+      <c r="W264" s="6"/>
+      <c r="X264" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X264" s="7"/>
       <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
       <c r="AA264" s="6"/>
@@ -18835,15 +18835,15 @@
       <c r="Q265" s="6"/>
       <c r="R265" s="7"/>
       <c r="S265" s="6"/>
-      <c r="T265" s="7"/>
-      <c r="U265" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T265" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U265" s="6"/>
       <c r="V265" s="7"/>
-      <c r="W265" s="8" t="s">
+      <c r="W265" s="6"/>
+      <c r="X265" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X265" s="7"/>
       <c r="Y265" s="6"/>
       <c r="Z265" s="6"/>
       <c r="AA265" s="6" t="s">
@@ -18897,15 +18897,15 @@
       <c r="Q266" s="6"/>
       <c r="R266" s="7"/>
       <c r="S266" s="6"/>
-      <c r="T266" s="7"/>
-      <c r="U266" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T266" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U266" s="6"/>
       <c r="V266" s="7"/>
-      <c r="W266" s="8" t="s">
+      <c r="W266" s="6"/>
+      <c r="X266" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X266" s="7"/>
       <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
       <c r="AA266" s="6" t="s">
@@ -18959,15 +18959,15 @@
       <c r="Q267" s="6"/>
       <c r="R267" s="7"/>
       <c r="S267" s="6"/>
-      <c r="T267" s="7"/>
-      <c r="U267" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T267" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U267" s="6"/>
       <c r="V267" s="7"/>
-      <c r="W267" s="8" t="s">
+      <c r="W267" s="6"/>
+      <c r="X267" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="X267" s="7"/>
       <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
       <c r="AA267" s="6" t="s">
@@ -19016,17 +19016,17 @@
         <v>36</v>
       </c>
       <c r="N268" s="3"/>
-      <c r="O268" s="4" t="s">
+      <c r="O268" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P268" s="3"/>
-      <c r="Q268" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q268" s="2"/>
       <c r="R268" s="3"/>
       <c r="S268" s="2"/>
-      <c r="T268" s="3"/>
-      <c r="U268" s="2" t="s">
+      <c r="T268" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U268" s="4" t="s">
         <v>31</v>
       </c>
       <c r="V268" s="3"/>
@@ -19078,17 +19078,17 @@
         <v>36</v>
       </c>
       <c r="N269" s="7"/>
-      <c r="O269" s="8" t="s">
+      <c r="O269" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P269" s="7"/>
-      <c r="Q269" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q269" s="6"/>
       <c r="R269" s="7"/>
       <c r="S269" s="6"/>
-      <c r="T269" s="7"/>
-      <c r="U269" s="6" t="s">
+      <c r="T269" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U269" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V269" s="7"/>
@@ -19140,17 +19140,17 @@
         <v>36</v>
       </c>
       <c r="N270" s="7"/>
-      <c r="O270" s="8" t="s">
+      <c r="O270" s="6" t="s">
         <v>32</v>
       </c>
       <c r="P270" s="7"/>
-      <c r="Q270" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q270" s="6"/>
       <c r="R270" s="7"/>
       <c r="S270" s="6"/>
-      <c r="T270" s="7"/>
-      <c r="U270" s="6" t="s">
+      <c r="T270" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U270" s="8" t="s">
         <v>31</v>
       </c>
       <c r="V270" s="7"/>
@@ -19202,19 +19202,19 @@
         <v>36</v>
       </c>
       <c r="N271" s="3"/>
-      <c r="O271" s="2"/>
+      <c r="O271" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P271" s="3"/>
-      <c r="Q271" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R271" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q271" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R271" s="3"/>
       <c r="S271" s="2"/>
-      <c r="T271" s="3"/>
-      <c r="U271" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T271" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U271" s="2"/>
       <c r="V271" s="3"/>
       <c r="W271" s="2"/>
       <c r="X271" s="3"/>
@@ -19264,19 +19264,19 @@
         <v>36</v>
       </c>
       <c r="N272" s="7"/>
-      <c r="O272" s="6"/>
+      <c r="O272" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P272" s="7"/>
-      <c r="Q272" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R272" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q272" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R272" s="7"/>
       <c r="S272" s="6"/>
-      <c r="T272" s="7"/>
-      <c r="U272" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T272" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U272" s="6"/>
       <c r="V272" s="7"/>
       <c r="W272" s="6"/>
       <c r="X272" s="7"/>
@@ -19326,19 +19326,19 @@
         <v>36</v>
       </c>
       <c r="N273" s="7"/>
-      <c r="O273" s="6"/>
+      <c r="O273" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P273" s="7"/>
-      <c r="Q273" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R273" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q273" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R273" s="7"/>
       <c r="S273" s="6"/>
-      <c r="T273" s="7"/>
-      <c r="U273" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T273" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U273" s="6"/>
       <c r="V273" s="7"/>
       <c r="W273" s="6"/>
       <c r="X273" s="7"/>
@@ -19387,20 +19387,20 @@
       <c r="M274" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N274" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O274" s="2"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P274" s="3"/>
-      <c r="Q274" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R274" s="3"/>
+      <c r="Q274" s="2"/>
+      <c r="R274" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S274" s="2"/>
-      <c r="T274" s="3"/>
-      <c r="U274" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T274" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U274" s="2"/>
       <c r="V274" s="3"/>
       <c r="W274" s="2"/>
       <c r="X274" s="3"/>
@@ -19449,20 +19449,20 @@
       <c r="M275" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N275" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O275" s="6"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P275" s="7"/>
-      <c r="Q275" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R275" s="7"/>
+      <c r="Q275" s="6"/>
+      <c r="R275" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S275" s="6"/>
-      <c r="T275" s="7"/>
-      <c r="U275" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T275" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U275" s="6"/>
       <c r="V275" s="7"/>
       <c r="W275" s="6"/>
       <c r="X275" s="7"/>
@@ -19511,20 +19511,20 @@
       <c r="M276" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N276" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O276" s="6"/>
+      <c r="N276" s="7"/>
+      <c r="O276" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P276" s="7"/>
-      <c r="Q276" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R276" s="7"/>
+      <c r="Q276" s="6"/>
+      <c r="R276" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S276" s="6"/>
-      <c r="T276" s="7"/>
-      <c r="U276" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T276" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U276" s="6"/>
       <c r="V276" s="7"/>
       <c r="W276" s="6"/>
       <c r="X276" s="7"/>
@@ -19574,23 +19574,23 @@
         <v>36</v>
       </c>
       <c r="N277" s="3"/>
-      <c r="O277" s="2"/>
+      <c r="O277" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P277" s="3"/>
-      <c r="Q277" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q277" s="2"/>
       <c r="R277" s="3"/>
       <c r="S277" s="2"/>
-      <c r="T277" s="3"/>
-      <c r="U277" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T277" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U277" s="2"/>
       <c r="V277" s="3"/>
       <c r="W277" s="2"/>
-      <c r="X277" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y277" s="2"/>
+      <c r="X277" s="3"/>
+      <c r="Y277" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z277" s="2"/>
       <c r="AA277" s="2" t="s">
         <v>37</v>
@@ -19636,23 +19636,23 @@
         <v>36</v>
       </c>
       <c r="N278" s="7"/>
-      <c r="O278" s="6"/>
+      <c r="O278" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P278" s="7"/>
-      <c r="Q278" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q278" s="6"/>
       <c r="R278" s="7"/>
       <c r="S278" s="6"/>
-      <c r="T278" s="7"/>
-      <c r="U278" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T278" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U278" s="6"/>
       <c r="V278" s="7"/>
       <c r="W278" s="6"/>
-      <c r="X278" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y278" s="6"/>
+      <c r="X278" s="7"/>
+      <c r="Y278" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z278" s="6"/>
       <c r="AA278" s="6" t="s">
         <v>37</v>
@@ -19698,23 +19698,23 @@
         <v>36</v>
       </c>
       <c r="N279" s="7"/>
-      <c r="O279" s="6"/>
+      <c r="O279" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P279" s="7"/>
-      <c r="Q279" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q279" s="6"/>
       <c r="R279" s="7"/>
       <c r="S279" s="6"/>
-      <c r="T279" s="7"/>
-      <c r="U279" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T279" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U279" s="6"/>
       <c r="V279" s="7"/>
       <c r="W279" s="6"/>
-      <c r="X279" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y279" s="6"/>
+      <c r="X279" s="7"/>
+      <c r="Y279" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z279" s="6"/>
       <c r="AA279" s="6" t="s">
         <v>37</v>
@@ -19760,23 +19760,23 @@
         <v>36</v>
       </c>
       <c r="N280" s="3"/>
-      <c r="O280" s="2"/>
+      <c r="O280" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P280" s="3"/>
-      <c r="Q280" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q280" s="2"/>
       <c r="R280" s="3"/>
-      <c r="S280" s="2"/>
-      <c r="T280" s="3"/>
-      <c r="U280" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S280" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U280" s="2"/>
       <c r="V280" s="3"/>
       <c r="W280" s="2"/>
       <c r="X280" s="3"/>
-      <c r="Y280" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
       <c r="AA280" s="2" t="s">
         <v>37</v>
@@ -19822,23 +19822,23 @@
         <v>36</v>
       </c>
       <c r="N281" s="7"/>
-      <c r="O281" s="6"/>
+      <c r="O281" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P281" s="7"/>
-      <c r="Q281" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q281" s="6"/>
       <c r="R281" s="7"/>
-      <c r="S281" s="6"/>
-      <c r="T281" s="7"/>
-      <c r="U281" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S281" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T281" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U281" s="6"/>
       <c r="V281" s="7"/>
       <c r="W281" s="6"/>
       <c r="X281" s="7"/>
-      <c r="Y281" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
       <c r="AA281" s="6" t="s">
         <v>37</v>
@@ -19884,23 +19884,23 @@
         <v>36</v>
       </c>
       <c r="N282" s="7"/>
-      <c r="O282" s="6"/>
+      <c r="O282" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P282" s="7"/>
-      <c r="Q282" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q282" s="6"/>
       <c r="R282" s="7"/>
-      <c r="S282" s="6"/>
-      <c r="T282" s="7"/>
-      <c r="U282" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S282" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T282" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U282" s="6"/>
       <c r="V282" s="7"/>
       <c r="W282" s="6"/>
       <c r="X282" s="7"/>
-      <c r="Y282" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
       <c r="AA282" s="6" t="s">
         <v>37</v>
@@ -19946,17 +19946,17 @@
         <v>36</v>
       </c>
       <c r="N283" s="3"/>
-      <c r="O283" s="2"/>
+      <c r="O283" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P283" s="3"/>
-      <c r="Q283" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q283" s="2"/>
       <c r="R283" s="3"/>
       <c r="S283" s="2"/>
-      <c r="T283" s="3"/>
-      <c r="U283" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U283" s="2"/>
       <c r="V283" s="3"/>
       <c r="W283" s="2"/>
       <c r="X283" s="3"/>
@@ -20006,17 +20006,17 @@
         <v>36</v>
       </c>
       <c r="N284" s="7"/>
-      <c r="O284" s="6"/>
+      <c r="O284" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P284" s="7"/>
-      <c r="Q284" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q284" s="6"/>
       <c r="R284" s="7"/>
       <c r="S284" s="6"/>
-      <c r="T284" s="7"/>
-      <c r="U284" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T284" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U284" s="6"/>
       <c r="V284" s="7"/>
       <c r="W284" s="6"/>
       <c r="X284" s="7"/>
@@ -20066,17 +20066,17 @@
         <v>36</v>
       </c>
       <c r="N285" s="7"/>
-      <c r="O285" s="6"/>
+      <c r="O285" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P285" s="7"/>
-      <c r="Q285" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q285" s="6"/>
       <c r="R285" s="7"/>
       <c r="S285" s="6"/>
-      <c r="T285" s="7"/>
-      <c r="U285" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T285" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U285" s="6"/>
       <c r="V285" s="7"/>
       <c r="W285" s="6"/>
       <c r="X285" s="7"/>
@@ -20126,23 +20126,23 @@
         <v>36</v>
       </c>
       <c r="N286" s="3"/>
-      <c r="O286" s="2"/>
+      <c r="O286" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P286" s="3"/>
-      <c r="Q286" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q286" s="2"/>
       <c r="R286" s="3"/>
       <c r="S286" s="2"/>
-      <c r="T286" s="3"/>
-      <c r="U286" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T286" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U286" s="2"/>
       <c r="V286" s="3"/>
       <c r="W286" s="2"/>
-      <c r="X286" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y286" s="2"/>
+      <c r="X286" s="3"/>
+      <c r="Y286" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z286" s="2"/>
       <c r="AA286" s="2" t="s">
         <v>643</v>
@@ -20190,23 +20190,23 @@
         <v>36</v>
       </c>
       <c r="N287" s="7"/>
-      <c r="O287" s="6"/>
+      <c r="O287" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P287" s="7"/>
-      <c r="Q287" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q287" s="6"/>
       <c r="R287" s="7"/>
       <c r="S287" s="6"/>
-      <c r="T287" s="7"/>
-      <c r="U287" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T287" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U287" s="6"/>
       <c r="V287" s="7"/>
       <c r="W287" s="6"/>
-      <c r="X287" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y287" s="6"/>
+      <c r="X287" s="7"/>
+      <c r="Y287" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z287" s="6"/>
       <c r="AA287" s="6" t="s">
         <v>643</v>
@@ -20254,23 +20254,23 @@
         <v>36</v>
       </c>
       <c r="N288" s="7"/>
-      <c r="O288" s="6"/>
+      <c r="O288" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P288" s="7"/>
-      <c r="Q288" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q288" s="6"/>
       <c r="R288" s="7"/>
       <c r="S288" s="6"/>
-      <c r="T288" s="7"/>
-      <c r="U288" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T288" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U288" s="6"/>
       <c r="V288" s="7"/>
       <c r="W288" s="6"/>
-      <c r="X288" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y288" s="6"/>
+      <c r="X288" s="7"/>
+      <c r="Y288" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z288" s="6"/>
       <c r="AA288" s="6" t="s">
         <v>643</v>
@@ -20318,23 +20318,23 @@
         <v>36</v>
       </c>
       <c r="N289" s="7"/>
-      <c r="O289" s="6"/>
+      <c r="O289" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P289" s="7"/>
-      <c r="Q289" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q289" s="6"/>
       <c r="R289" s="7"/>
       <c r="S289" s="6"/>
-      <c r="T289" s="7"/>
-      <c r="U289" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T289" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U289" s="6"/>
       <c r="V289" s="7"/>
       <c r="W289" s="6"/>
-      <c r="X289" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y289" s="6"/>
+      <c r="X289" s="7"/>
+      <c r="Y289" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z289" s="6"/>
       <c r="AA289" s="6" t="s">
         <v>643</v>
@@ -20382,23 +20382,23 @@
         <v>36</v>
       </c>
       <c r="N290" s="7"/>
-      <c r="O290" s="6"/>
+      <c r="O290" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P290" s="7"/>
-      <c r="Q290" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q290" s="6"/>
       <c r="R290" s="7"/>
       <c r="S290" s="6"/>
-      <c r="T290" s="7"/>
-      <c r="U290" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T290" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U290" s="6"/>
       <c r="V290" s="7"/>
       <c r="W290" s="6"/>
-      <c r="X290" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y290" s="6"/>
+      <c r="X290" s="7"/>
+      <c r="Y290" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z290" s="6"/>
       <c r="AA290" s="6" t="s">
         <v>643</v>
@@ -20446,23 +20446,23 @@
         <v>36</v>
       </c>
       <c r="N291" s="7"/>
-      <c r="O291" s="6"/>
+      <c r="O291" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P291" s="7"/>
-      <c r="Q291" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q291" s="6"/>
       <c r="R291" s="7"/>
       <c r="S291" s="6"/>
-      <c r="T291" s="7"/>
-      <c r="U291" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T291" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U291" s="6"/>
       <c r="V291" s="7"/>
       <c r="W291" s="6"/>
-      <c r="X291" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y291" s="6"/>
+      <c r="X291" s="7"/>
+      <c r="Y291" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z291" s="6"/>
       <c r="AA291" s="6" t="s">
         <v>643</v>
@@ -20510,23 +20510,23 @@
         <v>36</v>
       </c>
       <c r="N292" s="3"/>
-      <c r="O292" s="2"/>
+      <c r="O292" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P292" s="3"/>
-      <c r="Q292" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q292" s="2"/>
       <c r="R292" s="3"/>
       <c r="S292" s="2"/>
-      <c r="T292" s="3"/>
-      <c r="U292" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T292" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U292" s="2"/>
       <c r="V292" s="3"/>
       <c r="W292" s="2"/>
-      <c r="X292" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y292" s="2"/>
+      <c r="X292" s="3"/>
+      <c r="Y292" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="Z292" s="2"/>
       <c r="AA292" s="2" t="s">
         <v>643</v>
@@ -20574,23 +20574,23 @@
         <v>36</v>
       </c>
       <c r="N293" s="7"/>
-      <c r="O293" s="6"/>
+      <c r="O293" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P293" s="7"/>
-      <c r="Q293" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q293" s="6"/>
       <c r="R293" s="7"/>
       <c r="S293" s="6"/>
-      <c r="T293" s="7"/>
-      <c r="U293" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T293" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U293" s="6"/>
       <c r="V293" s="7"/>
       <c r="W293" s="6"/>
-      <c r="X293" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y293" s="6"/>
+      <c r="X293" s="7"/>
+      <c r="Y293" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z293" s="6"/>
       <c r="AA293" s="6" t="s">
         <v>643</v>
@@ -20638,23 +20638,23 @@
         <v>36</v>
       </c>
       <c r="N294" s="7"/>
-      <c r="O294" s="6"/>
+      <c r="O294" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P294" s="7"/>
-      <c r="Q294" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q294" s="6"/>
       <c r="R294" s="7"/>
       <c r="S294" s="6"/>
-      <c r="T294" s="7"/>
-      <c r="U294" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T294" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U294" s="6"/>
       <c r="V294" s="7"/>
       <c r="W294" s="6"/>
-      <c r="X294" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y294" s="6"/>
+      <c r="X294" s="7"/>
+      <c r="Y294" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z294" s="6"/>
       <c r="AA294" s="6" t="s">
         <v>643</v>
@@ -20702,23 +20702,23 @@
         <v>36</v>
       </c>
       <c r="N295" s="7"/>
-      <c r="O295" s="6"/>
+      <c r="O295" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P295" s="7"/>
-      <c r="Q295" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q295" s="6"/>
       <c r="R295" s="7"/>
       <c r="S295" s="6"/>
-      <c r="T295" s="7"/>
-      <c r="U295" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T295" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U295" s="6"/>
       <c r="V295" s="7"/>
       <c r="W295" s="6"/>
-      <c r="X295" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y295" s="6"/>
+      <c r="X295" s="7"/>
+      <c r="Y295" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z295" s="6"/>
       <c r="AA295" s="6" t="s">
         <v>643</v>
@@ -20766,23 +20766,23 @@
         <v>36</v>
       </c>
       <c r="N296" s="7"/>
-      <c r="O296" s="6"/>
+      <c r="O296" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P296" s="7"/>
-      <c r="Q296" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q296" s="6"/>
       <c r="R296" s="7"/>
       <c r="S296" s="6"/>
-      <c r="T296" s="7"/>
-      <c r="U296" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T296" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U296" s="6"/>
       <c r="V296" s="7"/>
       <c r="W296" s="6"/>
-      <c r="X296" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y296" s="6"/>
+      <c r="X296" s="7"/>
+      <c r="Y296" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z296" s="6"/>
       <c r="AA296" s="6" t="s">
         <v>643</v>
@@ -20830,23 +20830,23 @@
         <v>36</v>
       </c>
       <c r="N297" s="7"/>
-      <c r="O297" s="6"/>
+      <c r="O297" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P297" s="7"/>
-      <c r="Q297" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q297" s="6"/>
       <c r="R297" s="7"/>
       <c r="S297" s="6"/>
-      <c r="T297" s="7"/>
-      <c r="U297" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T297" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U297" s="6"/>
       <c r="V297" s="7"/>
       <c r="W297" s="6"/>
-      <c r="X297" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y297" s="6"/>
+      <c r="X297" s="7"/>
+      <c r="Y297" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="Z297" s="6"/>
       <c r="AA297" s="6" t="s">
         <v>643</v>
@@ -20894,19 +20894,19 @@
         <v>36</v>
       </c>
       <c r="N298" s="3"/>
-      <c r="O298" s="2"/>
+      <c r="O298" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P298" s="3"/>
-      <c r="Q298" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R298" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q298" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R298" s="3"/>
       <c r="S298" s="2"/>
-      <c r="T298" s="3"/>
-      <c r="U298" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T298" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U298" s="2"/>
       <c r="V298" s="3"/>
       <c r="W298" s="2"/>
       <c r="X298" s="3"/>
@@ -20958,19 +20958,19 @@
         <v>36</v>
       </c>
       <c r="N299" s="7"/>
-      <c r="O299" s="6"/>
+      <c r="O299" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P299" s="7"/>
-      <c r="Q299" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R299" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q299" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R299" s="7"/>
       <c r="S299" s="6"/>
-      <c r="T299" s="7"/>
-      <c r="U299" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T299" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U299" s="6"/>
       <c r="V299" s="7"/>
       <c r="W299" s="6"/>
       <c r="X299" s="7"/>
@@ -21022,19 +21022,19 @@
         <v>36</v>
       </c>
       <c r="N300" s="7"/>
-      <c r="O300" s="6"/>
+      <c r="O300" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P300" s="7"/>
-      <c r="Q300" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R300" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q300" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R300" s="7"/>
       <c r="S300" s="6"/>
-      <c r="T300" s="7"/>
-      <c r="U300" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T300" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U300" s="6"/>
       <c r="V300" s="7"/>
       <c r="W300" s="6"/>
       <c r="X300" s="7"/>
@@ -21086,19 +21086,19 @@
         <v>36</v>
       </c>
       <c r="N301" s="7"/>
-      <c r="O301" s="6"/>
+      <c r="O301" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P301" s="7"/>
-      <c r="Q301" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R301" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q301" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R301" s="7"/>
       <c r="S301" s="6"/>
-      <c r="T301" s="7"/>
-      <c r="U301" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T301" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U301" s="6"/>
       <c r="V301" s="7"/>
       <c r="W301" s="6"/>
       <c r="X301" s="7"/>
@@ -21150,19 +21150,19 @@
         <v>36</v>
       </c>
       <c r="N302" s="7"/>
-      <c r="O302" s="6"/>
+      <c r="O302" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P302" s="7"/>
-      <c r="Q302" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R302" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q302" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R302" s="7"/>
       <c r="S302" s="6"/>
-      <c r="T302" s="7"/>
-      <c r="U302" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T302" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U302" s="6"/>
       <c r="V302" s="7"/>
       <c r="W302" s="6"/>
       <c r="X302" s="7"/>
@@ -21214,19 +21214,19 @@
         <v>36</v>
       </c>
       <c r="N303" s="7"/>
-      <c r="O303" s="6"/>
+      <c r="O303" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P303" s="7"/>
-      <c r="Q303" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R303" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q303" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R303" s="7"/>
       <c r="S303" s="6"/>
-      <c r="T303" s="7"/>
-      <c r="U303" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T303" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U303" s="6"/>
       <c r="V303" s="7"/>
       <c r="W303" s="6"/>
       <c r="X303" s="7"/>
@@ -21277,20 +21277,20 @@
       <c r="M304" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N304" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O304" s="2"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P304" s="3"/>
-      <c r="Q304" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R304" s="3"/>
+      <c r="Q304" s="2"/>
+      <c r="R304" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="S304" s="2"/>
-      <c r="T304" s="3"/>
-      <c r="U304" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T304" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U304" s="2"/>
       <c r="V304" s="3"/>
       <c r="W304" s="2"/>
       <c r="X304" s="3"/>
@@ -21341,20 +21341,20 @@
       <c r="M305" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N305" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O305" s="6"/>
+      <c r="N305" s="7"/>
+      <c r="O305" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P305" s="7"/>
-      <c r="Q305" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R305" s="7"/>
+      <c r="Q305" s="6"/>
+      <c r="R305" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S305" s="6"/>
-      <c r="T305" s="7"/>
-      <c r="U305" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T305" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U305" s="6"/>
       <c r="V305" s="7"/>
       <c r="W305" s="6"/>
       <c r="X305" s="7"/>
@@ -21405,20 +21405,20 @@
       <c r="M306" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N306" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O306" s="6"/>
+      <c r="N306" s="7"/>
+      <c r="O306" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P306" s="7"/>
-      <c r="Q306" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R306" s="7"/>
+      <c r="Q306" s="6"/>
+      <c r="R306" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S306" s="6"/>
-      <c r="T306" s="7"/>
-      <c r="U306" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T306" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U306" s="6"/>
       <c r="V306" s="7"/>
       <c r="W306" s="6"/>
       <c r="X306" s="7"/>
@@ -21469,20 +21469,20 @@
       <c r="M307" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N307" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O307" s="6"/>
+      <c r="N307" s="7"/>
+      <c r="O307" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P307" s="7"/>
-      <c r="Q307" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R307" s="7"/>
+      <c r="Q307" s="6"/>
+      <c r="R307" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S307" s="6"/>
-      <c r="T307" s="7"/>
-      <c r="U307" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T307" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U307" s="6"/>
       <c r="V307" s="7"/>
       <c r="W307" s="6"/>
       <c r="X307" s="7"/>
@@ -21533,20 +21533,20 @@
       <c r="M308" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N308" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O308" s="6"/>
+      <c r="N308" s="7"/>
+      <c r="O308" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P308" s="7"/>
-      <c r="Q308" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R308" s="7"/>
+      <c r="Q308" s="6"/>
+      <c r="R308" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S308" s="6"/>
-      <c r="T308" s="7"/>
-      <c r="U308" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T308" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U308" s="6"/>
       <c r="V308" s="7"/>
       <c r="W308" s="6"/>
       <c r="X308" s="7"/>
@@ -21597,20 +21597,20 @@
       <c r="M309" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N309" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O309" s="6"/>
+      <c r="N309" s="7"/>
+      <c r="O309" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P309" s="7"/>
-      <c r="Q309" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R309" s="7"/>
+      <c r="Q309" s="6"/>
+      <c r="R309" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S309" s="6"/>
-      <c r="T309" s="7"/>
-      <c r="U309" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="T309" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U309" s="6"/>
       <c r="V309" s="7"/>
       <c r="W309" s="6"/>
       <c r="X309" s="7"/>
@@ -21662,23 +21662,23 @@
         <v>36</v>
       </c>
       <c r="N310" s="3"/>
-      <c r="O310" s="2"/>
+      <c r="O310" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P310" s="3"/>
-      <c r="Q310" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q310" s="2"/>
       <c r="R310" s="3"/>
-      <c r="S310" s="2"/>
-      <c r="T310" s="3"/>
-      <c r="U310" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="S310" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T310" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U310" s="2"/>
       <c r="V310" s="3"/>
       <c r="W310" s="2"/>
       <c r="X310" s="3"/>
-      <c r="Y310" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
       <c r="AA310" s="2" t="s">
         <v>94</v>
@@ -21726,23 +21726,23 @@
         <v>36</v>
       </c>
       <c r="N311" s="7"/>
-      <c r="O311" s="6"/>
+      <c r="O311" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P311" s="7"/>
-      <c r="Q311" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q311" s="6"/>
       <c r="R311" s="7"/>
-      <c r="S311" s="6"/>
-      <c r="T311" s="7"/>
-      <c r="U311" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S311" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T311" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U311" s="6"/>
       <c r="V311" s="7"/>
       <c r="W311" s="6"/>
       <c r="X311" s="7"/>
-      <c r="Y311" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y311" s="6"/>
       <c r="Z311" s="6"/>
       <c r="AA311" s="6" t="s">
         <v>94</v>
@@ -21790,23 +21790,23 @@
         <v>36</v>
       </c>
       <c r="N312" s="7"/>
-      <c r="O312" s="6"/>
+      <c r="O312" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P312" s="7"/>
-      <c r="Q312" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q312" s="6"/>
       <c r="R312" s="7"/>
-      <c r="S312" s="6"/>
-      <c r="T312" s="7"/>
-      <c r="U312" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S312" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T312" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U312" s="6"/>
       <c r="V312" s="7"/>
       <c r="W312" s="6"/>
       <c r="X312" s="7"/>
-      <c r="Y312" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y312" s="6"/>
       <c r="Z312" s="6"/>
       <c r="AA312" s="6" t="s">
         <v>94</v>
@@ -21854,23 +21854,23 @@
         <v>36</v>
       </c>
       <c r="N313" s="7"/>
-      <c r="O313" s="6"/>
+      <c r="O313" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="P313" s="7"/>
-      <c r="Q313" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q313" s="6"/>
       <c r="R313" s="7"/>
-      <c r="S313" s="6"/>
-      <c r="T313" s="7"/>
-      <c r="U313" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="S313" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T313" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U313" s="6"/>
       <c r="V313" s="7"/>
       <c r="W313" s="6"/>
       <c r="X313" s="7"/>
-      <c r="Y313" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y313" s="6"/>
       <c r="Z313" s="6"/>
       <c r="AA313" s="6" t="s">
         <v>94</v>
@@ -21906,7 +21906,7 @@
         <v>710</v>
       </c>
       <c r="J314" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K314" s="2">
         <v>0</v>
@@ -21922,15 +21922,15 @@
       <c r="P314" s="3"/>
       <c r="Q314" s="2"/>
       <c r="R314" s="3"/>
-      <c r="S314" s="2"/>
+      <c r="S314" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="T314" s="3"/>
       <c r="U314" s="2"/>
       <c r="V314" s="3"/>
       <c r="W314" s="2"/>
-      <c r="X314" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y314" s="4" t="s">
+      <c r="X314" s="3"/>
+      <c r="Y314" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Z314" s="2"/>
@@ -21954,10 +21954,10 @@
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G315" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H315" s="6" t="s">
         <v>712</v>
@@ -21982,15 +21982,15 @@
       <c r="P315" s="7"/>
       <c r="Q315" s="6"/>
       <c r="R315" s="7"/>
-      <c r="S315" s="6"/>
+      <c r="S315" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="T315" s="7"/>
       <c r="U315" s="6"/>
       <c r="V315" s="7"/>
       <c r="W315" s="6"/>
-      <c r="X315" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y315" s="8" t="s">
+      <c r="X315" s="7"/>
+      <c r="Y315" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Z315" s="6">
@@ -22016,10 +22016,10 @@
       </c>
       <c r="E316" s="5"/>
       <c r="F316" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G316" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H316" s="5" t="s">
         <v>712</v>
@@ -22044,15 +22044,15 @@
       <c r="P316" s="7"/>
       <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
-      <c r="S316" s="6"/>
+      <c r="S316" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="T316" s="7"/>
       <c r="U316" s="6"/>
       <c r="V316" s="7"/>
       <c r="W316" s="6"/>
-      <c r="X316" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y316" s="8" t="s">
+      <c r="X316" s="7"/>
+      <c r="Y316" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Z316" s="6">
@@ -22078,10 +22078,10 @@
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G317" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H317" s="5" t="s">
         <v>712</v>
@@ -22106,15 +22106,15 @@
       <c r="P317" s="7"/>
       <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
-      <c r="S317" s="6"/>
+      <c r="S317" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="T317" s="7"/>
       <c r="U317" s="6"/>
       <c r="V317" s="7"/>
       <c r="W317" s="6"/>
-      <c r="X317" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y317" s="8" t="s">
+      <c r="X317" s="7"/>
+      <c r="Y317" s="6" t="s">
         <v>32</v>
       </c>
       <c r="Z317" s="6">
@@ -22164,11 +22164,11 @@
         <v>36</v>
       </c>
       <c r="N318" s="3"/>
-      <c r="O318" s="2"/>
+      <c r="O318" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="P318" s="3"/>
-      <c r="Q318" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q318" s="2"/>
       <c r="R318" s="3"/>
       <c r="S318" s="2"/>
       <c r="T318" s="3"/>
@@ -22222,11 +22222,11 @@
         <v>36</v>
       </c>
       <c r="N319" s="7"/>
-      <c r="O319" s="6"/>
+      <c r="O319" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P319" s="7"/>
-      <c r="Q319" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q319" s="6"/>
       <c r="R319" s="7"/>
       <c r="S319" s="6"/>
       <c r="T319" s="7"/>
@@ -22280,11 +22280,11 @@
         <v>36</v>
       </c>
       <c r="N320" s="7"/>
-      <c r="O320" s="6"/>
+      <c r="O320" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P320" s="7"/>
-      <c r="Q320" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q320" s="6"/>
       <c r="R320" s="7"/>
       <c r="S320" s="6"/>
       <c r="T320" s="7"/>
@@ -22338,11 +22338,11 @@
         <v>36</v>
       </c>
       <c r="N321" s="7"/>
-      <c r="O321" s="6"/>
+      <c r="O321" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P321" s="7"/>
-      <c r="Q321" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q321" s="6"/>
       <c r="R321" s="7"/>
       <c r="S321" s="6"/>
       <c r="T321" s="7"/>
@@ -22396,11 +22396,11 @@
         <v>36</v>
       </c>
       <c r="N322" s="7"/>
-      <c r="O322" s="6"/>
+      <c r="O322" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P322" s="7"/>
-      <c r="Q322" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q322" s="6"/>
       <c r="R322" s="7"/>
       <c r="S322" s="6"/>
       <c r="T322" s="7"/>
@@ -22454,11 +22454,11 @@
         <v>36</v>
       </c>
       <c r="N323" s="7"/>
-      <c r="O323" s="6"/>
+      <c r="O323" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P323" s="7"/>
-      <c r="Q323" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q323" s="6"/>
       <c r="R323" s="7"/>
       <c r="S323" s="6"/>
       <c r="T323" s="7"/>
@@ -22512,11 +22512,11 @@
         <v>36</v>
       </c>
       <c r="N324" s="7"/>
-      <c r="O324" s="6"/>
+      <c r="O324" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P324" s="7"/>
-      <c r="Q324" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q324" s="6"/>
       <c r="R324" s="7"/>
       <c r="S324" s="6"/>
       <c r="T324" s="7"/>
@@ -22570,11 +22570,11 @@
         <v>36</v>
       </c>
       <c r="N325" s="7"/>
-      <c r="O325" s="6"/>
+      <c r="O325" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P325" s="7"/>
-      <c r="Q325" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q325" s="6"/>
       <c r="R325" s="7"/>
       <c r="S325" s="6"/>
       <c r="T325" s="7"/>
@@ -22628,11 +22628,11 @@
         <v>36</v>
       </c>
       <c r="N326" s="7"/>
-      <c r="O326" s="6"/>
+      <c r="O326" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P326" s="7"/>
-      <c r="Q326" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q326" s="6"/>
       <c r="R326" s="7"/>
       <c r="S326" s="6"/>
       <c r="T326" s="7"/>
@@ -22686,11 +22686,11 @@
         <v>36</v>
       </c>
       <c r="N327" s="7"/>
-      <c r="O327" s="6"/>
+      <c r="O327" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P327" s="7"/>
-      <c r="Q327" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q327" s="6"/>
       <c r="R327" s="7"/>
       <c r="S327" s="6"/>
       <c r="T327" s="7"/>
@@ -22744,11 +22744,11 @@
         <v>36</v>
       </c>
       <c r="N328" s="7"/>
-      <c r="O328" s="6"/>
+      <c r="O328" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P328" s="7"/>
-      <c r="Q328" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q328" s="6"/>
       <c r="R328" s="7"/>
       <c r="S328" s="6"/>
       <c r="T328" s="7"/>
@@ -22802,11 +22802,11 @@
         <v>36</v>
       </c>
       <c r="N329" s="7"/>
-      <c r="O329" s="6"/>
+      <c r="O329" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="P329" s="7"/>
-      <c r="Q329" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q329" s="6"/>
       <c r="R329" s="7"/>
       <c r="S329" s="6"/>
       <c r="T329" s="7"/>
@@ -22859,13 +22859,13 @@
       </c>
       <c r="N330" s="3"/>
       <c r="O330" s="2"/>
-      <c r="P330" s="3"/>
+      <c r="P330" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="Q330" s="2"/>
       <c r="R330" s="3"/>
       <c r="S330" s="2"/>
-      <c r="T330" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="T330" s="3"/>
       <c r="U330" s="2"/>
       <c r="V330" s="3"/>
       <c r="W330" s="2"/>
@@ -22921,15 +22921,15 @@
       <c r="Q331" s="2"/>
       <c r="R331" s="3"/>
       <c r="S331" s="2"/>
-      <c r="T331" s="3"/>
-      <c r="U331" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T331" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U331" s="2"/>
       <c r="V331" s="3"/>
-      <c r="W331" s="4" t="s">
+      <c r="W331" s="2"/>
+      <c r="X331" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="X331" s="3"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
       <c r="AA331" s="2" t="s">
@@ -22981,15 +22981,15 @@
       <c r="Q332" s="2"/>
       <c r="R332" s="3"/>
       <c r="S332" s="2"/>
-      <c r="T332" s="3"/>
-      <c r="U332" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T332" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U332" s="2"/>
       <c r="V332" s="3"/>
-      <c r="W332" s="4" t="s">
+      <c r="W332" s="2"/>
+      <c r="X332" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="X332" s="3"/>
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
       <c r="AA332" s="2" t="s">

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -58,42 +58,42 @@
     <t>Byteorder</t>
   </si>
   <si>
+    <t>TPMS</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>BMS_LV</t>
+  </si>
+  <si>
     <t>DIAG_TOOL</t>
   </si>
   <si>
+    <t>EXTRA_NODE</t>
+  </si>
+  <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>TLB_BAT</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>DSPACE</t>
   </si>
   <si>
-    <t>EXTRA_NODE</t>
-  </si>
-  <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
     <t>SB_REAR</t>
   </si>
   <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>TLB_BAT</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
     <t>BRUSA</t>
   </si>
   <si>
-    <t>BMS_LV</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>Cyclic</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>DATETIME_year</t>
@@ -2814,31 +2814,31 @@
         <v>36</v>
       </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
         <v>37</v>
@@ -2884,31 +2884,31 @@
         <v>36</v>
       </c>
       <c r="N3" s="7"/>
-      <c r="O3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
         <v>40</v>
@@ -2954,31 +2954,31 @@
         <v>36</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
         <v>43</v>
@@ -3024,31 +3024,31 @@
         <v>36</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
         <v>46</v>
@@ -3096,31 +3096,31 @@
         <v>36</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
         <v>50</v>
@@ -3168,31 +3168,31 @@
         <v>36</v>
       </c>
       <c r="N7" s="7"/>
-      <c r="O7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
         <v>50</v>
@@ -3240,31 +3240,31 @@
         <v>36</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
         <v>57</v>
@@ -3312,21 +3312,21 @@
         <v>36</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="3"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V9" s="3"/>
-      <c r="W9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -3372,21 +3372,21 @@
         <v>36</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O10" s="6"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
       <c r="S10" s="6"/>
       <c r="T10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V10" s="7"/>
-      <c r="W10" s="6"/>
+      <c r="W10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -3432,21 +3432,21 @@
         <v>36</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V11" s="7"/>
-      <c r="W11" s="6"/>
+      <c r="W11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -3492,21 +3492,21 @@
         <v>36</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O12" s="6"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
       <c r="T12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V12" s="7"/>
-      <c r="W12" s="6"/>
+      <c r="W12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X12" s="7"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
@@ -3552,21 +3552,21 @@
         <v>36</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O13" s="6"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V13" s="7"/>
-      <c r="W13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -3612,21 +3612,21 @@
         <v>36</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O14" s="6"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V14" s="7"/>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -3672,21 +3672,21 @@
         <v>36</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O15" s="6"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V15" s="7"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X15" s="7"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
@@ -3732,21 +3732,21 @@
         <v>36</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O16" s="6"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="6"/>
+      <c r="W16" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X16" s="7"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -3792,21 +3792,21 @@
         <v>36</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O17" s="6"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V17" s="7"/>
-      <c r="W17" s="6"/>
+      <c r="W17" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X17" s="7"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -3852,21 +3852,21 @@
         <v>36</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O18" s="6"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" s="7"/>
-      <c r="W18" s="6"/>
+      <c r="W18" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X18" s="7"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -3912,21 +3912,21 @@
         <v>36</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O19" s="6"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V19" s="7"/>
-      <c r="W19" s="6"/>
+      <c r="W19" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X19" s="7"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -3972,21 +3972,21 @@
         <v>36</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O20" s="6"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V20" s="7"/>
-      <c r="W20" s="6"/>
+      <c r="W20" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X20" s="7"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
@@ -4032,21 +4032,21 @@
         <v>36</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O21" s="6"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V21" s="7"/>
-      <c r="W21" s="6"/>
+      <c r="W21" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X21" s="7"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
@@ -4092,21 +4092,21 @@
         <v>36</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O22" s="6"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V22" s="7"/>
-      <c r="W22" s="6"/>
+      <c r="W22" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X22" s="7"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -4152,21 +4152,21 @@
         <v>36</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O23" s="6"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V23" s="7"/>
-      <c r="W23" s="6"/>
+      <c r="W23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
@@ -4212,21 +4212,21 @@
         <v>36</v>
       </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="2"/>
+      <c r="W24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -4276,21 +4276,21 @@
         <v>36</v>
       </c>
       <c r="N25" s="7"/>
-      <c r="O25" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O25" s="6"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="6"/>
+      <c r="W25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
@@ -4340,21 +4340,21 @@
         <v>36</v>
       </c>
       <c r="N26" s="7"/>
-      <c r="O26" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O26" s="6"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="6"/>
+      <c r="W26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
@@ -4404,21 +4404,21 @@
         <v>36</v>
       </c>
       <c r="N27" s="7"/>
-      <c r="O27" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O27" s="6"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q27" s="6"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T27" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="6"/>
+      <c r="W27" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
@@ -4468,22 +4468,22 @@
         <v>36</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="3"/>
+      <c r="W28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2" t="s">
@@ -4532,22 +4532,22 @@
         <v>36</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O29" s="6"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="7"/>
+      <c r="W29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6" t="s">
@@ -4596,22 +4596,22 @@
         <v>36</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O30" s="6"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="7"/>
+      <c r="W30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6" t="s">
@@ -4660,22 +4660,22 @@
         <v>36</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="3"/>
+      <c r="W31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -4720,22 +4720,22 @@
         <v>36</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O32" s="6"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="7"/>
+      <c r="W32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
@@ -4780,23 +4780,23 @@
         <v>36</v>
       </c>
       <c r="N33" s="3"/>
-      <c r="O33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="3"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="2"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="2"/>
+      <c r="W33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X33" s="3"/>
-      <c r="Y33" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
         <v>120</v>
@@ -4844,23 +4844,23 @@
         <v>36</v>
       </c>
       <c r="N34" s="7"/>
-      <c r="O34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" s="7"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="7"/>
       <c r="S34" s="6"/>
       <c r="T34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="6"/>
+      <c r="W34" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X34" s="7"/>
-      <c r="Y34" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6" t="s">
         <v>124</v>
@@ -4908,23 +4908,23 @@
         <v>36</v>
       </c>
       <c r="N35" s="7"/>
-      <c r="O35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="7"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
       <c r="S35" s="6"/>
       <c r="T35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="6"/>
+      <c r="W35" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X35" s="7"/>
-      <c r="Y35" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6" t="s">
         <v>124</v>
@@ -4972,21 +4972,21 @@
         <v>36</v>
       </c>
       <c r="N36" s="3"/>
-      <c r="O36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U36" s="2"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="2"/>
+      <c r="V36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -5034,21 +5034,21 @@
         <v>36</v>
       </c>
       <c r="N37" s="7"/>
-      <c r="O37" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O37" s="6"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S37" s="6"/>
       <c r="T37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37" s="6"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="6"/>
+      <c r="V37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -5094,21 +5094,21 @@
         <v>36</v>
       </c>
       <c r="N38" s="7"/>
-      <c r="O38" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O38" s="6"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S38" s="6"/>
       <c r="T38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U38" s="6"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="6"/>
+      <c r="V38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X38" s="7"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -5154,21 +5154,21 @@
         <v>36</v>
       </c>
       <c r="N39" s="7"/>
-      <c r="O39" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O39" s="6"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S39" s="6"/>
       <c r="T39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U39" s="6"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="6"/>
+      <c r="V39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X39" s="7"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -5214,21 +5214,21 @@
         <v>36</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O40" s="6"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S40" s="6"/>
       <c r="T40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U40" s="6"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="6"/>
+      <c r="V40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W40" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X40" s="7"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -5274,21 +5274,21 @@
         <v>36</v>
       </c>
       <c r="N41" s="7"/>
-      <c r="O41" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O41" s="6"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S41" s="6"/>
       <c r="T41" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U41" s="6"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="6"/>
+      <c r="V41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X41" s="7"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
@@ -5336,21 +5336,21 @@
         <v>36</v>
       </c>
       <c r="N42" s="7"/>
-      <c r="O42" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O42" s="6"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S42" s="6"/>
       <c r="T42" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U42" s="6"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="6"/>
+      <c r="V42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X42" s="7"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -5398,24 +5398,24 @@
         <v>36</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="2"/>
       <c r="T43" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U43" s="2"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="3"/>
+      <c r="V43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -5460,21 +5460,21 @@
         <v>36</v>
       </c>
       <c r="N44" s="7"/>
-      <c r="O44" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O44" s="6"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S44" s="6"/>
       <c r="T44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U44" s="6"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="6"/>
+      <c r="V44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W44" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X44" s="7"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -5520,24 +5520,24 @@
         <v>36</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O45" s="6"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="R45" s="7"/>
+      <c r="S45" s="6"/>
       <c r="T45" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U45" s="6"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="7"/>
+      <c r="V45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6" t="s">
@@ -5586,24 +5586,24 @@
         <v>36</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O46" s="6"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="6"/>
       <c r="T46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U46" s="6"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="7"/>
+      <c r="V46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
@@ -5651,12 +5651,14 @@
       <c r="M47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N47" s="3"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
@@ -5664,9 +5666,7 @@
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
       <c r="X47" s="3"/>
-      <c r="Y47" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2" t="s">
         <v>162</v>
@@ -5711,19 +5711,19 @@
       <c r="M48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N48" s="3"/>
       <c r="O48" s="2"/>
       <c r="P48" s="3"/>
-      <c r="Q48" s="2"/>
+      <c r="Q48" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R48" s="3"/>
-      <c r="S48" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S48" s="2"/>
       <c r="T48" s="3"/>
       <c r="U48" s="2"/>
-      <c r="V48" s="3"/>
+      <c r="V48" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="2"/>
@@ -5771,21 +5771,21 @@
       <c r="M49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N49" s="3"/>
       <c r="O49" s="2"/>
       <c r="P49" s="3"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="3"/>
       <c r="S49" s="2"/>
       <c r="T49" s="3"/>
       <c r="U49" s="2"/>
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
-      <c r="X49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
@@ -5831,16 +5831,16 @@
       <c r="M50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N50" s="3"/>
       <c r="O50" s="2"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="4" t="s">
         <v>32</v>
       </c>
       <c r="R50" s="3"/>
-      <c r="S50" s="2"/>
+      <c r="S50" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="2"/>
       <c r="V50" s="3"/>
@@ -5891,16 +5891,16 @@
       <c r="M51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N51" s="3"/>
       <c r="O51" s="2"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="2"/>
+      <c r="Q51" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="3"/>
@@ -5951,17 +5951,17 @@
       <c r="M52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="N52" s="3"/>
       <c r="O52" s="2"/>
       <c r="P52" s="3"/>
-      <c r="Q52" s="2"/>
+      <c r="Q52" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R52" s="3"/>
       <c r="S52" s="2"/>
       <c r="T52" s="3"/>
       <c r="U52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
@@ -6012,21 +6012,21 @@
         <v>36</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V53" s="3"/>
-      <c r="W53" s="2"/>
+      <c r="W53" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X53" s="3"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
@@ -6072,21 +6072,21 @@
         <v>36</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O54" s="6"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="7"/>
       <c r="S54" s="6"/>
       <c r="T54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V54" s="7"/>
-      <c r="W54" s="6"/>
+      <c r="W54" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X54" s="7"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
@@ -6132,21 +6132,21 @@
         <v>36</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O55" s="6"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="7"/>
       <c r="S55" s="6"/>
       <c r="T55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V55" s="7"/>
-      <c r="W55" s="6"/>
+      <c r="W55" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
@@ -6192,21 +6192,21 @@
         <v>36</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O56" s="6"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="7"/>
       <c r="S56" s="6"/>
       <c r="T56" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V56" s="7"/>
-      <c r="W56" s="6"/>
+      <c r="W56" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X56" s="7"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
@@ -6252,21 +6252,21 @@
         <v>36</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="O57" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O57" s="6"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="6"/>
       <c r="R57" s="7"/>
       <c r="S57" s="6"/>
       <c r="T57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V57" s="7"/>
-      <c r="W57" s="6"/>
+      <c r="W57" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X57" s="7"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
@@ -6316,21 +6316,21 @@
         <v>36</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O58" s="6"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="7"/>
       <c r="S58" s="6"/>
       <c r="T58" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V58" s="7"/>
-      <c r="W58" s="6"/>
+      <c r="W58" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X58" s="7"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
@@ -6380,22 +6380,22 @@
         <v>36</v>
       </c>
       <c r="N59" s="3"/>
-      <c r="O59" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R59" s="3"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="3"/>
+      <c r="W59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
@@ -6440,22 +6440,22 @@
         <v>36</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O60" s="6"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R60" s="7"/>
       <c r="S60" s="6"/>
       <c r="T60" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U60" s="6"/>
       <c r="V60" s="7"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="7"/>
+      <c r="W60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X60" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
       <c r="AA60" s="6"/>
@@ -6500,22 +6500,22 @@
         <v>36</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="O61" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O61" s="6"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R61" s="7"/>
       <c r="S61" s="6"/>
       <c r="T61" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U61" s="6"/>
       <c r="V61" s="7"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="7"/>
+      <c r="W61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X61" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
@@ -6560,22 +6560,22 @@
         <v>36</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O62" s="6"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R62" s="7"/>
       <c r="S62" s="6"/>
       <c r="T62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="7"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="7"/>
+      <c r="W62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X62" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
@@ -6620,21 +6620,21 @@
         <v>36</v>
       </c>
       <c r="N63" s="3"/>
-      <c r="O63" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" s="3"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T63" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="2"/>
+      <c r="W63" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X63" s="3"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -6680,21 +6680,21 @@
         <v>36</v>
       </c>
       <c r="N64" s="7"/>
-      <c r="O64" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O64" s="6"/>
       <c r="P64" s="7"/>
-      <c r="Q64" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q64" s="6"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="6"/>
+      <c r="S64" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T64" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U64" s="6"/>
       <c r="V64" s="7"/>
-      <c r="W64" s="6"/>
+      <c r="W64" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X64" s="7"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
@@ -6740,21 +6740,21 @@
         <v>36</v>
       </c>
       <c r="N65" s="7"/>
-      <c r="O65" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O65" s="6"/>
       <c r="P65" s="7"/>
-      <c r="Q65" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q65" s="6"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="6"/>
+      <c r="S65" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T65" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U65" s="6"/>
       <c r="V65" s="7"/>
-      <c r="W65" s="6"/>
+      <c r="W65" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X65" s="7"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
@@ -6800,21 +6800,21 @@
         <v>36</v>
       </c>
       <c r="N66" s="3"/>
-      <c r="O66" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="3"/>
-      <c r="Q66" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" s="3"/>
-      <c r="S66" s="2"/>
+      <c r="S66" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T66" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U66" s="2"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="2"/>
+      <c r="W66" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X66" s="3"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
@@ -6864,21 +6864,21 @@
         <v>36</v>
       </c>
       <c r="N67" s="7"/>
-      <c r="O67" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O67" s="6"/>
       <c r="P67" s="7"/>
-      <c r="Q67" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q67" s="6"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="6"/>
+      <c r="S67" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T67" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U67" s="6"/>
       <c r="V67" s="7"/>
-      <c r="W67" s="6"/>
+      <c r="W67" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X67" s="7"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
@@ -6928,22 +6928,22 @@
         <v>36</v>
       </c>
       <c r="N68" s="3"/>
-      <c r="O68" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R68" s="3"/>
       <c r="S68" s="2"/>
       <c r="T68" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U68" s="2"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="3"/>
+      <c r="W68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X68" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2" t="s">
@@ -6992,22 +6992,22 @@
         <v>36</v>
       </c>
       <c r="N69" s="7"/>
-      <c r="O69" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O69" s="6"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="6"/>
-      <c r="R69" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R69" s="7"/>
       <c r="S69" s="6"/>
       <c r="T69" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U69" s="6"/>
       <c r="V69" s="7"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="7"/>
+      <c r="W69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X69" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
       <c r="AA69" s="6" t="s">
@@ -7054,7 +7054,9 @@
         <v>36</v>
       </c>
       <c r="N70" s="3"/>
-      <c r="O70" s="2"/>
+      <c r="O70" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="3"/>
@@ -7062,9 +7064,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="2"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W70" s="2"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -7112,7 +7112,9 @@
         <v>36</v>
       </c>
       <c r="N71" s="7"/>
-      <c r="O71" s="6"/>
+      <c r="O71" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="6"/>
       <c r="R71" s="7"/>
@@ -7120,9 +7122,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
-      <c r="W71" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W71" s="6"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
@@ -7170,7 +7170,9 @@
         <v>36</v>
       </c>
       <c r="N72" s="7"/>
-      <c r="O72" s="6"/>
+      <c r="O72" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P72" s="7"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="7"/>
@@ -7178,9 +7180,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
-      <c r="W72" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W72" s="6"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
@@ -7228,7 +7228,9 @@
         <v>36</v>
       </c>
       <c r="N73" s="3"/>
-      <c r="O73" s="2"/>
+      <c r="O73" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P73" s="3"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="3"/>
@@ -7236,9 +7238,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="2"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W73" s="2"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -7286,7 +7286,9 @@
         <v>36</v>
       </c>
       <c r="N74" s="7"/>
-      <c r="O74" s="6"/>
+      <c r="O74" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="7"/>
@@ -7294,9 +7296,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="6"/>
       <c r="V74" s="7"/>
-      <c r="W74" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W74" s="6"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
@@ -7344,7 +7344,9 @@
         <v>36</v>
       </c>
       <c r="N75" s="7"/>
-      <c r="O75" s="6"/>
+      <c r="O75" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="7"/>
@@ -7352,9 +7354,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="6"/>
       <c r="V75" s="7"/>
-      <c r="W75" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W75" s="6"/>
       <c r="X75" s="7"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
@@ -7402,7 +7402,9 @@
         <v>36</v>
       </c>
       <c r="N76" s="3"/>
-      <c r="O76" s="2"/>
+      <c r="O76" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="3"/>
@@ -7410,9 +7412,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W76" s="2"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -7460,7 +7460,9 @@
         <v>36</v>
       </c>
       <c r="N77" s="7"/>
-      <c r="O77" s="6"/>
+      <c r="O77" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="7"/>
@@ -7468,9 +7470,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
-      <c r="W77" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W77" s="6"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
@@ -7518,7 +7518,9 @@
         <v>36</v>
       </c>
       <c r="N78" s="7"/>
-      <c r="O78" s="6"/>
+      <c r="O78" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="7"/>
@@ -7526,9 +7528,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
-      <c r="W78" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W78" s="6"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
@@ -7576,7 +7576,9 @@
         <v>36</v>
       </c>
       <c r="N79" s="3"/>
-      <c r="O79" s="2"/>
+      <c r="O79" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="3"/>
@@ -7584,9 +7586,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="2"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W79" s="2"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
@@ -7634,7 +7634,9 @@
         <v>36</v>
       </c>
       <c r="N80" s="7"/>
-      <c r="O80" s="6"/>
+      <c r="O80" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P80" s="7"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="7"/>
@@ -7642,9 +7644,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="6"/>
       <c r="V80" s="7"/>
-      <c r="W80" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W80" s="6"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
@@ -7692,7 +7692,9 @@
         <v>36</v>
       </c>
       <c r="N81" s="3"/>
-      <c r="O81" s="2"/>
+      <c r="O81" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P81" s="3"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="3"/>
@@ -7700,9 +7702,7 @@
       <c r="T81" s="3"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W81" s="2"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
@@ -7750,7 +7750,9 @@
         <v>36</v>
       </c>
       <c r="N82" s="7"/>
-      <c r="O82" s="6"/>
+      <c r="O82" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="7"/>
@@ -7758,9 +7760,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
-      <c r="W82" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W82" s="6"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
@@ -7808,7 +7808,9 @@
         <v>36</v>
       </c>
       <c r="N83" s="7"/>
-      <c r="O83" s="6"/>
+      <c r="O83" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="7"/>
@@ -7816,9 +7818,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
-      <c r="W83" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W83" s="6"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
@@ -7866,7 +7866,9 @@
         <v>36</v>
       </c>
       <c r="N84" s="3"/>
-      <c r="O84" s="2"/>
+      <c r="O84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="3"/>
@@ -7874,9 +7876,7 @@
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="W84" s="2"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -7924,7 +7924,9 @@
         <v>36</v>
       </c>
       <c r="N85" s="7"/>
-      <c r="O85" s="6"/>
+      <c r="O85" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="7"/>
@@ -7932,9 +7934,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="6"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W85" s="6"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
@@ -7982,7 +7982,9 @@
         <v>36</v>
       </c>
       <c r="N86" s="7"/>
-      <c r="O86" s="6"/>
+      <c r="O86" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P86" s="7"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="7"/>
@@ -7990,9 +7992,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
-      <c r="W86" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W86" s="6"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
@@ -8040,7 +8040,9 @@
         <v>36</v>
       </c>
       <c r="N87" s="7"/>
-      <c r="O87" s="6"/>
+      <c r="O87" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="7"/>
@@ -8048,9 +8050,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
-      <c r="W87" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="W87" s="6"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
@@ -8097,17 +8097,17 @@
       <c r="M88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N88" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N88" s="3"/>
       <c r="O88" s="2"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="2"/>
+      <c r="Q88" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R88" s="3"/>
       <c r="S88" s="2"/>
       <c r="T88" s="3"/>
       <c r="U88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
@@ -8157,16 +8157,16 @@
       <c r="M89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N89" s="3"/>
       <c r="O89" s="2"/>
       <c r="P89" s="3"/>
-      <c r="Q89" s="4" t="s">
+      <c r="Q89" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R89" s="3"/>
-      <c r="S89" s="2"/>
+      <c r="S89" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T89" s="3"/>
       <c r="U89" s="2"/>
       <c r="V89" s="3"/>
@@ -8217,21 +8217,21 @@
       <c r="M90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N90" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N90" s="3"/>
       <c r="O90" s="2"/>
       <c r="P90" s="3"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R90" s="3"/>
       <c r="S90" s="2"/>
       <c r="T90" s="3"/>
       <c r="U90" s="2"/>
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="3"/>
+      <c r="X90" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2" t="s">
@@ -8277,12 +8277,14 @@
       <c r="M91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N91" s="3"/>
       <c r="O91" s="2"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="2"/>
+      <c r="P91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R91" s="3"/>
       <c r="S91" s="2"/>
       <c r="T91" s="3"/>
@@ -8290,9 +8292,7 @@
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
       <c r="X91" s="3"/>
-      <c r="Y91" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2" t="s">
         <v>162</v>
@@ -8337,19 +8337,19 @@
       <c r="M92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N92" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N92" s="3"/>
       <c r="O92" s="2"/>
       <c r="P92" s="3"/>
-      <c r="Q92" s="2"/>
+      <c r="Q92" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R92" s="3"/>
-      <c r="S92" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S92" s="2"/>
       <c r="T92" s="3"/>
       <c r="U92" s="2"/>
-      <c r="V92" s="3"/>
+      <c r="V92" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="W92" s="2"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="2"/>
@@ -8397,16 +8397,16 @@
       <c r="M93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N93" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N93" s="3"/>
       <c r="O93" s="2"/>
       <c r="P93" s="3"/>
-      <c r="Q93" s="2"/>
+      <c r="Q93" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R93" s="3"/>
       <c r="S93" s="2"/>
       <c r="T93" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U93" s="2"/>
       <c r="V93" s="3"/>
@@ -8458,21 +8458,21 @@
         <v>36</v>
       </c>
       <c r="N94" s="3"/>
-      <c r="O94" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="2"/>
       <c r="R94" s="3"/>
-      <c r="S94" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S94" s="2"/>
       <c r="T94" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U94" s="2"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="2"/>
+      <c r="V94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X94" s="3"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
@@ -8522,21 +8522,21 @@
         <v>36</v>
       </c>
       <c r="N95" s="3"/>
-      <c r="O95" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="O95" s="2"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="2"/>
       <c r="R95" s="3"/>
-      <c r="S95" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="S95" s="2"/>
       <c r="T95" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U95" s="2"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="2"/>
+      <c r="V95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W95" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X95" s="3"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2">
@@ -8586,21 +8586,21 @@
         <v>36</v>
       </c>
       <c r="N96" s="7"/>
-      <c r="O96" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O96" s="6"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S96" s="6"/>
       <c r="T96" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U96" s="6"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="6"/>
+      <c r="V96" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W96" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X96" s="7"/>
       <c r="Y96" s="6"/>
       <c r="Z96" s="6">
@@ -8650,21 +8650,21 @@
         <v>36</v>
       </c>
       <c r="N97" s="7"/>
-      <c r="O97" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O97" s="6"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S97" s="6"/>
       <c r="T97" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U97" s="6"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="6"/>
+      <c r="V97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W97" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X97" s="7"/>
       <c r="Y97" s="6"/>
       <c r="Z97" s="6">
@@ -8714,21 +8714,21 @@
         <v>36</v>
       </c>
       <c r="N98" s="7"/>
-      <c r="O98" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O98" s="6"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S98" s="6"/>
       <c r="T98" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U98" s="6"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="6"/>
+      <c r="V98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W98" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X98" s="7"/>
       <c r="Y98" s="6"/>
       <c r="Z98" s="6">
@@ -8778,21 +8778,21 @@
         <v>36</v>
       </c>
       <c r="N99" s="7"/>
-      <c r="O99" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O99" s="6"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S99" s="6"/>
       <c r="T99" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U99" s="6"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="6"/>
+      <c r="V99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W99" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X99" s="7"/>
       <c r="Y99" s="6"/>
       <c r="Z99" s="6">
@@ -8842,21 +8842,21 @@
         <v>36</v>
       </c>
       <c r="N100" s="7"/>
-      <c r="O100" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O100" s="6"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S100" s="6"/>
       <c r="T100" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U100" s="6"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="6"/>
+      <c r="V100" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W100" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X100" s="7"/>
       <c r="Y100" s="6"/>
       <c r="Z100" s="6">
@@ -8906,21 +8906,21 @@
         <v>36</v>
       </c>
       <c r="N101" s="7"/>
-      <c r="O101" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O101" s="6"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S101" s="6"/>
       <c r="T101" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U101" s="6"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="6"/>
+      <c r="V101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W101" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X101" s="7"/>
       <c r="Y101" s="6"/>
       <c r="Z101" s="6">
@@ -8970,21 +8970,21 @@
         <v>36</v>
       </c>
       <c r="N102" s="7"/>
-      <c r="O102" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O102" s="6"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S102" s="6"/>
       <c r="T102" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U102" s="6"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="6"/>
+      <c r="V102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W102" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X102" s="7"/>
       <c r="Y102" s="6"/>
       <c r="Z102" s="6">
@@ -9034,21 +9034,21 @@
         <v>36</v>
       </c>
       <c r="N103" s="7"/>
-      <c r="O103" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O103" s="6"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="6"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S103" s="6"/>
       <c r="T103" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U103" s="6"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="6"/>
+      <c r="V103" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W103" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X103" s="7"/>
       <c r="Y103" s="6"/>
       <c r="Z103" s="6">
@@ -9098,21 +9098,21 @@
         <v>36</v>
       </c>
       <c r="N104" s="7"/>
-      <c r="O104" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O104" s="6"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S104" s="6"/>
       <c r="T104" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U104" s="6"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="6"/>
+      <c r="V104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W104" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X104" s="7"/>
       <c r="Y104" s="6"/>
       <c r="Z104" s="6">
@@ -9162,21 +9162,21 @@
         <v>36</v>
       </c>
       <c r="N105" s="7"/>
-      <c r="O105" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O105" s="6"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S105" s="6"/>
       <c r="T105" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U105" s="6"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="6"/>
+      <c r="V105" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W105" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X105" s="7"/>
       <c r="Y105" s="6"/>
       <c r="Z105" s="6">
@@ -9226,21 +9226,21 @@
         <v>36</v>
       </c>
       <c r="N106" s="7"/>
-      <c r="O106" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O106" s="6"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S106" s="6"/>
       <c r="T106" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U106" s="6"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="6"/>
+      <c r="V106" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W106" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X106" s="7"/>
       <c r="Y106" s="6"/>
       <c r="Z106" s="6">
@@ -9290,21 +9290,21 @@
         <v>36</v>
       </c>
       <c r="N107" s="7"/>
-      <c r="O107" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O107" s="6"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S107" s="6"/>
       <c r="T107" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U107" s="6"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="6"/>
+      <c r="V107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W107" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X107" s="7"/>
       <c r="Y107" s="6"/>
       <c r="Z107" s="6">
@@ -9354,21 +9354,21 @@
         <v>36</v>
       </c>
       <c r="N108" s="7"/>
-      <c r="O108" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O108" s="6"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S108" s="6"/>
       <c r="T108" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U108" s="6"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="6"/>
+      <c r="V108" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W108" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X108" s="7"/>
       <c r="Y108" s="6"/>
       <c r="Z108" s="6">
@@ -9418,21 +9418,21 @@
         <v>36</v>
       </c>
       <c r="N109" s="7"/>
-      <c r="O109" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O109" s="6"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S109" s="6"/>
       <c r="T109" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U109" s="6"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="6"/>
+      <c r="V109" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W109" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X109" s="7"/>
       <c r="Y109" s="6"/>
       <c r="Z109" s="6">
@@ -9482,21 +9482,21 @@
         <v>36</v>
       </c>
       <c r="N110" s="7"/>
-      <c r="O110" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O110" s="6"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S110" s="6"/>
       <c r="T110" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U110" s="6"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="6"/>
+      <c r="V110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W110" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X110" s="7"/>
       <c r="Y110" s="6"/>
       <c r="Z110" s="6">
@@ -9546,21 +9546,21 @@
         <v>36</v>
       </c>
       <c r="N111" s="7"/>
-      <c r="O111" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O111" s="6"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S111" s="6"/>
       <c r="T111" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U111" s="6"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="6"/>
+      <c r="V111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W111" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X111" s="7"/>
       <c r="Y111" s="6"/>
       <c r="Z111" s="6">
@@ -9610,21 +9610,21 @@
         <v>36</v>
       </c>
       <c r="N112" s="7"/>
-      <c r="O112" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O112" s="6"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S112" s="6"/>
       <c r="T112" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U112" s="6"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="6"/>
+      <c r="V112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W112" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X112" s="7"/>
       <c r="Y112" s="6"/>
       <c r="Z112" s="6">
@@ -9674,21 +9674,21 @@
         <v>36</v>
       </c>
       <c r="N113" s="7"/>
-      <c r="O113" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O113" s="6"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S113" s="6"/>
       <c r="T113" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U113" s="6"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="6"/>
+      <c r="V113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W113" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X113" s="7"/>
       <c r="Y113" s="6"/>
       <c r="Z113" s="6">
@@ -9738,21 +9738,21 @@
         <v>36</v>
       </c>
       <c r="N114" s="7"/>
-      <c r="O114" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O114" s="6"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S114" s="6"/>
       <c r="T114" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U114" s="6"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="6"/>
+      <c r="V114" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W114" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X114" s="7"/>
       <c r="Y114" s="6"/>
       <c r="Z114" s="6">
@@ -9802,21 +9802,21 @@
         <v>36</v>
       </c>
       <c r="N115" s="7"/>
-      <c r="O115" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O115" s="6"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S115" s="6"/>
       <c r="T115" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U115" s="6"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="6"/>
+      <c r="V115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W115" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X115" s="7"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6">
@@ -9866,21 +9866,21 @@
         <v>36</v>
       </c>
       <c r="N116" s="7"/>
-      <c r="O116" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O116" s="6"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S116" s="6"/>
       <c r="T116" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U116" s="6"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="6"/>
+      <c r="V116" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W116" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X116" s="7"/>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6">
@@ -9930,21 +9930,21 @@
         <v>36</v>
       </c>
       <c r="N117" s="7"/>
-      <c r="O117" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O117" s="6"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S117" s="6"/>
       <c r="T117" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U117" s="6"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="6"/>
+      <c r="V117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W117" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X117" s="7"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6">
@@ -9994,21 +9994,21 @@
         <v>36</v>
       </c>
       <c r="N118" s="7"/>
-      <c r="O118" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O118" s="6"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S118" s="6"/>
       <c r="T118" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U118" s="6"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="6"/>
+      <c r="V118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W118" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X118" s="7"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6">
@@ -10058,21 +10058,21 @@
         <v>36</v>
       </c>
       <c r="N119" s="7"/>
-      <c r="O119" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O119" s="6"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S119" s="6"/>
       <c r="T119" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U119" s="6"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="6"/>
+      <c r="V119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W119" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X119" s="7"/>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6">
@@ -10122,21 +10122,21 @@
         <v>36</v>
       </c>
       <c r="N120" s="7"/>
-      <c r="O120" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O120" s="6"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S120" s="6"/>
       <c r="T120" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U120" s="6"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="6"/>
+      <c r="V120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W120" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X120" s="7"/>
       <c r="Y120" s="6"/>
       <c r="Z120" s="6">
@@ -10186,21 +10186,21 @@
         <v>36</v>
       </c>
       <c r="N121" s="7"/>
-      <c r="O121" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O121" s="6"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S121" s="6"/>
       <c r="T121" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U121" s="6"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="6"/>
+      <c r="V121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W121" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X121" s="7"/>
       <c r="Y121" s="6"/>
       <c r="Z121" s="6">
@@ -10250,21 +10250,21 @@
         <v>36</v>
       </c>
       <c r="N122" s="7"/>
-      <c r="O122" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O122" s="6"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S122" s="6"/>
       <c r="T122" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U122" s="6"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="6"/>
+      <c r="V122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W122" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X122" s="7"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="6">
@@ -10314,21 +10314,21 @@
         <v>36</v>
       </c>
       <c r="N123" s="7"/>
-      <c r="O123" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O123" s="6"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S123" s="6"/>
       <c r="T123" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U123" s="6"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="6"/>
+      <c r="V123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W123" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X123" s="7"/>
       <c r="Y123" s="6"/>
       <c r="Z123" s="6">
@@ -10378,21 +10378,21 @@
         <v>36</v>
       </c>
       <c r="N124" s="7"/>
-      <c r="O124" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O124" s="6"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S124" s="6"/>
       <c r="T124" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U124" s="6"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="6"/>
+      <c r="V124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W124" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X124" s="7"/>
       <c r="Y124" s="6"/>
       <c r="Z124" s="6">
@@ -10442,21 +10442,21 @@
         <v>36</v>
       </c>
       <c r="N125" s="7"/>
-      <c r="O125" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O125" s="6"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S125" s="6"/>
       <c r="T125" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U125" s="6"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="6"/>
+      <c r="V125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W125" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X125" s="7"/>
       <c r="Y125" s="6"/>
       <c r="Z125" s="6">
@@ -10506,21 +10506,21 @@
         <v>36</v>
       </c>
       <c r="N126" s="7"/>
-      <c r="O126" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O126" s="6"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S126" s="6"/>
       <c r="T126" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U126" s="6"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="6"/>
+      <c r="V126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W126" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X126" s="7"/>
       <c r="Y126" s="6"/>
       <c r="Z126" s="6">
@@ -10570,21 +10570,21 @@
         <v>36</v>
       </c>
       <c r="N127" s="7"/>
-      <c r="O127" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O127" s="6"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S127" s="6"/>
       <c r="T127" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U127" s="6"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="6"/>
+      <c r="V127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W127" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X127" s="7"/>
       <c r="Y127" s="6"/>
       <c r="Z127" s="6">
@@ -10634,21 +10634,21 @@
         <v>36</v>
       </c>
       <c r="N128" s="7"/>
-      <c r="O128" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O128" s="6"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S128" s="6"/>
       <c r="T128" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U128" s="6"/>
-      <c r="V128" s="7"/>
-      <c r="W128" s="6"/>
+      <c r="V128" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W128" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X128" s="7"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="6">
@@ -10698,21 +10698,21 @@
         <v>36</v>
       </c>
       <c r="N129" s="7"/>
-      <c r="O129" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O129" s="6"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="S129" s="6"/>
       <c r="T129" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U129" s="6"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="6"/>
+      <c r="V129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W129" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X129" s="7"/>
       <c r="Y129" s="6"/>
       <c r="Z129" s="6">
@@ -10762,23 +10762,23 @@
         <v>36</v>
       </c>
       <c r="N130" s="3"/>
-      <c r="O130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P130" s="3"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="3"/>
       <c r="S130" s="2"/>
       <c r="T130" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U130" s="2"/>
       <c r="V130" s="3"/>
-      <c r="W130" s="2"/>
+      <c r="W130" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X130" s="3"/>
-      <c r="Y130" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
@@ -10822,23 +10822,23 @@
         <v>36</v>
       </c>
       <c r="N131" s="7"/>
-      <c r="O131" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P131" s="7"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q131" s="6"/>
       <c r="R131" s="7"/>
       <c r="S131" s="6"/>
       <c r="T131" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U131" s="6"/>
       <c r="V131" s="7"/>
-      <c r="W131" s="6"/>
+      <c r="W131" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X131" s="7"/>
-      <c r="Y131" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y131" s="6"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
@@ -10882,23 +10882,23 @@
         <v>36</v>
       </c>
       <c r="N132" s="7"/>
-      <c r="O132" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P132" s="7"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="7"/>
       <c r="S132" s="6"/>
       <c r="T132" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U132" s="6"/>
       <c r="V132" s="7"/>
-      <c r="W132" s="6"/>
+      <c r="W132" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X132" s="7"/>
-      <c r="Y132" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y132" s="6"/>
       <c r="Z132" s="6"/>
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
@@ -10942,23 +10942,23 @@
         <v>36</v>
       </c>
       <c r="N133" s="7"/>
-      <c r="O133" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P133" s="7"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q133" s="6"/>
       <c r="R133" s="7"/>
       <c r="S133" s="6"/>
       <c r="T133" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U133" s="6"/>
       <c r="V133" s="7"/>
-      <c r="W133" s="6"/>
+      <c r="W133" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X133" s="7"/>
-      <c r="Y133" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y133" s="6"/>
       <c r="Z133" s="6"/>
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
@@ -11002,23 +11002,23 @@
         <v>36</v>
       </c>
       <c r="N134" s="7"/>
-      <c r="O134" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P134" s="7"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="7"/>
       <c r="S134" s="6"/>
       <c r="T134" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U134" s="6"/>
       <c r="V134" s="7"/>
-      <c r="W134" s="6"/>
+      <c r="W134" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X134" s="7"/>
-      <c r="Y134" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y134" s="6"/>
       <c r="Z134" s="6"/>
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
@@ -11062,23 +11062,23 @@
         <v>36</v>
       </c>
       <c r="N135" s="7"/>
-      <c r="O135" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P135" s="7"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="7"/>
       <c r="S135" s="6"/>
       <c r="T135" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U135" s="6"/>
       <c r="V135" s="7"/>
-      <c r="W135" s="6"/>
+      <c r="W135" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X135" s="7"/>
-      <c r="Y135" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y135" s="6"/>
       <c r="Z135" s="6"/>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -11122,23 +11122,23 @@
         <v>36</v>
       </c>
       <c r="N136" s="7"/>
-      <c r="O136" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P136" s="7"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="7"/>
       <c r="S136" s="6"/>
       <c r="T136" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U136" s="6"/>
       <c r="V136" s="7"/>
-      <c r="W136" s="6"/>
+      <c r="W136" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X136" s="7"/>
-      <c r="Y136" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y136" s="6"/>
       <c r="Z136" s="6"/>
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
@@ -11182,23 +11182,23 @@
         <v>36</v>
       </c>
       <c r="N137" s="7"/>
-      <c r="O137" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P137" s="7"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="7"/>
       <c r="S137" s="6"/>
       <c r="T137" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U137" s="6"/>
       <c r="V137" s="7"/>
-      <c r="W137" s="6"/>
+      <c r="W137" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X137" s="7"/>
-      <c r="Y137" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y137" s="6"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
@@ -11242,23 +11242,23 @@
         <v>36</v>
       </c>
       <c r="N138" s="7"/>
-      <c r="O138" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P138" s="7"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="7"/>
       <c r="S138" s="6"/>
       <c r="T138" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U138" s="6"/>
       <c r="V138" s="7"/>
-      <c r="W138" s="6"/>
+      <c r="W138" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X138" s="7"/>
-      <c r="Y138" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y138" s="6"/>
       <c r="Z138" s="6"/>
       <c r="AA138" s="6"/>
       <c r="AB138" s="6"/>
@@ -11302,23 +11302,23 @@
         <v>36</v>
       </c>
       <c r="N139" s="7"/>
-      <c r="O139" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P139" s="7"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q139" s="6"/>
       <c r="R139" s="7"/>
       <c r="S139" s="6"/>
       <c r="T139" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U139" s="6"/>
       <c r="V139" s="7"/>
-      <c r="W139" s="6"/>
+      <c r="W139" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X139" s="7"/>
-      <c r="Y139" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y139" s="6"/>
       <c r="Z139" s="6"/>
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
@@ -11362,23 +11362,23 @@
         <v>36</v>
       </c>
       <c r="N140" s="7"/>
-      <c r="O140" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P140" s="7"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q140" s="6"/>
       <c r="R140" s="7"/>
       <c r="S140" s="6"/>
       <c r="T140" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U140" s="6"/>
       <c r="V140" s="7"/>
-      <c r="W140" s="6"/>
+      <c r="W140" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X140" s="7"/>
-      <c r="Y140" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
@@ -11422,23 +11422,23 @@
         <v>36</v>
       </c>
       <c r="N141" s="7"/>
-      <c r="O141" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P141" s="7"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q141" s="6"/>
       <c r="R141" s="7"/>
       <c r="S141" s="6"/>
       <c r="T141" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U141" s="6"/>
       <c r="V141" s="7"/>
-      <c r="W141" s="6"/>
+      <c r="W141" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X141" s="7"/>
-      <c r="Y141" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y141" s="6"/>
       <c r="Z141" s="6"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
@@ -11482,23 +11482,23 @@
         <v>36</v>
       </c>
       <c r="N142" s="7"/>
-      <c r="O142" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P142" s="7"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q142" s="6"/>
       <c r="R142" s="7"/>
       <c r="S142" s="6"/>
       <c r="T142" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U142" s="6"/>
       <c r="V142" s="7"/>
-      <c r="W142" s="6"/>
+      <c r="W142" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X142" s="7"/>
-      <c r="Y142" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
       <c r="AB142" s="6"/>
@@ -11542,23 +11542,23 @@
         <v>36</v>
       </c>
       <c r="N143" s="7"/>
-      <c r="O143" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P143" s="7"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q143" s="6"/>
       <c r="R143" s="7"/>
       <c r="S143" s="6"/>
       <c r="T143" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U143" s="6"/>
       <c r="V143" s="7"/>
-      <c r="W143" s="6"/>
+      <c r="W143" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X143" s="7"/>
-      <c r="Y143" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
@@ -11602,23 +11602,23 @@
         <v>36</v>
       </c>
       <c r="N144" s="7"/>
-      <c r="O144" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P144" s="7"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q144" s="6"/>
       <c r="R144" s="7"/>
       <c r="S144" s="6"/>
       <c r="T144" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U144" s="6"/>
       <c r="V144" s="7"/>
-      <c r="W144" s="6"/>
+      <c r="W144" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X144" s="7"/>
-      <c r="Y144" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y144" s="6"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
@@ -11662,23 +11662,23 @@
         <v>36</v>
       </c>
       <c r="N145" s="7"/>
-      <c r="O145" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P145" s="7"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q145" s="6"/>
       <c r="R145" s="7"/>
       <c r="S145" s="6"/>
       <c r="T145" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U145" s="6"/>
       <c r="V145" s="7"/>
-      <c r="W145" s="6"/>
+      <c r="W145" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X145" s="7"/>
-      <c r="Y145" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
       <c r="AB145" s="6"/>
@@ -11722,23 +11722,23 @@
         <v>36</v>
       </c>
       <c r="N146" s="7"/>
-      <c r="O146" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P146" s="7"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q146" s="6"/>
       <c r="R146" s="7"/>
       <c r="S146" s="6"/>
       <c r="T146" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U146" s="6"/>
       <c r="V146" s="7"/>
-      <c r="W146" s="6"/>
+      <c r="W146" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X146" s="7"/>
-      <c r="Y146" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
       <c r="AB146" s="6"/>
@@ -11782,23 +11782,23 @@
         <v>36</v>
       </c>
       <c r="N147" s="7"/>
-      <c r="O147" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P147" s="7"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q147" s="6"/>
       <c r="R147" s="7"/>
       <c r="S147" s="6"/>
       <c r="T147" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U147" s="6"/>
       <c r="V147" s="7"/>
-      <c r="W147" s="6"/>
+      <c r="W147" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X147" s="7"/>
-      <c r="Y147" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y147" s="6"/>
       <c r="Z147" s="6"/>
       <c r="AA147" s="6"/>
       <c r="AB147" s="6"/>
@@ -11842,23 +11842,23 @@
         <v>36</v>
       </c>
       <c r="N148" s="7"/>
-      <c r="O148" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P148" s="7"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q148" s="6"/>
       <c r="R148" s="7"/>
       <c r="S148" s="6"/>
       <c r="T148" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U148" s="6"/>
       <c r="V148" s="7"/>
-      <c r="W148" s="6"/>
+      <c r="W148" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X148" s="7"/>
-      <c r="Y148" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y148" s="6"/>
       <c r="Z148" s="6"/>
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
@@ -11902,23 +11902,23 @@
         <v>36</v>
       </c>
       <c r="N149" s="7"/>
-      <c r="O149" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P149" s="7"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q149" s="6"/>
       <c r="R149" s="7"/>
       <c r="S149" s="6"/>
       <c r="T149" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U149" s="6"/>
       <c r="V149" s="7"/>
-      <c r="W149" s="6"/>
+      <c r="W149" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X149" s="7"/>
-      <c r="Y149" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y149" s="6"/>
       <c r="Z149" s="6"/>
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
@@ -11962,23 +11962,23 @@
         <v>36</v>
       </c>
       <c r="N150" s="7"/>
-      <c r="O150" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P150" s="7"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q150" s="6"/>
       <c r="R150" s="7"/>
       <c r="S150" s="6"/>
       <c r="T150" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U150" s="6"/>
       <c r="V150" s="7"/>
-      <c r="W150" s="6"/>
+      <c r="W150" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X150" s="7"/>
-      <c r="Y150" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y150" s="6"/>
       <c r="Z150" s="6"/>
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
@@ -12022,23 +12022,23 @@
         <v>36</v>
       </c>
       <c r="N151" s="7"/>
-      <c r="O151" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P151" s="7"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q151" s="6"/>
       <c r="R151" s="7"/>
       <c r="S151" s="6"/>
       <c r="T151" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U151" s="6"/>
       <c r="V151" s="7"/>
-      <c r="W151" s="6"/>
+      <c r="W151" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X151" s="7"/>
-      <c r="Y151" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y151" s="6"/>
       <c r="Z151" s="6"/>
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
@@ -12082,23 +12082,23 @@
         <v>36</v>
       </c>
       <c r="N152" s="7"/>
-      <c r="O152" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P152" s="7"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q152" s="6"/>
       <c r="R152" s="7"/>
       <c r="S152" s="6"/>
       <c r="T152" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U152" s="6"/>
       <c r="V152" s="7"/>
-      <c r="W152" s="6"/>
+      <c r="W152" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X152" s="7"/>
-      <c r="Y152" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y152" s="6"/>
       <c r="Z152" s="6"/>
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
@@ -12142,23 +12142,23 @@
         <v>36</v>
       </c>
       <c r="N153" s="7"/>
-      <c r="O153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P153" s="7"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q153" s="6"/>
       <c r="R153" s="7"/>
       <c r="S153" s="6"/>
       <c r="T153" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U153" s="6"/>
       <c r="V153" s="7"/>
-      <c r="W153" s="6"/>
+      <c r="W153" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X153" s="7"/>
-      <c r="Y153" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y153" s="6"/>
       <c r="Z153" s="6"/>
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
@@ -12202,23 +12202,23 @@
         <v>36</v>
       </c>
       <c r="N154" s="7"/>
-      <c r="O154" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P154" s="7"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q154" s="6"/>
       <c r="R154" s="7"/>
       <c r="S154" s="6"/>
       <c r="T154" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U154" s="6"/>
       <c r="V154" s="7"/>
-      <c r="W154" s="6"/>
+      <c r="W154" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X154" s="7"/>
-      <c r="Y154" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y154" s="6"/>
       <c r="Z154" s="6"/>
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
@@ -12262,23 +12262,23 @@
         <v>36</v>
       </c>
       <c r="N155" s="7"/>
-      <c r="O155" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P155" s="7"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q155" s="6"/>
       <c r="R155" s="7"/>
       <c r="S155" s="6"/>
       <c r="T155" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U155" s="6"/>
       <c r="V155" s="7"/>
-      <c r="W155" s="6"/>
+      <c r="W155" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X155" s="7"/>
-      <c r="Y155" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y155" s="6"/>
       <c r="Z155" s="6"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
@@ -12322,23 +12322,23 @@
         <v>36</v>
       </c>
       <c r="N156" s="3"/>
-      <c r="O156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P156" s="3"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="3"/>
       <c r="S156" s="2"/>
       <c r="T156" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U156" s="2"/>
       <c r="V156" s="3"/>
-      <c r="W156" s="2"/>
+      <c r="W156" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X156" s="3"/>
-      <c r="Y156" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2"/>
@@ -12382,23 +12382,23 @@
         <v>36</v>
       </c>
       <c r="N157" s="7"/>
-      <c r="O157" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P157" s="7"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q157" s="6"/>
       <c r="R157" s="7"/>
       <c r="S157" s="6"/>
       <c r="T157" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U157" s="6"/>
       <c r="V157" s="7"/>
-      <c r="W157" s="6"/>
+      <c r="W157" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X157" s="7"/>
-      <c r="Y157" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y157" s="6"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="6"/>
       <c r="AB157" s="6"/>
@@ -12442,23 +12442,23 @@
         <v>36</v>
       </c>
       <c r="N158" s="3"/>
-      <c r="O158" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P158" s="3"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q158" s="2"/>
       <c r="R158" s="3"/>
       <c r="S158" s="2"/>
       <c r="T158" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U158" s="2"/>
       <c r="V158" s="3"/>
-      <c r="W158" s="2"/>
+      <c r="W158" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X158" s="3"/>
-      <c r="Y158" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
       <c r="AA158" s="2" t="s">
         <v>364</v>
@@ -12506,23 +12506,23 @@
         <v>36</v>
       </c>
       <c r="N159" s="7"/>
-      <c r="O159" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P159" s="7"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q159" s="6"/>
       <c r="R159" s="7"/>
       <c r="S159" s="6"/>
       <c r="T159" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U159" s="6"/>
       <c r="V159" s="7"/>
-      <c r="W159" s="6"/>
+      <c r="W159" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X159" s="7"/>
-      <c r="Y159" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y159" s="6"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="6" t="s">
         <v>364</v>
@@ -12570,23 +12570,23 @@
         <v>36</v>
       </c>
       <c r="N160" s="7"/>
-      <c r="O160" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P160" s="7"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q160" s="6"/>
       <c r="R160" s="7"/>
       <c r="S160" s="6"/>
       <c r="T160" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U160" s="6"/>
       <c r="V160" s="7"/>
-      <c r="W160" s="6"/>
+      <c r="W160" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X160" s="7"/>
-      <c r="Y160" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y160" s="6"/>
       <c r="Z160" s="6"/>
       <c r="AA160" s="6" t="s">
         <v>364</v>
@@ -12634,23 +12634,23 @@
         <v>36</v>
       </c>
       <c r="N161" s="7"/>
-      <c r="O161" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P161" s="7"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q161" s="6"/>
       <c r="R161" s="7"/>
       <c r="S161" s="6"/>
       <c r="T161" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U161" s="6"/>
       <c r="V161" s="7"/>
-      <c r="W161" s="6"/>
+      <c r="W161" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X161" s="7"/>
-      <c r="Y161" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y161" s="6"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="6" t="s">
         <v>364</v>
@@ -12698,23 +12698,23 @@
         <v>36</v>
       </c>
       <c r="N162" s="3"/>
-      <c r="O162" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P162" s="3"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q162" s="2"/>
       <c r="R162" s="3"/>
       <c r="S162" s="2"/>
       <c r="T162" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U162" s="2"/>
       <c r="V162" s="3"/>
-      <c r="W162" s="2"/>
+      <c r="W162" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X162" s="3"/>
-      <c r="Y162" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
       <c r="AA162" s="2" t="s">
         <v>364</v>
@@ -12762,23 +12762,23 @@
         <v>36</v>
       </c>
       <c r="N163" s="7"/>
-      <c r="O163" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P163" s="7"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q163" s="6"/>
       <c r="R163" s="7"/>
       <c r="S163" s="6"/>
       <c r="T163" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U163" s="6"/>
       <c r="V163" s="7"/>
-      <c r="W163" s="6"/>
+      <c r="W163" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X163" s="7"/>
-      <c r="Y163" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y163" s="6"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="6" t="s">
         <v>364</v>
@@ -12826,23 +12826,23 @@
         <v>36</v>
       </c>
       <c r="N164" s="7"/>
-      <c r="O164" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P164" s="7"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q164" s="6"/>
       <c r="R164" s="7"/>
       <c r="S164" s="6"/>
       <c r="T164" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U164" s="6"/>
       <c r="V164" s="7"/>
-      <c r="W164" s="6"/>
+      <c r="W164" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X164" s="7"/>
-      <c r="Y164" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y164" s="6"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6" t="s">
         <v>364</v>
@@ -12890,21 +12890,21 @@
         <v>36</v>
       </c>
       <c r="N165" s="3"/>
-      <c r="O165" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O165" s="2"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="2"/>
       <c r="R165" s="3"/>
-      <c r="S165" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S165" s="2"/>
       <c r="T165" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U165" s="2"/>
-      <c r="V165" s="3"/>
-      <c r="W165" s="2"/>
+      <c r="V165" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W165" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X165" s="3"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
@@ -12953,22 +12953,22 @@
       <c r="M166" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N166" s="3"/>
-      <c r="O166" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N166" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O166" s="2"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="2"/>
       <c r="R166" s="3"/>
       <c r="S166" s="2"/>
       <c r="T166" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U166" s="2"/>
-      <c r="V166" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W166" s="2"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X166" s="3"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
@@ -13015,22 +13015,22 @@
       <c r="M167" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N167" s="7"/>
-      <c r="O167" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N167" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O167" s="6"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="7"/>
       <c r="S167" s="6"/>
       <c r="T167" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U167" s="6"/>
-      <c r="V167" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W167" s="6"/>
+      <c r="V167" s="7"/>
+      <c r="W167" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X167" s="7"/>
       <c r="Y167" s="6"/>
       <c r="Z167" s="6"/>
@@ -13075,22 +13075,22 @@
       <c r="M168" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N168" s="7"/>
-      <c r="O168" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N168" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O168" s="6"/>
       <c r="P168" s="7"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="7"/>
       <c r="S168" s="6"/>
       <c r="T168" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U168" s="6"/>
-      <c r="V168" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W168" s="6"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
@@ -13135,22 +13135,22 @@
       <c r="M169" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N169" s="7"/>
-      <c r="O169" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N169" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O169" s="6"/>
       <c r="P169" s="7"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="7"/>
       <c r="S169" s="6"/>
       <c r="T169" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U169" s="6"/>
-      <c r="V169" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W169" s="6"/>
+      <c r="V169" s="7"/>
+      <c r="W169" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
@@ -13199,22 +13199,22 @@
       <c r="M170" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N170" s="7"/>
-      <c r="O170" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N170" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O170" s="6"/>
       <c r="P170" s="7"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="7"/>
       <c r="S170" s="6"/>
       <c r="T170" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U170" s="6"/>
-      <c r="V170" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W170" s="6"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
@@ -13263,22 +13263,22 @@
       <c r="M171" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N171" s="7"/>
-      <c r="O171" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N171" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O171" s="6"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="6"/>
       <c r="R171" s="7"/>
       <c r="S171" s="6"/>
       <c r="T171" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U171" s="6"/>
-      <c r="V171" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W171" s="6"/>
+      <c r="V171" s="7"/>
+      <c r="W171" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
@@ -13325,22 +13325,22 @@
       <c r="M172" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N172" s="7"/>
-      <c r="O172" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N172" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O172" s="6"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="6"/>
       <c r="R172" s="7"/>
       <c r="S172" s="6"/>
       <c r="T172" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U172" s="6"/>
-      <c r="V172" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W172" s="6"/>
+      <c r="V172" s="7"/>
+      <c r="W172" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
@@ -13385,22 +13385,22 @@
       <c r="M173" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N173" s="7"/>
-      <c r="O173" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N173" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O173" s="6"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="6"/>
       <c r="R173" s="7"/>
       <c r="S173" s="6"/>
       <c r="T173" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U173" s="6"/>
-      <c r="V173" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W173" s="6"/>
+      <c r="V173" s="7"/>
+      <c r="W173" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
@@ -13445,22 +13445,22 @@
       <c r="M174" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N174" s="7"/>
-      <c r="O174" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N174" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O174" s="6"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="7"/>
       <c r="S174" s="6"/>
       <c r="T174" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U174" s="6"/>
-      <c r="V174" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W174" s="6"/>
+      <c r="V174" s="7"/>
+      <c r="W174" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
@@ -13509,22 +13509,22 @@
       <c r="M175" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N175" s="7"/>
-      <c r="O175" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N175" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O175" s="6"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="7"/>
       <c r="S175" s="6"/>
       <c r="T175" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U175" s="6"/>
-      <c r="V175" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W175" s="6"/>
+      <c r="V175" s="7"/>
+      <c r="W175" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
@@ -13573,22 +13573,22 @@
       <c r="M176" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N176" s="3"/>
-      <c r="O176" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N176" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O176" s="2"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="2"/>
       <c r="R176" s="3"/>
       <c r="S176" s="2"/>
       <c r="T176" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U176" s="2"/>
-      <c r="V176" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W176" s="2"/>
+      <c r="V176" s="3"/>
+      <c r="W176" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X176" s="3"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
@@ -13635,22 +13635,22 @@
       <c r="M177" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N177" s="7"/>
-      <c r="O177" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N177" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O177" s="6"/>
       <c r="P177" s="7"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="7"/>
       <c r="S177" s="6"/>
       <c r="T177" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U177" s="6"/>
-      <c r="V177" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W177" s="6"/>
+      <c r="V177" s="7"/>
+      <c r="W177" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X177" s="7"/>
       <c r="Y177" s="6"/>
       <c r="Z177" s="6"/>
@@ -13695,22 +13695,22 @@
       <c r="M178" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N178" s="7"/>
-      <c r="O178" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N178" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O178" s="6"/>
       <c r="P178" s="7"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="7"/>
       <c r="S178" s="6"/>
       <c r="T178" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U178" s="6"/>
-      <c r="V178" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W178" s="6"/>
+      <c r="V178" s="7"/>
+      <c r="W178" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
@@ -13755,22 +13755,22 @@
       <c r="M179" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N179" s="7"/>
-      <c r="O179" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N179" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O179" s="6"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="7"/>
       <c r="S179" s="6"/>
       <c r="T179" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U179" s="6"/>
-      <c r="V179" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W179" s="6"/>
+      <c r="V179" s="7"/>
+      <c r="W179" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
@@ -13819,22 +13819,22 @@
       <c r="M180" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N180" s="7"/>
-      <c r="O180" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N180" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O180" s="6"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="7"/>
       <c r="S180" s="6"/>
       <c r="T180" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U180" s="6"/>
-      <c r="V180" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W180" s="6"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X180" s="7"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
@@ -13883,22 +13883,22 @@
       <c r="M181" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N181" s="7"/>
-      <c r="O181" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N181" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O181" s="6"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="7"/>
       <c r="S181" s="6"/>
       <c r="T181" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U181" s="6"/>
-      <c r="V181" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W181" s="6"/>
+      <c r="V181" s="7"/>
+      <c r="W181" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
@@ -13945,22 +13945,22 @@
       <c r="M182" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N182" s="7"/>
-      <c r="O182" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N182" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O182" s="6"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="7"/>
       <c r="S182" s="6"/>
       <c r="T182" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U182" s="6"/>
-      <c r="V182" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W182" s="6"/>
+      <c r="V182" s="7"/>
+      <c r="W182" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
@@ -14005,22 +14005,22 @@
       <c r="M183" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N183" s="7"/>
-      <c r="O183" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N183" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O183" s="6"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="7"/>
       <c r="S183" s="6"/>
       <c r="T183" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U183" s="6"/>
-      <c r="V183" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W183" s="6"/>
+      <c r="V183" s="7"/>
+      <c r="W183" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
@@ -14065,22 +14065,22 @@
       <c r="M184" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N184" s="7"/>
-      <c r="O184" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N184" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O184" s="6"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="7"/>
       <c r="S184" s="6"/>
       <c r="T184" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U184" s="6"/>
-      <c r="V184" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W184" s="6"/>
+      <c r="V184" s="7"/>
+      <c r="W184" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
@@ -14129,22 +14129,22 @@
       <c r="M185" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N185" s="7"/>
-      <c r="O185" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="N185" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O185" s="6"/>
       <c r="P185" s="7"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="7"/>
       <c r="S185" s="6"/>
       <c r="T185" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U185" s="6"/>
-      <c r="V185" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="W185" s="6"/>
+      <c r="V185" s="7"/>
+      <c r="W185" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -14200,15 +14200,15 @@
       <c r="R186" s="3"/>
       <c r="S186" s="2"/>
       <c r="T186" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U186" s="2"/>
       <c r="V186" s="3"/>
       <c r="W186" s="2"/>
-      <c r="X186" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y186" s="2"/>
+      <c r="X186" s="3"/>
+      <c r="Y186" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
       <c r="AB186" s="2"/>
@@ -14258,15 +14258,15 @@
       <c r="R187" s="7"/>
       <c r="S187" s="6"/>
       <c r="T187" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U187" s="6"/>
       <c r="V187" s="7"/>
       <c r="W187" s="6"/>
-      <c r="X187" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y187" s="6"/>
+      <c r="X187" s="7"/>
+      <c r="Y187" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z187" s="6"/>
       <c r="AA187" s="6"/>
       <c r="AB187" s="6"/>
@@ -14316,15 +14316,15 @@
       <c r="R188" s="7"/>
       <c r="S188" s="6"/>
       <c r="T188" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
       <c r="W188" s="6"/>
-      <c r="X188" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y188" s="6"/>
+      <c r="X188" s="7"/>
+      <c r="Y188" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
@@ -14374,15 +14374,15 @@
       <c r="R189" s="7"/>
       <c r="S189" s="6"/>
       <c r="T189" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U189" s="6"/>
       <c r="V189" s="7"/>
       <c r="W189" s="6"/>
-      <c r="X189" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y189" s="6"/>
+      <c r="X189" s="7"/>
+      <c r="Y189" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
@@ -14432,15 +14432,15 @@
       <c r="R190" s="7"/>
       <c r="S190" s="6"/>
       <c r="T190" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U190" s="6"/>
       <c r="V190" s="7"/>
       <c r="W190" s="6"/>
-      <c r="X190" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y190" s="6"/>
+      <c r="X190" s="7"/>
+      <c r="Y190" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
@@ -14490,15 +14490,15 @@
       <c r="R191" s="7"/>
       <c r="S191" s="6"/>
       <c r="T191" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
       <c r="W191" s="6"/>
-      <c r="X191" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y191" s="6"/>
+      <c r="X191" s="7"/>
+      <c r="Y191" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
@@ -14548,15 +14548,15 @@
       <c r="R192" s="7"/>
       <c r="S192" s="6"/>
       <c r="T192" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
       <c r="W192" s="6"/>
-      <c r="X192" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y192" s="6"/>
+      <c r="X192" s="7"/>
+      <c r="Y192" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
@@ -14606,15 +14606,15 @@
       <c r="R193" s="7"/>
       <c r="S193" s="6"/>
       <c r="T193" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
       <c r="W193" s="6"/>
-      <c r="X193" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y193" s="6"/>
+      <c r="X193" s="7"/>
+      <c r="Y193" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
@@ -14664,15 +14664,15 @@
       <c r="R194" s="7"/>
       <c r="S194" s="6"/>
       <c r="T194" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U194" s="6"/>
       <c r="V194" s="7"/>
       <c r="W194" s="6"/>
-      <c r="X194" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y194" s="6"/>
+      <c r="X194" s="7"/>
+      <c r="Y194" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
       <c r="AB194" s="6"/>
@@ -14722,15 +14722,15 @@
       <c r="R195" s="7"/>
       <c r="S195" s="6"/>
       <c r="T195" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U195" s="6"/>
       <c r="V195" s="7"/>
       <c r="W195" s="6"/>
-      <c r="X195" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y195" s="6"/>
+      <c r="X195" s="7"/>
+      <c r="Y195" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
@@ -14780,15 +14780,15 @@
       <c r="R196" s="7"/>
       <c r="S196" s="6"/>
       <c r="T196" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
       <c r="W196" s="6"/>
-      <c r="X196" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y196" s="6"/>
+      <c r="X196" s="7"/>
+      <c r="Y196" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
@@ -14838,15 +14838,15 @@
       <c r="R197" s="7"/>
       <c r="S197" s="6"/>
       <c r="T197" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
       <c r="W197" s="6"/>
-      <c r="X197" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y197" s="6"/>
+      <c r="X197" s="7"/>
+      <c r="Y197" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
@@ -14896,15 +14896,15 @@
       <c r="R198" s="7"/>
       <c r="S198" s="6"/>
       <c r="T198" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
       <c r="W198" s="6"/>
-      <c r="X198" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y198" s="6"/>
+      <c r="X198" s="7"/>
+      <c r="Y198" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
@@ -14954,15 +14954,15 @@
       <c r="R199" s="7"/>
       <c r="S199" s="6"/>
       <c r="T199" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U199" s="6"/>
       <c r="V199" s="7"/>
       <c r="W199" s="6"/>
-      <c r="X199" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y199" s="6"/>
+      <c r="X199" s="7"/>
+      <c r="Y199" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
@@ -15012,15 +15012,15 @@
       <c r="R200" s="7"/>
       <c r="S200" s="6"/>
       <c r="T200" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U200" s="6"/>
       <c r="V200" s="7"/>
       <c r="W200" s="6"/>
-      <c r="X200" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y200" s="6"/>
+      <c r="X200" s="7"/>
+      <c r="Y200" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
@@ -15070,15 +15070,15 @@
       <c r="R201" s="7"/>
       <c r="S201" s="6"/>
       <c r="T201" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
       <c r="W201" s="6"/>
-      <c r="X201" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y201" s="6"/>
+      <c r="X201" s="7"/>
+      <c r="Y201" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z201" s="6"/>
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
@@ -15128,15 +15128,15 @@
       <c r="R202" s="7"/>
       <c r="S202" s="6"/>
       <c r="T202" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
       <c r="W202" s="6"/>
-      <c r="X202" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y202" s="6"/>
+      <c r="X202" s="7"/>
+      <c r="Y202" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z202" s="6"/>
       <c r="AA202" s="6"/>
       <c r="AB202" s="6"/>
@@ -15186,15 +15186,15 @@
       <c r="R203" s="7"/>
       <c r="S203" s="6"/>
       <c r="T203" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
       <c r="W203" s="6"/>
-      <c r="X203" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y203" s="6"/>
+      <c r="X203" s="7"/>
+      <c r="Y203" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z203" s="6"/>
       <c r="AA203" s="6"/>
       <c r="AB203" s="6"/>
@@ -15244,15 +15244,15 @@
       <c r="R204" s="7"/>
       <c r="S204" s="6"/>
       <c r="T204" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U204" s="6"/>
       <c r="V204" s="7"/>
       <c r="W204" s="6"/>
-      <c r="X204" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y204" s="6"/>
+      <c r="X204" s="7"/>
+      <c r="Y204" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z204" s="6"/>
       <c r="AA204" s="6"/>
       <c r="AB204" s="6"/>
@@ -15302,15 +15302,15 @@
       <c r="R205" s="7"/>
       <c r="S205" s="6"/>
       <c r="T205" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U205" s="6"/>
       <c r="V205" s="7"/>
       <c r="W205" s="6"/>
-      <c r="X205" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y205" s="6"/>
+      <c r="X205" s="7"/>
+      <c r="Y205" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z205" s="6"/>
       <c r="AA205" s="6"/>
       <c r="AB205" s="6"/>
@@ -15360,15 +15360,15 @@
       <c r="R206" s="7"/>
       <c r="S206" s="6"/>
       <c r="T206" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U206" s="6"/>
       <c r="V206" s="7"/>
       <c r="W206" s="6"/>
-      <c r="X206" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y206" s="6"/>
+      <c r="X206" s="7"/>
+      <c r="Y206" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z206" s="6"/>
       <c r="AA206" s="6"/>
       <c r="AB206" s="6"/>
@@ -15418,15 +15418,15 @@
       <c r="R207" s="7"/>
       <c r="S207" s="6"/>
       <c r="T207" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U207" s="6"/>
       <c r="V207" s="7"/>
       <c r="W207" s="6"/>
-      <c r="X207" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y207" s="6"/>
+      <c r="X207" s="7"/>
+      <c r="Y207" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z207" s="6"/>
       <c r="AA207" s="6"/>
       <c r="AB207" s="6"/>
@@ -15476,15 +15476,15 @@
       <c r="R208" s="7"/>
       <c r="S208" s="6"/>
       <c r="T208" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U208" s="6"/>
       <c r="V208" s="7"/>
       <c r="W208" s="6"/>
-      <c r="X208" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y208" s="6"/>
+      <c r="X208" s="7"/>
+      <c r="Y208" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z208" s="6"/>
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
@@ -15534,15 +15534,15 @@
       <c r="R209" s="7"/>
       <c r="S209" s="6"/>
       <c r="T209" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U209" s="6"/>
       <c r="V209" s="7"/>
       <c r="W209" s="6"/>
-      <c r="X209" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y209" s="6"/>
+      <c r="X209" s="7"/>
+      <c r="Y209" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z209" s="6"/>
       <c r="AA209" s="6"/>
       <c r="AB209" s="6"/>
@@ -15592,15 +15592,15 @@
       <c r="R210" s="7"/>
       <c r="S210" s="6"/>
       <c r="T210" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U210" s="6"/>
       <c r="V210" s="7"/>
       <c r="W210" s="6"/>
-      <c r="X210" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y210" s="6"/>
+      <c r="X210" s="7"/>
+      <c r="Y210" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z210" s="6"/>
       <c r="AA210" s="6"/>
       <c r="AB210" s="6"/>
@@ -15650,15 +15650,15 @@
       <c r="R211" s="3"/>
       <c r="S211" s="2"/>
       <c r="T211" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U211" s="2"/>
       <c r="V211" s="3"/>
       <c r="W211" s="2"/>
-      <c r="X211" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y211" s="2"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2" t="s">
         <v>487</v>
@@ -15712,15 +15712,15 @@
       <c r="R212" s="7"/>
       <c r="S212" s="6"/>
       <c r="T212" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U212" s="6"/>
       <c r="V212" s="7"/>
       <c r="W212" s="6"/>
-      <c r="X212" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y212" s="6"/>
+      <c r="X212" s="7"/>
+      <c r="Y212" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z212" s="6"/>
       <c r="AA212" s="6" t="s">
         <v>491</v>
@@ -15774,15 +15774,15 @@
       <c r="R213" s="7"/>
       <c r="S213" s="6"/>
       <c r="T213" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U213" s="6"/>
       <c r="V213" s="7"/>
       <c r="W213" s="6"/>
-      <c r="X213" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y213" s="6"/>
+      <c r="X213" s="7"/>
+      <c r="Y213" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z213" s="6"/>
       <c r="AA213" s="6" t="s">
         <v>495</v>
@@ -15836,15 +15836,15 @@
       <c r="R214" s="7"/>
       <c r="S214" s="6"/>
       <c r="T214" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U214" s="6"/>
       <c r="V214" s="7"/>
       <c r="W214" s="6"/>
-      <c r="X214" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y214" s="6"/>
+      <c r="X214" s="7"/>
+      <c r="Y214" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z214" s="6"/>
       <c r="AA214" s="6" t="s">
         <v>498</v>
@@ -15898,15 +15898,15 @@
       <c r="R215" s="3"/>
       <c r="S215" s="2"/>
       <c r="T215" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U215" s="2"/>
       <c r="V215" s="3"/>
       <c r="W215" s="2"/>
-      <c r="X215" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y215" s="2"/>
+      <c r="X215" s="3"/>
+      <c r="Y215" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z215" s="2"/>
       <c r="AA215" s="2" t="s">
         <v>153</v>
@@ -15960,15 +15960,15 @@
       <c r="R216" s="7"/>
       <c r="S216" s="6"/>
       <c r="T216" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U216" s="6"/>
       <c r="V216" s="7"/>
       <c r="W216" s="6"/>
-      <c r="X216" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y216" s="6"/>
+      <c r="X216" s="7"/>
+      <c r="Y216" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z216" s="6"/>
       <c r="AA216" s="6" t="s">
         <v>506</v>
@@ -16022,15 +16022,15 @@
       <c r="R217" s="7"/>
       <c r="S217" s="6"/>
       <c r="T217" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U217" s="6"/>
       <c r="V217" s="7"/>
       <c r="W217" s="6"/>
-      <c r="X217" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y217" s="6"/>
+      <c r="X217" s="7"/>
+      <c r="Y217" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6" t="s">
         <v>509</v>
@@ -16084,15 +16084,15 @@
       <c r="R218" s="7"/>
       <c r="S218" s="6"/>
       <c r="T218" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U218" s="6"/>
       <c r="V218" s="7"/>
       <c r="W218" s="6"/>
-      <c r="X218" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y218" s="6"/>
+      <c r="X218" s="7"/>
+      <c r="Y218" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6" t="s">
         <v>221</v>
@@ -16146,15 +16146,15 @@
       <c r="R219" s="7"/>
       <c r="S219" s="6"/>
       <c r="T219" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
       <c r="W219" s="6"/>
-      <c r="X219" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y219" s="6"/>
+      <c r="X219" s="7"/>
+      <c r="Y219" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z219" s="6"/>
       <c r="AA219" s="6" t="s">
         <v>487</v>
@@ -16208,15 +16208,15 @@
       <c r="R220" s="3"/>
       <c r="S220" s="2"/>
       <c r="T220" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U220" s="2"/>
       <c r="V220" s="3"/>
       <c r="W220" s="2"/>
-      <c r="X220" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y220" s="2"/>
+      <c r="X220" s="3"/>
+      <c r="Y220" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z220" s="2"/>
       <c r="AA220" s="2" t="s">
         <v>519</v>
@@ -16270,15 +16270,15 @@
       <c r="R221" s="7"/>
       <c r="S221" s="6"/>
       <c r="T221" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U221" s="6"/>
       <c r="V221" s="7"/>
       <c r="W221" s="6"/>
-      <c r="X221" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y221" s="6"/>
+      <c r="X221" s="7"/>
+      <c r="Y221" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z221" s="6"/>
       <c r="AA221" s="6" t="s">
         <v>519</v>
@@ -16332,15 +16332,15 @@
       <c r="R222" s="7"/>
       <c r="S222" s="6"/>
       <c r="T222" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
       <c r="W222" s="6"/>
-      <c r="X222" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y222" s="6"/>
+      <c r="X222" s="7"/>
+      <c r="Y222" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z222" s="6"/>
       <c r="AA222" s="6" t="s">
         <v>519</v>
@@ -16394,15 +16394,15 @@
       <c r="R223" s="7"/>
       <c r="S223" s="6"/>
       <c r="T223" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U223" s="6"/>
       <c r="V223" s="7"/>
       <c r="W223" s="6"/>
-      <c r="X223" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y223" s="6"/>
+      <c r="X223" s="7"/>
+      <c r="Y223" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z223" s="6"/>
       <c r="AA223" s="6" t="s">
         <v>519</v>
@@ -16456,15 +16456,15 @@
       <c r="R224" s="3"/>
       <c r="S224" s="2"/>
       <c r="T224" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U224" s="2"/>
       <c r="V224" s="3"/>
       <c r="W224" s="2"/>
-      <c r="X224" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y224" s="2"/>
+      <c r="X224" s="3"/>
+      <c r="Y224" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
       <c r="AB224" s="2"/>
@@ -16514,15 +16514,15 @@
       <c r="R225" s="7"/>
       <c r="S225" s="6"/>
       <c r="T225" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U225" s="6"/>
       <c r="V225" s="7"/>
       <c r="W225" s="6"/>
-      <c r="X225" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y225" s="6"/>
+      <c r="X225" s="7"/>
+      <c r="Y225" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z225" s="6"/>
       <c r="AA225" s="6"/>
       <c r="AB225" s="6"/>
@@ -16572,15 +16572,15 @@
       <c r="R226" s="7"/>
       <c r="S226" s="6"/>
       <c r="T226" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
       <c r="W226" s="6"/>
-      <c r="X226" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y226" s="6"/>
+      <c r="X226" s="7"/>
+      <c r="Y226" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="6"/>
@@ -16630,15 +16630,15 @@
       <c r="R227" s="7"/>
       <c r="S227" s="6"/>
       <c r="T227" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
       <c r="W227" s="6"/>
-      <c r="X227" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y227" s="6"/>
+      <c r="X227" s="7"/>
+      <c r="Y227" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
@@ -16688,15 +16688,15 @@
       <c r="R228" s="7"/>
       <c r="S228" s="6"/>
       <c r="T228" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
       <c r="W228" s="6"/>
-      <c r="X228" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y228" s="6"/>
+      <c r="X228" s="7"/>
+      <c r="Y228" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
@@ -16746,15 +16746,15 @@
       <c r="R229" s="7"/>
       <c r="S229" s="6"/>
       <c r="T229" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
       <c r="W229" s="6"/>
-      <c r="X229" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y229" s="6"/>
+      <c r="X229" s="7"/>
+      <c r="Y229" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
@@ -16804,15 +16804,15 @@
       <c r="R230" s="7"/>
       <c r="S230" s="6"/>
       <c r="T230" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
       <c r="W230" s="6"/>
-      <c r="X230" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y230" s="6"/>
+      <c r="X230" s="7"/>
+      <c r="Y230" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="6"/>
@@ -16862,15 +16862,15 @@
       <c r="R231" s="7"/>
       <c r="S231" s="6"/>
       <c r="T231" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U231" s="6"/>
       <c r="V231" s="7"/>
       <c r="W231" s="6"/>
-      <c r="X231" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y231" s="6"/>
+      <c r="X231" s="7"/>
+      <c r="Y231" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
@@ -16920,15 +16920,15 @@
       <c r="R232" s="7"/>
       <c r="S232" s="6"/>
       <c r="T232" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U232" s="6"/>
       <c r="V232" s="7"/>
       <c r="W232" s="6"/>
-      <c r="X232" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y232" s="6"/>
+      <c r="X232" s="7"/>
+      <c r="Y232" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="6"/>
@@ -16978,15 +16978,15 @@
       <c r="R233" s="7"/>
       <c r="S233" s="6"/>
       <c r="T233" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U233" s="6"/>
       <c r="V233" s="7"/>
       <c r="W233" s="6"/>
-      <c r="X233" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y233" s="6"/>
+      <c r="X233" s="7"/>
+      <c r="Y233" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z233" s="6"/>
       <c r="AA233" s="6"/>
       <c r="AB233" s="6"/>
@@ -17036,15 +17036,15 @@
       <c r="R234" s="7"/>
       <c r="S234" s="6"/>
       <c r="T234" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U234" s="6"/>
       <c r="V234" s="7"/>
       <c r="W234" s="6"/>
-      <c r="X234" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y234" s="6"/>
+      <c r="X234" s="7"/>
+      <c r="Y234" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z234" s="6"/>
       <c r="AA234" s="6"/>
       <c r="AB234" s="6"/>
@@ -17094,15 +17094,15 @@
       <c r="R235" s="7"/>
       <c r="S235" s="6"/>
       <c r="T235" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U235" s="6"/>
       <c r="V235" s="7"/>
       <c r="W235" s="6"/>
-      <c r="X235" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y235" s="6"/>
+      <c r="X235" s="7"/>
+      <c r="Y235" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z235" s="6"/>
       <c r="AA235" s="6"/>
       <c r="AB235" s="6"/>
@@ -17152,15 +17152,15 @@
       <c r="R236" s="7"/>
       <c r="S236" s="6"/>
       <c r="T236" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U236" s="6"/>
       <c r="V236" s="7"/>
       <c r="W236" s="6"/>
-      <c r="X236" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y236" s="6"/>
+      <c r="X236" s="7"/>
+      <c r="Y236" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z236" s="6"/>
       <c r="AA236" s="6"/>
       <c r="AB236" s="6"/>
@@ -17210,15 +17210,15 @@
       <c r="R237" s="7"/>
       <c r="S237" s="6"/>
       <c r="T237" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U237" s="6"/>
       <c r="V237" s="7"/>
       <c r="W237" s="6"/>
-      <c r="X237" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y237" s="6"/>
+      <c r="X237" s="7"/>
+      <c r="Y237" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="6"/>
       <c r="AB237" s="6"/>
@@ -17268,15 +17268,15 @@
       <c r="R238" s="7"/>
       <c r="S238" s="6"/>
       <c r="T238" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U238" s="6"/>
       <c r="V238" s="7"/>
       <c r="W238" s="6"/>
-      <c r="X238" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y238" s="6"/>
+      <c r="X238" s="7"/>
+      <c r="Y238" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="6"/>
       <c r="AB238" s="6"/>
@@ -17326,15 +17326,15 @@
       <c r="R239" s="7"/>
       <c r="S239" s="6"/>
       <c r="T239" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U239" s="6"/>
       <c r="V239" s="7"/>
       <c r="W239" s="6"/>
-      <c r="X239" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y239" s="6"/>
+      <c r="X239" s="7"/>
+      <c r="Y239" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="6"/>
       <c r="AB239" s="6"/>
@@ -17384,15 +17384,15 @@
       <c r="R240" s="7"/>
       <c r="S240" s="6"/>
       <c r="T240" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U240" s="6"/>
       <c r="V240" s="7"/>
       <c r="W240" s="6"/>
-      <c r="X240" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y240" s="6"/>
+      <c r="X240" s="7"/>
+      <c r="Y240" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z240" s="6"/>
       <c r="AA240" s="6"/>
       <c r="AB240" s="6"/>
@@ -17442,15 +17442,15 @@
       <c r="R241" s="7"/>
       <c r="S241" s="6"/>
       <c r="T241" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U241" s="6"/>
       <c r="V241" s="7"/>
       <c r="W241" s="6"/>
-      <c r="X241" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y241" s="6"/>
+      <c r="X241" s="7"/>
+      <c r="Y241" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z241" s="6"/>
       <c r="AA241" s="6"/>
       <c r="AB241" s="6"/>
@@ -17500,15 +17500,15 @@
       <c r="R242" s="7"/>
       <c r="S242" s="6"/>
       <c r="T242" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
       <c r="W242" s="6"/>
-      <c r="X242" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y242" s="6"/>
+      <c r="X242" s="7"/>
+      <c r="Y242" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z242" s="6"/>
       <c r="AA242" s="6"/>
       <c r="AB242" s="6"/>
@@ -17558,15 +17558,15 @@
       <c r="R243" s="7"/>
       <c r="S243" s="6"/>
       <c r="T243" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U243" s="6"/>
       <c r="V243" s="7"/>
       <c r="W243" s="6"/>
-      <c r="X243" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y243" s="6"/>
+      <c r="X243" s="7"/>
+      <c r="Y243" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z243" s="6"/>
       <c r="AA243" s="6"/>
       <c r="AB243" s="6"/>
@@ -17616,15 +17616,15 @@
       <c r="R244" s="7"/>
       <c r="S244" s="6"/>
       <c r="T244" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U244" s="6"/>
       <c r="V244" s="7"/>
       <c r="W244" s="6"/>
-      <c r="X244" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y244" s="6"/>
+      <c r="X244" s="7"/>
+      <c r="Y244" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z244" s="6"/>
       <c r="AA244" s="6"/>
       <c r="AB244" s="6"/>
@@ -17674,15 +17674,15 @@
       <c r="R245" s="7"/>
       <c r="S245" s="6"/>
       <c r="T245" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U245" s="6"/>
       <c r="V245" s="7"/>
       <c r="W245" s="6"/>
-      <c r="X245" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y245" s="6"/>
+      <c r="X245" s="7"/>
+      <c r="Y245" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z245" s="6"/>
       <c r="AA245" s="6"/>
       <c r="AB245" s="6"/>
@@ -17732,15 +17732,15 @@
       <c r="R246" s="7"/>
       <c r="S246" s="6"/>
       <c r="T246" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U246" s="6"/>
       <c r="V246" s="7"/>
       <c r="W246" s="6"/>
-      <c r="X246" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y246" s="6"/>
+      <c r="X246" s="7"/>
+      <c r="Y246" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z246" s="6"/>
       <c r="AA246" s="6"/>
       <c r="AB246" s="6"/>
@@ -17790,15 +17790,15 @@
       <c r="R247" s="7"/>
       <c r="S247" s="6"/>
       <c r="T247" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U247" s="6"/>
       <c r="V247" s="7"/>
       <c r="W247" s="6"/>
-      <c r="X247" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y247" s="6"/>
+      <c r="X247" s="7"/>
+      <c r="Y247" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z247" s="6"/>
       <c r="AA247" s="6"/>
       <c r="AB247" s="6"/>
@@ -17848,15 +17848,15 @@
       <c r="R248" s="7"/>
       <c r="S248" s="6"/>
       <c r="T248" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U248" s="6"/>
       <c r="V248" s="7"/>
       <c r="W248" s="6"/>
-      <c r="X248" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y248" s="6"/>
+      <c r="X248" s="7"/>
+      <c r="Y248" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z248" s="6"/>
       <c r="AA248" s="6"/>
       <c r="AB248" s="6"/>
@@ -17906,15 +17906,15 @@
       <c r="R249" s="7"/>
       <c r="S249" s="6"/>
       <c r="T249" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U249" s="6"/>
       <c r="V249" s="7"/>
       <c r="W249" s="6"/>
-      <c r="X249" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y249" s="6"/>
+      <c r="X249" s="7"/>
+      <c r="Y249" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z249" s="6"/>
       <c r="AA249" s="6"/>
       <c r="AB249" s="6"/>
@@ -17964,15 +17964,15 @@
       <c r="R250" s="7"/>
       <c r="S250" s="6"/>
       <c r="T250" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U250" s="6"/>
       <c r="V250" s="7"/>
       <c r="W250" s="6"/>
-      <c r="X250" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y250" s="6"/>
+      <c r="X250" s="7"/>
+      <c r="Y250" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z250" s="6"/>
       <c r="AA250" s="6"/>
       <c r="AB250" s="6"/>
@@ -18022,15 +18022,15 @@
       <c r="R251" s="7"/>
       <c r="S251" s="6"/>
       <c r="T251" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U251" s="6"/>
       <c r="V251" s="7"/>
       <c r="W251" s="6"/>
-      <c r="X251" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y251" s="6"/>
+      <c r="X251" s="7"/>
+      <c r="Y251" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z251" s="6"/>
       <c r="AA251" s="6"/>
       <c r="AB251" s="6"/>
@@ -18080,15 +18080,15 @@
       <c r="R252" s="7"/>
       <c r="S252" s="6"/>
       <c r="T252" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U252" s="6"/>
       <c r="V252" s="7"/>
       <c r="W252" s="6"/>
-      <c r="X252" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y252" s="6"/>
+      <c r="X252" s="7"/>
+      <c r="Y252" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z252" s="6"/>
       <c r="AA252" s="6"/>
       <c r="AB252" s="6"/>
@@ -18138,15 +18138,15 @@
       <c r="R253" s="7"/>
       <c r="S253" s="6"/>
       <c r="T253" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U253" s="6"/>
       <c r="V253" s="7"/>
       <c r="W253" s="6"/>
-      <c r="X253" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y253" s="6"/>
+      <c r="X253" s="7"/>
+      <c r="Y253" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z253" s="6"/>
       <c r="AA253" s="6"/>
       <c r="AB253" s="6"/>
@@ -18196,15 +18196,15 @@
       <c r="R254" s="7"/>
       <c r="S254" s="6"/>
       <c r="T254" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U254" s="6"/>
       <c r="V254" s="7"/>
       <c r="W254" s="6"/>
-      <c r="X254" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y254" s="6"/>
+      <c r="X254" s="7"/>
+      <c r="Y254" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z254" s="6"/>
       <c r="AA254" s="6"/>
       <c r="AB254" s="6"/>
@@ -18254,15 +18254,15 @@
       <c r="R255" s="7"/>
       <c r="S255" s="6"/>
       <c r="T255" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U255" s="6"/>
       <c r="V255" s="7"/>
       <c r="W255" s="6"/>
-      <c r="X255" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y255" s="6"/>
+      <c r="X255" s="7"/>
+      <c r="Y255" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z255" s="6"/>
       <c r="AA255" s="6"/>
       <c r="AB255" s="6"/>
@@ -18312,15 +18312,15 @@
       <c r="R256" s="7"/>
       <c r="S256" s="6"/>
       <c r="T256" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U256" s="6"/>
       <c r="V256" s="7"/>
       <c r="W256" s="6"/>
-      <c r="X256" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y256" s="6"/>
+      <c r="X256" s="7"/>
+      <c r="Y256" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z256" s="6"/>
       <c r="AA256" s="6"/>
       <c r="AB256" s="6"/>
@@ -18370,15 +18370,15 @@
       <c r="R257" s="7"/>
       <c r="S257" s="6"/>
       <c r="T257" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U257" s="6"/>
       <c r="V257" s="7"/>
       <c r="W257" s="6"/>
-      <c r="X257" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y257" s="6"/>
+      <c r="X257" s="7"/>
+      <c r="Y257" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z257" s="6"/>
       <c r="AA257" s="6"/>
       <c r="AB257" s="6"/>
@@ -18431,10 +18431,10 @@
       <c r="U258" s="6"/>
       <c r="V258" s="7"/>
       <c r="W258" s="6"/>
-      <c r="X258" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y258" s="6"/>
+      <c r="X258" s="7"/>
+      <c r="Y258" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z258" s="6"/>
       <c r="AA258" s="6" t="s">
         <v>162</v>
@@ -18489,10 +18489,10 @@
       <c r="U259" s="6"/>
       <c r="V259" s="7"/>
       <c r="W259" s="6"/>
-      <c r="X259" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y259" s="6"/>
+      <c r="X259" s="7"/>
+      <c r="Y259" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z259" s="6"/>
       <c r="AA259" s="6" t="s">
         <v>162</v>
@@ -18544,15 +18544,15 @@
       <c r="R260" s="7"/>
       <c r="S260" s="6"/>
       <c r="T260" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U260" s="6"/>
       <c r="V260" s="7"/>
       <c r="W260" s="6"/>
-      <c r="X260" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y260" s="6"/>
+      <c r="X260" s="7"/>
+      <c r="Y260" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z260" s="6"/>
       <c r="AA260" s="6" t="s">
         <v>162</v>
@@ -18604,15 +18604,15 @@
       <c r="R261" s="3"/>
       <c r="S261" s="2"/>
       <c r="T261" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U261" s="2"/>
       <c r="V261" s="3"/>
       <c r="W261" s="2"/>
-      <c r="X261" s="9" t="s">
+      <c r="X261" s="3"/>
+      <c r="Y261" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
       <c r="AB261" s="2"/>
@@ -18662,15 +18662,15 @@
       <c r="R262" s="7"/>
       <c r="S262" s="6"/>
       <c r="T262" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U262" s="6"/>
       <c r="V262" s="7"/>
       <c r="W262" s="6"/>
-      <c r="X262" s="10" t="s">
+      <c r="X262" s="7"/>
+      <c r="Y262" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y262" s="6"/>
       <c r="Z262" s="6"/>
       <c r="AA262" s="6"/>
       <c r="AB262" s="6"/>
@@ -18720,15 +18720,15 @@
       <c r="R263" s="7"/>
       <c r="S263" s="6"/>
       <c r="T263" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U263" s="6"/>
       <c r="V263" s="7"/>
       <c r="W263" s="6"/>
-      <c r="X263" s="10" t="s">
+      <c r="X263" s="7"/>
+      <c r="Y263" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
       <c r="AA263" s="6"/>
       <c r="AB263" s="6"/>
@@ -18778,15 +18778,15 @@
       <c r="R264" s="7"/>
       <c r="S264" s="6"/>
       <c r="T264" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U264" s="6"/>
       <c r="V264" s="7"/>
       <c r="W264" s="6"/>
-      <c r="X264" s="10" t="s">
+      <c r="X264" s="7"/>
+      <c r="Y264" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y264" s="6"/>
       <c r="Z264" s="6"/>
       <c r="AA264" s="6"/>
       <c r="AB264" s="6"/>
@@ -18836,15 +18836,15 @@
       <c r="R265" s="7"/>
       <c r="S265" s="6"/>
       <c r="T265" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U265" s="6"/>
       <c r="V265" s="7"/>
       <c r="W265" s="6"/>
-      <c r="X265" s="10" t="s">
+      <c r="X265" s="7"/>
+      <c r="Y265" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y265" s="6"/>
       <c r="Z265" s="6"/>
       <c r="AA265" s="6" t="s">
         <v>487</v>
@@ -18898,15 +18898,15 @@
       <c r="R266" s="7"/>
       <c r="S266" s="6"/>
       <c r="T266" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U266" s="6"/>
       <c r="V266" s="7"/>
       <c r="W266" s="6"/>
-      <c r="X266" s="10" t="s">
+      <c r="X266" s="7"/>
+      <c r="Y266" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y266" s="6"/>
       <c r="Z266" s="6"/>
       <c r="AA266" s="6" t="s">
         <v>495</v>
@@ -18960,15 +18960,15 @@
       <c r="R267" s="7"/>
       <c r="S267" s="6"/>
       <c r="T267" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U267" s="6"/>
       <c r="V267" s="7"/>
       <c r="W267" s="6"/>
-      <c r="X267" s="10" t="s">
+      <c r="X267" s="7"/>
+      <c r="Y267" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="Y267" s="6"/>
       <c r="Z267" s="6"/>
       <c r="AA267" s="6" t="s">
         <v>498</v>
@@ -19016,21 +19016,21 @@
         <v>36</v>
       </c>
       <c r="N268" s="3"/>
-      <c r="O268" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O268" s="2"/>
       <c r="P268" s="3"/>
       <c r="Q268" s="2"/>
       <c r="R268" s="3"/>
       <c r="S268" s="2"/>
       <c r="T268" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U268" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V268" s="3"/>
-      <c r="W268" s="2"/>
+      <c r="W268" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X268" s="3"/>
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
@@ -19078,21 +19078,21 @@
         <v>36</v>
       </c>
       <c r="N269" s="7"/>
-      <c r="O269" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O269" s="6"/>
       <c r="P269" s="7"/>
       <c r="Q269" s="6"/>
       <c r="R269" s="7"/>
       <c r="S269" s="6"/>
       <c r="T269" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U269" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V269" s="7"/>
-      <c r="W269" s="6"/>
+      <c r="W269" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X269" s="7"/>
       <c r="Y269" s="6"/>
       <c r="Z269" s="6"/>
@@ -19140,21 +19140,21 @@
         <v>36</v>
       </c>
       <c r="N270" s="7"/>
-      <c r="O270" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O270" s="6"/>
       <c r="P270" s="7"/>
       <c r="Q270" s="6"/>
       <c r="R270" s="7"/>
       <c r="S270" s="6"/>
       <c r="T270" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U270" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V270" s="7"/>
-      <c r="W270" s="6"/>
+      <c r="W270" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X270" s="7"/>
       <c r="Y270" s="6"/>
       <c r="Z270" s="6"/>
@@ -19202,21 +19202,21 @@
         <v>36</v>
       </c>
       <c r="N271" s="3"/>
-      <c r="O271" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O271" s="2"/>
       <c r="P271" s="3"/>
-      <c r="Q271" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q271" s="2"/>
       <c r="R271" s="3"/>
-      <c r="S271" s="2"/>
+      <c r="S271" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T271" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U271" s="2"/>
       <c r="V271" s="3"/>
-      <c r="W271" s="2"/>
+      <c r="W271" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X271" s="3"/>
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
@@ -19264,21 +19264,21 @@
         <v>36</v>
       </c>
       <c r="N272" s="7"/>
-      <c r="O272" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O272" s="6"/>
       <c r="P272" s="7"/>
-      <c r="Q272" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q272" s="6"/>
       <c r="R272" s="7"/>
-      <c r="S272" s="6"/>
+      <c r="S272" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T272" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U272" s="6"/>
       <c r="V272" s="7"/>
-      <c r="W272" s="6"/>
+      <c r="W272" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X272" s="7"/>
       <c r="Y272" s="6"/>
       <c r="Z272" s="6"/>
@@ -19326,21 +19326,21 @@
         <v>36</v>
       </c>
       <c r="N273" s="7"/>
-      <c r="O273" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O273" s="6"/>
       <c r="P273" s="7"/>
-      <c r="Q273" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q273" s="6"/>
       <c r="R273" s="7"/>
-      <c r="S273" s="6"/>
+      <c r="S273" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T273" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U273" s="6"/>
       <c r="V273" s="7"/>
-      <c r="W273" s="6"/>
+      <c r="W273" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X273" s="7"/>
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
@@ -19388,22 +19388,22 @@
         <v>36</v>
       </c>
       <c r="N274" s="3"/>
-      <c r="O274" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O274" s="2"/>
       <c r="P274" s="3"/>
       <c r="Q274" s="2"/>
-      <c r="R274" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R274" s="3"/>
       <c r="S274" s="2"/>
       <c r="T274" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U274" s="2"/>
       <c r="V274" s="3"/>
-      <c r="W274" s="2"/>
-      <c r="X274" s="3"/>
+      <c r="W274" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X274" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
       <c r="AA274" s="2" t="s">
@@ -19450,22 +19450,22 @@
         <v>36</v>
       </c>
       <c r="N275" s="7"/>
-      <c r="O275" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O275" s="6"/>
       <c r="P275" s="7"/>
       <c r="Q275" s="6"/>
-      <c r="R275" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R275" s="7"/>
       <c r="S275" s="6"/>
       <c r="T275" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U275" s="6"/>
       <c r="V275" s="7"/>
-      <c r="W275" s="6"/>
-      <c r="X275" s="7"/>
+      <c r="W275" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X275" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y275" s="6"/>
       <c r="Z275" s="6"/>
       <c r="AA275" s="6" t="s">
@@ -19512,22 +19512,22 @@
         <v>36</v>
       </c>
       <c r="N276" s="7"/>
-      <c r="O276" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O276" s="6"/>
       <c r="P276" s="7"/>
       <c r="Q276" s="6"/>
-      <c r="R276" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R276" s="7"/>
       <c r="S276" s="6"/>
       <c r="T276" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U276" s="6"/>
       <c r="V276" s="7"/>
-      <c r="W276" s="6"/>
-      <c r="X276" s="7"/>
+      <c r="W276" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X276" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y276" s="6"/>
       <c r="Z276" s="6"/>
       <c r="AA276" s="6" t="s">
@@ -19574,23 +19574,23 @@
         <v>36</v>
       </c>
       <c r="N277" s="3"/>
-      <c r="O277" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P277" s="3"/>
+      <c r="O277" s="2"/>
+      <c r="P277" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q277" s="2"/>
       <c r="R277" s="3"/>
       <c r="S277" s="2"/>
       <c r="T277" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U277" s="2"/>
       <c r="V277" s="3"/>
-      <c r="W277" s="2"/>
+      <c r="W277" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X277" s="3"/>
-      <c r="Y277" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
       <c r="AA277" s="2" t="s">
         <v>37</v>
@@ -19636,23 +19636,23 @@
         <v>36</v>
       </c>
       <c r="N278" s="7"/>
-      <c r="O278" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P278" s="7"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q278" s="6"/>
       <c r="R278" s="7"/>
       <c r="S278" s="6"/>
       <c r="T278" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U278" s="6"/>
       <c r="V278" s="7"/>
-      <c r="W278" s="6"/>
+      <c r="W278" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X278" s="7"/>
-      <c r="Y278" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
       <c r="AA278" s="6" t="s">
         <v>37</v>
@@ -19698,23 +19698,23 @@
         <v>36</v>
       </c>
       <c r="N279" s="7"/>
-      <c r="O279" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P279" s="7"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q279" s="6"/>
       <c r="R279" s="7"/>
       <c r="S279" s="6"/>
       <c r="T279" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U279" s="6"/>
       <c r="V279" s="7"/>
-      <c r="W279" s="6"/>
+      <c r="W279" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X279" s="7"/>
-      <c r="Y279" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y279" s="6"/>
       <c r="Z279" s="6"/>
       <c r="AA279" s="6" t="s">
         <v>37</v>
@@ -19760,21 +19760,21 @@
         <v>36</v>
       </c>
       <c r="N280" s="3"/>
-      <c r="O280" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O280" s="2"/>
       <c r="P280" s="3"/>
       <c r="Q280" s="2"/>
       <c r="R280" s="3"/>
-      <c r="S280" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S280" s="2"/>
       <c r="T280" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U280" s="2"/>
-      <c r="V280" s="3"/>
-      <c r="W280" s="2"/>
+      <c r="V280" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W280" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X280" s="3"/>
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
@@ -19822,21 +19822,21 @@
         <v>36</v>
       </c>
       <c r="N281" s="7"/>
-      <c r="O281" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O281" s="6"/>
       <c r="P281" s="7"/>
       <c r="Q281" s="6"/>
       <c r="R281" s="7"/>
-      <c r="S281" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S281" s="6"/>
       <c r="T281" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U281" s="6"/>
-      <c r="V281" s="7"/>
-      <c r="W281" s="6"/>
+      <c r="V281" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W281" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X281" s="7"/>
       <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
@@ -19884,21 +19884,21 @@
         <v>36</v>
       </c>
       <c r="N282" s="7"/>
-      <c r="O282" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O282" s="6"/>
       <c r="P282" s="7"/>
       <c r="Q282" s="6"/>
       <c r="R282" s="7"/>
-      <c r="S282" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S282" s="6"/>
       <c r="T282" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U282" s="6"/>
-      <c r="V282" s="7"/>
-      <c r="W282" s="6"/>
+      <c r="V282" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W282" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X282" s="7"/>
       <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
@@ -19946,19 +19946,19 @@
         <v>36</v>
       </c>
       <c r="N283" s="3"/>
-      <c r="O283" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="O283" s="2"/>
       <c r="P283" s="3"/>
       <c r="Q283" s="2"/>
       <c r="R283" s="3"/>
       <c r="S283" s="2"/>
       <c r="T283" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U283" s="2"/>
       <c r="V283" s="3"/>
-      <c r="W283" s="2"/>
+      <c r="W283" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X283" s="3"/>
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
@@ -20006,19 +20006,19 @@
         <v>36</v>
       </c>
       <c r="N284" s="7"/>
-      <c r="O284" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O284" s="6"/>
       <c r="P284" s="7"/>
       <c r="Q284" s="6"/>
       <c r="R284" s="7"/>
       <c r="S284" s="6"/>
       <c r="T284" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U284" s="6"/>
       <c r="V284" s="7"/>
-      <c r="W284" s="6"/>
+      <c r="W284" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X284" s="7"/>
       <c r="Y284" s="6"/>
       <c r="Z284" s="6"/>
@@ -20066,19 +20066,19 @@
         <v>36</v>
       </c>
       <c r="N285" s="7"/>
-      <c r="O285" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O285" s="6"/>
       <c r="P285" s="7"/>
       <c r="Q285" s="6"/>
       <c r="R285" s="7"/>
       <c r="S285" s="6"/>
       <c r="T285" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U285" s="6"/>
       <c r="V285" s="7"/>
-      <c r="W285" s="6"/>
+      <c r="W285" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X285" s="7"/>
       <c r="Y285" s="6"/>
       <c r="Z285" s="6"/>
@@ -20126,23 +20126,23 @@
         <v>36</v>
       </c>
       <c r="N286" s="3"/>
-      <c r="O286" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P286" s="3"/>
+      <c r="O286" s="2"/>
+      <c r="P286" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q286" s="2"/>
       <c r="R286" s="3"/>
       <c r="S286" s="2"/>
       <c r="T286" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U286" s="2"/>
       <c r="V286" s="3"/>
-      <c r="W286" s="2"/>
+      <c r="W286" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X286" s="3"/>
-      <c r="Y286" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
       <c r="AA286" s="2" t="s">
         <v>643</v>
@@ -20190,23 +20190,23 @@
         <v>36</v>
       </c>
       <c r="N287" s="7"/>
-      <c r="O287" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P287" s="7"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q287" s="6"/>
       <c r="R287" s="7"/>
       <c r="S287" s="6"/>
       <c r="T287" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U287" s="6"/>
       <c r="V287" s="7"/>
-      <c r="W287" s="6"/>
+      <c r="W287" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X287" s="7"/>
-      <c r="Y287" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
       <c r="AA287" s="6" t="s">
         <v>643</v>
@@ -20254,23 +20254,23 @@
         <v>36</v>
       </c>
       <c r="N288" s="7"/>
-      <c r="O288" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P288" s="7"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q288" s="6"/>
       <c r="R288" s="7"/>
       <c r="S288" s="6"/>
       <c r="T288" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U288" s="6"/>
       <c r="V288" s="7"/>
-      <c r="W288" s="6"/>
+      <c r="W288" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X288" s="7"/>
-      <c r="Y288" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y288" s="6"/>
       <c r="Z288" s="6"/>
       <c r="AA288" s="6" t="s">
         <v>643</v>
@@ -20318,23 +20318,23 @@
         <v>36</v>
       </c>
       <c r="N289" s="7"/>
-      <c r="O289" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P289" s="7"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q289" s="6"/>
       <c r="R289" s="7"/>
       <c r="S289" s="6"/>
       <c r="T289" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U289" s="6"/>
       <c r="V289" s="7"/>
-      <c r="W289" s="6"/>
+      <c r="W289" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X289" s="7"/>
-      <c r="Y289" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
       <c r="AA289" s="6" t="s">
         <v>643</v>
@@ -20382,23 +20382,23 @@
         <v>36</v>
       </c>
       <c r="N290" s="7"/>
-      <c r="O290" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P290" s="7"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q290" s="6"/>
       <c r="R290" s="7"/>
       <c r="S290" s="6"/>
       <c r="T290" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U290" s="6"/>
       <c r="V290" s="7"/>
-      <c r="W290" s="6"/>
+      <c r="W290" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X290" s="7"/>
-      <c r="Y290" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y290" s="6"/>
       <c r="Z290" s="6"/>
       <c r="AA290" s="6" t="s">
         <v>643</v>
@@ -20446,23 +20446,23 @@
         <v>36</v>
       </c>
       <c r="N291" s="7"/>
-      <c r="O291" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P291" s="7"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q291" s="6"/>
       <c r="R291" s="7"/>
       <c r="S291" s="6"/>
       <c r="T291" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U291" s="6"/>
       <c r="V291" s="7"/>
-      <c r="W291" s="6"/>
+      <c r="W291" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X291" s="7"/>
-      <c r="Y291" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y291" s="6"/>
       <c r="Z291" s="6"/>
       <c r="AA291" s="6" t="s">
         <v>643</v>
@@ -20510,23 +20510,23 @@
         <v>36</v>
       </c>
       <c r="N292" s="3"/>
-      <c r="O292" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P292" s="3"/>
+      <c r="O292" s="2"/>
+      <c r="P292" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q292" s="2"/>
       <c r="R292" s="3"/>
       <c r="S292" s="2"/>
       <c r="T292" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U292" s="2"/>
       <c r="V292" s="3"/>
-      <c r="W292" s="2"/>
+      <c r="W292" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X292" s="3"/>
-      <c r="Y292" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
       <c r="AA292" s="2" t="s">
         <v>643</v>
@@ -20574,23 +20574,23 @@
         <v>36</v>
       </c>
       <c r="N293" s="7"/>
-      <c r="O293" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P293" s="7"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q293" s="6"/>
       <c r="R293" s="7"/>
       <c r="S293" s="6"/>
       <c r="T293" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U293" s="6"/>
       <c r="V293" s="7"/>
-      <c r="W293" s="6"/>
+      <c r="W293" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X293" s="7"/>
-      <c r="Y293" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y293" s="6"/>
       <c r="Z293" s="6"/>
       <c r="AA293" s="6" t="s">
         <v>643</v>
@@ -20638,23 +20638,23 @@
         <v>36</v>
       </c>
       <c r="N294" s="7"/>
-      <c r="O294" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P294" s="7"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q294" s="6"/>
       <c r="R294" s="7"/>
       <c r="S294" s="6"/>
       <c r="T294" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U294" s="6"/>
       <c r="V294" s="7"/>
-      <c r="W294" s="6"/>
+      <c r="W294" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X294" s="7"/>
-      <c r="Y294" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y294" s="6"/>
       <c r="Z294" s="6"/>
       <c r="AA294" s="6" t="s">
         <v>643</v>
@@ -20702,23 +20702,23 @@
         <v>36</v>
       </c>
       <c r="N295" s="7"/>
-      <c r="O295" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P295" s="7"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q295" s="6"/>
       <c r="R295" s="7"/>
       <c r="S295" s="6"/>
       <c r="T295" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U295" s="6"/>
       <c r="V295" s="7"/>
-      <c r="W295" s="6"/>
+      <c r="W295" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X295" s="7"/>
-      <c r="Y295" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y295" s="6"/>
       <c r="Z295" s="6"/>
       <c r="AA295" s="6" t="s">
         <v>643</v>
@@ -20766,23 +20766,23 @@
         <v>36</v>
       </c>
       <c r="N296" s="7"/>
-      <c r="O296" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P296" s="7"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q296" s="6"/>
       <c r="R296" s="7"/>
       <c r="S296" s="6"/>
       <c r="T296" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U296" s="6"/>
       <c r="V296" s="7"/>
-      <c r="W296" s="6"/>
+      <c r="W296" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X296" s="7"/>
-      <c r="Y296" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y296" s="6"/>
       <c r="Z296" s="6"/>
       <c r="AA296" s="6" t="s">
         <v>643</v>
@@ -20830,23 +20830,23 @@
         <v>36</v>
       </c>
       <c r="N297" s="7"/>
-      <c r="O297" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P297" s="7"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Q297" s="6"/>
       <c r="R297" s="7"/>
       <c r="S297" s="6"/>
       <c r="T297" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U297" s="6"/>
       <c r="V297" s="7"/>
-      <c r="W297" s="6"/>
+      <c r="W297" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X297" s="7"/>
-      <c r="Y297" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y297" s="6"/>
       <c r="Z297" s="6"/>
       <c r="AA297" s="6" t="s">
         <v>643</v>
@@ -20894,21 +20894,21 @@
         <v>36</v>
       </c>
       <c r="N298" s="3"/>
-      <c r="O298" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O298" s="2"/>
       <c r="P298" s="3"/>
-      <c r="Q298" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q298" s="2"/>
       <c r="R298" s="3"/>
-      <c r="S298" s="2"/>
+      <c r="S298" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T298" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U298" s="2"/>
       <c r="V298" s="3"/>
-      <c r="W298" s="2"/>
+      <c r="W298" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X298" s="3"/>
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
@@ -20958,21 +20958,21 @@
         <v>36</v>
       </c>
       <c r="N299" s="7"/>
-      <c r="O299" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O299" s="6"/>
       <c r="P299" s="7"/>
-      <c r="Q299" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q299" s="6"/>
       <c r="R299" s="7"/>
-      <c r="S299" s="6"/>
+      <c r="S299" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T299" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U299" s="6"/>
       <c r="V299" s="7"/>
-      <c r="W299" s="6"/>
+      <c r="W299" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X299" s="7"/>
       <c r="Y299" s="6"/>
       <c r="Z299" s="6"/>
@@ -21022,21 +21022,21 @@
         <v>36</v>
       </c>
       <c r="N300" s="7"/>
-      <c r="O300" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O300" s="6"/>
       <c r="P300" s="7"/>
-      <c r="Q300" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q300" s="6"/>
       <c r="R300" s="7"/>
-      <c r="S300" s="6"/>
+      <c r="S300" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T300" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U300" s="6"/>
       <c r="V300" s="7"/>
-      <c r="W300" s="6"/>
+      <c r="W300" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X300" s="7"/>
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
@@ -21086,21 +21086,21 @@
         <v>36</v>
       </c>
       <c r="N301" s="7"/>
-      <c r="O301" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O301" s="6"/>
       <c r="P301" s="7"/>
-      <c r="Q301" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q301" s="6"/>
       <c r="R301" s="7"/>
-      <c r="S301" s="6"/>
+      <c r="S301" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T301" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U301" s="6"/>
       <c r="V301" s="7"/>
-      <c r="W301" s="6"/>
+      <c r="W301" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X301" s="7"/>
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
@@ -21150,21 +21150,21 @@
         <v>36</v>
       </c>
       <c r="N302" s="7"/>
-      <c r="O302" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O302" s="6"/>
       <c r="P302" s="7"/>
-      <c r="Q302" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q302" s="6"/>
       <c r="R302" s="7"/>
-      <c r="S302" s="6"/>
+      <c r="S302" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T302" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U302" s="6"/>
       <c r="V302" s="7"/>
-      <c r="W302" s="6"/>
+      <c r="W302" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X302" s="7"/>
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
@@ -21214,21 +21214,21 @@
         <v>36</v>
       </c>
       <c r="N303" s="7"/>
-      <c r="O303" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O303" s="6"/>
       <c r="P303" s="7"/>
-      <c r="Q303" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q303" s="6"/>
       <c r="R303" s="7"/>
-      <c r="S303" s="6"/>
+      <c r="S303" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T303" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U303" s="6"/>
       <c r="V303" s="7"/>
-      <c r="W303" s="6"/>
+      <c r="W303" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X303" s="7"/>
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
@@ -21278,22 +21278,22 @@
         <v>36</v>
       </c>
       <c r="N304" s="3"/>
-      <c r="O304" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O304" s="2"/>
       <c r="P304" s="3"/>
       <c r="Q304" s="2"/>
-      <c r="R304" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="R304" s="3"/>
       <c r="S304" s="2"/>
       <c r="T304" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U304" s="2"/>
       <c r="V304" s="3"/>
-      <c r="W304" s="2"/>
-      <c r="X304" s="3"/>
+      <c r="W304" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X304" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
       <c r="AA304" s="2" t="s">
@@ -21342,22 +21342,22 @@
         <v>36</v>
       </c>
       <c r="N305" s="7"/>
-      <c r="O305" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O305" s="6"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="6"/>
-      <c r="R305" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R305" s="7"/>
       <c r="S305" s="6"/>
       <c r="T305" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U305" s="6"/>
       <c r="V305" s="7"/>
-      <c r="W305" s="6"/>
-      <c r="X305" s="7"/>
+      <c r="W305" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X305" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y305" s="6"/>
       <c r="Z305" s="6"/>
       <c r="AA305" s="6" t="s">
@@ -21406,22 +21406,22 @@
         <v>36</v>
       </c>
       <c r="N306" s="7"/>
-      <c r="O306" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O306" s="6"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="6"/>
-      <c r="R306" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R306" s="7"/>
       <c r="S306" s="6"/>
       <c r="T306" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U306" s="6"/>
       <c r="V306" s="7"/>
-      <c r="W306" s="6"/>
-      <c r="X306" s="7"/>
+      <c r="W306" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X306" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y306" s="6"/>
       <c r="Z306" s="6"/>
       <c r="AA306" s="6" t="s">
@@ -21470,22 +21470,22 @@
         <v>36</v>
       </c>
       <c r="N307" s="7"/>
-      <c r="O307" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O307" s="6"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="6"/>
-      <c r="R307" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R307" s="7"/>
       <c r="S307" s="6"/>
       <c r="T307" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U307" s="6"/>
       <c r="V307" s="7"/>
-      <c r="W307" s="6"/>
-      <c r="X307" s="7"/>
+      <c r="W307" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X307" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y307" s="6"/>
       <c r="Z307" s="6"/>
       <c r="AA307" s="6" t="s">
@@ -21534,22 +21534,22 @@
         <v>36</v>
       </c>
       <c r="N308" s="7"/>
-      <c r="O308" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O308" s="6"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="6"/>
-      <c r="R308" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R308" s="7"/>
       <c r="S308" s="6"/>
       <c r="T308" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U308" s="6"/>
       <c r="V308" s="7"/>
-      <c r="W308" s="6"/>
-      <c r="X308" s="7"/>
+      <c r="W308" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X308" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y308" s="6"/>
       <c r="Z308" s="6"/>
       <c r="AA308" s="6" t="s">
@@ -21598,22 +21598,22 @@
         <v>36</v>
       </c>
       <c r="N309" s="7"/>
-      <c r="O309" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O309" s="6"/>
       <c r="P309" s="7"/>
       <c r="Q309" s="6"/>
-      <c r="R309" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R309" s="7"/>
       <c r="S309" s="6"/>
       <c r="T309" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U309" s="6"/>
       <c r="V309" s="7"/>
-      <c r="W309" s="6"/>
-      <c r="X309" s="7"/>
+      <c r="W309" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X309" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Y309" s="6"/>
       <c r="Z309" s="6"/>
       <c r="AA309" s="6" t="s">
@@ -21662,21 +21662,21 @@
         <v>36</v>
       </c>
       <c r="N310" s="3"/>
-      <c r="O310" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O310" s="2"/>
       <c r="P310" s="3"/>
       <c r="Q310" s="2"/>
       <c r="R310" s="3"/>
-      <c r="S310" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S310" s="2"/>
       <c r="T310" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U310" s="2"/>
-      <c r="V310" s="3"/>
-      <c r="W310" s="2"/>
+      <c r="V310" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W310" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X310" s="3"/>
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
@@ -21726,21 +21726,21 @@
         <v>36</v>
       </c>
       <c r="N311" s="7"/>
-      <c r="O311" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O311" s="6"/>
       <c r="P311" s="7"/>
       <c r="Q311" s="6"/>
       <c r="R311" s="7"/>
-      <c r="S311" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S311" s="6"/>
       <c r="T311" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U311" s="6"/>
-      <c r="V311" s="7"/>
-      <c r="W311" s="6"/>
+      <c r="V311" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W311" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X311" s="7"/>
       <c r="Y311" s="6"/>
       <c r="Z311" s="6"/>
@@ -21790,21 +21790,21 @@
         <v>36</v>
       </c>
       <c r="N312" s="7"/>
-      <c r="O312" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O312" s="6"/>
       <c r="P312" s="7"/>
       <c r="Q312" s="6"/>
       <c r="R312" s="7"/>
-      <c r="S312" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S312" s="6"/>
       <c r="T312" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U312" s="6"/>
-      <c r="V312" s="7"/>
-      <c r="W312" s="6"/>
+      <c r="V312" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W312" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X312" s="7"/>
       <c r="Y312" s="6"/>
       <c r="Z312" s="6"/>
@@ -21854,21 +21854,21 @@
         <v>36</v>
       </c>
       <c r="N313" s="7"/>
-      <c r="O313" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="O313" s="6"/>
       <c r="P313" s="7"/>
       <c r="Q313" s="6"/>
       <c r="R313" s="7"/>
-      <c r="S313" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S313" s="6"/>
       <c r="T313" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U313" s="6"/>
-      <c r="V313" s="7"/>
-      <c r="W313" s="6"/>
+      <c r="V313" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W313" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X313" s="7"/>
       <c r="Y313" s="6"/>
       <c r="Z313" s="6"/>
@@ -21919,20 +21919,20 @@
       </c>
       <c r="N314" s="3"/>
       <c r="O314" s="2"/>
-      <c r="P314" s="3"/>
+      <c r="P314" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q314" s="2"/>
       <c r="R314" s="3"/>
-      <c r="S314" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="S314" s="2"/>
       <c r="T314" s="3"/>
       <c r="U314" s="2"/>
-      <c r="V314" s="3"/>
+      <c r="V314" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="W314" s="2"/>
       <c r="X314" s="3"/>
-      <c r="Y314" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
       <c r="AA314" s="2" t="s">
         <v>711</v>
@@ -21979,20 +21979,20 @@
       </c>
       <c r="N315" s="7"/>
       <c r="O315" s="6"/>
-      <c r="P315" s="7"/>
+      <c r="P315" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q315" s="6"/>
       <c r="R315" s="7"/>
-      <c r="S315" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S315" s="6"/>
       <c r="T315" s="7"/>
       <c r="U315" s="6"/>
-      <c r="V315" s="7"/>
+      <c r="V315" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="W315" s="6"/>
       <c r="X315" s="7"/>
-      <c r="Y315" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y315" s="6"/>
       <c r="Z315" s="6">
         <v>0</v>
       </c>
@@ -22041,20 +22041,20 @@
       </c>
       <c r="N316" s="7"/>
       <c r="O316" s="6"/>
-      <c r="P316" s="7"/>
+      <c r="P316" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
-      <c r="S316" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S316" s="6"/>
       <c r="T316" s="7"/>
       <c r="U316" s="6"/>
-      <c r="V316" s="7"/>
+      <c r="V316" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="W316" s="6"/>
       <c r="X316" s="7"/>
-      <c r="Y316" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y316" s="6"/>
       <c r="Z316" s="6">
         <v>1</v>
       </c>
@@ -22103,20 +22103,20 @@
       </c>
       <c r="N317" s="7"/>
       <c r="O317" s="6"/>
-      <c r="P317" s="7"/>
+      <c r="P317" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
-      <c r="S317" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="S317" s="6"/>
       <c r="T317" s="7"/>
       <c r="U317" s="6"/>
-      <c r="V317" s="7"/>
+      <c r="V317" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="W317" s="6"/>
       <c r="X317" s="7"/>
-      <c r="Y317" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y317" s="6"/>
       <c r="Z317" s="6">
         <v>2</v>
       </c>
@@ -22164,9 +22164,7 @@
         <v>36</v>
       </c>
       <c r="N318" s="3"/>
-      <c r="O318" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="O318" s="2"/>
       <c r="P318" s="3"/>
       <c r="Q318" s="2"/>
       <c r="R318" s="3"/>
@@ -22174,7 +22172,9 @@
       <c r="T318" s="3"/>
       <c r="U318" s="2"/>
       <c r="V318" s="3"/>
-      <c r="W318" s="2"/>
+      <c r="W318" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X318" s="3"/>
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
@@ -22222,9 +22222,7 @@
         <v>36</v>
       </c>
       <c r="N319" s="7"/>
-      <c r="O319" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O319" s="6"/>
       <c r="P319" s="7"/>
       <c r="Q319" s="6"/>
       <c r="R319" s="7"/>
@@ -22232,7 +22230,9 @@
       <c r="T319" s="7"/>
       <c r="U319" s="6"/>
       <c r="V319" s="7"/>
-      <c r="W319" s="6"/>
+      <c r="W319" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X319" s="7"/>
       <c r="Y319" s="6"/>
       <c r="Z319" s="6"/>
@@ -22280,9 +22280,7 @@
         <v>36</v>
       </c>
       <c r="N320" s="7"/>
-      <c r="O320" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O320" s="6"/>
       <c r="P320" s="7"/>
       <c r="Q320" s="6"/>
       <c r="R320" s="7"/>
@@ -22290,7 +22288,9 @@
       <c r="T320" s="7"/>
       <c r="U320" s="6"/>
       <c r="V320" s="7"/>
-      <c r="W320" s="6"/>
+      <c r="W320" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X320" s="7"/>
       <c r="Y320" s="6"/>
       <c r="Z320" s="6"/>
@@ -22338,9 +22338,7 @@
         <v>36</v>
       </c>
       <c r="N321" s="7"/>
-      <c r="O321" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O321" s="6"/>
       <c r="P321" s="7"/>
       <c r="Q321" s="6"/>
       <c r="R321" s="7"/>
@@ -22348,7 +22346,9 @@
       <c r="T321" s="7"/>
       <c r="U321" s="6"/>
       <c r="V321" s="7"/>
-      <c r="W321" s="6"/>
+      <c r="W321" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X321" s="7"/>
       <c r="Y321" s="6"/>
       <c r="Z321" s="6"/>
@@ -22396,9 +22396,7 @@
         <v>36</v>
       </c>
       <c r="N322" s="7"/>
-      <c r="O322" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O322" s="6"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="6"/>
       <c r="R322" s="7"/>
@@ -22406,7 +22404,9 @@
       <c r="T322" s="7"/>
       <c r="U322" s="6"/>
       <c r="V322" s="7"/>
-      <c r="W322" s="6"/>
+      <c r="W322" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X322" s="7"/>
       <c r="Y322" s="6"/>
       <c r="Z322" s="6"/>
@@ -22454,9 +22454,7 @@
         <v>36</v>
       </c>
       <c r="N323" s="7"/>
-      <c r="O323" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O323" s="6"/>
       <c r="P323" s="7"/>
       <c r="Q323" s="6"/>
       <c r="R323" s="7"/>
@@ -22464,7 +22462,9 @@
       <c r="T323" s="7"/>
       <c r="U323" s="6"/>
       <c r="V323" s="7"/>
-      <c r="W323" s="6"/>
+      <c r="W323" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X323" s="7"/>
       <c r="Y323" s="6"/>
       <c r="Z323" s="6"/>
@@ -22512,9 +22512,7 @@
         <v>36</v>
       </c>
       <c r="N324" s="7"/>
-      <c r="O324" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O324" s="6"/>
       <c r="P324" s="7"/>
       <c r="Q324" s="6"/>
       <c r="R324" s="7"/>
@@ -22522,7 +22520,9 @@
       <c r="T324" s="7"/>
       <c r="U324" s="6"/>
       <c r="V324" s="7"/>
-      <c r="W324" s="6"/>
+      <c r="W324" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X324" s="7"/>
       <c r="Y324" s="6"/>
       <c r="Z324" s="6"/>
@@ -22570,9 +22570,7 @@
         <v>36</v>
       </c>
       <c r="N325" s="7"/>
-      <c r="O325" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O325" s="6"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="6"/>
       <c r="R325" s="7"/>
@@ -22580,7 +22578,9 @@
       <c r="T325" s="7"/>
       <c r="U325" s="6"/>
       <c r="V325" s="7"/>
-      <c r="W325" s="6"/>
+      <c r="W325" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X325" s="7"/>
       <c r="Y325" s="6"/>
       <c r="Z325" s="6"/>
@@ -22628,9 +22628,7 @@
         <v>36</v>
       </c>
       <c r="N326" s="7"/>
-      <c r="O326" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O326" s="6"/>
       <c r="P326" s="7"/>
       <c r="Q326" s="6"/>
       <c r="R326" s="7"/>
@@ -22638,7 +22636,9 @@
       <c r="T326" s="7"/>
       <c r="U326" s="6"/>
       <c r="V326" s="7"/>
-      <c r="W326" s="6"/>
+      <c r="W326" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X326" s="7"/>
       <c r="Y326" s="6"/>
       <c r="Z326" s="6"/>
@@ -22686,9 +22686,7 @@
         <v>36</v>
       </c>
       <c r="N327" s="7"/>
-      <c r="O327" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O327" s="6"/>
       <c r="P327" s="7"/>
       <c r="Q327" s="6"/>
       <c r="R327" s="7"/>
@@ -22696,7 +22694,9 @@
       <c r="T327" s="7"/>
       <c r="U327" s="6"/>
       <c r="V327" s="7"/>
-      <c r="W327" s="6"/>
+      <c r="W327" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X327" s="7"/>
       <c r="Y327" s="6"/>
       <c r="Z327" s="6"/>
@@ -22744,9 +22744,7 @@
         <v>36</v>
       </c>
       <c r="N328" s="7"/>
-      <c r="O328" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O328" s="6"/>
       <c r="P328" s="7"/>
       <c r="Q328" s="6"/>
       <c r="R328" s="7"/>
@@ -22754,7 +22752,9 @@
       <c r="T328" s="7"/>
       <c r="U328" s="6"/>
       <c r="V328" s="7"/>
-      <c r="W328" s="6"/>
+      <c r="W328" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X328" s="7"/>
       <c r="Y328" s="6"/>
       <c r="Z328" s="6"/>
@@ -22802,9 +22802,7 @@
         <v>36</v>
       </c>
       <c r="N329" s="7"/>
-      <c r="O329" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="O329" s="6"/>
       <c r="P329" s="7"/>
       <c r="Q329" s="6"/>
       <c r="R329" s="7"/>
@@ -22812,7 +22810,9 @@
       <c r="T329" s="7"/>
       <c r="U329" s="6"/>
       <c r="V329" s="7"/>
-      <c r="W329" s="6"/>
+      <c r="W329" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X329" s="7"/>
       <c r="Y329" s="6"/>
       <c r="Z329" s="6"/>
@@ -22859,11 +22859,11 @@
       </c>
       <c r="N330" s="3"/>
       <c r="O330" s="2"/>
-      <c r="P330" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="P330" s="3"/>
       <c r="Q330" s="2"/>
-      <c r="R330" s="3"/>
+      <c r="R330" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="S330" s="2"/>
       <c r="T330" s="3"/>
       <c r="U330" s="2"/>
@@ -22922,15 +22922,15 @@
       <c r="R331" s="3"/>
       <c r="S331" s="2"/>
       <c r="T331" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U331" s="2"/>
       <c r="V331" s="3"/>
       <c r="W331" s="2"/>
-      <c r="X331" s="9" t="s">
+      <c r="X331" s="3"/>
+      <c r="Y331" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
       <c r="AA331" s="2" t="s">
         <v>162</v>
@@ -22982,15 +22982,15 @@
       <c r="R332" s="3"/>
       <c r="S332" s="2"/>
       <c r="T332" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U332" s="2"/>
       <c r="V332" s="3"/>
       <c r="W332" s="2"/>
-      <c r="X332" s="9" t="s">
+      <c r="X332" s="3"/>
+      <c r="Y332" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
       <c r="AA332" s="2" t="s">
         <v>162</v>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -58,40 +58,40 @@
     <t>Byteorder</t>
   </si>
   <si>
+    <t>BMS_LV</t>
+  </si>
+  <si>
+    <t>SB_REAR</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>TPMS</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>BRUSA</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
     <t>DIAG_TOOL</t>
   </si>
   <si>
+    <t>DSPACE</t>
+  </si>
+  <si>
+    <t>EXTRA_NODE</t>
+  </si>
+  <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
     <t>TLB_BAT</t>
-  </si>
-  <si>
-    <t>BRUSA</t>
-  </si>
-  <si>
-    <t>BMS_LV</t>
-  </si>
-  <si>
-    <t>DSPACE</t>
-  </si>
-  <si>
-    <t>EXTRA_NODE</t>
-  </si>
-  <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
-    <t>SB_REAR</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
-    <t>IMU</t>
-  </si>
-  <si>
-    <t>DASH</t>
   </si>
   <si>
     <t>Value</t>
@@ -2819,29 +2819,29 @@
       <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="P2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
+      <c r="U2" s="2"/>
+      <c r="V2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="W2" s="2"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2889,29 +2889,29 @@
       <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="6"/>
       <c r="T3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>31</v>
+      <c r="U3" s="6"/>
+      <c r="V3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+      <c r="X3" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y3" s="6" t="s">
         <v>31</v>
       </c>
@@ -2959,29 +2959,29 @@
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="6"/>
       <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>31</v>
+      <c r="U4" s="6"/>
+      <c r="V4" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
+      <c r="X4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y4" s="6" t="s">
         <v>31</v>
       </c>
@@ -3029,29 +3029,29 @@
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>31</v>
+      <c r="U5" s="6"/>
+      <c r="V5" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W5" s="6"/>
-      <c r="X5" s="7"/>
+      <c r="X5" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y5" s="6" t="s">
         <v>31</v>
       </c>
@@ -3101,29 +3101,29 @@
       <c r="M6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>31</v>
+      <c r="U6" s="6"/>
+      <c r="V6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W6" s="6"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y6" s="6" t="s">
         <v>31</v>
       </c>
@@ -3173,29 +3173,29 @@
       <c r="M7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="6"/>
       <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>31</v>
+      <c r="U7" s="6"/>
+      <c r="V7" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3245,29 +3245,29 @@
       <c r="M8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="6"/>
       <c r="T8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>31</v>
+      <c r="U8" s="6"/>
+      <c r="V8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
+      <c r="X8" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Y8" s="6" t="s">
         <v>31</v>
       </c>
@@ -3318,14 +3318,12 @@
         <v>36</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="3"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R9" s="3"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
       <c r="U9" s="2"/>
@@ -3334,7 +3332,9 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -3378,14 +3378,12 @@
         <v>36</v>
       </c>
       <c r="N10" s="7"/>
-      <c r="O10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R10" s="7"/>
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
       <c r="U10" s="6"/>
@@ -3394,7 +3392,9 @@
       </c>
       <c r="W10" s="6"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="6"/>
+      <c r="Y10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -3438,14 +3438,12 @@
         <v>36</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q11" s="6"/>
-      <c r="R11" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="7"/>
       <c r="U11" s="6"/>
@@ -3454,7 +3452,9 @@
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
@@ -3498,14 +3498,12 @@
         <v>36</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q12" s="6"/>
-      <c r="R12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R12" s="7"/>
       <c r="S12" s="6"/>
       <c r="T12" s="7"/>
       <c r="U12" s="6"/>
@@ -3514,7 +3512,9 @@
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="7"/>
-      <c r="Y12" s="6"/>
+      <c r="Y12" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
@@ -3558,14 +3558,12 @@
         <v>36</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q13" s="6"/>
-      <c r="R13" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
       <c r="U13" s="6"/>
@@ -3574,7 +3572,9 @@
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="7"/>
-      <c r="Y13" s="6"/>
+      <c r="Y13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -3618,14 +3618,12 @@
         <v>36</v>
       </c>
       <c r="N14" s="7"/>
-      <c r="O14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q14" s="6"/>
-      <c r="R14" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
       <c r="U14" s="6"/>
@@ -3634,7 +3632,9 @@
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="6"/>
+      <c r="Y14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -3678,14 +3678,12 @@
         <v>36</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q15" s="6"/>
-      <c r="R15" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="7"/>
       <c r="U15" s="6"/>
@@ -3694,7 +3692,9 @@
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
@@ -3738,14 +3738,12 @@
         <v>36</v>
       </c>
       <c r="N16" s="7"/>
-      <c r="O16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="7"/>
       <c r="U16" s="6"/>
@@ -3754,7 +3752,9 @@
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="6"/>
+      <c r="Y16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
@@ -3798,14 +3798,12 @@
         <v>36</v>
       </c>
       <c r="N17" s="7"/>
-      <c r="O17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q17" s="6"/>
-      <c r="R17" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="7"/>
       <c r="U17" s="6"/>
@@ -3814,7 +3812,9 @@
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="6"/>
+      <c r="Y17" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -3858,14 +3858,12 @@
         <v>36</v>
       </c>
       <c r="N18" s="7"/>
-      <c r="O18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q18" s="6"/>
-      <c r="R18" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="7"/>
       <c r="U18" s="6"/>
@@ -3874,7 +3872,9 @@
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="6"/>
+      <c r="Y18" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
@@ -3918,14 +3918,12 @@
         <v>36</v>
       </c>
       <c r="N19" s="7"/>
-      <c r="O19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q19" s="6"/>
-      <c r="R19" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="7"/>
       <c r="U19" s="6"/>
@@ -3934,7 +3932,9 @@
       </c>
       <c r="W19" s="6"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -3978,14 +3978,12 @@
         <v>36</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q20" s="6"/>
-      <c r="R20" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="7"/>
       <c r="U20" s="6"/>
@@ -3994,7 +3992,9 @@
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="7"/>
-      <c r="Y20" s="6"/>
+      <c r="Y20" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -4038,14 +4038,12 @@
         <v>36</v>
       </c>
       <c r="N21" s="7"/>
-      <c r="O21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q21" s="6"/>
-      <c r="R21" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="7"/>
       <c r="U21" s="6"/>
@@ -4054,7 +4052,9 @@
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="7"/>
-      <c r="Y21" s="6"/>
+      <c r="Y21" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
@@ -4098,14 +4098,12 @@
         <v>36</v>
       </c>
       <c r="N22" s="7"/>
-      <c r="O22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q22" s="6"/>
-      <c r="R22" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="7"/>
       <c r="U22" s="6"/>
@@ -4114,7 +4112,9 @@
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="7"/>
-      <c r="Y22" s="6"/>
+      <c r="Y22" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
@@ -4158,14 +4158,12 @@
         <v>36</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q23" s="6"/>
-      <c r="R23" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="7"/>
       <c r="U23" s="6"/>
@@ -4174,7 +4172,9 @@
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="6"/>
+      <c r="Y23" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
@@ -4219,21 +4219,21 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q24" s="2"/>
-      <c r="R24" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R24" s="3"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T24" s="3"/>
       <c r="U24" s="2"/>
       <c r="V24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W24" s="2"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
@@ -4283,21 +4283,21 @@
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q25" s="6"/>
-      <c r="R25" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R25" s="7"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T25" s="7"/>
       <c r="U25" s="6"/>
       <c r="V25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="6"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6" t="s">
@@ -4347,21 +4347,21 @@
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
+      <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q26" s="6"/>
-      <c r="R26" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R26" s="7"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T26" s="7"/>
       <c r="U26" s="6"/>
       <c r="V26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W26" s="6"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6" t="s">
@@ -4411,21 +4411,21 @@
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="7"/>
+      <c r="P27" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q27" s="6"/>
-      <c r="R27" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R27" s="7"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T27" s="7"/>
       <c r="U27" s="6"/>
       <c r="V27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W27" s="6"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6" t="s">
@@ -4474,17 +4474,17 @@
         <v>36</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U28" s="2"/>
       <c r="V28" s="3" t="s">
         <v>31</v>
       </c>
@@ -4538,17 +4538,17 @@
         <v>36</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="7"/>
+      <c r="O29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U29" s="6"/>
       <c r="V29" s="7" t="s">
         <v>31</v>
       </c>
@@ -4602,17 +4602,17 @@
         <v>36</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="7"/>
+      <c r="O30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q30" s="6"/>
-      <c r="R30" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U30" s="6"/>
       <c r="V30" s="7" t="s">
         <v>31</v>
       </c>
@@ -4666,17 +4666,17 @@
         <v>36</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U31" s="2"/>
       <c r="V31" s="3" t="s">
         <v>31</v>
       </c>
@@ -4726,17 +4726,17 @@
         <v>36</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
+      <c r="O32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q32" s="6"/>
-      <c r="R32" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U32" s="6"/>
       <c r="V32" s="7" t="s">
         <v>31</v>
       </c>
@@ -4785,15 +4785,15 @@
       <c r="M33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="3"/>
       <c r="U33" s="2"/>
@@ -4849,15 +4849,15 @@
       <c r="M34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="7"/>
       <c r="S34" s="6"/>
       <c r="T34" s="7"/>
       <c r="U34" s="6"/>
@@ -4913,15 +4913,15 @@
       <c r="M35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="6"/>
       <c r="T35" s="7"/>
       <c r="U35" s="6"/>
@@ -4979,22 +4979,22 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="3"/>
+      <c r="P36" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q36" s="2"/>
-      <c r="R36" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R36" s="3"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="3"/>
+      <c r="T36" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U36" s="2"/>
       <c r="V36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
         <v>37</v>
@@ -5041,22 +5041,22 @@
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q37" s="6"/>
-      <c r="R37" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R37" s="7"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
+      <c r="T37" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U37" s="6"/>
       <c r="V37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W37" s="6"/>
       <c r="X37" s="7"/>
-      <c r="Y37" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
@@ -5101,22 +5101,22 @@
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q38" s="6"/>
-      <c r="R38" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R38" s="7"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
+      <c r="T38" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U38" s="6"/>
       <c r="V38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W38" s="6"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q39" s="6"/>
-      <c r="R39" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R39" s="7"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="7"/>
+      <c r="T39" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U39" s="6"/>
       <c r="V39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W39" s="6"/>
       <c r="X39" s="7"/>
-      <c r="Y39" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
@@ -5221,22 +5221,22 @@
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
+      <c r="P40" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q40" s="6"/>
-      <c r="R40" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R40" s="7"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
+      <c r="T40" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U40" s="6"/>
       <c r="V40" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W40" s="6"/>
       <c r="X40" s="7"/>
-      <c r="Y40" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
@@ -5281,22 +5281,22 @@
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="7"/>
+      <c r="P41" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q41" s="6"/>
-      <c r="R41" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R41" s="7"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="7"/>
+      <c r="T41" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U41" s="6"/>
       <c r="V41" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W41" s="6"/>
       <c r="X41" s="7"/>
-      <c r="Y41" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6" t="s">
         <v>142</v>
@@ -5343,22 +5343,22 @@
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="7"/>
+      <c r="P42" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
+      <c r="T42" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U42" s="6"/>
       <c r="V42" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W42" s="6"/>
       <c r="X42" s="7"/>
-      <c r="Y42" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6" t="s">
         <v>142</v>
@@ -5404,25 +5404,25 @@
         <v>36</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="3"/>
+      <c r="O43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q43" s="2"/>
-      <c r="R43" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R43" s="3"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>31</v>
+      <c r="T43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="2"/>
+      <c r="V43" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -5467,22 +5467,22 @@
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="7"/>
+      <c r="P44" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q44" s="6"/>
-      <c r="R44" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R44" s="7"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="7"/>
+      <c r="T44" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U44" s="6"/>
-      <c r="V44" s="7" t="s">
-        <v>31</v>
+      <c r="V44" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W44" s="6"/>
       <c r="X44" s="7"/>
-      <c r="Y44" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
@@ -5526,25 +5526,25 @@
         <v>36</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="7"/>
+      <c r="O45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q45" s="6"/>
-      <c r="R45" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R45" s="7"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>31</v>
+      <c r="T45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="6"/>
+      <c r="V45" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W45" s="6"/>
       <c r="X45" s="7"/>
-      <c r="Y45" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6" t="s">
         <v>153</v>
@@ -5592,25 +5592,25 @@
         <v>36</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="7"/>
+      <c r="O46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R46" s="7"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="V46" s="7" t="s">
-        <v>31</v>
+      <c r="T46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" s="6"/>
+      <c r="V46" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W46" s="6"/>
       <c r="X46" s="7"/>
-      <c r="Y46" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6" t="s">
         <v>153</v>
@@ -5657,18 +5657,18 @@
       <c r="M47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>32</v>
+      <c r="N47" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="2"/>
+      <c r="U47" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
       <c r="X47" s="3"/>
@@ -5717,22 +5717,22 @@
       <c r="M48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N48" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="N48" s="3"/>
       <c r="O48" s="2"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3"/>
       <c r="S48" s="2"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="2"/>
+      <c r="T48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
-      <c r="Y48" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
         <v>162</v>
@@ -5777,17 +5777,17 @@
       <c r="M49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="2"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="3"/>
       <c r="S49" s="2"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="2" t="s">
-        <v>31</v>
+      <c r="U49" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="V49" s="3"/>
       <c r="W49" s="2"/>
@@ -5837,21 +5837,21 @@
       <c r="M50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="N50" s="3"/>
       <c r="O50" s="2"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
       <c r="S50" s="2"/>
-      <c r="T50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50" s="2"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="3"/>
+      <c r="X50" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
@@ -5897,19 +5897,19 @@
       <c r="M51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="N51" s="3"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="3"/>
+      <c r="P51" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="3"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" s="3"/>
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="2"/>
@@ -5957,22 +5957,22 @@
       <c r="M52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="2"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="3"/>
       <c r="S52" s="2"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="2"/>
+      <c r="U52" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
       <c r="X52" s="3"/>
-      <c r="Y52" s="2"/>
+      <c r="Y52" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
         <v>162</v>
@@ -6018,14 +6018,12 @@
         <v>36</v>
       </c>
       <c r="N53" s="3"/>
-      <c r="O53" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" s="3"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q53" s="2"/>
-      <c r="R53" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R53" s="3"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
       <c r="U53" s="2"/>
@@ -6034,7 +6032,9 @@
       </c>
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
-      <c r="Y53" s="2"/>
+      <c r="Y53" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -6078,14 +6078,12 @@
         <v>36</v>
       </c>
       <c r="N54" s="7"/>
-      <c r="O54" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="7"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R54" s="7"/>
       <c r="S54" s="6"/>
       <c r="T54" s="7"/>
       <c r="U54" s="6"/>
@@ -6094,7 +6092,9 @@
       </c>
       <c r="W54" s="6"/>
       <c r="X54" s="7"/>
-      <c r="Y54" s="6"/>
+      <c r="Y54" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
@@ -6138,14 +6138,12 @@
         <v>36</v>
       </c>
       <c r="N55" s="7"/>
-      <c r="O55" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="7"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q55" s="6"/>
-      <c r="R55" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R55" s="7"/>
       <c r="S55" s="6"/>
       <c r="T55" s="7"/>
       <c r="U55" s="6"/>
@@ -6154,7 +6152,9 @@
       </c>
       <c r="W55" s="6"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="6"/>
+      <c r="Y55" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
@@ -6198,14 +6198,12 @@
         <v>36</v>
       </c>
       <c r="N56" s="7"/>
-      <c r="O56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="7"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q56" s="6"/>
-      <c r="R56" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R56" s="7"/>
       <c r="S56" s="6"/>
       <c r="T56" s="7"/>
       <c r="U56" s="6"/>
@@ -6214,7 +6212,9 @@
       </c>
       <c r="W56" s="6"/>
       <c r="X56" s="7"/>
-      <c r="Y56" s="6"/>
+      <c r="Y56" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -6258,14 +6258,12 @@
         <v>36</v>
       </c>
       <c r="N57" s="7"/>
-      <c r="O57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P57" s="7"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q57" s="6"/>
-      <c r="R57" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R57" s="7"/>
       <c r="S57" s="6"/>
       <c r="T57" s="7"/>
       <c r="U57" s="6"/>
@@ -6274,7 +6272,9 @@
       </c>
       <c r="W57" s="6"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="6"/>
+      <c r="Y57" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6" t="s">
         <v>37</v>
@@ -6322,14 +6322,12 @@
         <v>36</v>
       </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="7"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q58" s="6"/>
-      <c r="R58" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R58" s="7"/>
       <c r="S58" s="6"/>
       <c r="T58" s="7"/>
       <c r="U58" s="6"/>
@@ -6338,7 +6336,9 @@
       </c>
       <c r="W58" s="6"/>
       <c r="X58" s="7"/>
-      <c r="Y58" s="6"/>
+      <c r="Y58" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6" t="s">
         <v>37</v>
@@ -6386,17 +6386,17 @@
         <v>36</v>
       </c>
       <c r="N59" s="3"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="3"/>
+      <c r="O59" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R59" s="3"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U59" s="2"/>
       <c r="V59" s="3" t="s">
         <v>31</v>
       </c>
@@ -6446,17 +6446,17 @@
         <v>36</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="7"/>
+      <c r="O60" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q60" s="6"/>
-      <c r="R60" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R60" s="7"/>
       <c r="S60" s="6"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U60" s="6"/>
       <c r="V60" s="7" t="s">
         <v>31</v>
       </c>
@@ -6506,17 +6506,17 @@
         <v>36</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="7"/>
+      <c r="O61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q61" s="6"/>
-      <c r="R61" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R61" s="7"/>
       <c r="S61" s="6"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U61" s="6"/>
       <c r="V61" s="7" t="s">
         <v>31</v>
       </c>
@@ -6566,17 +6566,17 @@
         <v>36</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="7"/>
+      <c r="O62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q62" s="6"/>
-      <c r="R62" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R62" s="7"/>
       <c r="S62" s="6"/>
       <c r="T62" s="7"/>
-      <c r="U62" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U62" s="6"/>
       <c r="V62" s="7" t="s">
         <v>31</v>
       </c>
@@ -6627,21 +6627,21 @@
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="3"/>
+      <c r="P63" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R63" s="3"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T63" s="3"/>
       <c r="U63" s="2"/>
       <c r="V63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W63" s="2"/>
-      <c r="X63" s="3"/>
+      <c r="X63" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
@@ -6687,21 +6687,21 @@
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="7"/>
+      <c r="P64" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q64" s="6"/>
-      <c r="R64" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R64" s="7"/>
       <c r="S64" s="6"/>
-      <c r="T64" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T64" s="7"/>
       <c r="U64" s="6"/>
       <c r="V64" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W64" s="6"/>
-      <c r="X64" s="7"/>
+      <c r="X64" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
@@ -6747,21 +6747,21 @@
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="7"/>
+      <c r="P65" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q65" s="6"/>
-      <c r="R65" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R65" s="7"/>
       <c r="S65" s="6"/>
-      <c r="T65" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T65" s="7"/>
       <c r="U65" s="6"/>
       <c r="V65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W65" s="6"/>
-      <c r="X65" s="7"/>
+      <c r="X65" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
@@ -6807,21 +6807,21 @@
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="3"/>
+      <c r="P66" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q66" s="2"/>
-      <c r="R66" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R66" s="3"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T66" s="3"/>
       <c r="U66" s="2"/>
       <c r="V66" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W66" s="2"/>
-      <c r="X66" s="3"/>
+      <c r="X66" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2" t="s">
@@ -6871,21 +6871,21 @@
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="7"/>
+      <c r="P67" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q67" s="6"/>
-      <c r="R67" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R67" s="7"/>
       <c r="S67" s="6"/>
-      <c r="T67" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T67" s="7"/>
       <c r="U67" s="6"/>
       <c r="V67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W67" s="6"/>
-      <c r="X67" s="7"/>
+      <c r="X67" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6" t="s">
@@ -6934,17 +6934,17 @@
         <v>36</v>
       </c>
       <c r="N68" s="3"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="3"/>
+      <c r="O68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q68" s="2"/>
-      <c r="R68" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R68" s="3"/>
       <c r="S68" s="2"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U68" s="2"/>
       <c r="V68" s="3" t="s">
         <v>31</v>
       </c>
@@ -6998,17 +6998,17 @@
         <v>36</v>
       </c>
       <c r="N69" s="7"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="7"/>
+      <c r="O69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q69" s="6"/>
-      <c r="R69" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R69" s="7"/>
       <c r="S69" s="6"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U69" s="6"/>
       <c r="V69" s="7" t="s">
         <v>31</v>
       </c>
@@ -7063,15 +7063,15 @@
       <c r="O70" s="2"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="3"/>
+      <c r="R70" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S70" s="2"/>
       <c r="T70" s="3"/>
       <c r="U70" s="2"/>
       <c r="V70" s="3"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X70" s="3"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2" t="s">
@@ -7121,15 +7121,15 @@
       <c r="O71" s="6"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="6"/>
-      <c r="R71" s="7"/>
+      <c r="R71" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S71" s="6"/>
       <c r="T71" s="7"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X71" s="7"/>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6" t="s">
@@ -7179,15 +7179,15 @@
       <c r="O72" s="6"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="6"/>
-      <c r="R72" s="7"/>
+      <c r="R72" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S72" s="6"/>
       <c r="T72" s="7"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X72" s="7"/>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6" t="s">
@@ -7237,15 +7237,15 @@
       <c r="O73" s="2"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="3"/>
+      <c r="R73" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S73" s="2"/>
       <c r="T73" s="3"/>
       <c r="U73" s="2"/>
       <c r="V73" s="3"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X73" s="3"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2" t="s">
@@ -7295,15 +7295,15 @@
       <c r="O74" s="6"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="6"/>
-      <c r="R74" s="7"/>
+      <c r="R74" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S74" s="6"/>
       <c r="T74" s="7"/>
       <c r="U74" s="6"/>
       <c r="V74" s="7"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X74" s="7"/>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6" t="s">
@@ -7353,15 +7353,15 @@
       <c r="O75" s="6"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="6"/>
-      <c r="R75" s="7"/>
+      <c r="R75" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S75" s="6"/>
       <c r="T75" s="7"/>
       <c r="U75" s="6"/>
       <c r="V75" s="7"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X75" s="7"/>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6" t="s">
@@ -7411,15 +7411,15 @@
       <c r="O76" s="2"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="3"/>
+      <c r="R76" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S76" s="2"/>
       <c r="T76" s="3"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X76" s="3"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2" t="s">
@@ -7469,15 +7469,15 @@
       <c r="O77" s="6"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="6"/>
-      <c r="R77" s="7"/>
+      <c r="R77" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S77" s="6"/>
       <c r="T77" s="7"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X77" s="7"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6" t="s">
@@ -7527,15 +7527,15 @@
       <c r="O78" s="6"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="6"/>
-      <c r="R78" s="7"/>
+      <c r="R78" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S78" s="6"/>
       <c r="T78" s="7"/>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
       <c r="W78" s="6"/>
-      <c r="X78" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X78" s="7"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6" t="s">
@@ -7585,15 +7585,15 @@
       <c r="O79" s="2"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="3"/>
+      <c r="R79" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S79" s="2"/>
       <c r="T79" s="3"/>
       <c r="U79" s="2"/>
       <c r="V79" s="3"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X79" s="3"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2" t="s">
@@ -7643,15 +7643,15 @@
       <c r="O80" s="6"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="6"/>
-      <c r="R80" s="7"/>
+      <c r="R80" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S80" s="6"/>
       <c r="T80" s="7"/>
       <c r="U80" s="6"/>
       <c r="V80" s="7"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X80" s="7"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6" t="s">
@@ -7701,15 +7701,15 @@
       <c r="O81" s="2"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="3"/>
+      <c r="R81" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S81" s="2"/>
       <c r="T81" s="3"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X81" s="3"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2" t="s">
@@ -7759,15 +7759,15 @@
       <c r="O82" s="6"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="6"/>
-      <c r="R82" s="7"/>
+      <c r="R82" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S82" s="6"/>
       <c r="T82" s="7"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X82" s="7"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6" t="s">
@@ -7817,15 +7817,15 @@
       <c r="O83" s="6"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="6"/>
-      <c r="R83" s="7"/>
+      <c r="R83" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S83" s="6"/>
       <c r="T83" s="7"/>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X83" s="7"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
       <c r="AA83" s="6" t="s">
@@ -7875,15 +7875,15 @@
       <c r="O84" s="2"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="3"/>
+      <c r="R84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="S84" s="2"/>
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
       <c r="V84" s="3"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X84" s="3"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2" t="s">
@@ -7933,15 +7933,15 @@
       <c r="O85" s="6"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="6"/>
-      <c r="R85" s="7"/>
+      <c r="R85" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S85" s="6"/>
       <c r="T85" s="7"/>
       <c r="U85" s="6"/>
       <c r="V85" s="7"/>
       <c r="W85" s="6"/>
-      <c r="X85" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X85" s="7"/>
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6" t="s">
@@ -7991,15 +7991,15 @@
       <c r="O86" s="6"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="6"/>
-      <c r="R86" s="7"/>
+      <c r="R86" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S86" s="6"/>
       <c r="T86" s="7"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
       <c r="W86" s="6"/>
-      <c r="X86" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X86" s="7"/>
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6" t="s">
@@ -8049,15 +8049,15 @@
       <c r="O87" s="6"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="7"/>
+      <c r="R87" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="S87" s="6"/>
       <c r="T87" s="7"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X87" s="7"/>
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6" t="s">
@@ -8103,22 +8103,22 @@
       <c r="M88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="N88" s="3"/>
+      <c r="O88" s="2"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
       <c r="S88" s="2"/>
       <c r="T88" s="3"/>
-      <c r="U88" s="2"/>
+      <c r="U88" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
       <c r="X88" s="3"/>
-      <c r="Y88" s="2"/>
+      <c r="Y88" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
         <v>162</v>
@@ -8163,21 +8163,21 @@
       <c r="M89" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N89" s="3"/>
       <c r="O89" s="2"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="3"/>
       <c r="S89" s="2"/>
-      <c r="T89" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U89" s="2"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="V89" s="3"/>
       <c r="W89" s="2"/>
-      <c r="X89" s="3"/>
+      <c r="X89" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2" t="s">
@@ -8223,17 +8223,17 @@
       <c r="M90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N90" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O90" s="2"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="3"/>
       <c r="S90" s="2"/>
       <c r="T90" s="3"/>
-      <c r="U90" s="9" t="s">
-        <v>32</v>
+      <c r="U90" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="V90" s="3"/>
       <c r="W90" s="2"/>
@@ -8283,18 +8283,18 @@
       <c r="M91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>31</v>
+      <c r="N91" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="3"/>
-      <c r="Q91" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q91" s="2"/>
       <c r="R91" s="3"/>
       <c r="S91" s="2"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="2"/>
+      <c r="U91" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
       <c r="X91" s="3"/>
@@ -8343,22 +8343,22 @@
       <c r="M92" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N92" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N92" s="3"/>
       <c r="O92" s="2"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="3"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="3"/>
-      <c r="U92" s="2"/>
+      <c r="T92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
       <c r="X92" s="3"/>
-      <c r="Y92" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2" t="s">
         <v>162</v>
@@ -8403,19 +8403,19 @@
       <c r="M93" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N93" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N93" s="3"/>
       <c r="O93" s="2"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="2"/>
-      <c r="R93" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R93" s="3"/>
       <c r="S93" s="2"/>
       <c r="T93" s="3"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="3"/>
+      <c r="U93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W93" s="2"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="2"/>
@@ -8463,19 +8463,19 @@
       <c r="M94" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="N94" s="3"/>
       <c r="O94" s="2"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Q94" s="2"/>
       <c r="R94" s="3"/>
       <c r="S94" s="2"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V94" s="3"/>
       <c r="W94" s="2"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="2"/>
@@ -8525,22 +8525,22 @@
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="3"/>
+      <c r="P95" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q95" s="2"/>
-      <c r="R95" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R95" s="3"/>
       <c r="S95" s="2"/>
-      <c r="T95" s="3"/>
+      <c r="T95" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="U95" s="2"/>
-      <c r="V95" s="3" t="s">
-        <v>31</v>
+      <c r="V95" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="W95" s="2"/>
       <c r="X95" s="3"/>
-      <c r="Y95" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2" t="s">
         <v>277</v>
@@ -8589,22 +8589,22 @@
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="3"/>
+      <c r="P96" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q96" s="2"/>
-      <c r="R96" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R96" s="3"/>
       <c r="S96" s="2"/>
-      <c r="T96" s="3"/>
+      <c r="T96" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="U96" s="2"/>
-      <c r="V96" s="3" t="s">
-        <v>31</v>
+      <c r="V96" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="W96" s="2"/>
       <c r="X96" s="3"/>
-      <c r="Y96" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y96" s="2"/>
       <c r="Z96" s="2">
         <v>0</v>
       </c>
@@ -8653,22 +8653,22 @@
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="6"/>
-      <c r="P97" s="7"/>
+      <c r="P97" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q97" s="6"/>
-      <c r="R97" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R97" s="7"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="7"/>
+      <c r="T97" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U97" s="6"/>
-      <c r="V97" s="7" t="s">
-        <v>31</v>
+      <c r="V97" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W97" s="6"/>
       <c r="X97" s="7"/>
-      <c r="Y97" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y97" s="6"/>
       <c r="Z97" s="6">
         <v>1</v>
       </c>
@@ -8717,22 +8717,22 @@
       </c>
       <c r="N98" s="7"/>
       <c r="O98" s="6"/>
-      <c r="P98" s="7"/>
+      <c r="P98" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q98" s="6"/>
-      <c r="R98" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R98" s="7"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="7"/>
+      <c r="T98" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U98" s="6"/>
-      <c r="V98" s="7" t="s">
-        <v>31</v>
+      <c r="V98" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W98" s="6"/>
       <c r="X98" s="7"/>
-      <c r="Y98" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y98" s="6"/>
       <c r="Z98" s="6">
         <v>2</v>
       </c>
@@ -8781,22 +8781,22 @@
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="6"/>
-      <c r="P99" s="7"/>
+      <c r="P99" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q99" s="6"/>
-      <c r="R99" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R99" s="7"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="7"/>
+      <c r="T99" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U99" s="6"/>
-      <c r="V99" s="7" t="s">
-        <v>31</v>
+      <c r="V99" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W99" s="6"/>
       <c r="X99" s="7"/>
-      <c r="Y99" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y99" s="6"/>
       <c r="Z99" s="6">
         <v>3</v>
       </c>
@@ -8845,22 +8845,22 @@
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="6"/>
-      <c r="P100" s="7"/>
+      <c r="P100" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q100" s="6"/>
-      <c r="R100" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R100" s="7"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="7"/>
+      <c r="T100" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U100" s="6"/>
-      <c r="V100" s="7" t="s">
-        <v>31</v>
+      <c r="V100" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W100" s="6"/>
       <c r="X100" s="7"/>
-      <c r="Y100" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y100" s="6"/>
       <c r="Z100" s="6">
         <v>4</v>
       </c>
@@ -8909,22 +8909,22 @@
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="6"/>
-      <c r="P101" s="7"/>
+      <c r="P101" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q101" s="6"/>
-      <c r="R101" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R101" s="7"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="7"/>
+      <c r="T101" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U101" s="6"/>
-      <c r="V101" s="7" t="s">
-        <v>31</v>
+      <c r="V101" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W101" s="6"/>
       <c r="X101" s="7"/>
-      <c r="Y101" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y101" s="6"/>
       <c r="Z101" s="6">
         <v>5</v>
       </c>
@@ -8973,22 +8973,22 @@
       </c>
       <c r="N102" s="7"/>
       <c r="O102" s="6"/>
-      <c r="P102" s="7"/>
+      <c r="P102" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q102" s="6"/>
-      <c r="R102" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R102" s="7"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="7"/>
+      <c r="T102" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U102" s="6"/>
-      <c r="V102" s="7" t="s">
-        <v>31</v>
+      <c r="V102" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W102" s="6"/>
       <c r="X102" s="7"/>
-      <c r="Y102" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y102" s="6"/>
       <c r="Z102" s="6">
         <v>255</v>
       </c>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="7"/>
+      <c r="P103" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q103" s="6"/>
-      <c r="R103" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R103" s="7"/>
       <c r="S103" s="6"/>
-      <c r="T103" s="7"/>
+      <c r="T103" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U103" s="6"/>
-      <c r="V103" s="7" t="s">
-        <v>31</v>
+      <c r="V103" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W103" s="6"/>
       <c r="X103" s="7"/>
-      <c r="Y103" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y103" s="6"/>
       <c r="Z103" s="6">
         <v>0</v>
       </c>
@@ -9101,22 +9101,22 @@
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="7"/>
+      <c r="P104" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q104" s="6"/>
-      <c r="R104" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R104" s="7"/>
       <c r="S104" s="6"/>
-      <c r="T104" s="7"/>
+      <c r="T104" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U104" s="6"/>
-      <c r="V104" s="7" t="s">
-        <v>31</v>
+      <c r="V104" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W104" s="6"/>
       <c r="X104" s="7"/>
-      <c r="Y104" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y104" s="6"/>
       <c r="Z104" s="6">
         <v>1</v>
       </c>
@@ -9165,22 +9165,22 @@
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="6"/>
-      <c r="P105" s="7"/>
+      <c r="P105" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q105" s="6"/>
-      <c r="R105" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R105" s="7"/>
       <c r="S105" s="6"/>
-      <c r="T105" s="7"/>
+      <c r="T105" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U105" s="6"/>
-      <c r="V105" s="7" t="s">
-        <v>31</v>
+      <c r="V105" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W105" s="6"/>
       <c r="X105" s="7"/>
-      <c r="Y105" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y105" s="6"/>
       <c r="Z105" s="6">
         <v>2</v>
       </c>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="N106" s="7"/>
       <c r="O106" s="6"/>
-      <c r="P106" s="7"/>
+      <c r="P106" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q106" s="6"/>
-      <c r="R106" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R106" s="7"/>
       <c r="S106" s="6"/>
-      <c r="T106" s="7"/>
+      <c r="T106" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U106" s="6"/>
-      <c r="V106" s="7" t="s">
-        <v>31</v>
+      <c r="V106" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W106" s="6"/>
       <c r="X106" s="7"/>
-      <c r="Y106" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y106" s="6"/>
       <c r="Z106" s="6">
         <v>3</v>
       </c>
@@ -9293,22 +9293,22 @@
       </c>
       <c r="N107" s="7"/>
       <c r="O107" s="6"/>
-      <c r="P107" s="7"/>
+      <c r="P107" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q107" s="6"/>
-      <c r="R107" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R107" s="7"/>
       <c r="S107" s="6"/>
-      <c r="T107" s="7"/>
+      <c r="T107" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U107" s="6"/>
-      <c r="V107" s="7" t="s">
-        <v>31</v>
+      <c r="V107" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W107" s="6"/>
       <c r="X107" s="7"/>
-      <c r="Y107" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y107" s="6"/>
       <c r="Z107" s="6">
         <v>4</v>
       </c>
@@ -9357,22 +9357,22 @@
       </c>
       <c r="N108" s="7"/>
       <c r="O108" s="6"/>
-      <c r="P108" s="7"/>
+      <c r="P108" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q108" s="6"/>
-      <c r="R108" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R108" s="7"/>
       <c r="S108" s="6"/>
-      <c r="T108" s="7"/>
+      <c r="T108" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U108" s="6"/>
-      <c r="V108" s="7" t="s">
-        <v>31</v>
+      <c r="V108" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W108" s="6"/>
       <c r="X108" s="7"/>
-      <c r="Y108" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y108" s="6"/>
       <c r="Z108" s="6">
         <v>5</v>
       </c>
@@ -9421,22 +9421,22 @@
       </c>
       <c r="N109" s="7"/>
       <c r="O109" s="6"/>
-      <c r="P109" s="7"/>
+      <c r="P109" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q109" s="6"/>
-      <c r="R109" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R109" s="7"/>
       <c r="S109" s="6"/>
-      <c r="T109" s="7"/>
+      <c r="T109" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U109" s="6"/>
-      <c r="V109" s="7" t="s">
-        <v>31</v>
+      <c r="V109" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W109" s="6"/>
       <c r="X109" s="7"/>
-      <c r="Y109" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y109" s="6"/>
       <c r="Z109" s="6">
         <v>6</v>
       </c>
@@ -9485,22 +9485,22 @@
       </c>
       <c r="N110" s="7"/>
       <c r="O110" s="6"/>
-      <c r="P110" s="7"/>
+      <c r="P110" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q110" s="6"/>
-      <c r="R110" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R110" s="7"/>
       <c r="S110" s="6"/>
-      <c r="T110" s="7"/>
+      <c r="T110" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U110" s="6"/>
-      <c r="V110" s="7" t="s">
-        <v>31</v>
+      <c r="V110" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W110" s="6"/>
       <c r="X110" s="7"/>
-      <c r="Y110" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y110" s="6"/>
       <c r="Z110" s="6">
         <v>0</v>
       </c>
@@ -9549,22 +9549,22 @@
       </c>
       <c r="N111" s="7"/>
       <c r="O111" s="6"/>
-      <c r="P111" s="7"/>
+      <c r="P111" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q111" s="6"/>
-      <c r="R111" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R111" s="7"/>
       <c r="S111" s="6"/>
-      <c r="T111" s="7"/>
+      <c r="T111" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U111" s="6"/>
-      <c r="V111" s="7" t="s">
-        <v>31</v>
+      <c r="V111" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W111" s="6"/>
       <c r="X111" s="7"/>
-      <c r="Y111" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y111" s="6"/>
       <c r="Z111" s="6">
         <v>1</v>
       </c>
@@ -9613,22 +9613,22 @@
       </c>
       <c r="N112" s="7"/>
       <c r="O112" s="6"/>
-      <c r="P112" s="7"/>
+      <c r="P112" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q112" s="6"/>
-      <c r="R112" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R112" s="7"/>
       <c r="S112" s="6"/>
-      <c r="T112" s="7"/>
+      <c r="T112" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U112" s="6"/>
-      <c r="V112" s="7" t="s">
-        <v>31</v>
+      <c r="V112" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W112" s="6"/>
       <c r="X112" s="7"/>
-      <c r="Y112" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y112" s="6"/>
       <c r="Z112" s="6">
         <v>2</v>
       </c>
@@ -9677,22 +9677,22 @@
       </c>
       <c r="N113" s="7"/>
       <c r="O113" s="6"/>
-      <c r="P113" s="7"/>
+      <c r="P113" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q113" s="6"/>
-      <c r="R113" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R113" s="7"/>
       <c r="S113" s="6"/>
-      <c r="T113" s="7"/>
+      <c r="T113" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U113" s="6"/>
-      <c r="V113" s="7" t="s">
-        <v>31</v>
+      <c r="V113" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W113" s="6"/>
       <c r="X113" s="7"/>
-      <c r="Y113" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y113" s="6"/>
       <c r="Z113" s="6">
         <v>3</v>
       </c>
@@ -9741,22 +9741,22 @@
       </c>
       <c r="N114" s="7"/>
       <c r="O114" s="6"/>
-      <c r="P114" s="7"/>
+      <c r="P114" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q114" s="6"/>
-      <c r="R114" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R114" s="7"/>
       <c r="S114" s="6"/>
-      <c r="T114" s="7"/>
+      <c r="T114" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U114" s="6"/>
-      <c r="V114" s="7" t="s">
-        <v>31</v>
+      <c r="V114" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W114" s="6"/>
       <c r="X114" s="7"/>
-      <c r="Y114" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y114" s="6"/>
       <c r="Z114" s="6">
         <v>4</v>
       </c>
@@ -9805,22 +9805,22 @@
       </c>
       <c r="N115" s="7"/>
       <c r="O115" s="6"/>
-      <c r="P115" s="7"/>
+      <c r="P115" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q115" s="6"/>
-      <c r="R115" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R115" s="7"/>
       <c r="S115" s="6"/>
-      <c r="T115" s="7"/>
+      <c r="T115" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U115" s="6"/>
-      <c r="V115" s="7" t="s">
-        <v>31</v>
+      <c r="V115" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W115" s="6"/>
       <c r="X115" s="7"/>
-      <c r="Y115" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y115" s="6"/>
       <c r="Z115" s="6">
         <v>5</v>
       </c>
@@ -9869,22 +9869,22 @@
       </c>
       <c r="N116" s="7"/>
       <c r="O116" s="6"/>
-      <c r="P116" s="7"/>
+      <c r="P116" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q116" s="6"/>
-      <c r="R116" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R116" s="7"/>
       <c r="S116" s="6"/>
-      <c r="T116" s="7"/>
+      <c r="T116" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U116" s="6"/>
-      <c r="V116" s="7" t="s">
-        <v>31</v>
+      <c r="V116" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W116" s="6"/>
       <c r="X116" s="7"/>
-      <c r="Y116" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y116" s="6"/>
       <c r="Z116" s="6">
         <v>6</v>
       </c>
@@ -9933,22 +9933,22 @@
       </c>
       <c r="N117" s="7"/>
       <c r="O117" s="6"/>
-      <c r="P117" s="7"/>
+      <c r="P117" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q117" s="6"/>
-      <c r="R117" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R117" s="7"/>
       <c r="S117" s="6"/>
-      <c r="T117" s="7"/>
+      <c r="T117" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U117" s="6"/>
-      <c r="V117" s="7" t="s">
-        <v>31</v>
+      <c r="V117" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W117" s="6"/>
       <c r="X117" s="7"/>
-      <c r="Y117" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y117" s="6"/>
       <c r="Z117" s="6">
         <v>0</v>
       </c>
@@ -9997,22 +9997,22 @@
       </c>
       <c r="N118" s="7"/>
       <c r="O118" s="6"/>
-      <c r="P118" s="7"/>
+      <c r="P118" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q118" s="6"/>
-      <c r="R118" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R118" s="7"/>
       <c r="S118" s="6"/>
-      <c r="T118" s="7"/>
+      <c r="T118" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U118" s="6"/>
-      <c r="V118" s="7" t="s">
-        <v>31</v>
+      <c r="V118" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W118" s="6"/>
       <c r="X118" s="7"/>
-      <c r="Y118" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y118" s="6"/>
       <c r="Z118" s="6">
         <v>1</v>
       </c>
@@ -10061,22 +10061,22 @@
       </c>
       <c r="N119" s="7"/>
       <c r="O119" s="6"/>
-      <c r="P119" s="7"/>
+      <c r="P119" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q119" s="6"/>
-      <c r="R119" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R119" s="7"/>
       <c r="S119" s="6"/>
-      <c r="T119" s="7"/>
+      <c r="T119" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U119" s="6"/>
-      <c r="V119" s="7" t="s">
-        <v>31</v>
+      <c r="V119" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W119" s="6"/>
       <c r="X119" s="7"/>
-      <c r="Y119" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y119" s="6"/>
       <c r="Z119" s="6">
         <v>2</v>
       </c>
@@ -10125,22 +10125,22 @@
       </c>
       <c r="N120" s="7"/>
       <c r="O120" s="6"/>
-      <c r="P120" s="7"/>
+      <c r="P120" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q120" s="6"/>
-      <c r="R120" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R120" s="7"/>
       <c r="S120" s="6"/>
-      <c r="T120" s="7"/>
+      <c r="T120" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U120" s="6"/>
-      <c r="V120" s="7" t="s">
-        <v>31</v>
+      <c r="V120" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W120" s="6"/>
       <c r="X120" s="7"/>
-      <c r="Y120" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y120" s="6"/>
       <c r="Z120" s="6">
         <v>3</v>
       </c>
@@ -10189,22 +10189,22 @@
       </c>
       <c r="N121" s="7"/>
       <c r="O121" s="6"/>
-      <c r="P121" s="7"/>
+      <c r="P121" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q121" s="6"/>
-      <c r="R121" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R121" s="7"/>
       <c r="S121" s="6"/>
-      <c r="T121" s="7"/>
+      <c r="T121" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U121" s="6"/>
-      <c r="V121" s="7" t="s">
-        <v>31</v>
+      <c r="V121" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W121" s="6"/>
       <c r="X121" s="7"/>
-      <c r="Y121" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y121" s="6"/>
       <c r="Z121" s="6">
         <v>4</v>
       </c>
@@ -10253,22 +10253,22 @@
       </c>
       <c r="N122" s="7"/>
       <c r="O122" s="6"/>
-      <c r="P122" s="7"/>
+      <c r="P122" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q122" s="6"/>
-      <c r="R122" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R122" s="7"/>
       <c r="S122" s="6"/>
-      <c r="T122" s="7"/>
+      <c r="T122" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U122" s="6"/>
-      <c r="V122" s="7" t="s">
-        <v>31</v>
+      <c r="V122" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W122" s="6"/>
       <c r="X122" s="7"/>
-      <c r="Y122" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y122" s="6"/>
       <c r="Z122" s="6">
         <v>5</v>
       </c>
@@ -10317,22 +10317,22 @@
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="6"/>
-      <c r="P123" s="7"/>
+      <c r="P123" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q123" s="6"/>
-      <c r="R123" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R123" s="7"/>
       <c r="S123" s="6"/>
-      <c r="T123" s="7"/>
+      <c r="T123" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U123" s="6"/>
-      <c r="V123" s="7" t="s">
-        <v>31</v>
+      <c r="V123" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W123" s="6"/>
       <c r="X123" s="7"/>
-      <c r="Y123" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y123" s="6"/>
       <c r="Z123" s="6">
         <v>6</v>
       </c>
@@ -10381,22 +10381,22 @@
       </c>
       <c r="N124" s="7"/>
       <c r="O124" s="6"/>
-      <c r="P124" s="7"/>
+      <c r="P124" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q124" s="6"/>
-      <c r="R124" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R124" s="7"/>
       <c r="S124" s="6"/>
-      <c r="T124" s="7"/>
+      <c r="T124" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U124" s="6"/>
-      <c r="V124" s="7" t="s">
-        <v>31</v>
+      <c r="V124" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W124" s="6"/>
       <c r="X124" s="7"/>
-      <c r="Y124" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y124" s="6"/>
       <c r="Z124" s="6">
         <v>0</v>
       </c>
@@ -10445,22 +10445,22 @@
       </c>
       <c r="N125" s="7"/>
       <c r="O125" s="6"/>
-      <c r="P125" s="7"/>
+      <c r="P125" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q125" s="6"/>
-      <c r="R125" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R125" s="7"/>
       <c r="S125" s="6"/>
-      <c r="T125" s="7"/>
+      <c r="T125" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U125" s="6"/>
-      <c r="V125" s="7" t="s">
-        <v>31</v>
+      <c r="V125" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W125" s="6"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y125" s="6"/>
       <c r="Z125" s="6">
         <v>1</v>
       </c>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="N126" s="7"/>
       <c r="O126" s="6"/>
-      <c r="P126" s="7"/>
+      <c r="P126" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q126" s="6"/>
-      <c r="R126" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R126" s="7"/>
       <c r="S126" s="6"/>
-      <c r="T126" s="7"/>
+      <c r="T126" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U126" s="6"/>
-      <c r="V126" s="7" t="s">
-        <v>31</v>
+      <c r="V126" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W126" s="6"/>
       <c r="X126" s="7"/>
-      <c r="Y126" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y126" s="6"/>
       <c r="Z126" s="6">
         <v>2</v>
       </c>
@@ -10573,22 +10573,22 @@
       </c>
       <c r="N127" s="7"/>
       <c r="O127" s="6"/>
-      <c r="P127" s="7"/>
+      <c r="P127" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q127" s="6"/>
-      <c r="R127" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R127" s="7"/>
       <c r="S127" s="6"/>
-      <c r="T127" s="7"/>
+      <c r="T127" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U127" s="6"/>
-      <c r="V127" s="7" t="s">
-        <v>31</v>
+      <c r="V127" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W127" s="6"/>
       <c r="X127" s="7"/>
-      <c r="Y127" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y127" s="6"/>
       <c r="Z127" s="6">
         <v>3</v>
       </c>
@@ -10637,22 +10637,22 @@
       </c>
       <c r="N128" s="7"/>
       <c r="O128" s="6"/>
-      <c r="P128" s="7"/>
+      <c r="P128" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q128" s="6"/>
-      <c r="R128" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R128" s="7"/>
       <c r="S128" s="6"/>
-      <c r="T128" s="7"/>
+      <c r="T128" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U128" s="6"/>
-      <c r="V128" s="7" t="s">
-        <v>31</v>
+      <c r="V128" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W128" s="6"/>
       <c r="X128" s="7"/>
-      <c r="Y128" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y128" s="6"/>
       <c r="Z128" s="6">
         <v>4</v>
       </c>
@@ -10701,22 +10701,22 @@
       </c>
       <c r="N129" s="7"/>
       <c r="O129" s="6"/>
-      <c r="P129" s="7"/>
+      <c r="P129" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q129" s="6"/>
-      <c r="R129" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R129" s="7"/>
       <c r="S129" s="6"/>
-      <c r="T129" s="7"/>
+      <c r="T129" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U129" s="6"/>
-      <c r="V129" s="7" t="s">
-        <v>31</v>
+      <c r="V129" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W129" s="6"/>
       <c r="X129" s="7"/>
-      <c r="Y129" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y129" s="6"/>
       <c r="Z129" s="6">
         <v>5</v>
       </c>
@@ -10765,22 +10765,22 @@
       </c>
       <c r="N130" s="7"/>
       <c r="O130" s="6"/>
-      <c r="P130" s="7"/>
+      <c r="P130" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q130" s="6"/>
-      <c r="R130" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R130" s="7"/>
       <c r="S130" s="6"/>
-      <c r="T130" s="7"/>
+      <c r="T130" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="U130" s="6"/>
-      <c r="V130" s="7" t="s">
-        <v>31</v>
+      <c r="V130" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W130" s="6"/>
       <c r="X130" s="7"/>
-      <c r="Y130" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y130" s="6"/>
       <c r="Z130" s="6">
         <v>6</v>
       </c>
@@ -10827,15 +10827,15 @@
       <c r="M131" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N131" s="3"/>
+      <c r="N131" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O131" s="2"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R131" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P131" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="3"/>
       <c r="S131" s="2"/>
       <c r="T131" s="3"/>
       <c r="U131" s="2"/>
@@ -10887,15 +10887,15 @@
       <c r="M132" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N132" s="7"/>
+      <c r="N132" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O132" s="6"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R132" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P132" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="7"/>
       <c r="S132" s="6"/>
       <c r="T132" s="7"/>
       <c r="U132" s="6"/>
@@ -10947,15 +10947,15 @@
       <c r="M133" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N133" s="7"/>
+      <c r="N133" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O133" s="6"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R133" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P133" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="7"/>
       <c r="S133" s="6"/>
       <c r="T133" s="7"/>
       <c r="U133" s="6"/>
@@ -11007,15 +11007,15 @@
       <c r="M134" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N134" s="7"/>
+      <c r="N134" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O134" s="6"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R134" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="7"/>
       <c r="S134" s="6"/>
       <c r="T134" s="7"/>
       <c r="U134" s="6"/>
@@ -11067,15 +11067,15 @@
       <c r="M135" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N135" s="7"/>
+      <c r="N135" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O135" s="6"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R135" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="7"/>
       <c r="S135" s="6"/>
       <c r="T135" s="7"/>
       <c r="U135" s="6"/>
@@ -11127,15 +11127,15 @@
       <c r="M136" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N136" s="7"/>
+      <c r="N136" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O136" s="6"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R136" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q136" s="6"/>
+      <c r="R136" s="7"/>
       <c r="S136" s="6"/>
       <c r="T136" s="7"/>
       <c r="U136" s="6"/>
@@ -11187,15 +11187,15 @@
       <c r="M137" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N137" s="7"/>
+      <c r="N137" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O137" s="6"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R137" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="7"/>
       <c r="S137" s="6"/>
       <c r="T137" s="7"/>
       <c r="U137" s="6"/>
@@ -11247,15 +11247,15 @@
       <c r="M138" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N138" s="7"/>
+      <c r="N138" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O138" s="6"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R138" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="7"/>
       <c r="S138" s="6"/>
       <c r="T138" s="7"/>
       <c r="U138" s="6"/>
@@ -11307,15 +11307,15 @@
       <c r="M139" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N139" s="7"/>
+      <c r="N139" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O139" s="6"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R139" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P139" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="7"/>
       <c r="S139" s="6"/>
       <c r="T139" s="7"/>
       <c r="U139" s="6"/>
@@ -11367,15 +11367,15 @@
       <c r="M140" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N140" s="7"/>
+      <c r="N140" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O140" s="6"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R140" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P140" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="7"/>
       <c r="S140" s="6"/>
       <c r="T140" s="7"/>
       <c r="U140" s="6"/>
@@ -11427,15 +11427,15 @@
       <c r="M141" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N141" s="7"/>
+      <c r="N141" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O141" s="6"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R141" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P141" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="7"/>
       <c r="S141" s="6"/>
       <c r="T141" s="7"/>
       <c r="U141" s="6"/>
@@ -11487,15 +11487,15 @@
       <c r="M142" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N142" s="7"/>
+      <c r="N142" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O142" s="6"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R142" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P142" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="7"/>
       <c r="S142" s="6"/>
       <c r="T142" s="7"/>
       <c r="U142" s="6"/>
@@ -11547,15 +11547,15 @@
       <c r="M143" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N143" s="7"/>
+      <c r="N143" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O143" s="6"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R143" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P143" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="7"/>
       <c r="S143" s="6"/>
       <c r="T143" s="7"/>
       <c r="U143" s="6"/>
@@ -11607,15 +11607,15 @@
       <c r="M144" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N144" s="7"/>
+      <c r="N144" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O144" s="6"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R144" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P144" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="7"/>
       <c r="S144" s="6"/>
       <c r="T144" s="7"/>
       <c r="U144" s="6"/>
@@ -11667,15 +11667,15 @@
       <c r="M145" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N145" s="7"/>
+      <c r="N145" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O145" s="6"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R145" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P145" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="7"/>
       <c r="S145" s="6"/>
       <c r="T145" s="7"/>
       <c r="U145" s="6"/>
@@ -11727,15 +11727,15 @@
       <c r="M146" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N146" s="7"/>
+      <c r="N146" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O146" s="6"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R146" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P146" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="7"/>
       <c r="S146" s="6"/>
       <c r="T146" s="7"/>
       <c r="U146" s="6"/>
@@ -11787,15 +11787,15 @@
       <c r="M147" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N147" s="7"/>
+      <c r="N147" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O147" s="6"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R147" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="7"/>
       <c r="S147" s="6"/>
       <c r="T147" s="7"/>
       <c r="U147" s="6"/>
@@ -11847,15 +11847,15 @@
       <c r="M148" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N148" s="7"/>
+      <c r="N148" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O148" s="6"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R148" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P148" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="7"/>
       <c r="S148" s="6"/>
       <c r="T148" s="7"/>
       <c r="U148" s="6"/>
@@ -11907,15 +11907,15 @@
       <c r="M149" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N149" s="7"/>
+      <c r="N149" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O149" s="6"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R149" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="7"/>
       <c r="S149" s="6"/>
       <c r="T149" s="7"/>
       <c r="U149" s="6"/>
@@ -11967,15 +11967,15 @@
       <c r="M150" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N150" s="7"/>
+      <c r="N150" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O150" s="6"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R150" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="7"/>
       <c r="S150" s="6"/>
       <c r="T150" s="7"/>
       <c r="U150" s="6"/>
@@ -12027,15 +12027,15 @@
       <c r="M151" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N151" s="7"/>
+      <c r="N151" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O151" s="6"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R151" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="7"/>
       <c r="S151" s="6"/>
       <c r="T151" s="7"/>
       <c r="U151" s="6"/>
@@ -12087,15 +12087,15 @@
       <c r="M152" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N152" s="7"/>
+      <c r="N152" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O152" s="6"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R152" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="7"/>
       <c r="S152" s="6"/>
       <c r="T152" s="7"/>
       <c r="U152" s="6"/>
@@ -12147,15 +12147,15 @@
       <c r="M153" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N153" s="7"/>
+      <c r="N153" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O153" s="6"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R153" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P153" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="7"/>
       <c r="S153" s="6"/>
       <c r="T153" s="7"/>
       <c r="U153" s="6"/>
@@ -12207,15 +12207,15 @@
       <c r="M154" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N154" s="7"/>
+      <c r="N154" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O154" s="6"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R154" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="7"/>
       <c r="S154" s="6"/>
       <c r="T154" s="7"/>
       <c r="U154" s="6"/>
@@ -12267,15 +12267,15 @@
       <c r="M155" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N155" s="7"/>
+      <c r="N155" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O155" s="6"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R155" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="7"/>
       <c r="S155" s="6"/>
       <c r="T155" s="7"/>
       <c r="U155" s="6"/>
@@ -12327,15 +12327,15 @@
       <c r="M156" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N156" s="7"/>
+      <c r="N156" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O156" s="6"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R156" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="7"/>
       <c r="S156" s="6"/>
       <c r="T156" s="7"/>
       <c r="U156" s="6"/>
@@ -12387,15 +12387,15 @@
       <c r="M157" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N157" s="3"/>
+      <c r="N157" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O157" s="2"/>
-      <c r="P157" s="3"/>
-      <c r="Q157" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R157" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="3"/>
       <c r="S157" s="2"/>
       <c r="T157" s="3"/>
       <c r="U157" s="2"/>
@@ -12447,15 +12447,15 @@
       <c r="M158" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N158" s="7"/>
+      <c r="N158" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O158" s="6"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R158" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="7"/>
       <c r="S158" s="6"/>
       <c r="T158" s="7"/>
       <c r="U158" s="6"/>
@@ -12507,15 +12507,15 @@
       <c r="M159" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N159" s="3"/>
+      <c r="N159" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O159" s="2"/>
-      <c r="P159" s="3"/>
-      <c r="Q159" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R159" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="3"/>
       <c r="S159" s="2"/>
       <c r="T159" s="3"/>
       <c r="U159" s="2"/>
@@ -12571,15 +12571,15 @@
       <c r="M160" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N160" s="7"/>
+      <c r="N160" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O160" s="6"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R160" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P160" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
       <c r="S160" s="6"/>
       <c r="T160" s="7"/>
       <c r="U160" s="6"/>
@@ -12635,15 +12635,15 @@
       <c r="M161" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N161" s="7"/>
+      <c r="N161" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O161" s="6"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R161" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="7"/>
       <c r="S161" s="6"/>
       <c r="T161" s="7"/>
       <c r="U161" s="6"/>
@@ -12699,15 +12699,15 @@
       <c r="M162" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N162" s="7"/>
+      <c r="N162" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O162" s="6"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R162" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P162" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="7"/>
       <c r="S162" s="6"/>
       <c r="T162" s="7"/>
       <c r="U162" s="6"/>
@@ -12763,15 +12763,15 @@
       <c r="M163" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N163" s="3"/>
+      <c r="N163" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O163" s="2"/>
-      <c r="P163" s="3"/>
-      <c r="Q163" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R163" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="3"/>
       <c r="S163" s="2"/>
       <c r="T163" s="3"/>
       <c r="U163" s="2"/>
@@ -12827,15 +12827,15 @@
       <c r="M164" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N164" s="7"/>
+      <c r="N164" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O164" s="6"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R164" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P164" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="7"/>
       <c r="S164" s="6"/>
       <c r="T164" s="7"/>
       <c r="U164" s="6"/>
@@ -12891,15 +12891,15 @@
       <c r="M165" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N165" s="7"/>
+      <c r="N165" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O165" s="6"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R165" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="7"/>
       <c r="S165" s="6"/>
       <c r="T165" s="7"/>
       <c r="U165" s="6"/>
@@ -12957,22 +12957,22 @@
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="2"/>
-      <c r="P166" s="3"/>
+      <c r="P166" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q166" s="2"/>
-      <c r="R166" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R166" s="3"/>
       <c r="S166" s="2"/>
-      <c r="T166" s="3"/>
+      <c r="T166" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U166" s="2"/>
       <c r="V166" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W166" s="2"/>
       <c r="X166" s="3"/>
-      <c r="Y166" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
       <c r="AA166" s="2" t="s">
         <v>384</v>
@@ -13021,20 +13021,20 @@
       </c>
       <c r="N167" s="3"/>
       <c r="O167" s="2"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q167" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R167" s="3"/>
       <c r="S167" s="2"/>
       <c r="T167" s="3"/>
       <c r="U167" s="2"/>
       <c r="V167" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W167" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="W167" s="2"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
@@ -13083,20 +13083,20 @@
       </c>
       <c r="N168" s="7"/>
       <c r="O168" s="6"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P168" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q168" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R168" s="7"/>
       <c r="S168" s="6"/>
       <c r="T168" s="7"/>
       <c r="U168" s="6"/>
       <c r="V168" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W168" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W168" s="6"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
       <c r="Z168" s="6"/>
@@ -13143,20 +13143,20 @@
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="6"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P169" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q169" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R169" s="7"/>
       <c r="S169" s="6"/>
       <c r="T169" s="7"/>
       <c r="U169" s="6"/>
       <c r="V169" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W169" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W169" s="6"/>
       <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
@@ -13203,20 +13203,20 @@
       </c>
       <c r="N170" s="7"/>
       <c r="O170" s="6"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P170" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q170" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R170" s="7"/>
       <c r="S170" s="6"/>
       <c r="T170" s="7"/>
       <c r="U170" s="6"/>
       <c r="V170" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W170" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W170" s="6"/>
       <c r="X170" s="7"/>
       <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
@@ -13267,20 +13267,20 @@
       </c>
       <c r="N171" s="7"/>
       <c r="O171" s="6"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P171" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q171" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R171" s="7"/>
       <c r="S171" s="6"/>
       <c r="T171" s="7"/>
       <c r="U171" s="6"/>
       <c r="V171" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W171" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W171" s="6"/>
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
@@ -13331,20 +13331,20 @@
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="6"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P172" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q172" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R172" s="7"/>
       <c r="S172" s="6"/>
       <c r="T172" s="7"/>
       <c r="U172" s="6"/>
       <c r="V172" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W172" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W172" s="6"/>
       <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
@@ -13393,20 +13393,20 @@
       </c>
       <c r="N173" s="7"/>
       <c r="O173" s="6"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P173" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q173" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R173" s="7"/>
       <c r="S173" s="6"/>
       <c r="T173" s="7"/>
       <c r="U173" s="6"/>
       <c r="V173" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W173" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W173" s="6"/>
       <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
@@ -13453,20 +13453,20 @@
       </c>
       <c r="N174" s="7"/>
       <c r="O174" s="6"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P174" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q174" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R174" s="7"/>
       <c r="S174" s="6"/>
       <c r="T174" s="7"/>
       <c r="U174" s="6"/>
       <c r="V174" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W174" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W174" s="6"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
@@ -13513,20 +13513,20 @@
       </c>
       <c r="N175" s="7"/>
       <c r="O175" s="6"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P175" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q175" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R175" s="7"/>
       <c r="S175" s="6"/>
       <c r="T175" s="7"/>
       <c r="U175" s="6"/>
       <c r="V175" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W175" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W175" s="6"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
@@ -13577,20 +13577,20 @@
       </c>
       <c r="N176" s="7"/>
       <c r="O176" s="6"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P176" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q176" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R176" s="7"/>
       <c r="S176" s="6"/>
       <c r="T176" s="7"/>
       <c r="U176" s="6"/>
       <c r="V176" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W176" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W176" s="6"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="6"/>
       <c r="Z176" s="6"/>
@@ -13641,20 +13641,20 @@
       </c>
       <c r="N177" s="3"/>
       <c r="O177" s="2"/>
-      <c r="P177" s="3"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R177" s="3"/>
       <c r="S177" s="2"/>
       <c r="T177" s="3"/>
       <c r="U177" s="2"/>
       <c r="V177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W177" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="W177" s="2"/>
       <c r="X177" s="3"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
@@ -13703,20 +13703,20 @@
       </c>
       <c r="N178" s="7"/>
       <c r="O178" s="6"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P178" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q178" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R178" s="7"/>
       <c r="S178" s="6"/>
       <c r="T178" s="7"/>
       <c r="U178" s="6"/>
       <c r="V178" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W178" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W178" s="6"/>
       <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
@@ -13763,20 +13763,20 @@
       </c>
       <c r="N179" s="7"/>
       <c r="O179" s="6"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P179" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q179" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R179" s="7"/>
       <c r="S179" s="6"/>
       <c r="T179" s="7"/>
       <c r="U179" s="6"/>
       <c r="V179" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W179" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W179" s="6"/>
       <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
       <c r="Z179" s="6"/>
@@ -13823,20 +13823,20 @@
       </c>
       <c r="N180" s="7"/>
       <c r="O180" s="6"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P180" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q180" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R180" s="7"/>
       <c r="S180" s="6"/>
       <c r="T180" s="7"/>
       <c r="U180" s="6"/>
       <c r="V180" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W180" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W180" s="6"/>
       <c r="X180" s="7"/>
       <c r="Y180" s="6"/>
       <c r="Z180" s="6"/>
@@ -13887,20 +13887,20 @@
       </c>
       <c r="N181" s="7"/>
       <c r="O181" s="6"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P181" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q181" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R181" s="7"/>
       <c r="S181" s="6"/>
       <c r="T181" s="7"/>
       <c r="U181" s="6"/>
       <c r="V181" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W181" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W181" s="6"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
       <c r="Z181" s="6"/>
@@ -13951,20 +13951,20 @@
       </c>
       <c r="N182" s="7"/>
       <c r="O182" s="6"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P182" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q182" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R182" s="7"/>
       <c r="S182" s="6"/>
       <c r="T182" s="7"/>
       <c r="U182" s="6"/>
       <c r="V182" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W182" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W182" s="6"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
       <c r="Z182" s="6"/>
@@ -14013,20 +14013,20 @@
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="6"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P183" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q183" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R183" s="7"/>
       <c r="S183" s="6"/>
       <c r="T183" s="7"/>
       <c r="U183" s="6"/>
       <c r="V183" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W183" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W183" s="6"/>
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
       <c r="Z183" s="6"/>
@@ -14073,20 +14073,20 @@
       </c>
       <c r="N184" s="7"/>
       <c r="O184" s="6"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P184" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q184" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R184" s="7"/>
       <c r="S184" s="6"/>
       <c r="T184" s="7"/>
       <c r="U184" s="6"/>
       <c r="V184" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W184" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W184" s="6"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
@@ -14133,20 +14133,20 @@
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="6"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P185" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q185" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R185" s="7"/>
       <c r="S185" s="6"/>
       <c r="T185" s="7"/>
       <c r="U185" s="6"/>
       <c r="V185" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W185" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W185" s="6"/>
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -14197,20 +14197,20 @@
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="6"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P186" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q186" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R186" s="7"/>
       <c r="S186" s="6"/>
       <c r="T186" s="7"/>
       <c r="U186" s="6"/>
       <c r="V186" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W186" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="W186" s="6"/>
       <c r="X186" s="7"/>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
@@ -14261,17 +14261,17 @@
       </c>
       <c r="N187" s="3"/>
       <c r="O187" s="2"/>
-      <c r="P187" s="4" t="s">
-        <v>32</v>
+      <c r="P187" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="R187" s="3"/>
-      <c r="S187" s="2"/>
+      <c r="S187" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T187" s="3"/>
       <c r="U187" s="2"/>
-      <c r="V187" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V187" s="3"/>
       <c r="W187" s="2"/>
       <c r="X187" s="3"/>
       <c r="Y187" s="2"/>
@@ -14319,17 +14319,17 @@
       </c>
       <c r="N188" s="7"/>
       <c r="O188" s="6"/>
-      <c r="P188" s="8" t="s">
-        <v>32</v>
+      <c r="P188" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q188" s="6"/>
       <c r="R188" s="7"/>
-      <c r="S188" s="6"/>
+      <c r="S188" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T188" s="7"/>
       <c r="U188" s="6"/>
-      <c r="V188" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V188" s="7"/>
       <c r="W188" s="6"/>
       <c r="X188" s="7"/>
       <c r="Y188" s="6"/>
@@ -14377,17 +14377,17 @@
       </c>
       <c r="N189" s="7"/>
       <c r="O189" s="6"/>
-      <c r="P189" s="8" t="s">
-        <v>32</v>
+      <c r="P189" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q189" s="6"/>
       <c r="R189" s="7"/>
-      <c r="S189" s="6"/>
+      <c r="S189" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T189" s="7"/>
       <c r="U189" s="6"/>
-      <c r="V189" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V189" s="7"/>
       <c r="W189" s="6"/>
       <c r="X189" s="7"/>
       <c r="Y189" s="6"/>
@@ -14435,17 +14435,17 @@
       </c>
       <c r="N190" s="7"/>
       <c r="O190" s="6"/>
-      <c r="P190" s="8" t="s">
-        <v>32</v>
+      <c r="P190" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q190" s="6"/>
       <c r="R190" s="7"/>
-      <c r="S190" s="6"/>
+      <c r="S190" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T190" s="7"/>
       <c r="U190" s="6"/>
-      <c r="V190" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V190" s="7"/>
       <c r="W190" s="6"/>
       <c r="X190" s="7"/>
       <c r="Y190" s="6"/>
@@ -14493,17 +14493,17 @@
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="6"/>
-      <c r="P191" s="8" t="s">
-        <v>32</v>
+      <c r="P191" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q191" s="6"/>
       <c r="R191" s="7"/>
-      <c r="S191" s="6"/>
+      <c r="S191" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T191" s="7"/>
       <c r="U191" s="6"/>
-      <c r="V191" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V191" s="7"/>
       <c r="W191" s="6"/>
       <c r="X191" s="7"/>
       <c r="Y191" s="6"/>
@@ -14551,17 +14551,17 @@
       </c>
       <c r="N192" s="7"/>
       <c r="O192" s="6"/>
-      <c r="P192" s="8" t="s">
-        <v>32</v>
+      <c r="P192" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q192" s="6"/>
       <c r="R192" s="7"/>
-      <c r="S192" s="6"/>
+      <c r="S192" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T192" s="7"/>
       <c r="U192" s="6"/>
-      <c r="V192" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V192" s="7"/>
       <c r="W192" s="6"/>
       <c r="X192" s="7"/>
       <c r="Y192" s="6"/>
@@ -14609,17 +14609,17 @@
       </c>
       <c r="N193" s="7"/>
       <c r="O193" s="6"/>
-      <c r="P193" s="8" t="s">
-        <v>32</v>
+      <c r="P193" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q193" s="6"/>
       <c r="R193" s="7"/>
-      <c r="S193" s="6"/>
+      <c r="S193" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T193" s="7"/>
       <c r="U193" s="6"/>
-      <c r="V193" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V193" s="7"/>
       <c r="W193" s="6"/>
       <c r="X193" s="7"/>
       <c r="Y193" s="6"/>
@@ -14667,17 +14667,17 @@
       </c>
       <c r="N194" s="7"/>
       <c r="O194" s="6"/>
-      <c r="P194" s="8" t="s">
-        <v>32</v>
+      <c r="P194" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q194" s="6"/>
       <c r="R194" s="7"/>
-      <c r="S194" s="6"/>
+      <c r="S194" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T194" s="7"/>
       <c r="U194" s="6"/>
-      <c r="V194" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V194" s="7"/>
       <c r="W194" s="6"/>
       <c r="X194" s="7"/>
       <c r="Y194" s="6"/>
@@ -14725,17 +14725,17 @@
       </c>
       <c r="N195" s="7"/>
       <c r="O195" s="6"/>
-      <c r="P195" s="8" t="s">
-        <v>32</v>
+      <c r="P195" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q195" s="6"/>
       <c r="R195" s="7"/>
-      <c r="S195" s="6"/>
+      <c r="S195" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T195" s="7"/>
       <c r="U195" s="6"/>
-      <c r="V195" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V195" s="7"/>
       <c r="W195" s="6"/>
       <c r="X195" s="7"/>
       <c r="Y195" s="6"/>
@@ -14783,17 +14783,17 @@
       </c>
       <c r="N196" s="7"/>
       <c r="O196" s="6"/>
-      <c r="P196" s="8" t="s">
-        <v>32</v>
+      <c r="P196" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q196" s="6"/>
       <c r="R196" s="7"/>
-      <c r="S196" s="6"/>
+      <c r="S196" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T196" s="7"/>
       <c r="U196" s="6"/>
-      <c r="V196" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V196" s="7"/>
       <c r="W196" s="6"/>
       <c r="X196" s="7"/>
       <c r="Y196" s="6"/>
@@ -14841,17 +14841,17 @@
       </c>
       <c r="N197" s="7"/>
       <c r="O197" s="6"/>
-      <c r="P197" s="8" t="s">
-        <v>32</v>
+      <c r="P197" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q197" s="6"/>
       <c r="R197" s="7"/>
-      <c r="S197" s="6"/>
+      <c r="S197" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T197" s="7"/>
       <c r="U197" s="6"/>
-      <c r="V197" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V197" s="7"/>
       <c r="W197" s="6"/>
       <c r="X197" s="7"/>
       <c r="Y197" s="6"/>
@@ -14899,17 +14899,17 @@
       </c>
       <c r="N198" s="7"/>
       <c r="O198" s="6"/>
-      <c r="P198" s="8" t="s">
-        <v>32</v>
+      <c r="P198" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q198" s="6"/>
       <c r="R198" s="7"/>
-      <c r="S198" s="6"/>
+      <c r="S198" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T198" s="7"/>
       <c r="U198" s="6"/>
-      <c r="V198" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V198" s="7"/>
       <c r="W198" s="6"/>
       <c r="X198" s="7"/>
       <c r="Y198" s="6"/>
@@ -14957,17 +14957,17 @@
       </c>
       <c r="N199" s="7"/>
       <c r="O199" s="6"/>
-      <c r="P199" s="8" t="s">
-        <v>32</v>
+      <c r="P199" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q199" s="6"/>
       <c r="R199" s="7"/>
-      <c r="S199" s="6"/>
+      <c r="S199" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T199" s="7"/>
       <c r="U199" s="6"/>
-      <c r="V199" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V199" s="7"/>
       <c r="W199" s="6"/>
       <c r="X199" s="7"/>
       <c r="Y199" s="6"/>
@@ -15015,17 +15015,17 @@
       </c>
       <c r="N200" s="7"/>
       <c r="O200" s="6"/>
-      <c r="P200" s="8" t="s">
-        <v>32</v>
+      <c r="P200" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q200" s="6"/>
       <c r="R200" s="7"/>
-      <c r="S200" s="6"/>
+      <c r="S200" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T200" s="7"/>
       <c r="U200" s="6"/>
-      <c r="V200" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V200" s="7"/>
       <c r="W200" s="6"/>
       <c r="X200" s="7"/>
       <c r="Y200" s="6"/>
@@ -15073,17 +15073,17 @@
       </c>
       <c r="N201" s="7"/>
       <c r="O201" s="6"/>
-      <c r="P201" s="8" t="s">
-        <v>32</v>
+      <c r="P201" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q201" s="6"/>
       <c r="R201" s="7"/>
-      <c r="S201" s="6"/>
+      <c r="S201" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T201" s="7"/>
       <c r="U201" s="6"/>
-      <c r="V201" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V201" s="7"/>
       <c r="W201" s="6"/>
       <c r="X201" s="7"/>
       <c r="Y201" s="6"/>
@@ -15131,17 +15131,17 @@
       </c>
       <c r="N202" s="7"/>
       <c r="O202" s="6"/>
-      <c r="P202" s="8" t="s">
-        <v>32</v>
+      <c r="P202" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q202" s="6"/>
       <c r="R202" s="7"/>
-      <c r="S202" s="6"/>
+      <c r="S202" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T202" s="7"/>
       <c r="U202" s="6"/>
-      <c r="V202" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V202" s="7"/>
       <c r="W202" s="6"/>
       <c r="X202" s="7"/>
       <c r="Y202" s="6"/>
@@ -15189,17 +15189,17 @@
       </c>
       <c r="N203" s="7"/>
       <c r="O203" s="6"/>
-      <c r="P203" s="8" t="s">
-        <v>32</v>
+      <c r="P203" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q203" s="6"/>
       <c r="R203" s="7"/>
-      <c r="S203" s="6"/>
+      <c r="S203" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T203" s="7"/>
       <c r="U203" s="6"/>
-      <c r="V203" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V203" s="7"/>
       <c r="W203" s="6"/>
       <c r="X203" s="7"/>
       <c r="Y203" s="6"/>
@@ -15247,17 +15247,17 @@
       </c>
       <c r="N204" s="7"/>
       <c r="O204" s="6"/>
-      <c r="P204" s="8" t="s">
-        <v>32</v>
+      <c r="P204" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q204" s="6"/>
       <c r="R204" s="7"/>
-      <c r="S204" s="6"/>
+      <c r="S204" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T204" s="7"/>
       <c r="U204" s="6"/>
-      <c r="V204" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V204" s="7"/>
       <c r="W204" s="6"/>
       <c r="X204" s="7"/>
       <c r="Y204" s="6"/>
@@ -15305,17 +15305,17 @@
       </c>
       <c r="N205" s="7"/>
       <c r="O205" s="6"/>
-      <c r="P205" s="8" t="s">
-        <v>32</v>
+      <c r="P205" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q205" s="6"/>
       <c r="R205" s="7"/>
-      <c r="S205" s="6"/>
+      <c r="S205" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T205" s="7"/>
       <c r="U205" s="6"/>
-      <c r="V205" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V205" s="7"/>
       <c r="W205" s="6"/>
       <c r="X205" s="7"/>
       <c r="Y205" s="6"/>
@@ -15363,17 +15363,17 @@
       </c>
       <c r="N206" s="7"/>
       <c r="O206" s="6"/>
-      <c r="P206" s="8" t="s">
-        <v>32</v>
+      <c r="P206" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q206" s="6"/>
       <c r="R206" s="7"/>
-      <c r="S206" s="6"/>
+      <c r="S206" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T206" s="7"/>
       <c r="U206" s="6"/>
-      <c r="V206" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V206" s="7"/>
       <c r="W206" s="6"/>
       <c r="X206" s="7"/>
       <c r="Y206" s="6"/>
@@ -15421,17 +15421,17 @@
       </c>
       <c r="N207" s="7"/>
       <c r="O207" s="6"/>
-      <c r="P207" s="8" t="s">
-        <v>32</v>
+      <c r="P207" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q207" s="6"/>
       <c r="R207" s="7"/>
-      <c r="S207" s="6"/>
+      <c r="S207" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T207" s="7"/>
       <c r="U207" s="6"/>
-      <c r="V207" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V207" s="7"/>
       <c r="W207" s="6"/>
       <c r="X207" s="7"/>
       <c r="Y207" s="6"/>
@@ -15479,17 +15479,17 @@
       </c>
       <c r="N208" s="7"/>
       <c r="O208" s="6"/>
-      <c r="P208" s="8" t="s">
-        <v>32</v>
+      <c r="P208" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q208" s="6"/>
       <c r="R208" s="7"/>
-      <c r="S208" s="6"/>
+      <c r="S208" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T208" s="7"/>
       <c r="U208" s="6"/>
-      <c r="V208" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V208" s="7"/>
       <c r="W208" s="6"/>
       <c r="X208" s="7"/>
       <c r="Y208" s="6"/>
@@ -15537,17 +15537,17 @@
       </c>
       <c r="N209" s="7"/>
       <c r="O209" s="6"/>
-      <c r="P209" s="8" t="s">
-        <v>32</v>
+      <c r="P209" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q209" s="6"/>
       <c r="R209" s="7"/>
-      <c r="S209" s="6"/>
+      <c r="S209" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T209" s="7"/>
       <c r="U209" s="6"/>
-      <c r="V209" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V209" s="7"/>
       <c r="W209" s="6"/>
       <c r="X209" s="7"/>
       <c r="Y209" s="6"/>
@@ -15595,17 +15595,17 @@
       </c>
       <c r="N210" s="7"/>
       <c r="O210" s="6"/>
-      <c r="P210" s="8" t="s">
-        <v>32</v>
+      <c r="P210" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q210" s="6"/>
       <c r="R210" s="7"/>
-      <c r="S210" s="6"/>
+      <c r="S210" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T210" s="7"/>
       <c r="U210" s="6"/>
-      <c r="V210" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V210" s="7"/>
       <c r="W210" s="6"/>
       <c r="X210" s="7"/>
       <c r="Y210" s="6"/>
@@ -15653,17 +15653,17 @@
       </c>
       <c r="N211" s="7"/>
       <c r="O211" s="6"/>
-      <c r="P211" s="8" t="s">
-        <v>32</v>
+      <c r="P211" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q211" s="6"/>
       <c r="R211" s="7"/>
-      <c r="S211" s="6"/>
+      <c r="S211" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T211" s="7"/>
       <c r="U211" s="6"/>
-      <c r="V211" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V211" s="7"/>
       <c r="W211" s="6"/>
       <c r="X211" s="7"/>
       <c r="Y211" s="6"/>
@@ -15711,17 +15711,17 @@
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="2"/>
-      <c r="P212" s="4" t="s">
-        <v>32</v>
+      <c r="P212" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" s="3"/>
-      <c r="S212" s="2"/>
+      <c r="S212" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T212" s="3"/>
       <c r="U212" s="2"/>
-      <c r="V212" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V212" s="3"/>
       <c r="W212" s="2"/>
       <c r="X212" s="3"/>
       <c r="Y212" s="2"/>
@@ -15773,17 +15773,17 @@
       </c>
       <c r="N213" s="7"/>
       <c r="O213" s="6"/>
-      <c r="P213" s="8" t="s">
-        <v>32</v>
+      <c r="P213" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q213" s="6"/>
       <c r="R213" s="7"/>
-      <c r="S213" s="6"/>
+      <c r="S213" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T213" s="7"/>
       <c r="U213" s="6"/>
-      <c r="V213" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V213" s="7"/>
       <c r="W213" s="6"/>
       <c r="X213" s="7"/>
       <c r="Y213" s="6"/>
@@ -15835,17 +15835,17 @@
       </c>
       <c r="N214" s="7"/>
       <c r="O214" s="6"/>
-      <c r="P214" s="8" t="s">
-        <v>32</v>
+      <c r="P214" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q214" s="6"/>
       <c r="R214" s="7"/>
-      <c r="S214" s="6"/>
+      <c r="S214" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T214" s="7"/>
       <c r="U214" s="6"/>
-      <c r="V214" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V214" s="7"/>
       <c r="W214" s="6"/>
       <c r="X214" s="7"/>
       <c r="Y214" s="6"/>
@@ -15897,17 +15897,17 @@
       </c>
       <c r="N215" s="7"/>
       <c r="O215" s="6"/>
-      <c r="P215" s="8" t="s">
-        <v>32</v>
+      <c r="P215" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q215" s="6"/>
       <c r="R215" s="7"/>
-      <c r="S215" s="6"/>
+      <c r="S215" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T215" s="7"/>
       <c r="U215" s="6"/>
-      <c r="V215" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V215" s="7"/>
       <c r="W215" s="6"/>
       <c r="X215" s="7"/>
       <c r="Y215" s="6"/>
@@ -15959,17 +15959,17 @@
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="2"/>
-      <c r="P216" s="4" t="s">
-        <v>32</v>
+      <c r="P216" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" s="3"/>
-      <c r="S216" s="2"/>
+      <c r="S216" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T216" s="3"/>
       <c r="U216" s="2"/>
-      <c r="V216" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V216" s="3"/>
       <c r="W216" s="2"/>
       <c r="X216" s="3"/>
       <c r="Y216" s="2"/>
@@ -16021,17 +16021,17 @@
       </c>
       <c r="N217" s="7"/>
       <c r="O217" s="6"/>
-      <c r="P217" s="8" t="s">
-        <v>32</v>
+      <c r="P217" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q217" s="6"/>
       <c r="R217" s="7"/>
-      <c r="S217" s="6"/>
+      <c r="S217" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T217" s="7"/>
       <c r="U217" s="6"/>
-      <c r="V217" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V217" s="7"/>
       <c r="W217" s="6"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="6"/>
@@ -16083,17 +16083,17 @@
       </c>
       <c r="N218" s="7"/>
       <c r="O218" s="6"/>
-      <c r="P218" s="8" t="s">
-        <v>32</v>
+      <c r="P218" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q218" s="6"/>
       <c r="R218" s="7"/>
-      <c r="S218" s="6"/>
+      <c r="S218" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T218" s="7"/>
       <c r="U218" s="6"/>
-      <c r="V218" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V218" s="7"/>
       <c r="W218" s="6"/>
       <c r="X218" s="7"/>
       <c r="Y218" s="6"/>
@@ -16145,17 +16145,17 @@
       </c>
       <c r="N219" s="7"/>
       <c r="O219" s="6"/>
-      <c r="P219" s="8" t="s">
-        <v>32</v>
+      <c r="P219" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q219" s="6"/>
       <c r="R219" s="7"/>
-      <c r="S219" s="6"/>
+      <c r="S219" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T219" s="7"/>
       <c r="U219" s="6"/>
-      <c r="V219" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V219" s="7"/>
       <c r="W219" s="6"/>
       <c r="X219" s="7"/>
       <c r="Y219" s="6"/>
@@ -16207,17 +16207,17 @@
       </c>
       <c r="N220" s="7"/>
       <c r="O220" s="6"/>
-      <c r="P220" s="8" t="s">
-        <v>32</v>
+      <c r="P220" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q220" s="6"/>
       <c r="R220" s="7"/>
-      <c r="S220" s="6"/>
+      <c r="S220" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T220" s="7"/>
       <c r="U220" s="6"/>
-      <c r="V220" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V220" s="7"/>
       <c r="W220" s="6"/>
       <c r="X220" s="7"/>
       <c r="Y220" s="6"/>
@@ -16269,17 +16269,17 @@
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="2"/>
-      <c r="P221" s="4" t="s">
-        <v>32</v>
+      <c r="P221" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" s="3"/>
-      <c r="S221" s="2"/>
+      <c r="S221" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T221" s="3"/>
       <c r="U221" s="2"/>
-      <c r="V221" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V221" s="3"/>
       <c r="W221" s="2"/>
       <c r="X221" s="3"/>
       <c r="Y221" s="2"/>
@@ -16331,17 +16331,17 @@
       </c>
       <c r="N222" s="7"/>
       <c r="O222" s="6"/>
-      <c r="P222" s="8" t="s">
-        <v>32</v>
+      <c r="P222" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q222" s="6"/>
       <c r="R222" s="7"/>
-      <c r="S222" s="6"/>
+      <c r="S222" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T222" s="7"/>
       <c r="U222" s="6"/>
-      <c r="V222" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V222" s="7"/>
       <c r="W222" s="6"/>
       <c r="X222" s="7"/>
       <c r="Y222" s="6"/>
@@ -16393,17 +16393,17 @@
       </c>
       <c r="N223" s="7"/>
       <c r="O223" s="6"/>
-      <c r="P223" s="8" t="s">
-        <v>32</v>
+      <c r="P223" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q223" s="6"/>
       <c r="R223" s="7"/>
-      <c r="S223" s="6"/>
+      <c r="S223" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T223" s="7"/>
       <c r="U223" s="6"/>
-      <c r="V223" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V223" s="7"/>
       <c r="W223" s="6"/>
       <c r="X223" s="7"/>
       <c r="Y223" s="6"/>
@@ -16455,17 +16455,17 @@
       </c>
       <c r="N224" s="7"/>
       <c r="O224" s="6"/>
-      <c r="P224" s="8" t="s">
-        <v>32</v>
+      <c r="P224" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q224" s="6"/>
       <c r="R224" s="7"/>
-      <c r="S224" s="6"/>
+      <c r="S224" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T224" s="7"/>
       <c r="U224" s="6"/>
-      <c r="V224" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V224" s="7"/>
       <c r="W224" s="6"/>
       <c r="X224" s="7"/>
       <c r="Y224" s="6"/>
@@ -16517,17 +16517,17 @@
       </c>
       <c r="N225" s="3"/>
       <c r="O225" s="2"/>
-      <c r="P225" s="4" t="s">
-        <v>32</v>
+      <c r="P225" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q225" s="2"/>
       <c r="R225" s="3"/>
-      <c r="S225" s="2"/>
+      <c r="S225" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="T225" s="3"/>
       <c r="U225" s="2"/>
-      <c r="V225" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V225" s="3"/>
       <c r="W225" s="2"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="2"/>
@@ -16575,17 +16575,17 @@
       </c>
       <c r="N226" s="7"/>
       <c r="O226" s="6"/>
-      <c r="P226" s="8" t="s">
-        <v>32</v>
+      <c r="P226" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q226" s="6"/>
       <c r="R226" s="7"/>
-      <c r="S226" s="6"/>
+      <c r="S226" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T226" s="7"/>
       <c r="U226" s="6"/>
-      <c r="V226" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V226" s="7"/>
       <c r="W226" s="6"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="6"/>
@@ -16633,17 +16633,17 @@
       </c>
       <c r="N227" s="7"/>
       <c r="O227" s="6"/>
-      <c r="P227" s="8" t="s">
-        <v>32</v>
+      <c r="P227" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q227" s="6"/>
       <c r="R227" s="7"/>
-      <c r="S227" s="6"/>
+      <c r="S227" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T227" s="7"/>
       <c r="U227" s="6"/>
-      <c r="V227" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V227" s="7"/>
       <c r="W227" s="6"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="6"/>
@@ -16691,17 +16691,17 @@
       </c>
       <c r="N228" s="7"/>
       <c r="O228" s="6"/>
-      <c r="P228" s="8" t="s">
-        <v>32</v>
+      <c r="P228" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q228" s="6"/>
       <c r="R228" s="7"/>
-      <c r="S228" s="6"/>
+      <c r="S228" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T228" s="7"/>
       <c r="U228" s="6"/>
-      <c r="V228" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V228" s="7"/>
       <c r="W228" s="6"/>
       <c r="X228" s="7"/>
       <c r="Y228" s="6"/>
@@ -16749,17 +16749,17 @@
       </c>
       <c r="N229" s="7"/>
       <c r="O229" s="6"/>
-      <c r="P229" s="8" t="s">
-        <v>32</v>
+      <c r="P229" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q229" s="6"/>
       <c r="R229" s="7"/>
-      <c r="S229" s="6"/>
+      <c r="S229" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T229" s="7"/>
       <c r="U229" s="6"/>
-      <c r="V229" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V229" s="7"/>
       <c r="W229" s="6"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="6"/>
@@ -16807,17 +16807,17 @@
       </c>
       <c r="N230" s="7"/>
       <c r="O230" s="6"/>
-      <c r="P230" s="8" t="s">
-        <v>32</v>
+      <c r="P230" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q230" s="6"/>
       <c r="R230" s="7"/>
-      <c r="S230" s="6"/>
+      <c r="S230" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T230" s="7"/>
       <c r="U230" s="6"/>
-      <c r="V230" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V230" s="7"/>
       <c r="W230" s="6"/>
       <c r="X230" s="7"/>
       <c r="Y230" s="6"/>
@@ -16865,17 +16865,17 @@
       </c>
       <c r="N231" s="7"/>
       <c r="O231" s="6"/>
-      <c r="P231" s="8" t="s">
-        <v>32</v>
+      <c r="P231" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q231" s="6"/>
       <c r="R231" s="7"/>
-      <c r="S231" s="6"/>
+      <c r="S231" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T231" s="7"/>
       <c r="U231" s="6"/>
-      <c r="V231" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V231" s="7"/>
       <c r="W231" s="6"/>
       <c r="X231" s="7"/>
       <c r="Y231" s="6"/>
@@ -16923,17 +16923,17 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="6"/>
-      <c r="P232" s="8" t="s">
-        <v>32</v>
+      <c r="P232" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q232" s="6"/>
       <c r="R232" s="7"/>
-      <c r="S232" s="6"/>
+      <c r="S232" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T232" s="7"/>
       <c r="U232" s="6"/>
-      <c r="V232" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V232" s="7"/>
       <c r="W232" s="6"/>
       <c r="X232" s="7"/>
       <c r="Y232" s="6"/>
@@ -16981,17 +16981,17 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="6"/>
-      <c r="P233" s="8" t="s">
-        <v>32</v>
+      <c r="P233" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q233" s="6"/>
       <c r="R233" s="7"/>
-      <c r="S233" s="6"/>
+      <c r="S233" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T233" s="7"/>
       <c r="U233" s="6"/>
-      <c r="V233" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V233" s="7"/>
       <c r="W233" s="6"/>
       <c r="X233" s="7"/>
       <c r="Y233" s="6"/>
@@ -17039,17 +17039,17 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="6"/>
-      <c r="P234" s="8" t="s">
-        <v>32</v>
+      <c r="P234" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q234" s="6"/>
       <c r="R234" s="7"/>
-      <c r="S234" s="6"/>
+      <c r="S234" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T234" s="7"/>
       <c r="U234" s="6"/>
-      <c r="V234" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V234" s="7"/>
       <c r="W234" s="6"/>
       <c r="X234" s="7"/>
       <c r="Y234" s="6"/>
@@ -17097,17 +17097,17 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="6"/>
-      <c r="P235" s="8" t="s">
-        <v>32</v>
+      <c r="P235" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q235" s="6"/>
       <c r="R235" s="7"/>
-      <c r="S235" s="6"/>
+      <c r="S235" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T235" s="7"/>
       <c r="U235" s="6"/>
-      <c r="V235" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V235" s="7"/>
       <c r="W235" s="6"/>
       <c r="X235" s="7"/>
       <c r="Y235" s="6"/>
@@ -17155,17 +17155,17 @@
       </c>
       <c r="N236" s="7"/>
       <c r="O236" s="6"/>
-      <c r="P236" s="8" t="s">
-        <v>32</v>
+      <c r="P236" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q236" s="6"/>
       <c r="R236" s="7"/>
-      <c r="S236" s="6"/>
+      <c r="S236" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T236" s="7"/>
       <c r="U236" s="6"/>
-      <c r="V236" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V236" s="7"/>
       <c r="W236" s="6"/>
       <c r="X236" s="7"/>
       <c r="Y236" s="6"/>
@@ -17213,17 +17213,17 @@
       </c>
       <c r="N237" s="7"/>
       <c r="O237" s="6"/>
-      <c r="P237" s="8" t="s">
-        <v>32</v>
+      <c r="P237" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q237" s="6"/>
       <c r="R237" s="7"/>
-      <c r="S237" s="6"/>
+      <c r="S237" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T237" s="7"/>
       <c r="U237" s="6"/>
-      <c r="V237" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V237" s="7"/>
       <c r="W237" s="6"/>
       <c r="X237" s="7"/>
       <c r="Y237" s="6"/>
@@ -17271,17 +17271,17 @@
       </c>
       <c r="N238" s="7"/>
       <c r="O238" s="6"/>
-      <c r="P238" s="8" t="s">
-        <v>32</v>
+      <c r="P238" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q238" s="6"/>
       <c r="R238" s="7"/>
-      <c r="S238" s="6"/>
+      <c r="S238" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T238" s="7"/>
       <c r="U238" s="6"/>
-      <c r="V238" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V238" s="7"/>
       <c r="W238" s="6"/>
       <c r="X238" s="7"/>
       <c r="Y238" s="6"/>
@@ -17329,17 +17329,17 @@
       </c>
       <c r="N239" s="7"/>
       <c r="O239" s="6"/>
-      <c r="P239" s="8" t="s">
-        <v>32</v>
+      <c r="P239" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q239" s="6"/>
       <c r="R239" s="7"/>
-      <c r="S239" s="6"/>
+      <c r="S239" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T239" s="7"/>
       <c r="U239" s="6"/>
-      <c r="V239" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V239" s="7"/>
       <c r="W239" s="6"/>
       <c r="X239" s="7"/>
       <c r="Y239" s="6"/>
@@ -17387,17 +17387,17 @@
       </c>
       <c r="N240" s="7"/>
       <c r="O240" s="6"/>
-      <c r="P240" s="8" t="s">
-        <v>32</v>
+      <c r="P240" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q240" s="6"/>
       <c r="R240" s="7"/>
-      <c r="S240" s="6"/>
+      <c r="S240" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T240" s="7"/>
       <c r="U240" s="6"/>
-      <c r="V240" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V240" s="7"/>
       <c r="W240" s="6"/>
       <c r="X240" s="7"/>
       <c r="Y240" s="6"/>
@@ -17445,17 +17445,17 @@
       </c>
       <c r="N241" s="7"/>
       <c r="O241" s="6"/>
-      <c r="P241" s="8" t="s">
-        <v>32</v>
+      <c r="P241" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q241" s="6"/>
       <c r="R241" s="7"/>
-      <c r="S241" s="6"/>
+      <c r="S241" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T241" s="7"/>
       <c r="U241" s="6"/>
-      <c r="V241" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V241" s="7"/>
       <c r="W241" s="6"/>
       <c r="X241" s="7"/>
       <c r="Y241" s="6"/>
@@ -17503,17 +17503,17 @@
       </c>
       <c r="N242" s="7"/>
       <c r="O242" s="6"/>
-      <c r="P242" s="8" t="s">
-        <v>32</v>
+      <c r="P242" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q242" s="6"/>
       <c r="R242" s="7"/>
-      <c r="S242" s="6"/>
+      <c r="S242" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T242" s="7"/>
       <c r="U242" s="6"/>
-      <c r="V242" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V242" s="7"/>
       <c r="W242" s="6"/>
       <c r="X242" s="7"/>
       <c r="Y242" s="6"/>
@@ -17561,17 +17561,17 @@
       </c>
       <c r="N243" s="7"/>
       <c r="O243" s="6"/>
-      <c r="P243" s="8" t="s">
-        <v>32</v>
+      <c r="P243" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q243" s="6"/>
       <c r="R243" s="7"/>
-      <c r="S243" s="6"/>
+      <c r="S243" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T243" s="7"/>
       <c r="U243" s="6"/>
-      <c r="V243" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V243" s="7"/>
       <c r="W243" s="6"/>
       <c r="X243" s="7"/>
       <c r="Y243" s="6"/>
@@ -17619,17 +17619,17 @@
       </c>
       <c r="N244" s="7"/>
       <c r="O244" s="6"/>
-      <c r="P244" s="8" t="s">
-        <v>32</v>
+      <c r="P244" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q244" s="6"/>
       <c r="R244" s="7"/>
-      <c r="S244" s="6"/>
+      <c r="S244" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T244" s="7"/>
       <c r="U244" s="6"/>
-      <c r="V244" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V244" s="7"/>
       <c r="W244" s="6"/>
       <c r="X244" s="7"/>
       <c r="Y244" s="6"/>
@@ -17677,17 +17677,17 @@
       </c>
       <c r="N245" s="7"/>
       <c r="O245" s="6"/>
-      <c r="P245" s="8" t="s">
-        <v>32</v>
+      <c r="P245" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q245" s="6"/>
       <c r="R245" s="7"/>
-      <c r="S245" s="6"/>
+      <c r="S245" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T245" s="7"/>
       <c r="U245" s="6"/>
-      <c r="V245" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V245" s="7"/>
       <c r="W245" s="6"/>
       <c r="X245" s="7"/>
       <c r="Y245" s="6"/>
@@ -17735,17 +17735,17 @@
       </c>
       <c r="N246" s="7"/>
       <c r="O246" s="6"/>
-      <c r="P246" s="8" t="s">
-        <v>32</v>
+      <c r="P246" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q246" s="6"/>
       <c r="R246" s="7"/>
-      <c r="S246" s="6"/>
+      <c r="S246" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T246" s="7"/>
       <c r="U246" s="6"/>
-      <c r="V246" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V246" s="7"/>
       <c r="W246" s="6"/>
       <c r="X246" s="7"/>
       <c r="Y246" s="6"/>
@@ -17793,17 +17793,17 @@
       </c>
       <c r="N247" s="7"/>
       <c r="O247" s="6"/>
-      <c r="P247" s="8" t="s">
-        <v>32</v>
+      <c r="P247" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q247" s="6"/>
       <c r="R247" s="7"/>
-      <c r="S247" s="6"/>
+      <c r="S247" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T247" s="7"/>
       <c r="U247" s="6"/>
-      <c r="V247" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V247" s="7"/>
       <c r="W247" s="6"/>
       <c r="X247" s="7"/>
       <c r="Y247" s="6"/>
@@ -17851,17 +17851,17 @@
       </c>
       <c r="N248" s="7"/>
       <c r="O248" s="6"/>
-      <c r="P248" s="8" t="s">
-        <v>32</v>
+      <c r="P248" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q248" s="6"/>
       <c r="R248" s="7"/>
-      <c r="S248" s="6"/>
+      <c r="S248" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T248" s="7"/>
       <c r="U248" s="6"/>
-      <c r="V248" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V248" s="7"/>
       <c r="W248" s="6"/>
       <c r="X248" s="7"/>
       <c r="Y248" s="6"/>
@@ -17909,17 +17909,17 @@
       </c>
       <c r="N249" s="7"/>
       <c r="O249" s="6"/>
-      <c r="P249" s="8" t="s">
-        <v>32</v>
+      <c r="P249" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q249" s="6"/>
       <c r="R249" s="7"/>
-      <c r="S249" s="6"/>
+      <c r="S249" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T249" s="7"/>
       <c r="U249" s="6"/>
-      <c r="V249" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V249" s="7"/>
       <c r="W249" s="6"/>
       <c r="X249" s="7"/>
       <c r="Y249" s="6"/>
@@ -17967,17 +17967,17 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="6"/>
-      <c r="P250" s="8" t="s">
-        <v>32</v>
+      <c r="P250" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q250" s="6"/>
       <c r="R250" s="7"/>
-      <c r="S250" s="6"/>
+      <c r="S250" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T250" s="7"/>
       <c r="U250" s="6"/>
-      <c r="V250" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V250" s="7"/>
       <c r="W250" s="6"/>
       <c r="X250" s="7"/>
       <c r="Y250" s="6"/>
@@ -18025,17 +18025,17 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="6"/>
-      <c r="P251" s="8" t="s">
-        <v>32</v>
+      <c r="P251" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q251" s="6"/>
       <c r="R251" s="7"/>
-      <c r="S251" s="6"/>
+      <c r="S251" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T251" s="7"/>
       <c r="U251" s="6"/>
-      <c r="V251" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V251" s="7"/>
       <c r="W251" s="6"/>
       <c r="X251" s="7"/>
       <c r="Y251" s="6"/>
@@ -18083,17 +18083,17 @@
       </c>
       <c r="N252" s="7"/>
       <c r="O252" s="6"/>
-      <c r="P252" s="8" t="s">
-        <v>32</v>
+      <c r="P252" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q252" s="6"/>
       <c r="R252" s="7"/>
-      <c r="S252" s="6"/>
+      <c r="S252" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T252" s="7"/>
       <c r="U252" s="6"/>
-      <c r="V252" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V252" s="7"/>
       <c r="W252" s="6"/>
       <c r="X252" s="7"/>
       <c r="Y252" s="6"/>
@@ -18141,17 +18141,17 @@
       </c>
       <c r="N253" s="7"/>
       <c r="O253" s="6"/>
-      <c r="P253" s="8" t="s">
-        <v>32</v>
+      <c r="P253" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q253" s="6"/>
       <c r="R253" s="7"/>
-      <c r="S253" s="6"/>
+      <c r="S253" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T253" s="7"/>
       <c r="U253" s="6"/>
-      <c r="V253" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V253" s="7"/>
       <c r="W253" s="6"/>
       <c r="X253" s="7"/>
       <c r="Y253" s="6"/>
@@ -18199,17 +18199,17 @@
       </c>
       <c r="N254" s="7"/>
       <c r="O254" s="6"/>
-      <c r="P254" s="8" t="s">
-        <v>32</v>
+      <c r="P254" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q254" s="6"/>
       <c r="R254" s="7"/>
-      <c r="S254" s="6"/>
+      <c r="S254" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T254" s="7"/>
       <c r="U254" s="6"/>
-      <c r="V254" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V254" s="7"/>
       <c r="W254" s="6"/>
       <c r="X254" s="7"/>
       <c r="Y254" s="6"/>
@@ -18257,17 +18257,17 @@
       </c>
       <c r="N255" s="7"/>
       <c r="O255" s="6"/>
-      <c r="P255" s="8" t="s">
-        <v>32</v>
+      <c r="P255" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q255" s="6"/>
       <c r="R255" s="7"/>
-      <c r="S255" s="6"/>
+      <c r="S255" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T255" s="7"/>
       <c r="U255" s="6"/>
-      <c r="V255" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V255" s="7"/>
       <c r="W255" s="6"/>
       <c r="X255" s="7"/>
       <c r="Y255" s="6"/>
@@ -18315,17 +18315,17 @@
       </c>
       <c r="N256" s="7"/>
       <c r="O256" s="6"/>
-      <c r="P256" s="8" t="s">
-        <v>32</v>
+      <c r="P256" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q256" s="6"/>
       <c r="R256" s="7"/>
-      <c r="S256" s="6"/>
+      <c r="S256" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T256" s="7"/>
       <c r="U256" s="6"/>
-      <c r="V256" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V256" s="7"/>
       <c r="W256" s="6"/>
       <c r="X256" s="7"/>
       <c r="Y256" s="6"/>
@@ -18373,17 +18373,17 @@
       </c>
       <c r="N257" s="7"/>
       <c r="O257" s="6"/>
-      <c r="P257" s="8" t="s">
-        <v>32</v>
+      <c r="P257" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q257" s="6"/>
       <c r="R257" s="7"/>
-      <c r="S257" s="6"/>
+      <c r="S257" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T257" s="7"/>
       <c r="U257" s="6"/>
-      <c r="V257" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V257" s="7"/>
       <c r="W257" s="6"/>
       <c r="X257" s="7"/>
       <c r="Y257" s="6"/>
@@ -18431,17 +18431,17 @@
       </c>
       <c r="N258" s="7"/>
       <c r="O258" s="6"/>
-      <c r="P258" s="8" t="s">
-        <v>32</v>
+      <c r="P258" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q258" s="6"/>
       <c r="R258" s="7"/>
-      <c r="S258" s="6"/>
+      <c r="S258" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T258" s="7"/>
       <c r="U258" s="6"/>
-      <c r="V258" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V258" s="7"/>
       <c r="W258" s="6"/>
       <c r="X258" s="7"/>
       <c r="Y258" s="6"/>
@@ -18489,12 +18489,12 @@
       </c>
       <c r="N259" s="7"/>
       <c r="O259" s="6"/>
-      <c r="P259" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P259" s="7"/>
       <c r="Q259" s="6"/>
       <c r="R259" s="7"/>
-      <c r="S259" s="6"/>
+      <c r="S259" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T259" s="7"/>
       <c r="U259" s="6"/>
       <c r="V259" s="7"/>
@@ -18547,12 +18547,12 @@
       </c>
       <c r="N260" s="7"/>
       <c r="O260" s="6"/>
-      <c r="P260" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="P260" s="7"/>
       <c r="Q260" s="6"/>
       <c r="R260" s="7"/>
-      <c r="S260" s="6"/>
+      <c r="S260" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T260" s="7"/>
       <c r="U260" s="6"/>
       <c r="V260" s="7"/>
@@ -18605,17 +18605,17 @@
       </c>
       <c r="N261" s="7"/>
       <c r="O261" s="6"/>
-      <c r="P261" s="8" t="s">
-        <v>32</v>
+      <c r="P261" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q261" s="6"/>
       <c r="R261" s="7"/>
-      <c r="S261" s="6"/>
+      <c r="S261" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="T261" s="7"/>
       <c r="U261" s="6"/>
-      <c r="V261" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V261" s="7"/>
       <c r="W261" s="6"/>
       <c r="X261" s="7"/>
       <c r="Y261" s="6"/>
@@ -18665,17 +18665,17 @@
       </c>
       <c r="N262" s="3"/>
       <c r="O262" s="2"/>
-      <c r="P262" s="4" t="s">
-        <v>607</v>
+      <c r="P262" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q262" s="2"/>
       <c r="R262" s="3"/>
-      <c r="S262" s="2"/>
+      <c r="S262" s="9" t="s">
+        <v>607</v>
+      </c>
       <c r="T262" s="3"/>
       <c r="U262" s="2"/>
-      <c r="V262" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V262" s="3"/>
       <c r="W262" s="2"/>
       <c r="X262" s="3"/>
       <c r="Y262" s="2"/>
@@ -18723,17 +18723,17 @@
       </c>
       <c r="N263" s="7"/>
       <c r="O263" s="6"/>
-      <c r="P263" s="8" t="s">
-        <v>607</v>
+      <c r="P263" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q263" s="6"/>
       <c r="R263" s="7"/>
-      <c r="S263" s="6"/>
+      <c r="S263" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T263" s="7"/>
       <c r="U263" s="6"/>
-      <c r="V263" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V263" s="7"/>
       <c r="W263" s="6"/>
       <c r="X263" s="7"/>
       <c r="Y263" s="6"/>
@@ -18781,17 +18781,17 @@
       </c>
       <c r="N264" s="7"/>
       <c r="O264" s="6"/>
-      <c r="P264" s="8" t="s">
-        <v>607</v>
+      <c r="P264" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q264" s="6"/>
       <c r="R264" s="7"/>
-      <c r="S264" s="6"/>
+      <c r="S264" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T264" s="7"/>
       <c r="U264" s="6"/>
-      <c r="V264" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V264" s="7"/>
       <c r="W264" s="6"/>
       <c r="X264" s="7"/>
       <c r="Y264" s="6"/>
@@ -18839,17 +18839,17 @@
       </c>
       <c r="N265" s="7"/>
       <c r="O265" s="6"/>
-      <c r="P265" s="8" t="s">
-        <v>607</v>
+      <c r="P265" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q265" s="6"/>
       <c r="R265" s="7"/>
-      <c r="S265" s="6"/>
+      <c r="S265" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T265" s="7"/>
       <c r="U265" s="6"/>
-      <c r="V265" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V265" s="7"/>
       <c r="W265" s="6"/>
       <c r="X265" s="7"/>
       <c r="Y265" s="6"/>
@@ -18897,17 +18897,17 @@
       </c>
       <c r="N266" s="7"/>
       <c r="O266" s="6"/>
-      <c r="P266" s="8" t="s">
-        <v>607</v>
+      <c r="P266" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q266" s="6"/>
       <c r="R266" s="7"/>
-      <c r="S266" s="6"/>
+      <c r="S266" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T266" s="7"/>
       <c r="U266" s="6"/>
-      <c r="V266" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V266" s="7"/>
       <c r="W266" s="6"/>
       <c r="X266" s="7"/>
       <c r="Y266" s="6"/>
@@ -18959,17 +18959,17 @@
       </c>
       <c r="N267" s="7"/>
       <c r="O267" s="6"/>
-      <c r="P267" s="8" t="s">
-        <v>607</v>
+      <c r="P267" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q267" s="6"/>
       <c r="R267" s="7"/>
-      <c r="S267" s="6"/>
+      <c r="S267" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T267" s="7"/>
       <c r="U267" s="6"/>
-      <c r="V267" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V267" s="7"/>
       <c r="W267" s="6"/>
       <c r="X267" s="7"/>
       <c r="Y267" s="6"/>
@@ -19021,17 +19021,17 @@
       </c>
       <c r="N268" s="7"/>
       <c r="O268" s="6"/>
-      <c r="P268" s="8" t="s">
-        <v>607</v>
+      <c r="P268" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="Q268" s="6"/>
       <c r="R268" s="7"/>
-      <c r="S268" s="6"/>
+      <c r="S268" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="T268" s="7"/>
       <c r="U268" s="6"/>
-      <c r="V268" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="V268" s="7"/>
       <c r="W268" s="6"/>
       <c r="X268" s="7"/>
       <c r="Y268" s="6"/>
@@ -19082,14 +19082,12 @@
         <v>36</v>
       </c>
       <c r="N269" s="3"/>
-      <c r="O269" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P269" s="3"/>
+      <c r="O269" s="2"/>
+      <c r="P269" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q269" s="2"/>
-      <c r="R269" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R269" s="3"/>
       <c r="S269" s="2"/>
       <c r="T269" s="3"/>
       <c r="U269" s="2"/>
@@ -19098,7 +19096,9 @@
       </c>
       <c r="W269" s="2"/>
       <c r="X269" s="3"/>
-      <c r="Y269" s="2"/>
+      <c r="Y269" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z269" s="2"/>
       <c r="AA269" s="2" t="s">
         <v>37</v>
@@ -19144,14 +19144,12 @@
         <v>36</v>
       </c>
       <c r="N270" s="7"/>
-      <c r="O270" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P270" s="7"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q270" s="6"/>
-      <c r="R270" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R270" s="7"/>
       <c r="S270" s="6"/>
       <c r="T270" s="7"/>
       <c r="U270" s="6"/>
@@ -19160,7 +19158,9 @@
       </c>
       <c r="W270" s="6"/>
       <c r="X270" s="7"/>
-      <c r="Y270" s="6"/>
+      <c r="Y270" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z270" s="6"/>
       <c r="AA270" s="6" t="s">
         <v>37</v>
@@ -19206,14 +19206,12 @@
         <v>36</v>
       </c>
       <c r="N271" s="7"/>
-      <c r="O271" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P271" s="7"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q271" s="6"/>
-      <c r="R271" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R271" s="7"/>
       <c r="S271" s="6"/>
       <c r="T271" s="7"/>
       <c r="U271" s="6"/>
@@ -19222,7 +19220,9 @@
       </c>
       <c r="W271" s="6"/>
       <c r="X271" s="7"/>
-      <c r="Y271" s="6"/>
+      <c r="Y271" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="Z271" s="6"/>
       <c r="AA271" s="6" t="s">
         <v>37</v>
@@ -19269,21 +19269,21 @@
       </c>
       <c r="N272" s="3"/>
       <c r="O272" s="2"/>
-      <c r="P272" s="3"/>
+      <c r="P272" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q272" s="2"/>
-      <c r="R272" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R272" s="3"/>
       <c r="S272" s="2"/>
-      <c r="T272" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T272" s="3"/>
       <c r="U272" s="2"/>
       <c r="V272" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W272" s="2"/>
-      <c r="X272" s="3"/>
+      <c r="X272" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
       <c r="AA272" s="2" t="s">
@@ -19331,21 +19331,21 @@
       </c>
       <c r="N273" s="7"/>
       <c r="O273" s="6"/>
-      <c r="P273" s="7"/>
+      <c r="P273" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q273" s="6"/>
-      <c r="R273" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R273" s="7"/>
       <c r="S273" s="6"/>
-      <c r="T273" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T273" s="7"/>
       <c r="U273" s="6"/>
       <c r="V273" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W273" s="6"/>
-      <c r="X273" s="7"/>
+      <c r="X273" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
       <c r="AA273" s="6" t="s">
@@ -19393,21 +19393,21 @@
       </c>
       <c r="N274" s="7"/>
       <c r="O274" s="6"/>
-      <c r="P274" s="7"/>
+      <c r="P274" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q274" s="6"/>
-      <c r="R274" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R274" s="7"/>
       <c r="S274" s="6"/>
-      <c r="T274" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T274" s="7"/>
       <c r="U274" s="6"/>
       <c r="V274" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W274" s="6"/>
-      <c r="X274" s="7"/>
+      <c r="X274" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y274" s="6"/>
       <c r="Z274" s="6"/>
       <c r="AA274" s="6" t="s">
@@ -19454,17 +19454,17 @@
         <v>36</v>
       </c>
       <c r="N275" s="3"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="3"/>
+      <c r="O275" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P275" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q275" s="2"/>
-      <c r="R275" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R275" s="3"/>
       <c r="S275" s="2"/>
       <c r="T275" s="3"/>
-      <c r="U275" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U275" s="2"/>
       <c r="V275" s="3" t="s">
         <v>31</v>
       </c>
@@ -19516,17 +19516,17 @@
         <v>36</v>
       </c>
       <c r="N276" s="7"/>
-      <c r="O276" s="6"/>
-      <c r="P276" s="7"/>
+      <c r="O276" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P276" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q276" s="6"/>
-      <c r="R276" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R276" s="7"/>
       <c r="S276" s="6"/>
       <c r="T276" s="7"/>
-      <c r="U276" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U276" s="6"/>
       <c r="V276" s="7" t="s">
         <v>31</v>
       </c>
@@ -19578,17 +19578,17 @@
         <v>36</v>
       </c>
       <c r="N277" s="7"/>
-      <c r="O277" s="6"/>
-      <c r="P277" s="7"/>
+      <c r="O277" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P277" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q277" s="6"/>
-      <c r="R277" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R277" s="7"/>
       <c r="S277" s="6"/>
       <c r="T277" s="7"/>
-      <c r="U277" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U277" s="6"/>
       <c r="V277" s="7" t="s">
         <v>31</v>
       </c>
@@ -19639,15 +19639,15 @@
       <c r="M278" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N278" s="3"/>
+      <c r="N278" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O278" s="2"/>
-      <c r="P278" s="3"/>
-      <c r="Q278" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R278" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P278" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q278" s="2"/>
+      <c r="R278" s="3"/>
       <c r="S278" s="2"/>
       <c r="T278" s="3"/>
       <c r="U278" s="2"/>
@@ -19701,15 +19701,15 @@
       <c r="M279" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N279" s="7"/>
+      <c r="N279" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O279" s="6"/>
-      <c r="P279" s="7"/>
-      <c r="Q279" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R279" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P279" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q279" s="6"/>
+      <c r="R279" s="7"/>
       <c r="S279" s="6"/>
       <c r="T279" s="7"/>
       <c r="U279" s="6"/>
@@ -19763,15 +19763,15 @@
       <c r="M280" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N280" s="7"/>
+      <c r="N280" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O280" s="6"/>
-      <c r="P280" s="7"/>
-      <c r="Q280" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R280" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P280" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q280" s="6"/>
+      <c r="R280" s="7"/>
       <c r="S280" s="6"/>
       <c r="T280" s="7"/>
       <c r="U280" s="6"/>
@@ -19827,22 +19827,22 @@
       </c>
       <c r="N281" s="3"/>
       <c r="O281" s="2"/>
-      <c r="P281" s="3"/>
+      <c r="P281" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q281" s="2"/>
-      <c r="R281" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R281" s="3"/>
       <c r="S281" s="2"/>
-      <c r="T281" s="3"/>
+      <c r="T281" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U281" s="2"/>
       <c r="V281" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W281" s="2"/>
       <c r="X281" s="3"/>
-      <c r="Y281" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
       <c r="AA281" s="2" t="s">
         <v>37</v>
@@ -19889,22 +19889,22 @@
       </c>
       <c r="N282" s="7"/>
       <c r="O282" s="6"/>
-      <c r="P282" s="7"/>
+      <c r="P282" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q282" s="6"/>
-      <c r="R282" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R282" s="7"/>
       <c r="S282" s="6"/>
-      <c r="T282" s="7"/>
+      <c r="T282" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U282" s="6"/>
       <c r="V282" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W282" s="6"/>
       <c r="X282" s="7"/>
-      <c r="Y282" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y282" s="6"/>
       <c r="Z282" s="6"/>
       <c r="AA282" s="6" t="s">
         <v>37</v>
@@ -19951,22 +19951,22 @@
       </c>
       <c r="N283" s="7"/>
       <c r="O283" s="6"/>
-      <c r="P283" s="7"/>
+      <c r="P283" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q283" s="6"/>
-      <c r="R283" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R283" s="7"/>
       <c r="S283" s="6"/>
-      <c r="T283" s="7"/>
+      <c r="T283" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U283" s="6"/>
       <c r="V283" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W283" s="6"/>
       <c r="X283" s="7"/>
-      <c r="Y283" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y283" s="6"/>
       <c r="Z283" s="6"/>
       <c r="AA283" s="6" t="s">
         <v>37</v>
@@ -20013,16 +20013,16 @@
       </c>
       <c r="N284" s="3"/>
       <c r="O284" s="2"/>
-      <c r="P284" s="3"/>
+      <c r="P284" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q284" s="2"/>
-      <c r="R284" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R284" s="3"/>
       <c r="S284" s="2"/>
       <c r="T284" s="3"/>
       <c r="U284" s="2"/>
-      <c r="V284" s="3" t="s">
-        <v>31</v>
+      <c r="V284" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="W284" s="2"/>
       <c r="X284" s="3"/>
@@ -20073,16 +20073,16 @@
       </c>
       <c r="N285" s="7"/>
       <c r="O285" s="6"/>
-      <c r="P285" s="7"/>
+      <c r="P285" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q285" s="6"/>
-      <c r="R285" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R285" s="7"/>
       <c r="S285" s="6"/>
       <c r="T285" s="7"/>
       <c r="U285" s="6"/>
-      <c r="V285" s="7" t="s">
-        <v>31</v>
+      <c r="V285" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W285" s="6"/>
       <c r="X285" s="7"/>
@@ -20133,16 +20133,16 @@
       </c>
       <c r="N286" s="7"/>
       <c r="O286" s="6"/>
-      <c r="P286" s="7"/>
+      <c r="P286" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q286" s="6"/>
-      <c r="R286" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R286" s="7"/>
       <c r="S286" s="6"/>
       <c r="T286" s="7"/>
       <c r="U286" s="6"/>
-      <c r="V286" s="7" t="s">
-        <v>31</v>
+      <c r="V286" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="W286" s="6"/>
       <c r="X286" s="7"/>
@@ -20191,15 +20191,15 @@
       <c r="M287" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N287" s="3"/>
+      <c r="N287" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O287" s="2"/>
-      <c r="P287" s="3"/>
-      <c r="Q287" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R287" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P287" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="3"/>
       <c r="S287" s="2"/>
       <c r="T287" s="3"/>
       <c r="U287" s="2"/>
@@ -20255,15 +20255,15 @@
       <c r="M288" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N288" s="7"/>
+      <c r="N288" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O288" s="6"/>
-      <c r="P288" s="7"/>
-      <c r="Q288" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R288" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P288" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q288" s="6"/>
+      <c r="R288" s="7"/>
       <c r="S288" s="6"/>
       <c r="T288" s="7"/>
       <c r="U288" s="6"/>
@@ -20319,15 +20319,15 @@
       <c r="M289" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N289" s="7"/>
+      <c r="N289" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O289" s="6"/>
-      <c r="P289" s="7"/>
-      <c r="Q289" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R289" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P289" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q289" s="6"/>
+      <c r="R289" s="7"/>
       <c r="S289" s="6"/>
       <c r="T289" s="7"/>
       <c r="U289" s="6"/>
@@ -20383,15 +20383,15 @@
       <c r="M290" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N290" s="7"/>
+      <c r="N290" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O290" s="6"/>
-      <c r="P290" s="7"/>
-      <c r="Q290" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R290" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P290" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q290" s="6"/>
+      <c r="R290" s="7"/>
       <c r="S290" s="6"/>
       <c r="T290" s="7"/>
       <c r="U290" s="6"/>
@@ -20447,15 +20447,15 @@
       <c r="M291" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N291" s="7"/>
+      <c r="N291" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O291" s="6"/>
-      <c r="P291" s="7"/>
-      <c r="Q291" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R291" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P291" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q291" s="6"/>
+      <c r="R291" s="7"/>
       <c r="S291" s="6"/>
       <c r="T291" s="7"/>
       <c r="U291" s="6"/>
@@ -20511,15 +20511,15 @@
       <c r="M292" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N292" s="7"/>
+      <c r="N292" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O292" s="6"/>
-      <c r="P292" s="7"/>
-      <c r="Q292" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R292" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P292" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q292" s="6"/>
+      <c r="R292" s="7"/>
       <c r="S292" s="6"/>
       <c r="T292" s="7"/>
       <c r="U292" s="6"/>
@@ -20575,15 +20575,15 @@
       <c r="M293" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N293" s="3"/>
+      <c r="N293" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O293" s="2"/>
-      <c r="P293" s="3"/>
-      <c r="Q293" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R293" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="P293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="3"/>
       <c r="S293" s="2"/>
       <c r="T293" s="3"/>
       <c r="U293" s="2"/>
@@ -20639,15 +20639,15 @@
       <c r="M294" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N294" s="7"/>
+      <c r="N294" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O294" s="6"/>
-      <c r="P294" s="7"/>
-      <c r="Q294" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R294" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P294" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q294" s="6"/>
+      <c r="R294" s="7"/>
       <c r="S294" s="6"/>
       <c r="T294" s="7"/>
       <c r="U294" s="6"/>
@@ -20703,15 +20703,15 @@
       <c r="M295" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N295" s="7"/>
+      <c r="N295" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O295" s="6"/>
-      <c r="P295" s="7"/>
-      <c r="Q295" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R295" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P295" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q295" s="6"/>
+      <c r="R295" s="7"/>
       <c r="S295" s="6"/>
       <c r="T295" s="7"/>
       <c r="U295" s="6"/>
@@ -20767,15 +20767,15 @@
       <c r="M296" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N296" s="7"/>
+      <c r="N296" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O296" s="6"/>
-      <c r="P296" s="7"/>
-      <c r="Q296" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R296" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P296" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q296" s="6"/>
+      <c r="R296" s="7"/>
       <c r="S296" s="6"/>
       <c r="T296" s="7"/>
       <c r="U296" s="6"/>
@@ -20831,15 +20831,15 @@
       <c r="M297" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N297" s="7"/>
+      <c r="N297" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O297" s="6"/>
-      <c r="P297" s="7"/>
-      <c r="Q297" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R297" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P297" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q297" s="6"/>
+      <c r="R297" s="7"/>
       <c r="S297" s="6"/>
       <c r="T297" s="7"/>
       <c r="U297" s="6"/>
@@ -20895,15 +20895,15 @@
       <c r="M298" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N298" s="7"/>
+      <c r="N298" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="O298" s="6"/>
-      <c r="P298" s="7"/>
-      <c r="Q298" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R298" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="P298" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q298" s="6"/>
+      <c r="R298" s="7"/>
       <c r="S298" s="6"/>
       <c r="T298" s="7"/>
       <c r="U298" s="6"/>
@@ -20961,21 +20961,21 @@
       </c>
       <c r="N299" s="3"/>
       <c r="O299" s="2"/>
-      <c r="P299" s="3"/>
+      <c r="P299" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q299" s="2"/>
-      <c r="R299" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R299" s="3"/>
       <c r="S299" s="2"/>
-      <c r="T299" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="T299" s="3"/>
       <c r="U299" s="2"/>
       <c r="V299" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W299" s="2"/>
-      <c r="X299" s="3"/>
+      <c r="X299" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
       <c r="AA299" s="2" t="s">
@@ -21025,21 +21025,21 @@
       </c>
       <c r="N300" s="7"/>
       <c r="O300" s="6"/>
-      <c r="P300" s="7"/>
+      <c r="P300" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q300" s="6"/>
-      <c r="R300" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R300" s="7"/>
       <c r="S300" s="6"/>
-      <c r="T300" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T300" s="7"/>
       <c r="U300" s="6"/>
       <c r="V300" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W300" s="6"/>
-      <c r="X300" s="7"/>
+      <c r="X300" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
       <c r="AA300" s="6" t="s">
@@ -21089,21 +21089,21 @@
       </c>
       <c r="N301" s="7"/>
       <c r="O301" s="6"/>
-      <c r="P301" s="7"/>
+      <c r="P301" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q301" s="6"/>
-      <c r="R301" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R301" s="7"/>
       <c r="S301" s="6"/>
-      <c r="T301" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T301" s="7"/>
       <c r="U301" s="6"/>
       <c r="V301" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W301" s="6"/>
-      <c r="X301" s="7"/>
+      <c r="X301" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
       <c r="AA301" s="6" t="s">
@@ -21153,21 +21153,21 @@
       </c>
       <c r="N302" s="7"/>
       <c r="O302" s="6"/>
-      <c r="P302" s="7"/>
+      <c r="P302" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q302" s="6"/>
-      <c r="R302" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R302" s="7"/>
       <c r="S302" s="6"/>
-      <c r="T302" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T302" s="7"/>
       <c r="U302" s="6"/>
       <c r="V302" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W302" s="6"/>
-      <c r="X302" s="7"/>
+      <c r="X302" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
       <c r="AA302" s="6" t="s">
@@ -21217,21 +21217,21 @@
       </c>
       <c r="N303" s="7"/>
       <c r="O303" s="6"/>
-      <c r="P303" s="7"/>
+      <c r="P303" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q303" s="6"/>
-      <c r="R303" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R303" s="7"/>
       <c r="S303" s="6"/>
-      <c r="T303" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T303" s="7"/>
       <c r="U303" s="6"/>
       <c r="V303" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W303" s="6"/>
-      <c r="X303" s="7"/>
+      <c r="X303" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
       <c r="AA303" s="6" t="s">
@@ -21281,21 +21281,21 @@
       </c>
       <c r="N304" s="7"/>
       <c r="O304" s="6"/>
-      <c r="P304" s="7"/>
+      <c r="P304" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q304" s="6"/>
-      <c r="R304" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R304" s="7"/>
       <c r="S304" s="6"/>
-      <c r="T304" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="T304" s="7"/>
       <c r="U304" s="6"/>
       <c r="V304" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W304" s="6"/>
-      <c r="X304" s="7"/>
+      <c r="X304" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Y304" s="6"/>
       <c r="Z304" s="6"/>
       <c r="AA304" s="6" t="s">
@@ -21344,17 +21344,17 @@
         <v>36</v>
       </c>
       <c r="N305" s="3"/>
-      <c r="O305" s="2"/>
-      <c r="P305" s="3"/>
+      <c r="O305" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P305" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q305" s="2"/>
-      <c r="R305" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R305" s="3"/>
       <c r="S305" s="2"/>
       <c r="T305" s="3"/>
-      <c r="U305" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U305" s="2"/>
       <c r="V305" s="3" t="s">
         <v>31</v>
       </c>
@@ -21408,17 +21408,17 @@
         <v>36</v>
       </c>
       <c r="N306" s="7"/>
-      <c r="O306" s="6"/>
-      <c r="P306" s="7"/>
+      <c r="O306" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P306" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q306" s="6"/>
-      <c r="R306" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R306" s="7"/>
       <c r="S306" s="6"/>
       <c r="T306" s="7"/>
-      <c r="U306" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U306" s="6"/>
       <c r="V306" s="7" t="s">
         <v>31</v>
       </c>
@@ -21472,17 +21472,17 @@
         <v>36</v>
       </c>
       <c r="N307" s="7"/>
-      <c r="O307" s="6"/>
-      <c r="P307" s="7"/>
+      <c r="O307" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P307" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q307" s="6"/>
-      <c r="R307" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R307" s="7"/>
       <c r="S307" s="6"/>
       <c r="T307" s="7"/>
-      <c r="U307" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U307" s="6"/>
       <c r="V307" s="7" t="s">
         <v>31</v>
       </c>
@@ -21536,17 +21536,17 @@
         <v>36</v>
       </c>
       <c r="N308" s="7"/>
-      <c r="O308" s="6"/>
-      <c r="P308" s="7"/>
+      <c r="O308" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P308" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q308" s="6"/>
-      <c r="R308" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R308" s="7"/>
       <c r="S308" s="6"/>
       <c r="T308" s="7"/>
-      <c r="U308" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U308" s="6"/>
       <c r="V308" s="7" t="s">
         <v>31</v>
       </c>
@@ -21600,17 +21600,17 @@
         <v>36</v>
       </c>
       <c r="N309" s="7"/>
-      <c r="O309" s="6"/>
-      <c r="P309" s="7"/>
+      <c r="O309" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P309" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q309" s="6"/>
-      <c r="R309" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R309" s="7"/>
       <c r="S309" s="6"/>
       <c r="T309" s="7"/>
-      <c r="U309" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U309" s="6"/>
       <c r="V309" s="7" t="s">
         <v>31</v>
       </c>
@@ -21664,17 +21664,17 @@
         <v>36</v>
       </c>
       <c r="N310" s="7"/>
-      <c r="O310" s="6"/>
-      <c r="P310" s="7"/>
+      <c r="O310" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P310" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q310" s="6"/>
-      <c r="R310" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R310" s="7"/>
       <c r="S310" s="6"/>
       <c r="T310" s="7"/>
-      <c r="U310" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="U310" s="6"/>
       <c r="V310" s="7" t="s">
         <v>31</v>
       </c>
@@ -21729,22 +21729,22 @@
       </c>
       <c r="N311" s="3"/>
       <c r="O311" s="2"/>
-      <c r="P311" s="3"/>
+      <c r="P311" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q311" s="2"/>
-      <c r="R311" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="R311" s="3"/>
       <c r="S311" s="2"/>
-      <c r="T311" s="3"/>
+      <c r="T311" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U311" s="2"/>
       <c r="V311" s="3" t="s">
         <v>31</v>
       </c>
       <c r="W311" s="2"/>
       <c r="X311" s="3"/>
-      <c r="Y311" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
       <c r="AA311" s="2" t="s">
         <v>94</v>
@@ -21793,22 +21793,22 @@
       </c>
       <c r="N312" s="7"/>
       <c r="O312" s="6"/>
-      <c r="P312" s="7"/>
+      <c r="P312" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q312" s="6"/>
-      <c r="R312" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R312" s="7"/>
       <c r="S312" s="6"/>
-      <c r="T312" s="7"/>
+      <c r="T312" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U312" s="6"/>
       <c r="V312" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W312" s="6"/>
       <c r="X312" s="7"/>
-      <c r="Y312" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y312" s="6"/>
       <c r="Z312" s="6"/>
       <c r="AA312" s="6" t="s">
         <v>94</v>
@@ -21857,22 +21857,22 @@
       </c>
       <c r="N313" s="7"/>
       <c r="O313" s="6"/>
-      <c r="P313" s="7"/>
+      <c r="P313" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q313" s="6"/>
-      <c r="R313" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R313" s="7"/>
       <c r="S313" s="6"/>
-      <c r="T313" s="7"/>
+      <c r="T313" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U313" s="6"/>
       <c r="V313" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W313" s="6"/>
       <c r="X313" s="7"/>
-      <c r="Y313" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y313" s="6"/>
       <c r="Z313" s="6"/>
       <c r="AA313" s="6" t="s">
         <v>94</v>
@@ -21921,22 +21921,22 @@
       </c>
       <c r="N314" s="7"/>
       <c r="O314" s="6"/>
-      <c r="P314" s="7"/>
+      <c r="P314" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="Q314" s="6"/>
-      <c r="R314" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="R314" s="7"/>
       <c r="S314" s="6"/>
-      <c r="T314" s="7"/>
+      <c r="T314" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U314" s="6"/>
       <c r="V314" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W314" s="6"/>
       <c r="X314" s="7"/>
-      <c r="Y314" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y314" s="6"/>
       <c r="Z314" s="6"/>
       <c r="AA314" s="6" t="s">
         <v>94</v>
@@ -21983,22 +21983,22 @@
       <c r="M315" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N315" s="3"/>
+      <c r="N315" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="O315" s="2"/>
       <c r="P315" s="3"/>
-      <c r="Q315" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q315" s="2"/>
       <c r="R315" s="3"/>
       <c r="S315" s="2"/>
-      <c r="T315" s="3"/>
+      <c r="T315" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="U315" s="2"/>
       <c r="V315" s="3"/>
       <c r="W315" s="2"/>
       <c r="X315" s="3"/>
-      <c r="Y315" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
       <c r="AA315" s="2" t="s">
         <v>713</v>
@@ -22043,22 +22043,22 @@
       <c r="M316" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N316" s="7"/>
+      <c r="N316" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O316" s="6"/>
       <c r="P316" s="7"/>
-      <c r="Q316" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
       <c r="S316" s="6"/>
-      <c r="T316" s="7"/>
+      <c r="T316" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U316" s="6"/>
       <c r="V316" s="7"/>
       <c r="W316" s="6"/>
       <c r="X316" s="7"/>
-      <c r="Y316" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y316" s="6"/>
       <c r="Z316" s="6">
         <v>0</v>
       </c>
@@ -22105,22 +22105,22 @@
       <c r="M317" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N317" s="7"/>
+      <c r="N317" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O317" s="6"/>
       <c r="P317" s="7"/>
-      <c r="Q317" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
       <c r="S317" s="6"/>
-      <c r="T317" s="7"/>
+      <c r="T317" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U317" s="6"/>
       <c r="V317" s="7"/>
       <c r="W317" s="6"/>
       <c r="X317" s="7"/>
-      <c r="Y317" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y317" s="6"/>
       <c r="Z317" s="6">
         <v>1</v>
       </c>
@@ -22167,22 +22167,22 @@
       <c r="M318" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N318" s="7"/>
+      <c r="N318" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="O318" s="6"/>
       <c r="P318" s="7"/>
-      <c r="Q318" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Q318" s="6"/>
       <c r="R318" s="7"/>
       <c r="S318" s="6"/>
-      <c r="T318" s="7"/>
+      <c r="T318" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="U318" s="6"/>
       <c r="V318" s="7"/>
       <c r="W318" s="6"/>
       <c r="X318" s="7"/>
-      <c r="Y318" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y318" s="6"/>
       <c r="Z318" s="6">
         <v>2</v>
       </c>
@@ -22233,13 +22233,13 @@
       <c r="O319" s="2"/>
       <c r="P319" s="3"/>
       <c r="Q319" s="2"/>
-      <c r="R319" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="R319" s="3"/>
       <c r="S319" s="2"/>
       <c r="T319" s="3"/>
       <c r="U319" s="2"/>
-      <c r="V319" s="3"/>
+      <c r="V319" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="W319" s="2"/>
       <c r="X319" s="3"/>
       <c r="Y319" s="2"/>
@@ -22291,13 +22291,13 @@
       <c r="O320" s="6"/>
       <c r="P320" s="7"/>
       <c r="Q320" s="6"/>
-      <c r="R320" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R320" s="7"/>
       <c r="S320" s="6"/>
       <c r="T320" s="7"/>
       <c r="U320" s="6"/>
-      <c r="V320" s="7"/>
+      <c r="V320" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W320" s="6"/>
       <c r="X320" s="7"/>
       <c r="Y320" s="6"/>
@@ -22349,13 +22349,13 @@
       <c r="O321" s="6"/>
       <c r="P321" s="7"/>
       <c r="Q321" s="6"/>
-      <c r="R321" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R321" s="7"/>
       <c r="S321" s="6"/>
       <c r="T321" s="7"/>
       <c r="U321" s="6"/>
-      <c r="V321" s="7"/>
+      <c r="V321" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W321" s="6"/>
       <c r="X321" s="7"/>
       <c r="Y321" s="6"/>
@@ -22407,13 +22407,13 @@
       <c r="O322" s="6"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="6"/>
-      <c r="R322" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R322" s="7"/>
       <c r="S322" s="6"/>
       <c r="T322" s="7"/>
       <c r="U322" s="6"/>
-      <c r="V322" s="7"/>
+      <c r="V322" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W322" s="6"/>
       <c r="X322" s="7"/>
       <c r="Y322" s="6"/>
@@ -22465,13 +22465,13 @@
       <c r="O323" s="6"/>
       <c r="P323" s="7"/>
       <c r="Q323" s="6"/>
-      <c r="R323" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R323" s="7"/>
       <c r="S323" s="6"/>
       <c r="T323" s="7"/>
       <c r="U323" s="6"/>
-      <c r="V323" s="7"/>
+      <c r="V323" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W323" s="6"/>
       <c r="X323" s="7"/>
       <c r="Y323" s="6"/>
@@ -22523,13 +22523,13 @@
       <c r="O324" s="6"/>
       <c r="P324" s="7"/>
       <c r="Q324" s="6"/>
-      <c r="R324" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R324" s="7"/>
       <c r="S324" s="6"/>
       <c r="T324" s="7"/>
       <c r="U324" s="6"/>
-      <c r="V324" s="7"/>
+      <c r="V324" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W324" s="6"/>
       <c r="X324" s="7"/>
       <c r="Y324" s="6"/>
@@ -22581,13 +22581,13 @@
       <c r="O325" s="6"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="6"/>
-      <c r="R325" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R325" s="7"/>
       <c r="S325" s="6"/>
       <c r="T325" s="7"/>
       <c r="U325" s="6"/>
-      <c r="V325" s="7"/>
+      <c r="V325" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W325" s="6"/>
       <c r="X325" s="7"/>
       <c r="Y325" s="6"/>
@@ -22639,13 +22639,13 @@
       <c r="O326" s="6"/>
       <c r="P326" s="7"/>
       <c r="Q326" s="6"/>
-      <c r="R326" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R326" s="7"/>
       <c r="S326" s="6"/>
       <c r="T326" s="7"/>
       <c r="U326" s="6"/>
-      <c r="V326" s="7"/>
+      <c r="V326" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W326" s="6"/>
       <c r="X326" s="7"/>
       <c r="Y326" s="6"/>
@@ -22697,13 +22697,13 @@
       <c r="O327" s="6"/>
       <c r="P327" s="7"/>
       <c r="Q327" s="6"/>
-      <c r="R327" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R327" s="7"/>
       <c r="S327" s="6"/>
       <c r="T327" s="7"/>
       <c r="U327" s="6"/>
-      <c r="V327" s="7"/>
+      <c r="V327" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W327" s="6"/>
       <c r="X327" s="7"/>
       <c r="Y327" s="6"/>
@@ -22755,13 +22755,13 @@
       <c r="O328" s="6"/>
       <c r="P328" s="7"/>
       <c r="Q328" s="6"/>
-      <c r="R328" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R328" s="7"/>
       <c r="S328" s="6"/>
       <c r="T328" s="7"/>
       <c r="U328" s="6"/>
-      <c r="V328" s="7"/>
+      <c r="V328" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W328" s="6"/>
       <c r="X328" s="7"/>
       <c r="Y328" s="6"/>
@@ -22813,13 +22813,13 @@
       <c r="O329" s="6"/>
       <c r="P329" s="7"/>
       <c r="Q329" s="6"/>
-      <c r="R329" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R329" s="7"/>
       <c r="S329" s="6"/>
       <c r="T329" s="7"/>
       <c r="U329" s="6"/>
-      <c r="V329" s="7"/>
+      <c r="V329" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W329" s="6"/>
       <c r="X329" s="7"/>
       <c r="Y329" s="6"/>
@@ -22871,13 +22871,13 @@
       <c r="O330" s="6"/>
       <c r="P330" s="7"/>
       <c r="Q330" s="6"/>
-      <c r="R330" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="R330" s="7"/>
       <c r="S330" s="6"/>
       <c r="T330" s="7"/>
       <c r="U330" s="6"/>
-      <c r="V330" s="7"/>
+      <c r="V330" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="W330" s="6"/>
       <c r="X330" s="7"/>
       <c r="Y330" s="6"/>
@@ -22928,13 +22928,13 @@
       <c r="P331" s="3"/>
       <c r="Q331" s="2"/>
       <c r="R331" s="3"/>
-      <c r="S331" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S331" s="2"/>
       <c r="T331" s="3"/>
       <c r="U331" s="2"/>
       <c r="V331" s="3"/>
-      <c r="W331" s="2"/>
+      <c r="W331" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="X331" s="3"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
@@ -22983,17 +22983,17 @@
       </c>
       <c r="N332" s="3"/>
       <c r="O332" s="2"/>
-      <c r="P332" s="4" t="s">
-        <v>607</v>
+      <c r="P332" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q332" s="2"/>
       <c r="R332" s="3"/>
-      <c r="S332" s="2"/>
+      <c r="S332" s="9" t="s">
+        <v>607</v>
+      </c>
       <c r="T332" s="3"/>
       <c r="U332" s="2"/>
-      <c r="V332" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V332" s="3"/>
       <c r="W332" s="2"/>
       <c r="X332" s="3"/>
       <c r="Y332" s="2"/>
@@ -23043,17 +23043,17 @@
       </c>
       <c r="N333" s="3"/>
       <c r="O333" s="2"/>
-      <c r="P333" s="4" t="s">
-        <v>607</v>
+      <c r="P333" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q333" s="2"/>
       <c r="R333" s="3"/>
-      <c r="S333" s="2"/>
+      <c r="S333" s="9" t="s">
+        <v>607</v>
+      </c>
       <c r="T333" s="3"/>
       <c r="U333" s="2"/>
-      <c r="V333" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="V333" s="3"/>
       <c r="W333" s="2"/>
       <c r="X333" s="3"/>
       <c r="Y333" s="2"/>

--- a/SC24/artifacts/MCB/MCB.xlsx
+++ b/SC24/artifacts/MCB/MCB.xlsx
@@ -61,39 +61,39 @@
     <t>BMS_LV</t>
   </si>
   <si>
+    <t>DIAG_TOOL</t>
+  </si>
+  <si>
+    <t>EXTRA_NODE</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>TPMS</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>DSPACE</t>
+  </si>
+  <si>
+    <t>SB_FRONT</t>
+  </si>
+  <si>
     <t>SB_REAR</t>
   </si>
   <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
-    <t>TPMS</t>
-  </si>
-  <si>
-    <t>IMU</t>
+    <t>TLB_BAT</t>
   </si>
   <si>
     <t>BRUSA</t>
   </si>
   <si>
-    <t>DASH</t>
-  </si>
-  <si>
-    <t>DIAG_TOOL</t>
-  </si>
-  <si>
-    <t>DSPACE</t>
-  </si>
-  <si>
-    <t>EXTRA_NODE</t>
-  </si>
-  <si>
-    <t>SB_FRONT</t>
-  </si>
-  <si>
-    <t>TLB_BAT</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>467h</t>
   </si>
   <si>
-    <t>DSPACE_xcpTx</t>
+    <t>DSPACE__xcpTx</t>
   </si>
   <si>
     <t>469h</t>
@@ -2338,12 +2338,12 @@
     <fill>
       <patternFill patternType="lightGray">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="lightGray">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2822,29 +2822,29 @@
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="2"/>
       <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="2"/>
+      <c r="U2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
         <v>37</v>
@@ -2892,29 +2892,29 @@
       <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="6"/>
       <c r="T3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="6"/>
+      <c r="U3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
         <v>40</v>
@@ -2962,29 +2962,29 @@
       <c r="N4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R4" s="7"/>
       <c r="S4" s="6"/>
       <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="6"/>
+      <c r="U4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6" t="s">
         <v>43</v>
@@ -3032,29 +3032,29 @@
       <c r="N5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="6"/>
       <c r="T5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="6"/>
+      <c r="U5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6" t="s">
         <v>46</v>
@@ -3104,29 +3104,29 @@
       <c r="N6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
       <c r="T6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="6"/>
+      <c r="U6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6" t="s">
         <v>50</v>
@@ -3176,29 +3176,29 @@
       <c r="N7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
       <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="6"/>
+      <c r="U7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6" t="s">
         <v>50</v>
@@ -3248,29 +3248,29 @@
       <c r="N8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="6"/>
       <c r="T8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" s="6"/>
+      <c r="U8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6" t="s">
         <v>57</v>
@@ -3319,22 +3319,22 @@
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -3379,22 +3379,22 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="6"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="7"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
@@ -3439,22 +3439,22 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="6"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="7"/>
       <c r="W11" s="6"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
@@ -3499,22 +3499,22 @@
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="6"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="7"/>
       <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
@@ -3559,22 +3559,22 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="7"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
@@ -3619,22 +3619,22 @@
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="7"/>
       <c r="W14" s="6"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
@@ -3679,22 +3679,22 @@
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="7"/>
       <c r="W15" s="6"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
@@ -3739,22 +3739,22 @@
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="7"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
@@ -3799,22 +3799,22 @@
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R17" s="7"/>
       <c r="S17" s="6"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="7"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
@@ -3859,22 +3859,22 @@
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="7"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
@@ -3919,22 +3919,22 @@
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="7"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
@@ -3979,22 +3979,22 @@
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="7"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
@@ -4039,22 +4039,22 @@
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="7"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
@@ -4099,22 +4099,22 @@
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="7"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
@@ -4159,22 +4159,22 @@
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="6"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="7"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
@@ -4219,21 +4219,21 @@
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="3" t="s">
-        <v>31</v>
+      <c r="U24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W24" s="2"/>
-      <c r="X24" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X24" s="3"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
@@ -4283,21 +4283,21 @@
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="7" t="s">
-        <v>31</v>
+      <c r="U25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W25" s="6"/>
-      <c r="X25" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X25" s="7"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6" t="s">
@@ -4347,21 +4347,21 @@
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" s="6"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R26" s="7"/>
       <c r="S26" s="6"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="7" t="s">
-        <v>31</v>
+      <c r="U26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W26" s="6"/>
-      <c r="X26" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X26" s="7"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6" t="s">
@@ -4411,21 +4411,21 @@
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R27" s="7"/>
       <c r="S27" s="6"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="7" t="s">
-        <v>31</v>
+      <c r="U27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W27" s="6"/>
-      <c r="X27" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X27" s="7"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6" t="s">
@@ -4474,21 +4474,21 @@
         <v>36</v>
       </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="2"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="2"/>
+      <c r="U28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -4538,21 +4538,21 @@
         <v>36</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R29" s="7"/>
       <c r="S29" s="6"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
@@ -4602,21 +4602,21 @@
         <v>36</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R30" s="7"/>
       <c r="S30" s="6"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="6"/>
+      <c r="U30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
@@ -4666,21 +4666,21 @@
         <v>36</v>
       </c>
       <c r="N31" s="3"/>
-      <c r="O31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R31" s="3"/>
       <c r="S31" s="2"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="2"/>
+      <c r="U31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X31" s="3"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -4726,21 +4726,21 @@
         <v>36</v>
       </c>
       <c r="N32" s="7"/>
-      <c r="O32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R32" s="7"/>
       <c r="S32" s="6"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="6"/>
+      <c r="U32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="7"/>
+      <c r="W32" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
@@ -4785,21 +4785,21 @@
       <c r="M33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="2"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="2"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" s="3"/>
       <c r="W33" s="2"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="2"/>
@@ -4849,21 +4849,21 @@
       <c r="M34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="N34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="6"/>
-      <c r="P34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="6"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R34" s="7"/>
       <c r="S34" s="6"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V34" s="7"/>
       <c r="W34" s="6"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="6"/>
@@ -4913,21 +4913,21 @@
       <c r="M35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="N35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="6"/>
-      <c r="P35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R35" s="7"/>
       <c r="S35" s="6"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V35" s="7"/>
       <c r="W35" s="6"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="6"/>
@@ -4979,19 +4979,19 @@
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="T36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" s="3"/>
       <c r="W36" s="2"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="2"/>
@@ -5041,19 +5041,19 @@
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="6"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R37" s="7"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" s="7"/>
       <c r="W37" s="6"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="6"/>
@@ -5101,19 +5101,19 @@
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R38" s="7"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="6"/>
-      <c r="V38" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" s="7"/>
       <c r="W38" s="6"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="6"/>
@@ -5161,19 +5161,19 @@
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R39" s="7"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" s="6"/>
-      <c r="V39" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V39" s="7"/>
       <c r="W39" s="6"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="6"/>
@@ -5221,19 +5221,19 @@
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="6"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R40" s="7"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" s="6"/>
-      <c r="V40" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V40" s="7"/>
       <c r="W40" s="6"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="6"/>
@@ -5281,19 +5281,19 @@
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6"/>
-      <c r="P41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R41" s="7"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U41" s="6"/>
-      <c r="V41" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V41" s="7"/>
       <c r="W41" s="6"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="6"/>
@@ -5343,19 +5343,19 @@
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R42" s="7"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" s="7"/>
       <c r="W42" s="6"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="6"/>
@@ -5404,23 +5404,23 @@
         <v>36</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="2"/>
       <c r="T43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W43" s="2"/>
+      <c r="U43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X43" s="3"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -5467,19 +5467,19 @@
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R44" s="7"/>
       <c r="S44" s="6"/>
       <c r="T44" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U44" s="6"/>
-      <c r="V44" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" s="7"/>
       <c r="W44" s="6"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="6"/>
@@ -5526,23 +5526,23 @@
         <v>36</v>
       </c>
       <c r="N45" s="7"/>
-      <c r="O45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R45" s="7"/>
       <c r="S45" s="6"/>
       <c r="T45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="6"/>
-      <c r="V45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W45" s="6"/>
+      <c r="U45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="7"/>
+      <c r="W45" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X45" s="7"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -5592,23 +5592,23 @@
         <v>36</v>
       </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R46" s="7"/>
       <c r="S46" s="6"/>
       <c r="T46" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="6"/>
-      <c r="V46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W46" s="6"/>
+      <c r="U46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" s="7"/>
+      <c r="W46" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="X46" s="7"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
@@ -5660,15 +5660,15 @@
       <c r="N47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
       <c r="S47" s="2"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U47" s="2"/>
       <c r="V47" s="3"/>
       <c r="W47" s="2"/>
       <c r="X47" s="3"/>
@@ -5718,7 +5718,9 @@
         <v>36</v>
       </c>
       <c r="N48" s="3"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3"/>
@@ -5726,9 +5728,7 @@
       <c r="T48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U48" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U48" s="2"/>
       <c r="V48" s="3"/>
       <c r="W48" s="2"/>
       <c r="X48" s="3"/>
@@ -5778,19 +5778,19 @@
         <v>36</v>
       </c>
       <c r="N49" s="3"/>
-      <c r="O49" s="2" t="s">
-        <v>31</v>
+      <c r="O49" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="P49" s="3"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="3"/>
       <c r="S49" s="2"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U49" s="2"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="2"/>
+      <c r="W49" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X49" s="3"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5838,20 +5838,20 @@
         <v>36</v>
       </c>
       <c r="N50" s="3"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
       <c r="S50" s="2"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V50" s="3"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="W50" s="2"/>
-      <c r="X50" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="X50" s="3"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
@@ -5898,17 +5898,17 @@
         <v>36</v>
       </c>
       <c r="N51" s="3"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="2"/>
+      <c r="O51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R51" s="3"/>
       <c r="S51" s="2"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U51" s="2"/>
       <c r="V51" s="3"/>
       <c r="W51" s="2"/>
       <c r="X51" s="3"/>
@@ -5958,21 +5958,21 @@
         <v>36</v>
       </c>
       <c r="N52" s="3"/>
-      <c r="O52" s="2"/>
+      <c r="O52" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="3"/>
       <c r="S52" s="2"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="U52" s="2"/>
       <c r="V52" s="3"/>
       <c r="W52" s="2"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="X52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
         <v>162</v>
@@ -6019,22 +6019,22 @@
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="2"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R53" s="3"/>
       <c r="S53" s="2"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" s="3"/>
       <c r="W53" s="2"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -6079,22 +6079,22 @@
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="6"/>
-      <c r="P54" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="6"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R54" s="7"/>
       <c r="S54" s="6"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V54" s="7"/>
       <c r="W54" s="6"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
@@ -6139,22 +6139,22 @@
       </c>
       <c r="N55" s="7"/>
       <c r="O55" s="6"/>
-      <c r="P55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="6"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R55" s="7"/>
       <c r="S55" s="6"/>
       <c r="T55" s="7"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="7"/>
       <c r="W55" s="6"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
@@ -6199,22 +6199,22 @@
       </c>
       <c r="N56" s="7"/>
       <c r="O56" s="6"/>
-      <c r="P56" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q56" s="6"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R56" s="7"/>
       <c r="S56" s="6"/>
       <c r="T56" s="7"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V56" s="7"/>
       <c r="W56" s="6"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
@@ -6259,22 +6259,22 @@
       </c>
       <c r="N57" s="7"/>
       <c r="O57" s="6"/>
-      <c r="P57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q57" s="6"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R57" s="7"/>
       <c r="S57" s="6"/>
       <c r="T57" s="7"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V57" s="7"/>
       <c r="W57" s="6"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6" t="s">
         <v>37</v>
@@ -6323,22 +6323,22 @@
       </c>
       <c r="N58" s="7"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q58" s="6"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R58" s="7"/>
       <c r="S58" s="6"/>
       <c r="T58" s="7"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V58" s="7"/>
       <c r="W58" s="6"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6" t="s">
         <v>37</v>
@@ -6386,21 +6386,21 @@
         <v>36</v>
       </c>
       <c r="N59" s="3"/>
-      <c r="O59" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R59" s="3"/>
       <c r="S59" s="2"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59" s="2"/>
+      <c r="U59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V59" s="3"/>
+      <c r="W59" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X59" s="3"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -6446,21 +6446,21 @@
         <v>36</v>
       </c>
       <c r="N60" s="7"/>
-      <c r="O60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R60" s="7"/>
       <c r="S60" s="6"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W60" s="6"/>
+      <c r="U60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V60" s="7"/>
+      <c r="W60" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X60" s="7"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="6"/>
@@ -6506,21 +6506,21 @@
         <v>36</v>
       </c>
       <c r="N61" s="7"/>
-      <c r="O61" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R61" s="7"/>
       <c r="S61" s="6"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W61" s="6"/>
+      <c r="U61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V61" s="7"/>
+      <c r="W61" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X61" s="7"/>
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
@@ -6566,21 +6566,21 @@
         <v>36</v>
       </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R62" s="7"/>
       <c r="S62" s="6"/>
       <c r="T62" s="7"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W62" s="6"/>
+      <c r="U62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V62" s="7"/>
+      <c r="W62" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
@@ -6627,21 +6627,21 @@
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" s="2"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R63" s="3"/>
       <c r="S63" s="2"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="3" t="s">
-        <v>31</v>
+      <c r="U63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W63" s="2"/>
-      <c r="X63" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X63" s="3"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
@@ -6687,21 +6687,21 @@
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="6"/>
-      <c r="P64" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q64" s="6"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R64" s="7"/>
       <c r="S64" s="6"/>
       <c r="T64" s="7"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="7" t="s">
-        <v>31</v>
+      <c r="U64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V64" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W64" s="6"/>
-      <c r="X64" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X64" s="7"/>
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
@@ -6747,21 +6747,21 @@
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="6"/>
-      <c r="P65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q65" s="6"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R65" s="7"/>
       <c r="S65" s="6"/>
       <c r="T65" s="7"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="7" t="s">
-        <v>31</v>
+      <c r="U65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V65" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W65" s="6"/>
-      <c r="X65" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X65" s="7"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
@@ -6807,21 +6807,21 @@
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="2"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R66" s="3"/>
       <c r="S66" s="2"/>
       <c r="T66" s="3"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="3" t="s">
-        <v>31</v>
+      <c r="U66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V66" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W66" s="2"/>
-      <c r="X66" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X66" s="3"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2" t="s">
@@ -6871,21 +6871,21 @@
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="6"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R67" s="7"/>
       <c r="S67" s="6"/>
       <c r="T67" s="7"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="7" t="s">
-        <v>31</v>
+      <c r="U67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V67" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W67" s="6"/>
-      <c r="X67" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X67" s="7"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6" t="s">
@@ -6934,21 +6934,21 @@
         <v>36</v>
       </c>
       <c r="N68" s="3"/>
-      <c r="O68" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R68" s="3"/>
       <c r="S68" s="2"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W68" s="2"/>
+      <c r="U68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V68" s="3"/>
+      <c r="W68" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X68" s="3"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -6998,21 +6998,21 @@
         <v>36</v>
       </c>
       <c r="N69" s="7"/>
-      <c r="O69" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R69" s="7"/>
       <c r="S69" s="6"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W69" s="6"/>
+      <c r="U69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V69" s="7"/>
+      <c r="W69" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X69" s="7"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
@@ -7063,10 +7063,10 @@
       <c r="O70" s="2"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S70" s="2"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T70" s="3"/>
       <c r="U70" s="2"/>
       <c r="V70" s="3"/>
@@ -7121,10 +7121,10 @@
       <c r="O71" s="6"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="6"/>
-      <c r="R71" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="6"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="6"/>
       <c r="V71" s="7"/>
@@ -7179,10 +7179,10 @@
       <c r="O72" s="6"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="6"/>
-      <c r="R72" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S72" s="6"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T72" s="7"/>
       <c r="U72" s="6"/>
       <c r="V72" s="7"/>
@@ -7237,10 +7237,10 @@
       <c r="O73" s="2"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S73" s="2"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T73" s="3"/>
       <c r="U73" s="2"/>
       <c r="V73" s="3"/>
@@ -7295,10 +7295,10 @@
       <c r="O74" s="6"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="6"/>
-      <c r="R74" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S74" s="6"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T74" s="7"/>
       <c r="U74" s="6"/>
       <c r="V74" s="7"/>
@@ -7353,10 +7353,10 @@
       <c r="O75" s="6"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="6"/>
-      <c r="R75" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S75" s="6"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T75" s="7"/>
       <c r="U75" s="6"/>
       <c r="V75" s="7"/>
@@ -7411,10 +7411,10 @@
       <c r="O76" s="2"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S76" s="2"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="2"/>
       <c r="V76" s="3"/>
@@ -7469,10 +7469,10 @@
       <c r="O77" s="6"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="6"/>
-      <c r="R77" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S77" s="6"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T77" s="7"/>
       <c r="U77" s="6"/>
       <c r="V77" s="7"/>
@@ -7527,10 +7527,10 @@
       <c r="O78" s="6"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="6"/>
-      <c r="R78" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S78" s="6"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T78" s="7"/>
       <c r="U78" s="6"/>
       <c r="V78" s="7"/>
@@ -7585,10 +7585,10 @@
       <c r="O79" s="2"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S79" s="2"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T79" s="3"/>
       <c r="U79" s="2"/>
       <c r="V79" s="3"/>
@@ -7643,10 +7643,10 @@
       <c r="O80" s="6"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="6"/>
-      <c r="R80" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S80" s="6"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T80" s="7"/>
       <c r="U80" s="6"/>
       <c r="V80" s="7"/>
@@ -7701,10 +7701,10 @@
       <c r="O81" s="2"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S81" s="2"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T81" s="3"/>
       <c r="U81" s="2"/>
       <c r="V81" s="3"/>
@@ -7759,10 +7759,10 @@
       <c r="O82" s="6"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="6"/>
-      <c r="R82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S82" s="6"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T82" s="7"/>
       <c r="U82" s="6"/>
       <c r="V82" s="7"/>
@@ -7817,10 +7817,10 @@
       <c r="O83" s="6"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="6"/>
-      <c r="R83" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S83" s="6"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T83" s="7"/>
       <c r="U83" s="6"/>
       <c r="V83" s="7"/>
@@ -7875,10 +7875,10 @@
       <c r="O84" s="2"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S84" s="2"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="T84" s="3"/>
       <c r="U84" s="2"/>
       <c r="V84" s="3"/>
@@ -7933,10 +7933,10 @@
       <c r="O85" s="6"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="6"/>
-      <c r="R85" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S85" s="6"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="6"/>
       <c r="V85" s="7"/>
@@ -7991,10 +7991,10 @@
       <c r="O86" s="6"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="6"/>
-      <c r="R86" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S86" s="6"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T86" s="7"/>
       <c r="U86" s="6"/>
       <c r="V86" s="7"/>
@@ -8049,10 +8049,10 @@
       <c r="O87" s="6"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S87" s="6"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="6"/>
       <c r="V87" s="7"/>
@@ -8104,21 +8104,21 @@
         <v>36</v>
       </c>
       <c r="N88" s="3"/>
-      <c r="O88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="2"/>
       <c r="R88" s="3"/>
       <c r="S88" s="2"/>
       <c r="T88" s="3"/>
-      <c r="U88" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U88" s="2"/>
       <c r="V88" s="3"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X88" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2" t="s">
         <v>162</v>
@@ -8164,20 +8164,20 @@
         <v>36</v>
       </c>
       <c r="N89" s="3"/>
-      <c r="O89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="3"/>
       <c r="S89" s="2"/>
       <c r="T89" s="3"/>
-      <c r="U89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V89" s="3"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="W89" s="2"/>
-      <c r="X89" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X89" s="3"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2" t="s">
@@ -8224,19 +8224,19 @@
         <v>36</v>
       </c>
       <c r="N90" s="3"/>
-      <c r="O90" s="9" t="s">
-        <v>32</v>
+      <c r="O90" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="3"/>
       <c r="S90" s="2"/>
       <c r="T90" s="3"/>
-      <c r="U90" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U90" s="2"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="2"/>
+      <c r="W90" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X90" s="3"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
@@ -8283,18 +8283,18 @@
       <c r="M91" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N91" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O91" s="2"/>
+      <c r="N91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="3"/>
       <c r="S91" s="2"/>
       <c r="T91" s="3"/>
-      <c r="U91" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U91" s="2"/>
       <c r="V91" s="3"/>
       <c r="W91" s="2"/>
       <c r="X91" s="3"/>
@@ -8344,17 +8344,17 @@
         <v>36</v>
       </c>
       <c r="N92" s="3"/>
-      <c r="O92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="2"/>
       <c r="R92" s="3"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="T92" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U92" s="2"/>
       <c r="V92" s="3"/>
       <c r="W92" s="2"/>
       <c r="X92" s="3"/>
@@ -8404,18 +8404,18 @@
         <v>36</v>
       </c>
       <c r="N93" s="3"/>
-      <c r="O93" s="2"/>
+      <c r="O93" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="3"/>
       <c r="S93" s="2"/>
       <c r="T93" s="3"/>
-      <c r="U93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V93" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U93" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V93" s="3"/>
       <c r="W93" s="2"/>
       <c r="X93" s="3"/>
       <c r="Y93" s="2"/>
@@ -8464,17 +8464,17 @@
         <v>36</v>
       </c>
       <c r="N94" s="3"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q94" s="2"/>
+      <c r="O94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="R94" s="3"/>
       <c r="S94" s="2"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U94" s="2"/>
       <c r="V94" s="3"/>
       <c r="W94" s="2"/>
       <c r="X94" s="3"/>
@@ -8525,19 +8525,19 @@
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="2"/>
-      <c r="P95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q95" s="2"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R95" s="3"/>
       <c r="S95" s="2"/>
       <c r="T95" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U95" s="2"/>
-      <c r="V95" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U95" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V95" s="3"/>
       <c r="W95" s="2"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="2"/>
@@ -8589,19 +8589,19 @@
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="2"/>
-      <c r="P96" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q96" s="2"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R96" s="3"/>
       <c r="S96" s="2"/>
       <c r="T96" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U96" s="2"/>
-      <c r="V96" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U96" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V96" s="3"/>
       <c r="W96" s="2"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="2"/>
@@ -8653,19 +8653,19 @@
       </c>
       <c r="N97" s="7"/>
       <c r="O97" s="6"/>
-      <c r="P97" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q97" s="6"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R97" s="7"/>
       <c r="S97" s="6"/>
       <c r="T97" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U97" s="6"/>
-      <c r="V97" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U97" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V97" s="7"/>
       <c r="W97" s="6"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="6"/>
@@ -8717,19 +8717,19 @@
       </c>
       <c r="N98" s="7"/>
       <c r="O98" s="6"/>
-      <c r="P98" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q98" s="6"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R98" s="7"/>
       <c r="S98" s="6"/>
       <c r="T98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U98" s="6"/>
-      <c r="V98" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U98" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V98" s="7"/>
       <c r="W98" s="6"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="6"/>
@@ -8781,19 +8781,19 @@
       </c>
       <c r="N99" s="7"/>
       <c r="O99" s="6"/>
-      <c r="P99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q99" s="6"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R99" s="7"/>
       <c r="S99" s="6"/>
       <c r="T99" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U99" s="6"/>
-      <c r="V99" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U99" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V99" s="7"/>
       <c r="W99" s="6"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="6"/>
@@ -8845,19 +8845,19 @@
       </c>
       <c r="N100" s="7"/>
       <c r="O100" s="6"/>
-      <c r="P100" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q100" s="6"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R100" s="7"/>
       <c r="S100" s="6"/>
       <c r="T100" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U100" s="6"/>
-      <c r="V100" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U100" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V100" s="7"/>
       <c r="W100" s="6"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="6"/>
@@ -8909,19 +8909,19 @@
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="6"/>
-      <c r="P101" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q101" s="6"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R101" s="7"/>
       <c r="S101" s="6"/>
       <c r="T101" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U101" s="6"/>
-      <c r="V101" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U101" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V101" s="7"/>
       <c r="W101" s="6"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="6"/>
@@ -8973,19 +8973,19 @@
       </c>
       <c r="N102" s="7"/>
       <c r="O102" s="6"/>
-      <c r="P102" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q102" s="6"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R102" s="7"/>
       <c r="S102" s="6"/>
       <c r="T102" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U102" s="6"/>
-      <c r="V102" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U102" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V102" s="7"/>
       <c r="W102" s="6"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="6"/>
@@ -9037,19 +9037,19 @@
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="6"/>
-      <c r="P103" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q103" s="6"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R103" s="7"/>
       <c r="S103" s="6"/>
       <c r="T103" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U103" s="6"/>
-      <c r="V103" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U103" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V103" s="7"/>
       <c r="W103" s="6"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="6"/>
@@ -9101,19 +9101,19 @@
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q104" s="6"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R104" s="7"/>
       <c r="S104" s="6"/>
       <c r="T104" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U104" s="6"/>
-      <c r="V104" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U104" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V104" s="7"/>
       <c r="W104" s="6"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="6"/>
@@ -9165,19 +9165,19 @@
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="6"/>
-      <c r="P105" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q105" s="6"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R105" s="7"/>
       <c r="S105" s="6"/>
       <c r="T105" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U105" s="6"/>
-      <c r="V105" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U105" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V105" s="7"/>
       <c r="W105" s="6"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="6"/>
@@ -9229,19 +9229,19 @@
       </c>
       <c r="N106" s="7"/>
       <c r="O106" s="6"/>
-      <c r="P106" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q106" s="6"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R106" s="7"/>
       <c r="S106" s="6"/>
       <c r="T106" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U106" s="6"/>
-      <c r="V106" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U106" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V106" s="7"/>
       <c r="W106" s="6"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="6"/>
@@ -9293,19 +9293,19 @@
       </c>
       <c r="N107" s="7"/>
       <c r="O107" s="6"/>
-      <c r="P107" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q107" s="6"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R107" s="7"/>
       <c r="S107" s="6"/>
       <c r="T107" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U107" s="6"/>
-      <c r="V107" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U107" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V107" s="7"/>
       <c r="W107" s="6"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="6"/>
@@ -9357,19 +9357,19 @@
       </c>
       <c r="N108" s="7"/>
       <c r="O108" s="6"/>
-      <c r="P108" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q108" s="6"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R108" s="7"/>
       <c r="S108" s="6"/>
       <c r="T108" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U108" s="6"/>
-      <c r="V108" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U108" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V108" s="7"/>
       <c r="W108" s="6"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="6"/>
@@ -9421,19 +9421,19 @@
       </c>
       <c r="N109" s="7"/>
       <c r="O109" s="6"/>
-      <c r="P109" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q109" s="6"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R109" s="7"/>
       <c r="S109" s="6"/>
       <c r="T109" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U109" s="6"/>
-      <c r="V109" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U109" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V109" s="7"/>
       <c r="W109" s="6"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="6"/>
@@ -9485,19 +9485,19 @@
       </c>
       <c r="N110" s="7"/>
       <c r="O110" s="6"/>
-      <c r="P110" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q110" s="6"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R110" s="7"/>
       <c r="S110" s="6"/>
       <c r="T110" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U110" s="6"/>
-      <c r="V110" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U110" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V110" s="7"/>
       <c r="W110" s="6"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="6"/>
@@ -9549,19 +9549,19 @@
       </c>
       <c r="N111" s="7"/>
       <c r="O111" s="6"/>
-      <c r="P111" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q111" s="6"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R111" s="7"/>
       <c r="S111" s="6"/>
       <c r="T111" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U111" s="6"/>
-      <c r="V111" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U111" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V111" s="7"/>
       <c r="W111" s="6"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="6"/>
@@ -9613,19 +9613,19 @@
       </c>
       <c r="N112" s="7"/>
       <c r="O112" s="6"/>
-      <c r="P112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q112" s="6"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R112" s="7"/>
       <c r="S112" s="6"/>
       <c r="T112" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U112" s="6"/>
-      <c r="V112" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U112" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V112" s="7"/>
       <c r="W112" s="6"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="6"/>
@@ -9677,19 +9677,19 @@
       </c>
       <c r="N113" s="7"/>
       <c r="O113" s="6"/>
-      <c r="P113" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q113" s="6"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R113" s="7"/>
       <c r="S113" s="6"/>
       <c r="T113" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U113" s="6"/>
-      <c r="V113" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U113" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V113" s="7"/>
       <c r="W113" s="6"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="6"/>
@@ -9741,19 +9741,19 @@
       </c>
       <c r="N114" s="7"/>
       <c r="O114" s="6"/>
-      <c r="P114" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q114" s="6"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R114" s="7"/>
       <c r="S114" s="6"/>
       <c r="T114" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U114" s="6"/>
-      <c r="V114" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U114" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V114" s="7"/>
       <c r="W114" s="6"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="6"/>
@@ -9805,19 +9805,19 @@
       </c>
       <c r="N115" s="7"/>
       <c r="O115" s="6"/>
-      <c r="P115" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q115" s="6"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R115" s="7"/>
       <c r="S115" s="6"/>
       <c r="T115" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U115" s="6"/>
-      <c r="V115" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U115" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V115" s="7"/>
       <c r="W115" s="6"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="6"/>
@@ -9869,19 +9869,19 @@
       </c>
       <c r="N116" s="7"/>
       <c r="O116" s="6"/>
-      <c r="P116" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q116" s="6"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R116" s="7"/>
       <c r="S116" s="6"/>
       <c r="T116" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U116" s="6"/>
-      <c r="V116" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U116" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V116" s="7"/>
       <c r="W116" s="6"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="6"/>
@@ -9933,19 +9933,19 @@
       </c>
       <c r="N117" s="7"/>
       <c r="O117" s="6"/>
-      <c r="P117" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q117" s="6"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R117" s="7"/>
       <c r="S117" s="6"/>
       <c r="T117" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U117" s="6"/>
-      <c r="V117" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U117" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V117" s="7"/>
       <c r="W117" s="6"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="6"/>
@@ -9997,19 +9997,19 @@
       </c>
       <c r="N118" s="7"/>
       <c r="O118" s="6"/>
-      <c r="P118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q118" s="6"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R118" s="7"/>
       <c r="S118" s="6"/>
       <c r="T118" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U118" s="6"/>
-      <c r="V118" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U118" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V118" s="7"/>
       <c r="W118" s="6"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="6"/>
@@ -10061,19 +10061,19 @@
       </c>
       <c r="N119" s="7"/>
       <c r="O119" s="6"/>
-      <c r="P119" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q119" s="6"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R119" s="7"/>
       <c r="S119" s="6"/>
       <c r="T119" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U119" s="6"/>
-      <c r="V119" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U119" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V119" s="7"/>
       <c r="W119" s="6"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="6"/>
@@ -10125,19 +10125,19 @@
       </c>
       <c r="N120" s="7"/>
       <c r="O120" s="6"/>
-      <c r="P120" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q120" s="6"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R120" s="7"/>
       <c r="S120" s="6"/>
       <c r="T120" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U120" s="6"/>
-      <c r="V120" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U120" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V120" s="7"/>
       <c r="W120" s="6"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="6"/>
@@ -10189,19 +10189,19 @@
       </c>
       <c r="N121" s="7"/>
       <c r="O121" s="6"/>
-      <c r="P121" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q121" s="6"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R121" s="7"/>
       <c r="S121" s="6"/>
       <c r="T121" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U121" s="6"/>
-      <c r="V121" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U121" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V121" s="7"/>
       <c r="W121" s="6"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="6"/>
@@ -10253,19 +10253,19 @@
       </c>
       <c r="N122" s="7"/>
       <c r="O122" s="6"/>
-      <c r="P122" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q122" s="6"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R122" s="7"/>
       <c r="S122" s="6"/>
       <c r="T122" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U122" s="6"/>
-      <c r="V122" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U122" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V122" s="7"/>
       <c r="W122" s="6"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="6"/>
@@ -10317,19 +10317,19 @@
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="6"/>
-      <c r="P123" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q123" s="6"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R123" s="7"/>
       <c r="S123" s="6"/>
       <c r="T123" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U123" s="6"/>
-      <c r="V123" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U123" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V123" s="7"/>
       <c r="W123" s="6"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="6"/>
@@ -10381,19 +10381,19 @@
       </c>
       <c r="N124" s="7"/>
       <c r="O124" s="6"/>
-      <c r="P124" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q124" s="6"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R124" s="7"/>
       <c r="S124" s="6"/>
       <c r="T124" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U124" s="6"/>
-      <c r="V124" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U124" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V124" s="7"/>
       <c r="W124" s="6"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="6"/>
@@ -10445,19 +10445,19 @@
       </c>
       <c r="N125" s="7"/>
       <c r="O125" s="6"/>
-      <c r="P125" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q125" s="6"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R125" s="7"/>
       <c r="S125" s="6"/>
       <c r="T125" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U125" s="6"/>
-      <c r="V125" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U125" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V125" s="7"/>
       <c r="W125" s="6"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="6"/>
@@ -10509,19 +10509,19 @@
       </c>
       <c r="N126" s="7"/>
       <c r="O126" s="6"/>
-      <c r="P126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q126" s="6"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R126" s="7"/>
       <c r="S126" s="6"/>
       <c r="T126" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U126" s="6"/>
-      <c r="V126" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U126" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V126" s="7"/>
       <c r="W126" s="6"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="6"/>
@@ -10573,19 +10573,19 @@
       </c>
       <c r="N127" s="7"/>
       <c r="O127" s="6"/>
-      <c r="P127" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q127" s="6"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R127" s="7"/>
       <c r="S127" s="6"/>
       <c r="T127" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U127" s="6"/>
-      <c r="V127" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U127" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V127" s="7"/>
       <c r="W127" s="6"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="6"/>
@@ -10637,19 +10637,19 @@
       </c>
       <c r="N128" s="7"/>
       <c r="O128" s="6"/>
-      <c r="P128" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q128" s="6"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R128" s="7"/>
       <c r="S128" s="6"/>
       <c r="T128" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U128" s="6"/>
-      <c r="V128" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U128" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V128" s="7"/>
       <c r="W128" s="6"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="6"/>
@@ -10701,19 +10701,19 @@
       </c>
       <c r="N129" s="7"/>
       <c r="O129" s="6"/>
-      <c r="P129" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q129" s="6"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R129" s="7"/>
       <c r="S129" s="6"/>
       <c r="T129" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U129" s="6"/>
-      <c r="V129" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U129" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V129" s="7"/>
       <c r="W129" s="6"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="6"/>
@@ -10765,19 +10765,19 @@
       </c>
       <c r="N130" s="7"/>
       <c r="O130" s="6"/>
-      <c r="P130" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q130" s="6"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R130" s="7"/>
       <c r="S130" s="6"/>
       <c r="T130" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U130" s="6"/>
-      <c r="V130" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U130" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V130" s="7"/>
       <c r="W130" s="6"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="6"/>
@@ -10827,21 +10827,21 @@
       <c r="M131" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N131" s="4" t="s">
+      <c r="N131" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O131" s="2"/>
-      <c r="P131" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q131" s="2"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R131" s="3"/>
       <c r="S131" s="2"/>
       <c r="T131" s="3"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V131" s="3"/>
       <c r="W131" s="2"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="2"/>
@@ -10887,21 +10887,21 @@
       <c r="M132" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N132" s="8" t="s">
+      <c r="N132" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O132" s="6"/>
-      <c r="P132" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q132" s="6"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R132" s="7"/>
       <c r="S132" s="6"/>
       <c r="T132" s="7"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V132" s="7"/>
       <c r="W132" s="6"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="6"/>
@@ -10947,21 +10947,21 @@
       <c r="M133" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N133" s="8" t="s">
+      <c r="N133" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O133" s="6"/>
-      <c r="P133" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q133" s="6"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R133" s="7"/>
       <c r="S133" s="6"/>
       <c r="T133" s="7"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V133" s="7"/>
       <c r="W133" s="6"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="6"/>
@@ -11007,21 +11007,21 @@
       <c r="M134" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N134" s="8" t="s">
+      <c r="N134" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O134" s="6"/>
-      <c r="P134" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q134" s="6"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R134" s="7"/>
       <c r="S134" s="6"/>
       <c r="T134" s="7"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V134" s="7"/>
       <c r="W134" s="6"/>
       <c r="X134" s="7"/>
       <c r="Y134" s="6"/>
@@ -11067,21 +11067,21 @@
       <c r="M135" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N135" s="8" t="s">
+      <c r="N135" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O135" s="6"/>
-      <c r="P135" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q135" s="6"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R135" s="7"/>
       <c r="S135" s="6"/>
       <c r="T135" s="7"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V135" s="7"/>
       <c r="W135" s="6"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="6"/>
@@ -11127,21 +11127,21 @@
       <c r="M136" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N136" s="8" t="s">
+      <c r="N136" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O136" s="6"/>
-      <c r="P136" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q136" s="6"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R136" s="7"/>
       <c r="S136" s="6"/>
       <c r="T136" s="7"/>
-      <c r="U136" s="6"/>
-      <c r="V136" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V136" s="7"/>
       <c r="W136" s="6"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="6"/>
@@ -11187,21 +11187,21 @@
       <c r="M137" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N137" s="8" t="s">
+      <c r="N137" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O137" s="6"/>
-      <c r="P137" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q137" s="6"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R137" s="7"/>
       <c r="S137" s="6"/>
       <c r="T137" s="7"/>
-      <c r="U137" s="6"/>
-      <c r="V137" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V137" s="7"/>
       <c r="W137" s="6"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="6"/>
@@ -11247,21 +11247,21 @@
       <c r="M138" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N138" s="8" t="s">
+      <c r="N138" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O138" s="6"/>
-      <c r="P138" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q138" s="6"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R138" s="7"/>
       <c r="S138" s="6"/>
       <c r="T138" s="7"/>
-      <c r="U138" s="6"/>
-      <c r="V138" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V138" s="7"/>
       <c r="W138" s="6"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="6"/>
@@ -11307,21 +11307,21 @@
       <c r="M139" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N139" s="8" t="s">
+      <c r="N139" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O139" s="6"/>
-      <c r="P139" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q139" s="6"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R139" s="7"/>
       <c r="S139" s="6"/>
       <c r="T139" s="7"/>
-      <c r="U139" s="6"/>
-      <c r="V139" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V139" s="7"/>
       <c r="W139" s="6"/>
       <c r="X139" s="7"/>
       <c r="Y139" s="6"/>
@@ -11367,21 +11367,21 @@
       <c r="M140" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N140" s="8" t="s">
+      <c r="N140" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O140" s="6"/>
-      <c r="P140" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q140" s="6"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R140" s="7"/>
       <c r="S140" s="6"/>
       <c r="T140" s="7"/>
-      <c r="U140" s="6"/>
-      <c r="V140" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V140" s="7"/>
       <c r="W140" s="6"/>
       <c r="X140" s="7"/>
       <c r="Y140" s="6"/>
@@ -11427,21 +11427,21 @@
       <c r="M141" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N141" s="8" t="s">
+      <c r="N141" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O141" s="6"/>
-      <c r="P141" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q141" s="6"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R141" s="7"/>
       <c r="S141" s="6"/>
       <c r="T141" s="7"/>
-      <c r="U141" s="6"/>
-      <c r="V141" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V141" s="7"/>
       <c r="W141" s="6"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="6"/>
@@ -11487,21 +11487,21 @@
       <c r="M142" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N142" s="8" t="s">
+      <c r="N142" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O142" s="6"/>
-      <c r="P142" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q142" s="6"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R142" s="7"/>
       <c r="S142" s="6"/>
       <c r="T142" s="7"/>
-      <c r="U142" s="6"/>
-      <c r="V142" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V142" s="7"/>
       <c r="W142" s="6"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="6"/>
@@ -11547,21 +11547,21 @@
       <c r="M143" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N143" s="8" t="s">
+      <c r="N143" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O143" s="6"/>
-      <c r="P143" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q143" s="6"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R143" s="7"/>
       <c r="S143" s="6"/>
       <c r="T143" s="7"/>
-      <c r="U143" s="6"/>
-      <c r="V143" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U143" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V143" s="7"/>
       <c r="W143" s="6"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="6"/>
@@ -11607,21 +11607,21 @@
       <c r="M144" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N144" s="8" t="s">
+      <c r="N144" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O144" s="6"/>
-      <c r="P144" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q144" s="6"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R144" s="7"/>
       <c r="S144" s="6"/>
       <c r="T144" s="7"/>
-      <c r="U144" s="6"/>
-      <c r="V144" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U144" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V144" s="7"/>
       <c r="W144" s="6"/>
       <c r="X144" s="7"/>
       <c r="Y144" s="6"/>
@@ -11667,21 +11667,21 @@
       <c r="M145" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N145" s="8" t="s">
+      <c r="N145" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O145" s="6"/>
-      <c r="P145" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q145" s="6"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R145" s="7"/>
       <c r="S145" s="6"/>
       <c r="T145" s="7"/>
-      <c r="U145" s="6"/>
-      <c r="V145" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U145" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V145" s="7"/>
       <c r="W145" s="6"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="6"/>
@@ -11727,21 +11727,21 @@
       <c r="M146" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N146" s="8" t="s">
+      <c r="N146" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O146" s="6"/>
-      <c r="P146" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q146" s="6"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R146" s="7"/>
       <c r="S146" s="6"/>
       <c r="T146" s="7"/>
-      <c r="U146" s="6"/>
-      <c r="V146" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U146" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V146" s="7"/>
       <c r="W146" s="6"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="6"/>
@@ -11787,21 +11787,21 @@
       <c r="M147" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N147" s="8" t="s">
+      <c r="N147" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O147" s="6"/>
-      <c r="P147" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q147" s="6"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R147" s="7"/>
       <c r="S147" s="6"/>
       <c r="T147" s="7"/>
-      <c r="U147" s="6"/>
-      <c r="V147" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U147" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V147" s="7"/>
       <c r="W147" s="6"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="6"/>
@@ -11847,21 +11847,21 @@
       <c r="M148" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N148" s="8" t="s">
+      <c r="N148" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O148" s="6"/>
-      <c r="P148" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q148" s="6"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R148" s="7"/>
       <c r="S148" s="6"/>
       <c r="T148" s="7"/>
-      <c r="U148" s="6"/>
-      <c r="V148" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V148" s="7"/>
       <c r="W148" s="6"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="6"/>
@@ -11907,21 +11907,21 @@
       <c r="M149" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N149" s="8" t="s">
+      <c r="N149" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O149" s="6"/>
-      <c r="P149" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q149" s="6"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R149" s="7"/>
       <c r="S149" s="6"/>
       <c r="T149" s="7"/>
-      <c r="U149" s="6"/>
-      <c r="V149" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U149" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V149" s="7"/>
       <c r="W149" s="6"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="6"/>
@@ -11967,21 +11967,21 @@
       <c r="M150" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N150" s="8" t="s">
+      <c r="N150" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O150" s="6"/>
-      <c r="P150" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q150" s="6"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R150" s="7"/>
       <c r="S150" s="6"/>
       <c r="T150" s="7"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V150" s="7"/>
       <c r="W150" s="6"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="6"/>
@@ -12027,21 +12027,21 @@
       <c r="M151" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N151" s="8" t="s">
+      <c r="N151" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O151" s="6"/>
-      <c r="P151" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q151" s="6"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R151" s="7"/>
       <c r="S151" s="6"/>
       <c r="T151" s="7"/>
-      <c r="U151" s="6"/>
-      <c r="V151" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U151" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V151" s="7"/>
       <c r="W151" s="6"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="6"/>
@@ -12087,21 +12087,21 @@
       <c r="M152" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N152" s="8" t="s">
+      <c r="N152" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O152" s="6"/>
-      <c r="P152" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q152" s="6"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R152" s="7"/>
       <c r="S152" s="6"/>
       <c r="T152" s="7"/>
-      <c r="U152" s="6"/>
-      <c r="V152" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U152" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V152" s="7"/>
       <c r="W152" s="6"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="6"/>
@@ -12147,21 +12147,21 @@
       <c r="M153" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N153" s="8" t="s">
+      <c r="N153" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O153" s="6"/>
-      <c r="P153" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q153" s="6"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R153" s="7"/>
       <c r="S153" s="6"/>
       <c r="T153" s="7"/>
-      <c r="U153" s="6"/>
-      <c r="V153" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U153" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V153" s="7"/>
       <c r="W153" s="6"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="6"/>
@@ -12207,21 +12207,21 @@
       <c r="M154" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N154" s="8" t="s">
+      <c r="N154" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O154" s="6"/>
-      <c r="P154" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q154" s="6"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R154" s="7"/>
       <c r="S154" s="6"/>
       <c r="T154" s="7"/>
-      <c r="U154" s="6"/>
-      <c r="V154" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U154" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V154" s="7"/>
       <c r="W154" s="6"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="6"/>
@@ -12267,21 +12267,21 @@
       <c r="M155" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N155" s="8" t="s">
+      <c r="N155" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O155" s="6"/>
-      <c r="P155" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q155" s="6"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R155" s="7"/>
       <c r="S155" s="6"/>
       <c r="T155" s="7"/>
-      <c r="U155" s="6"/>
-      <c r="V155" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V155" s="7"/>
       <c r="W155" s="6"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="6"/>
@@ -12327,21 +12327,21 @@
       <c r="M156" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N156" s="8" t="s">
+      <c r="N156" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O156" s="6"/>
-      <c r="P156" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q156" s="6"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R156" s="7"/>
       <c r="S156" s="6"/>
       <c r="T156" s="7"/>
-      <c r="U156" s="6"/>
-      <c r="V156" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U156" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V156" s="7"/>
       <c r="W156" s="6"/>
       <c r="X156" s="7"/>
       <c r="Y156" s="6"/>
@@ -12387,21 +12387,21 @@
       <c r="M157" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N157" s="4" t="s">
+      <c r="N157" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O157" s="2"/>
-      <c r="P157" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q157" s="2"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R157" s="3"/>
       <c r="S157" s="2"/>
       <c r="T157" s="3"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V157" s="3"/>
       <c r="W157" s="2"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="2"/>
@@ -12447,21 +12447,21 @@
       <c r="M158" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N158" s="8" t="s">
+      <c r="N158" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O158" s="6"/>
-      <c r="P158" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q158" s="6"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R158" s="7"/>
       <c r="S158" s="6"/>
       <c r="T158" s="7"/>
-      <c r="U158" s="6"/>
-      <c r="V158" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U158" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V158" s="7"/>
       <c r="W158" s="6"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="6"/>
@@ -12507,21 +12507,21 @@
       <c r="M159" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N159" s="4" t="s">
+      <c r="N159" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O159" s="2"/>
-      <c r="P159" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q159" s="2"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R159" s="3"/>
       <c r="S159" s="2"/>
       <c r="T159" s="3"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V159" s="3"/>
       <c r="W159" s="2"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="2"/>
@@ -12571,21 +12571,21 @@
       <c r="M160" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N160" s="8" t="s">
+      <c r="N160" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O160" s="6"/>
-      <c r="P160" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q160" s="6"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R160" s="7"/>
       <c r="S160" s="6"/>
       <c r="T160" s="7"/>
-      <c r="U160" s="6"/>
-      <c r="V160" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U160" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V160" s="7"/>
       <c r="W160" s="6"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="6"/>
@@ -12635,21 +12635,21 @@
       <c r="M161" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N161" s="8" t="s">
+      <c r="N161" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O161" s="6"/>
-      <c r="P161" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q161" s="6"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R161" s="7"/>
       <c r="S161" s="6"/>
       <c r="T161" s="7"/>
-      <c r="U161" s="6"/>
-      <c r="V161" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U161" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V161" s="7"/>
       <c r="W161" s="6"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="6"/>
@@ -12699,21 +12699,21 @@
       <c r="M162" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N162" s="8" t="s">
+      <c r="N162" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O162" s="6"/>
-      <c r="P162" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q162" s="6"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R162" s="7"/>
       <c r="S162" s="6"/>
       <c r="T162" s="7"/>
-      <c r="U162" s="6"/>
-      <c r="V162" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U162" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V162" s="7"/>
       <c r="W162" s="6"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="6"/>
@@ -12763,21 +12763,21 @@
       <c r="M163" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N163" s="4" t="s">
+      <c r="N163" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O163" s="2"/>
-      <c r="P163" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q163" s="2"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R163" s="3"/>
       <c r="S163" s="2"/>
       <c r="T163" s="3"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U163" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V163" s="3"/>
       <c r="W163" s="2"/>
       <c r="X163" s="3"/>
       <c r="Y163" s="2"/>
@@ -12827,21 +12827,21 @@
       <c r="M164" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N164" s="8" t="s">
+      <c r="N164" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O164" s="6"/>
-      <c r="P164" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q164" s="6"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R164" s="7"/>
       <c r="S164" s="6"/>
       <c r="T164" s="7"/>
-      <c r="U164" s="6"/>
-      <c r="V164" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U164" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V164" s="7"/>
       <c r="W164" s="6"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="6"/>
@@ -12891,21 +12891,21 @@
       <c r="M165" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N165" s="8" t="s">
+      <c r="N165" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O165" s="6"/>
-      <c r="P165" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q165" s="6"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R165" s="7"/>
       <c r="S165" s="6"/>
       <c r="T165" s="7"/>
-      <c r="U165" s="6"/>
-      <c r="V165" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U165" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V165" s="7"/>
       <c r="W165" s="6"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="6"/>
@@ -12957,19 +12957,19 @@
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="2"/>
-      <c r="P166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q166" s="2"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R166" s="3"/>
       <c r="S166" s="2"/>
-      <c r="T166" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U166" s="2"/>
-      <c r="V166" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="T166" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V166" s="3"/>
       <c r="W166" s="2"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="2"/>
@@ -13021,19 +13021,19 @@
       </c>
       <c r="N167" s="3"/>
       <c r="O167" s="2"/>
-      <c r="P167" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q167" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R167" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="S167" s="2"/>
       <c r="T167" s="3"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U167" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V167" s="3"/>
       <c r="W167" s="2"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="2"/>
@@ -13083,19 +13083,19 @@
       </c>
       <c r="N168" s="7"/>
       <c r="O168" s="6"/>
-      <c r="P168" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q168" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S168" s="6"/>
       <c r="T168" s="7"/>
-      <c r="U168" s="6"/>
-      <c r="V168" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U168" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V168" s="7"/>
       <c r="W168" s="6"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="6"/>
@@ -13143,19 +13143,19 @@
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="6"/>
-      <c r="P169" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q169" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S169" s="6"/>
       <c r="T169" s="7"/>
-      <c r="U169" s="6"/>
-      <c r="V169" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U169" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V169" s="7"/>
       <c r="W169" s="6"/>
       <c r="X169" s="7"/>
       <c r="Y169" s="6"/>
@@ -13203,19 +13203,19 @@
       </c>
       <c r="N170" s="7"/>
       <c r="O170" s="6"/>
-      <c r="P170" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q170" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S170" s="6"/>
       <c r="T170" s="7"/>
-      <c r="U170" s="6"/>
-      <c r="V170" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U170" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V170" s="7"/>
       <c r="W170" s="6"/>
       <c r="X170" s="7"/>
       <c r="Y170" s="6"/>
@@ -13267,19 +13267,19 @@
       </c>
       <c r="N171" s="7"/>
       <c r="O171" s="6"/>
-      <c r="P171" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q171" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S171" s="6"/>
       <c r="T171" s="7"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U171" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V171" s="7"/>
       <c r="W171" s="6"/>
       <c r="X171" s="7"/>
       <c r="Y171" s="6"/>
@@ -13331,19 +13331,19 @@
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="6"/>
-      <c r="P172" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q172" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R172" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S172" s="6"/>
       <c r="T172" s="7"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V172" s="7"/>
       <c r="W172" s="6"/>
       <c r="X172" s="7"/>
       <c r="Y172" s="6"/>
@@ -13393,19 +13393,19 @@
       </c>
       <c r="N173" s="7"/>
       <c r="O173" s="6"/>
-      <c r="P173" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q173" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R173" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S173" s="6"/>
       <c r="T173" s="7"/>
-      <c r="U173" s="6"/>
-      <c r="V173" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V173" s="7"/>
       <c r="W173" s="6"/>
       <c r="X173" s="7"/>
       <c r="Y173" s="6"/>
@@ -13453,19 +13453,19 @@
       </c>
       <c r="N174" s="7"/>
       <c r="O174" s="6"/>
-      <c r="P174" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q174" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R174" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S174" s="6"/>
       <c r="T174" s="7"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U174" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V174" s="7"/>
       <c r="W174" s="6"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="6"/>
@@ -13513,19 +13513,19 @@
       </c>
       <c r="N175" s="7"/>
       <c r="O175" s="6"/>
-      <c r="P175" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q175" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R175" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S175" s="6"/>
       <c r="T175" s="7"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U175" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V175" s="7"/>
       <c r="W175" s="6"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="6"/>
@@ -13577,19 +13577,19 @@
       </c>
       <c r="N176" s="7"/>
       <c r="O176" s="6"/>
-      <c r="P176" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q176" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R176" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S176" s="6"/>
       <c r="T176" s="7"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U176" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V176" s="7"/>
       <c r="W176" s="6"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="6"/>
@@ -13641,19 +13641,19 @@
       </c>
       <c r="N177" s="3"/>
       <c r="O177" s="2"/>
-      <c r="P177" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q177" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="R177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R177" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="S177" s="2"/>
       <c r="T177" s="3"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U177" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V177" s="3"/>
       <c r="W177" s="2"/>
       <c r="X177" s="3"/>
       <c r="Y177" s="2"/>
@@ -13703,19 +13703,19 @@
       </c>
       <c r="N178" s="7"/>
       <c r="O178" s="6"/>
-      <c r="P178" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q178" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R178" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S178" s="6"/>
       <c r="T178" s="7"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V178" s="7"/>
       <c r="W178" s="6"/>
       <c r="X178" s="7"/>
       <c r="Y178" s="6"/>
@@ -13763,19 +13763,19 @@
       </c>
       <c r="N179" s="7"/>
       <c r="O179" s="6"/>
-      <c r="P179" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q179" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R179" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S179" s="6"/>
       <c r="T179" s="7"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U179" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V179" s="7"/>
       <c r="W179" s="6"/>
       <c r="X179" s="7"/>
       <c r="Y179" s="6"/>
@@ -13823,19 +13823,19 @@
       </c>
       <c r="N180" s="7"/>
       <c r="O180" s="6"/>
-      <c r="P180" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q180" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R180" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S180" s="6"/>
       <c r="T180" s="7"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U180" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V180" s="7"/>
       <c r="W180" s="6"/>
       <c r="X180" s="7"/>
       <c r="Y180" s="6"/>
@@ -13887,19 +13887,19 @@
       </c>
       <c r="N181" s="7"/>
       <c r="O181" s="6"/>
-      <c r="P181" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q181" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R181" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S181" s="6"/>
       <c r="T181" s="7"/>
-      <c r="U181" s="6"/>
-      <c r="V181" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U181" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V181" s="7"/>
       <c r="W181" s="6"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="6"/>
@@ -13951,19 +13951,19 @@
       </c>
       <c r="N182" s="7"/>
       <c r="O182" s="6"/>
-      <c r="P182" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q182" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R182" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S182" s="6"/>
       <c r="T182" s="7"/>
-      <c r="U182" s="6"/>
-      <c r="V182" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U182" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V182" s="7"/>
       <c r="W182" s="6"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="6"/>
@@ -14013,19 +14013,19 @@
       </c>
       <c r="N183" s="7"/>
       <c r="O183" s="6"/>
-      <c r="P183" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q183" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R183" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S183" s="6"/>
       <c r="T183" s="7"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U183" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V183" s="7"/>
       <c r="W183" s="6"/>
       <c r="X183" s="7"/>
       <c r="Y183" s="6"/>
@@ -14073,19 +14073,19 @@
       </c>
       <c r="N184" s="7"/>
       <c r="O184" s="6"/>
-      <c r="P184" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q184" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R184" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S184" s="6"/>
       <c r="T184" s="7"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U184" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V184" s="7"/>
       <c r="W184" s="6"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="6"/>
@@ -14133,19 +14133,19 @@
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="6"/>
-      <c r="P185" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q185" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R185" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S185" s="6"/>
       <c r="T185" s="7"/>
-      <c r="U185" s="6"/>
-      <c r="V185" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U185" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V185" s="7"/>
       <c r="W185" s="6"/>
       <c r="X185" s="7"/>
       <c r="Y185" s="6"/>
@@ -14197,19 +14197,19 @@
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="6"/>
-      <c r="P186" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q186" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R186" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="S186" s="6"/>
       <c r="T186" s="7"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U186" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V186" s="7"/>
       <c r="W186" s="6"/>
       <c r="X186" s="7"/>
       <c r="Y186" s="6"/>
@@ -14261,20 +14261,20 @@
       </c>
       <c r="N187" s="3"/>
       <c r="O187" s="2"/>
-      <c r="P187" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q187" s="2"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R187" s="3"/>
-      <c r="S187" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S187" s="2"/>
       <c r="T187" s="3"/>
       <c r="U187" s="2"/>
       <c r="V187" s="3"/>
       <c r="W187" s="2"/>
       <c r="X187" s="3"/>
-      <c r="Y187" s="2"/>
+      <c r="Y187" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
       <c r="AB187" s="2"/>
@@ -14319,20 +14319,20 @@
       </c>
       <c r="N188" s="7"/>
       <c r="O188" s="6"/>
-      <c r="P188" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q188" s="6"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R188" s="7"/>
-      <c r="S188" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S188" s="6"/>
       <c r="T188" s="7"/>
       <c r="U188" s="6"/>
       <c r="V188" s="7"/>
       <c r="W188" s="6"/>
       <c r="X188" s="7"/>
-      <c r="Y188" s="6"/>
+      <c r="Y188" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z188" s="6"/>
       <c r="AA188" s="6"/>
       <c r="AB188" s="6"/>
@@ -14377,20 +14377,20 @@
       </c>
       <c r="N189" s="7"/>
       <c r="O189" s="6"/>
-      <c r="P189" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q189" s="6"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R189" s="7"/>
-      <c r="S189" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S189" s="6"/>
       <c r="T189" s="7"/>
       <c r="U189" s="6"/>
       <c r="V189" s="7"/>
       <c r="W189" s="6"/>
       <c r="X189" s="7"/>
-      <c r="Y189" s="6"/>
+      <c r="Y189" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z189" s="6"/>
       <c r="AA189" s="6"/>
       <c r="AB189" s="6"/>
@@ -14435,20 +14435,20 @@
       </c>
       <c r="N190" s="7"/>
       <c r="O190" s="6"/>
-      <c r="P190" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q190" s="6"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R190" s="7"/>
-      <c r="S190" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S190" s="6"/>
       <c r="T190" s="7"/>
       <c r="U190" s="6"/>
       <c r="V190" s="7"/>
       <c r="W190" s="6"/>
       <c r="X190" s="7"/>
-      <c r="Y190" s="6"/>
+      <c r="Y190" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z190" s="6"/>
       <c r="AA190" s="6"/>
       <c r="AB190" s="6"/>
@@ -14493,20 +14493,20 @@
       </c>
       <c r="N191" s="7"/>
       <c r="O191" s="6"/>
-      <c r="P191" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q191" s="6"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R191" s="7"/>
-      <c r="S191" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S191" s="6"/>
       <c r="T191" s="7"/>
       <c r="U191" s="6"/>
       <c r="V191" s="7"/>
       <c r="W191" s="6"/>
       <c r="X191" s="7"/>
-      <c r="Y191" s="6"/>
+      <c r="Y191" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
@@ -14551,20 +14551,20 @@
       </c>
       <c r="N192" s="7"/>
       <c r="O192" s="6"/>
-      <c r="P192" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q192" s="6"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R192" s="7"/>
-      <c r="S192" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S192" s="6"/>
       <c r="T192" s="7"/>
       <c r="U192" s="6"/>
       <c r="V192" s="7"/>
       <c r="W192" s="6"/>
       <c r="X192" s="7"/>
-      <c r="Y192" s="6"/>
+      <c r="Y192" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z192" s="6"/>
       <c r="AA192" s="6"/>
       <c r="AB192" s="6"/>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="N193" s="7"/>
       <c r="O193" s="6"/>
-      <c r="P193" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q193" s="6"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R193" s="7"/>
-      <c r="S193" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S193" s="6"/>
       <c r="T193" s="7"/>
       <c r="U193" s="6"/>
       <c r="V193" s="7"/>
       <c r="W193" s="6"/>
       <c r="X193" s="7"/>
-      <c r="Y193" s="6"/>
+      <c r="Y193" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z193" s="6"/>
       <c r="AA193" s="6"/>
       <c r="AB193" s="6"/>
@@ -14667,20 +14667,20 @@
       </c>
       <c r="N194" s="7"/>
       <c r="O194" s="6"/>
-      <c r="P194" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q194" s="6"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R194" s="7"/>
-      <c r="S194" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S194" s="6"/>
       <c r="T194" s="7"/>
       <c r="U194" s="6"/>
       <c r="V194" s="7"/>
       <c r="W194" s="6"/>
       <c r="X194" s="7"/>
-      <c r="Y194" s="6"/>
+      <c r="Y194" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z194" s="6"/>
       <c r="AA194" s="6"/>
       <c r="AB194" s="6"/>
@@ -14725,20 +14725,20 @@
       </c>
       <c r="N195" s="7"/>
       <c r="O195" s="6"/>
-      <c r="P195" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q195" s="6"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R195" s="7"/>
-      <c r="S195" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S195" s="6"/>
       <c r="T195" s="7"/>
       <c r="U195" s="6"/>
       <c r="V195" s="7"/>
       <c r="W195" s="6"/>
       <c r="X195" s="7"/>
-      <c r="Y195" s="6"/>
+      <c r="Y195" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z195" s="6"/>
       <c r="AA195" s="6"/>
       <c r="AB195" s="6"/>
@@ -14783,20 +14783,20 @@
       </c>
       <c r="N196" s="7"/>
       <c r="O196" s="6"/>
-      <c r="P196" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q196" s="6"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R196" s="7"/>
-      <c r="S196" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S196" s="6"/>
       <c r="T196" s="7"/>
       <c r="U196" s="6"/>
       <c r="V196" s="7"/>
       <c r="W196" s="6"/>
       <c r="X196" s="7"/>
-      <c r="Y196" s="6"/>
+      <c r="Y196" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z196" s="6"/>
       <c r="AA196" s="6"/>
       <c r="AB196" s="6"/>
@@ -14841,20 +14841,20 @@
       </c>
       <c r="N197" s="7"/>
       <c r="O197" s="6"/>
-      <c r="P197" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q197" s="6"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R197" s="7"/>
-      <c r="S197" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S197" s="6"/>
       <c r="T197" s="7"/>
       <c r="U197" s="6"/>
       <c r="V197" s="7"/>
       <c r="W197" s="6"/>
       <c r="X197" s="7"/>
-      <c r="Y197" s="6"/>
+      <c r="Y197" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z197" s="6"/>
       <c r="AA197" s="6"/>
       <c r="AB197" s="6"/>
@@ -14899,20 +14899,20 @@
       </c>
       <c r="N198" s="7"/>
       <c r="O198" s="6"/>
-      <c r="P198" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q198" s="6"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R198" s="7"/>
-      <c r="S198" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S198" s="6"/>
       <c r="T198" s="7"/>
       <c r="U198" s="6"/>
       <c r="V198" s="7"/>
       <c r="W198" s="6"/>
       <c r="X198" s="7"/>
-      <c r="Y198" s="6"/>
+      <c r="Y198" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z198" s="6"/>
       <c r="AA198" s="6"/>
       <c r="AB198" s="6"/>
@@ -14957,20 +14957,20 @@
       </c>
       <c r="N199" s="7"/>
       <c r="O199" s="6"/>
-      <c r="P199" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q199" s="6"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R199" s="7"/>
-      <c r="S199" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S199" s="6"/>
       <c r="T199" s="7"/>
       <c r="U199" s="6"/>
       <c r="V199" s="7"/>
       <c r="W199" s="6"/>
       <c r="X199" s="7"/>
-      <c r="Y199" s="6"/>
+      <c r="Y199" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z199" s="6"/>
       <c r="AA199" s="6"/>
       <c r="AB199" s="6"/>
@@ -15015,20 +15015,20 @@
       </c>
       <c r="N200" s="7"/>
       <c r="O200" s="6"/>
-      <c r="P200" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q200" s="6"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R200" s="7"/>
-      <c r="S200" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S200" s="6"/>
       <c r="T200" s="7"/>
       <c r="U200" s="6"/>
       <c r="V200" s="7"/>
       <c r="W200" s="6"/>
       <c r="X200" s="7"/>
-      <c r="Y200" s="6"/>
+      <c r="Y200" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z200" s="6"/>
       <c r="AA200" s="6"/>
       <c r="AB200" s="6"/>
@@ -15073,20 +15073,20 @@
       </c>
       <c r="N201" s="7"/>
       <c r="O201" s="6"/>
-      <c r="P201" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q201" s="6"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R201" s="7"/>
-      <c r="S201" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S201" s="6"/>
       <c r="T201" s="7"/>
       <c r="U201" s="6"/>
       <c r="V201" s="7"/>
       <c r="W201" s="6"/>
       <c r="X201" s="7"/>
-      <c r="Y201" s="6"/>
+      <c r="Y201" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z201" s="6"/>
       <c r="AA201" s="6"/>
       <c r="AB201" s="6"/>
@@ -15131,20 +15131,20 @@
       </c>
       <c r="N202" s="7"/>
       <c r="O202" s="6"/>
-      <c r="P202" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q202" s="6"/>
+      <c r="P202" s="7"/>
+      <c r="Q202" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R202" s="7"/>
-      <c r="S202" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S202" s="6"/>
       <c r="T202" s="7"/>
       <c r="U202" s="6"/>
       <c r="V202" s="7"/>
       <c r="W202" s="6"/>
       <c r="X202" s="7"/>
-      <c r="Y202" s="6"/>
+      <c r="Y202" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z202" s="6"/>
       <c r="AA202" s="6"/>
       <c r="AB202" s="6"/>
@@ -15189,20 +15189,20 @@
       </c>
       <c r="N203" s="7"/>
       <c r="O203" s="6"/>
-      <c r="P203" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q203" s="6"/>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R203" s="7"/>
-      <c r="S203" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S203" s="6"/>
       <c r="T203" s="7"/>
       <c r="U203" s="6"/>
       <c r="V203" s="7"/>
       <c r="W203" s="6"/>
       <c r="X203" s="7"/>
-      <c r="Y203" s="6"/>
+      <c r="Y203" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z203" s="6"/>
       <c r="AA203" s="6"/>
       <c r="AB203" s="6"/>
@@ -15247,20 +15247,20 @@
       </c>
       <c r="N204" s="7"/>
       <c r="O204" s="6"/>
-      <c r="P204" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q204" s="6"/>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R204" s="7"/>
-      <c r="S204" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S204" s="6"/>
       <c r="T204" s="7"/>
       <c r="U204" s="6"/>
       <c r="V204" s="7"/>
       <c r="W204" s="6"/>
       <c r="X204" s="7"/>
-      <c r="Y204" s="6"/>
+      <c r="Y204" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z204" s="6"/>
       <c r="AA204" s="6"/>
       <c r="AB204" s="6"/>
@@ -15305,20 +15305,20 @@
       </c>
       <c r="N205" s="7"/>
       <c r="O205" s="6"/>
-      <c r="P205" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q205" s="6"/>
+      <c r="P205" s="7"/>
+      <c r="Q205" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R205" s="7"/>
-      <c r="S205" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S205" s="6"/>
       <c r="T205" s="7"/>
       <c r="U205" s="6"/>
       <c r="V205" s="7"/>
       <c r="W205" s="6"/>
       <c r="X205" s="7"/>
-      <c r="Y205" s="6"/>
+      <c r="Y205" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z205" s="6"/>
       <c r="AA205" s="6"/>
       <c r="AB205" s="6"/>
@@ -15363,20 +15363,20 @@
       </c>
       <c r="N206" s="7"/>
       <c r="O206" s="6"/>
-      <c r="P206" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q206" s="6"/>
+      <c r="P206" s="7"/>
+      <c r="Q206" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R206" s="7"/>
-      <c r="S206" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S206" s="6"/>
       <c r="T206" s="7"/>
       <c r="U206" s="6"/>
       <c r="V206" s="7"/>
       <c r="W206" s="6"/>
       <c r="X206" s="7"/>
-      <c r="Y206" s="6"/>
+      <c r="Y206" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z206" s="6"/>
       <c r="AA206" s="6"/>
       <c r="AB206" s="6"/>
@@ -15421,20 +15421,20 @@
       </c>
       <c r="N207" s="7"/>
       <c r="O207" s="6"/>
-      <c r="P207" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q207" s="6"/>
+      <c r="P207" s="7"/>
+      <c r="Q207" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R207" s="7"/>
-      <c r="S207" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S207" s="6"/>
       <c r="T207" s="7"/>
       <c r="U207" s="6"/>
       <c r="V207" s="7"/>
       <c r="W207" s="6"/>
       <c r="X207" s="7"/>
-      <c r="Y207" s="6"/>
+      <c r="Y207" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z207" s="6"/>
       <c r="AA207" s="6"/>
       <c r="AB207" s="6"/>
@@ -15479,20 +15479,20 @@
       </c>
       <c r="N208" s="7"/>
       <c r="O208" s="6"/>
-      <c r="P208" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q208" s="6"/>
+      <c r="P208" s="7"/>
+      <c r="Q208" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R208" s="7"/>
-      <c r="S208" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S208" s="6"/>
       <c r="T208" s="7"/>
       <c r="U208" s="6"/>
       <c r="V208" s="7"/>
       <c r="W208" s="6"/>
       <c r="X208" s="7"/>
-      <c r="Y208" s="6"/>
+      <c r="Y208" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z208" s="6"/>
       <c r="AA208" s="6"/>
       <c r="AB208" s="6"/>
@@ -15537,20 +15537,20 @@
       </c>
       <c r="N209" s="7"/>
       <c r="O209" s="6"/>
-      <c r="P209" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q209" s="6"/>
+      <c r="P209" s="7"/>
+      <c r="Q209" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R209" s="7"/>
-      <c r="S209" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S209" s="6"/>
       <c r="T209" s="7"/>
       <c r="U209" s="6"/>
       <c r="V209" s="7"/>
       <c r="W209" s="6"/>
       <c r="X209" s="7"/>
-      <c r="Y209" s="6"/>
+      <c r="Y209" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z209" s="6"/>
       <c r="AA209" s="6"/>
       <c r="AB209" s="6"/>
@@ -15595,20 +15595,20 @@
       </c>
       <c r="N210" s="7"/>
       <c r="O210" s="6"/>
-      <c r="P210" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q210" s="6"/>
+      <c r="P210" s="7"/>
+      <c r="Q210" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R210" s="7"/>
-      <c r="S210" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S210" s="6"/>
       <c r="T210" s="7"/>
       <c r="U210" s="6"/>
       <c r="V210" s="7"/>
       <c r="W210" s="6"/>
       <c r="X210" s="7"/>
-      <c r="Y210" s="6"/>
+      <c r="Y210" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z210" s="6"/>
       <c r="AA210" s="6"/>
       <c r="AB210" s="6"/>
@@ -15653,20 +15653,20 @@
       </c>
       <c r="N211" s="7"/>
       <c r="O211" s="6"/>
-      <c r="P211" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q211" s="6"/>
+      <c r="P211" s="7"/>
+      <c r="Q211" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R211" s="7"/>
-      <c r="S211" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S211" s="6"/>
       <c r="T211" s="7"/>
       <c r="U211" s="6"/>
       <c r="V211" s="7"/>
       <c r="W211" s="6"/>
       <c r="X211" s="7"/>
-      <c r="Y211" s="6"/>
+      <c r="Y211" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z211" s="6"/>
       <c r="AA211" s="6"/>
       <c r="AB211" s="6"/>
@@ -15711,20 +15711,20 @@
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="2"/>
-      <c r="P212" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q212" s="2"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R212" s="3"/>
-      <c r="S212" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S212" s="2"/>
       <c r="T212" s="3"/>
       <c r="U212" s="2"/>
       <c r="V212" s="3"/>
       <c r="W212" s="2"/>
       <c r="X212" s="3"/>
-      <c r="Y212" s="2"/>
+      <c r="Y212" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z212" s="2"/>
       <c r="AA212" s="2" t="s">
         <v>489</v>
@@ -15773,20 +15773,20 @@
       </c>
       <c r="N213" s="7"/>
       <c r="O213" s="6"/>
-      <c r="P213" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q213" s="6"/>
+      <c r="P213" s="7"/>
+      <c r="Q213" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R213" s="7"/>
-      <c r="S213" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S213" s="6"/>
       <c r="T213" s="7"/>
       <c r="U213" s="6"/>
       <c r="V213" s="7"/>
       <c r="W213" s="6"/>
       <c r="X213" s="7"/>
-      <c r="Y213" s="6"/>
+      <c r="Y213" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z213" s="6"/>
       <c r="AA213" s="6" t="s">
         <v>493</v>
@@ -15835,20 +15835,20 @@
       </c>
       <c r="N214" s="7"/>
       <c r="O214" s="6"/>
-      <c r="P214" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q214" s="6"/>
+      <c r="P214" s="7"/>
+      <c r="Q214" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R214" s="7"/>
-      <c r="S214" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S214" s="6"/>
       <c r="T214" s="7"/>
       <c r="U214" s="6"/>
       <c r="V214" s="7"/>
       <c r="W214" s="6"/>
       <c r="X214" s="7"/>
-      <c r="Y214" s="6"/>
+      <c r="Y214" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z214" s="6"/>
       <c r="AA214" s="6" t="s">
         <v>497</v>
@@ -15897,20 +15897,20 @@
       </c>
       <c r="N215" s="7"/>
       <c r="O215" s="6"/>
-      <c r="P215" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q215" s="6"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R215" s="7"/>
-      <c r="S215" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S215" s="6"/>
       <c r="T215" s="7"/>
       <c r="U215" s="6"/>
       <c r="V215" s="7"/>
       <c r="W215" s="6"/>
       <c r="X215" s="7"/>
-      <c r="Y215" s="6"/>
+      <c r="Y215" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z215" s="6"/>
       <c r="AA215" s="6" t="s">
         <v>500</v>
@@ -15959,20 +15959,20 @@
       </c>
       <c r="N216" s="3"/>
       <c r="O216" s="2"/>
-      <c r="P216" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q216" s="2"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R216" s="3"/>
-      <c r="S216" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S216" s="2"/>
       <c r="T216" s="3"/>
       <c r="U216" s="2"/>
       <c r="V216" s="3"/>
       <c r="W216" s="2"/>
       <c r="X216" s="3"/>
-      <c r="Y216" s="2"/>
+      <c r="Y216" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z216" s="2"/>
       <c r="AA216" s="2" t="s">
         <v>153</v>
@@ -16021,20 +16021,20 @@
       </c>
       <c r="N217" s="7"/>
       <c r="O217" s="6"/>
-      <c r="P217" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q217" s="6"/>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R217" s="7"/>
-      <c r="S217" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S217" s="6"/>
       <c r="T217" s="7"/>
       <c r="U217" s="6"/>
       <c r="V217" s="7"/>
       <c r="W217" s="6"/>
       <c r="X217" s="7"/>
-      <c r="Y217" s="6"/>
+      <c r="Y217" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6" t="s">
         <v>508</v>
@@ -16083,20 +16083,20 @@
       </c>
       <c r="N218" s="7"/>
       <c r="O218" s="6"/>
-      <c r="P218" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q218" s="6"/>
+      <c r="P218" s="7"/>
+      <c r="Q218" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R218" s="7"/>
-      <c r="S218" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S218" s="6"/>
       <c r="T218" s="7"/>
       <c r="U218" s="6"/>
       <c r="V218" s="7"/>
       <c r="W218" s="6"/>
       <c r="X218" s="7"/>
-      <c r="Y218" s="6"/>
+      <c r="Y218" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6" t="s">
         <v>511</v>
@@ -16145,20 +16145,20 @@
       </c>
       <c r="N219" s="7"/>
       <c r="O219" s="6"/>
-      <c r="P219" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q219" s="6"/>
+      <c r="P219" s="7"/>
+      <c r="Q219" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R219" s="7"/>
-      <c r="S219" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S219" s="6"/>
       <c r="T219" s="7"/>
       <c r="U219" s="6"/>
       <c r="V219" s="7"/>
       <c r="W219" s="6"/>
       <c r="X219" s="7"/>
-      <c r="Y219" s="6"/>
+      <c r="Y219" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z219" s="6"/>
       <c r="AA219" s="6" t="s">
         <v>221</v>
@@ -16207,20 +16207,20 @@
       </c>
       <c r="N220" s="7"/>
       <c r="O220" s="6"/>
-      <c r="P220" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q220" s="6"/>
+      <c r="P220" s="7"/>
+      <c r="Q220" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R220" s="7"/>
-      <c r="S220" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S220" s="6"/>
       <c r="T220" s="7"/>
       <c r="U220" s="6"/>
       <c r="V220" s="7"/>
       <c r="W220" s="6"/>
       <c r="X220" s="7"/>
-      <c r="Y220" s="6"/>
+      <c r="Y220" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z220" s="6"/>
       <c r="AA220" s="6" t="s">
         <v>489</v>
@@ -16269,20 +16269,20 @@
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="2"/>
-      <c r="P221" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q221" s="2"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R221" s="3"/>
-      <c r="S221" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S221" s="2"/>
       <c r="T221" s="3"/>
       <c r="U221" s="2"/>
       <c r="V221" s="3"/>
       <c r="W221" s="2"/>
       <c r="X221" s="3"/>
-      <c r="Y221" s="2"/>
+      <c r="Y221" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z221" s="2"/>
       <c r="AA221" s="2" t="s">
         <v>521</v>
@@ -16331,20 +16331,20 @@
       </c>
       <c r="N222" s="7"/>
       <c r="O222" s="6"/>
-      <c r="P222" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q222" s="6"/>
+      <c r="P222" s="7"/>
+      <c r="Q222" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R222" s="7"/>
-      <c r="S222" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S222" s="6"/>
       <c r="T222" s="7"/>
       <c r="U222" s="6"/>
       <c r="V222" s="7"/>
       <c r="W222" s="6"/>
       <c r="X222" s="7"/>
-      <c r="Y222" s="6"/>
+      <c r="Y222" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z222" s="6"/>
       <c r="AA222" s="6" t="s">
         <v>521</v>
@@ -16393,20 +16393,20 @@
       </c>
       <c r="N223" s="7"/>
       <c r="O223" s="6"/>
-      <c r="P223" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q223" s="6"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R223" s="7"/>
-      <c r="S223" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S223" s="6"/>
       <c r="T223" s="7"/>
       <c r="U223" s="6"/>
       <c r="V223" s="7"/>
       <c r="W223" s="6"/>
       <c r="X223" s="7"/>
-      <c r="Y223" s="6"/>
+      <c r="Y223" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z223" s="6"/>
       <c r="AA223" s="6" t="s">
         <v>521</v>
@@ -16455,20 +16455,20 @@
       </c>
       <c r="N224" s="7"/>
       <c r="O224" s="6"/>
-      <c r="P224" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q224" s="6"/>
+      <c r="P224" s="7"/>
+      <c r="Q224" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R224" s="7"/>
-      <c r="S224" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S224" s="6"/>
       <c r="T224" s="7"/>
       <c r="U224" s="6"/>
       <c r="V224" s="7"/>
       <c r="W224" s="6"/>
       <c r="X224" s="7"/>
-      <c r="Y224" s="6"/>
+      <c r="Y224" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z224" s="6"/>
       <c r="AA224" s="6" t="s">
         <v>521</v>
@@ -16517,20 +16517,20 @@
       </c>
       <c r="N225" s="3"/>
       <c r="O225" s="2"/>
-      <c r="P225" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q225" s="2"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R225" s="3"/>
-      <c r="S225" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="S225" s="2"/>
       <c r="T225" s="3"/>
       <c r="U225" s="2"/>
       <c r="V225" s="3"/>
       <c r="W225" s="2"/>
       <c r="X225" s="3"/>
-      <c r="Y225" s="2"/>
+      <c r="Y225" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
       <c r="AB225" s="2"/>
@@ -16575,20 +16575,20 @@
       </c>
       <c r="N226" s="7"/>
       <c r="O226" s="6"/>
-      <c r="P226" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q226" s="6"/>
+      <c r="P226" s="7"/>
+      <c r="Q226" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R226" s="7"/>
-      <c r="S226" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S226" s="6"/>
       <c r="T226" s="7"/>
       <c r="U226" s="6"/>
       <c r="V226" s="7"/>
       <c r="W226" s="6"/>
       <c r="X226" s="7"/>
-      <c r="Y226" s="6"/>
+      <c r="Y226" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z226" s="6"/>
       <c r="AA226" s="6"/>
       <c r="AB226" s="6"/>
@@ -16633,20 +16633,20 @@
       </c>
       <c r="N227" s="7"/>
       <c r="O227" s="6"/>
-      <c r="P227" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q227" s="6"/>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R227" s="7"/>
-      <c r="S227" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S227" s="6"/>
       <c r="T227" s="7"/>
       <c r="U227" s="6"/>
       <c r="V227" s="7"/>
       <c r="W227" s="6"/>
       <c r="X227" s="7"/>
-      <c r="Y227" s="6"/>
+      <c r="Y227" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="6"/>
       <c r="AB227" s="6"/>
@@ -16691,20 +16691,20 @@
       </c>
       <c r="N228" s="7"/>
       <c r="O228" s="6"/>
-      <c r="P228" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q228" s="6"/>
+      <c r="P228" s="7"/>
+      <c r="Q228" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R228" s="7"/>
-      <c r="S228" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S228" s="6"/>
       <c r="T228" s="7"/>
       <c r="U228" s="6"/>
       <c r="V228" s="7"/>
       <c r="W228" s="6"/>
       <c r="X228" s="7"/>
-      <c r="Y228" s="6"/>
+      <c r="Y228" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="6"/>
       <c r="AB228" s="6"/>
@@ -16749,20 +16749,20 @@
       </c>
       <c r="N229" s="7"/>
       <c r="O229" s="6"/>
-      <c r="P229" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q229" s="6"/>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R229" s="7"/>
-      <c r="S229" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S229" s="6"/>
       <c r="T229" s="7"/>
       <c r="U229" s="6"/>
       <c r="V229" s="7"/>
       <c r="W229" s="6"/>
       <c r="X229" s="7"/>
-      <c r="Y229" s="6"/>
+      <c r="Y229" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z229" s="6"/>
       <c r="AA229" s="6"/>
       <c r="AB229" s="6"/>
@@ -16807,20 +16807,20 @@
       </c>
       <c r="N230" s="7"/>
       <c r="O230" s="6"/>
-      <c r="P230" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q230" s="6"/>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R230" s="7"/>
-      <c r="S230" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S230" s="6"/>
       <c r="T230" s="7"/>
       <c r="U230" s="6"/>
       <c r="V230" s="7"/>
       <c r="W230" s="6"/>
       <c r="X230" s="7"/>
-      <c r="Y230" s="6"/>
+      <c r="Y230" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z230" s="6"/>
       <c r="AA230" s="6"/>
       <c r="AB230" s="6"/>
@@ -16865,20 +16865,20 @@
       </c>
       <c r="N231" s="7"/>
       <c r="O231" s="6"/>
-      <c r="P231" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q231" s="6"/>
+      <c r="P231" s="7"/>
+      <c r="Q231" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R231" s="7"/>
-      <c r="S231" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S231" s="6"/>
       <c r="T231" s="7"/>
       <c r="U231" s="6"/>
       <c r="V231" s="7"/>
       <c r="W231" s="6"/>
       <c r="X231" s="7"/>
-      <c r="Y231" s="6"/>
+      <c r="Y231" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z231" s="6"/>
       <c r="AA231" s="6"/>
       <c r="AB231" s="6"/>
@@ -16923,20 +16923,20 @@
       </c>
       <c r="N232" s="7"/>
       <c r="O232" s="6"/>
-      <c r="P232" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q232" s="6"/>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R232" s="7"/>
-      <c r="S232" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S232" s="6"/>
       <c r="T232" s="7"/>
       <c r="U232" s="6"/>
       <c r="V232" s="7"/>
       <c r="W232" s="6"/>
       <c r="X232" s="7"/>
-      <c r="Y232" s="6"/>
+      <c r="Y232" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z232" s="6"/>
       <c r="AA232" s="6"/>
       <c r="AB232" s="6"/>
@@ -16981,20 +16981,20 @@
       </c>
       <c r="N233" s="7"/>
       <c r="O233" s="6"/>
-      <c r="P233" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q233" s="6"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R233" s="7"/>
-      <c r="S233" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S233" s="6"/>
       <c r="T233" s="7"/>
       <c r="U233" s="6"/>
       <c r="V233" s="7"/>
       <c r="W233" s="6"/>
       <c r="X233" s="7"/>
-      <c r="Y233" s="6"/>
+      <c r="Y233" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z233" s="6"/>
       <c r="AA233" s="6"/>
       <c r="AB233" s="6"/>
@@ -17039,20 +17039,20 @@
       </c>
       <c r="N234" s="7"/>
       <c r="O234" s="6"/>
-      <c r="P234" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q234" s="6"/>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R234" s="7"/>
-      <c r="S234" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S234" s="6"/>
       <c r="T234" s="7"/>
       <c r="U234" s="6"/>
       <c r="V234" s="7"/>
       <c r="W234" s="6"/>
       <c r="X234" s="7"/>
-      <c r="Y234" s="6"/>
+      <c r="Y234" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z234" s="6"/>
       <c r="AA234" s="6"/>
       <c r="AB234" s="6"/>
@@ -17097,20 +17097,20 @@
       </c>
       <c r="N235" s="7"/>
       <c r="O235" s="6"/>
-      <c r="P235" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q235" s="6"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R235" s="7"/>
-      <c r="S235" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S235" s="6"/>
       <c r="T235" s="7"/>
       <c r="U235" s="6"/>
       <c r="V235" s="7"/>
       <c r="W235" s="6"/>
       <c r="X235" s="7"/>
-      <c r="Y235" s="6"/>
+      <c r="Y235" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z235" s="6"/>
       <c r="AA235" s="6"/>
       <c r="AB235" s="6"/>
@@ -17155,20 +17155,20 @@
       </c>
       <c r="N236" s="7"/>
       <c r="O236" s="6"/>
-      <c r="P236" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q236" s="6"/>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R236" s="7"/>
-      <c r="S236" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S236" s="6"/>
       <c r="T236" s="7"/>
       <c r="U236" s="6"/>
       <c r="V236" s="7"/>
       <c r="W236" s="6"/>
       <c r="X236" s="7"/>
-      <c r="Y236" s="6"/>
+      <c r="Y236" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z236" s="6"/>
       <c r="AA236" s="6"/>
       <c r="AB236" s="6"/>
@@ -17213,20 +17213,20 @@
       </c>
       <c r="N237" s="7"/>
       <c r="O237" s="6"/>
-      <c r="P237" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q237" s="6"/>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R237" s="7"/>
-      <c r="S237" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S237" s="6"/>
       <c r="T237" s="7"/>
       <c r="U237" s="6"/>
       <c r="V237" s="7"/>
       <c r="W237" s="6"/>
       <c r="X237" s="7"/>
-      <c r="Y237" s="6"/>
+      <c r="Y237" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z237" s="6"/>
       <c r="AA237" s="6"/>
       <c r="AB237" s="6"/>
@@ -17271,20 +17271,20 @@
       </c>
       <c r="N238" s="7"/>
       <c r="O238" s="6"/>
-      <c r="P238" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q238" s="6"/>
+      <c r="P238" s="7"/>
+      <c r="Q238" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R238" s="7"/>
-      <c r="S238" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S238" s="6"/>
       <c r="T238" s="7"/>
       <c r="U238" s="6"/>
       <c r="V238" s="7"/>
       <c r="W238" s="6"/>
       <c r="X238" s="7"/>
-      <c r="Y238" s="6"/>
+      <c r="Y238" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z238" s="6"/>
       <c r="AA238" s="6"/>
       <c r="AB238" s="6"/>
@@ -17329,20 +17329,20 @@
       </c>
       <c r="N239" s="7"/>
       <c r="O239" s="6"/>
-      <c r="P239" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q239" s="6"/>
+      <c r="P239" s="7"/>
+      <c r="Q239" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R239" s="7"/>
-      <c r="S239" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S239" s="6"/>
       <c r="T239" s="7"/>
       <c r="U239" s="6"/>
       <c r="V239" s="7"/>
       <c r="W239" s="6"/>
       <c r="X239" s="7"/>
-      <c r="Y239" s="6"/>
+      <c r="Y239" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z239" s="6"/>
       <c r="AA239" s="6"/>
       <c r="AB239" s="6"/>
@@ -17387,20 +17387,20 @@
       </c>
       <c r="N240" s="7"/>
       <c r="O240" s="6"/>
-      <c r="P240" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q240" s="6"/>
+      <c r="P240" s="7"/>
+      <c r="Q240" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R240" s="7"/>
-      <c r="S240" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S240" s="6"/>
       <c r="T240" s="7"/>
       <c r="U240" s="6"/>
       <c r="V240" s="7"/>
       <c r="W240" s="6"/>
       <c r="X240" s="7"/>
-      <c r="Y240" s="6"/>
+      <c r="Y240" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z240" s="6"/>
       <c r="AA240" s="6"/>
       <c r="AB240" s="6"/>
@@ -17445,20 +17445,20 @@
       </c>
       <c r="N241" s="7"/>
       <c r="O241" s="6"/>
-      <c r="P241" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q241" s="6"/>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R241" s="7"/>
-      <c r="S241" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S241" s="6"/>
       <c r="T241" s="7"/>
       <c r="U241" s="6"/>
       <c r="V241" s="7"/>
       <c r="W241" s="6"/>
       <c r="X241" s="7"/>
-      <c r="Y241" s="6"/>
+      <c r="Y241" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z241" s="6"/>
       <c r="AA241" s="6"/>
       <c r="AB241" s="6"/>
@@ -17503,20 +17503,20 @@
       </c>
       <c r="N242" s="7"/>
       <c r="O242" s="6"/>
-      <c r="P242" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q242" s="6"/>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R242" s="7"/>
-      <c r="S242" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S242" s="6"/>
       <c r="T242" s="7"/>
       <c r="U242" s="6"/>
       <c r="V242" s="7"/>
       <c r="W242" s="6"/>
       <c r="X242" s="7"/>
-      <c r="Y242" s="6"/>
+      <c r="Y242" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z242" s="6"/>
       <c r="AA242" s="6"/>
       <c r="AB242" s="6"/>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="N243" s="7"/>
       <c r="O243" s="6"/>
-      <c r="P243" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q243" s="6"/>
+      <c r="P243" s="7"/>
+      <c r="Q243" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R243" s="7"/>
-      <c r="S243" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S243" s="6"/>
       <c r="T243" s="7"/>
       <c r="U243" s="6"/>
       <c r="V243" s="7"/>
       <c r="W243" s="6"/>
       <c r="X243" s="7"/>
-      <c r="Y243" s="6"/>
+      <c r="Y243" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z243" s="6"/>
       <c r="AA243" s="6"/>
       <c r="AB243" s="6"/>
@@ -17619,20 +17619,20 @@
       </c>
       <c r="N244" s="7"/>
       <c r="O244" s="6"/>
-      <c r="P244" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q244" s="6"/>
+      <c r="P244" s="7"/>
+      <c r="Q244" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R244" s="7"/>
-      <c r="S244" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S244" s="6"/>
       <c r="T244" s="7"/>
       <c r="U244" s="6"/>
       <c r="V244" s="7"/>
       <c r="W244" s="6"/>
       <c r="X244" s="7"/>
-      <c r="Y244" s="6"/>
+      <c r="Y244" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z244" s="6"/>
       <c r="AA244" s="6"/>
       <c r="AB244" s="6"/>
@@ -17677,20 +17677,20 @@
       </c>
       <c r="N245" s="7"/>
       <c r="O245" s="6"/>
-      <c r="P245" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q245" s="6"/>
+      <c r="P245" s="7"/>
+      <c r="Q245" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R245" s="7"/>
-      <c r="S245" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S245" s="6"/>
       <c r="T245" s="7"/>
       <c r="U245" s="6"/>
       <c r="V245" s="7"/>
       <c r="W245" s="6"/>
       <c r="X245" s="7"/>
-      <c r="Y245" s="6"/>
+      <c r="Y245" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z245" s="6"/>
       <c r="AA245" s="6"/>
       <c r="AB245" s="6"/>
@@ -17735,20 +17735,20 @@
       </c>
       <c r="N246" s="7"/>
       <c r="O246" s="6"/>
-      <c r="P246" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q246" s="6"/>
+      <c r="P246" s="7"/>
+      <c r="Q246" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R246" s="7"/>
-      <c r="S246" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S246" s="6"/>
       <c r="T246" s="7"/>
       <c r="U246" s="6"/>
       <c r="V246" s="7"/>
       <c r="W246" s="6"/>
       <c r="X246" s="7"/>
-      <c r="Y246" s="6"/>
+      <c r="Y246" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z246" s="6"/>
       <c r="AA246" s="6"/>
       <c r="AB246" s="6"/>
@@ -17793,20 +17793,20 @@
       </c>
       <c r="N247" s="7"/>
       <c r="O247" s="6"/>
-      <c r="P247" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q247" s="6"/>
+      <c r="P247" s="7"/>
+      <c r="Q247" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R247" s="7"/>
-      <c r="S247" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S247" s="6"/>
       <c r="T247" s="7"/>
       <c r="U247" s="6"/>
       <c r="V247" s="7"/>
       <c r="W247" s="6"/>
       <c r="X247" s="7"/>
-      <c r="Y247" s="6"/>
+      <c r="Y247" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z247" s="6"/>
       <c r="AA247" s="6"/>
       <c r="AB247" s="6"/>
@@ -17851,20 +17851,20 @@
       </c>
       <c r="N248" s="7"/>
       <c r="O248" s="6"/>
-      <c r="P248" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q248" s="6"/>
+      <c r="P248" s="7"/>
+      <c r="Q248" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R248" s="7"/>
-      <c r="S248" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S248" s="6"/>
       <c r="T248" s="7"/>
       <c r="U248" s="6"/>
       <c r="V248" s="7"/>
       <c r="W248" s="6"/>
       <c r="X248" s="7"/>
-      <c r="Y248" s="6"/>
+      <c r="Y248" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z248" s="6"/>
       <c r="AA248" s="6"/>
       <c r="AB248" s="6"/>
@@ -17909,20 +17909,20 @@
       </c>
       <c r="N249" s="7"/>
       <c r="O249" s="6"/>
-      <c r="P249" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q249" s="6"/>
+      <c r="P249" s="7"/>
+      <c r="Q249" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R249" s="7"/>
-      <c r="S249" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S249" s="6"/>
       <c r="T249" s="7"/>
       <c r="U249" s="6"/>
       <c r="V249" s="7"/>
       <c r="W249" s="6"/>
       <c r="X249" s="7"/>
-      <c r="Y249" s="6"/>
+      <c r="Y249" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z249" s="6"/>
       <c r="AA249" s="6"/>
       <c r="AB249" s="6"/>
@@ -17967,20 +17967,20 @@
       </c>
       <c r="N250" s="7"/>
       <c r="O250" s="6"/>
-      <c r="P250" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q250" s="6"/>
+      <c r="P250" s="7"/>
+      <c r="Q250" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R250" s="7"/>
-      <c r="S250" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S250" s="6"/>
       <c r="T250" s="7"/>
       <c r="U250" s="6"/>
       <c r="V250" s="7"/>
       <c r="W250" s="6"/>
       <c r="X250" s="7"/>
-      <c r="Y250" s="6"/>
+      <c r="Y250" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z250" s="6"/>
       <c r="AA250" s="6"/>
       <c r="AB250" s="6"/>
@@ -18025,20 +18025,20 @@
       </c>
       <c r="N251" s="7"/>
       <c r="O251" s="6"/>
-      <c r="P251" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q251" s="6"/>
+      <c r="P251" s="7"/>
+      <c r="Q251" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R251" s="7"/>
-      <c r="S251" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S251" s="6"/>
       <c r="T251" s="7"/>
       <c r="U251" s="6"/>
       <c r="V251" s="7"/>
       <c r="W251" s="6"/>
       <c r="X251" s="7"/>
-      <c r="Y251" s="6"/>
+      <c r="Y251" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z251" s="6"/>
       <c r="AA251" s="6"/>
       <c r="AB251" s="6"/>
@@ -18083,20 +18083,20 @@
       </c>
       <c r="N252" s="7"/>
       <c r="O252" s="6"/>
-      <c r="P252" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q252" s="6"/>
+      <c r="P252" s="7"/>
+      <c r="Q252" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R252" s="7"/>
-      <c r="S252" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S252" s="6"/>
       <c r="T252" s="7"/>
       <c r="U252" s="6"/>
       <c r="V252" s="7"/>
       <c r="W252" s="6"/>
       <c r="X252" s="7"/>
-      <c r="Y252" s="6"/>
+      <c r="Y252" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z252" s="6"/>
       <c r="AA252" s="6"/>
       <c r="AB252" s="6"/>
@@ -18141,20 +18141,20 @@
       </c>
       <c r="N253" s="7"/>
       <c r="O253" s="6"/>
-      <c r="P253" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q253" s="6"/>
+      <c r="P253" s="7"/>
+      <c r="Q253" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R253" s="7"/>
-      <c r="S253" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S253" s="6"/>
       <c r="T253" s="7"/>
       <c r="U253" s="6"/>
       <c r="V253" s="7"/>
       <c r="W253" s="6"/>
       <c r="X253" s="7"/>
-      <c r="Y253" s="6"/>
+      <c r="Y253" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z253" s="6"/>
       <c r="AA253" s="6"/>
       <c r="AB253" s="6"/>
@@ -18199,20 +18199,20 @@
       </c>
       <c r="N254" s="7"/>
       <c r="O254" s="6"/>
-      <c r="P254" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q254" s="6"/>
+      <c r="P254" s="7"/>
+      <c r="Q254" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R254" s="7"/>
-      <c r="S254" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S254" s="6"/>
       <c r="T254" s="7"/>
       <c r="U254" s="6"/>
       <c r="V254" s="7"/>
       <c r="W254" s="6"/>
       <c r="X254" s="7"/>
-      <c r="Y254" s="6"/>
+      <c r="Y254" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z254" s="6"/>
       <c r="AA254" s="6"/>
       <c r="AB254" s="6"/>
@@ -18257,20 +18257,20 @@
       </c>
       <c r="N255" s="7"/>
       <c r="O255" s="6"/>
-      <c r="P255" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q255" s="6"/>
+      <c r="P255" s="7"/>
+      <c r="Q255" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R255" s="7"/>
-      <c r="S255" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S255" s="6"/>
       <c r="T255" s="7"/>
       <c r="U255" s="6"/>
       <c r="V255" s="7"/>
       <c r="W255" s="6"/>
       <c r="X255" s="7"/>
-      <c r="Y255" s="6"/>
+      <c r="Y255" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z255" s="6"/>
       <c r="AA255" s="6"/>
       <c r="AB255" s="6"/>
@@ -18315,20 +18315,20 @@
       </c>
       <c r="N256" s="7"/>
       <c r="O256" s="6"/>
-      <c r="P256" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q256" s="6"/>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R256" s="7"/>
-      <c r="S256" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S256" s="6"/>
       <c r="T256" s="7"/>
       <c r="U256" s="6"/>
       <c r="V256" s="7"/>
       <c r="W256" s="6"/>
       <c r="X256" s="7"/>
-      <c r="Y256" s="6"/>
+      <c r="Y256" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z256" s="6"/>
       <c r="AA256" s="6"/>
       <c r="AB256" s="6"/>
@@ -18373,20 +18373,20 @@
       </c>
       <c r="N257" s="7"/>
       <c r="O257" s="6"/>
-      <c r="P257" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q257" s="6"/>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R257" s="7"/>
-      <c r="S257" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S257" s="6"/>
       <c r="T257" s="7"/>
       <c r="U257" s="6"/>
       <c r="V257" s="7"/>
       <c r="W257" s="6"/>
       <c r="X257" s="7"/>
-      <c r="Y257" s="6"/>
+      <c r="Y257" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z257" s="6"/>
       <c r="AA257" s="6"/>
       <c r="AB257" s="6"/>
@@ -18431,20 +18431,20 @@
       </c>
       <c r="N258" s="7"/>
       <c r="O258" s="6"/>
-      <c r="P258" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q258" s="6"/>
+      <c r="P258" s="7"/>
+      <c r="Q258" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R258" s="7"/>
-      <c r="S258" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S258" s="6"/>
       <c r="T258" s="7"/>
       <c r="U258" s="6"/>
       <c r="V258" s="7"/>
       <c r="W258" s="6"/>
       <c r="X258" s="7"/>
-      <c r="Y258" s="6"/>
+      <c r="Y258" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z258" s="6"/>
       <c r="AA258" s="6"/>
       <c r="AB258" s="6"/>
@@ -18492,15 +18492,15 @@
       <c r="P259" s="7"/>
       <c r="Q259" s="6"/>
       <c r="R259" s="7"/>
-      <c r="S259" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S259" s="6"/>
       <c r="T259" s="7"/>
       <c r="U259" s="6"/>
       <c r="V259" s="7"/>
       <c r="W259" s="6"/>
       <c r="X259" s="7"/>
-      <c r="Y259" s="6"/>
+      <c r="Y259" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z259" s="6"/>
       <c r="AA259" s="6" t="s">
         <v>162</v>
@@ -18550,15 +18550,15 @@
       <c r="P260" s="7"/>
       <c r="Q260" s="6"/>
       <c r="R260" s="7"/>
-      <c r="S260" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S260" s="6"/>
       <c r="T260" s="7"/>
       <c r="U260" s="6"/>
       <c r="V260" s="7"/>
       <c r="W260" s="6"/>
       <c r="X260" s="7"/>
-      <c r="Y260" s="6"/>
+      <c r="Y260" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z260" s="6"/>
       <c r="AA260" s="6" t="s">
         <v>162</v>
@@ -18605,20 +18605,20 @@
       </c>
       <c r="N261" s="7"/>
       <c r="O261" s="6"/>
-      <c r="P261" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q261" s="6"/>
+      <c r="P261" s="7"/>
+      <c r="Q261" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R261" s="7"/>
-      <c r="S261" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="S261" s="6"/>
       <c r="T261" s="7"/>
       <c r="U261" s="6"/>
       <c r="V261" s="7"/>
       <c r="W261" s="6"/>
       <c r="X261" s="7"/>
-      <c r="Y261" s="6"/>
+      <c r="Y261" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="Z261" s="6"/>
       <c r="AA261" s="6" t="s">
         <v>162</v>
@@ -18665,20 +18665,20 @@
       </c>
       <c r="N262" s="3"/>
       <c r="O262" s="2"/>
-      <c r="P262" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q262" s="2"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R262" s="3"/>
-      <c r="S262" s="9" t="s">
-        <v>607</v>
-      </c>
+      <c r="S262" s="2"/>
       <c r="T262" s="3"/>
       <c r="U262" s="2"/>
       <c r="V262" s="3"/>
       <c r="W262" s="2"/>
       <c r="X262" s="3"/>
-      <c r="Y262" s="2"/>
+      <c r="Y262" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
       <c r="AB262" s="2"/>
@@ -18723,20 +18723,20 @@
       </c>
       <c r="N263" s="7"/>
       <c r="O263" s="6"/>
-      <c r="P263" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q263" s="6"/>
+      <c r="P263" s="7"/>
+      <c r="Q263" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R263" s="7"/>
-      <c r="S263" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S263" s="6"/>
       <c r="T263" s="7"/>
       <c r="U263" s="6"/>
       <c r="V263" s="7"/>
       <c r="W263" s="6"/>
       <c r="X263" s="7"/>
-      <c r="Y263" s="6"/>
+      <c r="Y263" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z263" s="6"/>
       <c r="AA263" s="6"/>
       <c r="AB263" s="6"/>
@@ -18781,20 +18781,20 @@
       </c>
       <c r="N264" s="7"/>
       <c r="O264" s="6"/>
-      <c r="P264" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q264" s="6"/>
+      <c r="P264" s="7"/>
+      <c r="Q264" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R264" s="7"/>
-      <c r="S264" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S264" s="6"/>
       <c r="T264" s="7"/>
       <c r="U264" s="6"/>
       <c r="V264" s="7"/>
       <c r="W264" s="6"/>
       <c r="X264" s="7"/>
-      <c r="Y264" s="6"/>
+      <c r="Y264" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z264" s="6"/>
       <c r="AA264" s="6"/>
       <c r="AB264" s="6"/>
@@ -18839,20 +18839,20 @@
       </c>
       <c r="N265" s="7"/>
       <c r="O265" s="6"/>
-      <c r="P265" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q265" s="6"/>
+      <c r="P265" s="7"/>
+      <c r="Q265" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R265" s="7"/>
-      <c r="S265" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S265" s="6"/>
       <c r="T265" s="7"/>
       <c r="U265" s="6"/>
       <c r="V265" s="7"/>
       <c r="W265" s="6"/>
       <c r="X265" s="7"/>
-      <c r="Y265" s="6"/>
+      <c r="Y265" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z265" s="6"/>
       <c r="AA265" s="6"/>
       <c r="AB265" s="6"/>
@@ -18897,20 +18897,20 @@
       </c>
       <c r="N266" s="7"/>
       <c r="O266" s="6"/>
-      <c r="P266" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q266" s="6"/>
+      <c r="P266" s="7"/>
+      <c r="Q266" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R266" s="7"/>
-      <c r="S266" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S266" s="6"/>
       <c r="T266" s="7"/>
       <c r="U266" s="6"/>
       <c r="V266" s="7"/>
       <c r="W266" s="6"/>
       <c r="X266" s="7"/>
-      <c r="Y266" s="6"/>
+      <c r="Y266" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z266" s="6"/>
       <c r="AA266" s="6" t="s">
         <v>489</v>
@@ -18959,20 +18959,20 @@
       </c>
       <c r="N267" s="7"/>
       <c r="O267" s="6"/>
-      <c r="P267" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q267" s="6"/>
+      <c r="P267" s="7"/>
+      <c r="Q267" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R267" s="7"/>
-      <c r="S267" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S267" s="6"/>
       <c r="T267" s="7"/>
       <c r="U267" s="6"/>
       <c r="V267" s="7"/>
       <c r="W267" s="6"/>
       <c r="X267" s="7"/>
-      <c r="Y267" s="6"/>
+      <c r="Y267" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z267" s="6"/>
       <c r="AA267" s="6" t="s">
         <v>497</v>
@@ -19021,20 +19021,20 @@
       </c>
       <c r="N268" s="7"/>
       <c r="O268" s="6"/>
-      <c r="P268" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q268" s="6"/>
+      <c r="P268" s="7"/>
+      <c r="Q268" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R268" s="7"/>
-      <c r="S268" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="S268" s="6"/>
       <c r="T268" s="7"/>
       <c r="U268" s="6"/>
       <c r="V268" s="7"/>
       <c r="W268" s="6"/>
       <c r="X268" s="7"/>
-      <c r="Y268" s="6"/>
+      <c r="Y268" s="8" t="s">
+        <v>607</v>
+      </c>
       <c r="Z268" s="6"/>
       <c r="AA268" s="6" t="s">
         <v>500</v>
@@ -19083,22 +19083,22 @@
       </c>
       <c r="N269" s="3"/>
       <c r="O269" s="2"/>
-      <c r="P269" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q269" s="2"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R269" s="3"/>
       <c r="S269" s="2"/>
       <c r="T269" s="3"/>
-      <c r="U269" s="2"/>
-      <c r="V269" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U269" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V269" s="3"/>
       <c r="W269" s="2"/>
-      <c r="X269" s="3"/>
-      <c r="Y269" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X269" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
       <c r="AA269" s="2" t="s">
         <v>37</v>
@@ -19145,22 +19145,22 @@
       </c>
       <c r="N270" s="7"/>
       <c r="O270" s="6"/>
-      <c r="P270" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q270" s="6"/>
+      <c r="P270" s="7"/>
+      <c r="Q270" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R270" s="7"/>
       <c r="S270" s="6"/>
       <c r="T270" s="7"/>
-      <c r="U270" s="6"/>
-      <c r="V270" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U270" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V270" s="7"/>
       <c r="W270" s="6"/>
-      <c r="X270" s="7"/>
-      <c r="Y270" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X270" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y270" s="6"/>
       <c r="Z270" s="6"/>
       <c r="AA270" s="6" t="s">
         <v>37</v>
@@ -19207,22 +19207,22 @@
       </c>
       <c r="N271" s="7"/>
       <c r="O271" s="6"/>
-      <c r="P271" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q271" s="6"/>
+      <c r="P271" s="7"/>
+      <c r="Q271" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R271" s="7"/>
       <c r="S271" s="6"/>
       <c r="T271" s="7"/>
-      <c r="U271" s="6"/>
-      <c r="V271" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U271" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V271" s="7"/>
       <c r="W271" s="6"/>
-      <c r="X271" s="7"/>
-      <c r="Y271" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="X271" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y271" s="6"/>
       <c r="Z271" s="6"/>
       <c r="AA271" s="6" t="s">
         <v>37</v>
@@ -19269,21 +19269,21 @@
       </c>
       <c r="N272" s="3"/>
       <c r="O272" s="2"/>
-      <c r="P272" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q272" s="2"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R272" s="3"/>
       <c r="S272" s="2"/>
       <c r="T272" s="3"/>
-      <c r="U272" s="2"/>
-      <c r="V272" s="3" t="s">
-        <v>31</v>
+      <c r="U272" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V272" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W272" s="2"/>
-      <c r="X272" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X272" s="3"/>
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
       <c r="AA272" s="2" t="s">
@@ -19331,21 +19331,21 @@
       </c>
       <c r="N273" s="7"/>
       <c r="O273" s="6"/>
-      <c r="P273" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q273" s="6"/>
+      <c r="P273" s="7"/>
+      <c r="Q273" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R273" s="7"/>
       <c r="S273" s="6"/>
       <c r="T273" s="7"/>
-      <c r="U273" s="6"/>
-      <c r="V273" s="7" t="s">
-        <v>31</v>
+      <c r="U273" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V273" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W273" s="6"/>
-      <c r="X273" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X273" s="7"/>
       <c r="Y273" s="6"/>
       <c r="Z273" s="6"/>
       <c r="AA273" s="6" t="s">
@@ -19393,21 +19393,21 @@
       </c>
       <c r="N274" s="7"/>
       <c r="O274" s="6"/>
-      <c r="P274" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q274" s="6"/>
+      <c r="P274" s="7"/>
+      <c r="Q274" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R274" s="7"/>
       <c r="S274" s="6"/>
       <c r="T274" s="7"/>
-      <c r="U274" s="6"/>
-      <c r="V274" s="7" t="s">
-        <v>31</v>
+      <c r="U274" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V274" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W274" s="6"/>
-      <c r="X274" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X274" s="7"/>
       <c r="Y274" s="6"/>
       <c r="Z274" s="6"/>
       <c r="AA274" s="6" t="s">
@@ -19454,21 +19454,21 @@
         <v>36</v>
       </c>
       <c r="N275" s="3"/>
-      <c r="O275" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P275" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q275" s="2"/>
+      <c r="O275" s="2"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R275" s="3"/>
       <c r="S275" s="2"/>
       <c r="T275" s="3"/>
-      <c r="U275" s="2"/>
-      <c r="V275" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W275" s="2"/>
+      <c r="U275" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V275" s="3"/>
+      <c r="W275" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X275" s="3"/>
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
@@ -19516,21 +19516,21 @@
         <v>36</v>
       </c>
       <c r="N276" s="7"/>
-      <c r="O276" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P276" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="7"/>
+      <c r="Q276" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R276" s="7"/>
       <c r="S276" s="6"/>
       <c r="T276" s="7"/>
-      <c r="U276" s="6"/>
-      <c r="V276" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W276" s="6"/>
+      <c r="U276" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V276" s="7"/>
+      <c r="W276" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X276" s="7"/>
       <c r="Y276" s="6"/>
       <c r="Z276" s="6"/>
@@ -19578,21 +19578,21 @@
         <v>36</v>
       </c>
       <c r="N277" s="7"/>
-      <c r="O277" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P277" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="7"/>
+      <c r="Q277" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R277" s="7"/>
       <c r="S277" s="6"/>
       <c r="T277" s="7"/>
-      <c r="U277" s="6"/>
-      <c r="V277" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W277" s="6"/>
+      <c r="U277" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V277" s="7"/>
+      <c r="W277" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X277" s="7"/>
       <c r="Y277" s="6"/>
       <c r="Z277" s="6"/>
@@ -19639,21 +19639,21 @@
       <c r="M278" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N278" s="4" t="s">
+      <c r="N278" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O278" s="2"/>
-      <c r="P278" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q278" s="2"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R278" s="3"/>
       <c r="S278" s="2"/>
       <c r="T278" s="3"/>
-      <c r="U278" s="2"/>
-      <c r="V278" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U278" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V278" s="3"/>
       <c r="W278" s="2"/>
       <c r="X278" s="3"/>
       <c r="Y278" s="2"/>
@@ -19701,21 +19701,21 @@
       <c r="M279" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N279" s="8" t="s">
+      <c r="N279" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O279" s="6"/>
-      <c r="P279" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q279" s="6"/>
+      <c r="P279" s="7"/>
+      <c r="Q279" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R279" s="7"/>
       <c r="S279" s="6"/>
       <c r="T279" s="7"/>
-      <c r="U279" s="6"/>
-      <c r="V279" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U279" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V279" s="7"/>
       <c r="W279" s="6"/>
       <c r="X279" s="7"/>
       <c r="Y279" s="6"/>
@@ -19763,21 +19763,21 @@
       <c r="M280" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N280" s="8" t="s">
+      <c r="N280" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O280" s="6"/>
-      <c r="P280" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q280" s="6"/>
+      <c r="P280" s="7"/>
+      <c r="Q280" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R280" s="7"/>
       <c r="S280" s="6"/>
       <c r="T280" s="7"/>
-      <c r="U280" s="6"/>
-      <c r="V280" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U280" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V280" s="7"/>
       <c r="W280" s="6"/>
       <c r="X280" s="7"/>
       <c r="Y280" s="6"/>
@@ -19827,19 +19827,19 @@
       </c>
       <c r="N281" s="3"/>
       <c r="O281" s="2"/>
-      <c r="P281" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q281" s="2"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R281" s="3"/>
       <c r="S281" s="2"/>
-      <c r="T281" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U281" s="2"/>
-      <c r="V281" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="T281" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U281" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V281" s="3"/>
       <c r="W281" s="2"/>
       <c r="X281" s="3"/>
       <c r="Y281" s="2"/>
@@ -19889,19 +19889,19 @@
       </c>
       <c r="N282" s="7"/>
       <c r="O282" s="6"/>
-      <c r="P282" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q282" s="6"/>
+      <c r="P282" s="7"/>
+      <c r="Q282" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R282" s="7"/>
       <c r="S282" s="6"/>
-      <c r="T282" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U282" s="6"/>
-      <c r="V282" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T282" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U282" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V282" s="7"/>
       <c r="W282" s="6"/>
       <c r="X282" s="7"/>
       <c r="Y282" s="6"/>
@@ -19951,19 +19951,19 @@
       </c>
       <c r="N283" s="7"/>
       <c r="O283" s="6"/>
-      <c r="P283" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q283" s="6"/>
+      <c r="P283" s="7"/>
+      <c r="Q283" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R283" s="7"/>
       <c r="S283" s="6"/>
-      <c r="T283" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U283" s="6"/>
-      <c r="V283" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T283" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U283" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V283" s="7"/>
       <c r="W283" s="6"/>
       <c r="X283" s="7"/>
       <c r="Y283" s="6"/>
@@ -20013,17 +20013,17 @@
       </c>
       <c r="N284" s="3"/>
       <c r="O284" s="2"/>
-      <c r="P284" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q284" s="2"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R284" s="3"/>
       <c r="S284" s="2"/>
       <c r="T284" s="3"/>
-      <c r="U284" s="2"/>
-      <c r="V284" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U284" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V284" s="3"/>
       <c r="W284" s="2"/>
       <c r="X284" s="3"/>
       <c r="Y284" s="2"/>
@@ -20073,17 +20073,17 @@
       </c>
       <c r="N285" s="7"/>
       <c r="O285" s="6"/>
-      <c r="P285" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q285" s="6"/>
+      <c r="P285" s="7"/>
+      <c r="Q285" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R285" s="7"/>
       <c r="S285" s="6"/>
       <c r="T285" s="7"/>
-      <c r="U285" s="6"/>
-      <c r="V285" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U285" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V285" s="7"/>
       <c r="W285" s="6"/>
       <c r="X285" s="7"/>
       <c r="Y285" s="6"/>
@@ -20133,17 +20133,17 @@
       </c>
       <c r="N286" s="7"/>
       <c r="O286" s="6"/>
-      <c r="P286" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q286" s="6"/>
+      <c r="P286" s="7"/>
+      <c r="Q286" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R286" s="7"/>
       <c r="S286" s="6"/>
       <c r="T286" s="7"/>
-      <c r="U286" s="6"/>
-      <c r="V286" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U286" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V286" s="7"/>
       <c r="W286" s="6"/>
       <c r="X286" s="7"/>
       <c r="Y286" s="6"/>
@@ -20191,21 +20191,21 @@
       <c r="M287" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N287" s="4" t="s">
+      <c r="N287" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O287" s="2"/>
-      <c r="P287" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q287" s="2"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R287" s="3"/>
       <c r="S287" s="2"/>
       <c r="T287" s="3"/>
-      <c r="U287" s="2"/>
-      <c r="V287" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U287" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V287" s="3"/>
       <c r="W287" s="2"/>
       <c r="X287" s="3"/>
       <c r="Y287" s="2"/>
@@ -20255,21 +20255,21 @@
       <c r="M288" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N288" s="8" t="s">
+      <c r="N288" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O288" s="6"/>
-      <c r="P288" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q288" s="6"/>
+      <c r="P288" s="7"/>
+      <c r="Q288" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R288" s="7"/>
       <c r="S288" s="6"/>
       <c r="T288" s="7"/>
-      <c r="U288" s="6"/>
-      <c r="V288" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U288" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V288" s="7"/>
       <c r="W288" s="6"/>
       <c r="X288" s="7"/>
       <c r="Y288" s="6"/>
@@ -20319,21 +20319,21 @@
       <c r="M289" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N289" s="8" t="s">
+      <c r="N289" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O289" s="6"/>
-      <c r="P289" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q289" s="6"/>
+      <c r="P289" s="7"/>
+      <c r="Q289" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R289" s="7"/>
       <c r="S289" s="6"/>
       <c r="T289" s="7"/>
-      <c r="U289" s="6"/>
-      <c r="V289" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U289" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V289" s="7"/>
       <c r="W289" s="6"/>
       <c r="X289" s="7"/>
       <c r="Y289" s="6"/>
@@ -20383,21 +20383,21 @@
       <c r="M290" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N290" s="8" t="s">
+      <c r="N290" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O290" s="6"/>
-      <c r="P290" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q290" s="6"/>
+      <c r="P290" s="7"/>
+      <c r="Q290" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R290" s="7"/>
       <c r="S290" s="6"/>
       <c r="T290" s="7"/>
-      <c r="U290" s="6"/>
-      <c r="V290" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U290" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V290" s="7"/>
       <c r="W290" s="6"/>
       <c r="X290" s="7"/>
       <c r="Y290" s="6"/>
@@ -20447,21 +20447,21 @@
       <c r="M291" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N291" s="8" t="s">
+      <c r="N291" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O291" s="6"/>
-      <c r="P291" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q291" s="6"/>
+      <c r="P291" s="7"/>
+      <c r="Q291" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R291" s="7"/>
       <c r="S291" s="6"/>
       <c r="T291" s="7"/>
-      <c r="U291" s="6"/>
-      <c r="V291" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U291" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V291" s="7"/>
       <c r="W291" s="6"/>
       <c r="X291" s="7"/>
       <c r="Y291" s="6"/>
@@ -20511,21 +20511,21 @@
       <c r="M292" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N292" s="8" t="s">
+      <c r="N292" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O292" s="6"/>
-      <c r="P292" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q292" s="6"/>
+      <c r="P292" s="7"/>
+      <c r="Q292" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R292" s="7"/>
       <c r="S292" s="6"/>
       <c r="T292" s="7"/>
-      <c r="U292" s="6"/>
-      <c r="V292" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U292" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V292" s="7"/>
       <c r="W292" s="6"/>
       <c r="X292" s="7"/>
       <c r="Y292" s="6"/>
@@ -20575,21 +20575,21 @@
       <c r="M293" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N293" s="4" t="s">
+      <c r="N293" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O293" s="2"/>
-      <c r="P293" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q293" s="2"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R293" s="3"/>
       <c r="S293" s="2"/>
       <c r="T293" s="3"/>
-      <c r="U293" s="2"/>
-      <c r="V293" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="U293" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V293" s="3"/>
       <c r="W293" s="2"/>
       <c r="X293" s="3"/>
       <c r="Y293" s="2"/>
@@ -20639,21 +20639,21 @@
       <c r="M294" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N294" s="8" t="s">
+      <c r="N294" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O294" s="6"/>
-      <c r="P294" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q294" s="6"/>
+      <c r="P294" s="7"/>
+      <c r="Q294" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R294" s="7"/>
       <c r="S294" s="6"/>
       <c r="T294" s="7"/>
-      <c r="U294" s="6"/>
-      <c r="V294" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U294" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V294" s="7"/>
       <c r="W294" s="6"/>
       <c r="X294" s="7"/>
       <c r="Y294" s="6"/>
@@ -20703,21 +20703,21 @@
       <c r="M295" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N295" s="8" t="s">
+      <c r="N295" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O295" s="6"/>
-      <c r="P295" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q295" s="6"/>
+      <c r="P295" s="7"/>
+      <c r="Q295" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R295" s="7"/>
       <c r="S295" s="6"/>
       <c r="T295" s="7"/>
-      <c r="U295" s="6"/>
-      <c r="V295" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U295" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V295" s="7"/>
       <c r="W295" s="6"/>
       <c r="X295" s="7"/>
       <c r="Y295" s="6"/>
@@ -20767,21 +20767,21 @@
       <c r="M296" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N296" s="8" t="s">
+      <c r="N296" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O296" s="6"/>
-      <c r="P296" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q296" s="6"/>
+      <c r="P296" s="7"/>
+      <c r="Q296" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R296" s="7"/>
       <c r="S296" s="6"/>
       <c r="T296" s="7"/>
-      <c r="U296" s="6"/>
-      <c r="V296" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U296" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V296" s="7"/>
       <c r="W296" s="6"/>
       <c r="X296" s="7"/>
       <c r="Y296" s="6"/>
@@ -20831,21 +20831,21 @@
       <c r="M297" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N297" s="8" t="s">
+      <c r="N297" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O297" s="6"/>
-      <c r="P297" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q297" s="6"/>
+      <c r="P297" s="7"/>
+      <c r="Q297" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R297" s="7"/>
       <c r="S297" s="6"/>
       <c r="T297" s="7"/>
-      <c r="U297" s="6"/>
-      <c r="V297" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U297" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V297" s="7"/>
       <c r="W297" s="6"/>
       <c r="X297" s="7"/>
       <c r="Y297" s="6"/>
@@ -20895,21 +20895,21 @@
       <c r="M298" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N298" s="8" t="s">
+      <c r="N298" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O298" s="6"/>
-      <c r="P298" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q298" s="6"/>
+      <c r="P298" s="7"/>
+      <c r="Q298" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R298" s="7"/>
       <c r="S298" s="6"/>
       <c r="T298" s="7"/>
-      <c r="U298" s="6"/>
-      <c r="V298" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="U298" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V298" s="7"/>
       <c r="W298" s="6"/>
       <c r="X298" s="7"/>
       <c r="Y298" s="6"/>
@@ -20961,21 +20961,21 @@
       </c>
       <c r="N299" s="3"/>
       <c r="O299" s="2"/>
-      <c r="P299" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q299" s="2"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R299" s="3"/>
       <c r="S299" s="2"/>
       <c r="T299" s="3"/>
-      <c r="U299" s="2"/>
-      <c r="V299" s="3" t="s">
-        <v>31</v>
+      <c r="U299" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V299" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="W299" s="2"/>
-      <c r="X299" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="X299" s="3"/>
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
       <c r="AA299" s="2" t="s">
@@ -21025,21 +21025,21 @@
       </c>
       <c r="N300" s="7"/>
       <c r="O300" s="6"/>
-      <c r="P300" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q300" s="6"/>
+      <c r="P300" s="7"/>
+      <c r="Q300" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R300" s="7"/>
       <c r="S300" s="6"/>
       <c r="T300" s="7"/>
-      <c r="U300" s="6"/>
-      <c r="V300" s="7" t="s">
-        <v>31</v>
+      <c r="U300" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V300" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W300" s="6"/>
-      <c r="X300" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X300" s="7"/>
       <c r="Y300" s="6"/>
       <c r="Z300" s="6"/>
       <c r="AA300" s="6" t="s">
@@ -21089,21 +21089,21 @@
       </c>
       <c r="N301" s="7"/>
       <c r="O301" s="6"/>
-      <c r="P301" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q301" s="6"/>
+      <c r="P301" s="7"/>
+      <c r="Q301" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R301" s="7"/>
       <c r="S301" s="6"/>
       <c r="T301" s="7"/>
-      <c r="U301" s="6"/>
-      <c r="V301" s="7" t="s">
-        <v>31</v>
+      <c r="U301" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V301" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W301" s="6"/>
-      <c r="X301" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X301" s="7"/>
       <c r="Y301" s="6"/>
       <c r="Z301" s="6"/>
       <c r="AA301" s="6" t="s">
@@ -21153,21 +21153,21 @@
       </c>
       <c r="N302" s="7"/>
       <c r="O302" s="6"/>
-      <c r="P302" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q302" s="6"/>
+      <c r="P302" s="7"/>
+      <c r="Q302" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R302" s="7"/>
       <c r="S302" s="6"/>
       <c r="T302" s="7"/>
-      <c r="U302" s="6"/>
-      <c r="V302" s="7" t="s">
-        <v>31</v>
+      <c r="U302" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V302" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W302" s="6"/>
-      <c r="X302" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X302" s="7"/>
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
       <c r="AA302" s="6" t="s">
@@ -21217,21 +21217,21 @@
       </c>
       <c r="N303" s="7"/>
       <c r="O303" s="6"/>
-      <c r="P303" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q303" s="6"/>
+      <c r="P303" s="7"/>
+      <c r="Q303" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R303" s="7"/>
       <c r="S303" s="6"/>
       <c r="T303" s="7"/>
-      <c r="U303" s="6"/>
-      <c r="V303" s="7" t="s">
-        <v>31</v>
+      <c r="U303" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V303" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W303" s="6"/>
-      <c r="X303" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X303" s="7"/>
       <c r="Y303" s="6"/>
       <c r="Z303" s="6"/>
       <c r="AA303" s="6" t="s">
@@ -21281,21 +21281,21 @@
       </c>
       <c r="N304" s="7"/>
       <c r="O304" s="6"/>
-      <c r="P304" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q304" s="6"/>
+      <c r="P304" s="7"/>
+      <c r="Q304" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R304" s="7"/>
       <c r="S304" s="6"/>
       <c r="T304" s="7"/>
-      <c r="U304" s="6"/>
-      <c r="V304" s="7" t="s">
-        <v>31</v>
+      <c r="U304" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V304" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="W304" s="6"/>
-      <c r="X304" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="X304" s="7"/>
       <c r="Y304" s="6"/>
       <c r="Z304" s="6"/>
       <c r="AA304" s="6" t="s">
@@ -21344,21 +21344,21 @@
         <v>36</v>
       </c>
       <c r="N305" s="3"/>
-      <c r="O305" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P305" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q305" s="2"/>
+      <c r="O305" s="2"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R305" s="3"/>
       <c r="S305" s="2"/>
       <c r="T305" s="3"/>
-      <c r="U305" s="2"/>
-      <c r="V305" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W305" s="2"/>
+      <c r="U305" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V305" s="3"/>
+      <c r="W305" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="X305" s="3"/>
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
@@ -21408,21 +21408,21 @@
         <v>36</v>
       </c>
       <c r="N306" s="7"/>
-      <c r="O306" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P306" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q306" s="6"/>
+      <c r="O306" s="6"/>
+      <c r="P306" s="7"/>
+      <c r="Q306" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R306" s="7"/>
       <c r="S306" s="6"/>
       <c r="T306" s="7"/>
-      <c r="U306" s="6"/>
-      <c r="V306" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W306" s="6"/>
+      <c r="U306" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V306" s="7"/>
+      <c r="W306" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X306" s="7"/>
       <c r="Y306" s="6"/>
       <c r="Z306" s="6"/>
@@ -21472,21 +21472,21 @@
         <v>36</v>
       </c>
       <c r="N307" s="7"/>
-      <c r="O307" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P307" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="7"/>
+      <c r="Q307" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R307" s="7"/>
       <c r="S307" s="6"/>
       <c r="T307" s="7"/>
-      <c r="U307" s="6"/>
-      <c r="V307" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W307" s="6"/>
+      <c r="U307" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V307" s="7"/>
+      <c r="W307" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X307" s="7"/>
       <c r="Y307" s="6"/>
       <c r="Z307" s="6"/>
@@ -21536,21 +21536,21 @@
         <v>36</v>
       </c>
       <c r="N308" s="7"/>
-      <c r="O308" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P308" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q308" s="6"/>
+      <c r="O308" s="6"/>
+      <c r="P308" s="7"/>
+      <c r="Q308" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R308" s="7"/>
       <c r="S308" s="6"/>
       <c r="T308" s="7"/>
-      <c r="U308" s="6"/>
-      <c r="V308" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W308" s="6"/>
+      <c r="U308" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V308" s="7"/>
+      <c r="W308" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X308" s="7"/>
       <c r="Y308" s="6"/>
       <c r="Z308" s="6"/>
@@ -21600,21 +21600,21 @@
         <v>36</v>
       </c>
       <c r="N309" s="7"/>
-      <c r="O309" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P309" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q309" s="6"/>
+      <c r="O309" s="6"/>
+      <c r="P309" s="7"/>
+      <c r="Q309" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R309" s="7"/>
       <c r="S309" s="6"/>
       <c r="T309" s="7"/>
-      <c r="U309" s="6"/>
-      <c r="V309" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W309" s="6"/>
+      <c r="U309" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V309" s="7"/>
+      <c r="W309" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X309" s="7"/>
       <c r="Y309" s="6"/>
       <c r="Z309" s="6"/>
@@ -21664,21 +21664,21 @@
         <v>36</v>
       </c>
       <c r="N310" s="7"/>
-      <c r="O310" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P310" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q310" s="6"/>
+      <c r="O310" s="6"/>
+      <c r="P310" s="7"/>
+      <c r="Q310" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R310" s="7"/>
       <c r="S310" s="6"/>
       <c r="T310" s="7"/>
-      <c r="U310" s="6"/>
-      <c r="V310" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W310" s="6"/>
+      <c r="U310" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V310" s="7"/>
+      <c r="W310" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X310" s="7"/>
       <c r="Y310" s="6"/>
       <c r="Z310" s="6"/>
@@ -21729,19 +21729,19 @@
       </c>
       <c r="N311" s="3"/>
       <c r="O311" s="2"/>
-      <c r="P311" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q311" s="2"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R311" s="3"/>
       <c r="S311" s="2"/>
-      <c r="T311" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U311" s="2"/>
-      <c r="V311" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="T311" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U311" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V311" s="3"/>
       <c r="W311" s="2"/>
       <c r="X311" s="3"/>
       <c r="Y311" s="2"/>
@@ -21793,19 +21793,19 @@
       </c>
       <c r="N312" s="7"/>
       <c r="O312" s="6"/>
-      <c r="P312" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q312" s="6"/>
+      <c r="P312" s="7"/>
+      <c r="Q312" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R312" s="7"/>
       <c r="S312" s="6"/>
-      <c r="T312" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U312" s="6"/>
-      <c r="V312" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T312" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U312" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V312" s="7"/>
       <c r="W312" s="6"/>
       <c r="X312" s="7"/>
       <c r="Y312" s="6"/>
@@ -21857,19 +21857,19 @@
       </c>
       <c r="N313" s="7"/>
       <c r="O313" s="6"/>
-      <c r="P313" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q313" s="6"/>
+      <c r="P313" s="7"/>
+      <c r="Q313" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R313" s="7"/>
       <c r="S313" s="6"/>
-      <c r="T313" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U313" s="6"/>
-      <c r="V313" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T313" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U313" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V313" s="7"/>
       <c r="W313" s="6"/>
       <c r="X313" s="7"/>
       <c r="Y313" s="6"/>
@@ -21921,19 +21921,19 @@
       </c>
       <c r="N314" s="7"/>
       <c r="O314" s="6"/>
-      <c r="P314" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q314" s="6"/>
+      <c r="P314" s="7"/>
+      <c r="Q314" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="R314" s="7"/>
       <c r="S314" s="6"/>
-      <c r="T314" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U314" s="6"/>
-      <c r="V314" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="T314" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U314" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V314" s="7"/>
       <c r="W314" s="6"/>
       <c r="X314" s="7"/>
       <c r="Y314" s="6"/>
@@ -21991,7 +21991,7 @@
       <c r="Q315" s="2"/>
       <c r="R315" s="3"/>
       <c r="S315" s="2"/>
-      <c r="T315" s="4" t="s">
+      <c r="T315" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U315" s="2"/>
@@ -22051,7 +22051,7 @@
       <c r="Q316" s="6"/>
       <c r="R316" s="7"/>
       <c r="S316" s="6"/>
-      <c r="T316" s="8" t="s">
+      <c r="T316" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U316" s="6"/>
@@ -22113,7 +22113,7 @@
       <c r="Q317" s="6"/>
       <c r="R317" s="7"/>
       <c r="S317" s="6"/>
-      <c r="T317" s="8" t="s">
+      <c r="T317" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U317" s="6"/>
@@ -22175,7 +22175,7 @@
       <c r="Q318" s="6"/>
       <c r="R318" s="7"/>
       <c r="S318" s="6"/>
-      <c r="T318" s="8" t="s">
+      <c r="T318" s="10" t="s">
         <v>32</v>
       </c>
       <c r="U318" s="6"/>
@@ -22236,10 +22236,10 @@
       <c r="R319" s="3"/>
       <c r="S319" s="2"/>
       <c r="T319" s="3"/>
-      <c r="U319" s="2"/>
-      <c r="V319" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U319" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V319" s="3"/>
       <c r="W319" s="2"/>
       <c r="X319" s="3"/>
       <c r="Y319" s="2"/>
@@ -22294,10 +22294,10 @@
       <c r="R320" s="7"/>
       <c r="S320" s="6"/>
       <c r="T320" s="7"/>
-      <c r="U320" s="6"/>
-      <c r="V320" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U320" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V320" s="7"/>
       <c r="W320" s="6"/>
       <c r="X320" s="7"/>
       <c r="Y320" s="6"/>
@@ -22352,10 +22352,10 @@
       <c r="R321" s="7"/>
       <c r="S321" s="6"/>
       <c r="T321" s="7"/>
-      <c r="U321" s="6"/>
-      <c r="V321" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U321" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V321" s="7"/>
       <c r="W321" s="6"/>
       <c r="X321" s="7"/>
       <c r="Y321" s="6"/>
@@ -22410,10 +22410,10 @@
       <c r="R322" s="7"/>
       <c r="S322" s="6"/>
       <c r="T322" s="7"/>
-      <c r="U322" s="6"/>
-      <c r="V322" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U322" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V322" s="7"/>
       <c r="W322" s="6"/>
       <c r="X322" s="7"/>
       <c r="Y322" s="6"/>
@@ -22468,10 +22468,10 @@
       <c r="R323" s="7"/>
       <c r="S323" s="6"/>
       <c r="T323" s="7"/>
-      <c r="U323" s="6"/>
-      <c r="V323" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U323" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V323" s="7"/>
       <c r="W323" s="6"/>
       <c r="X323" s="7"/>
       <c r="Y323" s="6"/>
@@ -22526,10 +22526,10 @@
       <c r="R324" s="7"/>
       <c r="S324" s="6"/>
       <c r="T324" s="7"/>
-      <c r="U324" s="6"/>
-      <c r="V324" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U324" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V324" s="7"/>
       <c r="W324" s="6"/>
       <c r="X324" s="7"/>
       <c r="Y324" s="6"/>
@@ -22584,10 +22584,10 @@
       <c r="R325" s="7"/>
       <c r="S325" s="6"/>
       <c r="T325" s="7"/>
-      <c r="U325" s="6"/>
-      <c r="V325" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U325" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V325" s="7"/>
       <c r="W325" s="6"/>
       <c r="X325" s="7"/>
       <c r="Y325" s="6"/>
@@ -22642,10 +22642,10 @@
       <c r="R326" s="7"/>
       <c r="S326" s="6"/>
       <c r="T326" s="7"/>
-      <c r="U326" s="6"/>
-      <c r="V326" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U326" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V326" s="7"/>
       <c r="W326" s="6"/>
       <c r="X326" s="7"/>
       <c r="Y326" s="6"/>
@@ -22700,10 +22700,10 @@
       <c r="R327" s="7"/>
       <c r="S327" s="6"/>
       <c r="T327" s="7"/>
-      <c r="U327" s="6"/>
-      <c r="V327" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U327" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V327" s="7"/>
       <c r="W327" s="6"/>
       <c r="X327" s="7"/>
       <c r="Y327" s="6"/>
@@ -22758,10 +22758,10 @@
       <c r="R328" s="7"/>
       <c r="S328" s="6"/>
       <c r="T328" s="7"/>
-      <c r="U328" s="6"/>
-      <c r="V328" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U328" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V328" s="7"/>
       <c r="W328" s="6"/>
       <c r="X328" s="7"/>
       <c r="Y328" s="6"/>
@@ -22816,10 +22816,10 @@
       <c r="R329" s="7"/>
       <c r="S329" s="6"/>
       <c r="T329" s="7"/>
-      <c r="U329" s="6"/>
-      <c r="V329" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U329" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V329" s="7"/>
       <c r="W329" s="6"/>
       <c r="X329" s="7"/>
       <c r="Y329" s="6"/>
@@ -22874,10 +22874,10 @@
       <c r="R330" s="7"/>
       <c r="S330" s="6"/>
       <c r="T330" s="7"/>
-      <c r="U330" s="6"/>
-      <c r="V330" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="U330" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="V330" s="7"/>
       <c r="W330" s="6"/>
       <c r="X330" s="7"/>
       <c r="Y330" s="6"/>
@@ -22925,16 +22925,16 @@
       </c>
       <c r="N331" s="3"/>
       <c r="O331" s="2"/>
-      <c r="P331" s="3"/>
+      <c r="P331" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Q331" s="2"/>
       <c r="R331" s="3"/>
       <c r="S331" s="2"/>
       <c r="T331" s="3"/>
       <c r="U331" s="2"/>
       <c r="V331" s="3"/>
-      <c r="W331" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="W331" s="2"/>
       <c r="X331" s="3"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
@@ -22983,20 +22983,20 @@
       </c>
       <c r="N332" s="3"/>
       <c r="O332" s="2"/>
-      <c r="P332" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q332" s="2"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R332" s="3"/>
-      <c r="S332" s="9" t="s">
-        <v>607</v>
-      </c>
+      <c r="S332" s="2"/>
       <c r="T332" s="3"/>
       <c r="U332" s="2"/>
       <c r="V332" s="3"/>
       <c r="W332" s="2"/>
       <c r="X332" s="3"/>
-      <c r="Y332" s="2"/>
+      <c r="Y332" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="Z332" s="2"/>
       <c r="AA332" s="2" t="s">
         <v>162</v>
@@ -23043,20 +23043,20 @@
       </c>
       <c r="N333" s="3"/>
       <c r="O333" s="2"/>
-      <c r="P333" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q333" s="2"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="R333" s="3"/>
-      <c r="S333" s="9" t="s">
-        <v>607</v>
-      </c>
+      <c r="S333" s="2"/>
       <c r="T333" s="3"/>
       <c r="U333" s="2"/>
       <c r="V333" s="3"/>
       <c r="W333" s="2"/>
       <c r="X333" s="3"/>
-      <c r="Y333" s="2"/>
+      <c r="Y333" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="Z333" s="2"/>
       <c r="AA333" s="2" t="s">
         <v>162</v>
